--- a/dataland-framework-toolbox/inputs/eu-taxonomy-financials/eu-taxonomy-financials.xlsx
+++ b/dataland-framework-toolbox/inputs/eu-taxonomy-financials/eu-taxonomy-financials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d93401\Projects\Dataland\dataland-framework-toolbox\inputs\eu-taxonomy-financials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d93476\Dataland\dataland-framework-toolbox\inputs\eu-taxonomy-financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159681AA-4557-46FB-B76D-B1803E2503B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D1DB97-0286-43AF-A917-68FA6D547DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="203">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -2116,22 +2116,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E158" sqref="E158"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="20.26953125" customWidth="1"/>
-    <col min="4" max="4" width="95.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="78.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="14.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="4" max="4" width="95.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="78.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="14.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="38">
         <v>0</v>
       </c>
@@ -2188,14 +2188,12 @@
       </c>
       <c r="G2" s="42"/>
       <c r="H2" s="43"/>
-      <c r="I2" s="44" t="s">
-        <v>26</v>
-      </c>
+      <c r="I2" s="44"/>
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
       <c r="L2" s="44"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="38">
         <v>1</v>
       </c>
@@ -2223,7 +2221,7 @@
       <c r="K3" s="44"/>
       <c r="L3" s="44"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="38">
         <v>2</v>
       </c>
@@ -2251,7 +2249,7 @@
       <c r="K4" s="43"/>
       <c r="L4" s="44"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="38">
         <v>3</v>
       </c>
@@ -2277,7 +2275,7 @@
       <c r="K5" s="44"/>
       <c r="L5" s="44"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="38">
         <v>4</v>
       </c>
@@ -2305,7 +2303,7 @@
       <c r="K6" s="44"/>
       <c r="L6" s="44"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="38">
         <v>5</v>
       </c>
@@ -2333,7 +2331,7 @@
       <c r="K7" s="44"/>
       <c r="L7" s="44"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="38">
         <v>6</v>
       </c>
@@ -2359,7 +2357,7 @@
       <c r="K8" s="44"/>
       <c r="L8" s="44"/>
     </row>
-    <row r="9" spans="1:12" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="50">
         <v>7</v>
       </c>
@@ -2385,7 +2383,7 @@
       <c r="K9" s="55"/>
       <c r="L9" s="56"/>
     </row>
-    <row r="10" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="57">
         <v>8</v>
       </c>
@@ -2413,7 +2411,7 @@
       <c r="K10" s="44"/>
       <c r="L10" s="107"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="57">
         <v>9</v>
       </c>
@@ -2441,7 +2439,7 @@
       <c r="K11" s="44"/>
       <c r="L11" s="44"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="57">
         <v>10</v>
       </c>
@@ -2469,7 +2467,7 @@
       <c r="K12" s="44"/>
       <c r="L12" s="44"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="57">
         <v>11</v>
       </c>
@@ -2497,7 +2495,7 @@
       <c r="K13" s="44"/>
       <c r="L13" s="44"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="57">
         <v>12</v>
       </c>
@@ -2525,7 +2523,7 @@
       <c r="K14" s="44"/>
       <c r="L14" s="44"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="57">
         <v>13</v>
       </c>
@@ -2553,7 +2551,7 @@
       <c r="K15" s="44"/>
       <c r="L15" s="44"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="57">
         <v>14</v>
       </c>
@@ -2581,7 +2579,7 @@
       <c r="K16" s="44"/>
       <c r="L16" s="44"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="57">
         <v>15</v>
       </c>
@@ -2609,7 +2607,7 @@
       <c r="K17" s="44"/>
       <c r="L17" s="44"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="57">
         <v>16</v>
       </c>
@@ -2637,7 +2635,7 @@
       <c r="K18" s="44"/>
       <c r="L18" s="44"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="57">
         <v>17</v>
       </c>
@@ -2665,7 +2663,7 @@
       <c r="K19" s="44"/>
       <c r="L19" s="44"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="57">
         <v>18</v>
       </c>
@@ -2693,7 +2691,7 @@
       <c r="K20" s="44"/>
       <c r="L20" s="44"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="57">
         <v>19</v>
       </c>
@@ -2721,7 +2719,7 @@
       <c r="K21" s="44"/>
       <c r="L21" s="44"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="57">
         <v>20</v>
       </c>
@@ -2749,7 +2747,7 @@
       <c r="K22" s="44"/>
       <c r="L22" s="44"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="57">
         <v>21</v>
       </c>
@@ -2777,7 +2775,7 @@
       <c r="K23" s="44"/>
       <c r="L23" s="44"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="57">
         <v>22</v>
       </c>
@@ -2805,7 +2803,7 @@
       <c r="K24" s="44"/>
       <c r="L24" s="44"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="57">
         <v>23</v>
       </c>
@@ -2833,7 +2831,7 @@
       <c r="K25" s="44"/>
       <c r="L25" s="44"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="57">
         <v>24</v>
       </c>
@@ -2861,7 +2859,7 @@
       <c r="K26" s="44"/>
       <c r="L26" s="44"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="57">
         <v>25</v>
       </c>
@@ -2889,7 +2887,7 @@
       <c r="K27" s="44"/>
       <c r="L27" s="44"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="57">
         <v>26</v>
       </c>
@@ -2917,7 +2915,7 @@
       <c r="K28" s="44"/>
       <c r="L28" s="44"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="57">
         <v>27</v>
       </c>
@@ -2945,7 +2943,7 @@
       <c r="K29" s="44"/>
       <c r="L29" s="44"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="57">
         <v>28</v>
       </c>
@@ -2973,7 +2971,7 @@
       <c r="K30" s="44"/>
       <c r="L30" s="44"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="57">
         <v>29</v>
       </c>
@@ -3001,7 +2999,7 @@
       <c r="K31" s="44"/>
       <c r="L31" s="44"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="57">
         <v>30</v>
       </c>
@@ -3029,7 +3027,7 @@
       <c r="K32" s="44"/>
       <c r="L32" s="44"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="57">
         <v>31</v>
       </c>
@@ -3057,7 +3055,7 @@
       <c r="K33" s="44"/>
       <c r="L33" s="44"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="57">
         <v>32</v>
       </c>
@@ -3085,7 +3083,7 @@
       <c r="K34" s="44"/>
       <c r="L34" s="44"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="57">
         <v>33</v>
       </c>
@@ -3113,7 +3111,7 @@
       <c r="K35" s="44"/>
       <c r="L35" s="44"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="57">
         <v>34</v>
       </c>
@@ -3141,7 +3139,7 @@
       <c r="K36" s="44"/>
       <c r="L36" s="44"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="57">
         <v>35</v>
       </c>
@@ -3169,7 +3167,7 @@
       <c r="K37" s="44"/>
       <c r="L37" s="44"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="68">
         <v>36</v>
       </c>
@@ -3197,7 +3195,7 @@
       <c r="K38" s="109"/>
       <c r="L38" s="109"/>
     </row>
-    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="129">
         <v>37</v>
       </c>
@@ -3225,7 +3223,7 @@
       <c r="K39" s="111"/>
       <c r="L39" s="111"/>
     </row>
-    <row r="40" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A40" s="57">
         <v>38</v>
       </c>
@@ -3253,7 +3251,7 @@
       <c r="K40" s="44"/>
       <c r="L40" s="44"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="57">
         <v>39</v>
       </c>
@@ -3281,7 +3279,7 @@
       <c r="K41" s="44"/>
       <c r="L41" s="44"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="57">
         <v>40</v>
       </c>
@@ -3309,7 +3307,7 @@
       <c r="K42" s="44"/>
       <c r="L42" s="44"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="57">
         <v>41</v>
       </c>
@@ -3337,7 +3335,7 @@
       <c r="K43" s="44"/>
       <c r="L43" s="44"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="57">
         <v>42</v>
       </c>
@@ -3365,7 +3363,7 @@
       <c r="K44" s="44"/>
       <c r="L44" s="44"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="57">
         <v>43</v>
       </c>
@@ -3393,7 +3391,7 @@
       <c r="K45" s="44"/>
       <c r="L45" s="44"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="57">
         <v>44</v>
       </c>
@@ -3421,7 +3419,7 @@
       <c r="K46" s="44"/>
       <c r="L46" s="44"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="57">
         <v>45</v>
       </c>
@@ -3449,7 +3447,7 @@
       <c r="K47" s="44"/>
       <c r="L47" s="44"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="57">
         <v>46</v>
       </c>
@@ -3477,7 +3475,7 @@
       <c r="K48" s="44"/>
       <c r="L48" s="44"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="57">
         <v>47</v>
       </c>
@@ -3505,7 +3503,7 @@
       <c r="K49" s="44"/>
       <c r="L49" s="44"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="57">
         <v>48</v>
       </c>
@@ -3533,7 +3531,7 @@
       <c r="K50" s="44"/>
       <c r="L50" s="44"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="57">
         <v>49</v>
       </c>
@@ -3561,7 +3559,7 @@
       <c r="K51" s="44"/>
       <c r="L51" s="44"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="57">
         <v>50</v>
       </c>
@@ -3589,7 +3587,7 @@
       <c r="K52" s="44"/>
       <c r="L52" s="44"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="57">
         <v>51</v>
       </c>
@@ -3617,7 +3615,7 @@
       <c r="K53" s="44"/>
       <c r="L53" s="44"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="57">
         <v>52</v>
       </c>
@@ -3645,7 +3643,7 @@
       <c r="K54" s="44"/>
       <c r="L54" s="44"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="57">
         <v>53</v>
       </c>
@@ -3673,7 +3671,7 @@
       <c r="K55" s="44"/>
       <c r="L55" s="44"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="57">
         <v>54</v>
       </c>
@@ -3701,7 +3699,7 @@
       <c r="K56" s="44"/>
       <c r="L56" s="44"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="57">
         <v>55</v>
       </c>
@@ -3729,7 +3727,7 @@
       <c r="K57" s="44"/>
       <c r="L57" s="44"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="57">
         <v>56</v>
       </c>
@@ -3757,7 +3755,7 @@
       <c r="K58" s="44"/>
       <c r="L58" s="44"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="57">
         <v>57</v>
       </c>
@@ -3785,7 +3783,7 @@
       <c r="K59" s="44"/>
       <c r="L59" s="44"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="57">
         <v>58</v>
       </c>
@@ -3813,7 +3811,7 @@
       <c r="K60" s="44"/>
       <c r="L60" s="44"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="57">
         <v>59</v>
       </c>
@@ -3841,7 +3839,7 @@
       <c r="K61" s="44"/>
       <c r="L61" s="44"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="57">
         <v>60</v>
       </c>
@@ -3869,7 +3867,7 @@
       <c r="K62" s="44"/>
       <c r="L62" s="44"/>
     </row>
-    <row r="63" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="57">
         <v>61</v>
       </c>
@@ -3897,7 +3895,7 @@
       <c r="K63" s="44"/>
       <c r="L63" s="44"/>
     </row>
-    <row r="64" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="57">
         <v>62</v>
       </c>
@@ -3925,7 +3923,7 @@
       <c r="K64" s="44"/>
       <c r="L64" s="44"/>
     </row>
-    <row r="65" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="57">
         <v>63</v>
       </c>
@@ -3953,7 +3951,7 @@
       <c r="K65" s="44"/>
       <c r="L65" s="44"/>
     </row>
-    <row r="66" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="77">
         <v>64</v>
       </c>
@@ -3981,7 +3979,7 @@
       <c r="K66" s="55"/>
       <c r="L66" s="55"/>
     </row>
-    <row r="67" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="81">
         <v>65</v>
       </c>
@@ -4009,7 +4007,7 @@
       <c r="K67" s="44"/>
       <c r="L67" s="44"/>
     </row>
-    <row r="68" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="81">
         <v>66</v>
       </c>
@@ -4037,7 +4035,7 @@
       <c r="K68" s="44"/>
       <c r="L68" s="44"/>
     </row>
-    <row r="69" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="81">
         <v>67</v>
       </c>
@@ -4065,7 +4063,7 @@
       <c r="K69" s="44"/>
       <c r="L69" s="44"/>
     </row>
-    <row r="70" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="81">
         <v>68</v>
       </c>
@@ -4093,7 +4091,7 @@
       <c r="K70" s="44"/>
       <c r="L70" s="44"/>
     </row>
-    <row r="71" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="81">
         <v>69</v>
       </c>
@@ -4121,7 +4119,7 @@
       <c r="K71" s="44"/>
       <c r="L71" s="44"/>
     </row>
-    <row r="72" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="81">
         <v>70</v>
       </c>
@@ -4149,7 +4147,7 @@
       <c r="K72" s="44"/>
       <c r="L72" s="44"/>
     </row>
-    <row r="73" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="81">
         <v>71</v>
       </c>
@@ -4177,7 +4175,7 @@
       <c r="K73" s="44"/>
       <c r="L73" s="44"/>
     </row>
-    <row r="74" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="81">
         <v>72</v>
       </c>
@@ -4205,7 +4203,7 @@
       <c r="K74" s="44"/>
       <c r="L74" s="44"/>
     </row>
-    <row r="75" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="81">
         <v>73</v>
       </c>
@@ -4233,7 +4231,7 @@
       <c r="K75" s="44"/>
       <c r="L75" s="44"/>
     </row>
-    <row r="76" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="81">
         <v>74</v>
       </c>
@@ -4261,7 +4259,7 @@
       <c r="K76" s="44"/>
       <c r="L76" s="44"/>
     </row>
-    <row r="77" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="81">
         <v>75</v>
       </c>
@@ -4289,7 +4287,7 @@
       <c r="K77" s="44"/>
       <c r="L77" s="44"/>
     </row>
-    <row r="78" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="81">
         <v>76</v>
       </c>
@@ -4317,7 +4315,7 @@
       <c r="K78" s="44"/>
       <c r="L78" s="44"/>
     </row>
-    <row r="79" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="81">
         <v>77</v>
       </c>
@@ -4345,7 +4343,7 @@
       <c r="K79" s="109"/>
       <c r="L79" s="109"/>
     </row>
-    <row r="80" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:12" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="83">
         <v>78</v>
       </c>
@@ -4373,7 +4371,7 @@
       <c r="K80" s="114"/>
       <c r="L80" s="115"/>
     </row>
-    <row r="81" spans="1:12" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" ht="14.55" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A81" s="87">
         <v>79</v>
       </c>
@@ -4401,7 +4399,7 @@
       <c r="K81" s="116"/>
       <c r="L81" s="116"/>
     </row>
-    <row r="82" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="87">
         <v>80</v>
       </c>
@@ -4429,7 +4427,7 @@
       <c r="K82" s="117"/>
       <c r="L82" s="117"/>
     </row>
-    <row r="83" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="87">
         <v>81</v>
       </c>
@@ -4457,7 +4455,7 @@
       <c r="K83" s="117"/>
       <c r="L83" s="117"/>
     </row>
-    <row r="84" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="87">
         <v>82</v>
       </c>
@@ -4485,7 +4483,7 @@
       <c r="K84" s="117"/>
       <c r="L84" s="117"/>
     </row>
-    <row r="85" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="87">
         <v>83</v>
       </c>
@@ -4513,7 +4511,7 @@
       <c r="K85" s="117"/>
       <c r="L85" s="117"/>
     </row>
-    <row r="86" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="87">
         <v>84</v>
       </c>
@@ -4541,7 +4539,7 @@
       <c r="K86" s="117"/>
       <c r="L86" s="117"/>
     </row>
-    <row r="87" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="87">
         <v>85</v>
       </c>
@@ -4569,7 +4567,7 @@
       <c r="K87" s="117"/>
       <c r="L87" s="117"/>
     </row>
-    <row r="88" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="87">
         <v>86</v>
       </c>
@@ -4597,7 +4595,7 @@
       <c r="K88" s="117"/>
       <c r="L88" s="117"/>
     </row>
-    <row r="89" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="87">
         <v>87</v>
       </c>
@@ -4625,7 +4623,7 @@
       <c r="K89" s="117"/>
       <c r="L89" s="117"/>
     </row>
-    <row r="90" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="87">
         <v>88</v>
       </c>
@@ -4653,7 +4651,7 @@
       <c r="K90" s="117"/>
       <c r="L90" s="117"/>
     </row>
-    <row r="91" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="87">
         <v>89</v>
       </c>
@@ -4681,7 +4679,7 @@
       <c r="K91" s="117"/>
       <c r="L91" s="117"/>
     </row>
-    <row r="92" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="87">
         <v>90</v>
       </c>
@@ -4709,7 +4707,7 @@
       <c r="K92" s="117"/>
       <c r="L92" s="117"/>
     </row>
-    <row r="93" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="87">
         <v>91</v>
       </c>
@@ -4737,7 +4735,7 @@
       <c r="K93" s="117"/>
       <c r="L93" s="117"/>
     </row>
-    <row r="94" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:12" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="93">
         <v>92</v>
       </c>
@@ -4765,7 +4763,7 @@
       <c r="K94" s="118"/>
       <c r="L94" s="118"/>
     </row>
-    <row r="95" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="97">
         <v>93</v>
       </c>
@@ -4793,7 +4791,7 @@
       <c r="K95" s="119"/>
       <c r="L95" s="119"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="97">
         <v>94</v>
       </c>
@@ -4821,7 +4819,7 @@
       <c r="K96" s="120"/>
       <c r="L96" s="120"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="97">
         <v>95</v>
       </c>
@@ -4849,7 +4847,7 @@
       <c r="K97" s="120"/>
       <c r="L97" s="120"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="97">
         <v>96</v>
       </c>
@@ -4877,7 +4875,7 @@
       <c r="K98" s="120"/>
       <c r="L98" s="120"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="97">
         <v>97</v>
       </c>
@@ -4905,7 +4903,7 @@
       <c r="K99" s="120"/>
       <c r="L99" s="120"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="97">
         <v>98</v>
       </c>
@@ -4933,7 +4931,7 @@
       <c r="K100" s="120"/>
       <c r="L100" s="120"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="97">
         <v>99</v>
       </c>
@@ -4961,7 +4959,7 @@
       <c r="K101" s="120"/>
       <c r="L101" s="120"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="97">
         <v>100</v>
       </c>
@@ -4989,7 +4987,7 @@
       <c r="K102" s="120"/>
       <c r="L102" s="120"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="97">
         <v>101</v>
       </c>
@@ -5017,7 +5015,7 @@
       <c r="K103" s="120"/>
       <c r="L103" s="120"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="97">
         <v>102</v>
       </c>
@@ -5045,7 +5043,7 @@
       <c r="K104" s="120"/>
       <c r="L104" s="120"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="97">
         <v>103</v>
       </c>
@@ -5073,7 +5071,7 @@
       <c r="K105" s="120"/>
       <c r="L105" s="120"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="97">
         <v>104</v>
       </c>
@@ -5101,7 +5099,7 @@
       <c r="K106" s="120"/>
       <c r="L106" s="120"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="97">
         <v>105</v>
       </c>
@@ -5129,7 +5127,7 @@
       <c r="K107" s="120"/>
       <c r="L107" s="120"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="97">
         <v>106</v>
       </c>
@@ -5157,7 +5155,7 @@
       <c r="K108" s="120"/>
       <c r="L108" s="120"/>
     </row>
-    <row r="109" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="100">
         <v>107</v>
       </c>
@@ -5185,7 +5183,7 @@
       <c r="K109" s="121"/>
       <c r="L109" s="121"/>
     </row>
-    <row r="110" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A110" s="97">
         <v>108</v>
       </c>
@@ -5213,7 +5211,7 @@
       <c r="K110" s="119"/>
       <c r="L110" s="119"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="97">
         <v>109</v>
       </c>
@@ -5241,7 +5239,7 @@
       <c r="K111" s="120"/>
       <c r="L111" s="120"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="97">
         <v>110</v>
       </c>
@@ -5269,7 +5267,7 @@
       <c r="K112" s="120"/>
       <c r="L112" s="120"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="97">
         <v>111</v>
       </c>
@@ -5297,7 +5295,7 @@
       <c r="K113" s="120"/>
       <c r="L113" s="120"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="97">
         <v>112</v>
       </c>
@@ -5325,7 +5323,7 @@
       <c r="K114" s="120"/>
       <c r="L114" s="120"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="97">
         <v>113</v>
       </c>
@@ -5353,7 +5351,7 @@
       <c r="K115" s="120"/>
       <c r="L115" s="120"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="97">
         <v>114</v>
       </c>
@@ -5381,7 +5379,7 @@
       <c r="K116" s="120"/>
       <c r="L116" s="120"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="97">
         <v>115</v>
       </c>
@@ -5409,7 +5407,7 @@
       <c r="K117" s="120"/>
       <c r="L117" s="120"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="97">
         <v>116</v>
       </c>
@@ -5437,7 +5435,7 @@
       <c r="K118" s="120"/>
       <c r="L118" s="120"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="97">
         <v>117</v>
       </c>
@@ -5465,7 +5463,7 @@
       <c r="K119" s="120"/>
       <c r="L119" s="120"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="97">
         <v>118</v>
       </c>
@@ -5493,7 +5491,7 @@
       <c r="K120" s="120"/>
       <c r="L120" s="120"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="97">
         <v>119</v>
       </c>
@@ -5521,7 +5519,7 @@
       <c r="K121" s="120"/>
       <c r="L121" s="120"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="97">
         <v>120</v>
       </c>
@@ -5549,7 +5547,7 @@
       <c r="K122" s="120"/>
       <c r="L122" s="120"/>
     </row>
-    <row r="123" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="102">
         <v>121</v>
       </c>
@@ -5577,7 +5575,7 @@
       <c r="K123" s="122"/>
       <c r="L123" s="122"/>
     </row>
-    <row r="124" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="134">
         <v>122</v>
       </c>
@@ -5605,7 +5603,7 @@
       <c r="K124" s="123"/>
       <c r="L124" s="123"/>
     </row>
-    <row r="125" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="134">
         <v>123</v>
       </c>
@@ -5633,7 +5631,7 @@
       <c r="K125" s="123"/>
       <c r="L125" s="123"/>
     </row>
-    <row r="126" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="134">
         <v>124</v>
       </c>
@@ -5661,7 +5659,7 @@
       <c r="K126" s="123"/>
       <c r="L126" s="123"/>
     </row>
-    <row r="127" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="134">
         <v>125</v>
       </c>
@@ -5689,7 +5687,7 @@
       <c r="K127" s="123"/>
       <c r="L127" s="123"/>
     </row>
-    <row r="128" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="134">
         <v>126</v>
       </c>
@@ -5717,7 +5715,7 @@
       <c r="K128" s="123"/>
       <c r="L128" s="123"/>
     </row>
-    <row r="129" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="134">
         <v>127</v>
       </c>
@@ -5745,7 +5743,7 @@
       <c r="K129" s="123"/>
       <c r="L129" s="123"/>
     </row>
-    <row r="130" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="134">
         <v>128</v>
       </c>
@@ -5773,7 +5771,7 @@
       <c r="K130" s="123"/>
       <c r="L130" s="123"/>
     </row>
-    <row r="131" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="134">
         <v>129</v>
       </c>
@@ -5801,7 +5799,7 @@
       <c r="K131" s="123"/>
       <c r="L131" s="123"/>
     </row>
-    <row r="132" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="134">
         <v>130</v>
       </c>
@@ -5829,7 +5827,7 @@
       <c r="K132" s="123"/>
       <c r="L132" s="123"/>
     </row>
-    <row r="133" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="134">
         <v>131</v>
       </c>
@@ -5857,7 +5855,7 @@
       <c r="K133" s="123"/>
       <c r="L133" s="123"/>
     </row>
-    <row r="134" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="134">
         <v>132</v>
       </c>
@@ -5885,7 +5883,7 @@
       <c r="K134" s="123"/>
       <c r="L134" s="123"/>
     </row>
-    <row r="135" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="134">
         <v>133</v>
       </c>
@@ -5913,7 +5911,7 @@
       <c r="K135" s="123"/>
       <c r="L135" s="123"/>
     </row>
-    <row r="136" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="134">
         <v>134</v>
       </c>
@@ -5941,7 +5939,7 @@
       <c r="K136" s="123"/>
       <c r="L136" s="123"/>
     </row>
-    <row r="137" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="134">
         <v>135</v>
       </c>
@@ -5969,7 +5967,7 @@
       <c r="K137" s="123"/>
       <c r="L137" s="123"/>
     </row>
-    <row r="138" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="134">
         <v>136</v>
       </c>
@@ -5997,7 +5995,7 @@
       <c r="K138" s="123"/>
       <c r="L138" s="123"/>
     </row>
-    <row r="139" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="134">
         <v>137</v>
       </c>
@@ -6025,7 +6023,7 @@
       <c r="K139" s="123"/>
       <c r="L139" s="123"/>
     </row>
-    <row r="140" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="134">
         <v>138</v>
       </c>
@@ -6053,7 +6051,7 @@
       <c r="K140" s="123"/>
       <c r="L140" s="123"/>
     </row>
-    <row r="141" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="134">
         <v>139</v>
       </c>
@@ -6081,7 +6079,7 @@
       <c r="K141" s="123"/>
       <c r="L141" s="123"/>
     </row>
-    <row r="142" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="134">
         <v>140</v>
       </c>
@@ -6109,7 +6107,7 @@
       <c r="K142" s="123"/>
       <c r="L142" s="123"/>
     </row>
-    <row r="143" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="134">
         <v>141</v>
       </c>
@@ -6137,7 +6135,7 @@
       <c r="K143" s="123"/>
       <c r="L143" s="123"/>
     </row>
-    <row r="144" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="134">
         <v>142</v>
       </c>
@@ -6165,7 +6163,7 @@
       <c r="K144" s="123"/>
       <c r="L144" s="123"/>
     </row>
-    <row r="145" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="134">
         <v>143</v>
       </c>
@@ -6193,7 +6191,7 @@
       <c r="K145" s="123"/>
       <c r="L145" s="123"/>
     </row>
-    <row r="146" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="134">
         <v>144</v>
       </c>
@@ -6221,7 +6219,7 @@
       <c r="K146" s="123"/>
       <c r="L146" s="123"/>
     </row>
-    <row r="147" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="134">
         <v>145</v>
       </c>
@@ -6249,7 +6247,7 @@
       <c r="K147" s="123"/>
       <c r="L147" s="123"/>
     </row>
-    <row r="148" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:12" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="135">
         <v>146</v>
       </c>
@@ -6277,7 +6275,7 @@
       <c r="K148" s="126"/>
       <c r="L148" s="126"/>
     </row>
-    <row r="149" spans="1:12" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" ht="14.55" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A149" s="134">
         <v>147</v>
       </c>
@@ -6305,7 +6303,7 @@
       <c r="K149" s="123"/>
       <c r="L149" s="123"/>
     </row>
-    <row r="150" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="134">
         <v>148</v>
       </c>
@@ -6333,7 +6331,7 @@
       <c r="K150" s="123"/>
       <c r="L150" s="123"/>
     </row>
-    <row r="151" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="134">
         <v>149</v>
       </c>
@@ -6361,7 +6359,7 @@
       <c r="K151" s="123"/>
       <c r="L151" s="123"/>
     </row>
-    <row r="152" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="134">
         <v>150</v>
       </c>
@@ -6389,7 +6387,7 @@
       <c r="K152" s="123"/>
       <c r="L152" s="123"/>
     </row>
-    <row r="153" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="134">
         <v>151</v>
       </c>
@@ -6417,7 +6415,7 @@
       <c r="K153" s="123"/>
       <c r="L153" s="123"/>
     </row>
-    <row r="154" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="134">
         <v>152</v>
       </c>
@@ -6445,7 +6443,7 @@
       <c r="K154" s="123"/>
       <c r="L154" s="123"/>
     </row>
-    <row r="155" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="134">
         <v>153</v>
       </c>
@@ -6473,7 +6471,7 @@
       <c r="K155" s="123"/>
       <c r="L155" s="123"/>
     </row>
-    <row r="156" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="134">
         <v>154</v>
       </c>
@@ -6501,7 +6499,7 @@
       <c r="K156" s="123"/>
       <c r="L156" s="123"/>
     </row>
-    <row r="157" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="134">
         <v>155</v>
       </c>
@@ -6529,7 +6527,7 @@
       <c r="K157" s="123"/>
       <c r="L157" s="123"/>
     </row>
-    <row r="158" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="134">
         <v>156</v>
       </c>
@@ -6557,7 +6555,7 @@
       <c r="K158" s="123"/>
       <c r="L158" s="123"/>
     </row>
-    <row r="159" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="134">
         <v>157</v>
       </c>
@@ -6585,7 +6583,7 @@
       <c r="K159" s="123"/>
       <c r="L159" s="123"/>
     </row>
-    <row r="160" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="134">
         <v>158</v>
       </c>
@@ -6613,7 +6611,7 @@
       <c r="K160" s="123"/>
       <c r="L160" s="123"/>
     </row>
-    <row r="161" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="134">
         <v>159</v>
       </c>
@@ -6641,7 +6639,7 @@
       <c r="K161" s="123"/>
       <c r="L161" s="123"/>
     </row>
-    <row r="162" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="134">
         <v>160</v>
       </c>
@@ -6669,7 +6667,7 @@
       <c r="K162" s="123"/>
       <c r="L162" s="123"/>
     </row>
-    <row r="163" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="134">
         <v>161</v>
       </c>
@@ -6697,7 +6695,7 @@
       <c r="K163" s="123"/>
       <c r="L163" s="123"/>
     </row>
-    <row r="164" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="134">
         <v>162</v>
       </c>
@@ -6725,7 +6723,7 @@
       <c r="K164" s="123"/>
       <c r="L164" s="123"/>
     </row>
-    <row r="165" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="134">
         <v>163</v>
       </c>
@@ -6753,7 +6751,7 @@
       <c r="K165" s="123"/>
       <c r="L165" s="123"/>
     </row>
-    <row r="166" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="134">
         <v>164</v>
       </c>
@@ -6781,7 +6779,7 @@
       <c r="K166" s="123"/>
       <c r="L166" s="123"/>
     </row>
-    <row r="167" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="134">
         <v>165</v>
       </c>
@@ -6809,7 +6807,7 @@
       <c r="K167" s="123"/>
       <c r="L167" s="123"/>
     </row>
-    <row r="168" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="134">
         <v>166</v>
       </c>
@@ -6837,7 +6835,7 @@
       <c r="K168" s="123"/>
       <c r="L168" s="123"/>
     </row>
-    <row r="169" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="134">
         <v>167</v>
       </c>
@@ -6865,7 +6863,7 @@
       <c r="K169" s="123"/>
       <c r="L169" s="123"/>
     </row>
-    <row r="170" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="134">
         <v>168</v>
       </c>
@@ -6893,7 +6891,7 @@
       <c r="K170" s="123"/>
       <c r="L170" s="123"/>
     </row>
-    <row r="171" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="134">
         <v>169</v>
       </c>
@@ -6921,7 +6919,7 @@
       <c r="K171" s="123"/>
       <c r="L171" s="123"/>
     </row>
-    <row r="172" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="134">
         <v>170</v>
       </c>
@@ -6949,7 +6947,7 @@
       <c r="K172" s="123"/>
       <c r="L172" s="123"/>
     </row>
-    <row r="173" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:12" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="136">
         <v>171</v>
       </c>
@@ -6977,7 +6975,7 @@
       <c r="K173" s="127"/>
       <c r="L173" s="127"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="13"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -6991,7 +6989,7 @@
       <c r="K174" s="4"/>
       <c r="L174" s="4"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="13"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -7005,7 +7003,7 @@
       <c r="K175" s="4"/>
       <c r="L175" s="4"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="13"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -7019,7 +7017,7 @@
       <c r="K176" s="4"/>
       <c r="L176" s="4"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="13"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -7033,7 +7031,7 @@
       <c r="K177" s="4"/>
       <c r="L177" s="4"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="13"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>

--- a/dataland-framework-toolbox/inputs/eu-taxonomy-financials/eu-taxonomy-financials.xlsx
+++ b/dataland-framework-toolbox/inputs/eu-taxonomy-financials/eu-taxonomy-financials.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d93476\Dataland\dataland-framework-toolbox\inputs\eu-taxonomy-financials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92432\Documents\Projekte\02-Dataland\Dataland\dataland-framework-toolbox\inputs\eu-taxonomy-financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D1DB97-0286-43AF-A917-68FA6D547DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8DE5BD-6041-4388-911F-B745FBF6DABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Framework Data Model'!$A$1:$L$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Framework Data Model'!$A$1:$L$102</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
     <definedName name="IQ_CY">10000</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="203">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -178,9 +178,6 @@
     <t>Total CapEx-based Green Asset Ratio</t>
   </si>
   <si>
-    <t>Reporting Period</t>
-  </si>
-  <si>
     <t>Scope of Entities</t>
   </si>
   <si>
@@ -284,9 +281,6 @@
   </si>
   <si>
     <t>Total assets invested / revenue from investment and services in Percent - Transitional</t>
-  </si>
-  <si>
-    <t>The Reporting Period the Dataset belongs to (e.g. Fiscal Year).</t>
   </si>
   <si>
     <t>Total Number of Employees (including temporary workers with assignment duration longer than 6 months)</t>
@@ -736,6 +730,12 @@
   <si>
     <t>Investment firms dealing on own account: total assets invested under investment firms' activities dealing on own account (as per Section A of Annex I to Directive 2014/65/EU) of which transitional
 Investment firms not dealing on own account: revenue (i.e. fees, commissions and other monetary benefits) from investment and services and activities other than on own account (as per Section A of Annex I to Directive 2014/65/EU) of which transitional</t>
+  </si>
+  <si>
+    <t>Trading and Loans</t>
+  </si>
+  <si>
+    <t>Activities</t>
   </si>
 </sst>
 </file>
@@ -2114,24 +2114,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L178"/>
+  <dimension ref="A1:L177"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" customWidth="1"/>
-    <col min="4" max="4" width="95.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="78.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="14.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="20.26953125" customWidth="1"/>
+    <col min="4" max="4" width="95.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="78.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="14.26953125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
@@ -2169,128 +2169,142 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="39"/>
+      <c r="C2" s="39" t="s">
+        <v>12</v>
+      </c>
       <c r="D2" s="40" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="42"/>
+        <v>17</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>29</v>
+      </c>
       <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
+      <c r="I2" s="44" t="s">
+        <v>26</v>
+      </c>
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
       <c r="L2" s="44"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="39" t="s">
+        <v>12</v>
+      </c>
       <c r="D3" s="40" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="43"/>
+        <v>19</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="44"/>
       <c r="I3" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
       <c r="L3" s="44"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="39"/>
+      <c r="C4" s="39" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" s="40" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="47" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="44"/>
-      <c r="I4" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
       <c r="L4" s="44"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="39"/>
+      <c r="C5" s="39" t="s">
+        <v>12</v>
+      </c>
       <c r="D5" s="40" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="48" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
+      <c r="I5" s="44" t="s">
+        <v>26</v>
+      </c>
       <c r="J5" s="44"/>
       <c r="K5" s="44"/>
       <c r="L5" s="44"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="39"/>
+      <c r="C6" s="39" t="s">
+        <v>12</v>
+      </c>
       <c r="D6" s="40" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>21</v>
+        <v>76</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>28</v>
       </c>
       <c r="G6" s="48" t="s">
         <v>14</v>
@@ -2303,26 +2317,26 @@
       <c r="K6" s="44"/>
       <c r="L6" s="44"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="39"/>
+      <c r="C7" s="39" t="s">
+        <v>12</v>
+      </c>
       <c r="D7" s="40" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>14</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="105"/>
       <c r="H7" s="44"/>
       <c r="I7" s="44" t="s">
         <v>26</v>
@@ -2331,101 +2345,105 @@
       <c r="K7" s="44"/>
       <c r="L7" s="44"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="38">
-        <v>6</v>
-      </c>
-      <c r="B8" s="39" t="s">
+    <row r="8" spans="1:12" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="50">
+        <v>7</v>
+      </c>
+      <c r="B8" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="105"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-    </row>
-    <row r="9" spans="1:12" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="50">
-        <v>7</v>
-      </c>
-      <c r="B9" s="51" t="s">
+      <c r="C8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52" t="s">
+      <c r="D8" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="53" t="s">
+      <c r="E8" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="54" t="s">
+      <c r="G8" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="56"/>
-    </row>
-    <row r="10" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="56"/>
+    </row>
+    <row r="9" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="57">
+        <v>8</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="106"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="107"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="57">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="58" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="106"/>
+        <v>201</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="105"/>
       <c r="H10" s="44"/>
       <c r="I10" s="44" t="s">
         <v>26</v>
       </c>
       <c r="J10" s="44"/>
       <c r="K10" s="44"/>
-      <c r="L10" s="107"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L10" s="44"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="58" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="63" t="s">
-        <v>81</v>
+        <v>201</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="66" t="s">
+        <v>80</v>
       </c>
       <c r="F11" s="64" t="s">
         <v>22</v>
@@ -2439,24 +2457,24 @@
       <c r="K11" s="44"/>
       <c r="L11" s="44"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="57">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="66" t="s">
-        <v>82</v>
+        <v>39</v>
+      </c>
+      <c r="E12" s="67" t="s">
+        <v>39</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G12" s="105"/>
       <c r="H12" s="44"/>
@@ -2467,24 +2485,24 @@
       <c r="K12" s="44"/>
       <c r="L12" s="44"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="57">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="64" t="s">
-        <v>28</v>
+      <c r="D13" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>22</v>
       </c>
       <c r="G13" s="105"/>
       <c r="H13" s="44"/>
@@ -2495,21 +2513,21 @@
       <c r="K13" s="44"/>
       <c r="L13" s="44"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="57">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="69" t="s">
-        <v>83</v>
+      <c r="D14" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="70" t="s">
+        <v>82</v>
       </c>
       <c r="F14" s="41" t="s">
         <v>22</v>
@@ -2523,9 +2541,9 @@
       <c r="K14" s="44"/>
       <c r="L14" s="44"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="57">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="58" t="s">
         <v>33</v>
@@ -2534,10 +2552,10 @@
         <v>34</v>
       </c>
       <c r="D15" s="70" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="E15" s="70" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="F15" s="41" t="s">
         <v>22</v>
@@ -2551,9 +2569,9 @@
       <c r="K15" s="44"/>
       <c r="L15" s="44"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="57">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="58" t="s">
         <v>33</v>
@@ -2562,10 +2580,10 @@
         <v>34</v>
       </c>
       <c r="D16" s="70" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="E16" s="70" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="F16" s="41" t="s">
         <v>22</v>
@@ -2579,9 +2597,9 @@
       <c r="K16" s="44"/>
       <c r="L16" s="44"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="57">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="58" t="s">
         <v>33</v>
@@ -2593,7 +2611,7 @@
         <v>45</v>
       </c>
       <c r="E17" s="70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F17" s="41" t="s">
         <v>22</v>
@@ -2607,9 +2625,9 @@
       <c r="K17" s="44"/>
       <c r="L17" s="44"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="57">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="58" t="s">
         <v>33</v>
@@ -2621,7 +2639,7 @@
         <v>46</v>
       </c>
       <c r="E18" s="70" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F18" s="41" t="s">
         <v>22</v>
@@ -2635,9 +2653,9 @@
       <c r="K18" s="44"/>
       <c r="L18" s="44"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="57">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="58" t="s">
         <v>33</v>
@@ -2649,7 +2667,7 @@
         <v>47</v>
       </c>
       <c r="E19" s="70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F19" s="41" t="s">
         <v>22</v>
@@ -2663,9 +2681,9 @@
       <c r="K19" s="44"/>
       <c r="L19" s="44"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="57">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="58" t="s">
         <v>33</v>
@@ -2674,10 +2692,10 @@
         <v>34</v>
       </c>
       <c r="D20" s="70" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F20" s="41" t="s">
         <v>22</v>
@@ -2691,9 +2709,9 @@
       <c r="K20" s="44"/>
       <c r="L20" s="44"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="57">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="58" t="s">
         <v>33</v>
@@ -2701,11 +2719,11 @@
       <c r="C21" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="70" t="s">
-        <v>106</v>
+      <c r="D21" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="71" t="s">
+        <v>91</v>
       </c>
       <c r="F21" s="41" t="s">
         <v>22</v>
@@ -2719,9 +2737,9 @@
       <c r="K21" s="44"/>
       <c r="L21" s="44"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="57">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="58" t="s">
         <v>33</v>
@@ -2733,7 +2751,7 @@
         <v>49</v>
       </c>
       <c r="E22" s="71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F22" s="41" t="s">
         <v>22</v>
@@ -2747,9 +2765,9 @@
       <c r="K22" s="44"/>
       <c r="L22" s="44"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="57">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="58" t="s">
         <v>33</v>
@@ -2761,7 +2779,7 @@
         <v>50</v>
       </c>
       <c r="E23" s="71" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F23" s="41" t="s">
         <v>22</v>
@@ -2775,9 +2793,9 @@
       <c r="K23" s="44"/>
       <c r="L23" s="44"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="57">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="58" t="s">
         <v>33</v>
@@ -2789,7 +2807,7 @@
         <v>51</v>
       </c>
       <c r="E24" s="71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F24" s="41" t="s">
         <v>22</v>
@@ -2803,9 +2821,9 @@
       <c r="K24" s="44"/>
       <c r="L24" s="44"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="57">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="58" t="s">
         <v>33</v>
@@ -2814,10 +2832,10 @@
         <v>34</v>
       </c>
       <c r="D25" s="71" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="E25" s="71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F25" s="41" t="s">
         <v>22</v>
@@ -2831,9 +2849,9 @@
       <c r="K25" s="44"/>
       <c r="L25" s="44"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="57">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="58" t="s">
         <v>33</v>
@@ -2842,10 +2860,10 @@
         <v>34</v>
       </c>
       <c r="D26" s="71" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="E26" s="71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F26" s="41" t="s">
         <v>22</v>
@@ -2859,9 +2877,9 @@
       <c r="K26" s="44"/>
       <c r="L26" s="44"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="57">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="58" t="s">
         <v>33</v>
@@ -2873,7 +2891,7 @@
         <v>53</v>
       </c>
       <c r="E27" s="71" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F27" s="41" t="s">
         <v>22</v>
@@ -2887,9 +2905,9 @@
       <c r="K27" s="44"/>
       <c r="L27" s="44"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="57">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="58" t="s">
         <v>33</v>
@@ -2901,7 +2919,7 @@
         <v>54</v>
       </c>
       <c r="E28" s="71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F28" s="41" t="s">
         <v>22</v>
@@ -2915,9 +2933,9 @@
       <c r="K28" s="44"/>
       <c r="L28" s="44"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="57">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="58" t="s">
         <v>33</v>
@@ -2926,10 +2944,10 @@
         <v>34</v>
       </c>
       <c r="D29" s="71" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="E29" s="71" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F29" s="41" t="s">
         <v>22</v>
@@ -2943,9 +2961,9 @@
       <c r="K29" s="44"/>
       <c r="L29" s="44"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="57">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="58" t="s">
         <v>33</v>
@@ -2954,10 +2972,10 @@
         <v>34</v>
       </c>
       <c r="D30" s="71" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="E30" s="71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F30" s="41" t="s">
         <v>22</v>
@@ -2971,9 +2989,9 @@
       <c r="K30" s="44"/>
       <c r="L30" s="44"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="57">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="58" t="s">
         <v>33</v>
@@ -2985,7 +3003,7 @@
         <v>56</v>
       </c>
       <c r="E31" s="71" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F31" s="41" t="s">
         <v>22</v>
@@ -2999,9 +3017,9 @@
       <c r="K31" s="44"/>
       <c r="L31" s="44"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="57">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="58" t="s">
         <v>33</v>
@@ -3013,7 +3031,7 @@
         <v>57</v>
       </c>
       <c r="E32" s="71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F32" s="41" t="s">
         <v>22</v>
@@ -3027,9 +3045,9 @@
       <c r="K32" s="44"/>
       <c r="L32" s="44"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="57">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="58" t="s">
         <v>33</v>
@@ -3038,10 +3056,10 @@
         <v>34</v>
       </c>
       <c r="D33" s="71" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="E33" s="71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F33" s="41" t="s">
         <v>22</v>
@@ -3055,9 +3073,9 @@
       <c r="K33" s="44"/>
       <c r="L33" s="44"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="57">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="58" t="s">
         <v>33</v>
@@ -3066,10 +3084,10 @@
         <v>34</v>
       </c>
       <c r="D34" s="71" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="E34" s="71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F34" s="41" t="s">
         <v>22</v>
@@ -3083,9 +3101,9 @@
       <c r="K34" s="44"/>
       <c r="L34" s="44"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="57">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="58" t="s">
         <v>33</v>
@@ -3097,7 +3115,7 @@
         <v>59</v>
       </c>
       <c r="E35" s="71" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F35" s="41" t="s">
         <v>22</v>
@@ -3111,9 +3129,9 @@
       <c r="K35" s="44"/>
       <c r="L35" s="44"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="57">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="58" t="s">
         <v>33</v>
@@ -3125,7 +3143,7 @@
         <v>60</v>
       </c>
       <c r="E36" s="71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F36" s="41" t="s">
         <v>22</v>
@@ -3139,93 +3157,93 @@
       <c r="K36" s="44"/>
       <c r="L36" s="44"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="57">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="68">
+        <v>36</v>
+      </c>
+      <c r="B37" s="132" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="133" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="128" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="108"/>
+      <c r="H37" s="109"/>
+      <c r="I37" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" s="109"/>
+      <c r="K37" s="109"/>
+      <c r="L37" s="109"/>
+    </row>
+    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="129">
+        <v>37</v>
+      </c>
+      <c r="B38" s="130" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="110"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="111" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" s="111"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="111"/>
+    </row>
+    <row r="39" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="57">
+        <v>38</v>
+      </c>
+      <c r="B39" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="F37" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="105"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="68">
-        <v>36</v>
-      </c>
-      <c r="B38" s="132" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="133" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="128" t="s">
-        <v>104</v>
-      </c>
-      <c r="E38" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="F38" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="108"/>
-      <c r="H38" s="109"/>
-      <c r="I38" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="J38" s="109"/>
-      <c r="K38" s="109"/>
-      <c r="L38" s="109"/>
-    </row>
-    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="129">
-        <v>37</v>
-      </c>
-      <c r="B39" s="130" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="131" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="74" t="s">
-        <v>131</v>
-      </c>
-      <c r="F39" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="110"/>
-      <c r="H39" s="111"/>
-      <c r="I39" s="111" t="s">
-        <v>26</v>
-      </c>
-      <c r="J39" s="111"/>
-      <c r="K39" s="111"/>
-      <c r="L39" s="111"/>
-    </row>
-    <row r="40" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="106"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="57">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="58" t="s">
         <v>33</v>
@@ -3234,15 +3252,15 @@
         <v>35</v>
       </c>
       <c r="D40" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" s="106"/>
+        <v>62</v>
+      </c>
+      <c r="E40" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="105"/>
       <c r="H40" s="44"/>
       <c r="I40" s="44" t="s">
         <v>26</v>
@@ -3251,9 +3269,9 @@
       <c r="K40" s="44"/>
       <c r="L40" s="44"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="57">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="58" t="s">
         <v>33</v>
@@ -3262,10 +3280,10 @@
         <v>35</v>
       </c>
       <c r="D41" s="71" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E41" s="71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F41" s="41" t="s">
         <v>22</v>
@@ -3279,9 +3297,9 @@
       <c r="K41" s="44"/>
       <c r="L41" s="44"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="57">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="58" t="s">
         <v>33</v>
@@ -3290,10 +3308,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="71" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="E42" s="71" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="F42" s="41" t="s">
         <v>22</v>
@@ -3307,9 +3325,9 @@
       <c r="K42" s="44"/>
       <c r="L42" s="44"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="57">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="58" t="s">
         <v>33</v>
@@ -3318,10 +3336,10 @@
         <v>35</v>
       </c>
       <c r="D43" s="71" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="E43" s="71" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="F43" s="41" t="s">
         <v>22</v>
@@ -3335,9 +3353,9 @@
       <c r="K43" s="44"/>
       <c r="L43" s="44"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="57">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="58" t="s">
         <v>33</v>
@@ -3349,7 +3367,7 @@
         <v>45</v>
       </c>
       <c r="E44" s="71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F44" s="41" t="s">
         <v>22</v>
@@ -3363,9 +3381,9 @@
       <c r="K44" s="44"/>
       <c r="L44" s="44"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="57">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="58" t="s">
         <v>33</v>
@@ -3377,7 +3395,7 @@
         <v>46</v>
       </c>
       <c r="E45" s="71" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F45" s="41" t="s">
         <v>22</v>
@@ -3391,9 +3409,9 @@
       <c r="K45" s="44"/>
       <c r="L45" s="44"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="57">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="58" t="s">
         <v>33</v>
@@ -3405,7 +3423,7 @@
         <v>47</v>
       </c>
       <c r="E46" s="71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F46" s="41" t="s">
         <v>22</v>
@@ -3419,9 +3437,9 @@
       <c r="K46" s="44"/>
       <c r="L46" s="44"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="57">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="58" t="s">
         <v>33</v>
@@ -3430,10 +3448,10 @@
         <v>35</v>
       </c>
       <c r="D47" s="71" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E47" s="71" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F47" s="41" t="s">
         <v>22</v>
@@ -3447,9 +3465,9 @@
       <c r="K47" s="44"/>
       <c r="L47" s="44"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="57">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="58" t="s">
         <v>33</v>
@@ -3458,10 +3476,10 @@
         <v>35</v>
       </c>
       <c r="D48" s="71" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="E48" s="71" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F48" s="41" t="s">
         <v>22</v>
@@ -3475,9 +3493,9 @@
       <c r="K48" s="44"/>
       <c r="L48" s="44"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="57">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="58" t="s">
         <v>33</v>
@@ -3489,7 +3507,7 @@
         <v>49</v>
       </c>
       <c r="E49" s="71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F49" s="41" t="s">
         <v>22</v>
@@ -3503,9 +3521,9 @@
       <c r="K49" s="44"/>
       <c r="L49" s="44"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="57">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="58" t="s">
         <v>33</v>
@@ -3517,7 +3535,7 @@
         <v>50</v>
       </c>
       <c r="E50" s="71" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F50" s="41" t="s">
         <v>22</v>
@@ -3531,9 +3549,9 @@
       <c r="K50" s="44"/>
       <c r="L50" s="44"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="57">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="58" t="s">
         <v>33</v>
@@ -3545,7 +3563,7 @@
         <v>51</v>
       </c>
       <c r="E51" s="71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F51" s="41" t="s">
         <v>22</v>
@@ -3559,9 +3577,9 @@
       <c r="K51" s="44"/>
       <c r="L51" s="44"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="57">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="58" t="s">
         <v>33</v>
@@ -3569,11 +3587,11 @@
       <c r="C52" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D52" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="E52" s="71" t="s">
-        <v>112</v>
+      <c r="D52" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="70" t="s">
+        <v>107</v>
       </c>
       <c r="F52" s="41" t="s">
         <v>22</v>
@@ -3587,9 +3605,9 @@
       <c r="K52" s="44"/>
       <c r="L52" s="44"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="57">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="58" t="s">
         <v>33</v>
@@ -3598,10 +3616,10 @@
         <v>35</v>
       </c>
       <c r="D53" s="70" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="E53" s="70" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F53" s="41" t="s">
         <v>22</v>
@@ -3615,9 +3633,9 @@
       <c r="K53" s="44"/>
       <c r="L53" s="44"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="57">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="58" t="s">
         <v>33</v>
@@ -3629,7 +3647,7 @@
         <v>53</v>
       </c>
       <c r="E54" s="70" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F54" s="41" t="s">
         <v>22</v>
@@ -3643,9 +3661,9 @@
       <c r="K54" s="44"/>
       <c r="L54" s="44"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="57">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="58" t="s">
         <v>33</v>
@@ -3657,7 +3675,7 @@
         <v>54</v>
       </c>
       <c r="E55" s="70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F55" s="41" t="s">
         <v>22</v>
@@ -3671,9 +3689,9 @@
       <c r="K55" s="44"/>
       <c r="L55" s="44"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="57">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="58" t="s">
         <v>33</v>
@@ -3682,10 +3700,10 @@
         <v>35</v>
       </c>
       <c r="D56" s="70" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="E56" s="70" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F56" s="41" t="s">
         <v>22</v>
@@ -3699,9 +3717,9 @@
       <c r="K56" s="44"/>
       <c r="L56" s="44"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="57">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="58" t="s">
         <v>33</v>
@@ -3710,10 +3728,10 @@
         <v>35</v>
       </c>
       <c r="D57" s="70" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="E57" s="70" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F57" s="41" t="s">
         <v>22</v>
@@ -3727,9 +3745,9 @@
       <c r="K57" s="44"/>
       <c r="L57" s="44"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="58" t="s">
         <v>33</v>
@@ -3741,7 +3759,7 @@
         <v>56</v>
       </c>
       <c r="E58" s="70" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F58" s="41" t="s">
         <v>22</v>
@@ -3755,9 +3773,9 @@
       <c r="K58" s="44"/>
       <c r="L58" s="44"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="57">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="58" t="s">
         <v>33</v>
@@ -3769,7 +3787,7 @@
         <v>57</v>
       </c>
       <c r="E59" s="70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F59" s="41" t="s">
         <v>22</v>
@@ -3783,9 +3801,9 @@
       <c r="K59" s="44"/>
       <c r="L59" s="44"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="57">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="58" t="s">
         <v>33</v>
@@ -3794,10 +3812,10 @@
         <v>35</v>
       </c>
       <c r="D60" s="70" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="E60" s="70" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F60" s="41" t="s">
         <v>22</v>
@@ -3811,9 +3829,9 @@
       <c r="K60" s="44"/>
       <c r="L60" s="44"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="57">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="58" t="s">
         <v>33</v>
@@ -3822,10 +3840,10 @@
         <v>35</v>
       </c>
       <c r="D61" s="70" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="E61" s="70" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F61" s="41" t="s">
         <v>22</v>
@@ -3839,9 +3857,9 @@
       <c r="K61" s="44"/>
       <c r="L61" s="44"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="57">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="58" t="s">
         <v>33</v>
@@ -3853,7 +3871,7 @@
         <v>59</v>
       </c>
       <c r="E62" s="70" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F62" s="41" t="s">
         <v>22</v>
@@ -3867,9 +3885,9 @@
       <c r="K62" s="44"/>
       <c r="L62" s="44"/>
     </row>
-    <row r="63" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="57">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="58" t="s">
         <v>33</v>
@@ -3881,7 +3899,7 @@
         <v>60</v>
       </c>
       <c r="E63" s="70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F63" s="41" t="s">
         <v>22</v>
@@ -3895,9 +3913,9 @@
       <c r="K63" s="44"/>
       <c r="L63" s="44"/>
     </row>
-    <row r="64" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="57">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="58" t="s">
         <v>33</v>
@@ -3906,10 +3924,10 @@
         <v>35</v>
       </c>
       <c r="D64" s="70" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="E64" s="70" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F64" s="41" t="s">
         <v>22</v>
@@ -3923,82 +3941,82 @@
       <c r="K64" s="44"/>
       <c r="L64" s="44"/>
     </row>
-    <row r="65" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="57">
+    <row r="65" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="77">
+        <v>64</v>
+      </c>
+      <c r="B65" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="E65" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="F65" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="112"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="J65" s="55"/>
+      <c r="K65" s="55"/>
+      <c r="L65" s="55"/>
+    </row>
+    <row r="66" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="81">
+        <v>65</v>
+      </c>
+      <c r="B66" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="C65" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="D65" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="E65" s="70" t="s">
-        <v>130</v>
-      </c>
-      <c r="F65" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" s="105"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="J65" s="44"/>
-      <c r="K65" s="44"/>
-      <c r="L65" s="44"/>
-    </row>
-    <row r="66" spans="1:12" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="77">
+      <c r="C66" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="C66" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="D66" s="79" t="s">
-        <v>62</v>
-      </c>
-      <c r="E66" s="79" t="s">
-        <v>134</v>
-      </c>
-      <c r="F66" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" s="112"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="J66" s="55"/>
-      <c r="K66" s="55"/>
-      <c r="L66" s="55"/>
-    </row>
-    <row r="67" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D66" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F66" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="106"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J66" s="44"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="44"/>
+    </row>
+    <row r="67" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="81">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="82" t="s">
         <v>64</v>
-      </c>
-      <c r="C67" s="82" t="s">
-        <v>65</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>44</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F67" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="G67" s="106"/>
+      <c r="G67" s="105"/>
       <c r="H67" s="44"/>
       <c r="I67" s="44" t="s">
         <v>26</v>
@@ -4007,21 +4025,21 @@
       <c r="K67" s="44"/>
       <c r="L67" s="44"/>
     </row>
-    <row r="68" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="81">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="82" t="s">
         <v>64</v>
-      </c>
-      <c r="C68" s="82" t="s">
-        <v>65</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F68" s="41" t="s">
         <v>22</v>
@@ -4035,21 +4053,21 @@
       <c r="K68" s="44"/>
       <c r="L68" s="44"/>
     </row>
-    <row r="69" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="81">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="C69" s="82" t="s">
-        <v>65</v>
-      </c>
       <c r="D69" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F69" s="41" t="s">
         <v>22</v>
@@ -4063,21 +4081,21 @@
       <c r="K69" s="44"/>
       <c r="L69" s="44"/>
     </row>
-    <row r="70" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="81">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" s="82" t="s">
         <v>64</v>
-      </c>
-      <c r="C70" s="82" t="s">
-        <v>65</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>48</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F70" s="41" t="s">
         <v>22</v>
@@ -4091,21 +4109,21 @@
       <c r="K70" s="44"/>
       <c r="L70" s="44"/>
     </row>
-    <row r="71" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="81">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" s="82" t="s">
         <v>64</v>
-      </c>
-      <c r="C71" s="82" t="s">
-        <v>65</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F71" s="41" t="s">
         <v>22</v>
@@ -4119,21 +4137,21 @@
       <c r="K71" s="44"/>
       <c r="L71" s="44"/>
     </row>
-    <row r="72" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="81">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="82" t="s">
-        <v>65</v>
-      </c>
       <c r="D72" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F72" s="41" t="s">
         <v>22</v>
@@ -4147,21 +4165,21 @@
       <c r="K72" s="44"/>
       <c r="L72" s="44"/>
     </row>
-    <row r="73" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="81">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" s="82" t="s">
         <v>64</v>
-      </c>
-      <c r="C73" s="82" t="s">
-        <v>65</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>52</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F73" s="41" t="s">
         <v>22</v>
@@ -4175,21 +4193,21 @@
       <c r="K73" s="44"/>
       <c r="L73" s="44"/>
     </row>
-    <row r="74" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="81">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="C74" s="82" t="s">
-        <v>65</v>
-      </c>
       <c r="D74" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F74" s="41" t="s">
         <v>22</v>
@@ -4203,21 +4221,21 @@
       <c r="K74" s="44"/>
       <c r="L74" s="44"/>
     </row>
-    <row r="75" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="81">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75" s="82" t="s">
         <v>64</v>
-      </c>
-      <c r="C75" s="82" t="s">
-        <v>65</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>55</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F75" s="41" t="s">
         <v>22</v>
@@ -4231,21 +4249,21 @@
       <c r="K75" s="44"/>
       <c r="L75" s="44"/>
     </row>
-    <row r="76" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="81">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="C76" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="C76" s="82" t="s">
-        <v>65</v>
-      </c>
       <c r="D76" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F76" s="41" t="s">
         <v>22</v>
@@ -4259,21 +4277,21 @@
       <c r="K76" s="44"/>
       <c r="L76" s="44"/>
     </row>
-    <row r="77" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="81">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="82" t="s">
         <v>64</v>
-      </c>
-      <c r="C77" s="82" t="s">
-        <v>65</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>58</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F77" s="41" t="s">
         <v>22</v>
@@ -4287,133 +4305,133 @@
       <c r="K77" s="44"/>
       <c r="L77" s="44"/>
     </row>
-    <row r="78" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="81">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="C78" s="82" t="s">
+      <c r="D78" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="F78" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" s="108"/>
+      <c r="H78" s="109"/>
+      <c r="I78" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="J78" s="109"/>
+      <c r="K78" s="109"/>
+      <c r="L78" s="109"/>
+    </row>
+    <row r="79" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="83">
+        <v>78</v>
+      </c>
+      <c r="B79" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="C79" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="D79" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="E79" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="F79" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" s="113"/>
+      <c r="H79" s="114"/>
+      <c r="I79" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="J79" s="114"/>
+      <c r="K79" s="114"/>
+      <c r="L79" s="115"/>
+    </row>
+    <row r="80" spans="1:12" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="87">
+        <v>79</v>
+      </c>
+      <c r="B80" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="D78" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="F78" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" s="105"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="J78" s="44"/>
-      <c r="K78" s="44"/>
-      <c r="L78" s="44"/>
-    </row>
-    <row r="79" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="81">
-        <v>77</v>
-      </c>
-      <c r="B79" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="C79" s="82" t="s">
+      <c r="D80" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="E80" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="F80" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" s="106"/>
+      <c r="H80" s="116"/>
+      <c r="I80" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="J80" s="116"/>
+      <c r="K80" s="116"/>
+      <c r="L80" s="116"/>
+    </row>
+    <row r="81" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="87">
+        <v>80</v>
+      </c>
+      <c r="B81" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="D79" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E79" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="F79" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" s="108"/>
-      <c r="H79" s="109"/>
-      <c r="I79" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="J79" s="109"/>
-      <c r="K79" s="109"/>
-      <c r="L79" s="109"/>
-    </row>
-    <row r="80" spans="1:12" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="83">
-        <v>78</v>
-      </c>
-      <c r="B80" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="C80" s="84" t="s">
+      <c r="D81" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="F81" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" s="105"/>
+      <c r="H81" s="117"/>
+      <c r="I81" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="J81" s="117"/>
+      <c r="K81" s="117"/>
+      <c r="L81" s="117"/>
+    </row>
+    <row r="82" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="87">
+        <v>81</v>
+      </c>
+      <c r="B82" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82" s="89" t="s">
         <v>65</v>
-      </c>
-      <c r="D80" s="85" t="s">
-        <v>62</v>
-      </c>
-      <c r="E80" s="138" t="s">
-        <v>163</v>
-      </c>
-      <c r="F80" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" s="113"/>
-      <c r="H80" s="114"/>
-      <c r="I80" s="114" t="s">
-        <v>26</v>
-      </c>
-      <c r="J80" s="114"/>
-      <c r="K80" s="114"/>
-      <c r="L80" s="115"/>
-    </row>
-    <row r="81" spans="1:12" ht="14.55" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="87">
-        <v>79</v>
-      </c>
-      <c r="B81" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="D81" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="E81" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="F81" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" s="106"/>
-      <c r="H81" s="116"/>
-      <c r="I81" s="116" t="s">
-        <v>26</v>
-      </c>
-      <c r="J81" s="116"/>
-      <c r="K81" s="116"/>
-      <c r="L81" s="116"/>
-    </row>
-    <row r="82" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="87">
-        <v>80</v>
-      </c>
-      <c r="B82" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="C82" s="89" t="s">
-        <v>66</v>
       </c>
       <c r="D82" s="92" t="s">
         <v>45</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F82" s="41" t="s">
         <v>22</v>
@@ -4427,21 +4445,21 @@
       <c r="K82" s="117"/>
       <c r="L82" s="117"/>
     </row>
-    <row r="83" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="87">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C83" s="89" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D83" s="92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F83" s="41" t="s">
         <v>22</v>
@@ -4455,21 +4473,21 @@
       <c r="K83" s="117"/>
       <c r="L83" s="117"/>
     </row>
-    <row r="84" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="87">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" s="88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C84" s="89" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D84" s="92" t="s">
         <v>48</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F84" s="41" t="s">
         <v>22</v>
@@ -4483,21 +4501,21 @@
       <c r="K84" s="117"/>
       <c r="L84" s="117"/>
     </row>
-    <row r="85" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="87">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" s="88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C85" s="89" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D85" s="92" t="s">
         <v>49</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F85" s="41" t="s">
         <v>22</v>
@@ -4511,21 +4529,21 @@
       <c r="K85" s="117"/>
       <c r="L85" s="117"/>
     </row>
-    <row r="86" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="87">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" s="88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C86" s="89" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D86" s="92" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F86" s="41" t="s">
         <v>22</v>
@@ -4539,21 +4557,21 @@
       <c r="K86" s="117"/>
       <c r="L86" s="117"/>
     </row>
-    <row r="87" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="87">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" s="88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C87" s="89" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D87" s="92" t="s">
         <v>52</v>
       </c>
       <c r="E87" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F87" s="41" t="s">
         <v>22</v>
@@ -4567,21 +4585,21 @@
       <c r="K87" s="117"/>
       <c r="L87" s="117"/>
     </row>
-    <row r="88" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="87">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C88" s="89" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D88" s="92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E88" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F88" s="41" t="s">
         <v>22</v>
@@ -4595,21 +4613,21 @@
       <c r="K88" s="117"/>
       <c r="L88" s="117"/>
     </row>
-    <row r="89" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="87">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C89" s="89" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D89" s="92" t="s">
         <v>55</v>
       </c>
       <c r="E89" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F89" s="41" t="s">
         <v>22</v>
@@ -4623,21 +4641,21 @@
       <c r="K89" s="117"/>
       <c r="L89" s="117"/>
     </row>
-    <row r="90" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="87">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C90" s="89" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D90" s="92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E90" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F90" s="41" t="s">
         <v>22</v>
@@ -4651,21 +4669,21 @@
       <c r="K90" s="117"/>
       <c r="L90" s="117"/>
     </row>
-    <row r="91" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="87">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C91" s="89" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D91" s="92" t="s">
         <v>58</v>
       </c>
       <c r="E91" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F91" s="41" t="s">
         <v>22</v>
@@ -4679,21 +4697,21 @@
       <c r="K91" s="117"/>
       <c r="L91" s="117"/>
     </row>
-    <row r="92" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="87">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C92" s="89" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D92" s="92" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E92" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F92" s="41" t="s">
         <v>22</v>
@@ -4707,105 +4725,105 @@
       <c r="K92" s="117"/>
       <c r="L92" s="117"/>
     </row>
-    <row r="93" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="87">
-        <v>91</v>
-      </c>
-      <c r="B93" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="C93" s="89" t="s">
+    <row r="93" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="C93" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="D93" s="96" t="s">
+        <v>61</v>
+      </c>
+      <c r="E93" s="139" t="s">
+        <v>175</v>
+      </c>
+      <c r="F93" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="G93" s="112"/>
+      <c r="H93" s="118"/>
+      <c r="I93" s="118" t="s">
+        <v>26</v>
+      </c>
+      <c r="J93" s="118"/>
+      <c r="K93" s="118"/>
+      <c r="L93" s="118"/>
+    </row>
+    <row r="94" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="97">
+        <v>93</v>
+      </c>
+      <c r="B94" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="D93" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="E93" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="F93" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" s="105"/>
-      <c r="H93" s="117"/>
-      <c r="I93" s="117" t="s">
-        <v>26</v>
-      </c>
-      <c r="J93" s="117"/>
-      <c r="K93" s="117"/>
-      <c r="L93" s="117"/>
-    </row>
-    <row r="94" spans="1:12" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="93">
-        <v>92</v>
-      </c>
-      <c r="B94" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="C94" s="95" t="s">
+      <c r="C94" s="98" t="s">
+        <v>202</v>
+      </c>
+      <c r="D94" s="99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="137" t="s">
+        <v>147</v>
+      </c>
+      <c r="F94" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G94" s="106"/>
+      <c r="H94" s="119"/>
+      <c r="I94" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="J94" s="119"/>
+      <c r="K94" s="119"/>
+      <c r="L94" s="119"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A95" s="97">
+        <v>94</v>
+      </c>
+      <c r="B95" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="D94" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="E94" s="139" t="s">
-        <v>177</v>
-      </c>
-      <c r="F94" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" s="112"/>
-      <c r="H94" s="118"/>
-      <c r="I94" s="118" t="s">
-        <v>26</v>
-      </c>
-      <c r="J94" s="118"/>
-      <c r="K94" s="118"/>
-      <c r="L94" s="118"/>
-    </row>
-    <row r="95" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="97">
-        <v>93</v>
-      </c>
-      <c r="B95" s="98" t="s">
+      <c r="C95" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="C95" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="99" t="s">
-        <v>70</v>
-      </c>
-      <c r="E95" s="137" t="s">
-        <v>149</v>
-      </c>
-      <c r="F95" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" s="106"/>
-      <c r="H95" s="119"/>
-      <c r="I95" s="116" t="s">
-        <v>26</v>
-      </c>
-      <c r="J95" s="119"/>
-      <c r="K95" s="119"/>
-      <c r="L95" s="119"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D95" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F95" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G95" s="105"/>
+      <c r="H95" s="120"/>
+      <c r="I95" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="J95" s="120"/>
+      <c r="K95" s="120"/>
+      <c r="L95" s="120"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="97">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="C96" s="98" t="s">
         <v>67</v>
-      </c>
-      <c r="C96" s="98" t="s">
-        <v>68</v>
       </c>
       <c r="D96" s="17" t="s">
         <v>44</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F96" s="41" t="s">
         <v>22</v>
@@ -4819,21 +4837,21 @@
       <c r="K96" s="120"/>
       <c r="L96" s="120"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="97">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="C97" s="98" t="s">
         <v>67</v>
-      </c>
-      <c r="C97" s="98" t="s">
-        <v>68</v>
       </c>
       <c r="D97" s="17" t="s">
         <v>45</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F97" s="41" t="s">
         <v>22</v>
@@ -4847,21 +4865,21 @@
       <c r="K97" s="120"/>
       <c r="L97" s="120"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="97">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="C98" s="98" t="s">
-        <v>68</v>
-      </c>
       <c r="D98" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F98" s="41" t="s">
         <v>22</v>
@@ -4875,21 +4893,21 @@
       <c r="K98" s="120"/>
       <c r="L98" s="120"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="97">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="C99" s="98" t="s">
         <v>67</v>
-      </c>
-      <c r="C99" s="98" t="s">
-        <v>68</v>
       </c>
       <c r="D99" s="17" t="s">
         <v>48</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F99" s="41" t="s">
         <v>22</v>
@@ -4903,77 +4921,77 @@
       <c r="K99" s="120"/>
       <c r="L99" s="120"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="97">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="C100" s="98" t="s">
         <v>67</v>
-      </c>
-      <c r="C100" s="98" t="s">
-        <v>68</v>
       </c>
       <c r="D100" s="17" t="s">
         <v>49</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F100" s="41" t="s">
         <v>22</v>
       </c>
       <c r="G100" s="105"/>
       <c r="H100" s="120"/>
-      <c r="I100" s="117" t="s">
+      <c r="I100" s="120" t="s">
         <v>26</v>
       </c>
       <c r="J100" s="120"/>
       <c r="K100" s="120"/>
       <c r="L100" s="120"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="97">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="C101" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="C101" s="98" t="s">
-        <v>68</v>
-      </c>
       <c r="D101" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F101" s="41" t="s">
         <v>22</v>
       </c>
       <c r="G101" s="105"/>
       <c r="H101" s="120"/>
-      <c r="I101" s="120" t="s">
+      <c r="I101" s="117" t="s">
         <v>26</v>
       </c>
       <c r="J101" s="120"/>
       <c r="K101" s="120"/>
       <c r="L101" s="120"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="97">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="C102" s="98" t="s">
         <v>67</v>
-      </c>
-      <c r="C102" s="98" t="s">
-        <v>68</v>
       </c>
       <c r="D102" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F102" s="41" t="s">
         <v>22</v>
@@ -4987,21 +5005,21 @@
       <c r="K102" s="120"/>
       <c r="L102" s="120"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="97">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="C103" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="C103" s="98" t="s">
-        <v>68</v>
-      </c>
       <c r="D103" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F103" s="41" t="s">
         <v>22</v>
@@ -5015,21 +5033,21 @@
       <c r="K103" s="120"/>
       <c r="L103" s="120"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="97">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="C104" s="98" t="s">
         <v>67</v>
-      </c>
-      <c r="C104" s="98" t="s">
-        <v>68</v>
       </c>
       <c r="D104" s="17" t="s">
         <v>55</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F104" s="41" t="s">
         <v>22</v>
@@ -5043,21 +5061,21 @@
       <c r="K104" s="120"/>
       <c r="L104" s="120"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="97">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="C105" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="C105" s="98" t="s">
-        <v>68</v>
-      </c>
       <c r="D105" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F105" s="41" t="s">
         <v>22</v>
@@ -5071,21 +5089,21 @@
       <c r="K105" s="120"/>
       <c r="L105" s="120"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="97">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="C106" s="98" t="s">
         <v>67</v>
-      </c>
-      <c r="C106" s="98" t="s">
-        <v>68</v>
       </c>
       <c r="D106" s="17" t="s">
         <v>58</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F106" s="41" t="s">
         <v>22</v>
@@ -5099,21 +5117,21 @@
       <c r="K106" s="120"/>
       <c r="L106" s="120"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="97">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="C107" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="C107" s="98" t="s">
-        <v>68</v>
-      </c>
       <c r="D107" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F107" s="41" t="s">
         <v>22</v>
@@ -5127,105 +5145,105 @@
       <c r="K107" s="120"/>
       <c r="L107" s="120"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A108" s="97">
-        <v>106</v>
-      </c>
-      <c r="B108" s="98" t="s">
+    <row r="108" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="100">
+        <v>107</v>
+      </c>
+      <c r="B108" s="101" t="s">
+        <v>66</v>
+      </c>
+      <c r="C108" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="C108" s="98" t="s">
+      <c r="D108" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E108" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="F108" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G108" s="110"/>
+      <c r="H108" s="121"/>
+      <c r="I108" s="115" t="s">
+        <v>26</v>
+      </c>
+      <c r="J108" s="121"/>
+      <c r="K108" s="121"/>
+      <c r="L108" s="121"/>
+    </row>
+    <row r="109" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="97">
+        <v>108</v>
+      </c>
+      <c r="B109" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="C109" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="D108" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E108" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F108" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" s="105"/>
-      <c r="H108" s="120"/>
-      <c r="I108" s="117" t="s">
-        <v>26</v>
-      </c>
-      <c r="J108" s="120"/>
-      <c r="K108" s="120"/>
-      <c r="L108" s="120"/>
-    </row>
-    <row r="109" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="100">
-        <v>107</v>
-      </c>
-      <c r="B109" s="101" t="s">
-        <v>67</v>
-      </c>
-      <c r="C109" s="101" t="s">
+      <c r="D109" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E109" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="F109" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G109" s="106"/>
+      <c r="H109" s="119"/>
+      <c r="I109" s="119" t="s">
+        <v>26</v>
+      </c>
+      <c r="J109" s="119"/>
+      <c r="K109" s="119"/>
+      <c r="L109" s="119"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A110" s="97">
+        <v>109</v>
+      </c>
+      <c r="B110" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="C110" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="D109" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E109" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="F109" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" s="110"/>
-      <c r="H109" s="121"/>
-      <c r="I109" s="115" t="s">
-        <v>26</v>
-      </c>
-      <c r="J109" s="121"/>
-      <c r="K109" s="121"/>
-      <c r="L109" s="121"/>
-    </row>
-    <row r="110" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="97">
-        <v>108</v>
-      </c>
-      <c r="B110" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="C110" s="98" t="s">
-        <v>69</v>
-      </c>
-      <c r="D110" s="30" t="s">
+      <c r="D110" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E110" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="F110" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G110" s="106"/>
-      <c r="H110" s="119"/>
-      <c r="I110" s="119" t="s">
-        <v>26</v>
-      </c>
-      <c r="J110" s="119"/>
-      <c r="K110" s="119"/>
-      <c r="L110" s="119"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E110" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F110" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G110" s="105"/>
+      <c r="H110" s="120"/>
+      <c r="I110" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="J110" s="120"/>
+      <c r="K110" s="120"/>
+      <c r="L110" s="120"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="97">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" s="98" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C111" s="98" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D111" s="17" t="s">
         <v>45</v>
       </c>
       <c r="E111" s="17" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F111" s="41" t="s">
         <v>22</v>
@@ -5239,21 +5257,21 @@
       <c r="K111" s="120"/>
       <c r="L111" s="120"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="97">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" s="98" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C112" s="98" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F112" s="41" t="s">
         <v>22</v>
@@ -5267,21 +5285,21 @@
       <c r="K112" s="120"/>
       <c r="L112" s="120"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="97">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" s="98" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C113" s="98" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D113" s="17" t="s">
         <v>48</v>
       </c>
       <c r="E113" s="17" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F113" s="41" t="s">
         <v>22</v>
@@ -5295,21 +5313,21 @@
       <c r="K113" s="120"/>
       <c r="L113" s="120"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="97">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" s="98" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C114" s="98" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D114" s="17" t="s">
         <v>49</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F114" s="41" t="s">
         <v>22</v>
@@ -5323,21 +5341,21 @@
       <c r="K114" s="120"/>
       <c r="L114" s="120"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="97">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" s="98" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C115" s="98" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F115" s="41" t="s">
         <v>22</v>
@@ -5351,21 +5369,21 @@
       <c r="K115" s="120"/>
       <c r="L115" s="120"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="97">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" s="98" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C116" s="98" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D116" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F116" s="41" t="s">
         <v>22</v>
@@ -5379,21 +5397,21 @@
       <c r="K116" s="120"/>
       <c r="L116" s="120"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="97">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" s="98" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C117" s="98" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F117" s="41" t="s">
         <v>22</v>
@@ -5407,77 +5425,77 @@
       <c r="K117" s="120"/>
       <c r="L117" s="120"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="97">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" s="98" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C118" s="98" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D118" s="17" t="s">
         <v>55</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F118" s="41" t="s">
         <v>22</v>
       </c>
       <c r="G118" s="105"/>
       <c r="H118" s="120"/>
-      <c r="I118" s="117" t="s">
+      <c r="I118" s="120" t="s">
         <v>26</v>
       </c>
       <c r="J118" s="120"/>
       <c r="K118" s="120"/>
       <c r="L118" s="120"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="97">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" s="98" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C119" s="98" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F119" s="41" t="s">
         <v>22</v>
       </c>
       <c r="G119" s="105"/>
       <c r="H119" s="120"/>
-      <c r="I119" s="120" t="s">
+      <c r="I119" s="117" t="s">
         <v>26</v>
       </c>
       <c r="J119" s="120"/>
       <c r="K119" s="120"/>
       <c r="L119" s="120"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="97">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" s="98" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C120" s="98" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D120" s="17" t="s">
         <v>58</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F120" s="41" t="s">
         <v>22</v>
@@ -5491,21 +5509,21 @@
       <c r="K120" s="120"/>
       <c r="L120" s="120"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="97">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" s="98" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C121" s="98" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F121" s="41" t="s">
         <v>22</v>
@@ -5519,82 +5537,82 @@
       <c r="K121" s="120"/>
       <c r="L121" s="120"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A122" s="97">
-        <v>120</v>
-      </c>
-      <c r="B122" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="C122" s="98" t="s">
-        <v>69</v>
-      </c>
-      <c r="D122" s="17" t="s">
+    <row r="122" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="102">
+        <v>121</v>
+      </c>
+      <c r="B122" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="C122" s="103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E122" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F122" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G122" s="105"/>
-      <c r="H122" s="120"/>
-      <c r="I122" s="117" t="s">
-        <v>26</v>
-      </c>
-      <c r="J122" s="120"/>
-      <c r="K122" s="120"/>
-      <c r="L122" s="120"/>
-    </row>
-    <row r="123" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="102">
-        <v>121</v>
-      </c>
-      <c r="B123" s="103" t="s">
-        <v>67</v>
-      </c>
-      <c r="C123" s="103" t="s">
-        <v>69</v>
-      </c>
-      <c r="D123" s="36" t="s">
+      <c r="E122" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="F122" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="G122" s="112"/>
+      <c r="H122" s="122"/>
+      <c r="I122" s="118" t="s">
+        <v>26</v>
+      </c>
+      <c r="J122" s="122"/>
+      <c r="K122" s="122"/>
+      <c r="L122" s="122"/>
+    </row>
+    <row r="123" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="134">
+        <v>122</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D123" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E123" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F123" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="G123" s="106"/>
+      <c r="H123" s="123"/>
+      <c r="I123" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J123" s="123"/>
+      <c r="K123" s="123"/>
+      <c r="L123" s="123"/>
+    </row>
+    <row r="124" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="134">
+        <v>123</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D124" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E123" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="F123" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G123" s="112"/>
-      <c r="H123" s="122"/>
-      <c r="I123" s="118" t="s">
-        <v>26</v>
-      </c>
-      <c r="J123" s="122"/>
-      <c r="K123" s="122"/>
-      <c r="L123" s="122"/>
-    </row>
-    <row r="124" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="134">
-        <v>122</v>
-      </c>
-      <c r="B124" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C124" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D124" s="14" t="s">
-        <v>72</v>
-      </c>
       <c r="E124" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F124" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="G124" s="106"/>
+        <v>22</v>
+      </c>
+      <c r="G124" s="105"/>
       <c r="H124" s="123"/>
       <c r="I124" s="44" t="s">
         <v>26</v>
@@ -5603,21 +5621,21 @@
       <c r="K124" s="123"/>
       <c r="L124" s="123"/>
     </row>
-    <row r="125" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="134">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C125" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F125" s="49" t="s">
         <v>22</v>
@@ -5631,21 +5649,21 @@
       <c r="K125" s="123"/>
       <c r="L125" s="123"/>
     </row>
-    <row r="126" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="134">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D126" s="14" t="s">
         <v>44</v>
       </c>
       <c r="E126" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F126" s="49" t="s">
         <v>22</v>
@@ -5659,77 +5677,77 @@
       <c r="K126" s="123"/>
       <c r="L126" s="123"/>
     </row>
-    <row r="127" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="134">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D127" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E127" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F127" s="49" t="s">
         <v>22</v>
       </c>
       <c r="G127" s="105"/>
       <c r="H127" s="123"/>
-      <c r="I127" s="44" t="s">
+      <c r="I127" s="123" t="s">
         <v>26</v>
       </c>
       <c r="J127" s="123"/>
       <c r="K127" s="123"/>
       <c r="L127" s="123"/>
     </row>
-    <row r="128" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="134">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D128" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E128" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F128" s="49" t="s">
         <v>22</v>
       </c>
       <c r="G128" s="105"/>
       <c r="H128" s="123"/>
-      <c r="I128" s="123" t="s">
+      <c r="I128" s="44" t="s">
         <v>26</v>
       </c>
       <c r="J128" s="123"/>
       <c r="K128" s="123"/>
       <c r="L128" s="123"/>
     </row>
-    <row r="129" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="134">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C129" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D129" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E129" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F129" s="49" t="s">
         <v>22</v>
@@ -5743,26 +5761,26 @@
       <c r="K129" s="123"/>
       <c r="L129" s="123"/>
     </row>
-    <row r="130" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="134">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C130" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D130" s="14" t="s">
         <v>48</v>
       </c>
       <c r="E130" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F130" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G130" s="105"/>
+      <c r="G130" s="106"/>
       <c r="H130" s="123"/>
       <c r="I130" s="44" t="s">
         <v>26</v>
@@ -5771,26 +5789,26 @@
       <c r="K130" s="123"/>
       <c r="L130" s="123"/>
     </row>
-    <row r="131" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="134">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C131" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D131" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E131" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F131" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G131" s="106"/>
+      <c r="G131" s="105"/>
       <c r="H131" s="123"/>
       <c r="I131" s="44" t="s">
         <v>26</v>
@@ -5799,21 +5817,21 @@
       <c r="K131" s="123"/>
       <c r="L131" s="123"/>
     </row>
-    <row r="132" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="134">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D132" s="14" t="s">
         <v>50</v>
       </c>
       <c r="E132" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F132" s="49" t="s">
         <v>22</v>
@@ -5827,21 +5845,21 @@
       <c r="K132" s="123"/>
       <c r="L132" s="123"/>
     </row>
-    <row r="133" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="134">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C133" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D133" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F133" s="49" t="s">
         <v>22</v>
@@ -5855,21 +5873,21 @@
       <c r="K133" s="123"/>
       <c r="L133" s="123"/>
     </row>
-    <row r="134" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="134">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C134" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D134" s="14" t="s">
         <v>52</v>
       </c>
       <c r="E134" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F134" s="49" t="s">
         <v>22</v>
@@ -5883,21 +5901,21 @@
       <c r="K134" s="123"/>
       <c r="L134" s="123"/>
     </row>
-    <row r="135" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="134">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C135" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D135" s="14" t="s">
         <v>53</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F135" s="49" t="s">
         <v>22</v>
@@ -5911,77 +5929,77 @@
       <c r="K135" s="123"/>
       <c r="L135" s="123"/>
     </row>
-    <row r="136" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="134">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C136" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D136" s="14" t="s">
         <v>54</v>
       </c>
       <c r="E136" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F136" s="49" t="s">
         <v>22</v>
       </c>
       <c r="G136" s="105"/>
       <c r="H136" s="123"/>
-      <c r="I136" s="44" t="s">
+      <c r="I136" s="123" t="s">
         <v>26</v>
       </c>
       <c r="J136" s="123"/>
       <c r="K136" s="123"/>
       <c r="L136" s="123"/>
     </row>
-    <row r="137" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="134">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D137" s="14" t="s">
         <v>55</v>
       </c>
       <c r="E137" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F137" s="49" t="s">
         <v>22</v>
       </c>
       <c r="G137" s="105"/>
       <c r="H137" s="123"/>
-      <c r="I137" s="123" t="s">
+      <c r="I137" s="44" t="s">
         <v>26</v>
       </c>
       <c r="J137" s="123"/>
       <c r="K137" s="123"/>
       <c r="L137" s="123"/>
     </row>
-    <row r="138" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="134">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D138" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E138" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F138" s="49" t="s">
         <v>22</v>
@@ -5995,26 +6013,26 @@
       <c r="K138" s="123"/>
       <c r="L138" s="123"/>
     </row>
-    <row r="139" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="134">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D139" s="14" t="s">
         <v>57</v>
       </c>
       <c r="E139" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F139" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G139" s="105"/>
+      <c r="G139" s="106"/>
       <c r="H139" s="123"/>
       <c r="I139" s="44" t="s">
         <v>26</v>
@@ -6023,26 +6041,26 @@
       <c r="K139" s="123"/>
       <c r="L139" s="123"/>
     </row>
-    <row r="140" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="134">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D140" s="14" t="s">
         <v>58</v>
       </c>
       <c r="E140" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F140" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G140" s="106"/>
+      <c r="G140" s="105"/>
       <c r="H140" s="123"/>
       <c r="I140" s="44" t="s">
         <v>26</v>
@@ -6051,21 +6069,21 @@
       <c r="K140" s="123"/>
       <c r="L140" s="123"/>
     </row>
-    <row r="141" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="134">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C141" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D141" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E141" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F141" s="49" t="s">
         <v>22</v>
@@ -6079,21 +6097,21 @@
       <c r="K141" s="123"/>
       <c r="L141" s="123"/>
     </row>
-    <row r="142" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="134">
-        <v>140</v>
-      </c>
-      <c r="B142" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C142" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D142" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C142" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D142" s="16" t="s">
         <v>60</v>
       </c>
       <c r="E142" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F142" s="49" t="s">
         <v>22</v>
@@ -6107,21 +6125,21 @@
       <c r="K142" s="123"/>
       <c r="L142" s="123"/>
     </row>
-    <row r="143" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="134">
-        <v>141</v>
-      </c>
-      <c r="B143" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C143" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D143" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C143" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D143" s="17" t="s">
         <v>61</v>
       </c>
       <c r="E143" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F143" s="49" t="s">
         <v>22</v>
@@ -6135,189 +6153,189 @@
       <c r="K143" s="123"/>
       <c r="L143" s="123"/>
     </row>
-    <row r="144" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="134">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B144" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D144" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E144" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="F144" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G144" s="105"/>
-      <c r="H144" s="123"/>
-      <c r="I144" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D144" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E144" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F144" s="124" t="s">
+        <v>22</v>
+      </c>
+      <c r="G144" s="108"/>
+      <c r="H144" s="125"/>
+      <c r="I144" s="109" t="s">
         <v>26</v>
       </c>
       <c r="J144" s="123"/>
       <c r="K144" s="123"/>
       <c r="L144" s="123"/>
     </row>
-    <row r="145" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="134">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B145" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C145" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D145" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C145" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D145" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E145" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="F145" s="124" t="s">
-        <v>22</v>
-      </c>
-      <c r="G145" s="108"/>
-      <c r="H145" s="125"/>
-      <c r="I145" s="109" t="s">
+      <c r="E145" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="F145" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G145" s="105"/>
+      <c r="H145" s="120"/>
+      <c r="I145" s="120" t="s">
         <v>26</v>
       </c>
       <c r="J145" s="123"/>
       <c r="K145" s="123"/>
       <c r="L145" s="123"/>
     </row>
-    <row r="146" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="134">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B146" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D146" s="17" t="s">
         <v>74</v>
       </c>
       <c r="E146" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F146" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G146" s="105"/>
       <c r="H146" s="120"/>
-      <c r="I146" s="120" t="s">
+      <c r="I146" s="117" t="s">
         <v>26</v>
       </c>
       <c r="J146" s="123"/>
       <c r="K146" s="123"/>
       <c r="L146" s="123"/>
     </row>
-    <row r="147" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="134">
-        <v>145</v>
-      </c>
-      <c r="B147" s="24" t="s">
+    <row r="147" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A147" s="135">
+        <v>146</v>
+      </c>
+      <c r="B147" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C147" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D147" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E147" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="F147" s="115" t="s">
+        <v>22</v>
+      </c>
+      <c r="G147" s="110"/>
+      <c r="H147" s="121"/>
+      <c r="I147" s="115" t="s">
+        <v>26</v>
+      </c>
+      <c r="J147" s="126"/>
+      <c r="K147" s="126"/>
+      <c r="L147" s="126"/>
+    </row>
+    <row r="148" spans="1:12" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="134">
+        <v>147</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C148" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D148" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C147" s="24" t="s">
+      <c r="E148" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="F148" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="G148" s="106"/>
+      <c r="H148" s="119"/>
+      <c r="I148" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="J148" s="123"/>
+      <c r="K148" s="123"/>
+      <c r="L148" s="123"/>
+    </row>
+    <row r="149" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="134">
+        <v>148</v>
+      </c>
+      <c r="B149" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C149" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D147" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E147" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="F147" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G147" s="105"/>
-      <c r="H147" s="120"/>
-      <c r="I147" s="117" t="s">
-        <v>26</v>
-      </c>
-      <c r="J147" s="123"/>
-      <c r="K147" s="123"/>
-      <c r="L147" s="123"/>
-    </row>
-    <row r="148" spans="1:12" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="135">
-        <v>146</v>
-      </c>
-      <c r="B148" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C148" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D148" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="E148" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="F148" s="115" t="s">
-        <v>22</v>
-      </c>
-      <c r="G148" s="110"/>
-      <c r="H148" s="121"/>
-      <c r="I148" s="115" t="s">
-        <v>26</v>
-      </c>
-      <c r="J148" s="126"/>
-      <c r="K148" s="126"/>
-      <c r="L148" s="126"/>
-    </row>
-    <row r="149" spans="1:12" ht="14.55" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="134">
-        <v>147</v>
-      </c>
-      <c r="B149" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C149" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D149" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E149" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="F149" s="116" t="s">
-        <v>28</v>
-      </c>
-      <c r="G149" s="106"/>
-      <c r="H149" s="119"/>
-      <c r="I149" s="116" t="s">
+      <c r="D149" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E149" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F149" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="G149" s="105"/>
+      <c r="H149" s="120"/>
+      <c r="I149" s="117" t="s">
         <v>26</v>
       </c>
       <c r="J149" s="123"/>
       <c r="K149" s="123"/>
       <c r="L149" s="123"/>
     </row>
-    <row r="150" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="134">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B150" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C150" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E150" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F150" s="117" t="s">
         <v>22</v>
@@ -6331,21 +6349,21 @@
       <c r="K150" s="123"/>
       <c r="L150" s="123"/>
     </row>
-    <row r="151" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="134">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C151" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D151" s="17" t="s">
         <v>44</v>
       </c>
       <c r="E151" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F151" s="117" t="s">
         <v>22</v>
@@ -6359,21 +6377,21 @@
       <c r="K151" s="123"/>
       <c r="L151" s="123"/>
     </row>
-    <row r="152" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="134">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B152" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C152" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D152" s="17" t="s">
         <v>45</v>
       </c>
       <c r="E152" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F152" s="117" t="s">
         <v>22</v>
@@ -6387,21 +6405,21 @@
       <c r="K152" s="123"/>
       <c r="L152" s="123"/>
     </row>
-    <row r="153" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="134">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B153" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C153" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D153" s="17" t="s">
         <v>46</v>
       </c>
       <c r="E153" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F153" s="117" t="s">
         <v>22</v>
@@ -6415,77 +6433,77 @@
       <c r="K153" s="123"/>
       <c r="L153" s="123"/>
     </row>
-    <row r="154" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="134">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C154" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D154" s="17" t="s">
         <v>47</v>
       </c>
       <c r="E154" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F154" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G154" s="105"/>
       <c r="H154" s="120"/>
-      <c r="I154" s="117" t="s">
+      <c r="I154" s="120" t="s">
         <v>26</v>
       </c>
       <c r="J154" s="123"/>
       <c r="K154" s="123"/>
       <c r="L154" s="123"/>
     </row>
-    <row r="155" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="134">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B155" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C155" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D155" s="17" t="s">
         <v>48</v>
       </c>
       <c r="E155" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F155" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G155" s="105"/>
       <c r="H155" s="120"/>
-      <c r="I155" s="120" t="s">
+      <c r="I155" s="117" t="s">
         <v>26</v>
       </c>
       <c r="J155" s="123"/>
       <c r="K155" s="123"/>
       <c r="L155" s="123"/>
     </row>
-    <row r="156" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="134">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B156" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C156" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D156" s="17" t="s">
         <v>49</v>
       </c>
       <c r="E156" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F156" s="117" t="s">
         <v>22</v>
@@ -6499,21 +6517,21 @@
       <c r="K156" s="123"/>
       <c r="L156" s="123"/>
     </row>
-    <row r="157" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="134">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B157" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C157" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D157" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E157" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F157" s="117" t="s">
         <v>22</v>
@@ -6527,21 +6545,21 @@
       <c r="K157" s="123"/>
       <c r="L157" s="123"/>
     </row>
-    <row r="158" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="134">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B158" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C158" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D158" s="17" t="s">
         <v>51</v>
       </c>
       <c r="E158" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F158" s="117" t="s">
         <v>22</v>
@@ -6555,21 +6573,21 @@
       <c r="K158" s="123"/>
       <c r="L158" s="123"/>
     </row>
-    <row r="159" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="134">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B159" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C159" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D159" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E159" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F159" s="117" t="s">
         <v>22</v>
@@ -6583,21 +6601,21 @@
       <c r="K159" s="123"/>
       <c r="L159" s="123"/>
     </row>
-    <row r="160" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="134">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B160" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C160" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D160" s="17" t="s">
         <v>53</v>
       </c>
       <c r="E160" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F160" s="117" t="s">
         <v>22</v>
@@ -6611,21 +6629,21 @@
       <c r="K160" s="123"/>
       <c r="L160" s="123"/>
     </row>
-    <row r="161" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="134">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B161" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C161" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D161" s="17" t="s">
         <v>54</v>
       </c>
       <c r="E161" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F161" s="117" t="s">
         <v>22</v>
@@ -6639,21 +6657,21 @@
       <c r="K161" s="123"/>
       <c r="L161" s="123"/>
     </row>
-    <row r="162" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="134">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B162" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C162" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D162" s="17" t="s">
         <v>55</v>
       </c>
       <c r="E162" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F162" s="117" t="s">
         <v>22</v>
@@ -6667,77 +6685,77 @@
       <c r="K162" s="123"/>
       <c r="L162" s="123"/>
     </row>
-    <row r="163" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="134">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B163" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C163" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D163" s="17" t="s">
         <v>56</v>
       </c>
       <c r="E163" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F163" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G163" s="105"/>
       <c r="H163" s="120"/>
-      <c r="I163" s="117" t="s">
+      <c r="I163" s="120" t="s">
         <v>26</v>
       </c>
       <c r="J163" s="123"/>
       <c r="K163" s="123"/>
       <c r="L163" s="123"/>
     </row>
-    <row r="164" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="134">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B164" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C164" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D164" s="17" t="s">
         <v>57</v>
       </c>
       <c r="E164" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F164" s="117" t="s">
         <v>22</v>
       </c>
       <c r="G164" s="105"/>
       <c r="H164" s="120"/>
-      <c r="I164" s="120" t="s">
+      <c r="I164" s="117" t="s">
         <v>26</v>
       </c>
       <c r="J164" s="123"/>
       <c r="K164" s="123"/>
       <c r="L164" s="123"/>
     </row>
-    <row r="165" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="134">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B165" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C165" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D165" s="17" t="s">
         <v>58</v>
       </c>
       <c r="E165" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F165" s="117" t="s">
         <v>22</v>
@@ -6751,21 +6769,21 @@
       <c r="K165" s="123"/>
       <c r="L165" s="123"/>
     </row>
-    <row r="166" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="134">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B166" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C166" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D166" s="17" t="s">
         <v>59</v>
       </c>
       <c r="E166" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F166" s="117" t="s">
         <v>22</v>
@@ -6779,21 +6797,21 @@
       <c r="K166" s="123"/>
       <c r="L166" s="123"/>
     </row>
-    <row r="167" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="134">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B167" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C167" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D167" s="17" t="s">
         <v>60</v>
       </c>
       <c r="E167" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F167" s="117" t="s">
         <v>22</v>
@@ -6807,21 +6825,21 @@
       <c r="K167" s="123"/>
       <c r="L167" s="123"/>
     </row>
-    <row r="168" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="134">
-        <v>166</v>
-      </c>
-      <c r="B168" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C168" s="27" t="s">
-        <v>66</v>
+        <v>167</v>
+      </c>
+      <c r="B168" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C168" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="D168" s="17" t="s">
         <v>61</v>
       </c>
       <c r="E168" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F168" s="117" t="s">
         <v>22</v>
@@ -6835,21 +6853,21 @@
       <c r="K168" s="123"/>
       <c r="L168" s="123"/>
     </row>
-    <row r="169" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="134">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B169" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C169" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E169" s="29" t="s">
-        <v>198</v>
+        <v>72</v>
+      </c>
+      <c r="E169" s="20" t="s">
+        <v>197</v>
       </c>
       <c r="F169" s="117" t="s">
         <v>22</v>
@@ -6863,21 +6881,21 @@
       <c r="K169" s="123"/>
       <c r="L169" s="123"/>
     </row>
-    <row r="170" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="134">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B170" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C170" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D170" s="17" t="s">
         <v>73</v>
       </c>
       <c r="E170" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F170" s="117" t="s">
         <v>22</v>
@@ -6891,21 +6909,21 @@
       <c r="K170" s="123"/>
       <c r="L170" s="123"/>
     </row>
-    <row r="171" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="134">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B171" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C171" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D171" s="17" t="s">
         <v>74</v>
       </c>
       <c r="E171" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F171" s="117" t="s">
         <v>22</v>
@@ -6919,81 +6937,67 @@
       <c r="K171" s="123"/>
       <c r="L171" s="123"/>
     </row>
-    <row r="172" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="134">
-        <v>170</v>
-      </c>
-      <c r="B172" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C172" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D172" s="17" t="s">
+    <row r="172" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A172" s="136">
+        <v>171</v>
+      </c>
+      <c r="B172" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C172" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D172" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E172" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="F172" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G172" s="105"/>
-      <c r="H172" s="120"/>
-      <c r="I172" s="117" t="s">
-        <v>26</v>
-      </c>
-      <c r="J172" s="123"/>
-      <c r="K172" s="123"/>
-      <c r="L172" s="123"/>
-    </row>
-    <row r="173" spans="1:12" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="136">
-        <v>171</v>
-      </c>
-      <c r="B173" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C173" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D173" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="E173" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="F173" s="118" t="s">
-        <v>22</v>
-      </c>
-      <c r="G173" s="112"/>
-      <c r="H173" s="122"/>
-      <c r="I173" s="122" t="s">
-        <v>26</v>
-      </c>
-      <c r="J173" s="127"/>
-      <c r="K173" s="127"/>
-      <c r="L173" s="127"/>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E172" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="F172" s="118" t="s">
+        <v>22</v>
+      </c>
+      <c r="G172" s="112"/>
+      <c r="H172" s="122"/>
+      <c r="I172" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="J172" s="127"/>
+      <c r="K172" s="127"/>
+      <c r="L172" s="127"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A173" s="13"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="8"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="11"/>
+      <c r="H173" s="4"/>
+      <c r="I173" s="3"/>
+      <c r="J173" s="4"/>
+      <c r="K173" s="4"/>
+      <c r="L173" s="4"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" s="13"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
-      <c r="D174" s="7"/>
+      <c r="D174" s="10"/>
       <c r="E174" s="8"/>
       <c r="F174" s="5"/>
-      <c r="G174" s="11"/>
+      <c r="G174" s="6"/>
       <c r="H174" s="4"/>
       <c r="I174" s="3"/>
       <c r="J174" s="4"/>
       <c r="K174" s="4"/>
       <c r="L174" s="4"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" s="13"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
-      <c r="D175" s="10"/>
+      <c r="D175" s="9"/>
       <c r="E175" s="8"/>
       <c r="F175" s="5"/>
       <c r="G175" s="6"/>
@@ -7003,7 +7007,7 @@
       <c r="K175" s="4"/>
       <c r="L175" s="4"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" s="13"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -7017,7 +7021,7 @@
       <c r="K176" s="4"/>
       <c r="L176" s="4"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" s="13"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -7031,22 +7035,8 @@
       <c r="K177" s="4"/>
       <c r="L177" s="4"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A178" s="13"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="9"/>
-      <c r="E178" s="8"/>
-      <c r="F178" s="5"/>
-      <c r="G178" s="6"/>
-      <c r="H178" s="4"/>
-      <c r="I178" s="3"/>
-      <c r="J178" s="4"/>
-      <c r="K178" s="4"/>
-      <c r="L178" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:L103" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L102" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/dataland-framework-toolbox/inputs/eu-taxonomy-financials/eu-taxonomy-financials.xlsx
+++ b/dataland-framework-toolbox/inputs/eu-taxonomy-financials/eu-taxonomy-financials.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d93401\Projects\Dataland\dataland-framework-toolbox\inputs\eu-taxonomy-financials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92432\Documents\Projekte\02-Dataland\Dataland\dataland-framework-toolbox\inputs\eu-taxonomy-financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C254EC-2798-4022-BE34-AE4AAD793DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B5D531-988E-41D7-A117-599F5849B0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="1725" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Framework Data Model'!$A$1:$L$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Framework Data Model'!$A$1:$L$101</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
     <definedName name="IQ_CY">10000</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="250">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -124,15 +124,9 @@
     <t>Percentage</t>
   </si>
   <si>
-    <t>NFRD Mandatory</t>
-  </si>
-  <si>
     <t>Is the NFRD mandatory for your company?</t>
   </si>
   <si>
-    <t>Assurance</t>
-  </si>
-  <si>
     <t>Extended</t>
   </si>
   <si>
@@ -161,9 +155,6 @@
   </si>
   <si>
     <t>CapEx-based Green Asset Ratio (stock)</t>
-  </si>
-  <si>
-    <t>Scope of Entities</t>
   </si>
   <si>
     <t>Number of Employees</t>
@@ -576,16 +567,7 @@
 Investment firms not dealing on own account: revenue (i.e. fees, commissions and other monetary benefits) from investment and services and activities other than on own account (as per Section A of Annex I to Directive 2014/65/EU) of which transitional</t>
   </si>
   <si>
-    <t>Reporting Period</t>
-  </si>
-  <si>
-    <t>The Reporting Period the Dataset belongs to (e.g. Fiscal Year).</t>
-  </si>
-  <si>
     <t>Assets for Calculation of Green Asset Ratio</t>
-  </si>
-  <si>
-    <t>Total over all covered assets which are included in the numerator. Do not include assets which not covered for GAR calculation.</t>
   </si>
   <si>
     <t>Currency</t>
@@ -879,6 +861,18 @@
   </si>
   <si>
     <t>Allowed Range: [0, 100]</t>
+  </si>
+  <si>
+    <t>Are all Group Entities covered?</t>
+  </si>
+  <si>
+    <t>Is NFRD mandatory?</t>
+  </si>
+  <si>
+    <t>Level of Assurance</t>
+  </si>
+  <si>
+    <t>Total overall covered assets which are included in the numerator. Do not include assets which not covered for GAR calculation.</t>
   </si>
 </sst>
 </file>
@@ -2357,16 +2351,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L176"/>
+  <dimension ref="A1:L175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="20.26953125" customWidth="1"/>
+    <col min="3" max="3" width="41.453125" customWidth="1"/>
     <col min="4" max="4" width="95.1796875" customWidth="1"/>
     <col min="5" max="5" width="78.7265625" customWidth="1"/>
     <col min="6" max="6" width="40.7265625" bestFit="1" customWidth="1"/>
@@ -2414,7 +2408,7 @@
     </row>
     <row r="2" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>12</v>
@@ -2423,24 +2417,28 @@
         <v>12</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="F2" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="66"/>
+        <v>17</v>
+      </c>
+      <c r="G2" s="66" t="s">
+        <v>27</v>
+      </c>
       <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
+      <c r="I2" s="68" t="s">
+        <v>24</v>
+      </c>
       <c r="J2" s="68"/>
       <c r="K2" s="68"/>
       <c r="L2" s="68"/>
     </row>
     <row r="3" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>12</v>
@@ -2449,28 +2447,28 @@
         <v>12</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="67"/>
+        <v>19</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="68"/>
       <c r="I3" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+        <v>24</v>
+      </c>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
       <c r="L3" s="68"/>
     </row>
     <row r="4" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>12</v>
@@ -2479,28 +2477,26 @@
         <v>12</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="71" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="68"/>
-      <c r="I4" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
       <c r="L4" s="68"/>
     </row>
     <row r="5" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>12</v>
@@ -2509,26 +2505,28 @@
         <v>12</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>27</v>
+        <v>246</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F5" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="72" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
+      <c r="I5" s="68" t="s">
+        <v>24</v>
+      </c>
       <c r="J5" s="68"/>
       <c r="K5" s="68"/>
       <c r="L5" s="68"/>
     </row>
     <row r="6" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>12</v>
@@ -2537,20 +2535,20 @@
         <v>12</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="70" t="s">
-        <v>21</v>
+        <v>58</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>26</v>
       </c>
       <c r="G6" s="72" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="H6" s="68"/>
       <c r="I6" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J6" s="68"/>
       <c r="K6" s="68"/>
@@ -2558,7 +2556,7 @@
     </row>
     <row r="7" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="64">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>12</v>
@@ -2567,316 +2565,316 @@
         <v>12</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>37</v>
+        <v>247</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="72" t="s">
-        <v>250</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="74"/>
       <c r="H7" s="68"/>
       <c r="I7" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J7" s="68"/>
       <c r="K7" s="68"/>
       <c r="L7" s="68"/>
     </row>
-    <row r="8" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="64">
-        <v>6</v>
-      </c>
-      <c r="B8" s="24" t="s">
+    <row r="8" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="75">
+        <v>7</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="74"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-    </row>
-    <row r="9" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="75">
-        <v>7</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="28" t="s">
+      <c r="D8" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="28"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="29">
+        <v>8</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="28"/>
+      <c r="C9" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="79" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="80"/>
     </row>
     <row r="10" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="E10" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="G10" s="79" t="s">
-        <v>250</v>
+        <v>152</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="81" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="74" t="s">
+        <v>244</v>
       </c>
       <c r="H10" s="68"/>
       <c r="I10" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J10" s="68"/>
       <c r="K10" s="68"/>
-      <c r="L10" s="80"/>
+      <c r="L10" s="68"/>
     </row>
     <row r="11" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" s="81" t="s">
-        <v>161</v>
-      </c>
       <c r="F11" s="34" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G11" s="74" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H11" s="68"/>
       <c r="I11" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J11" s="68"/>
       <c r="K11" s="68"/>
       <c r="L11" s="68"/>
     </row>
     <row r="12" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="29">
-        <v>9.1</v>
+      <c r="A12" s="82" t="s">
+        <v>158</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>162</v>
+        <v>152</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>159</v>
       </c>
       <c r="E12" s="81" t="s">
-        <v>163</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="G12" s="74" t="s">
-        <v>250</v>
+        <v>160</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="G12" s="79" t="s">
+        <v>244</v>
       </c>
       <c r="H12" s="68"/>
       <c r="I12" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J12" s="68"/>
       <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
+      <c r="L12" s="80"/>
     </row>
     <row r="13" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="82" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>165</v>
+        <v>152</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>162</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="G13" s="79" t="s">
-        <v>250</v>
+        <v>163</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="74" t="s">
+        <v>244</v>
       </c>
       <c r="H13" s="68"/>
       <c r="I13" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J13" s="68"/>
       <c r="K13" s="68"/>
-      <c r="L13" s="80"/>
-    </row>
-    <row r="14" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="82" t="s">
-        <v>167</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="E14" s="81" t="s">
-        <v>169</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="G14" s="74" t="s">
-        <v>250</v>
-      </c>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-    </row>
-    <row r="15" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="83" t="s">
-        <v>170</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="D15" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="85" t="s">
-        <v>172</v>
-      </c>
-      <c r="F15" s="86" t="s">
-        <v>159</v>
-      </c>
-      <c r="G15" s="87" t="s">
-        <v>250</v>
-      </c>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
+      <c r="L13" s="68"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="83" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="84" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" s="86" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="87" t="s">
+        <v>244</v>
+      </c>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="82">
+        <v>10</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="74" t="s">
+        <v>245</v>
+      </c>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
     </row>
     <row r="16" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="82">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>61</v>
       </c>
       <c r="F16" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H16" s="68"/>
       <c r="I16" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J16" s="68"/>
       <c r="K16" s="68"/>
       <c r="L16" s="68"/>
     </row>
     <row r="17" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="82">
-        <v>10.1</v>
+      <c r="A17" s="82" t="s">
+        <v>167</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F17" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H17" s="68"/>
       <c r="I17" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J17" s="68"/>
       <c r="K17" s="68"/>
@@ -2884,29 +2882,29 @@
     </row>
     <row r="18" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="82" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F18" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H18" s="68"/>
       <c r="I18" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J18" s="68"/>
       <c r="K18" s="68"/>
@@ -2914,59 +2912,59 @@
     </row>
     <row r="19" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="82" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F19" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H19" s="68"/>
       <c r="I19" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J19" s="68"/>
       <c r="K19" s="68"/>
       <c r="L19" s="68"/>
     </row>
     <row r="20" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="82" t="s">
-        <v>176</v>
+      <c r="A20" s="82">
+        <v>11</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F20" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H20" s="68"/>
       <c r="I20" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J20" s="68"/>
       <c r="K20" s="68"/>
@@ -2974,59 +2972,59 @@
     </row>
     <row r="21" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="82">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F21" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H21" s="68"/>
       <c r="I21" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J21" s="68"/>
       <c r="K21" s="68"/>
       <c r="L21" s="68"/>
     </row>
     <row r="22" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="82">
-        <v>11.1</v>
+      <c r="A22" s="82" t="s">
+        <v>172</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F22" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H22" s="68"/>
       <c r="I22" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J22" s="68"/>
       <c r="K22" s="68"/>
@@ -3034,59 +3032,59 @@
     </row>
     <row r="23" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="82" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>84</v>
+        <v>32</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>70</v>
       </c>
       <c r="F23" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H23" s="68"/>
       <c r="I23" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J23" s="68"/>
       <c r="K23" s="68"/>
       <c r="L23" s="68"/>
     </row>
     <row r="24" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="82" t="s">
-        <v>179</v>
+      <c r="A24" s="82">
+        <v>12</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F24" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H24" s="68"/>
       <c r="I24" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J24" s="68"/>
       <c r="K24" s="68"/>
@@ -3094,59 +3092,59 @@
     </row>
     <row r="25" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="82">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F25" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H25" s="68"/>
       <c r="I25" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J25" s="68"/>
       <c r="K25" s="68"/>
       <c r="L25" s="68"/>
     </row>
     <row r="26" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="82">
-        <v>12.1</v>
+      <c r="A26" s="82" t="s">
+        <v>175</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F26" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H26" s="68"/>
       <c r="I26" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J26" s="68"/>
       <c r="K26" s="68"/>
@@ -3154,59 +3152,59 @@
     </row>
     <row r="27" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="82" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F27" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H27" s="68"/>
       <c r="I27" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J27" s="68"/>
       <c r="K27" s="68"/>
       <c r="L27" s="68"/>
     </row>
     <row r="28" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="82" t="s">
-        <v>182</v>
+      <c r="A28" s="82">
+        <v>13</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F28" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H28" s="68"/>
       <c r="I28" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J28" s="68"/>
       <c r="K28" s="68"/>
@@ -3214,59 +3212,59 @@
     </row>
     <row r="29" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="82">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F29" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H29" s="68"/>
       <c r="I29" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J29" s="68"/>
       <c r="K29" s="68"/>
       <c r="L29" s="68"/>
     </row>
     <row r="30" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="82">
-        <v>13.1</v>
+      <c r="A30" s="82" t="s">
+        <v>178</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F30" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H30" s="68"/>
       <c r="I30" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J30" s="68"/>
       <c r="K30" s="68"/>
@@ -3274,59 +3272,59 @@
     </row>
     <row r="31" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="82" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F31" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H31" s="68"/>
       <c r="I31" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J31" s="68"/>
       <c r="K31" s="68"/>
       <c r="L31" s="68"/>
     </row>
     <row r="32" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="82" t="s">
-        <v>185</v>
+      <c r="A32" s="82">
+        <v>14</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F32" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H32" s="68"/>
       <c r="I32" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J32" s="68"/>
       <c r="K32" s="68"/>
@@ -3334,59 +3332,59 @@
     </row>
     <row r="33" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="82">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F33" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H33" s="68"/>
       <c r="I33" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J33" s="68"/>
       <c r="K33" s="68"/>
       <c r="L33" s="68"/>
     </row>
     <row r="34" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="82">
-        <v>14.1</v>
+      <c r="A34" s="82" t="s">
+        <v>181</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F34" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H34" s="68"/>
       <c r="I34" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J34" s="68"/>
       <c r="K34" s="68"/>
@@ -3394,59 +3392,59 @@
     </row>
     <row r="35" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="82" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F35" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H35" s="68"/>
       <c r="I35" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J35" s="68"/>
       <c r="K35" s="68"/>
       <c r="L35" s="68"/>
     </row>
     <row r="36" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="82" t="s">
-        <v>188</v>
+      <c r="A36" s="82">
+        <v>15</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F36" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G36" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H36" s="68"/>
       <c r="I36" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J36" s="68"/>
       <c r="K36" s="68"/>
@@ -3454,329 +3452,329 @@
     </row>
     <row r="37" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="82">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F37" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G37" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H37" s="68"/>
       <c r="I37" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J37" s="68"/>
       <c r="K37" s="68"/>
       <c r="L37" s="68"/>
     </row>
     <row r="38" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="82">
-        <v>15.1</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="F38" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="74" t="s">
-        <v>251</v>
-      </c>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
+      <c r="A38" s="89" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="92" t="s">
+        <v>245</v>
+      </c>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="93"/>
+      <c r="K38" s="93"/>
+      <c r="L38" s="93"/>
     </row>
     <row r="39" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="89" t="s">
-        <v>190</v>
-      </c>
-      <c r="B39" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="F39" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="92" t="s">
-        <v>251</v>
-      </c>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93" t="s">
-        <v>26</v>
-      </c>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
-      <c r="L39" s="93"/>
+      <c r="A39" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="94" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="E39" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="74" t="s">
+        <v>245</v>
+      </c>
+      <c r="H39" s="97"/>
+      <c r="I39" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="97"/>
+      <c r="K39" s="97"/>
+      <c r="L39" s="97"/>
     </row>
     <row r="40" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="82" t="s">
-        <v>191</v>
+      <c r="A40" s="82">
+        <v>16</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="94" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="95" t="s">
-        <v>192</v>
-      </c>
-      <c r="E40" s="96" t="s">
-        <v>109</v>
-      </c>
-      <c r="F40" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="74" t="s">
-        <v>251</v>
-      </c>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97" t="s">
-        <v>26</v>
-      </c>
-      <c r="J40" s="97"/>
-      <c r="K40" s="97"/>
-      <c r="L40" s="97"/>
+        <v>31</v>
+      </c>
+      <c r="C40" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="98" t="s">
+        <v>187</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F40" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="68"/>
     </row>
     <row r="41" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="82">
-        <v>16</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C41" s="88" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D41" s="98" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="F41" s="99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="79" t="s">
-        <v>251</v>
+        <v>190</v>
+      </c>
+      <c r="F41" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="74" t="s">
+        <v>245</v>
       </c>
       <c r="H41" s="68"/>
       <c r="I41" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J41" s="68"/>
       <c r="K41" s="68"/>
       <c r="L41" s="68"/>
     </row>
     <row r="42" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="82">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" s="98" t="s">
-        <v>195</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="F42" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="74" t="s">
-        <v>251</v>
-      </c>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68"/>
+      <c r="A42" s="89" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="F42" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="92" t="s">
+        <v>245</v>
+      </c>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="93"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="93"/>
     </row>
     <row r="43" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="B43" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="95" t="s">
+        <v>194</v>
+      </c>
+      <c r="E43" s="96" t="s">
+        <v>195</v>
+      </c>
+      <c r="F43" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="74" t="s">
+        <v>245</v>
+      </c>
+      <c r="H43" s="97"/>
+      <c r="I43" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="97"/>
+      <c r="K43" s="97"/>
+      <c r="L43" s="97"/>
+    </row>
+    <row r="44" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="102" t="s">
+        <v>242</v>
+      </c>
+      <c r="B44" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="104" t="s">
         <v>197</v>
       </c>
-      <c r="B43" s="58" t="s">
+      <c r="E44" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="F44" s="105" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="106" t="s">
+        <v>245</v>
+      </c>
+      <c r="H44" s="107"/>
+      <c r="I44" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" s="107"/>
+      <c r="K44" s="107"/>
+      <c r="L44" s="107"/>
+    </row>
+    <row r="45" spans="1:12" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="82">
+        <v>20</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="100" t="s">
-        <v>198</v>
-      </c>
-      <c r="E43" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="F43" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="92" t="s">
-        <v>251</v>
-      </c>
-      <c r="H43" s="93"/>
-      <c r="I43" s="93" t="s">
-        <v>26</v>
-      </c>
-      <c r="J43" s="93"/>
-      <c r="K43" s="93"/>
-      <c r="L43" s="93"/>
-    </row>
-    <row r="44" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="B44" s="58" t="s">
+      <c r="D45" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="G45" s="74" t="s">
+        <v>244</v>
+      </c>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+    </row>
+    <row r="46" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="82">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="95" t="s">
-        <v>200</v>
-      </c>
-      <c r="E44" s="96" t="s">
-        <v>201</v>
-      </c>
-      <c r="F44" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="74" t="s">
-        <v>251</v>
-      </c>
-      <c r="H44" s="97"/>
-      <c r="I44" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="J44" s="97"/>
-      <c r="K44" s="97"/>
-      <c r="L44" s="97"/>
-    </row>
-    <row r="45" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="B45" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="103" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="104" t="s">
-        <v>203</v>
-      </c>
-      <c r="E45" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="F45" s="105" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" s="106" t="s">
-        <v>251</v>
-      </c>
-      <c r="H45" s="107"/>
-      <c r="I45" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="J45" s="107"/>
-      <c r="K45" s="107"/>
-      <c r="L45" s="107"/>
-    </row>
-    <row r="46" spans="1:12" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="82">
-        <v>20</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="29" t="s">
+      <c r="D46" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="25" t="s">
-        <v>49</v>
-      </c>
       <c r="E46" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="F46" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="G46" s="74" t="s">
-        <v>250</v>
+        <v>65</v>
+      </c>
+      <c r="F46" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="92" t="s">
+        <v>245</v>
       </c>
       <c r="H46" s="68"/>
       <c r="I46" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J46" s="68"/>
       <c r="K46" s="68"/>
       <c r="L46" s="68"/>
     </row>
     <row r="47" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="82">
-        <v>20.100000000000001</v>
+      <c r="A47" s="82" t="s">
+        <v>199</v>
       </c>
       <c r="B47" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D47" s="37" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F47" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G47" s="92" t="s">
-        <v>251</v>
+      <c r="G47" s="74" t="s">
+        <v>245</v>
       </c>
       <c r="H47" s="68"/>
       <c r="I47" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J47" s="68"/>
       <c r="K47" s="68"/>
@@ -3784,29 +3782,29 @@
     </row>
     <row r="48" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="82" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B48" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D48" s="37" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="F48" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G48" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H48" s="68"/>
       <c r="I48" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J48" s="68"/>
       <c r="K48" s="68"/>
@@ -3814,59 +3812,59 @@
     </row>
     <row r="49" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="82" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B49" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D49" s="37" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F49" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G49" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H49" s="68"/>
       <c r="I49" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J49" s="68"/>
       <c r="K49" s="68"/>
       <c r="L49" s="68"/>
     </row>
     <row r="50" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="82" t="s">
-        <v>207</v>
+      <c r="A50" s="82">
+        <v>21</v>
       </c>
       <c r="B50" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D50" s="37" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="E50" s="38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F50" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G50" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H50" s="68"/>
       <c r="I50" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J50" s="68"/>
       <c r="K50" s="68"/>
@@ -3874,59 +3872,59 @@
     </row>
     <row r="51" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="82">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="B51" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D51" s="37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E51" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F51" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G51" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H51" s="68"/>
       <c r="I51" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J51" s="68"/>
       <c r="K51" s="68"/>
       <c r="L51" s="68"/>
     </row>
     <row r="52" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="82">
-        <v>21.1</v>
+      <c r="A52" s="82" t="s">
+        <v>202</v>
       </c>
       <c r="B52" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D52" s="37" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E52" s="38" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F52" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G52" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H52" s="68"/>
       <c r="I52" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J52" s="68"/>
       <c r="K52" s="68"/>
@@ -3934,59 +3932,59 @@
     </row>
     <row r="53" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="82" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B53" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D53" s="37" t="s">
-        <v>78</v>
+      <c r="D53" s="38" t="s">
+        <v>174</v>
       </c>
       <c r="E53" s="38" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F53" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G53" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H53" s="68"/>
       <c r="I53" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J53" s="68"/>
       <c r="K53" s="68"/>
       <c r="L53" s="68"/>
     </row>
     <row r="54" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="82" t="s">
-        <v>209</v>
+      <c r="A54" s="82">
+        <v>22</v>
       </c>
       <c r="B54" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D54" s="38" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F54" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G54" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H54" s="68"/>
       <c r="I54" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J54" s="68"/>
       <c r="K54" s="68"/>
@@ -3994,59 +3992,59 @@
     </row>
     <row r="55" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="82">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="B55" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D55" s="38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E55" s="38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F55" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G55" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H55" s="68"/>
       <c r="I55" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J55" s="68"/>
       <c r="K55" s="68"/>
       <c r="L55" s="68"/>
     </row>
     <row r="56" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="82">
-        <v>22.1</v>
+      <c r="A56" s="82" t="s">
+        <v>204</v>
       </c>
       <c r="B56" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D56" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="E56" s="38" t="s">
-        <v>90</v>
+        <v>76</v>
+      </c>
+      <c r="E56" s="37" t="s">
+        <v>84</v>
       </c>
       <c r="F56" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G56" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H56" s="68"/>
       <c r="I56" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J56" s="68"/>
       <c r="K56" s="68"/>
@@ -4054,59 +4052,59 @@
     </row>
     <row r="57" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="82" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B57" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D57" s="38" t="s">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="E57" s="37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F57" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G57" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H57" s="68"/>
       <c r="I57" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J57" s="68"/>
       <c r="K57" s="68"/>
       <c r="L57" s="68"/>
     </row>
     <row r="58" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="82" t="s">
-        <v>211</v>
+      <c r="A58" s="82">
+        <v>23</v>
       </c>
       <c r="B58" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D58" s="38" t="s">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="E58" s="37" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F58" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G58" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H58" s="68"/>
       <c r="I58" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J58" s="68"/>
       <c r="K58" s="68"/>
@@ -4114,59 +4112,59 @@
     </row>
     <row r="59" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="82">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="B59" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D59" s="38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F59" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G59" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H59" s="68"/>
       <c r="I59" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J59" s="68"/>
       <c r="K59" s="68"/>
       <c r="L59" s="68"/>
     </row>
     <row r="60" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="82">
-        <v>23.1</v>
+      <c r="A60" s="82" t="s">
+        <v>206</v>
       </c>
       <c r="B60" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D60" s="38" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="E60" s="37" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F60" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G60" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H60" s="68"/>
       <c r="I60" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J60" s="68"/>
       <c r="K60" s="68"/>
@@ -4174,59 +4172,59 @@
     </row>
     <row r="61" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="82" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B61" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D61" s="38" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="E61" s="37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F61" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G61" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H61" s="68"/>
       <c r="I61" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J61" s="68"/>
       <c r="K61" s="68"/>
       <c r="L61" s="68"/>
     </row>
     <row r="62" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="82" t="s">
-        <v>213</v>
+      <c r="A62" s="82">
+        <v>24</v>
       </c>
       <c r="B62" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C62" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D62" s="38" t="s">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="E62" s="37" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F62" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G62" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H62" s="68"/>
       <c r="I62" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J62" s="68"/>
       <c r="K62" s="68"/>
@@ -4234,59 +4232,59 @@
     </row>
     <row r="63" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="82">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="B63" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D63" s="38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E63" s="37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F63" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G63" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H63" s="68"/>
       <c r="I63" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J63" s="68"/>
       <c r="K63" s="68"/>
       <c r="L63" s="68"/>
     </row>
     <row r="64" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="82">
-        <v>24.1</v>
+      <c r="A64" s="82" t="s">
+        <v>208</v>
       </c>
       <c r="B64" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C64" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D64" s="38" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="E64" s="37" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F64" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G64" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H64" s="68"/>
       <c r="I64" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J64" s="68"/>
       <c r="K64" s="68"/>
@@ -4294,59 +4292,59 @@
     </row>
     <row r="65" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="82" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B65" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D65" s="38" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="E65" s="37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F65" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G65" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H65" s="68"/>
       <c r="I65" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J65" s="68"/>
       <c r="K65" s="68"/>
       <c r="L65" s="68"/>
     </row>
     <row r="66" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="82" t="s">
-        <v>215</v>
+      <c r="A66" s="82">
+        <v>25</v>
       </c>
       <c r="B66" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C66" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D66" s="38" t="s">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="E66" s="37" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F66" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G66" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H66" s="68"/>
       <c r="I66" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J66" s="68"/>
       <c r="K66" s="68"/>
@@ -4354,119 +4352,119 @@
     </row>
     <row r="67" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="82">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="B67" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D67" s="38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E67" s="37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F67" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G67" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H67" s="68"/>
       <c r="I67" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J67" s="68"/>
       <c r="K67" s="68"/>
       <c r="L67" s="68"/>
     </row>
     <row r="68" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="82">
-        <v>25.1</v>
-      </c>
-      <c r="B68" s="30" t="s">
+      <c r="A68" s="89" t="s">
+        <v>210</v>
+      </c>
+      <c r="B68" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C68" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D68" s="38" t="s">
-        <v>48</v>
+      <c r="D68" s="90" t="s">
+        <v>79</v>
       </c>
       <c r="E68" s="37" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F68" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G68" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H68" s="68"/>
       <c r="I68" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J68" s="68"/>
       <c r="K68" s="68"/>
       <c r="L68" s="68"/>
     </row>
     <row r="69" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="89" t="s">
-        <v>216</v>
-      </c>
-      <c r="B69" s="58" t="s">
+      <c r="A69" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="D69" s="90" t="s">
-        <v>82</v>
+      <c r="D69" s="95" t="s">
+        <v>186</v>
       </c>
       <c r="E69" s="37" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F69" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G69" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H69" s="68"/>
       <c r="I69" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J69" s="68"/>
       <c r="K69" s="68"/>
       <c r="L69" s="68"/>
     </row>
     <row r="70" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="82" t="s">
-        <v>217</v>
+      <c r="A70" s="82">
+        <v>26</v>
       </c>
       <c r="B70" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="C70" s="94" t="s">
-        <v>35</v>
-      </c>
-      <c r="D70" s="95" t="s">
-        <v>192</v>
-      </c>
-      <c r="E70" s="37" t="s">
-        <v>98</v>
+      <c r="D70" s="98" t="s">
+        <v>187</v>
+      </c>
+      <c r="E70" s="38" t="s">
+        <v>212</v>
       </c>
       <c r="F70" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G70" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H70" s="68"/>
       <c r="I70" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J70" s="68"/>
       <c r="K70" s="68"/>
@@ -4474,179 +4472,179 @@
     </row>
     <row r="71" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="82">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="B71" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="C71" s="88" t="s">
-        <v>35</v>
-      </c>
       <c r="D71" s="98" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E71" s="38" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F71" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G71" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H71" s="68"/>
       <c r="I71" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J71" s="68"/>
       <c r="K71" s="68"/>
       <c r="L71" s="68"/>
     </row>
     <row r="72" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="82">
-        <v>26.1</v>
-      </c>
-      <c r="B72" s="30" t="s">
+      <c r="A72" s="89" t="s">
+        <v>214</v>
+      </c>
+      <c r="B72" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="88" t="s">
-        <v>35</v>
-      </c>
-      <c r="D72" s="98" t="s">
-        <v>195</v>
-      </c>
-      <c r="E72" s="38" t="s">
-        <v>219</v>
+      <c r="D72" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="E72" s="39" t="s">
+        <v>193</v>
       </c>
       <c r="F72" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G72" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H72" s="68"/>
       <c r="I72" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J72" s="68"/>
       <c r="K72" s="68"/>
       <c r="L72" s="68"/>
     </row>
     <row r="73" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="89" t="s">
-        <v>220</v>
+      <c r="A73" s="82" t="s">
+        <v>215</v>
       </c>
       <c r="B73" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C73" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="D73" s="100" t="s">
-        <v>198</v>
-      </c>
-      <c r="E73" s="39" t="s">
-        <v>199</v>
+      <c r="D73" s="95" t="s">
+        <v>194</v>
+      </c>
+      <c r="E73" s="96" t="s">
+        <v>216</v>
       </c>
       <c r="F73" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G73" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H73" s="68"/>
       <c r="I73" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J73" s="68"/>
       <c r="K73" s="68"/>
       <c r="L73" s="68"/>
     </row>
-    <row r="74" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="82" t="s">
-        <v>221</v>
-      </c>
-      <c r="B74" s="58" t="s">
+    <row r="74" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="83" t="s">
+        <v>217</v>
+      </c>
+      <c r="B74" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="C74" s="59" t="s">
+      <c r="D74" s="109" t="s">
+        <v>197</v>
+      </c>
+      <c r="E74" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="F74" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="87" t="s">
+        <v>245</v>
+      </c>
+      <c r="H74" s="77"/>
+      <c r="I74" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="J74" s="77"/>
+      <c r="K74" s="77"/>
+      <c r="L74" s="77"/>
+    </row>
+    <row r="75" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="111">
+        <v>65</v>
+      </c>
+      <c r="B75" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D74" s="95" t="s">
-        <v>200</v>
-      </c>
-      <c r="E74" s="96" t="s">
-        <v>222</v>
-      </c>
-      <c r="F74" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" s="74" t="s">
-        <v>251</v>
-      </c>
-      <c r="H74" s="68"/>
-      <c r="I74" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="J74" s="68"/>
-      <c r="K74" s="68"/>
-      <c r="L74" s="68"/>
-    </row>
-    <row r="75" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="83" t="s">
-        <v>223</v>
-      </c>
-      <c r="B75" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C75" s="108" t="s">
-        <v>35</v>
-      </c>
-      <c r="D75" s="109" t="s">
-        <v>203</v>
-      </c>
-      <c r="E75" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="F75" s="110" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" s="87" t="s">
-        <v>251</v>
-      </c>
-      <c r="H75" s="77"/>
-      <c r="I75" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="J75" s="77"/>
-      <c r="K75" s="77"/>
-      <c r="L75" s="77"/>
+      <c r="E75" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F75" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="H75" s="68"/>
+      <c r="I75" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="J75" s="68"/>
+      <c r="K75" s="68"/>
+      <c r="L75" s="68"/>
     </row>
     <row r="76" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="111">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B76" s="43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C76" s="43" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F76" s="99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" s="79" t="s">
-        <v>251</v>
+        <v>219</v>
+      </c>
+      <c r="F76" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="74" t="s">
+        <v>245</v>
       </c>
       <c r="H76" s="68"/>
       <c r="I76" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J76" s="68"/>
       <c r="K76" s="68"/>
@@ -4654,29 +4652,29 @@
     </row>
     <row r="77" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="111">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F77" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G77" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H77" s="68"/>
       <c r="I77" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J77" s="68"/>
       <c r="K77" s="68"/>
@@ -4684,29 +4682,29 @@
     </row>
     <row r="78" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="111">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B78" s="43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>226</v>
+        <v>117</v>
       </c>
       <c r="F78" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G78" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H78" s="68"/>
       <c r="I78" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J78" s="68"/>
       <c r="K78" s="68"/>
@@ -4714,29 +4712,29 @@
     </row>
     <row r="79" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="111">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C79" s="43" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>120</v>
+        <v>221</v>
       </c>
       <c r="F79" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G79" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H79" s="68"/>
       <c r="I79" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J79" s="68"/>
       <c r="K79" s="68"/>
@@ -4744,29 +4742,29 @@
     </row>
     <row r="80" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="111">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B80" s="43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C80" s="43" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>227</v>
+        <v>118</v>
       </c>
       <c r="F80" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G80" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H80" s="68"/>
       <c r="I80" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J80" s="68"/>
       <c r="K80" s="68"/>
@@ -4774,29 +4772,29 @@
     </row>
     <row r="81" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="111">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C81" s="43" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>121</v>
+        <v>222</v>
       </c>
       <c r="F81" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G81" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H81" s="68"/>
       <c r="I81" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J81" s="68"/>
       <c r="K81" s="68"/>
@@ -4804,29 +4802,29 @@
     </row>
     <row r="82" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="111">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B82" s="43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>228</v>
+        <v>119</v>
       </c>
       <c r="F82" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G82" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H82" s="68"/>
       <c r="I82" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J82" s="68"/>
       <c r="K82" s="68"/>
@@ -4834,29 +4832,29 @@
     </row>
     <row r="83" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="111">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B83" s="43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C83" s="43" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>122</v>
+        <v>223</v>
       </c>
       <c r="F83" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G83" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H83" s="68"/>
       <c r="I83" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J83" s="68"/>
       <c r="K83" s="68"/>
@@ -4864,29 +4862,29 @@
     </row>
     <row r="84" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="111">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B84" s="43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C84" s="43" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>229</v>
+        <v>120</v>
       </c>
       <c r="F84" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G84" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H84" s="68"/>
       <c r="I84" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J84" s="68"/>
       <c r="K84" s="68"/>
@@ -4894,29 +4892,29 @@
     </row>
     <row r="85" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="111">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B85" s="43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C85" s="43" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>123</v>
+        <v>224</v>
       </c>
       <c r="F85" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G85" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H85" s="68"/>
       <c r="I85" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J85" s="68"/>
       <c r="K85" s="68"/>
@@ -4924,149 +4922,149 @@
     </row>
     <row r="86" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="111">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B86" s="43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F86" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" s="74" t="s">
-        <v>251</v>
-      </c>
-      <c r="H86" s="68"/>
-      <c r="I86" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="J86" s="68"/>
-      <c r="K86" s="68"/>
-      <c r="L86" s="68"/>
-    </row>
-    <row r="87" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="111">
-        <v>77</v>
-      </c>
-      <c r="B87" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C87" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D87" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E87" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F87" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" s="92" t="s">
-        <v>251</v>
-      </c>
-      <c r="H87" s="93"/>
-      <c r="I87" s="93" t="s">
-        <v>26</v>
-      </c>
-      <c r="J87" s="93"/>
-      <c r="K87" s="93"/>
-      <c r="L87" s="93"/>
-    </row>
-    <row r="88" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="112">
+      <c r="D86" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F86" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86" s="92" t="s">
+        <v>245</v>
+      </c>
+      <c r="H86" s="93"/>
+      <c r="I86" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="J86" s="93"/>
+      <c r="K86" s="93"/>
+      <c r="L86" s="93"/>
+    </row>
+    <row r="87" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="112">
         <v>78</v>
       </c>
-      <c r="B88" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C88" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="D88" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="E88" s="61" t="s">
-        <v>231</v>
-      </c>
-      <c r="F88" s="113" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" s="114" t="s">
-        <v>251</v>
-      </c>
-      <c r="H88" s="115"/>
-      <c r="I88" s="115" t="s">
-        <v>26</v>
-      </c>
-      <c r="J88" s="115"/>
-      <c r="K88" s="115"/>
-      <c r="L88" s="116"/>
-    </row>
-    <row r="89" spans="1:12" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C87" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D87" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="E87" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="F87" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="G87" s="114" t="s">
+        <v>245</v>
+      </c>
+      <c r="H87" s="115"/>
+      <c r="I87" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="J87" s="115"/>
+      <c r="K87" s="115"/>
+      <c r="L87" s="116"/>
+    </row>
+    <row r="88" spans="1:12" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="117">
+        <v>79</v>
+      </c>
+      <c r="B88" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C88" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D88" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F88" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="H88" s="118"/>
+      <c r="I88" s="118" t="s">
+        <v>24</v>
+      </c>
+      <c r="J88" s="118"/>
+      <c r="K88" s="118"/>
+      <c r="L88" s="118"/>
+    </row>
+    <row r="89" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="117">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B89" s="46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C89" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="D89" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E89" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="F89" s="99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" s="79" t="s">
-        <v>251</v>
-      </c>
-      <c r="H89" s="118"/>
-      <c r="I89" s="118" t="s">
-        <v>26</v>
-      </c>
-      <c r="J89" s="118"/>
-      <c r="K89" s="118"/>
-      <c r="L89" s="118"/>
+        <v>49</v>
+      </c>
+      <c r="D89" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="F89" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" s="74" t="s">
+        <v>245</v>
+      </c>
+      <c r="H89" s="119"/>
+      <c r="I89" s="119" t="s">
+        <v>24</v>
+      </c>
+      <c r="J89" s="119"/>
+      <c r="K89" s="119"/>
+      <c r="L89" s="119"/>
     </row>
     <row r="90" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="117">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B90" s="46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C90" s="47" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D90" s="49" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F90" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G90" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H90" s="119"/>
       <c r="I90" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J90" s="119"/>
       <c r="K90" s="119"/>
@@ -5074,29 +5072,29 @@
     </row>
     <row r="91" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="117">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B91" s="46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C91" s="47" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D91" s="49" t="s">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>233</v>
+        <v>123</v>
       </c>
       <c r="F91" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G91" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H91" s="119"/>
       <c r="I91" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J91" s="119"/>
       <c r="K91" s="119"/>
@@ -5104,29 +5102,29 @@
     </row>
     <row r="92" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="117">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B92" s="46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C92" s="47" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D92" s="49" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>126</v>
+        <v>228</v>
       </c>
       <c r="F92" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G92" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H92" s="119"/>
       <c r="I92" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J92" s="119"/>
       <c r="K92" s="119"/>
@@ -5134,29 +5132,29 @@
     </row>
     <row r="93" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="117">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B93" s="46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C93" s="47" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D93" s="49" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>234</v>
+        <v>124</v>
       </c>
       <c r="F93" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G93" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H93" s="119"/>
       <c r="I93" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J93" s="119"/>
       <c r="K93" s="119"/>
@@ -5164,29 +5162,29 @@
     </row>
     <row r="94" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="117">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B94" s="46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C94" s="47" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D94" s="49" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>127</v>
+        <v>229</v>
       </c>
       <c r="F94" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G94" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H94" s="119"/>
       <c r="I94" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J94" s="119"/>
       <c r="K94" s="119"/>
@@ -5194,29 +5192,29 @@
     </row>
     <row r="95" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="117">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B95" s="46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C95" s="47" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D95" s="49" t="s">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>235</v>
+        <v>125</v>
       </c>
       <c r="F95" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G95" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H95" s="119"/>
       <c r="I95" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J95" s="119"/>
       <c r="K95" s="119"/>
@@ -5224,29 +5222,29 @@
     </row>
     <row r="96" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="117">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B96" s="46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C96" s="47" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D96" s="49" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="F96" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G96" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H96" s="119"/>
       <c r="I96" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J96" s="119"/>
       <c r="K96" s="119"/>
@@ -5254,29 +5252,29 @@
     </row>
     <row r="97" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="117">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B97" s="46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C97" s="47" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D97" s="49" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>236</v>
+        <v>126</v>
       </c>
       <c r="F97" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G97" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H97" s="119"/>
       <c r="I97" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J97" s="119"/>
       <c r="K97" s="119"/>
@@ -5284,29 +5282,29 @@
     </row>
     <row r="98" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="117">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B98" s="46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C98" s="47" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D98" s="49" t="s">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="F98" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G98" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H98" s="119"/>
       <c r="I98" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J98" s="119"/>
       <c r="K98" s="119"/>
@@ -5314,149 +5312,149 @@
     </row>
     <row r="99" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="117">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B99" s="46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C99" s="47" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D99" s="49" t="s">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>237</v>
+        <v>127</v>
       </c>
       <c r="F99" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G99" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H99" s="119"/>
       <c r="I99" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J99" s="119"/>
       <c r="K99" s="119"/>
       <c r="L99" s="119"/>
     </row>
-    <row r="100" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="117">
-        <v>91</v>
-      </c>
-      <c r="B100" s="46" t="s">
+    <row r="100" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="120">
+        <v>92</v>
+      </c>
+      <c r="B100" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C100" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D100" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="E100" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="F100" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="G100" s="87" t="s">
+        <v>245</v>
+      </c>
+      <c r="H100" s="121"/>
+      <c r="I100" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="J100" s="121"/>
+      <c r="K100" s="121"/>
+      <c r="L100" s="121"/>
+    </row>
+    <row r="101" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="122">
+        <v>93</v>
+      </c>
+      <c r="B101" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C100" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="D100" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="E100" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F100" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" s="74" t="s">
-        <v>251</v>
-      </c>
-      <c r="H100" s="119"/>
-      <c r="I100" s="119" t="s">
-        <v>26</v>
-      </c>
-      <c r="J100" s="119"/>
-      <c r="K100" s="119"/>
-      <c r="L100" s="119"/>
-    </row>
-    <row r="101" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="120">
-        <v>92</v>
-      </c>
-      <c r="B101" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C101" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="D101" s="52" t="s">
-        <v>192</v>
-      </c>
-      <c r="E101" s="62" t="s">
-        <v>238</v>
-      </c>
-      <c r="F101" s="110" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" s="87" t="s">
-        <v>251</v>
-      </c>
-      <c r="H101" s="121"/>
-      <c r="I101" s="121" t="s">
-        <v>26</v>
-      </c>
-      <c r="J101" s="121"/>
-      <c r="K101" s="121"/>
-      <c r="L101" s="121"/>
+      <c r="C101" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E101" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="F101" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="H101" s="123"/>
+      <c r="I101" s="118" t="s">
+        <v>24</v>
+      </c>
+      <c r="J101" s="123"/>
+      <c r="K101" s="123"/>
+      <c r="L101" s="123"/>
     </row>
     <row r="102" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="122">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B102" s="53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C102" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="E102" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="F102" s="99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" s="79" t="s">
-        <v>251</v>
-      </c>
-      <c r="H102" s="123"/>
-      <c r="I102" s="118" t="s">
-        <v>26</v>
-      </c>
-      <c r="J102" s="123"/>
-      <c r="K102" s="123"/>
-      <c r="L102" s="123"/>
+        <v>51</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F102" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="G102" s="74" t="s">
+        <v>245</v>
+      </c>
+      <c r="H102" s="124"/>
+      <c r="I102" s="119" t="s">
+        <v>24</v>
+      </c>
+      <c r="J102" s="124"/>
+      <c r="K102" s="124"/>
+      <c r="L102" s="124"/>
     </row>
     <row r="103" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="122">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B103" s="53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C103" s="53" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>112</v>
+        <v>233</v>
       </c>
       <c r="F103" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G103" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H103" s="124"/>
       <c r="I103" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J103" s="124"/>
       <c r="K103" s="124"/>
@@ -5464,29 +5462,29 @@
     </row>
     <row r="104" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="122">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B104" s="53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C104" s="53" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F104" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G104" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H104" s="124"/>
       <c r="I104" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J104" s="124"/>
       <c r="K104" s="124"/>
@@ -5494,29 +5492,29 @@
     </row>
     <row r="105" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="122">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B105" s="53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C105" s="53" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="F105" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G105" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H105" s="124"/>
       <c r="I105" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J105" s="124"/>
       <c r="K105" s="124"/>
@@ -5524,29 +5522,29 @@
     </row>
     <row r="106" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="122">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B106" s="53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C106" s="53" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>113</v>
+        <v>235</v>
       </c>
       <c r="F106" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G106" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H106" s="124"/>
       <c r="I106" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J106" s="124"/>
       <c r="K106" s="124"/>
@@ -5554,29 +5552,29 @@
     </row>
     <row r="107" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="122">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B107" s="53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C107" s="53" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>241</v>
+        <v>111</v>
       </c>
       <c r="F107" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G107" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H107" s="124"/>
       <c r="I107" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J107" s="124"/>
       <c r="K107" s="124"/>
@@ -5584,29 +5582,29 @@
     </row>
     <row r="108" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="122">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B108" s="53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C108" s="53" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>114</v>
+        <v>236</v>
       </c>
       <c r="F108" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G108" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H108" s="124"/>
       <c r="I108" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J108" s="124"/>
       <c r="K108" s="124"/>
@@ -5614,29 +5612,29 @@
     </row>
     <row r="109" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="122">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B109" s="53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C109" s="53" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>242</v>
+        <v>112</v>
       </c>
       <c r="F109" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G109" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H109" s="124"/>
       <c r="I109" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J109" s="124"/>
       <c r="K109" s="124"/>
@@ -5644,29 +5642,29 @@
     </row>
     <row r="110" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="122">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B110" s="53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C110" s="53" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>115</v>
+        <v>237</v>
       </c>
       <c r="F110" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G110" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H110" s="124"/>
       <c r="I110" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J110" s="124"/>
       <c r="K110" s="124"/>
@@ -5674,29 +5672,29 @@
     </row>
     <row r="111" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="122">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B111" s="53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C111" s="53" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>243</v>
+        <v>113</v>
       </c>
       <c r="F111" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G111" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H111" s="124"/>
       <c r="I111" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J111" s="124"/>
       <c r="K111" s="124"/>
@@ -5704,29 +5702,29 @@
     </row>
     <row r="112" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="122">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B112" s="53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C112" s="53" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="F112" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G112" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H112" s="124"/>
       <c r="I112" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J112" s="124"/>
       <c r="K112" s="124"/>
@@ -5734,149 +5732,149 @@
     </row>
     <row r="113" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="122">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B113" s="53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C113" s="53" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>244</v>
+        <v>114</v>
       </c>
       <c r="F113" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G113" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H113" s="124"/>
       <c r="I113" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J113" s="124"/>
       <c r="K113" s="124"/>
       <c r="L113" s="124"/>
     </row>
-    <row r="114" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="122">
-        <v>106</v>
-      </c>
-      <c r="B114" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C114" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F114" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G114" s="74" t="s">
-        <v>251</v>
-      </c>
-      <c r="H114" s="124"/>
-      <c r="I114" s="119" t="s">
-        <v>26</v>
-      </c>
-      <c r="J114" s="124"/>
-      <c r="K114" s="124"/>
-      <c r="L114" s="124"/>
-    </row>
-    <row r="115" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="125">
+    <row r="114" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="125">
         <v>107</v>
       </c>
-      <c r="B115" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="C115" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="D115" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="E115" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="F115" s="105" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" s="106" t="s">
-        <v>251</v>
-      </c>
-      <c r="H115" s="126"/>
-      <c r="I115" s="116" t="s">
-        <v>26</v>
-      </c>
-      <c r="J115" s="126"/>
-      <c r="K115" s="126"/>
-      <c r="L115" s="126"/>
-    </row>
-    <row r="116" spans="1:12" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B114" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C114" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F114" s="105" t="s">
+        <v>22</v>
+      </c>
+      <c r="G114" s="106" t="s">
+        <v>245</v>
+      </c>
+      <c r="H114" s="126"/>
+      <c r="I114" s="116" t="s">
+        <v>24</v>
+      </c>
+      <c r="J114" s="126"/>
+      <c r="K114" s="126"/>
+      <c r="L114" s="126"/>
+    </row>
+    <row r="115" spans="1:12" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="122">
+        <v>108</v>
+      </c>
+      <c r="B115" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C115" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D115" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F115" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G115" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="H115" s="123"/>
+      <c r="I115" s="123" t="s">
+        <v>24</v>
+      </c>
+      <c r="J115" s="123"/>
+      <c r="K115" s="123"/>
+      <c r="L115" s="123"/>
+    </row>
+    <row r="116" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="122">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B116" s="53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C116" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="D116" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E116" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="F116" s="99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" s="79" t="s">
-        <v>251</v>
-      </c>
-      <c r="H116" s="123"/>
-      <c r="I116" s="123" t="s">
-        <v>26</v>
-      </c>
-      <c r="J116" s="123"/>
-      <c r="K116" s="123"/>
-      <c r="L116" s="123"/>
+        <v>52</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F116" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="G116" s="74" t="s">
+        <v>245</v>
+      </c>
+      <c r="H116" s="124"/>
+      <c r="I116" s="119" t="s">
+        <v>24</v>
+      </c>
+      <c r="J116" s="124"/>
+      <c r="K116" s="124"/>
+      <c r="L116" s="124"/>
     </row>
     <row r="117" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="122">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B117" s="53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C117" s="53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F117" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G117" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H117" s="124"/>
       <c r="I117" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J117" s="124"/>
       <c r="K117" s="124"/>
@@ -5884,29 +5882,29 @@
     </row>
     <row r="118" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="122">
+        <v>111</v>
+      </c>
+      <c r="B118" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C118" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E118" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B118" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C118" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>240</v>
-      </c>
       <c r="F118" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G118" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H118" s="124"/>
       <c r="I118" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J118" s="124"/>
       <c r="K118" s="124"/>
@@ -5914,29 +5912,29 @@
     </row>
     <row r="119" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="122">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B119" s="53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C119" s="53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>113</v>
+        <v>235</v>
       </c>
       <c r="F119" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G119" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H119" s="124"/>
       <c r="I119" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J119" s="124"/>
       <c r="K119" s="124"/>
@@ -5944,29 +5942,29 @@
     </row>
     <row r="120" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="122">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B120" s="53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C120" s="53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>241</v>
+        <v>111</v>
       </c>
       <c r="F120" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G120" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H120" s="124"/>
       <c r="I120" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J120" s="124"/>
       <c r="K120" s="124"/>
@@ -5974,29 +5972,29 @@
     </row>
     <row r="121" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="122">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B121" s="53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C121" s="53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>114</v>
+        <v>236</v>
       </c>
       <c r="F121" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G121" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H121" s="124"/>
       <c r="I121" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J121" s="124"/>
       <c r="K121" s="124"/>
@@ -6004,29 +6002,29 @@
     </row>
     <row r="122" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="122">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B122" s="53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C122" s="53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>242</v>
+        <v>112</v>
       </c>
       <c r="F122" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G122" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H122" s="124"/>
       <c r="I122" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J122" s="124"/>
       <c r="K122" s="124"/>
@@ -6034,29 +6032,29 @@
     </row>
     <row r="123" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="122">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B123" s="53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C123" s="53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>115</v>
+        <v>237</v>
       </c>
       <c r="F123" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G123" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H123" s="124"/>
-      <c r="I123" s="119" t="s">
-        <v>26</v>
+      <c r="I123" s="124" t="s">
+        <v>24</v>
       </c>
       <c r="J123" s="124"/>
       <c r="K123" s="124"/>
@@ -6064,29 +6062,29 @@
     </row>
     <row r="124" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="122">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B124" s="53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C124" s="53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>243</v>
+        <v>113</v>
       </c>
       <c r="F124" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G124" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H124" s="124"/>
-      <c r="I124" s="124" t="s">
-        <v>26</v>
+      <c r="I124" s="119" t="s">
+        <v>24</v>
       </c>
       <c r="J124" s="124"/>
       <c r="K124" s="124"/>
@@ -6094,29 +6092,29 @@
     </row>
     <row r="125" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="122">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B125" s="53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C125" s="53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="F125" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G125" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H125" s="124"/>
       <c r="I125" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J125" s="124"/>
       <c r="K125" s="124"/>
@@ -6124,119 +6122,119 @@
     </row>
     <row r="126" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="122">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B126" s="53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C126" s="53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>244</v>
+        <v>114</v>
       </c>
       <c r="F126" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G126" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H126" s="124"/>
       <c r="I126" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J126" s="124"/>
       <c r="K126" s="124"/>
       <c r="L126" s="124"/>
     </row>
-    <row r="127" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="122">
-        <v>120</v>
-      </c>
-      <c r="B127" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C127" s="53" t="s">
+    <row r="127" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="127">
+        <v>121</v>
+      </c>
+      <c r="B127" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C127" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D127" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="E127" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="F127" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="G127" s="87" t="s">
+        <v>245</v>
+      </c>
+      <c r="H127" s="128"/>
+      <c r="I127" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="J127" s="128"/>
+      <c r="K127" s="128"/>
+      <c r="L127" s="128"/>
+    </row>
+    <row r="128" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="129">
+        <v>122</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D127" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F127" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G127" s="74" t="s">
-        <v>251</v>
-      </c>
-      <c r="H127" s="124"/>
-      <c r="I127" s="119" t="s">
+      <c r="E128" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F128" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="J127" s="124"/>
-      <c r="K127" s="124"/>
-      <c r="L127" s="124"/>
-    </row>
-    <row r="128" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="127">
-        <v>121</v>
-      </c>
-      <c r="B128" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="C128" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="D128" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="E128" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="F128" s="110" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" s="87" t="s">
-        <v>251</v>
-      </c>
-      <c r="H128" s="128"/>
-      <c r="I128" s="121" t="s">
-        <v>26</v>
-      </c>
-      <c r="J128" s="128"/>
-      <c r="K128" s="128"/>
-      <c r="L128" s="128"/>
+      <c r="G128" s="79" t="s">
+        <v>244</v>
+      </c>
+      <c r="H128" s="130"/>
+      <c r="I128" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="J128" s="130"/>
+      <c r="K128" s="130"/>
+      <c r="L128" s="130"/>
     </row>
     <row r="129" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="129">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F129" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="G129" s="79" t="s">
-        <v>250</v>
+        <v>22</v>
+      </c>
+      <c r="G129" s="74" t="s">
+        <v>245</v>
       </c>
       <c r="H129" s="130"/>
       <c r="I129" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J129" s="130"/>
       <c r="K129" s="130"/>
@@ -6244,29 +6242,29 @@
     </row>
     <row r="130" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="129">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F130" s="73" t="s">
         <v>22</v>
       </c>
       <c r="G130" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H130" s="130"/>
       <c r="I130" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J130" s="130"/>
       <c r="K130" s="130"/>
@@ -6274,29 +6272,29 @@
     </row>
     <row r="131" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="129">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F131" s="73" t="s">
         <v>22</v>
       </c>
       <c r="G131" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H131" s="130"/>
       <c r="I131" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J131" s="130"/>
       <c r="K131" s="130"/>
@@ -6304,29 +6302,29 @@
     </row>
     <row r="132" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="129">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F132" s="73" t="s">
         <v>22</v>
       </c>
       <c r="G132" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H132" s="130"/>
-      <c r="I132" s="68" t="s">
-        <v>26</v>
+      <c r="I132" s="130" t="s">
+        <v>24</v>
       </c>
       <c r="J132" s="130"/>
       <c r="K132" s="130"/>
@@ -6334,29 +6332,29 @@
     </row>
     <row r="133" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="129">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F133" s="73" t="s">
         <v>22</v>
       </c>
       <c r="G133" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H133" s="130"/>
-      <c r="I133" s="130" t="s">
-        <v>26</v>
+      <c r="I133" s="68" t="s">
+        <v>24</v>
       </c>
       <c r="J133" s="130"/>
       <c r="K133" s="130"/>
@@ -6364,29 +6362,29 @@
     </row>
     <row r="134" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="129">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F134" s="73" t="s">
         <v>22</v>
       </c>
       <c r="G134" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H134" s="130"/>
       <c r="I134" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J134" s="130"/>
       <c r="K134" s="130"/>
@@ -6394,29 +6392,29 @@
     </row>
     <row r="135" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="129">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F135" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="G135" s="74" t="s">
-        <v>251</v>
+      <c r="G135" s="79" t="s">
+        <v>245</v>
       </c>
       <c r="H135" s="130"/>
       <c r="I135" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J135" s="130"/>
       <c r="K135" s="130"/>
@@ -6424,29 +6422,29 @@
     </row>
     <row r="136" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="129">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F136" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="G136" s="79" t="s">
-        <v>251</v>
+      <c r="G136" s="74" t="s">
+        <v>245</v>
       </c>
       <c r="H136" s="130"/>
       <c r="I136" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J136" s="130"/>
       <c r="K136" s="130"/>
@@ -6454,29 +6452,29 @@
     </row>
     <row r="137" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="129">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F137" s="73" t="s">
         <v>22</v>
       </c>
       <c r="G137" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H137" s="130"/>
       <c r="I137" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J137" s="130"/>
       <c r="K137" s="130"/>
@@ -6484,29 +6482,29 @@
     </row>
     <row r="138" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="129">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F138" s="73" t="s">
         <v>22</v>
       </c>
       <c r="G138" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H138" s="130"/>
       <c r="I138" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J138" s="130"/>
       <c r="K138" s="130"/>
@@ -6514,29 +6512,29 @@
     </row>
     <row r="139" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="129">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F139" s="73" t="s">
         <v>22</v>
       </c>
       <c r="G139" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H139" s="130"/>
       <c r="I139" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J139" s="130"/>
       <c r="K139" s="130"/>
@@ -6544,29 +6542,29 @@
     </row>
     <row r="140" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="129">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F140" s="73" t="s">
         <v>22</v>
       </c>
       <c r="G140" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H140" s="130"/>
-      <c r="I140" s="68" t="s">
-        <v>26</v>
+      <c r="I140" s="130" t="s">
+        <v>24</v>
       </c>
       <c r="J140" s="130"/>
       <c r="K140" s="130"/>
@@ -6574,29 +6572,29 @@
     </row>
     <row r="141" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="129">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F141" s="73" t="s">
         <v>22</v>
       </c>
       <c r="G141" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H141" s="130"/>
-      <c r="I141" s="130" t="s">
-        <v>26</v>
+      <c r="I141" s="68" t="s">
+        <v>24</v>
       </c>
       <c r="J141" s="130"/>
       <c r="K141" s="130"/>
@@ -6604,29 +6602,29 @@
     </row>
     <row r="142" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="129">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F142" s="73" t="s">
         <v>22</v>
       </c>
       <c r="G142" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H142" s="130"/>
       <c r="I142" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J142" s="130"/>
       <c r="K142" s="130"/>
@@ -6634,29 +6632,29 @@
     </row>
     <row r="143" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="129">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F143" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="G143" s="74" t="s">
-        <v>251</v>
+      <c r="G143" s="79" t="s">
+        <v>245</v>
       </c>
       <c r="H143" s="130"/>
       <c r="I143" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J143" s="130"/>
       <c r="K143" s="130"/>
@@ -6664,29 +6662,29 @@
     </row>
     <row r="144" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="129">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F144" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="G144" s="79" t="s">
-        <v>251</v>
+      <c r="G144" s="74" t="s">
+        <v>245</v>
       </c>
       <c r="H144" s="130"/>
       <c r="I144" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J144" s="130"/>
       <c r="K144" s="130"/>
@@ -6694,29 +6692,29 @@
     </row>
     <row r="145" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="129">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F145" s="73" t="s">
         <v>22</v>
       </c>
       <c r="G145" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H145" s="130"/>
       <c r="I145" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J145" s="130"/>
       <c r="K145" s="130"/>
@@ -6724,29 +6722,29 @@
     </row>
     <row r="146" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="129">
-        <v>140</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>47</v>
+        <v>141</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F146" s="73" t="s">
         <v>22</v>
       </c>
       <c r="G146" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H146" s="130"/>
       <c r="I146" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J146" s="130"/>
       <c r="K146" s="130"/>
@@ -6754,29 +6752,29 @@
     </row>
     <row r="147" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="129">
-        <v>141</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D147" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C147" s="12" t="s">
         <v>48</v>
       </c>
+      <c r="D147" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="E147" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F147" s="73" t="s">
         <v>22</v>
       </c>
       <c r="G147" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H147" s="130"/>
       <c r="I147" s="68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J147" s="130"/>
       <c r="K147" s="130"/>
@@ -6784,29 +6782,29 @@
     </row>
     <row r="148" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="129">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F148" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G148" s="74" t="s">
-        <v>251</v>
-      </c>
-      <c r="H148" s="130"/>
-      <c r="I148" s="68" t="s">
-        <v>26</v>
+        <v>48</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E148" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F148" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G148" s="92" t="s">
+        <v>245</v>
+      </c>
+      <c r="H148" s="132"/>
+      <c r="I148" s="93" t="s">
+        <v>24</v>
       </c>
       <c r="J148" s="130"/>
       <c r="K148" s="130"/>
@@ -6814,29 +6812,29 @@
     </row>
     <row r="149" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="129">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B149" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D149" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C149" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E149" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F149" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="G149" s="92" t="s">
-        <v>251</v>
-      </c>
-      <c r="H149" s="132"/>
-      <c r="I149" s="93" t="s">
-        <v>26</v>
+      <c r="E149" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F149" s="119" t="s">
+        <v>22</v>
+      </c>
+      <c r="G149" s="74" t="s">
+        <v>245</v>
+      </c>
+      <c r="H149" s="124"/>
+      <c r="I149" s="124" t="s">
+        <v>24</v>
       </c>
       <c r="J149" s="130"/>
       <c r="K149" s="130"/>
@@ -6844,119 +6842,119 @@
     </row>
     <row r="150" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="129">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F150" s="119" t="s">
         <v>22</v>
       </c>
       <c r="G150" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H150" s="124"/>
-      <c r="I150" s="124" t="s">
-        <v>26</v>
+      <c r="I150" s="119" t="s">
+        <v>24</v>
       </c>
       <c r="J150" s="130"/>
       <c r="K150" s="130"/>
       <c r="L150" s="130"/>
     </row>
-    <row r="151" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="129">
-        <v>145</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C151" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F151" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G151" s="74" t="s">
-        <v>251</v>
-      </c>
-      <c r="H151" s="124"/>
-      <c r="I151" s="119" t="s">
+    <row r="151" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A151" s="133">
+        <v>146</v>
+      </c>
+      <c r="B151" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D151" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="E151" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="F151" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="G151" s="106" t="s">
+        <v>245</v>
+      </c>
+      <c r="H151" s="126"/>
+      <c r="I151" s="116" t="s">
+        <v>24</v>
+      </c>
+      <c r="J151" s="134"/>
+      <c r="K151" s="134"/>
+      <c r="L151" s="134"/>
+    </row>
+    <row r="152" spans="1:12" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="129">
+        <v>147</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C152" s="135" t="s">
+        <v>49</v>
+      </c>
+      <c r="D152" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E152" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F152" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="J151" s="130"/>
-      <c r="K151" s="130"/>
-      <c r="L151" s="130"/>
-    </row>
-    <row r="152" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A152" s="133">
-        <v>146</v>
-      </c>
-      <c r="B152" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C152" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D152" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="E152" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="F152" s="116" t="s">
-        <v>22</v>
-      </c>
-      <c r="G152" s="106" t="s">
-        <v>251</v>
-      </c>
-      <c r="H152" s="126"/>
-      <c r="I152" s="116" t="s">
-        <v>26</v>
-      </c>
-      <c r="J152" s="134"/>
-      <c r="K152" s="134"/>
-      <c r="L152" s="134"/>
-    </row>
-    <row r="153" spans="1:12" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="G152" s="79" t="s">
+        <v>244</v>
+      </c>
+      <c r="H152" s="123"/>
+      <c r="I152" s="118" t="s">
+        <v>24</v>
+      </c>
+      <c r="J152" s="130"/>
+      <c r="K152" s="130"/>
+      <c r="L152" s="130"/>
+    </row>
+    <row r="153" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="129">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C153" s="135" t="s">
-        <v>52</v>
-      </c>
-      <c r="D153" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E153" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F153" s="118" t="s">
-        <v>28</v>
-      </c>
-      <c r="G153" s="79" t="s">
-        <v>250</v>
-      </c>
-      <c r="H153" s="123"/>
-      <c r="I153" s="118" t="s">
-        <v>26</v>
+        <v>49</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E153" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F153" s="119" t="s">
+        <v>22</v>
+      </c>
+      <c r="G153" s="74" t="s">
+        <v>245</v>
+      </c>
+      <c r="H153" s="124"/>
+      <c r="I153" s="119" t="s">
+        <v>24</v>
       </c>
       <c r="J153" s="130"/>
       <c r="K153" s="130"/>
@@ -6964,29 +6962,29 @@
     </row>
     <row r="154" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="129">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C154" s="135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E154" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F154" s="119" t="s">
         <v>22</v>
       </c>
       <c r="G154" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H154" s="124"/>
       <c r="I154" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J154" s="130"/>
       <c r="K154" s="130"/>
@@ -6994,29 +6992,29 @@
     </row>
     <row r="155" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="129">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C155" s="135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="E155" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F155" s="119" t="s">
         <v>22</v>
       </c>
       <c r="G155" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H155" s="124"/>
       <c r="I155" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J155" s="130"/>
       <c r="K155" s="130"/>
@@ -7024,29 +7022,29 @@
     </row>
     <row r="156" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="129">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C156" s="135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E156" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F156" s="119" t="s">
         <v>22</v>
       </c>
       <c r="G156" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H156" s="124"/>
       <c r="I156" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J156" s="130"/>
       <c r="K156" s="130"/>
@@ -7054,29 +7052,29 @@
     </row>
     <row r="157" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="129">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C157" s="135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="E157" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F157" s="119" t="s">
         <v>22</v>
       </c>
       <c r="G157" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H157" s="124"/>
       <c r="I157" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J157" s="130"/>
       <c r="K157" s="130"/>
@@ -7084,29 +7082,29 @@
     </row>
     <row r="158" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="129">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C158" s="135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E158" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F158" s="119" t="s">
         <v>22</v>
       </c>
       <c r="G158" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H158" s="124"/>
-      <c r="I158" s="119" t="s">
-        <v>26</v>
+      <c r="I158" s="124" t="s">
+        <v>24</v>
       </c>
       <c r="J158" s="130"/>
       <c r="K158" s="130"/>
@@ -7114,29 +7112,29 @@
     </row>
     <row r="159" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="129">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C159" s="135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="E159" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F159" s="119" t="s">
         <v>22</v>
       </c>
       <c r="G159" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H159" s="124"/>
-      <c r="I159" s="124" t="s">
-        <v>26</v>
+      <c r="I159" s="119" t="s">
+        <v>24</v>
       </c>
       <c r="J159" s="130"/>
       <c r="K159" s="130"/>
@@ -7144,29 +7142,29 @@
     </row>
     <row r="160" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="129">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C160" s="135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="E160" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F160" s="119" t="s">
         <v>22</v>
       </c>
       <c r="G160" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H160" s="124"/>
       <c r="I160" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J160" s="130"/>
       <c r="K160" s="130"/>
@@ -7174,29 +7172,29 @@
     </row>
     <row r="161" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="129">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C161" s="135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E161" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F161" s="119" t="s">
         <v>22</v>
       </c>
       <c r="G161" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H161" s="124"/>
       <c r="I161" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J161" s="130"/>
       <c r="K161" s="130"/>
@@ -7204,29 +7202,29 @@
     </row>
     <row r="162" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="129">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C162" s="135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="E162" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F162" s="119" t="s">
         <v>22</v>
       </c>
       <c r="G162" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H162" s="124"/>
       <c r="I162" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J162" s="130"/>
       <c r="K162" s="130"/>
@@ -7234,29 +7232,29 @@
     </row>
     <row r="163" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="129">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C163" s="135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="E163" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F163" s="119" t="s">
         <v>22</v>
       </c>
       <c r="G163" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H163" s="124"/>
       <c r="I163" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J163" s="130"/>
       <c r="K163" s="130"/>
@@ -7264,29 +7262,29 @@
     </row>
     <row r="164" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="129">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C164" s="135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E164" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F164" s="119" t="s">
         <v>22</v>
       </c>
       <c r="G164" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H164" s="124"/>
       <c r="I164" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J164" s="130"/>
       <c r="K164" s="130"/>
@@ -7294,29 +7292,29 @@
     </row>
     <row r="165" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="129">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C165" s="135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="E165" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F165" s="119" t="s">
         <v>22</v>
       </c>
       <c r="G165" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H165" s="124"/>
       <c r="I165" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J165" s="130"/>
       <c r="K165" s="130"/>
@@ -7324,29 +7322,29 @@
     </row>
     <row r="166" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="129">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C166" s="135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="E166" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F166" s="119" t="s">
         <v>22</v>
       </c>
       <c r="G166" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H166" s="124"/>
-      <c r="I166" s="119" t="s">
-        <v>26</v>
+      <c r="I166" s="124" t="s">
+        <v>24</v>
       </c>
       <c r="J166" s="130"/>
       <c r="K166" s="130"/>
@@ -7354,29 +7352,29 @@
     </row>
     <row r="167" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="129">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C167" s="135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E167" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F167" s="119" t="s">
         <v>22</v>
       </c>
       <c r="G167" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H167" s="124"/>
-      <c r="I167" s="124" t="s">
-        <v>26</v>
+      <c r="I167" s="119" t="s">
+        <v>24</v>
       </c>
       <c r="J167" s="130"/>
       <c r="K167" s="130"/>
@@ -7384,29 +7382,29 @@
     </row>
     <row r="168" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="129">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C168" s="135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c r="E168" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F168" s="119" t="s">
         <v>22</v>
       </c>
       <c r="G168" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H168" s="124"/>
       <c r="I168" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J168" s="130"/>
       <c r="K168" s="130"/>
@@ -7414,29 +7412,29 @@
     </row>
     <row r="169" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="129">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C169" s="135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="E169" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F169" s="119" t="s">
         <v>22</v>
       </c>
       <c r="G169" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H169" s="124"/>
       <c r="I169" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J169" s="130"/>
       <c r="K169" s="130"/>
@@ -7444,29 +7442,29 @@
     </row>
     <row r="170" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="129">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C170" s="135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E170" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F170" s="119" t="s">
         <v>22</v>
       </c>
       <c r="G170" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H170" s="124"/>
       <c r="I170" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J170" s="130"/>
       <c r="K170" s="130"/>
@@ -7474,29 +7472,29 @@
     </row>
     <row r="171" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="129">
-        <v>166</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C171" s="135" t="s">
-        <v>52</v>
+        <v>167</v>
+      </c>
+      <c r="B171" s="135" t="s">
+        <v>54</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="E171" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F171" s="119" t="s">
         <v>22</v>
       </c>
       <c r="G171" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H171" s="124"/>
       <c r="I171" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J171" s="130"/>
       <c r="K171" s="130"/>
@@ -7504,29 +7502,29 @@
     </row>
     <row r="172" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="129">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B172" s="135" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E172" s="15" t="s">
-        <v>150</v>
+        <v>56</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="F172" s="119" t="s">
         <v>22</v>
       </c>
       <c r="G172" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H172" s="124"/>
       <c r="I172" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J172" s="130"/>
       <c r="K172" s="130"/>
@@ -7534,29 +7532,29 @@
     </row>
     <row r="173" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="129">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B173" s="135" t="s">
+        <v>54</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D173" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C173" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="E173" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F173" s="119" t="s">
         <v>22</v>
       </c>
       <c r="G173" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H173" s="124"/>
       <c r="I173" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J173" s="130"/>
       <c r="K173" s="130"/>
@@ -7564,93 +7562,63 @@
     </row>
     <row r="174" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="129">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B174" s="135" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F174" s="119" t="s">
         <v>22</v>
       </c>
       <c r="G174" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H174" s="124"/>
       <c r="I174" s="119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J174" s="130"/>
       <c r="K174" s="130"/>
       <c r="L174" s="130"/>
     </row>
-    <row r="175" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="129">
-        <v>170</v>
-      </c>
-      <c r="B175" s="135" t="s">
-        <v>57</v>
-      </c>
-      <c r="C175" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E175" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F175" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G175" s="74" t="s">
-        <v>251</v>
-      </c>
-      <c r="H175" s="124"/>
-      <c r="I175" s="119" t="s">
-        <v>26</v>
-      </c>
-      <c r="J175" s="130"/>
-      <c r="K175" s="130"/>
-      <c r="L175" s="130"/>
-    </row>
-    <row r="176" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A176" s="136">
+    <row r="175" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A175" s="136">
         <v>171</v>
       </c>
-      <c r="B176" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C176" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D176" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="E176" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="F176" s="121" t="s">
-        <v>22</v>
-      </c>
-      <c r="G176" s="87" t="s">
-        <v>251</v>
-      </c>
-      <c r="H176" s="128"/>
-      <c r="I176" s="128" t="s">
-        <v>26</v>
-      </c>
-      <c r="J176" s="137"/>
-      <c r="K176" s="137"/>
-      <c r="L176" s="137"/>
+      <c r="B175" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C175" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D175" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E175" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F175" s="121" t="s">
+        <v>22</v>
+      </c>
+      <c r="G175" s="87" t="s">
+        <v>245</v>
+      </c>
+      <c r="H175" s="128"/>
+      <c r="I175" s="128" t="s">
+        <v>24</v>
+      </c>
+      <c r="J175" s="137"/>
+      <c r="K175" s="137"/>
+      <c r="L175" s="137"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/dataland-framework-toolbox/inputs/eu-taxonomy-financials/eu-taxonomy-financials.xlsx
+++ b/dataland-framework-toolbox/inputs/eu-taxonomy-financials/eu-taxonomy-financials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92432\Documents\Projekte\02-Dataland\Dataland\dataland-framework-toolbox\inputs\eu-taxonomy-financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B5D531-988E-41D7-A117-599F5849B0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9FEDFA-7D7F-4C94-9680-6AF2CD73D1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="249">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -858,9 +858,6 @@
   </si>
   <si>
     <t>Allowed Range: [0, INF]</t>
-  </si>
-  <si>
-    <t>Allowed Range: [0, 100]</t>
   </si>
   <si>
     <t>Are all Group Entities covered?</t>
@@ -879,7 +876,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -965,6 +962,12 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1665,7 +1668,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1863,37 +1866,16 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2057,9 +2039,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2077,6 +2056,51 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2353,8 +2377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2422,19 +2446,19 @@
       <c r="E2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
     </row>
     <row r="3" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="64">
@@ -2452,19 +2476,19 @@
       <c r="E3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="67"/>
     </row>
     <row r="4" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="64">
@@ -2482,17 +2506,17 @@
       <c r="E4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
     </row>
     <row r="5" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="64">
@@ -2505,24 +2529,24 @@
         <v>12</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
     </row>
     <row r="6" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="64">
@@ -2540,19 +2564,19 @@
       <c r="E6" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="141" t="s">
         <v>244</v>
       </c>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
     </row>
     <row r="7" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="64">
@@ -2565,25 +2589,25 @@
         <v>12</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="70" t="s">
+      <c r="F7" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
     </row>
     <row r="8" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="75">
+      <c r="A8" s="69">
         <v>7</v>
       </c>
       <c r="B8" s="26" t="s">
@@ -2593,21 +2617,21 @@
         <v>12</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
       <c r="L8" s="28"/>
     </row>
     <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2623,22 +2647,22 @@
       <c r="D9" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="E9" s="78" t="s">
-        <v>249</v>
+      <c r="E9" s="71" t="s">
+        <v>248</v>
       </c>
       <c r="F9" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="72" t="s">
         <v>244</v>
       </c>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="80"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="73"/>
     </row>
     <row r="10" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="29">
@@ -2653,22 +2677,22 @@
       <c r="D10" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="74" t="s">
         <v>155</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="G10" s="74" t="s">
+      <c r="G10" s="68" t="s">
         <v>244</v>
       </c>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
     </row>
     <row r="11" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29">
@@ -2683,25 +2707,25 @@
       <c r="D11" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="74" t="s">
         <v>157</v>
       </c>
       <c r="F11" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="G11" s="74" t="s">
+      <c r="G11" s="68" t="s">
         <v>244</v>
       </c>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
     </row>
     <row r="12" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="75" t="s">
         <v>158</v>
       </c>
       <c r="B12" s="30" t="s">
@@ -2713,25 +2737,25 @@
       <c r="D12" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="E12" s="81" t="s">
+      <c r="E12" s="74" t="s">
         <v>160</v>
       </c>
       <c r="F12" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="G12" s="79" t="s">
+      <c r="G12" s="72" t="s">
         <v>244</v>
       </c>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="80"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="73"/>
     </row>
     <row r="13" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="75" t="s">
         <v>161</v>
       </c>
       <c r="B13" s="30" t="s">
@@ -2743,25 +2767,25 @@
       <c r="D13" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="74" t="s">
         <v>163</v>
       </c>
       <c r="F13" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="G13" s="74" t="s">
+      <c r="G13" s="68" t="s">
         <v>244</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
     </row>
     <row r="14" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="76" t="s">
         <v>164</v>
       </c>
       <c r="B14" s="42" t="s">
@@ -2770,34 +2794,34 @@
       <c r="C14" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="84" t="s">
+      <c r="D14" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="E14" s="85" t="s">
+      <c r="E14" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="F14" s="86" t="s">
+      <c r="F14" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="G14" s="87" t="s">
+      <c r="G14" s="80" t="s">
         <v>244</v>
       </c>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
     </row>
     <row r="15" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="82">
+      <c r="A15" s="75">
         <v>10</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="81" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="25" t="s">
@@ -2809,19 +2833,17 @@
       <c r="F15" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
     </row>
     <row r="16" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="82">
+      <c r="A16" s="75">
         <v>10.1</v>
       </c>
       <c r="B16" s="30" t="s">
@@ -2839,19 +2861,17 @@
       <c r="F16" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
     </row>
     <row r="17" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="75" t="s">
         <v>167</v>
       </c>
       <c r="B17" s="30" t="s">
@@ -2869,19 +2889,17 @@
       <c r="F17" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
     </row>
     <row r="18" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="75" t="s">
         <v>168</v>
       </c>
       <c r="B18" s="30" t="s">
@@ -2899,19 +2917,17 @@
       <c r="F18" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
     </row>
     <row r="19" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="75" t="s">
         <v>170</v>
       </c>
       <c r="B19" s="30" t="s">
@@ -2929,19 +2945,17 @@
       <c r="F19" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
     </row>
     <row r="20" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="82">
+      <c r="A20" s="75">
         <v>11</v>
       </c>
       <c r="B20" s="30" t="s">
@@ -2959,19 +2973,17 @@
       <c r="F20" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
     </row>
     <row r="21" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="82">
+      <c r="A21" s="75">
         <v>11.1</v>
       </c>
       <c r="B21" s="30" t="s">
@@ -2989,19 +3001,17 @@
       <c r="F21" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
     </row>
     <row r="22" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="75" t="s">
         <v>172</v>
       </c>
       <c r="B22" s="30" t="s">
@@ -3019,19 +3029,17 @@
       <c r="F22" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
     </row>
     <row r="23" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="75" t="s">
         <v>173</v>
       </c>
       <c r="B23" s="30" t="s">
@@ -3049,19 +3057,17 @@
       <c r="F23" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
     </row>
     <row r="24" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="82">
+      <c r="A24" s="75">
         <v>12</v>
       </c>
       <c r="B24" s="30" t="s">
@@ -3079,19 +3085,17 @@
       <c r="F24" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
     </row>
     <row r="25" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="82">
+      <c r="A25" s="75">
         <v>12.1</v>
       </c>
       <c r="B25" s="30" t="s">
@@ -3109,19 +3113,17 @@
       <c r="F25" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
     </row>
     <row r="26" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="75" t="s">
         <v>175</v>
       </c>
       <c r="B26" s="30" t="s">
@@ -3139,19 +3141,17 @@
       <c r="F26" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
     </row>
     <row r="27" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="75" t="s">
         <v>176</v>
       </c>
       <c r="B27" s="30" t="s">
@@ -3169,19 +3169,17 @@
       <c r="F27" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
     </row>
     <row r="28" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="82">
+      <c r="A28" s="75">
         <v>13</v>
       </c>
       <c r="B28" s="30" t="s">
@@ -3199,19 +3197,17 @@
       <c r="F28" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
     </row>
     <row r="29" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="82">
+      <c r="A29" s="75">
         <v>13.1</v>
       </c>
       <c r="B29" s="30" t="s">
@@ -3229,19 +3225,17 @@
       <c r="F29" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
     </row>
     <row r="30" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="75" t="s">
         <v>178</v>
       </c>
       <c r="B30" s="30" t="s">
@@ -3259,19 +3253,17 @@
       <c r="F30" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
     </row>
     <row r="31" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="82" t="s">
+      <c r="A31" s="75" t="s">
         <v>179</v>
       </c>
       <c r="B31" s="30" t="s">
@@ -3289,19 +3281,17 @@
       <c r="F31" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
     </row>
     <row r="32" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="82">
+      <c r="A32" s="75">
         <v>14</v>
       </c>
       <c r="B32" s="30" t="s">
@@ -3319,19 +3309,17 @@
       <c r="F32" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
     </row>
     <row r="33" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="82">
+      <c r="A33" s="75">
         <v>14.1</v>
       </c>
       <c r="B33" s="30" t="s">
@@ -3349,19 +3337,17 @@
       <c r="F33" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
     </row>
     <row r="34" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="82" t="s">
+      <c r="A34" s="75" t="s">
         <v>181</v>
       </c>
       <c r="B34" s="30" t="s">
@@ -3379,19 +3365,17 @@
       <c r="F34" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
     </row>
     <row r="35" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="82" t="s">
+      <c r="A35" s="75" t="s">
         <v>182</v>
       </c>
       <c r="B35" s="30" t="s">
@@ -3409,19 +3393,17 @@
       <c r="F35" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G35" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
     </row>
     <row r="36" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="82">
+      <c r="A36" s="75">
         <v>15</v>
       </c>
       <c r="B36" s="30" t="s">
@@ -3439,19 +3421,17 @@
       <c r="F36" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
     </row>
     <row r="37" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="82">
+      <c r="A37" s="75">
         <v>15.1</v>
       </c>
       <c r="B37" s="30" t="s">
@@ -3469,19 +3449,17 @@
       <c r="F37" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
     </row>
     <row r="38" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="89" t="s">
+      <c r="A38" s="82" t="s">
         <v>184</v>
       </c>
       <c r="B38" s="58" t="s">
@@ -3490,97 +3468,91 @@
       <c r="C38" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="90" t="s">
+      <c r="D38" s="83" t="s">
         <v>79</v>
       </c>
       <c r="E38" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="F38" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="92" t="s">
-        <v>245</v>
-      </c>
-      <c r="H38" s="93"/>
-      <c r="I38" s="93" t="s">
-        <v>24</v>
-      </c>
-      <c r="J38" s="93"/>
-      <c r="K38" s="93"/>
-      <c r="L38" s="93"/>
+      <c r="F38" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="85"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="86"/>
+      <c r="K38" s="86"/>
+      <c r="L38" s="86"/>
     </row>
     <row r="39" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="82" t="s">
+      <c r="A39" s="75" t="s">
         <v>185</v>
       </c>
       <c r="B39" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="94" t="s">
+      <c r="C39" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="95" t="s">
+      <c r="D39" s="88" t="s">
         <v>186</v>
       </c>
-      <c r="E39" s="96" t="s">
+      <c r="E39" s="89" t="s">
         <v>106</v>
       </c>
       <c r="F39" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="J39" s="97"/>
-      <c r="K39" s="97"/>
-      <c r="L39" s="97"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="90"/>
+      <c r="K39" s="90"/>
+      <c r="L39" s="90"/>
     </row>
     <row r="40" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="82">
+      <c r="A40" s="75">
         <v>16</v>
       </c>
       <c r="B40" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="88" t="s">
+      <c r="C40" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="98" t="s">
+      <c r="D40" s="91" t="s">
         <v>187</v>
       </c>
       <c r="E40" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="F40" s="99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="79" t="s">
-        <v>245</v>
-      </c>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
+      <c r="F40" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="72"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
     </row>
     <row r="41" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="82">
+      <c r="A41" s="75">
         <v>16.100000000000001</v>
       </c>
       <c r="B41" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="88" t="s">
+      <c r="C41" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="98" t="s">
+      <c r="D41" s="91" t="s">
         <v>189</v>
       </c>
       <c r="E41" s="38" t="s">
@@ -3589,19 +3561,17 @@
       <c r="F41" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G41" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
     </row>
     <row r="42" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="89" t="s">
+      <c r="A42" s="82" t="s">
         <v>191</v>
       </c>
       <c r="B42" s="58" t="s">
@@ -3610,28 +3580,26 @@
       <c r="C42" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="100" t="s">
+      <c r="D42" s="93" t="s">
         <v>192</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="F42" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="92" t="s">
-        <v>245</v>
-      </c>
-      <c r="H42" s="93"/>
-      <c r="I42" s="93" t="s">
-        <v>24</v>
-      </c>
-      <c r="J42" s="93"/>
-      <c r="K42" s="93"/>
-      <c r="L42" s="93"/>
+      <c r="F42" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="85"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
     </row>
     <row r="43" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="89" t="s">
+      <c r="A43" s="82" t="s">
         <v>196</v>
       </c>
       <c r="B43" s="58" t="s">
@@ -3640,58 +3608,54 @@
       <c r="C43" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="95" t="s">
+      <c r="D43" s="88" t="s">
         <v>194</v>
       </c>
-      <c r="E43" s="96" t="s">
+      <c r="E43" s="89" t="s">
         <v>195</v>
       </c>
       <c r="F43" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H43" s="97"/>
-      <c r="I43" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="J43" s="97"/>
-      <c r="K43" s="97"/>
-      <c r="L43" s="97"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="90"/>
+      <c r="K43" s="90"/>
+      <c r="L43" s="90"/>
     </row>
     <row r="44" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="102" t="s">
+      <c r="A44" s="95" t="s">
         <v>242</v>
       </c>
       <c r="B44" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="103" t="s">
+      <c r="C44" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="104" t="s">
+      <c r="D44" s="97" t="s">
         <v>197</v>
       </c>
       <c r="E44" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="F44" s="105" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="106" t="s">
-        <v>245</v>
-      </c>
-      <c r="H44" s="107"/>
-      <c r="I44" s="107" t="s">
-        <v>24</v>
-      </c>
-      <c r="J44" s="107"/>
-      <c r="K44" s="107"/>
-      <c r="L44" s="107"/>
+      <c r="F44" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="99"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" s="100"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="100"/>
     </row>
     <row r="45" spans="1:12" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="82">
+      <c r="A45" s="75">
         <v>20</v>
       </c>
       <c r="B45" s="30" t="s">
@@ -3709,19 +3673,19 @@
       <c r="F45" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="G45" s="74" t="s">
+      <c r="G45" s="68" t="s">
         <v>244</v>
       </c>
-      <c r="H45" s="68"/>
-      <c r="I45" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J45" s="68"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="68"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="67"/>
     </row>
     <row r="46" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="82">
+      <c r="A46" s="75">
         <v>20.100000000000001</v>
       </c>
       <c r="B46" s="30" t="s">
@@ -3739,19 +3703,17 @@
       <c r="F46" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G46" s="92" t="s">
-        <v>245</v>
-      </c>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="68"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="67"/>
     </row>
     <row r="47" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="82" t="s">
+      <c r="A47" s="75" t="s">
         <v>199</v>
       </c>
       <c r="B47" s="30" t="s">
@@ -3769,19 +3731,17 @@
       <c r="F47" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G47" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="67"/>
     </row>
     <row r="48" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="75" t="s">
         <v>200</v>
       </c>
       <c r="B48" s="30" t="s">
@@ -3799,19 +3759,17 @@
       <c r="F48" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G48" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H48" s="68"/>
-      <c r="I48" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J48" s="68"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="67"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="67"/>
     </row>
     <row r="49" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="82" t="s">
+      <c r="A49" s="75" t="s">
         <v>201</v>
       </c>
       <c r="B49" s="30" t="s">
@@ -3829,19 +3787,17 @@
       <c r="F49" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G49" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" s="67"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="67"/>
     </row>
     <row r="50" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="82">
+      <c r="A50" s="75">
         <v>21</v>
       </c>
       <c r="B50" s="30" t="s">
@@ -3859,19 +3815,17 @@
       <c r="F50" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" s="67"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="67"/>
     </row>
     <row r="51" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="82">
+      <c r="A51" s="75">
         <v>21.1</v>
       </c>
       <c r="B51" s="30" t="s">
@@ -3889,19 +3843,17 @@
       <c r="F51" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H51" s="68"/>
-      <c r="I51" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J51" s="68"/>
-      <c r="K51" s="68"/>
-      <c r="L51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" s="67"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="67"/>
     </row>
     <row r="52" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="82" t="s">
+      <c r="A52" s="75" t="s">
         <v>202</v>
       </c>
       <c r="B52" s="30" t="s">
@@ -3919,19 +3871,17 @@
       <c r="F52" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H52" s="68"/>
-      <c r="I52" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J52" s="68"/>
-      <c r="K52" s="68"/>
-      <c r="L52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" s="67"/>
+      <c r="K52" s="67"/>
+      <c r="L52" s="67"/>
     </row>
     <row r="53" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="82" t="s">
+      <c r="A53" s="75" t="s">
         <v>203</v>
       </c>
       <c r="B53" s="30" t="s">
@@ -3949,19 +3899,17 @@
       <c r="F53" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G53" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H53" s="68"/>
-      <c r="I53" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J53" s="68"/>
-      <c r="K53" s="68"/>
-      <c r="L53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" s="67"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="67"/>
     </row>
     <row r="54" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="82">
+      <c r="A54" s="75">
         <v>22</v>
       </c>
       <c r="B54" s="30" t="s">
@@ -3979,19 +3927,17 @@
       <c r="F54" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G54" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H54" s="68"/>
-      <c r="I54" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J54" s="68"/>
-      <c r="K54" s="68"/>
-      <c r="L54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="67"/>
     </row>
     <row r="55" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="82">
+      <c r="A55" s="75">
         <v>22.1</v>
       </c>
       <c r="B55" s="30" t="s">
@@ -4009,19 +3955,17 @@
       <c r="F55" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G55" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H55" s="68"/>
-      <c r="I55" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J55" s="68"/>
-      <c r="K55" s="68"/>
-      <c r="L55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" s="67"/>
+      <c r="K55" s="67"/>
+      <c r="L55" s="67"/>
     </row>
     <row r="56" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="82" t="s">
+      <c r="A56" s="75" t="s">
         <v>204</v>
       </c>
       <c r="B56" s="30" t="s">
@@ -4039,19 +3983,17 @@
       <c r="F56" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J56" s="68"/>
-      <c r="K56" s="68"/>
-      <c r="L56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" s="67"/>
+      <c r="K56" s="67"/>
+      <c r="L56" s="67"/>
     </row>
     <row r="57" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="82" t="s">
+      <c r="A57" s="75" t="s">
         <v>205</v>
       </c>
       <c r="B57" s="30" t="s">
@@ -4069,19 +4011,17 @@
       <c r="F57" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G57" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="67"/>
     </row>
     <row r="58" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="82">
+      <c r="A58" s="75">
         <v>23</v>
       </c>
       <c r="B58" s="30" t="s">
@@ -4099,19 +4039,17 @@
       <c r="F58" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G58" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J58" s="68"/>
-      <c r="K58" s="68"/>
-      <c r="L58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" s="67"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="67"/>
     </row>
     <row r="59" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="82">
+      <c r="A59" s="75">
         <v>23.1</v>
       </c>
       <c r="B59" s="30" t="s">
@@ -4129,19 +4067,17 @@
       <c r="F59" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G59" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J59" s="68"/>
-      <c r="K59" s="68"/>
-      <c r="L59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" s="67"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="67"/>
     </row>
     <row r="60" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="82" t="s">
+      <c r="A60" s="75" t="s">
         <v>206</v>
       </c>
       <c r="B60" s="30" t="s">
@@ -4159,19 +4095,17 @@
       <c r="F60" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G60" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J60" s="68"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="68"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J60" s="67"/>
+      <c r="K60" s="67"/>
+      <c r="L60" s="67"/>
     </row>
     <row r="61" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="82" t="s">
+      <c r="A61" s="75" t="s">
         <v>207</v>
       </c>
       <c r="B61" s="30" t="s">
@@ -4189,19 +4123,17 @@
       <c r="F61" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G61" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H61" s="68"/>
-      <c r="I61" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J61" s="68"/>
-      <c r="K61" s="68"/>
-      <c r="L61" s="68"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="67"/>
     </row>
     <row r="62" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="82">
+      <c r="A62" s="75">
         <v>24</v>
       </c>
       <c r="B62" s="30" t="s">
@@ -4219,19 +4151,17 @@
       <c r="F62" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G62" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J62" s="68"/>
-      <c r="K62" s="68"/>
-      <c r="L62" s="68"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J62" s="67"/>
+      <c r="K62" s="67"/>
+      <c r="L62" s="67"/>
     </row>
     <row r="63" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="82">
+      <c r="A63" s="75">
         <v>24.1</v>
       </c>
       <c r="B63" s="30" t="s">
@@ -4249,19 +4179,17 @@
       <c r="F63" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G63" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H63" s="68"/>
-      <c r="I63" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J63" s="68"/>
-      <c r="K63" s="68"/>
-      <c r="L63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J63" s="67"/>
+      <c r="K63" s="67"/>
+      <c r="L63" s="67"/>
     </row>
     <row r="64" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="82" t="s">
+      <c r="A64" s="75" t="s">
         <v>208</v>
       </c>
       <c r="B64" s="30" t="s">
@@ -4279,19 +4207,17 @@
       <c r="F64" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G64" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H64" s="68"/>
-      <c r="I64" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J64" s="68"/>
-      <c r="K64" s="68"/>
-      <c r="L64" s="68"/>
+      <c r="G64" s="68"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J64" s="67"/>
+      <c r="K64" s="67"/>
+      <c r="L64" s="67"/>
     </row>
     <row r="65" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="82" t="s">
+      <c r="A65" s="75" t="s">
         <v>209</v>
       </c>
       <c r="B65" s="30" t="s">
@@ -4309,19 +4235,17 @@
       <c r="F65" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G65" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H65" s="68"/>
-      <c r="I65" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J65" s="68"/>
-      <c r="K65" s="68"/>
-      <c r="L65" s="68"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J65" s="67"/>
+      <c r="K65" s="67"/>
+      <c r="L65" s="67"/>
     </row>
     <row r="66" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="82">
+      <c r="A66" s="75">
         <v>25</v>
       </c>
       <c r="B66" s="30" t="s">
@@ -4339,19 +4263,17 @@
       <c r="F66" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G66" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H66" s="68"/>
-      <c r="I66" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J66" s="68"/>
-      <c r="K66" s="68"/>
-      <c r="L66" s="68"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="67"/>
+      <c r="I66" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J66" s="67"/>
+      <c r="K66" s="67"/>
+      <c r="L66" s="67"/>
     </row>
     <row r="67" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="82">
+      <c r="A67" s="75">
         <v>25.1</v>
       </c>
       <c r="B67" s="30" t="s">
@@ -4369,19 +4291,17 @@
       <c r="F67" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G67" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H67" s="68"/>
-      <c r="I67" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J67" s="68"/>
-      <c r="K67" s="68"/>
-      <c r="L67" s="68"/>
+      <c r="G67" s="68"/>
+      <c r="H67" s="67"/>
+      <c r="I67" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J67" s="67"/>
+      <c r="K67" s="67"/>
+      <c r="L67" s="67"/>
     </row>
     <row r="68" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="89" t="s">
+      <c r="A68" s="82" t="s">
         <v>210</v>
       </c>
       <c r="B68" s="58" t="s">
@@ -4390,7 +4310,7 @@
       <c r="C68" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="90" t="s">
+      <c r="D68" s="83" t="s">
         <v>79</v>
       </c>
       <c r="E68" s="37" t="s">
@@ -4399,28 +4319,26 @@
       <c r="F68" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G68" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H68" s="68"/>
-      <c r="I68" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J68" s="68"/>
-      <c r="K68" s="68"/>
-      <c r="L68" s="68"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J68" s="67"/>
+      <c r="K68" s="67"/>
+      <c r="L68" s="67"/>
     </row>
     <row r="69" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="82" t="s">
+      <c r="A69" s="75" t="s">
         <v>211</v>
       </c>
       <c r="B69" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="94" t="s">
+      <c r="C69" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="D69" s="95" t="s">
+      <c r="D69" s="88" t="s">
         <v>186</v>
       </c>
       <c r="E69" s="37" t="s">
@@ -4429,28 +4347,26 @@
       <c r="F69" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G69" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H69" s="68"/>
-      <c r="I69" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J69" s="68"/>
-      <c r="K69" s="68"/>
-      <c r="L69" s="68"/>
+      <c r="G69" s="68"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J69" s="67"/>
+      <c r="K69" s="67"/>
+      <c r="L69" s="67"/>
     </row>
     <row r="70" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="82">
+      <c r="A70" s="75">
         <v>26</v>
       </c>
       <c r="B70" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="88" t="s">
+      <c r="C70" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="D70" s="98" t="s">
+      <c r="D70" s="91" t="s">
         <v>187</v>
       </c>
       <c r="E70" s="38" t="s">
@@ -4459,28 +4375,26 @@
       <c r="F70" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G70" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H70" s="68"/>
-      <c r="I70" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J70" s="68"/>
-      <c r="K70" s="68"/>
-      <c r="L70" s="68"/>
+      <c r="G70" s="68"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J70" s="67"/>
+      <c r="K70" s="67"/>
+      <c r="L70" s="67"/>
     </row>
     <row r="71" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="82">
+      <c r="A71" s="75">
         <v>26.1</v>
       </c>
       <c r="B71" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C71" s="88" t="s">
+      <c r="C71" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="D71" s="98" t="s">
+      <c r="D71" s="91" t="s">
         <v>189</v>
       </c>
       <c r="E71" s="38" t="s">
@@ -4489,19 +4403,17 @@
       <c r="F71" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G71" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H71" s="68"/>
-      <c r="I71" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J71" s="68"/>
-      <c r="K71" s="68"/>
-      <c r="L71" s="68"/>
+      <c r="G71" s="68"/>
+      <c r="H71" s="67"/>
+      <c r="I71" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J71" s="67"/>
+      <c r="K71" s="67"/>
+      <c r="L71" s="67"/>
     </row>
     <row r="72" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="89" t="s">
+      <c r="A72" s="82" t="s">
         <v>214</v>
       </c>
       <c r="B72" s="58" t="s">
@@ -4510,7 +4422,7 @@
       <c r="C72" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D72" s="100" t="s">
+      <c r="D72" s="93" t="s">
         <v>192</v>
       </c>
       <c r="E72" s="39" t="s">
@@ -4519,19 +4431,17 @@
       <c r="F72" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G72" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H72" s="68"/>
-      <c r="I72" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J72" s="68"/>
-      <c r="K72" s="68"/>
-      <c r="L72" s="68"/>
+      <c r="G72" s="68"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J72" s="67"/>
+      <c r="K72" s="67"/>
+      <c r="L72" s="67"/>
     </row>
     <row r="73" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="82" t="s">
+      <c r="A73" s="75" t="s">
         <v>215</v>
       </c>
       <c r="B73" s="58" t="s">
@@ -4540,58 +4450,54 @@
       <c r="C73" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="95" t="s">
+      <c r="D73" s="88" t="s">
         <v>194</v>
       </c>
-      <c r="E73" s="96" t="s">
+      <c r="E73" s="89" t="s">
         <v>216</v>
       </c>
       <c r="F73" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G73" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H73" s="68"/>
-      <c r="I73" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J73" s="68"/>
-      <c r="K73" s="68"/>
-      <c r="L73" s="68"/>
+      <c r="G73" s="68"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J73" s="67"/>
+      <c r="K73" s="67"/>
+      <c r="L73" s="67"/>
     </row>
     <row r="74" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="83" t="s">
+      <c r="A74" s="76" t="s">
         <v>217</v>
       </c>
       <c r="B74" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C74" s="108" t="s">
+      <c r="C74" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="D74" s="109" t="s">
+      <c r="D74" s="102" t="s">
         <v>197</v>
       </c>
       <c r="E74" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="F74" s="110" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="H74" s="77"/>
-      <c r="I74" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="J74" s="77"/>
-      <c r="K74" s="77"/>
-      <c r="L74" s="77"/>
+      <c r="F74" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="80"/>
+      <c r="H74" s="70"/>
+      <c r="I74" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="J74" s="70"/>
+      <c r="K74" s="70"/>
+      <c r="L74" s="70"/>
     </row>
     <row r="75" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="111">
+      <c r="A75" s="104">
         <v>65</v>
       </c>
       <c r="B75" s="43" t="s">
@@ -4606,22 +4512,20 @@
       <c r="E75" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F75" s="99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" s="79" t="s">
-        <v>245</v>
-      </c>
-      <c r="H75" s="68"/>
-      <c r="I75" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J75" s="68"/>
-      <c r="K75" s="68"/>
-      <c r="L75" s="68"/>
+      <c r="F75" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="72"/>
+      <c r="H75" s="67"/>
+      <c r="I75" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J75" s="67"/>
+      <c r="K75" s="67"/>
+      <c r="L75" s="67"/>
     </row>
     <row r="76" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="111">
+      <c r="A76" s="104">
         <v>66</v>
       </c>
       <c r="B76" s="43" t="s">
@@ -4639,19 +4543,17 @@
       <c r="F76" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G76" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H76" s="68"/>
-      <c r="I76" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J76" s="68"/>
-      <c r="K76" s="68"/>
-      <c r="L76" s="68"/>
+      <c r="G76" s="68"/>
+      <c r="H76" s="67"/>
+      <c r="I76" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J76" s="67"/>
+      <c r="K76" s="67"/>
+      <c r="L76" s="67"/>
     </row>
     <row r="77" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="111">
+      <c r="A77" s="104">
         <v>67</v>
       </c>
       <c r="B77" s="43" t="s">
@@ -4669,19 +4571,17 @@
       <c r="F77" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G77" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H77" s="68"/>
-      <c r="I77" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J77" s="68"/>
-      <c r="K77" s="68"/>
-      <c r="L77" s="68"/>
+      <c r="G77" s="68"/>
+      <c r="H77" s="67"/>
+      <c r="I77" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J77" s="67"/>
+      <c r="K77" s="67"/>
+      <c r="L77" s="67"/>
     </row>
     <row r="78" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="111">
+      <c r="A78" s="104">
         <v>68</v>
       </c>
       <c r="B78" s="43" t="s">
@@ -4699,19 +4599,17 @@
       <c r="F78" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G78" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H78" s="68"/>
-      <c r="I78" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J78" s="68"/>
-      <c r="K78" s="68"/>
-      <c r="L78" s="68"/>
+      <c r="G78" s="68"/>
+      <c r="H78" s="67"/>
+      <c r="I78" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J78" s="67"/>
+      <c r="K78" s="67"/>
+      <c r="L78" s="67"/>
     </row>
     <row r="79" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="111">
+      <c r="A79" s="104">
         <v>69</v>
       </c>
       <c r="B79" s="43" t="s">
@@ -4729,19 +4627,17 @@
       <c r="F79" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G79" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H79" s="68"/>
-      <c r="I79" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J79" s="68"/>
-      <c r="K79" s="68"/>
-      <c r="L79" s="68"/>
+      <c r="G79" s="68"/>
+      <c r="H79" s="67"/>
+      <c r="I79" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J79" s="67"/>
+      <c r="K79" s="67"/>
+      <c r="L79" s="67"/>
     </row>
     <row r="80" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="111">
+      <c r="A80" s="104">
         <v>71</v>
       </c>
       <c r="B80" s="43" t="s">
@@ -4759,19 +4655,17 @@
       <c r="F80" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G80" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H80" s="68"/>
-      <c r="I80" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J80" s="68"/>
-      <c r="K80" s="68"/>
-      <c r="L80" s="68"/>
+      <c r="G80" s="68"/>
+      <c r="H80" s="67"/>
+      <c r="I80" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J80" s="67"/>
+      <c r="K80" s="67"/>
+      <c r="L80" s="67"/>
     </row>
     <row r="81" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="111">
+      <c r="A81" s="104">
         <v>72</v>
       </c>
       <c r="B81" s="43" t="s">
@@ -4789,19 +4683,17 @@
       <c r="F81" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G81" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H81" s="68"/>
-      <c r="I81" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J81" s="68"/>
-      <c r="K81" s="68"/>
-      <c r="L81" s="68"/>
+      <c r="G81" s="68"/>
+      <c r="H81" s="67"/>
+      <c r="I81" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J81" s="67"/>
+      <c r="K81" s="67"/>
+      <c r="L81" s="67"/>
     </row>
     <row r="82" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="111">
+      <c r="A82" s="104">
         <v>73</v>
       </c>
       <c r="B82" s="43" t="s">
@@ -4819,19 +4711,17 @@
       <c r="F82" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G82" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H82" s="68"/>
-      <c r="I82" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J82" s="68"/>
-      <c r="K82" s="68"/>
-      <c r="L82" s="68"/>
+      <c r="G82" s="68"/>
+      <c r="H82" s="67"/>
+      <c r="I82" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J82" s="67"/>
+      <c r="K82" s="67"/>
+      <c r="L82" s="67"/>
     </row>
     <row r="83" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="111">
+      <c r="A83" s="104">
         <v>74</v>
       </c>
       <c r="B83" s="43" t="s">
@@ -4849,19 +4739,17 @@
       <c r="F83" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G83" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H83" s="68"/>
-      <c r="I83" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J83" s="68"/>
-      <c r="K83" s="68"/>
-      <c r="L83" s="68"/>
+      <c r="G83" s="68"/>
+      <c r="H83" s="67"/>
+      <c r="I83" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J83" s="67"/>
+      <c r="K83" s="67"/>
+      <c r="L83" s="67"/>
     </row>
     <row r="84" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="111">
+      <c r="A84" s="104">
         <v>75</v>
       </c>
       <c r="B84" s="43" t="s">
@@ -4879,19 +4767,17 @@
       <c r="F84" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G84" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H84" s="68"/>
-      <c r="I84" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J84" s="68"/>
-      <c r="K84" s="68"/>
-      <c r="L84" s="68"/>
+      <c r="G84" s="68"/>
+      <c r="H84" s="67"/>
+      <c r="I84" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J84" s="67"/>
+      <c r="K84" s="67"/>
+      <c r="L84" s="67"/>
     </row>
     <row r="85" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="111">
+      <c r="A85" s="104">
         <v>76</v>
       </c>
       <c r="B85" s="43" t="s">
@@ -4909,19 +4795,17 @@
       <c r="F85" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G85" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H85" s="68"/>
-      <c r="I85" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J85" s="68"/>
-      <c r="K85" s="68"/>
-      <c r="L85" s="68"/>
+      <c r="G85" s="68"/>
+      <c r="H85" s="67"/>
+      <c r="I85" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J85" s="67"/>
+      <c r="K85" s="67"/>
+      <c r="L85" s="67"/>
     </row>
     <row r="86" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="111">
+      <c r="A86" s="104">
         <v>77</v>
       </c>
       <c r="B86" s="43" t="s">
@@ -4936,22 +4820,20 @@
       <c r="E86" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F86" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" s="92" t="s">
-        <v>245</v>
-      </c>
-      <c r="H86" s="93"/>
-      <c r="I86" s="93" t="s">
-        <v>24</v>
-      </c>
-      <c r="J86" s="93"/>
-      <c r="K86" s="93"/>
-      <c r="L86" s="93"/>
+      <c r="F86" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86" s="85"/>
+      <c r="H86" s="86"/>
+      <c r="I86" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="J86" s="86"/>
+      <c r="K86" s="86"/>
+      <c r="L86" s="86"/>
     </row>
     <row r="87" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="112">
+      <c r="A87" s="105">
         <v>78</v>
       </c>
       <c r="B87" s="44" t="s">
@@ -4966,22 +4848,20 @@
       <c r="E87" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="F87" s="113" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" s="114" t="s">
-        <v>245</v>
-      </c>
-      <c r="H87" s="115"/>
-      <c r="I87" s="115" t="s">
-        <v>24</v>
-      </c>
-      <c r="J87" s="115"/>
-      <c r="K87" s="115"/>
-      <c r="L87" s="116"/>
+      <c r="F87" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="G87" s="107"/>
+      <c r="H87" s="108"/>
+      <c r="I87" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="J87" s="108"/>
+      <c r="K87" s="108"/>
+      <c r="L87" s="109"/>
     </row>
     <row r="88" spans="1:12" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="117">
+      <c r="A88" s="110">
         <v>79</v>
       </c>
       <c r="B88" s="46" t="s">
@@ -4996,22 +4876,20 @@
       <c r="E88" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F88" s="99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" s="79" t="s">
-        <v>245</v>
-      </c>
-      <c r="H88" s="118"/>
-      <c r="I88" s="118" t="s">
-        <v>24</v>
-      </c>
-      <c r="J88" s="118"/>
-      <c r="K88" s="118"/>
-      <c r="L88" s="118"/>
+      <c r="F88" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" s="72"/>
+      <c r="H88" s="111"/>
+      <c r="I88" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="J88" s="111"/>
+      <c r="K88" s="111"/>
+      <c r="L88" s="111"/>
     </row>
     <row r="89" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="117">
+      <c r="A89" s="110">
         <v>80</v>
       </c>
       <c r="B89" s="46" t="s">
@@ -5029,19 +4907,17 @@
       <c r="F89" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G89" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H89" s="119"/>
-      <c r="I89" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J89" s="119"/>
-      <c r="K89" s="119"/>
-      <c r="L89" s="119"/>
+      <c r="G89" s="68"/>
+      <c r="H89" s="112"/>
+      <c r="I89" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J89" s="112"/>
+      <c r="K89" s="112"/>
+      <c r="L89" s="112"/>
     </row>
     <row r="90" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="117">
+      <c r="A90" s="110">
         <v>81</v>
       </c>
       <c r="B90" s="46" t="s">
@@ -5059,19 +4935,17 @@
       <c r="F90" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G90" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H90" s="119"/>
-      <c r="I90" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J90" s="119"/>
-      <c r="K90" s="119"/>
-      <c r="L90" s="119"/>
+      <c r="G90" s="68"/>
+      <c r="H90" s="112"/>
+      <c r="I90" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J90" s="112"/>
+      <c r="K90" s="112"/>
+      <c r="L90" s="112"/>
     </row>
     <row r="91" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="117">
+      <c r="A91" s="110">
         <v>82</v>
       </c>
       <c r="B91" s="46" t="s">
@@ -5089,19 +4963,17 @@
       <c r="F91" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G91" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H91" s="119"/>
-      <c r="I91" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J91" s="119"/>
-      <c r="K91" s="119"/>
-      <c r="L91" s="119"/>
+      <c r="G91" s="68"/>
+      <c r="H91" s="112"/>
+      <c r="I91" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J91" s="112"/>
+      <c r="K91" s="112"/>
+      <c r="L91" s="112"/>
     </row>
     <row r="92" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="117">
+      <c r="A92" s="110">
         <v>83</v>
       </c>
       <c r="B92" s="46" t="s">
@@ -5119,19 +4991,17 @@
       <c r="F92" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G92" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H92" s="119"/>
-      <c r="I92" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J92" s="119"/>
-      <c r="K92" s="119"/>
-      <c r="L92" s="119"/>
+      <c r="G92" s="68"/>
+      <c r="H92" s="112"/>
+      <c r="I92" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J92" s="112"/>
+      <c r="K92" s="112"/>
+      <c r="L92" s="112"/>
     </row>
     <row r="93" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="117">
+      <c r="A93" s="110">
         <v>85</v>
       </c>
       <c r="B93" s="46" t="s">
@@ -5149,19 +5019,17 @@
       <c r="F93" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G93" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H93" s="119"/>
-      <c r="I93" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J93" s="119"/>
-      <c r="K93" s="119"/>
-      <c r="L93" s="119"/>
+      <c r="G93" s="68"/>
+      <c r="H93" s="112"/>
+      <c r="I93" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J93" s="112"/>
+      <c r="K93" s="112"/>
+      <c r="L93" s="112"/>
     </row>
     <row r="94" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="117">
+      <c r="A94" s="110">
         <v>86</v>
       </c>
       <c r="B94" s="46" t="s">
@@ -5179,19 +5047,17 @@
       <c r="F94" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G94" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H94" s="119"/>
-      <c r="I94" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J94" s="119"/>
-      <c r="K94" s="119"/>
-      <c r="L94" s="119"/>
+      <c r="G94" s="68"/>
+      <c r="H94" s="112"/>
+      <c r="I94" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J94" s="112"/>
+      <c r="K94" s="112"/>
+      <c r="L94" s="112"/>
     </row>
     <row r="95" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="117">
+      <c r="A95" s="110">
         <v>87</v>
       </c>
       <c r="B95" s="46" t="s">
@@ -5209,19 +5075,17 @@
       <c r="F95" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G95" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H95" s="119"/>
-      <c r="I95" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J95" s="119"/>
-      <c r="K95" s="119"/>
-      <c r="L95" s="119"/>
+      <c r="G95" s="68"/>
+      <c r="H95" s="112"/>
+      <c r="I95" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J95" s="112"/>
+      <c r="K95" s="112"/>
+      <c r="L95" s="112"/>
     </row>
     <row r="96" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="117">
+      <c r="A96" s="110">
         <v>88</v>
       </c>
       <c r="B96" s="46" t="s">
@@ -5239,19 +5103,17 @@
       <c r="F96" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G96" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H96" s="119"/>
-      <c r="I96" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J96" s="119"/>
-      <c r="K96" s="119"/>
-      <c r="L96" s="119"/>
+      <c r="G96" s="68"/>
+      <c r="H96" s="112"/>
+      <c r="I96" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J96" s="112"/>
+      <c r="K96" s="112"/>
+      <c r="L96" s="112"/>
     </row>
     <row r="97" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="117">
+      <c r="A97" s="110">
         <v>89</v>
       </c>
       <c r="B97" s="46" t="s">
@@ -5269,19 +5131,17 @@
       <c r="F97" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G97" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H97" s="119"/>
-      <c r="I97" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J97" s="119"/>
-      <c r="K97" s="119"/>
-      <c r="L97" s="119"/>
+      <c r="G97" s="68"/>
+      <c r="H97" s="112"/>
+      <c r="I97" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J97" s="112"/>
+      <c r="K97" s="112"/>
+      <c r="L97" s="112"/>
     </row>
     <row r="98" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="117">
+      <c r="A98" s="110">
         <v>90</v>
       </c>
       <c r="B98" s="46" t="s">
@@ -5299,19 +5159,17 @@
       <c r="F98" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G98" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H98" s="119"/>
-      <c r="I98" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J98" s="119"/>
-      <c r="K98" s="119"/>
-      <c r="L98" s="119"/>
+      <c r="G98" s="68"/>
+      <c r="H98" s="112"/>
+      <c r="I98" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J98" s="112"/>
+      <c r="K98" s="112"/>
+      <c r="L98" s="112"/>
     </row>
     <row r="99" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="117">
+      <c r="A99" s="110">
         <v>91</v>
       </c>
       <c r="B99" s="46" t="s">
@@ -5329,19 +5187,17 @@
       <c r="F99" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G99" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H99" s="119"/>
-      <c r="I99" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J99" s="119"/>
-      <c r="K99" s="119"/>
-      <c r="L99" s="119"/>
+      <c r="G99" s="68"/>
+      <c r="H99" s="112"/>
+      <c r="I99" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J99" s="112"/>
+      <c r="K99" s="112"/>
+      <c r="L99" s="112"/>
     </row>
     <row r="100" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="120">
+      <c r="A100" s="113">
         <v>92</v>
       </c>
       <c r="B100" s="50" t="s">
@@ -5356,22 +5212,20 @@
       <c r="E100" s="62" t="s">
         <v>232</v>
       </c>
-      <c r="F100" s="110" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="H100" s="121"/>
-      <c r="I100" s="121" t="s">
-        <v>24</v>
-      </c>
-      <c r="J100" s="121"/>
-      <c r="K100" s="121"/>
-      <c r="L100" s="121"/>
+      <c r="F100" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="G100" s="80"/>
+      <c r="H100" s="114"/>
+      <c r="I100" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="J100" s="114"/>
+      <c r="K100" s="114"/>
+      <c r="L100" s="114"/>
     </row>
     <row r="101" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="122">
+      <c r="A101" s="115">
         <v>93</v>
       </c>
       <c r="B101" s="53" t="s">
@@ -5386,22 +5240,20 @@
       <c r="E101" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="F101" s="99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" s="79" t="s">
-        <v>245</v>
-      </c>
-      <c r="H101" s="123"/>
-      <c r="I101" s="118" t="s">
-        <v>24</v>
-      </c>
-      <c r="J101" s="123"/>
-      <c r="K101" s="123"/>
-      <c r="L101" s="123"/>
+      <c r="F101" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101" s="72"/>
+      <c r="H101" s="116"/>
+      <c r="I101" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="J101" s="116"/>
+      <c r="K101" s="116"/>
+      <c r="L101" s="116"/>
     </row>
     <row r="102" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="122">
+      <c r="A102" s="115">
         <v>94</v>
       </c>
       <c r="B102" s="53" t="s">
@@ -5419,19 +5271,17 @@
       <c r="F102" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G102" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H102" s="124"/>
-      <c r="I102" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J102" s="124"/>
-      <c r="K102" s="124"/>
-      <c r="L102" s="124"/>
+      <c r="G102" s="68"/>
+      <c r="H102" s="117"/>
+      <c r="I102" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J102" s="117"/>
+      <c r="K102" s="117"/>
+      <c r="L102" s="117"/>
     </row>
     <row r="103" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="122">
+      <c r="A103" s="115">
         <v>95</v>
       </c>
       <c r="B103" s="53" t="s">
@@ -5449,19 +5299,17 @@
       <c r="F103" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G103" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H103" s="124"/>
-      <c r="I103" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J103" s="124"/>
-      <c r="K103" s="124"/>
-      <c r="L103" s="124"/>
+      <c r="G103" s="68"/>
+      <c r="H103" s="117"/>
+      <c r="I103" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J103" s="117"/>
+      <c r="K103" s="117"/>
+      <c r="L103" s="117"/>
     </row>
     <row r="104" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="122">
+      <c r="A104" s="115">
         <v>96</v>
       </c>
       <c r="B104" s="53" t="s">
@@ -5479,19 +5327,17 @@
       <c r="F104" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G104" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H104" s="124"/>
-      <c r="I104" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J104" s="124"/>
-      <c r="K104" s="124"/>
-      <c r="L104" s="124"/>
+      <c r="G104" s="68"/>
+      <c r="H104" s="117"/>
+      <c r="I104" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J104" s="117"/>
+      <c r="K104" s="117"/>
+      <c r="L104" s="117"/>
     </row>
     <row r="105" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="122">
+      <c r="A105" s="115">
         <v>97</v>
       </c>
       <c r="B105" s="53" t="s">
@@ -5509,19 +5355,17 @@
       <c r="F105" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G105" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H105" s="124"/>
-      <c r="I105" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J105" s="124"/>
-      <c r="K105" s="124"/>
-      <c r="L105" s="124"/>
+      <c r="G105" s="68"/>
+      <c r="H105" s="117"/>
+      <c r="I105" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J105" s="117"/>
+      <c r="K105" s="117"/>
+      <c r="L105" s="117"/>
     </row>
     <row r="106" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="122">
+      <c r="A106" s="115">
         <v>98</v>
       </c>
       <c r="B106" s="53" t="s">
@@ -5539,19 +5383,17 @@
       <c r="F106" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G106" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H106" s="124"/>
-      <c r="I106" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J106" s="124"/>
-      <c r="K106" s="124"/>
-      <c r="L106" s="124"/>
+      <c r="G106" s="68"/>
+      <c r="H106" s="117"/>
+      <c r="I106" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J106" s="117"/>
+      <c r="K106" s="117"/>
+      <c r="L106" s="117"/>
     </row>
     <row r="107" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="122">
+      <c r="A107" s="115">
         <v>100</v>
       </c>
       <c r="B107" s="53" t="s">
@@ -5569,19 +5411,17 @@
       <c r="F107" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G107" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H107" s="124"/>
-      <c r="I107" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J107" s="124"/>
-      <c r="K107" s="124"/>
-      <c r="L107" s="124"/>
+      <c r="G107" s="68"/>
+      <c r="H107" s="117"/>
+      <c r="I107" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J107" s="117"/>
+      <c r="K107" s="117"/>
+      <c r="L107" s="117"/>
     </row>
     <row r="108" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="122">
+      <c r="A108" s="115">
         <v>101</v>
       </c>
       <c r="B108" s="53" t="s">
@@ -5599,19 +5439,17 @@
       <c r="F108" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G108" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H108" s="124"/>
-      <c r="I108" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J108" s="124"/>
-      <c r="K108" s="124"/>
-      <c r="L108" s="124"/>
+      <c r="G108" s="68"/>
+      <c r="H108" s="117"/>
+      <c r="I108" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J108" s="117"/>
+      <c r="K108" s="117"/>
+      <c r="L108" s="117"/>
     </row>
     <row r="109" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="122">
+      <c r="A109" s="115">
         <v>102</v>
       </c>
       <c r="B109" s="53" t="s">
@@ -5629,19 +5467,17 @@
       <c r="F109" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G109" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H109" s="124"/>
-      <c r="I109" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J109" s="124"/>
-      <c r="K109" s="124"/>
-      <c r="L109" s="124"/>
+      <c r="G109" s="68"/>
+      <c r="H109" s="117"/>
+      <c r="I109" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J109" s="117"/>
+      <c r="K109" s="117"/>
+      <c r="L109" s="117"/>
     </row>
     <row r="110" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="122">
+      <c r="A110" s="115">
         <v>103</v>
       </c>
       <c r="B110" s="53" t="s">
@@ -5659,19 +5495,17 @@
       <c r="F110" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G110" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H110" s="124"/>
-      <c r="I110" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J110" s="124"/>
-      <c r="K110" s="124"/>
-      <c r="L110" s="124"/>
+      <c r="G110" s="68"/>
+      <c r="H110" s="117"/>
+      <c r="I110" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J110" s="117"/>
+      <c r="K110" s="117"/>
+      <c r="L110" s="117"/>
     </row>
     <row r="111" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="122">
+      <c r="A111" s="115">
         <v>104</v>
       </c>
       <c r="B111" s="53" t="s">
@@ -5689,19 +5523,17 @@
       <c r="F111" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G111" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H111" s="124"/>
-      <c r="I111" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J111" s="124"/>
-      <c r="K111" s="124"/>
-      <c r="L111" s="124"/>
+      <c r="G111" s="68"/>
+      <c r="H111" s="117"/>
+      <c r="I111" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J111" s="117"/>
+      <c r="K111" s="117"/>
+      <c r="L111" s="117"/>
     </row>
     <row r="112" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="122">
+      <c r="A112" s="115">
         <v>105</v>
       </c>
       <c r="B112" s="53" t="s">
@@ -5719,19 +5551,17 @@
       <c r="F112" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G112" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H112" s="124"/>
-      <c r="I112" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J112" s="124"/>
-      <c r="K112" s="124"/>
-      <c r="L112" s="124"/>
+      <c r="G112" s="68"/>
+      <c r="H112" s="117"/>
+      <c r="I112" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J112" s="117"/>
+      <c r="K112" s="117"/>
+      <c r="L112" s="117"/>
     </row>
     <row r="113" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="122">
+      <c r="A113" s="115">
         <v>106</v>
       </c>
       <c r="B113" s="53" t="s">
@@ -5749,19 +5579,17 @@
       <c r="F113" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G113" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H113" s="124"/>
-      <c r="I113" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J113" s="124"/>
-      <c r="K113" s="124"/>
-      <c r="L113" s="124"/>
+      <c r="G113" s="68"/>
+      <c r="H113" s="117"/>
+      <c r="I113" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J113" s="117"/>
+      <c r="K113" s="117"/>
+      <c r="L113" s="117"/>
     </row>
     <row r="114" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="125">
+      <c r="A114" s="118">
         <v>107</v>
       </c>
       <c r="B114" s="55" t="s">
@@ -5776,22 +5604,20 @@
       <c r="E114" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="F114" s="105" t="s">
-        <v>22</v>
-      </c>
-      <c r="G114" s="106" t="s">
-        <v>245</v>
-      </c>
-      <c r="H114" s="126"/>
-      <c r="I114" s="116" t="s">
-        <v>24</v>
-      </c>
-      <c r="J114" s="126"/>
-      <c r="K114" s="126"/>
-      <c r="L114" s="126"/>
+      <c r="F114" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="G114" s="99"/>
+      <c r="H114" s="119"/>
+      <c r="I114" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="J114" s="119"/>
+      <c r="K114" s="119"/>
+      <c r="L114" s="119"/>
     </row>
     <row r="115" spans="1:12" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="122">
+      <c r="A115" s="115">
         <v>108</v>
       </c>
       <c r="B115" s="53" t="s">
@@ -5806,22 +5632,20 @@
       <c r="E115" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="F115" s="99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" s="79" t="s">
-        <v>245</v>
-      </c>
-      <c r="H115" s="123"/>
-      <c r="I115" s="123" t="s">
-        <v>24</v>
-      </c>
-      <c r="J115" s="123"/>
-      <c r="K115" s="123"/>
-      <c r="L115" s="123"/>
+      <c r="F115" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="G115" s="72"/>
+      <c r="H115" s="116"/>
+      <c r="I115" s="116" t="s">
+        <v>24</v>
+      </c>
+      <c r="J115" s="116"/>
+      <c r="K115" s="116"/>
+      <c r="L115" s="116"/>
     </row>
     <row r="116" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="122">
+      <c r="A116" s="115">
         <v>109</v>
       </c>
       <c r="B116" s="53" t="s">
@@ -5839,19 +5663,17 @@
       <c r="F116" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G116" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H116" s="124"/>
-      <c r="I116" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J116" s="124"/>
-      <c r="K116" s="124"/>
-      <c r="L116" s="124"/>
+      <c r="G116" s="68"/>
+      <c r="H116" s="117"/>
+      <c r="I116" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J116" s="117"/>
+      <c r="K116" s="117"/>
+      <c r="L116" s="117"/>
     </row>
     <row r="117" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="122">
+      <c r="A117" s="115">
         <v>110</v>
       </c>
       <c r="B117" s="53" t="s">
@@ -5869,19 +5691,17 @@
       <c r="F117" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G117" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H117" s="124"/>
-      <c r="I117" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J117" s="124"/>
-      <c r="K117" s="124"/>
-      <c r="L117" s="124"/>
+      <c r="G117" s="68"/>
+      <c r="H117" s="117"/>
+      <c r="I117" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J117" s="117"/>
+      <c r="K117" s="117"/>
+      <c r="L117" s="117"/>
     </row>
     <row r="118" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="122">
+      <c r="A118" s="115">
         <v>111</v>
       </c>
       <c r="B118" s="53" t="s">
@@ -5899,19 +5719,17 @@
       <c r="F118" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G118" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H118" s="124"/>
-      <c r="I118" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J118" s="124"/>
-      <c r="K118" s="124"/>
-      <c r="L118" s="124"/>
+      <c r="G118" s="68"/>
+      <c r="H118" s="117"/>
+      <c r="I118" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J118" s="117"/>
+      <c r="K118" s="117"/>
+      <c r="L118" s="117"/>
     </row>
     <row r="119" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="122">
+      <c r="A119" s="115">
         <v>112</v>
       </c>
       <c r="B119" s="53" t="s">
@@ -5929,19 +5747,17 @@
       <c r="F119" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G119" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H119" s="124"/>
-      <c r="I119" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J119" s="124"/>
-      <c r="K119" s="124"/>
-      <c r="L119" s="124"/>
+      <c r="G119" s="68"/>
+      <c r="H119" s="117"/>
+      <c r="I119" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J119" s="117"/>
+      <c r="K119" s="117"/>
+      <c r="L119" s="117"/>
     </row>
     <row r="120" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="122">
+      <c r="A120" s="115">
         <v>114</v>
       </c>
       <c r="B120" s="53" t="s">
@@ -5959,19 +5775,17 @@
       <c r="F120" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G120" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H120" s="124"/>
-      <c r="I120" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J120" s="124"/>
-      <c r="K120" s="124"/>
-      <c r="L120" s="124"/>
+      <c r="G120" s="68"/>
+      <c r="H120" s="117"/>
+      <c r="I120" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J120" s="117"/>
+      <c r="K120" s="117"/>
+      <c r="L120" s="117"/>
     </row>
     <row r="121" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="122">
+      <c r="A121" s="115">
         <v>115</v>
       </c>
       <c r="B121" s="53" t="s">
@@ -5989,19 +5803,17 @@
       <c r="F121" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G121" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H121" s="124"/>
-      <c r="I121" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J121" s="124"/>
-      <c r="K121" s="124"/>
-      <c r="L121" s="124"/>
+      <c r="G121" s="68"/>
+      <c r="H121" s="117"/>
+      <c r="I121" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J121" s="117"/>
+      <c r="K121" s="117"/>
+      <c r="L121" s="117"/>
     </row>
     <row r="122" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="122">
+      <c r="A122" s="115">
         <v>116</v>
       </c>
       <c r="B122" s="53" t="s">
@@ -6019,19 +5831,17 @@
       <c r="F122" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G122" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H122" s="124"/>
-      <c r="I122" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J122" s="124"/>
-      <c r="K122" s="124"/>
-      <c r="L122" s="124"/>
+      <c r="G122" s="68"/>
+      <c r="H122" s="117"/>
+      <c r="I122" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J122" s="117"/>
+      <c r="K122" s="117"/>
+      <c r="L122" s="117"/>
     </row>
     <row r="123" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="122">
+      <c r="A123" s="115">
         <v>117</v>
       </c>
       <c r="B123" s="53" t="s">
@@ -6049,19 +5859,17 @@
       <c r="F123" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G123" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H123" s="124"/>
-      <c r="I123" s="124" t="s">
-        <v>24</v>
-      </c>
-      <c r="J123" s="124"/>
-      <c r="K123" s="124"/>
-      <c r="L123" s="124"/>
+      <c r="G123" s="68"/>
+      <c r="H123" s="117"/>
+      <c r="I123" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="J123" s="117"/>
+      <c r="K123" s="117"/>
+      <c r="L123" s="117"/>
     </row>
     <row r="124" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="122">
+      <c r="A124" s="115">
         <v>118</v>
       </c>
       <c r="B124" s="53" t="s">
@@ -6079,19 +5887,17 @@
       <c r="F124" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G124" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H124" s="124"/>
-      <c r="I124" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J124" s="124"/>
-      <c r="K124" s="124"/>
-      <c r="L124" s="124"/>
+      <c r="G124" s="68"/>
+      <c r="H124" s="117"/>
+      <c r="I124" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J124" s="117"/>
+      <c r="K124" s="117"/>
+      <c r="L124" s="117"/>
     </row>
     <row r="125" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="122">
+      <c r="A125" s="115">
         <v>119</v>
       </c>
       <c r="B125" s="53" t="s">
@@ -6109,19 +5915,17 @@
       <c r="F125" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G125" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H125" s="124"/>
-      <c r="I125" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J125" s="124"/>
-      <c r="K125" s="124"/>
-      <c r="L125" s="124"/>
+      <c r="G125" s="68"/>
+      <c r="H125" s="117"/>
+      <c r="I125" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J125" s="117"/>
+      <c r="K125" s="117"/>
+      <c r="L125" s="117"/>
     </row>
     <row r="126" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="122">
+      <c r="A126" s="115">
         <v>120</v>
       </c>
       <c r="B126" s="53" t="s">
@@ -6139,19 +5943,17 @@
       <c r="F126" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G126" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H126" s="124"/>
-      <c r="I126" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J126" s="124"/>
-      <c r="K126" s="124"/>
-      <c r="L126" s="124"/>
+      <c r="G126" s="68"/>
+      <c r="H126" s="117"/>
+      <c r="I126" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J126" s="117"/>
+      <c r="K126" s="117"/>
+      <c r="L126" s="117"/>
     </row>
     <row r="127" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="127">
+      <c r="A127" s="120">
         <v>121</v>
       </c>
       <c r="B127" s="56" t="s">
@@ -6166,22 +5968,20 @@
       <c r="E127" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F127" s="110" t="s">
-        <v>22</v>
-      </c>
-      <c r="G127" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="H127" s="128"/>
-      <c r="I127" s="121" t="s">
-        <v>24</v>
-      </c>
-      <c r="J127" s="128"/>
-      <c r="K127" s="128"/>
-      <c r="L127" s="128"/>
+      <c r="F127" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="G127" s="80"/>
+      <c r="H127" s="121"/>
+      <c r="I127" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="J127" s="121"/>
+      <c r="K127" s="121"/>
+      <c r="L127" s="121"/>
     </row>
     <row r="128" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="129">
+      <c r="A128" s="122">
         <v>122</v>
       </c>
       <c r="B128" s="8" t="s">
@@ -6196,22 +5996,22 @@
       <c r="E128" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F128" s="73" t="s">
+      <c r="F128" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="G128" s="79" t="s">
+      <c r="G128" s="72" t="s">
         <v>244</v>
       </c>
-      <c r="H128" s="130"/>
-      <c r="I128" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J128" s="130"/>
-      <c r="K128" s="130"/>
-      <c r="L128" s="130"/>
+      <c r="H128" s="123"/>
+      <c r="I128" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J128" s="123"/>
+      <c r="K128" s="123"/>
+      <c r="L128" s="123"/>
     </row>
     <row r="129" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="129">
+      <c r="A129" s="122">
         <v>123</v>
       </c>
       <c r="B129" s="8" t="s">
@@ -6226,22 +6026,20 @@
       <c r="E129" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F129" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G129" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H129" s="130"/>
-      <c r="I129" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J129" s="130"/>
-      <c r="K129" s="130"/>
-      <c r="L129" s="130"/>
+      <c r="F129" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="G129" s="68"/>
+      <c r="H129" s="123"/>
+      <c r="I129" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J129" s="123"/>
+      <c r="K129" s="123"/>
+      <c r="L129" s="123"/>
     </row>
     <row r="130" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="129">
+      <c r="A130" s="122">
         <v>124</v>
       </c>
       <c r="B130" s="8" t="s">
@@ -6256,22 +6054,20 @@
       <c r="E130" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F130" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G130" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H130" s="130"/>
-      <c r="I130" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J130" s="130"/>
-      <c r="K130" s="130"/>
-      <c r="L130" s="130"/>
+      <c r="F130" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="G130" s="68"/>
+      <c r="H130" s="123"/>
+      <c r="I130" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J130" s="123"/>
+      <c r="K130" s="123"/>
+      <c r="L130" s="123"/>
     </row>
     <row r="131" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="129">
+      <c r="A131" s="122">
         <v>125</v>
       </c>
       <c r="B131" s="8" t="s">
@@ -6286,22 +6082,20 @@
       <c r="E131" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F131" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G131" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H131" s="130"/>
-      <c r="I131" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J131" s="130"/>
-      <c r="K131" s="130"/>
-      <c r="L131" s="130"/>
+      <c r="F131" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="G131" s="68"/>
+      <c r="H131" s="123"/>
+      <c r="I131" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J131" s="123"/>
+      <c r="K131" s="123"/>
+      <c r="L131" s="123"/>
     </row>
     <row r="132" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="129">
+      <c r="A132" s="122">
         <v>126</v>
       </c>
       <c r="B132" s="8" t="s">
@@ -6316,22 +6110,20 @@
       <c r="E132" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F132" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H132" s="130"/>
-      <c r="I132" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="J132" s="130"/>
-      <c r="K132" s="130"/>
-      <c r="L132" s="130"/>
+      <c r="F132" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="G132" s="68"/>
+      <c r="H132" s="123"/>
+      <c r="I132" s="123" t="s">
+        <v>24</v>
+      </c>
+      <c r="J132" s="123"/>
+      <c r="K132" s="123"/>
+      <c r="L132" s="123"/>
     </row>
     <row r="133" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="129">
+      <c r="A133" s="122">
         <v>127</v>
       </c>
       <c r="B133" s="8" t="s">
@@ -6346,22 +6138,20 @@
       <c r="E133" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F133" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G133" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H133" s="130"/>
-      <c r="I133" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J133" s="130"/>
-      <c r="K133" s="130"/>
-      <c r="L133" s="130"/>
+      <c r="F133" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="G133" s="68"/>
+      <c r="H133" s="123"/>
+      <c r="I133" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J133" s="123"/>
+      <c r="K133" s="123"/>
+      <c r="L133" s="123"/>
     </row>
     <row r="134" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="129">
+      <c r="A134" s="122">
         <v>128</v>
       </c>
       <c r="B134" s="8" t="s">
@@ -6376,22 +6166,20 @@
       <c r="E134" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F134" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H134" s="130"/>
-      <c r="I134" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J134" s="130"/>
-      <c r="K134" s="130"/>
-      <c r="L134" s="130"/>
+      <c r="F134" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="G134" s="68"/>
+      <c r="H134" s="123"/>
+      <c r="I134" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J134" s="123"/>
+      <c r="K134" s="123"/>
+      <c r="L134" s="123"/>
     </row>
     <row r="135" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="129">
+      <c r="A135" s="122">
         <v>129</v>
       </c>
       <c r="B135" s="8" t="s">
@@ -6406,22 +6194,20 @@
       <c r="E135" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F135" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G135" s="79" t="s">
-        <v>245</v>
-      </c>
-      <c r="H135" s="130"/>
-      <c r="I135" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J135" s="130"/>
-      <c r="K135" s="130"/>
-      <c r="L135" s="130"/>
+      <c r="F135" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="G135" s="72"/>
+      <c r="H135" s="123"/>
+      <c r="I135" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J135" s="123"/>
+      <c r="K135" s="123"/>
+      <c r="L135" s="123"/>
     </row>
     <row r="136" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="129">
+      <c r="A136" s="122">
         <v>131</v>
       </c>
       <c r="B136" s="8" t="s">
@@ -6436,22 +6222,20 @@
       <c r="E136" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F136" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G136" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H136" s="130"/>
-      <c r="I136" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J136" s="130"/>
-      <c r="K136" s="130"/>
-      <c r="L136" s="130"/>
+      <c r="F136" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="G136" s="68"/>
+      <c r="H136" s="123"/>
+      <c r="I136" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J136" s="123"/>
+      <c r="K136" s="123"/>
+      <c r="L136" s="123"/>
     </row>
     <row r="137" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="129">
+      <c r="A137" s="122">
         <v>132</v>
       </c>
       <c r="B137" s="8" t="s">
@@ -6466,22 +6250,20 @@
       <c r="E137" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F137" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G137" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H137" s="130"/>
-      <c r="I137" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J137" s="130"/>
-      <c r="K137" s="130"/>
-      <c r="L137" s="130"/>
+      <c r="F137" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="G137" s="68"/>
+      <c r="H137" s="123"/>
+      <c r="I137" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J137" s="123"/>
+      <c r="K137" s="123"/>
+      <c r="L137" s="123"/>
     </row>
     <row r="138" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="129">
+      <c r="A138" s="122">
         <v>133</v>
       </c>
       <c r="B138" s="8" t="s">
@@ -6496,22 +6278,20 @@
       <c r="E138" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F138" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G138" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H138" s="130"/>
-      <c r="I138" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J138" s="130"/>
-      <c r="K138" s="130"/>
-      <c r="L138" s="130"/>
+      <c r="F138" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="G138" s="68"/>
+      <c r="H138" s="123"/>
+      <c r="I138" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J138" s="123"/>
+      <c r="K138" s="123"/>
+      <c r="L138" s="123"/>
     </row>
     <row r="139" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="129">
+      <c r="A139" s="122">
         <v>134</v>
       </c>
       <c r="B139" s="8" t="s">
@@ -6526,22 +6306,20 @@
       <c r="E139" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F139" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G139" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H139" s="130"/>
-      <c r="I139" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J139" s="130"/>
-      <c r="K139" s="130"/>
-      <c r="L139" s="130"/>
+      <c r="F139" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="G139" s="68"/>
+      <c r="H139" s="123"/>
+      <c r="I139" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J139" s="123"/>
+      <c r="K139" s="123"/>
+      <c r="L139" s="123"/>
     </row>
     <row r="140" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="129">
+      <c r="A140" s="122">
         <v>135</v>
       </c>
       <c r="B140" s="8" t="s">
@@ -6556,22 +6334,20 @@
       <c r="E140" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F140" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G140" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H140" s="130"/>
-      <c r="I140" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="J140" s="130"/>
-      <c r="K140" s="130"/>
-      <c r="L140" s="130"/>
+      <c r="F140" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="G140" s="68"/>
+      <c r="H140" s="123"/>
+      <c r="I140" s="123" t="s">
+        <v>24</v>
+      </c>
+      <c r="J140" s="123"/>
+      <c r="K140" s="123"/>
+      <c r="L140" s="123"/>
     </row>
     <row r="141" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="129">
+      <c r="A141" s="122">
         <v>136</v>
       </c>
       <c r="B141" s="8" t="s">
@@ -6586,22 +6362,20 @@
       <c r="E141" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F141" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G141" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H141" s="130"/>
-      <c r="I141" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J141" s="130"/>
-      <c r="K141" s="130"/>
-      <c r="L141" s="130"/>
+      <c r="F141" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="G141" s="68"/>
+      <c r="H141" s="123"/>
+      <c r="I141" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J141" s="123"/>
+      <c r="K141" s="123"/>
+      <c r="L141" s="123"/>
     </row>
     <row r="142" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="129">
+      <c r="A142" s="122">
         <v>137</v>
       </c>
       <c r="B142" s="8" t="s">
@@ -6616,22 +6390,20 @@
       <c r="E142" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F142" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G142" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H142" s="130"/>
-      <c r="I142" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J142" s="130"/>
-      <c r="K142" s="130"/>
-      <c r="L142" s="130"/>
+      <c r="F142" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="G142" s="68"/>
+      <c r="H142" s="123"/>
+      <c r="I142" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J142" s="123"/>
+      <c r="K142" s="123"/>
+      <c r="L142" s="123"/>
     </row>
     <row r="143" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="129">
+      <c r="A143" s="122">
         <v>138</v>
       </c>
       <c r="B143" s="8" t="s">
@@ -6646,22 +6418,20 @@
       <c r="E143" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F143" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G143" s="79" t="s">
-        <v>245</v>
-      </c>
-      <c r="H143" s="130"/>
-      <c r="I143" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J143" s="130"/>
-      <c r="K143" s="130"/>
-      <c r="L143" s="130"/>
+      <c r="F143" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="G143" s="72"/>
+      <c r="H143" s="123"/>
+      <c r="I143" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J143" s="123"/>
+      <c r="K143" s="123"/>
+      <c r="L143" s="123"/>
     </row>
     <row r="144" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="129">
+      <c r="A144" s="122">
         <v>139</v>
       </c>
       <c r="B144" s="8" t="s">
@@ -6676,22 +6446,20 @@
       <c r="E144" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F144" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G144" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H144" s="130"/>
-      <c r="I144" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J144" s="130"/>
-      <c r="K144" s="130"/>
-      <c r="L144" s="130"/>
+      <c r="F144" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="G144" s="68"/>
+      <c r="H144" s="123"/>
+      <c r="I144" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J144" s="123"/>
+      <c r="K144" s="123"/>
+      <c r="L144" s="123"/>
     </row>
     <row r="145" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="129">
+      <c r="A145" s="122">
         <v>140</v>
       </c>
       <c r="B145" s="8" t="s">
@@ -6706,22 +6474,20 @@
       <c r="E145" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F145" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G145" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H145" s="130"/>
-      <c r="I145" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J145" s="130"/>
-      <c r="K145" s="130"/>
-      <c r="L145" s="130"/>
+      <c r="F145" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="G145" s="68"/>
+      <c r="H145" s="123"/>
+      <c r="I145" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J145" s="123"/>
+      <c r="K145" s="123"/>
+      <c r="L145" s="123"/>
     </row>
     <row r="146" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="129">
+      <c r="A146" s="122">
         <v>141</v>
       </c>
       <c r="B146" s="9" t="s">
@@ -6736,22 +6502,20 @@
       <c r="E146" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F146" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G146" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H146" s="130"/>
-      <c r="I146" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J146" s="130"/>
-      <c r="K146" s="130"/>
-      <c r="L146" s="130"/>
+      <c r="F146" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="G146" s="68"/>
+      <c r="H146" s="123"/>
+      <c r="I146" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J146" s="123"/>
+      <c r="K146" s="123"/>
+      <c r="L146" s="123"/>
     </row>
     <row r="147" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="129">
+      <c r="A147" s="122">
         <v>142</v>
       </c>
       <c r="B147" s="11" t="s">
@@ -6766,22 +6530,20 @@
       <c r="E147" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F147" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G147" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H147" s="130"/>
-      <c r="I147" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J147" s="130"/>
-      <c r="K147" s="130"/>
-      <c r="L147" s="130"/>
+      <c r="F147" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="G147" s="68"/>
+      <c r="H147" s="123"/>
+      <c r="I147" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J147" s="123"/>
+      <c r="K147" s="123"/>
+      <c r="L147" s="123"/>
     </row>
     <row r="148" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="129">
+      <c r="A148" s="122">
         <v>143</v>
       </c>
       <c r="B148" s="11" t="s">
@@ -6796,22 +6558,20 @@
       <c r="E148" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F148" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="G148" s="92" t="s">
-        <v>245</v>
-      </c>
-      <c r="H148" s="132"/>
-      <c r="I148" s="93" t="s">
-        <v>24</v>
-      </c>
-      <c r="J148" s="130"/>
-      <c r="K148" s="130"/>
-      <c r="L148" s="130"/>
+      <c r="F148" s="134" t="s">
+        <v>22</v>
+      </c>
+      <c r="G148" s="85"/>
+      <c r="H148" s="124"/>
+      <c r="I148" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="J148" s="123"/>
+      <c r="K148" s="123"/>
+      <c r="L148" s="123"/>
     </row>
     <row r="149" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="129">
+      <c r="A149" s="122">
         <v>144</v>
       </c>
       <c r="B149" s="11" t="s">
@@ -6826,22 +6586,20 @@
       <c r="E149" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F149" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G149" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H149" s="124"/>
-      <c r="I149" s="124" t="s">
-        <v>24</v>
-      </c>
-      <c r="J149" s="130"/>
-      <c r="K149" s="130"/>
-      <c r="L149" s="130"/>
+      <c r="F149" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G149" s="68"/>
+      <c r="H149" s="117"/>
+      <c r="I149" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="J149" s="123"/>
+      <c r="K149" s="123"/>
+      <c r="L149" s="123"/>
     </row>
     <row r="150" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="129">
+      <c r="A150" s="122">
         <v>145</v>
       </c>
       <c r="B150" s="11" t="s">
@@ -6856,22 +6614,20 @@
       <c r="E150" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F150" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G150" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H150" s="124"/>
-      <c r="I150" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J150" s="130"/>
-      <c r="K150" s="130"/>
-      <c r="L150" s="130"/>
+      <c r="F150" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G150" s="68"/>
+      <c r="H150" s="117"/>
+      <c r="I150" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J150" s="123"/>
+      <c r="K150" s="123"/>
+      <c r="L150" s="123"/>
     </row>
     <row r="151" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A151" s="133">
+      <c r="A151" s="125">
         <v>146</v>
       </c>
       <c r="B151" s="13" t="s">
@@ -6886,28 +6642,26 @@
       <c r="E151" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="F151" s="116" t="s">
-        <v>22</v>
-      </c>
-      <c r="G151" s="106" t="s">
-        <v>245</v>
-      </c>
-      <c r="H151" s="126"/>
-      <c r="I151" s="116" t="s">
-        <v>24</v>
-      </c>
-      <c r="J151" s="134"/>
-      <c r="K151" s="134"/>
-      <c r="L151" s="134"/>
+      <c r="F151" s="135" t="s">
+        <v>22</v>
+      </c>
+      <c r="G151" s="99"/>
+      <c r="H151" s="119"/>
+      <c r="I151" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="J151" s="126"/>
+      <c r="K151" s="126"/>
+      <c r="L151" s="126"/>
     </row>
     <row r="152" spans="1:12" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="129">
+      <c r="A152" s="122">
         <v>147</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C152" s="135" t="s">
+      <c r="C152" s="127" t="s">
         <v>49</v>
       </c>
       <c r="D152" s="16" t="s">
@@ -6916,28 +6670,28 @@
       <c r="E152" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F152" s="118" t="s">
+      <c r="F152" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="G152" s="79" t="s">
+      <c r="G152" s="72" t="s">
         <v>244</v>
       </c>
-      <c r="H152" s="123"/>
-      <c r="I152" s="118" t="s">
-        <v>24</v>
-      </c>
-      <c r="J152" s="130"/>
-      <c r="K152" s="130"/>
-      <c r="L152" s="130"/>
+      <c r="H152" s="116"/>
+      <c r="I152" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="J152" s="123"/>
+      <c r="K152" s="123"/>
+      <c r="L152" s="123"/>
     </row>
     <row r="153" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="129">
+      <c r="A153" s="122">
         <v>148</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C153" s="135" t="s">
+      <c r="C153" s="127" t="s">
         <v>49</v>
       </c>
       <c r="D153" s="4" t="s">
@@ -6946,28 +6700,26 @@
       <c r="E153" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="F153" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G153" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H153" s="124"/>
-      <c r="I153" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J153" s="130"/>
-      <c r="K153" s="130"/>
-      <c r="L153" s="130"/>
+      <c r="F153" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G153" s="68"/>
+      <c r="H153" s="117"/>
+      <c r="I153" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J153" s="123"/>
+      <c r="K153" s="123"/>
+      <c r="L153" s="123"/>
     </row>
     <row r="154" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="129">
+      <c r="A154" s="122">
         <v>149</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C154" s="135" t="s">
+      <c r="C154" s="127" t="s">
         <v>49</v>
       </c>
       <c r="D154" s="4" t="s">
@@ -6976,28 +6728,26 @@
       <c r="E154" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="F154" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G154" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H154" s="124"/>
-      <c r="I154" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J154" s="130"/>
-      <c r="K154" s="130"/>
-      <c r="L154" s="130"/>
+      <c r="F154" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G154" s="68"/>
+      <c r="H154" s="117"/>
+      <c r="I154" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J154" s="123"/>
+      <c r="K154" s="123"/>
+      <c r="L154" s="123"/>
     </row>
     <row r="155" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="129">
+      <c r="A155" s="122">
         <v>150</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C155" s="135" t="s">
+      <c r="C155" s="127" t="s">
         <v>49</v>
       </c>
       <c r="D155" s="4" t="s">
@@ -7006,28 +6756,26 @@
       <c r="E155" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="F155" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G155" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H155" s="124"/>
-      <c r="I155" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J155" s="130"/>
-      <c r="K155" s="130"/>
-      <c r="L155" s="130"/>
+      <c r="F155" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G155" s="68"/>
+      <c r="H155" s="117"/>
+      <c r="I155" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J155" s="123"/>
+      <c r="K155" s="123"/>
+      <c r="L155" s="123"/>
     </row>
     <row r="156" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="129">
+      <c r="A156" s="122">
         <v>151</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C156" s="135" t="s">
+      <c r="C156" s="127" t="s">
         <v>49</v>
       </c>
       <c r="D156" s="4" t="s">
@@ -7036,28 +6784,26 @@
       <c r="E156" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F156" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G156" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H156" s="124"/>
-      <c r="I156" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J156" s="130"/>
-      <c r="K156" s="130"/>
-      <c r="L156" s="130"/>
+      <c r="F156" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G156" s="68"/>
+      <c r="H156" s="117"/>
+      <c r="I156" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J156" s="123"/>
+      <c r="K156" s="123"/>
+      <c r="L156" s="123"/>
     </row>
     <row r="157" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="129">
+      <c r="A157" s="122">
         <v>152</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C157" s="135" t="s">
+      <c r="C157" s="127" t="s">
         <v>49</v>
       </c>
       <c r="D157" s="4" t="s">
@@ -7066,28 +6812,26 @@
       <c r="E157" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="F157" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G157" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H157" s="124"/>
-      <c r="I157" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J157" s="130"/>
-      <c r="K157" s="130"/>
-      <c r="L157" s="130"/>
+      <c r="F157" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G157" s="68"/>
+      <c r="H157" s="117"/>
+      <c r="I157" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J157" s="123"/>
+      <c r="K157" s="123"/>
+      <c r="L157" s="123"/>
     </row>
     <row r="158" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="129">
+      <c r="A158" s="122">
         <v>153</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C158" s="135" t="s">
+      <c r="C158" s="127" t="s">
         <v>49</v>
       </c>
       <c r="D158" s="4" t="s">
@@ -7096,28 +6840,26 @@
       <c r="E158" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="F158" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G158" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H158" s="124"/>
-      <c r="I158" s="124" t="s">
-        <v>24</v>
-      </c>
-      <c r="J158" s="130"/>
-      <c r="K158" s="130"/>
-      <c r="L158" s="130"/>
+      <c r="F158" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G158" s="68"/>
+      <c r="H158" s="117"/>
+      <c r="I158" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="J158" s="123"/>
+      <c r="K158" s="123"/>
+      <c r="L158" s="123"/>
     </row>
     <row r="159" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="129">
+      <c r="A159" s="122">
         <v>154</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C159" s="135" t="s">
+      <c r="C159" s="127" t="s">
         <v>49</v>
       </c>
       <c r="D159" s="4" t="s">
@@ -7126,28 +6868,26 @@
       <c r="E159" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="F159" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G159" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H159" s="124"/>
-      <c r="I159" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J159" s="130"/>
-      <c r="K159" s="130"/>
-      <c r="L159" s="130"/>
+      <c r="F159" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G159" s="68"/>
+      <c r="H159" s="117"/>
+      <c r="I159" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J159" s="123"/>
+      <c r="K159" s="123"/>
+      <c r="L159" s="123"/>
     </row>
     <row r="160" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="129">
+      <c r="A160" s="122">
         <v>156</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C160" s="135" t="s">
+      <c r="C160" s="127" t="s">
         <v>49</v>
       </c>
       <c r="D160" s="4" t="s">
@@ -7156,28 +6896,26 @@
       <c r="E160" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="F160" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G160" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H160" s="124"/>
-      <c r="I160" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J160" s="130"/>
-      <c r="K160" s="130"/>
-      <c r="L160" s="130"/>
+      <c r="F160" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G160" s="68"/>
+      <c r="H160" s="117"/>
+      <c r="I160" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J160" s="123"/>
+      <c r="K160" s="123"/>
+      <c r="L160" s="123"/>
     </row>
     <row r="161" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="129">
+      <c r="A161" s="122">
         <v>157</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C161" s="135" t="s">
+      <c r="C161" s="127" t="s">
         <v>49</v>
       </c>
       <c r="D161" s="4" t="s">
@@ -7186,28 +6924,26 @@
       <c r="E161" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="F161" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G161" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H161" s="124"/>
-      <c r="I161" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J161" s="130"/>
-      <c r="K161" s="130"/>
-      <c r="L161" s="130"/>
+      <c r="F161" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G161" s="68"/>
+      <c r="H161" s="117"/>
+      <c r="I161" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J161" s="123"/>
+      <c r="K161" s="123"/>
+      <c r="L161" s="123"/>
     </row>
     <row r="162" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="129">
+      <c r="A162" s="122">
         <v>158</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C162" s="135" t="s">
+      <c r="C162" s="127" t="s">
         <v>49</v>
       </c>
       <c r="D162" s="4" t="s">
@@ -7216,28 +6952,26 @@
       <c r="E162" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="F162" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G162" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H162" s="124"/>
-      <c r="I162" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J162" s="130"/>
-      <c r="K162" s="130"/>
-      <c r="L162" s="130"/>
+      <c r="F162" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G162" s="68"/>
+      <c r="H162" s="117"/>
+      <c r="I162" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J162" s="123"/>
+      <c r="K162" s="123"/>
+      <c r="L162" s="123"/>
     </row>
     <row r="163" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="129">
+      <c r="A163" s="122">
         <v>159</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C163" s="135" t="s">
+      <c r="C163" s="127" t="s">
         <v>49</v>
       </c>
       <c r="D163" s="4" t="s">
@@ -7246,28 +6980,26 @@
       <c r="E163" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F163" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G163" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H163" s="124"/>
-      <c r="I163" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J163" s="130"/>
-      <c r="K163" s="130"/>
-      <c r="L163" s="130"/>
+      <c r="F163" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G163" s="68"/>
+      <c r="H163" s="117"/>
+      <c r="I163" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J163" s="123"/>
+      <c r="K163" s="123"/>
+      <c r="L163" s="123"/>
     </row>
     <row r="164" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="129">
+      <c r="A164" s="122">
         <v>160</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C164" s="135" t="s">
+      <c r="C164" s="127" t="s">
         <v>49</v>
       </c>
       <c r="D164" s="4" t="s">
@@ -7276,28 +7008,26 @@
       <c r="E164" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="F164" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G164" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H164" s="124"/>
-      <c r="I164" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J164" s="130"/>
-      <c r="K164" s="130"/>
-      <c r="L164" s="130"/>
+      <c r="F164" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G164" s="68"/>
+      <c r="H164" s="117"/>
+      <c r="I164" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J164" s="123"/>
+      <c r="K164" s="123"/>
+      <c r="L164" s="123"/>
     </row>
     <row r="165" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="129">
+      <c r="A165" s="122">
         <v>161</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C165" s="135" t="s">
+      <c r="C165" s="127" t="s">
         <v>49</v>
       </c>
       <c r="D165" s="4" t="s">
@@ -7306,28 +7036,26 @@
       <c r="E165" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="F165" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G165" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H165" s="124"/>
-      <c r="I165" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J165" s="130"/>
-      <c r="K165" s="130"/>
-      <c r="L165" s="130"/>
+      <c r="F165" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G165" s="68"/>
+      <c r="H165" s="117"/>
+      <c r="I165" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J165" s="123"/>
+      <c r="K165" s="123"/>
+      <c r="L165" s="123"/>
     </row>
     <row r="166" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="129">
+      <c r="A166" s="122">
         <v>162</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C166" s="135" t="s">
+      <c r="C166" s="127" t="s">
         <v>49</v>
       </c>
       <c r="D166" s="4" t="s">
@@ -7336,28 +7064,26 @@
       <c r="E166" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="F166" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G166" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H166" s="124"/>
-      <c r="I166" s="124" t="s">
-        <v>24</v>
-      </c>
-      <c r="J166" s="130"/>
-      <c r="K166" s="130"/>
-      <c r="L166" s="130"/>
+      <c r="F166" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G166" s="68"/>
+      <c r="H166" s="117"/>
+      <c r="I166" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="J166" s="123"/>
+      <c r="K166" s="123"/>
+      <c r="L166" s="123"/>
     </row>
     <row r="167" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="129">
+      <c r="A167" s="122">
         <v>163</v>
       </c>
       <c r="B167" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C167" s="135" t="s">
+      <c r="C167" s="127" t="s">
         <v>49</v>
       </c>
       <c r="D167" s="4" t="s">
@@ -7366,28 +7092,26 @@
       <c r="E167" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="F167" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G167" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H167" s="124"/>
-      <c r="I167" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J167" s="130"/>
-      <c r="K167" s="130"/>
-      <c r="L167" s="130"/>
+      <c r="F167" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G167" s="68"/>
+      <c r="H167" s="117"/>
+      <c r="I167" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J167" s="123"/>
+      <c r="K167" s="123"/>
+      <c r="L167" s="123"/>
     </row>
     <row r="168" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="129">
+      <c r="A168" s="122">
         <v>164</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C168" s="135" t="s">
+      <c r="C168" s="127" t="s">
         <v>49</v>
       </c>
       <c r="D168" s="4" t="s">
@@ -7396,28 +7120,26 @@
       <c r="E168" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="F168" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G168" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H168" s="124"/>
-      <c r="I168" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J168" s="130"/>
-      <c r="K168" s="130"/>
-      <c r="L168" s="130"/>
+      <c r="F168" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G168" s="68"/>
+      <c r="H168" s="117"/>
+      <c r="I168" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J168" s="123"/>
+      <c r="K168" s="123"/>
+      <c r="L168" s="123"/>
     </row>
     <row r="169" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="129">
+      <c r="A169" s="122">
         <v>165</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C169" s="135" t="s">
+      <c r="C169" s="127" t="s">
         <v>49</v>
       </c>
       <c r="D169" s="4" t="s">
@@ -7426,28 +7148,26 @@
       <c r="E169" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="F169" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G169" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H169" s="124"/>
-      <c r="I169" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J169" s="130"/>
-      <c r="K169" s="130"/>
-      <c r="L169" s="130"/>
+      <c r="F169" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G169" s="68"/>
+      <c r="H169" s="117"/>
+      <c r="I169" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J169" s="123"/>
+      <c r="K169" s="123"/>
+      <c r="L169" s="123"/>
     </row>
     <row r="170" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="129">
+      <c r="A170" s="122">
         <v>166</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C170" s="135" t="s">
+      <c r="C170" s="127" t="s">
         <v>49</v>
       </c>
       <c r="D170" s="4" t="s">
@@ -7456,25 +7176,23 @@
       <c r="E170" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="F170" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G170" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H170" s="124"/>
-      <c r="I170" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J170" s="130"/>
-      <c r="K170" s="130"/>
-      <c r="L170" s="130"/>
+      <c r="F170" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G170" s="68"/>
+      <c r="H170" s="117"/>
+      <c r="I170" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J170" s="123"/>
+      <c r="K170" s="123"/>
+      <c r="L170" s="123"/>
     </row>
     <row r="171" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="129">
+      <c r="A171" s="122">
         <v>167</v>
       </c>
-      <c r="B171" s="135" t="s">
+      <c r="B171" s="127" t="s">
         <v>54</v>
       </c>
       <c r="C171" s="11" t="s">
@@ -7486,25 +7204,23 @@
       <c r="E171" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="F171" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G171" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H171" s="124"/>
-      <c r="I171" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J171" s="130"/>
-      <c r="K171" s="130"/>
-      <c r="L171" s="130"/>
+      <c r="F171" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G171" s="68"/>
+      <c r="H171" s="117"/>
+      <c r="I171" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J171" s="123"/>
+      <c r="K171" s="123"/>
+      <c r="L171" s="123"/>
     </row>
     <row r="172" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="129">
+      <c r="A172" s="122">
         <v>168</v>
       </c>
-      <c r="B172" s="135" t="s">
+      <c r="B172" s="127" t="s">
         <v>54</v>
       </c>
       <c r="C172" s="11" t="s">
@@ -7516,25 +7232,23 @@
       <c r="E172" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F172" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G172" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H172" s="124"/>
-      <c r="I172" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J172" s="130"/>
-      <c r="K172" s="130"/>
-      <c r="L172" s="130"/>
+      <c r="F172" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G172" s="68"/>
+      <c r="H172" s="117"/>
+      <c r="I172" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J172" s="123"/>
+      <c r="K172" s="123"/>
+      <c r="L172" s="123"/>
     </row>
     <row r="173" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="129">
+      <c r="A173" s="122">
         <v>169</v>
       </c>
-      <c r="B173" s="135" t="s">
+      <c r="B173" s="127" t="s">
         <v>54</v>
       </c>
       <c r="C173" s="11" t="s">
@@ -7546,25 +7260,23 @@
       <c r="E173" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F173" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G173" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H173" s="124"/>
-      <c r="I173" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J173" s="130"/>
-      <c r="K173" s="130"/>
-      <c r="L173" s="130"/>
+      <c r="F173" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G173" s="68"/>
+      <c r="H173" s="117"/>
+      <c r="I173" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J173" s="123"/>
+      <c r="K173" s="123"/>
+      <c r="L173" s="123"/>
     </row>
     <row r="174" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="129">
+      <c r="A174" s="122">
         <v>170</v>
       </c>
-      <c r="B174" s="135" t="s">
+      <c r="B174" s="127" t="s">
         <v>54</v>
       </c>
       <c r="C174" s="11" t="s">
@@ -7576,22 +7288,20 @@
       <c r="E174" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F174" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G174" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H174" s="124"/>
-      <c r="I174" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="J174" s="130"/>
-      <c r="K174" s="130"/>
-      <c r="L174" s="130"/>
+      <c r="F174" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G174" s="68"/>
+      <c r="H174" s="117"/>
+      <c r="I174" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J174" s="123"/>
+      <c r="K174" s="123"/>
+      <c r="L174" s="123"/>
     </row>
     <row r="175" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A175" s="136">
+      <c r="A175" s="128">
         <v>171</v>
       </c>
       <c r="B175" s="20" t="s">
@@ -7606,19 +7316,17 @@
       <c r="E175" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="F175" s="121" t="s">
-        <v>22</v>
-      </c>
-      <c r="G175" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="H175" s="128"/>
-      <c r="I175" s="128" t="s">
-        <v>24</v>
-      </c>
-      <c r="J175" s="137"/>
-      <c r="K175" s="137"/>
-      <c r="L175" s="137"/>
+      <c r="F175" s="132" t="s">
+        <v>22</v>
+      </c>
+      <c r="G175" s="80"/>
+      <c r="H175" s="121"/>
+      <c r="I175" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="J175" s="129"/>
+      <c r="K175" s="129"/>
+      <c r="L175" s="129"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/dataland-framework-toolbox/inputs/eu-taxonomy-financials/eu-taxonomy-financials.xlsx
+++ b/dataland-framework-toolbox/inputs/eu-taxonomy-financials/eu-taxonomy-financials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92432\Documents\Projekte\02-Dataland\Dataland\dataland-framework-toolbox\inputs\eu-taxonomy-financials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d93447\Documents\Dataland\dataland-framework-toolbox\inputs\eu-taxonomy-financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9FEDFA-7D7F-4C94-9680-6AF2CD73D1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6D9003-B851-48D3-88F3-6293D7DE0E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1118" yWindow="817" windowWidth="26242" windowHeight="13598" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="250">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -301,27 +301,6 @@
     <t>Taxonomy-aligned Use of Proceeds Share substantially contributing to Climate Change Adaptation</t>
   </si>
   <si>
-    <t>Taxonomy-eligible Proportion of Revenue-based Green Asset Ratio substantially contributing to Sustainable Use and Protection of Water and Marin Resources</t>
-  </si>
-  <si>
-    <t>Taxonomy-aligned Proportion of Revenue-based Green Asset Ratio substantially contributing to Sustainable Use and Protection of Water and Marin Resources</t>
-  </si>
-  <si>
-    <t>Taxonomy-aligned Use of Proceeds Share substantially contributing to Sustainable Use and Protection of Water and Marin Resources</t>
-  </si>
-  <si>
-    <t>Taxonomy-aligned and enabling Proportion of Revenue-based Green Asset Ratio substantially contributing to Sustainable Use and Protection of Water and Marin Resources</t>
-  </si>
-  <si>
-    <t>Taxonomy-eligible Proportion of CapEx-based Green Asset Ratio substantially contributing to Sustainable Use and Protection of Water and Marin Resources</t>
-  </si>
-  <si>
-    <t>Taxonomy-aligned Proportion of CapEx-based Green Asset Ratio substantially contributing to Sustainable Use and Protection of Water and Marin Resources</t>
-  </si>
-  <si>
-    <t>Taxonomy-aligned and enabling Proportion of CapEx-based Green Asset Ratio substantially contributing to Sustainable Use and Protection of Water and Marin Resources</t>
-  </si>
-  <si>
     <t>Taxonomy-eligible Proportion of Revenue-based Green Asset Ratio substantially contributing to Circular Economy</t>
   </si>
   <si>
@@ -388,9 +367,6 @@
     <t>Taxonomy-aligned Share substantially contributing to Climate Change Adaptation</t>
   </si>
   <si>
-    <t>Taxonomy-aligned Share substantially contributing to Sustainable Use and Protection of Water and Marin Resources</t>
-  </si>
-  <si>
     <t>Taxonomy-aligned Share substantially contributing to Circular Economy</t>
   </si>
   <si>
@@ -398,58 +374,6 @@
   </si>
   <si>
     <t>Taxonomy-aligned Share substantially contributing to Protection and Restoration of Biodiversity and Ecosystems</t>
-  </si>
-  <si>
-    <t>The Percentage of Taxonomy-eligible Non-Life Insurance Economics Activities.
-Insurance and reinsurance undertakings other than life insurance undertakings shall calculate the KPI related to underwriting activities and present the ‘gross premiums written’ non-life insurance revenue or, as applicable, reinsurance revenue corresponding to Taxonomy-aligned insurance or reinsurance activities</t>
-  </si>
-  <si>
-    <t>Taxonomy-aligned Share substantially contributing to Climate Change Mitigation.
-The weighted average value of all the investments that are directed at funding, or are associated with Taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with following weights for investments in undertakings: Turnover-based (%).</t>
-  </si>
-  <si>
-    <t>Taxonomy-aligned Share substantially contributing to Climate Change Adaptation.
-The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with following weights for investments in undertakings: Turnover-based (%).</t>
-  </si>
-  <si>
-    <t>Taxonomy-aligned Share substantially contributing to Sustainable Use and Protection of Water and Marin Resources.
-The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with following weights for investments in undertakings: Turnover-based (%).</t>
-  </si>
-  <si>
-    <t>Taxonomy-aligned Share substantially contributing to a Circular Economy.
-The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with following weights for investments in undertakings: Turnover-based (%).</t>
-  </si>
-  <si>
-    <t>Taxonomy-aligned Share substantially contributing to Pollution Prevention and Control.
-The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with following weights for investments in undertakings: Turnover-based (%).</t>
-  </si>
-  <si>
-    <t>Taxonomy-aligned Share substantially contributing to Protection and Restoration of Biodiversity and Ecosystems.
-The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with following weights for investments in undertakings: Turnover-based (%).</t>
-  </si>
-  <si>
-    <t>Taxonomy-aligned Share substantially contributing to Climate Change Mitigation.
-The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with following weights for investments in undertakings: Capex-based (%).</t>
-  </si>
-  <si>
-    <t>Taxonomy-aligned Share substantially contributing to Climate Change Adaptation.
-The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with following weights for investments in undertakings: Capex-based (%).</t>
-  </si>
-  <si>
-    <t>Taxonomy-aligned Share substantially contributing to Sustainable Use and Protection of Water and Marin Resources.
-The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with following weights for investments in undertakings: Capex-based (%).</t>
-  </si>
-  <si>
-    <t>Taxonomy-aligned Share substantially contributing to a Circular Economy.
-The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with following weights for investments in undertakings: Capex-based (%).</t>
-  </si>
-  <si>
-    <t>Taxonomy-aligned Share substantially contributing to Pollution Prevention and Control.
-The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with following weights for investments in undertakings: Capex-based (%).</t>
-  </si>
-  <si>
-    <t>Taxonomy-aligned Share substantially contributing to Protection and Restoration of Biodiversity and Ecosystems.
-The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with following weights for investments in undertakings: Capex-based (%).</t>
   </si>
   <si>
     <t>Investment firms dealing on own account: total assets invested under investment firms' activities dealing on own account (as per Section A of Annex I to Directive 2014/65/EU)
@@ -675,9 +599,6 @@
     <t>Substantial Contribution to any of the six Environmental Objectives in Percent - Eligible</t>
   </si>
   <si>
-    <t>Taxonomy-eligible Proportion of Revenue-based Green Asset Ratio substantially contributing to to any of the six Environmental Objectives</t>
-  </si>
-  <si>
     <t>Substantial Contribution to any of the six Environmental Objectives in Percent - Aligned</t>
   </si>
   <si>
@@ -747,9 +668,6 @@
     <t>25.1.2</t>
   </si>
   <si>
-    <t>Taxonomy-eligible Proportion of CapEx-based Green Asset Ratio substantially contributing to to any of the six Environmental Objectives</t>
-  </si>
-  <si>
     <t>Taxonomy-aligned Proportion of CapEx-based Green Asset Ratio substantially contributing to any of the six Environmental Objectives</t>
   </si>
   <si>
@@ -768,108 +686,193 @@
     <t>Taxonomy-aligned and transitional Proportion of CapEx-based Green Asset Ratio substantially contributing to any of the six Environmental Objectives</t>
   </si>
   <si>
+    <t>Taxonomy-aligned and Enabling substantially contributing to Climate Change Mitigation</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned and Of which Transitional substantially contributing to Climate Change Mitigation</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned and Enabling substantially contributing to Climate Change Adaptation</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned and Enabling substantially contributing to Circular Economy</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned and Enabling substantially contributing to Pollution Prevention and Control</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned and Enabling substantially contributing to Protection and Restoration of Biodiversity and Ecosystems</t>
+  </si>
+  <si>
+    <t>Total assets invested / revenue from investment and services in Percent - Of which Enabling</t>
+  </si>
+  <si>
+    <t>Total assets invested / revenue from investment and services in Percent - Of which Transitional</t>
+  </si>
+  <si>
+    <t>16.1.3</t>
+  </si>
+  <si>
+    <t>Total (gross) Carrying Amount</t>
+  </si>
+  <si>
+    <t>Allowed Range: [0, INF]</t>
+  </si>
+  <si>
+    <t>Are all Group Entities covered?</t>
+  </si>
+  <si>
+    <t>Is NFRD mandatory?</t>
+  </si>
+  <si>
+    <t>Level of Assurance</t>
+  </si>
+  <si>
+    <t>Total overall covered assets which are included in the numerator. Do not include assets which not covered for GAR calculation.</t>
+  </si>
+  <si>
+    <t>Taxonomy-eligible Proportion of Revenue-based Green Asset Ratio substantially contributing to any of the six Environmental Objectives</t>
+  </si>
+  <si>
+    <t>Taxonomy-eligible Proportion of CapEx-based Green Asset Ratio substantially contributing to any of the six Environmental Objectives</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share substantially contributing to Sustainable Use and Protection of Water and Marine Resources</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned and Enabling substantially contributing to Sustainable Use and Protection of Water and Marine Resources</t>
+  </si>
+  <si>
+    <t>Taxonomy-eligible Proportion of Revenue-based Green Asset Ratio substantially contributing to Sustainable Use and Protection of Water and Marine Resources</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Proportion of Revenue-based Green Asset Ratio substantially contributing to Sustainable Use and Protection of Water and Marine Resources</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Use of Proceeds Share substantially contributing to Sustainable Use and Protection of Water and Marine Resources</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned and enabling Proportion of Revenue-based Green Asset Ratio substantially contributing to Sustainable Use and Protection of Water and Marine Resources</t>
+  </si>
+  <si>
+    <t>Taxonomy-eligible Proportion of CapEx-based Green Asset Ratio substantially contributing to Sustainable Use and Protection of Water and Marine Resources</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Proportion of CapEx-based Green Asset Ratio substantially contributing to Sustainable Use and Protection of Water and Marine Resources</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned and enabling Proportion of CapEx-based Green Asset Ratio substantially contributing to Sustainable Use and Protection of Water and Marine Resources</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share substantially contributing to Climate Change Mitigation.
+The weighted average value of all the investments that are directed at funding, or are associated with Taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with the following weights for investments in undertakings: Turnover-based (%).</t>
+  </si>
+  <si>
     <t>Taxonomy-aligned and Enabling substantially contributing to Climate Change Mitigation.
-The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with following weights for investments in undertakings: Turnover-based (%).</t>
+The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with the following weights for investments in undertakings: Turnover-based (%).</t>
   </si>
   <si>
     <t>Taxonomy-aligned and Of which Transitional substantially contributing to Climate Change Mitigation.
-The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with following weights for investments in undertakings: Turnover-based (%).</t>
+The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with the following weights for investments in undertakings: Turnover-based (%).</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share substantially contributing to Climate Change Adaptation.
+The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with the following weights for investments in undertakings: Turnover-based (%).</t>
   </si>
   <si>
     <t>Taxonomy-aligned and Enabling substantially contributing to Climate Change Adaptation.
-The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with following weights for investments in undertakings: Turnover-based (%).</t>
-  </si>
-  <si>
-    <t>Taxonomy-aligned and Enabling substantially contributing to Sustainable Use and Protection of Water and Marin Resources.
-The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with following weights for investments in undertakings: Turnover-based (%).</t>
+The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with the following weights for investments in undertakings: Turnover-based (%).</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share substantially contributing to Sustainable Use and Protection of Water and Marine Resources.
+The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with the following weights for investments in undertakings: Turnover-based (%).</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned and Enabling substantially contributing to Sustainable Use and Protection of Water and Marine Resources.
+The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with the following weights for investments in undertakings: Turnover-based (%).</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share substantially contributing to a Circular Economy.
+The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with the following weights for investments in undertakings: Turnover-based (%).</t>
   </si>
   <si>
     <t>Taxonomy-aligned and Enabling substantially contributing to a Circular Economy.
-The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with following weights for investments in undertakings: Turnover-based (%).</t>
+The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with the following weights for investments in undertakings: Turnover-based (%).</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share substantially contributing to Pollution Prevention and Control.
+The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with the following weights for investments in undertakings: Turnover-based (%).</t>
   </si>
   <si>
     <t>Taxonomy-aligned and Enabling substantially contributing to Pollution Prevention and Control.
-The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with following weights for investments in undertakings: Turnover-based (%).</t>
+The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with the following weights for investments in undertakings: Turnover-based (%).</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share substantially contributing to Protection and Restoration of Biodiversity and Ecosystems.
+The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with the following weights for investments in undertakings: Turnover-based (%).</t>
   </si>
   <si>
     <t>Taxonomy-aligned and Enabling substantially contributing to Protection and Restoration of Biodiversity and Ecosystems.
-The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with following weights for investments in undertakings: Turnover-based (%).</t>
+The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with the following weights for investments in undertakings: Turnover-based (%).</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share substantially contributing to Climate Change Mitigation.
+The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with the following weights for investments in undertakings: Capex-based (%).</t>
   </si>
   <si>
     <t>Taxonomy-aligned and Enabling substantially contributing to Climate Change Mitigation.
-The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with following weights for investments in undertakings: Capex-based (%).</t>
+The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with the following weights for investments in undertakings: Capex-based (%).</t>
   </si>
   <si>
     <t>Taxonomy-aligned and Of which Transitional substantially contributing to Climate Change Mitigation.
-The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with following weights for investments in undertakings: Capex-based (%).</t>
+The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with the following weights for investments in undertakings: Capex-based (%).</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share substantially contributing to Climate Change Adaptation.
+The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with the following weights for investments in undertakings: Capex-based (%).</t>
   </si>
   <si>
     <t>Taxonomy-aligned and Enabling substantially contributing to Climate Change Adaptation.
-The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with following weights for investments in undertakings: Capex-based (%).</t>
-  </si>
-  <si>
-    <t>Taxonomy-aligned and Enabling substantially contributing to Sustainable Use and Protection of Water and Marin Resources.
-The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with following weights for investments in undertakings: Capex-based (%).</t>
+The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with the following weights for investments in undertakings: Capex-based (%).</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share substantially contributing to Sustainable Use and Protection of Water and Marine Resources.
+The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with the following weights for investments in undertakings: Capex-based (%).</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned and Enabling substantially contributing to Sustainable Use and Protection of Water and Marine Resources.
+The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with the following weights for investments in undertakings: Capex-based (%).</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share substantially contributing to a Circular Economy.
+The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with the following weights for investments in undertakings: Capex-based (%).</t>
   </si>
   <si>
     <t>Taxonomy-aligned and Enabling substantially contributing to a Circular Economy.
-The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with following weights for investments in undertakings: Capex-based (%).</t>
+The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with the following weights for investments in undertakings: Capex-based (%).</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share substantially contributing to Pollution Prevention and Control.
+The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with the following weights for investments in undertakings: Capex-based (%).</t>
   </si>
   <si>
     <t>Taxonomy-aligned and Enabling substantially contributing to Pollution Prevention and Control.
-The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with following weights for investments in undertakings: Capex-based (%).</t>
+The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with the following weights for investments in undertakings: Capex-based (%).</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned Share substantially contributing to Protection and Restoration of Biodiversity and Ecosystems.
+The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with the following weights for investments in undertakings: Capex-based (%).</t>
   </si>
   <si>
     <t>Taxonomy-aligned and Enabling substantially contributing to Protection and Restoration of Biodiversity and Ecosystems.
-The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with following weights for investments in undertakings: Capex-based (%).</t>
-  </si>
-  <si>
-    <t>Taxonomy-aligned and Enabling substantially contributing to Climate Change Mitigation</t>
-  </si>
-  <si>
-    <t>Taxonomy-aligned and Of which Transitional substantially contributing to Climate Change Mitigation</t>
-  </si>
-  <si>
-    <t>Taxonomy-aligned and Enabling substantially contributing to Climate Change Adaptation</t>
-  </si>
-  <si>
-    <t>Taxonomy-aligned and Enabling substantially contributing to Sustainable Use and Protection of Water and Marin Resources</t>
-  </si>
-  <si>
-    <t>Taxonomy-aligned and Enabling substantially contributing to Circular Economy</t>
-  </si>
-  <si>
-    <t>Taxonomy-aligned and Enabling substantially contributing to Pollution Prevention and Control</t>
-  </si>
-  <si>
-    <t>Taxonomy-aligned and Enabling substantially contributing to Protection and Restoration of Biodiversity and Ecosystems</t>
-  </si>
-  <si>
-    <t>Total assets invested / revenue from investment and services in Percent - Of which Enabling</t>
-  </si>
-  <si>
-    <t>Total assets invested / revenue from investment and services in Percent - Of which Transitional</t>
-  </si>
-  <si>
-    <t>16.1.3</t>
-  </si>
-  <si>
-    <t>Total (gross) Carrying Amount</t>
-  </si>
-  <si>
-    <t>Allowed Range: [0, INF]</t>
-  </si>
-  <si>
-    <t>Are all Group Entities covered?</t>
-  </si>
-  <si>
-    <t>Is NFRD mandatory?</t>
-  </si>
-  <si>
-    <t>Level of Assurance</t>
-  </si>
-  <si>
-    <t>Total overall covered assets which are included in the numerator. Do not include assets which not covered for GAR calculation.</t>
+The weighted average value of all the investments that are directed at funding, or are associated with taxonomy-aligned economic activities relative to the value of total assets covered by the KPI, with the following weights for investments in undertakings: Capex-based (%).</t>
+  </si>
+  <si>
+    <t>Taxonomy-aligned and enabling Proportion of CapEx-based Green Asset Ratio substantially contributing to Protection and Restoration of Biodiversity and Ecosystems</t>
+  </si>
+  <si>
+    <t>The Percentage of Taxonomy-eligible Non-Life Insurance Economic Activities.
+Insurance and reinsurance undertakings other than life insurance undertakings shall calculate the KPI related to underwriting activities and present the ‘gross premiums written’ non-life insurance revenue or, as applicable, reinsurance revenue corresponding to Taxonomy-aligned insurance or reinsurance activities</t>
   </si>
 </sst>
 </file>
@@ -2377,22 +2380,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E151" sqref="E151"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.55" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="41.453125" customWidth="1"/>
-    <col min="4" max="4" width="95.1796875" customWidth="1"/>
-    <col min="5" max="5" width="78.7265625" customWidth="1"/>
-    <col min="6" max="6" width="40.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" customWidth="1"/>
+    <col min="3" max="3" width="41.46484375" customWidth="1"/>
+    <col min="4" max="4" width="95.19921875" customWidth="1"/>
+    <col min="5" max="5" width="78.73046875" customWidth="1"/>
+    <col min="6" max="6" width="40.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="14.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -2430,7 +2433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="64">
         <v>1</v>
       </c>
@@ -2460,7 +2463,7 @@
       <c r="K2" s="67"/>
       <c r="L2" s="67"/>
     </row>
-    <row r="3" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="64">
         <v>2</v>
       </c>
@@ -2490,7 +2493,7 @@
       <c r="K3" s="66"/>
       <c r="L3" s="67"/>
     </row>
-    <row r="4" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="64">
         <v>3</v>
       </c>
@@ -2518,7 +2521,7 @@
       <c r="K4" s="67"/>
       <c r="L4" s="67"/>
     </row>
-    <row r="5" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="64">
         <v>4</v>
       </c>
@@ -2529,7 +2532,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>20</v>
@@ -2548,7 +2551,7 @@
       <c r="K5" s="67"/>
       <c r="L5" s="67"/>
     </row>
-    <row r="6" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="64">
         <v>5</v>
       </c>
@@ -2568,7 +2571,7 @@
         <v>26</v>
       </c>
       <c r="G6" s="141" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="H6" s="67"/>
       <c r="I6" s="67" t="s">
@@ -2578,7 +2581,7 @@
       <c r="K6" s="67"/>
       <c r="L6" s="67"/>
     </row>
-    <row r="7" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="64">
         <v>6</v>
       </c>
@@ -2589,7 +2592,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>23</v>
@@ -2606,7 +2609,7 @@
       <c r="K7" s="67"/>
       <c r="L7" s="67"/>
     </row>
-    <row r="8" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="69">
         <v>7</v>
       </c>
@@ -2617,7 +2620,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>59</v>
@@ -2634,7 +2637,7 @@
       <c r="K8" s="70"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="29">
         <v>8</v>
       </c>
@@ -2642,19 +2645,19 @@
         <v>31</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="E9" s="71" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="G9" s="72" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="H9" s="67"/>
       <c r="I9" s="67" t="s">
@@ -2664,7 +2667,7 @@
       <c r="K9" s="67"/>
       <c r="L9" s="73"/>
     </row>
-    <row r="10" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="29">
         <v>9</v>
       </c>
@@ -2672,19 +2675,19 @@
         <v>31</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E10" s="74" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="G10" s="68" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="H10" s="67"/>
       <c r="I10" s="67" t="s">
@@ -2694,7 +2697,7 @@
       <c r="K10" s="67"/>
       <c r="L10" s="67"/>
     </row>
-    <row r="11" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="29">
         <v>9.1</v>
       </c>
@@ -2702,19 +2705,19 @@
         <v>31</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="E11" s="74" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="G11" s="68" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="H11" s="67"/>
       <c r="I11" s="67" t="s">
@@ -2724,27 +2727,27 @@
       <c r="K11" s="67"/>
       <c r="L11" s="67"/>
     </row>
-    <row r="12" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="75" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="E12" s="74" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="G12" s="72" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="H12" s="67"/>
       <c r="I12" s="67" t="s">
@@ -2754,27 +2757,27 @@
       <c r="K12" s="67"/>
       <c r="L12" s="73"/>
     </row>
-    <row r="13" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="75" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E13" s="74" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="G13" s="68" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="H13" s="67"/>
       <c r="I13" s="67" t="s">
@@ -2784,27 +2787,27 @@
       <c r="K13" s="67"/>
       <c r="L13" s="67"/>
     </row>
-    <row r="14" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="76" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="B14" s="42" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D14" s="77" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="E14" s="78" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="F14" s="79" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="G14" s="80" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="H14" s="70"/>
       <c r="I14" s="70" t="s">
@@ -2814,7 +2817,7 @@
       <c r="K14" s="70"/>
       <c r="L14" s="70"/>
     </row>
-    <row r="15" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="75">
         <v>10</v>
       </c>
@@ -2842,7 +2845,7 @@
       <c r="K15" s="67"/>
       <c r="L15" s="67"/>
     </row>
-    <row r="16" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="75">
         <v>10.1</v>
       </c>
@@ -2870,9 +2873,9 @@
       <c r="K16" s="67"/>
       <c r="L16" s="67"/>
     </row>
-    <row r="17" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="75" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>31</v>
@@ -2898,9 +2901,9 @@
       <c r="K17" s="67"/>
       <c r="L17" s="67"/>
     </row>
-    <row r="18" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="75" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B18" s="30" t="s">
         <v>31</v>
@@ -2909,7 +2912,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E18" s="37" t="s">
         <v>62</v>
@@ -2926,9 +2929,9 @@
       <c r="K18" s="67"/>
       <c r="L18" s="67"/>
     </row>
-    <row r="19" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="75" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>31</v>
@@ -2937,7 +2940,7 @@
         <v>32</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="E19" s="37" t="s">
         <v>63</v>
@@ -2954,7 +2957,7 @@
       <c r="K19" s="67"/>
       <c r="L19" s="67"/>
     </row>
-    <row r="20" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="75">
         <v>11</v>
       </c>
@@ -2982,7 +2985,7 @@
       <c r="K20" s="67"/>
       <c r="L20" s="67"/>
     </row>
-    <row r="21" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="75">
         <v>11.1</v>
       </c>
@@ -3010,9 +3013,9 @@
       <c r="K21" s="67"/>
       <c r="L21" s="67"/>
     </row>
-    <row r="22" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="75" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="B22" s="30" t="s">
         <v>31</v>
@@ -3038,9 +3041,9 @@
       <c r="K22" s="67"/>
       <c r="L22" s="67"/>
     </row>
-    <row r="23" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="75" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="B23" s="30" t="s">
         <v>31</v>
@@ -3049,7 +3052,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="E23" s="38" t="s">
         <v>70</v>
@@ -3066,7 +3069,7 @@
       <c r="K23" s="67"/>
       <c r="L23" s="67"/>
     </row>
-    <row r="24" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="75">
         <v>12</v>
       </c>
@@ -3080,7 +3083,7 @@
         <v>38</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="F24" s="65" t="s">
         <v>22</v>
@@ -3094,7 +3097,7 @@
       <c r="K24" s="67"/>
       <c r="L24" s="67"/>
     </row>
-    <row r="25" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="75">
         <v>12.1</v>
       </c>
@@ -3108,7 +3111,7 @@
         <v>39</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="F25" s="65" t="s">
         <v>22</v>
@@ -3122,9 +3125,9 @@
       <c r="K25" s="67"/>
       <c r="L25" s="67"/>
     </row>
-    <row r="26" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="75" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>31</v>
@@ -3136,7 +3139,7 @@
         <v>76</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="F26" s="65" t="s">
         <v>22</v>
@@ -3150,9 +3153,9 @@
       <c r="K26" s="67"/>
       <c r="L26" s="67"/>
     </row>
-    <row r="27" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="75" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>31</v>
@@ -3161,10 +3164,10 @@
         <v>32</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>85</v>
+        <v>218</v>
       </c>
       <c r="F27" s="65" t="s">
         <v>22</v>
@@ -3178,7 +3181,7 @@
       <c r="K27" s="67"/>
       <c r="L27" s="67"/>
     </row>
-    <row r="28" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="75">
         <v>13</v>
       </c>
@@ -3192,7 +3195,7 @@
         <v>40</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F28" s="65" t="s">
         <v>22</v>
@@ -3206,7 +3209,7 @@
       <c r="K28" s="67"/>
       <c r="L28" s="67"/>
     </row>
-    <row r="29" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="75">
         <v>13.1</v>
       </c>
@@ -3220,7 +3223,7 @@
         <v>41</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F29" s="65" t="s">
         <v>22</v>
@@ -3234,9 +3237,9 @@
       <c r="K29" s="67"/>
       <c r="L29" s="67"/>
     </row>
-    <row r="30" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="75" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>31</v>
@@ -3248,7 +3251,7 @@
         <v>77</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F30" s="65" t="s">
         <v>22</v>
@@ -3262,9 +3265,9 @@
       <c r="K30" s="67"/>
       <c r="L30" s="67"/>
     </row>
-    <row r="31" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="75" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>31</v>
@@ -3273,10 +3276,10 @@
         <v>32</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F31" s="65" t="s">
         <v>22</v>
@@ -3290,7 +3293,7 @@
       <c r="K31" s="67"/>
       <c r="L31" s="67"/>
     </row>
-    <row r="32" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="75">
         <v>14</v>
       </c>
@@ -3304,7 +3307,7 @@
         <v>42</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F32" s="65" t="s">
         <v>22</v>
@@ -3318,7 +3321,7 @@
       <c r="K32" s="67"/>
       <c r="L32" s="67"/>
     </row>
-    <row r="33" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="75">
         <v>14.1</v>
       </c>
@@ -3332,7 +3335,7 @@
         <v>43</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F33" s="65" t="s">
         <v>22</v>
@@ -3346,9 +3349,9 @@
       <c r="K33" s="67"/>
       <c r="L33" s="67"/>
     </row>
-    <row r="34" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="75" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="B34" s="30" t="s">
         <v>31</v>
@@ -3360,7 +3363,7 @@
         <v>78</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F34" s="65" t="s">
         <v>22</v>
@@ -3374,9 +3377,9 @@
       <c r="K34" s="67"/>
       <c r="L34" s="67"/>
     </row>
-    <row r="35" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="75" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="B35" s="30" t="s">
         <v>31</v>
@@ -3385,10 +3388,10 @@
         <v>32</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F35" s="65" t="s">
         <v>22</v>
@@ -3402,7 +3405,7 @@
       <c r="K35" s="67"/>
       <c r="L35" s="67"/>
     </row>
-    <row r="36" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="75">
         <v>15</v>
       </c>
@@ -3416,7 +3419,7 @@
         <v>44</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F36" s="65" t="s">
         <v>22</v>
@@ -3430,7 +3433,7 @@
       <c r="K36" s="67"/>
       <c r="L36" s="67"/>
     </row>
-    <row r="37" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="75">
         <v>15.1</v>
       </c>
@@ -3444,7 +3447,7 @@
         <v>45</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F37" s="65" t="s">
         <v>22</v>
@@ -3458,9 +3461,9 @@
       <c r="K37" s="67"/>
       <c r="L37" s="67"/>
     </row>
-    <row r="38" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="82" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B38" s="58" t="s">
         <v>31</v>
@@ -3472,7 +3475,7 @@
         <v>79</v>
       </c>
       <c r="E38" s="39" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F38" s="84" t="s">
         <v>22</v>
@@ -3486,9 +3489,9 @@
       <c r="K38" s="86"/>
       <c r="L38" s="86"/>
     </row>
-    <row r="39" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="75" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="B39" s="30" t="s">
         <v>31</v>
@@ -3497,10 +3500,10 @@
         <v>32</v>
       </c>
       <c r="D39" s="88" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="E39" s="89" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F39" s="65" t="s">
         <v>22</v>
@@ -3514,7 +3517,7 @@
       <c r="K39" s="90"/>
       <c r="L39" s="90"/>
     </row>
-    <row r="40" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="75">
         <v>16</v>
       </c>
@@ -3525,10 +3528,10 @@
         <v>32</v>
       </c>
       <c r="D40" s="91" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="F40" s="92" t="s">
         <v>22</v>
@@ -3542,7 +3545,7 @@
       <c r="K40" s="67"/>
       <c r="L40" s="67"/>
     </row>
-    <row r="41" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="75">
         <v>16.100000000000001</v>
       </c>
@@ -3553,10 +3556,10 @@
         <v>32</v>
       </c>
       <c r="D41" s="91" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="F41" s="65" t="s">
         <v>22</v>
@@ -3570,9 +3573,9 @@
       <c r="K41" s="67"/>
       <c r="L41" s="67"/>
     </row>
-    <row r="42" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="82" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B42" s="58" t="s">
         <v>31</v>
@@ -3581,10 +3584,10 @@
         <v>32</v>
       </c>
       <c r="D42" s="93" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="F42" s="84" t="s">
         <v>22</v>
@@ -3598,9 +3601,9 @@
       <c r="K42" s="86"/>
       <c r="L42" s="86"/>
     </row>
-    <row r="43" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="82" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="B43" s="58" t="s">
         <v>31</v>
@@ -3609,10 +3612,10 @@
         <v>32</v>
       </c>
       <c r="D43" s="88" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="E43" s="89" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="F43" s="65" t="s">
         <v>22</v>
@@ -3626,9 +3629,9 @@
       <c r="K43" s="90"/>
       <c r="L43" s="90"/>
     </row>
-    <row r="44" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="95" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="B44" s="57" t="s">
         <v>31</v>
@@ -3637,10 +3640,10 @@
         <v>32</v>
       </c>
       <c r="D44" s="97" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="E44" s="40" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="F44" s="98" t="s">
         <v>22</v>
@@ -3654,7 +3657,7 @@
       <c r="K44" s="100"/>
       <c r="L44" s="100"/>
     </row>
-    <row r="45" spans="1:12" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" ht="14.55" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A45" s="75">
         <v>20</v>
       </c>
@@ -3671,11 +3674,9 @@
         <v>64</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="G45" s="68" t="s">
-        <v>244</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G45" s="68"/>
       <c r="H45" s="67"/>
       <c r="I45" s="67" t="s">
         <v>24</v>
@@ -3684,7 +3685,7 @@
       <c r="K45" s="67"/>
       <c r="L45" s="67"/>
     </row>
-    <row r="46" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="75">
         <v>20.100000000000001</v>
       </c>
@@ -3712,9 +3713,9 @@
       <c r="K46" s="67"/>
       <c r="L46" s="67"/>
     </row>
-    <row r="47" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="75" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="B47" s="30" t="s">
         <v>31</v>
@@ -3740,9 +3741,9 @@
       <c r="K47" s="67"/>
       <c r="L47" s="67"/>
     </row>
-    <row r="48" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="75" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="B48" s="30" t="s">
         <v>31</v>
@@ -3751,7 +3752,7 @@
         <v>33</v>
       </c>
       <c r="D48" s="37" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E48" s="38" t="s">
         <v>66</v>
@@ -3768,9 +3769,9 @@
       <c r="K48" s="67"/>
       <c r="L48" s="67"/>
     </row>
-    <row r="49" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="75" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="B49" s="30" t="s">
         <v>31</v>
@@ -3779,7 +3780,7 @@
         <v>33</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="E49" s="38" t="s">
         <v>67</v>
@@ -3796,7 +3797,7 @@
       <c r="K49" s="67"/>
       <c r="L49" s="67"/>
     </row>
-    <row r="50" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="75">
         <v>21</v>
       </c>
@@ -3824,7 +3825,7 @@
       <c r="K50" s="67"/>
       <c r="L50" s="67"/>
     </row>
-    <row r="51" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="75">
         <v>21.1</v>
       </c>
@@ -3852,9 +3853,9 @@
       <c r="K51" s="67"/>
       <c r="L51" s="67"/>
     </row>
-    <row r="52" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="75" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B52" s="30" t="s">
         <v>31</v>
@@ -3880,9 +3881,9 @@
       <c r="K52" s="67"/>
       <c r="L52" s="67"/>
     </row>
-    <row r="53" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="75" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="B53" s="30" t="s">
         <v>31</v>
@@ -3891,7 +3892,7 @@
         <v>33</v>
       </c>
       <c r="D53" s="38" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="E53" s="38" t="s">
         <v>73</v>
@@ -3908,7 +3909,7 @@
       <c r="K53" s="67"/>
       <c r="L53" s="67"/>
     </row>
-    <row r="54" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="75">
         <v>22</v>
       </c>
@@ -3922,7 +3923,7 @@
         <v>38</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>86</v>
+        <v>219</v>
       </c>
       <c r="F54" s="65" t="s">
         <v>22</v>
@@ -3936,7 +3937,7 @@
       <c r="K54" s="67"/>
       <c r="L54" s="67"/>
     </row>
-    <row r="55" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="75">
         <v>22.1</v>
       </c>
@@ -3950,7 +3951,7 @@
         <v>39</v>
       </c>
       <c r="E55" s="38" t="s">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c r="F55" s="65" t="s">
         <v>22</v>
@@ -3964,9 +3965,9 @@
       <c r="K55" s="67"/>
       <c r="L55" s="67"/>
     </row>
-    <row r="56" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="75" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="B56" s="30" t="s">
         <v>31</v>
@@ -3978,7 +3979,7 @@
         <v>76</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="F56" s="65" t="s">
         <v>22</v>
@@ -3992,9 +3993,9 @@
       <c r="K56" s="67"/>
       <c r="L56" s="67"/>
     </row>
-    <row r="57" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="75" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="B57" s="30" t="s">
         <v>31</v>
@@ -4003,10 +4004,10 @@
         <v>33</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E57" s="37" t="s">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="F57" s="65" t="s">
         <v>22</v>
@@ -4020,7 +4021,7 @@
       <c r="K57" s="67"/>
       <c r="L57" s="67"/>
     </row>
-    <row r="58" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="75">
         <v>23</v>
       </c>
@@ -4034,7 +4035,7 @@
         <v>40</v>
       </c>
       <c r="E58" s="37" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F58" s="65" t="s">
         <v>22</v>
@@ -4048,7 +4049,7 @@
       <c r="K58" s="67"/>
       <c r="L58" s="67"/>
     </row>
-    <row r="59" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="75">
         <v>23.1</v>
       </c>
@@ -4062,7 +4063,7 @@
         <v>41</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F59" s="65" t="s">
         <v>22</v>
@@ -4076,9 +4077,9 @@
       <c r="K59" s="67"/>
       <c r="L59" s="67"/>
     </row>
-    <row r="60" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="75" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="B60" s="30" t="s">
         <v>31</v>
@@ -4090,7 +4091,7 @@
         <v>77</v>
       </c>
       <c r="E60" s="37" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F60" s="65" t="s">
         <v>22</v>
@@ -4104,9 +4105,9 @@
       <c r="K60" s="67"/>
       <c r="L60" s="67"/>
     </row>
-    <row r="61" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="75" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="B61" s="30" t="s">
         <v>31</v>
@@ -4115,10 +4116,10 @@
         <v>33</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="E61" s="37" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F61" s="65" t="s">
         <v>22</v>
@@ -4132,7 +4133,7 @@
       <c r="K61" s="67"/>
       <c r="L61" s="67"/>
     </row>
-    <row r="62" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="75">
         <v>24</v>
       </c>
@@ -4146,7 +4147,7 @@
         <v>42</v>
       </c>
       <c r="E62" s="37" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F62" s="65" t="s">
         <v>22</v>
@@ -4160,7 +4161,7 @@
       <c r="K62" s="67"/>
       <c r="L62" s="67"/>
     </row>
-    <row r="63" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="75">
         <v>24.1</v>
       </c>
@@ -4174,7 +4175,7 @@
         <v>43</v>
       </c>
       <c r="E63" s="37" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F63" s="65" t="s">
         <v>22</v>
@@ -4188,9 +4189,9 @@
       <c r="K63" s="67"/>
       <c r="L63" s="67"/>
     </row>
-    <row r="64" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="75" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="B64" s="30" t="s">
         <v>31</v>
@@ -4202,7 +4203,7 @@
         <v>78</v>
       </c>
       <c r="E64" s="37" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F64" s="65" t="s">
         <v>22</v>
@@ -4216,9 +4217,9 @@
       <c r="K64" s="67"/>
       <c r="L64" s="67"/>
     </row>
-    <row r="65" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="75" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="B65" s="30" t="s">
         <v>31</v>
@@ -4227,10 +4228,10 @@
         <v>33</v>
       </c>
       <c r="D65" s="38" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="E65" s="37" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F65" s="65" t="s">
         <v>22</v>
@@ -4244,7 +4245,7 @@
       <c r="K65" s="67"/>
       <c r="L65" s="67"/>
     </row>
-    <row r="66" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="75">
         <v>25</v>
       </c>
@@ -4258,7 +4259,7 @@
         <v>44</v>
       </c>
       <c r="E66" s="37" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F66" s="65" t="s">
         <v>22</v>
@@ -4272,7 +4273,7 @@
       <c r="K66" s="67"/>
       <c r="L66" s="67"/>
     </row>
-    <row r="67" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="75">
         <v>25.1</v>
       </c>
@@ -4286,7 +4287,7 @@
         <v>45</v>
       </c>
       <c r="E67" s="37" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F67" s="65" t="s">
         <v>22</v>
@@ -4300,9 +4301,9 @@
       <c r="K67" s="67"/>
       <c r="L67" s="67"/>
     </row>
-    <row r="68" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="82" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="B68" s="58" t="s">
         <v>31</v>
@@ -4314,7 +4315,7 @@
         <v>79</v>
       </c>
       <c r="E68" s="37" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F68" s="65" t="s">
         <v>22</v>
@@ -4328,9 +4329,9 @@
       <c r="K68" s="67"/>
       <c r="L68" s="67"/>
     </row>
-    <row r="69" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="75" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="B69" s="30" t="s">
         <v>31</v>
@@ -4339,10 +4340,10 @@
         <v>33</v>
       </c>
       <c r="D69" s="88" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="E69" s="37" t="s">
-        <v>95</v>
+        <v>248</v>
       </c>
       <c r="F69" s="65" t="s">
         <v>22</v>
@@ -4356,7 +4357,7 @@
       <c r="K69" s="67"/>
       <c r="L69" s="67"/>
     </row>
-    <row r="70" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="75">
         <v>26</v>
       </c>
@@ -4367,7 +4368,7 @@
         <v>33</v>
       </c>
       <c r="D70" s="91" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="E70" s="38" t="s">
         <v>212</v>
@@ -4384,7 +4385,7 @@
       <c r="K70" s="67"/>
       <c r="L70" s="67"/>
     </row>
-    <row r="71" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="75">
         <v>26.1</v>
       </c>
@@ -4395,10 +4396,10 @@
         <v>33</v>
       </c>
       <c r="D71" s="91" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="E71" s="38" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="F71" s="65" t="s">
         <v>22</v>
@@ -4412,9 +4413,9 @@
       <c r="K71" s="67"/>
       <c r="L71" s="67"/>
     </row>
-    <row r="72" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="82" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="B72" s="58" t="s">
         <v>31</v>
@@ -4423,10 +4424,10 @@
         <v>33</v>
       </c>
       <c r="D72" s="93" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="E72" s="39" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="F72" s="65" t="s">
         <v>22</v>
@@ -4440,9 +4441,9 @@
       <c r="K72" s="67"/>
       <c r="L72" s="67"/>
     </row>
-    <row r="73" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="75" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="B73" s="58" t="s">
         <v>31</v>
@@ -4451,10 +4452,10 @@
         <v>33</v>
       </c>
       <c r="D73" s="88" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="E73" s="89" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="F73" s="65" t="s">
         <v>22</v>
@@ -4468,9 +4469,9 @@
       <c r="K73" s="67"/>
       <c r="L73" s="67"/>
     </row>
-    <row r="74" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="76" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="B74" s="42" t="s">
         <v>31</v>
@@ -4479,10 +4480,10 @@
         <v>33</v>
       </c>
       <c r="D74" s="102" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="E74" s="40" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="F74" s="103" t="s">
         <v>22</v>
@@ -4496,7 +4497,7 @@
       <c r="K74" s="70"/>
       <c r="L74" s="70"/>
     </row>
-    <row r="75" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="104">
         <v>65</v>
       </c>
@@ -4510,7 +4511,7 @@
         <v>35</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>116</v>
+        <v>222</v>
       </c>
       <c r="F75" s="92" t="s">
         <v>22</v>
@@ -4524,7 +4525,7 @@
       <c r="K75" s="67"/>
       <c r="L75" s="67"/>
     </row>
-    <row r="76" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="104">
         <v>66</v>
       </c>
@@ -4535,10 +4536,10 @@
         <v>48</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F76" s="65" t="s">
         <v>22</v>
@@ -4552,7 +4553,7 @@
       <c r="K76" s="67"/>
       <c r="L76" s="67"/>
     </row>
-    <row r="77" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="104">
         <v>67</v>
       </c>
@@ -4563,10 +4564,10 @@
         <v>48</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F77" s="65" t="s">
         <v>22</v>
@@ -4580,7 +4581,7 @@
       <c r="K77" s="67"/>
       <c r="L77" s="67"/>
     </row>
-    <row r="78" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="104">
         <v>68</v>
       </c>
@@ -4594,7 +4595,7 @@
         <v>37</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>117</v>
+        <v>225</v>
       </c>
       <c r="F78" s="65" t="s">
         <v>22</v>
@@ -4608,7 +4609,7 @@
       <c r="K78" s="67"/>
       <c r="L78" s="67"/>
     </row>
-    <row r="79" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="104">
         <v>69</v>
       </c>
@@ -4619,10 +4620,10 @@
         <v>48</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F79" s="65" t="s">
         <v>22</v>
@@ -4636,7 +4637,7 @@
       <c r="K79" s="67"/>
       <c r="L79" s="67"/>
     </row>
-    <row r="80" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="104">
         <v>71</v>
       </c>
@@ -4650,7 +4651,7 @@
         <v>39</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>118</v>
+        <v>227</v>
       </c>
       <c r="F80" s="65" t="s">
         <v>22</v>
@@ -4664,7 +4665,7 @@
       <c r="K80" s="67"/>
       <c r="L80" s="67"/>
     </row>
-    <row r="81" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="104">
         <v>72</v>
       </c>
@@ -4675,10 +4676,10 @@
         <v>48</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F81" s="65" t="s">
         <v>22</v>
@@ -4692,7 +4693,7 @@
       <c r="K81" s="67"/>
       <c r="L81" s="67"/>
     </row>
-    <row r="82" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="104">
         <v>73</v>
       </c>
@@ -4706,7 +4707,7 @@
         <v>41</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>119</v>
+        <v>229</v>
       </c>
       <c r="F82" s="65" t="s">
         <v>22</v>
@@ -4720,7 +4721,7 @@
       <c r="K82" s="67"/>
       <c r="L82" s="67"/>
     </row>
-    <row r="83" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="104">
         <v>74</v>
       </c>
@@ -4731,10 +4732,10 @@
         <v>48</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F83" s="65" t="s">
         <v>22</v>
@@ -4748,7 +4749,7 @@
       <c r="K83" s="67"/>
       <c r="L83" s="67"/>
     </row>
-    <row r="84" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="104">
         <v>75</v>
       </c>
@@ -4762,7 +4763,7 @@
         <v>43</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="F84" s="65" t="s">
         <v>22</v>
@@ -4776,7 +4777,7 @@
       <c r="K84" s="67"/>
       <c r="L84" s="67"/>
     </row>
-    <row r="85" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="104">
         <v>76</v>
       </c>
@@ -4787,10 +4788,10 @@
         <v>48</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="F85" s="65" t="s">
         <v>22</v>
@@ -4804,7 +4805,7 @@
       <c r="K85" s="67"/>
       <c r="L85" s="67"/>
     </row>
-    <row r="86" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="104">
         <v>77</v>
       </c>
@@ -4818,7 +4819,7 @@
         <v>45</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="F86" s="84" t="s">
         <v>22</v>
@@ -4832,7 +4833,7 @@
       <c r="K86" s="86"/>
       <c r="L86" s="86"/>
     </row>
-    <row r="87" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:12" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A87" s="105">
         <v>78</v>
       </c>
@@ -4843,10 +4844,10 @@
         <v>48</v>
       </c>
       <c r="D87" s="45" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="E87" s="61" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="F87" s="106" t="s">
         <v>22</v>
@@ -4860,7 +4861,7 @@
       <c r="K87" s="108"/>
       <c r="L87" s="109"/>
     </row>
-    <row r="88" spans="1:12" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" ht="14.55" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A88" s="110">
         <v>79</v>
       </c>
@@ -4874,7 +4875,7 @@
         <v>35</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>122</v>
+        <v>235</v>
       </c>
       <c r="F88" s="92" t="s">
         <v>22</v>
@@ -4888,7 +4889,7 @@
       <c r="K88" s="111"/>
       <c r="L88" s="111"/>
     </row>
-    <row r="89" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="110">
         <v>80</v>
       </c>
@@ -4899,10 +4900,10 @@
         <v>49</v>
       </c>
       <c r="D89" s="49" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="F89" s="65" t="s">
         <v>22</v>
@@ -4916,7 +4917,7 @@
       <c r="K89" s="112"/>
       <c r="L89" s="112"/>
     </row>
-    <row r="90" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="110">
         <v>81</v>
       </c>
@@ -4927,10 +4928,10 @@
         <v>49</v>
       </c>
       <c r="D90" s="49" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="F90" s="65" t="s">
         <v>22</v>
@@ -4944,7 +4945,7 @@
       <c r="K90" s="112"/>
       <c r="L90" s="112"/>
     </row>
-    <row r="91" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="110">
         <v>82</v>
       </c>
@@ -4958,7 +4959,7 @@
         <v>37</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>123</v>
+        <v>238</v>
       </c>
       <c r="F91" s="65" t="s">
         <v>22</v>
@@ -4972,7 +4973,7 @@
       <c r="K91" s="112"/>
       <c r="L91" s="112"/>
     </row>
-    <row r="92" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="110">
         <v>83</v>
       </c>
@@ -4983,10 +4984,10 @@
         <v>49</v>
       </c>
       <c r="D92" s="49" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="F92" s="65" t="s">
         <v>22</v>
@@ -5000,7 +5001,7 @@
       <c r="K92" s="112"/>
       <c r="L92" s="112"/>
     </row>
-    <row r="93" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="110">
         <v>85</v>
       </c>
@@ -5014,7 +5015,7 @@
         <v>39</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>124</v>
+        <v>240</v>
       </c>
       <c r="F93" s="65" t="s">
         <v>22</v>
@@ -5028,7 +5029,7 @@
       <c r="K93" s="112"/>
       <c r="L93" s="112"/>
     </row>
-    <row r="94" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="110">
         <v>86</v>
       </c>
@@ -5039,10 +5040,10 @@
         <v>49</v>
       </c>
       <c r="D94" s="49" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="F94" s="65" t="s">
         <v>22</v>
@@ -5056,7 +5057,7 @@
       <c r="K94" s="112"/>
       <c r="L94" s="112"/>
     </row>
-    <row r="95" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="110">
         <v>87</v>
       </c>
@@ -5070,7 +5071,7 @@
         <v>41</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>125</v>
+        <v>242</v>
       </c>
       <c r="F95" s="65" t="s">
         <v>22</v>
@@ -5084,7 +5085,7 @@
       <c r="K95" s="112"/>
       <c r="L95" s="112"/>
     </row>
-    <row r="96" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="110">
         <v>88</v>
       </c>
@@ -5095,10 +5096,10 @@
         <v>49</v>
       </c>
       <c r="D96" s="49" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F96" s="65" t="s">
         <v>22</v>
@@ -5112,7 +5113,7 @@
       <c r="K96" s="112"/>
       <c r="L96" s="112"/>
     </row>
-    <row r="97" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="110">
         <v>89</v>
       </c>
@@ -5126,7 +5127,7 @@
         <v>43</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>126</v>
+        <v>244</v>
       </c>
       <c r="F97" s="65" t="s">
         <v>22</v>
@@ -5140,7 +5141,7 @@
       <c r="K97" s="112"/>
       <c r="L97" s="112"/>
     </row>
-    <row r="98" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="110">
         <v>90</v>
       </c>
@@ -5151,10 +5152,10 @@
         <v>49</v>
       </c>
       <c r="D98" s="49" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="F98" s="65" t="s">
         <v>22</v>
@@ -5168,7 +5169,7 @@
       <c r="K98" s="112"/>
       <c r="L98" s="112"/>
     </row>
-    <row r="99" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="110">
         <v>91</v>
       </c>
@@ -5182,7 +5183,7 @@
         <v>45</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>127</v>
+        <v>246</v>
       </c>
       <c r="F99" s="65" t="s">
         <v>22</v>
@@ -5196,7 +5197,7 @@
       <c r="K99" s="112"/>
       <c r="L99" s="112"/>
     </row>
-    <row r="100" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:12" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A100" s="113">
         <v>92</v>
       </c>
@@ -5207,10 +5208,10 @@
         <v>49</v>
       </c>
       <c r="D100" s="52" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="E100" s="62" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="F100" s="103" t="s">
         <v>22</v>
@@ -5224,7 +5225,7 @@
       <c r="K100" s="114"/>
       <c r="L100" s="114"/>
     </row>
-    <row r="101" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="115">
         <v>93</v>
       </c>
@@ -5238,7 +5239,7 @@
         <v>53</v>
       </c>
       <c r="E101" s="60" t="s">
-        <v>115</v>
+        <v>249</v>
       </c>
       <c r="F101" s="92" t="s">
         <v>22</v>
@@ -5252,7 +5253,7 @@
       <c r="K101" s="116"/>
       <c r="L101" s="116"/>
     </row>
-    <row r="102" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="115">
         <v>94</v>
       </c>
@@ -5266,7 +5267,7 @@
         <v>35</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F102" s="65" t="s">
         <v>22</v>
@@ -5280,7 +5281,7 @@
       <c r="K102" s="117"/>
       <c r="L102" s="117"/>
     </row>
-    <row r="103" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="115">
         <v>95</v>
       </c>
@@ -5291,10 +5292,10 @@
         <v>51</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="F103" s="65" t="s">
         <v>22</v>
@@ -5308,7 +5309,7 @@
       <c r="K103" s="117"/>
       <c r="L103" s="117"/>
     </row>
-    <row r="104" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="115">
         <v>96</v>
       </c>
@@ -5319,10 +5320,10 @@
         <v>51</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="F104" s="65" t="s">
         <v>22</v>
@@ -5336,7 +5337,7 @@
       <c r="K104" s="117"/>
       <c r="L104" s="117"/>
     </row>
-    <row r="105" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="115">
         <v>97</v>
       </c>
@@ -5350,7 +5351,7 @@
         <v>37</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F105" s="65" t="s">
         <v>22</v>
@@ -5364,7 +5365,7 @@
       <c r="K105" s="117"/>
       <c r="L105" s="117"/>
     </row>
-    <row r="106" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="115">
         <v>98</v>
       </c>
@@ -5375,10 +5376,10 @@
         <v>51</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="F106" s="65" t="s">
         <v>22</v>
@@ -5392,7 +5393,7 @@
       <c r="K106" s="117"/>
       <c r="L106" s="117"/>
     </row>
-    <row r="107" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="115">
         <v>100</v>
       </c>
@@ -5406,7 +5407,7 @@
         <v>39</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>111</v>
+        <v>213</v>
       </c>
       <c r="F107" s="65" t="s">
         <v>22</v>
@@ -5420,7 +5421,7 @@
       <c r="K107" s="117"/>
       <c r="L107" s="117"/>
     </row>
-    <row r="108" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="115">
         <v>101</v>
       </c>
@@ -5431,10 +5432,10 @@
         <v>51</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="F108" s="65" t="s">
         <v>22</v>
@@ -5448,7 +5449,7 @@
       <c r="K108" s="117"/>
       <c r="L108" s="117"/>
     </row>
-    <row r="109" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="115">
         <v>102</v>
       </c>
@@ -5462,7 +5463,7 @@
         <v>41</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F109" s="65" t="s">
         <v>22</v>
@@ -5476,7 +5477,7 @@
       <c r="K109" s="117"/>
       <c r="L109" s="117"/>
     </row>
-    <row r="110" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="115">
         <v>103</v>
       </c>
@@ -5487,10 +5488,10 @@
         <v>51</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="F110" s="65" t="s">
         <v>22</v>
@@ -5504,7 +5505,7 @@
       <c r="K110" s="117"/>
       <c r="L110" s="117"/>
     </row>
-    <row r="111" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="115">
         <v>104</v>
       </c>
@@ -5518,7 +5519,7 @@
         <v>43</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F111" s="65" t="s">
         <v>22</v>
@@ -5532,7 +5533,7 @@
       <c r="K111" s="117"/>
       <c r="L111" s="117"/>
     </row>
-    <row r="112" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="115">
         <v>105</v>
       </c>
@@ -5543,10 +5544,10 @@
         <v>51</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="F112" s="65" t="s">
         <v>22</v>
@@ -5560,7 +5561,7 @@
       <c r="K112" s="117"/>
       <c r="L112" s="117"/>
     </row>
-    <row r="113" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="115">
         <v>106</v>
       </c>
@@ -5574,7 +5575,7 @@
         <v>45</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F113" s="65" t="s">
         <v>22</v>
@@ -5588,7 +5589,7 @@
       <c r="K113" s="117"/>
       <c r="L113" s="117"/>
     </row>
-    <row r="114" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:12" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A114" s="118">
         <v>107</v>
       </c>
@@ -5599,10 +5600,10 @@
         <v>51</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="E114" s="18" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="F114" s="98" t="s">
         <v>22</v>
@@ -5616,7 +5617,7 @@
       <c r="K114" s="119"/>
       <c r="L114" s="119"/>
     </row>
-    <row r="115" spans="1:12" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" ht="14.55" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A115" s="115">
         <v>108</v>
       </c>
@@ -5630,7 +5631,7 @@
         <v>35</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F115" s="92" t="s">
         <v>22</v>
@@ -5644,7 +5645,7 @@
       <c r="K115" s="116"/>
       <c r="L115" s="116"/>
     </row>
-    <row r="116" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="115">
         <v>109</v>
       </c>
@@ -5655,10 +5656,10 @@
         <v>52</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="F116" s="65" t="s">
         <v>22</v>
@@ -5672,7 +5673,7 @@
       <c r="K116" s="117"/>
       <c r="L116" s="117"/>
     </row>
-    <row r="117" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="115">
         <v>110</v>
       </c>
@@ -5683,10 +5684,10 @@
         <v>52</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="F117" s="65" t="s">
         <v>22</v>
@@ -5700,7 +5701,7 @@
       <c r="K117" s="117"/>
       <c r="L117" s="117"/>
     </row>
-    <row r="118" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="115">
         <v>111</v>
       </c>
@@ -5714,7 +5715,7 @@
         <v>37</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F118" s="65" t="s">
         <v>22</v>
@@ -5728,7 +5729,7 @@
       <c r="K118" s="117"/>
       <c r="L118" s="117"/>
     </row>
-    <row r="119" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="115">
         <v>112</v>
       </c>
@@ -5739,10 +5740,10 @@
         <v>52</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="F119" s="65" t="s">
         <v>22</v>
@@ -5756,7 +5757,7 @@
       <c r="K119" s="117"/>
       <c r="L119" s="117"/>
     </row>
-    <row r="120" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="115">
         <v>114</v>
       </c>
@@ -5770,7 +5771,7 @@
         <v>39</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>111</v>
+        <v>213</v>
       </c>
       <c r="F120" s="65" t="s">
         <v>22</v>
@@ -5784,7 +5785,7 @@
       <c r="K120" s="117"/>
       <c r="L120" s="117"/>
     </row>
-    <row r="121" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="115">
         <v>115</v>
       </c>
@@ -5795,10 +5796,10 @@
         <v>52</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="F121" s="65" t="s">
         <v>22</v>
@@ -5812,7 +5813,7 @@
       <c r="K121" s="117"/>
       <c r="L121" s="117"/>
     </row>
-    <row r="122" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="115">
         <v>116</v>
       </c>
@@ -5826,7 +5827,7 @@
         <v>41</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F122" s="65" t="s">
         <v>22</v>
@@ -5840,7 +5841,7 @@
       <c r="K122" s="117"/>
       <c r="L122" s="117"/>
     </row>
-    <row r="123" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="115">
         <v>117</v>
       </c>
@@ -5851,10 +5852,10 @@
         <v>52</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="F123" s="65" t="s">
         <v>22</v>
@@ -5868,7 +5869,7 @@
       <c r="K123" s="117"/>
       <c r="L123" s="117"/>
     </row>
-    <row r="124" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="115">
         <v>118</v>
       </c>
@@ -5882,7 +5883,7 @@
         <v>43</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F124" s="65" t="s">
         <v>22</v>
@@ -5896,7 +5897,7 @@
       <c r="K124" s="117"/>
       <c r="L124" s="117"/>
     </row>
-    <row r="125" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="115">
         <v>119</v>
       </c>
@@ -5907,10 +5908,10 @@
         <v>52</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="F125" s="65" t="s">
         <v>22</v>
@@ -5924,7 +5925,7 @@
       <c r="K125" s="117"/>
       <c r="L125" s="117"/>
     </row>
-    <row r="126" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="115">
         <v>120</v>
       </c>
@@ -5938,7 +5939,7 @@
         <v>45</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F126" s="65" t="s">
         <v>22</v>
@@ -5952,7 +5953,7 @@
       <c r="K126" s="117"/>
       <c r="L126" s="117"/>
     </row>
-    <row r="127" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:12" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A127" s="120">
         <v>121</v>
       </c>
@@ -5963,10 +5964,10 @@
         <v>52</v>
       </c>
       <c r="D127" s="22" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="E127" s="22" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="F127" s="103" t="s">
         <v>22</v>
@@ -5980,7 +5981,7 @@
       <c r="K127" s="121"/>
       <c r="L127" s="121"/>
     </row>
-    <row r="128" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="122">
         <v>122</v>
       </c>
@@ -5994,13 +5995,13 @@
         <v>55</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="F128" s="133" t="s">
         <v>26</v>
       </c>
       <c r="G128" s="72" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="H128" s="123"/>
       <c r="I128" s="67" t="s">
@@ -6010,7 +6011,7 @@
       <c r="K128" s="123"/>
       <c r="L128" s="123"/>
     </row>
-    <row r="129" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="122">
         <v>123</v>
       </c>
@@ -6024,7 +6025,7 @@
         <v>46</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="F129" s="133" t="s">
         <v>22</v>
@@ -6038,7 +6039,7 @@
       <c r="K129" s="123"/>
       <c r="L129" s="123"/>
     </row>
-    <row r="130" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="122">
         <v>124</v>
       </c>
@@ -6052,7 +6053,7 @@
         <v>35</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="F130" s="133" t="s">
         <v>22</v>
@@ -6066,7 +6067,7 @@
       <c r="K130" s="123"/>
       <c r="L130" s="123"/>
     </row>
-    <row r="131" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="122">
         <v>125</v>
       </c>
@@ -6077,10 +6078,10 @@
         <v>48</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="F131" s="133" t="s">
         <v>22</v>
@@ -6094,7 +6095,7 @@
       <c r="K131" s="123"/>
       <c r="L131" s="123"/>
     </row>
-    <row r="132" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="122">
         <v>126</v>
       </c>
@@ -6105,10 +6106,10 @@
         <v>48</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="F132" s="133" t="s">
         <v>22</v>
@@ -6122,7 +6123,7 @@
       <c r="K132" s="123"/>
       <c r="L132" s="123"/>
     </row>
-    <row r="133" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="122">
         <v>127</v>
       </c>
@@ -6136,7 +6137,7 @@
         <v>36</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="F133" s="133" t="s">
         <v>22</v>
@@ -6150,7 +6151,7 @@
       <c r="K133" s="123"/>
       <c r="L133" s="123"/>
     </row>
-    <row r="134" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="122">
         <v>128</v>
       </c>
@@ -6164,7 +6165,7 @@
         <v>37</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="F134" s="133" t="s">
         <v>22</v>
@@ -6178,7 +6179,7 @@
       <c r="K134" s="123"/>
       <c r="L134" s="123"/>
     </row>
-    <row r="135" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="122">
         <v>129</v>
       </c>
@@ -6189,10 +6190,10 @@
         <v>48</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="F135" s="133" t="s">
         <v>22</v>
@@ -6206,7 +6207,7 @@
       <c r="K135" s="123"/>
       <c r="L135" s="123"/>
     </row>
-    <row r="136" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="122">
         <v>131</v>
       </c>
@@ -6220,7 +6221,7 @@
         <v>38</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="F136" s="133" t="s">
         <v>22</v>
@@ -6234,7 +6235,7 @@
       <c r="K136" s="123"/>
       <c r="L136" s="123"/>
     </row>
-    <row r="137" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="122">
         <v>132</v>
       </c>
@@ -6248,7 +6249,7 @@
         <v>39</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="F137" s="133" t="s">
         <v>22</v>
@@ -6262,7 +6263,7 @@
       <c r="K137" s="123"/>
       <c r="L137" s="123"/>
     </row>
-    <row r="138" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="122">
         <v>133</v>
       </c>
@@ -6273,10 +6274,10 @@
         <v>48</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="F138" s="133" t="s">
         <v>22</v>
@@ -6290,7 +6291,7 @@
       <c r="K138" s="123"/>
       <c r="L138" s="123"/>
     </row>
-    <row r="139" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="122">
         <v>134</v>
       </c>
@@ -6304,7 +6305,7 @@
         <v>40</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="F139" s="133" t="s">
         <v>22</v>
@@ -6318,7 +6319,7 @@
       <c r="K139" s="123"/>
       <c r="L139" s="123"/>
     </row>
-    <row r="140" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="122">
         <v>135</v>
       </c>
@@ -6332,7 +6333,7 @@
         <v>41</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="F140" s="133" t="s">
         <v>22</v>
@@ -6346,7 +6347,7 @@
       <c r="K140" s="123"/>
       <c r="L140" s="123"/>
     </row>
-    <row r="141" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="122">
         <v>136</v>
       </c>
@@ -6357,10 +6358,10 @@
         <v>48</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F141" s="133" t="s">
         <v>22</v>
@@ -6374,7 +6375,7 @@
       <c r="K141" s="123"/>
       <c r="L141" s="123"/>
     </row>
-    <row r="142" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="122">
         <v>137</v>
       </c>
@@ -6388,7 +6389,7 @@
         <v>42</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="F142" s="133" t="s">
         <v>22</v>
@@ -6402,7 +6403,7 @@
       <c r="K142" s="123"/>
       <c r="L142" s="123"/>
     </row>
-    <row r="143" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="122">
         <v>138</v>
       </c>
@@ -6416,7 +6417,7 @@
         <v>43</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F143" s="133" t="s">
         <v>22</v>
@@ -6430,7 +6431,7 @@
       <c r="K143" s="123"/>
       <c r="L143" s="123"/>
     </row>
-    <row r="144" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="122">
         <v>139</v>
       </c>
@@ -6441,10 +6442,10 @@
         <v>48</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="F144" s="133" t="s">
         <v>22</v>
@@ -6458,7 +6459,7 @@
       <c r="K144" s="123"/>
       <c r="L144" s="123"/>
     </row>
-    <row r="145" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="122">
         <v>140</v>
       </c>
@@ -6472,7 +6473,7 @@
         <v>44</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F145" s="133" t="s">
         <v>22</v>
@@ -6486,7 +6487,7 @@
       <c r="K145" s="123"/>
       <c r="L145" s="123"/>
     </row>
-    <row r="146" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="122">
         <v>141</v>
       </c>
@@ -6500,7 +6501,7 @@
         <v>45</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="F146" s="133" t="s">
         <v>22</v>
@@ -6514,7 +6515,7 @@
       <c r="K146" s="123"/>
       <c r="L146" s="123"/>
     </row>
-    <row r="147" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="122">
         <v>142</v>
       </c>
@@ -6525,10 +6526,10 @@
         <v>48</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F147" s="133" t="s">
         <v>22</v>
@@ -6542,7 +6543,7 @@
       <c r="K147" s="123"/>
       <c r="L147" s="123"/>
     </row>
-    <row r="148" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="122">
         <v>143</v>
       </c>
@@ -6556,7 +6557,7 @@
         <v>56</v>
       </c>
       <c r="E148" s="14" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="F148" s="134" t="s">
         <v>22</v>
@@ -6570,7 +6571,7 @@
       <c r="K148" s="123"/>
       <c r="L148" s="123"/>
     </row>
-    <row r="149" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149" s="122">
         <v>144</v>
       </c>
@@ -6584,7 +6585,7 @@
         <v>57</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="F149" s="131" t="s">
         <v>22</v>
@@ -6598,7 +6599,7 @@
       <c r="K149" s="123"/>
       <c r="L149" s="123"/>
     </row>
-    <row r="150" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="122">
         <v>145</v>
       </c>
@@ -6609,10 +6610,10 @@
         <v>48</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F150" s="131" t="s">
         <v>22</v>
@@ -6626,7 +6627,7 @@
       <c r="K150" s="123"/>
       <c r="L150" s="123"/>
     </row>
-    <row r="151" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:12" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A151" s="125">
         <v>146</v>
       </c>
@@ -6637,10 +6638,10 @@
         <v>48</v>
       </c>
       <c r="D151" s="18" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="E151" s="19" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="F151" s="135" t="s">
         <v>22</v>
@@ -6654,7 +6655,7 @@
       <c r="K151" s="126"/>
       <c r="L151" s="126"/>
     </row>
-    <row r="152" spans="1:12" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" ht="14.55" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A152" s="122">
         <v>147</v>
       </c>
@@ -6668,13 +6669,13 @@
         <v>55</v>
       </c>
       <c r="E152" s="17" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="F152" s="130" t="s">
         <v>26</v>
       </c>
       <c r="G152" s="72" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="H152" s="116"/>
       <c r="I152" s="111" t="s">
@@ -6684,7 +6685,7 @@
       <c r="K152" s="123"/>
       <c r="L152" s="123"/>
     </row>
-    <row r="153" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="122">
         <v>148</v>
       </c>
@@ -6698,7 +6699,7 @@
         <v>46</v>
       </c>
       <c r="E153" s="15" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="F153" s="131" t="s">
         <v>22</v>
@@ -6712,7 +6713,7 @@
       <c r="K153" s="123"/>
       <c r="L153" s="123"/>
     </row>
-    <row r="154" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="122">
         <v>149</v>
       </c>
@@ -6726,7 +6727,7 @@
         <v>35</v>
       </c>
       <c r="E154" s="15" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="F154" s="131" t="s">
         <v>22</v>
@@ -6740,7 +6741,7 @@
       <c r="K154" s="123"/>
       <c r="L154" s="123"/>
     </row>
-    <row r="155" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="122">
         <v>150</v>
       </c>
@@ -6751,10 +6752,10 @@
         <v>49</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E155" s="15" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="F155" s="131" t="s">
         <v>22</v>
@@ -6768,7 +6769,7 @@
       <c r="K155" s="123"/>
       <c r="L155" s="123"/>
     </row>
-    <row r="156" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156" s="122">
         <v>151</v>
       </c>
@@ -6779,10 +6780,10 @@
         <v>49</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="E156" s="15" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="F156" s="131" t="s">
         <v>22</v>
@@ -6796,7 +6797,7 @@
       <c r="K156" s="123"/>
       <c r="L156" s="123"/>
     </row>
-    <row r="157" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="122">
         <v>152</v>
       </c>
@@ -6810,7 +6811,7 @@
         <v>36</v>
       </c>
       <c r="E157" s="15" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="F157" s="131" t="s">
         <v>22</v>
@@ -6824,7 +6825,7 @@
       <c r="K157" s="123"/>
       <c r="L157" s="123"/>
     </row>
-    <row r="158" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158" s="122">
         <v>153</v>
       </c>
@@ -6838,7 +6839,7 @@
         <v>37</v>
       </c>
       <c r="E158" s="15" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="F158" s="131" t="s">
         <v>22</v>
@@ -6852,7 +6853,7 @@
       <c r="K158" s="123"/>
       <c r="L158" s="123"/>
     </row>
-    <row r="159" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159" s="122">
         <v>154</v>
       </c>
@@ -6863,10 +6864,10 @@
         <v>49</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="E159" s="15" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="F159" s="131" t="s">
         <v>22</v>
@@ -6880,7 +6881,7 @@
       <c r="K159" s="123"/>
       <c r="L159" s="123"/>
     </row>
-    <row r="160" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160" s="122">
         <v>156</v>
       </c>
@@ -6894,7 +6895,7 @@
         <v>38</v>
       </c>
       <c r="E160" s="15" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="F160" s="131" t="s">
         <v>22</v>
@@ -6908,7 +6909,7 @@
       <c r="K160" s="123"/>
       <c r="L160" s="123"/>
     </row>
-    <row r="161" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161" s="122">
         <v>157</v>
       </c>
@@ -6922,7 +6923,7 @@
         <v>39</v>
       </c>
       <c r="E161" s="15" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="F161" s="131" t="s">
         <v>22</v>
@@ -6936,7 +6937,7 @@
       <c r="K161" s="123"/>
       <c r="L161" s="123"/>
     </row>
-    <row r="162" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A162" s="122">
         <v>158</v>
       </c>
@@ -6947,10 +6948,10 @@
         <v>49</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E162" s="15" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="F162" s="131" t="s">
         <v>22</v>
@@ -6964,7 +6965,7 @@
       <c r="K162" s="123"/>
       <c r="L162" s="123"/>
     </row>
-    <row r="163" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163" s="122">
         <v>159</v>
       </c>
@@ -6978,7 +6979,7 @@
         <v>40</v>
       </c>
       <c r="E163" s="15" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="F163" s="131" t="s">
         <v>22</v>
@@ -6992,7 +6993,7 @@
       <c r="K163" s="123"/>
       <c r="L163" s="123"/>
     </row>
-    <row r="164" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164" s="122">
         <v>160</v>
       </c>
@@ -7006,7 +7007,7 @@
         <v>41</v>
       </c>
       <c r="E164" s="15" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="F164" s="131" t="s">
         <v>22</v>
@@ -7020,7 +7021,7 @@
       <c r="K164" s="123"/>
       <c r="L164" s="123"/>
     </row>
-    <row r="165" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165" s="122">
         <v>161</v>
       </c>
@@ -7031,10 +7032,10 @@
         <v>49</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="E165" s="15" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F165" s="131" t="s">
         <v>22</v>
@@ -7048,7 +7049,7 @@
       <c r="K165" s="123"/>
       <c r="L165" s="123"/>
     </row>
-    <row r="166" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166" s="122">
         <v>162</v>
       </c>
@@ -7062,7 +7063,7 @@
         <v>42</v>
       </c>
       <c r="E166" s="15" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="F166" s="131" t="s">
         <v>22</v>
@@ -7076,7 +7077,7 @@
       <c r="K166" s="123"/>
       <c r="L166" s="123"/>
     </row>
-    <row r="167" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A167" s="122">
         <v>163</v>
       </c>
@@ -7090,7 +7091,7 @@
         <v>43</v>
       </c>
       <c r="E167" s="15" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F167" s="131" t="s">
         <v>22</v>
@@ -7104,7 +7105,7 @@
       <c r="K167" s="123"/>
       <c r="L167" s="123"/>
     </row>
-    <row r="168" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168" s="122">
         <v>164</v>
       </c>
@@ -7115,10 +7116,10 @@
         <v>49</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="E168" s="15" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="F168" s="131" t="s">
         <v>22</v>
@@ -7132,7 +7133,7 @@
       <c r="K168" s="123"/>
       <c r="L168" s="123"/>
     </row>
-    <row r="169" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169" s="122">
         <v>165</v>
       </c>
@@ -7146,7 +7147,7 @@
         <v>44</v>
       </c>
       <c r="E169" s="15" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F169" s="131" t="s">
         <v>22</v>
@@ -7160,7 +7161,7 @@
       <c r="K169" s="123"/>
       <c r="L169" s="123"/>
     </row>
-    <row r="170" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A170" s="122">
         <v>166</v>
       </c>
@@ -7174,7 +7175,7 @@
         <v>45</v>
       </c>
       <c r="E170" s="15" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="F170" s="131" t="s">
         <v>22</v>
@@ -7188,7 +7189,7 @@
       <c r="K170" s="123"/>
       <c r="L170" s="123"/>
     </row>
-    <row r="171" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171" s="122">
         <v>167</v>
       </c>
@@ -7199,10 +7200,10 @@
         <v>49</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="E171" s="15" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F171" s="131" t="s">
         <v>22</v>
@@ -7216,7 +7217,7 @@
       <c r="K171" s="123"/>
       <c r="L171" s="123"/>
     </row>
-    <row r="172" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A172" s="122">
         <v>168</v>
       </c>
@@ -7230,7 +7231,7 @@
         <v>56</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="F172" s="131" t="s">
         <v>22</v>
@@ -7244,7 +7245,7 @@
       <c r="K172" s="123"/>
       <c r="L172" s="123"/>
     </row>
-    <row r="173" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A173" s="122">
         <v>169</v>
       </c>
@@ -7258,7 +7259,7 @@
         <v>57</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="F173" s="131" t="s">
         <v>22</v>
@@ -7272,7 +7273,7 @@
       <c r="K173" s="123"/>
       <c r="L173" s="123"/>
     </row>
-    <row r="174" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A174" s="122">
         <v>170</v>
       </c>
@@ -7283,10 +7284,10 @@
         <v>49</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F174" s="131" t="s">
         <v>22</v>
@@ -7300,7 +7301,7 @@
       <c r="K174" s="123"/>
       <c r="L174" s="123"/>
     </row>
-    <row r="175" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:12" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A175" s="128">
         <v>171</v>
       </c>
@@ -7311,10 +7312,10 @@
         <v>49</v>
       </c>
       <c r="D175" s="22" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="E175" s="23" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="F175" s="132" t="s">
         <v>22</v>

--- a/dataland-framework-toolbox/inputs/eu-taxonomy-financials/eu-taxonomy-financials.xlsx
+++ b/dataland-framework-toolbox/inputs/eu-taxonomy-financials/eu-taxonomy-financials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d93447\Documents\Dataland\dataland-framework-toolbox\inputs\eu-taxonomy-financials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92432\Documents\Projekte\02-Dataland\Dataland\dataland-framework-toolbox\inputs\eu-taxonomy-financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6D9003-B851-48D3-88F3-6293D7DE0E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9F47B7-C46E-41F8-8535-39B16DAE9732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1118" yWindow="817" windowWidth="26242" windowHeight="13598" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
@@ -725,9 +725,6 @@
     <t>Is NFRD mandatory?</t>
   </si>
   <si>
-    <t>Level of Assurance</t>
-  </si>
-  <si>
     <t>Total overall covered assets which are included in the numerator. Do not include assets which not covered for GAR calculation.</t>
   </si>
   <si>
@@ -873,6 +870,9 @@
   <si>
     <t>The Percentage of Taxonomy-eligible Non-Life Insurance Economic Activities.
 Insurance and reinsurance undertakings other than life insurance undertakings shall calculate the KPI related to underwriting activities and present the ‘gross premiums written’ non-life insurance revenue or, as applicable, reinsurance revenue corresponding to Taxonomy-aligned insurance or reinsurance activities</t>
+  </si>
+  <si>
+    <t>Assurance</t>
   </si>
 </sst>
 </file>
@@ -2380,22 +2380,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.55" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.46484375" customWidth="1"/>
-    <col min="3" max="3" width="41.46484375" customWidth="1"/>
-    <col min="4" max="4" width="95.19921875" customWidth="1"/>
-    <col min="5" max="5" width="78.73046875" customWidth="1"/>
-    <col min="6" max="6" width="40.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="14.265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="41.453125" customWidth="1"/>
+    <col min="4" max="4" width="95.1796875" customWidth="1"/>
+    <col min="5" max="5" width="78.7265625" customWidth="1"/>
+    <col min="6" max="6" width="40.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="64">
         <v>1</v>
       </c>
@@ -2463,7 +2463,7 @@
       <c r="K2" s="67"/>
       <c r="L2" s="67"/>
     </row>
-    <row r="3" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="64">
         <v>2</v>
       </c>
@@ -2493,7 +2493,7 @@
       <c r="K3" s="66"/>
       <c r="L3" s="67"/>
     </row>
-    <row r="4" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="64">
         <v>3</v>
       </c>
@@ -2521,7 +2521,7 @@
       <c r="K4" s="67"/>
       <c r="L4" s="67"/>
     </row>
-    <row r="5" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="64">
         <v>4</v>
       </c>
@@ -2551,7 +2551,7 @@
       <c r="K5" s="67"/>
       <c r="L5" s="67"/>
     </row>
-    <row r="6" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="64">
         <v>5</v>
       </c>
@@ -2581,7 +2581,7 @@
       <c r="K6" s="67"/>
       <c r="L6" s="67"/>
     </row>
-    <row r="7" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="64">
         <v>6</v>
       </c>
@@ -2609,7 +2609,7 @@
       <c r="K7" s="67"/>
       <c r="L7" s="67"/>
     </row>
-    <row r="8" spans="1:12" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="69">
         <v>7</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>59</v>
@@ -2637,7 +2637,7 @@
       <c r="K8" s="70"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="29">
         <v>8</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>205</v>
       </c>
       <c r="E9" s="71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F9" s="32" t="s">
         <v>132</v>
@@ -2667,7 +2667,7 @@
       <c r="K9" s="67"/>
       <c r="L9" s="73"/>
     </row>
-    <row r="10" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="29">
         <v>9</v>
       </c>
@@ -2697,7 +2697,7 @@
       <c r="K10" s="67"/>
       <c r="L10" s="67"/>
     </row>
-    <row r="11" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29">
         <v>9.1</v>
       </c>
@@ -2727,7 +2727,7 @@
       <c r="K11" s="67"/>
       <c r="L11" s="67"/>
     </row>
-    <row r="12" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="75" t="s">
         <v>137</v>
       </c>
@@ -2757,7 +2757,7 @@
       <c r="K12" s="67"/>
       <c r="L12" s="73"/>
     </row>
-    <row r="13" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="75" t="s">
         <v>140</v>
       </c>
@@ -2787,7 +2787,7 @@
       <c r="K13" s="67"/>
       <c r="L13" s="67"/>
     </row>
-    <row r="14" spans="1:12" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="76" t="s">
         <v>143</v>
       </c>
@@ -2817,7 +2817,7 @@
       <c r="K14" s="70"/>
       <c r="L14" s="70"/>
     </row>
-    <row r="15" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="75">
         <v>10</v>
       </c>
@@ -2845,7 +2845,7 @@
       <c r="K15" s="67"/>
       <c r="L15" s="67"/>
     </row>
-    <row r="16" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="75">
         <v>10.1</v>
       </c>
@@ -2873,7 +2873,7 @@
       <c r="K16" s="67"/>
       <c r="L16" s="67"/>
     </row>
-    <row r="17" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="75" t="s">
         <v>146</v>
       </c>
@@ -2901,7 +2901,7 @@
       <c r="K17" s="67"/>
       <c r="L17" s="67"/>
     </row>
-    <row r="18" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="75" t="s">
         <v>147</v>
       </c>
@@ -2929,7 +2929,7 @@
       <c r="K18" s="67"/>
       <c r="L18" s="67"/>
     </row>
-    <row r="19" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="75" t="s">
         <v>149</v>
       </c>
@@ -2957,7 +2957,7 @@
       <c r="K19" s="67"/>
       <c r="L19" s="67"/>
     </row>
-    <row r="20" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="75">
         <v>11</v>
       </c>
@@ -2985,7 +2985,7 @@
       <c r="K20" s="67"/>
       <c r="L20" s="67"/>
     </row>
-    <row r="21" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="75">
         <v>11.1</v>
       </c>
@@ -3013,7 +3013,7 @@
       <c r="K21" s="67"/>
       <c r="L21" s="67"/>
     </row>
-    <row r="22" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="75" t="s">
         <v>151</v>
       </c>
@@ -3041,7 +3041,7 @@
       <c r="K22" s="67"/>
       <c r="L22" s="67"/>
     </row>
-    <row r="23" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="75" t="s">
         <v>152</v>
       </c>
@@ -3069,7 +3069,7 @@
       <c r="K23" s="67"/>
       <c r="L23" s="67"/>
     </row>
-    <row r="24" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="75">
         <v>12</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>38</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F24" s="65" t="s">
         <v>22</v>
@@ -3097,7 +3097,7 @@
       <c r="K24" s="67"/>
       <c r="L24" s="67"/>
     </row>
-    <row r="25" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="75">
         <v>12.1</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>39</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F25" s="65" t="s">
         <v>22</v>
@@ -3125,7 +3125,7 @@
       <c r="K25" s="67"/>
       <c r="L25" s="67"/>
     </row>
-    <row r="26" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="75" t="s">
         <v>154</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>76</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F26" s="65" t="s">
         <v>22</v>
@@ -3153,7 +3153,7 @@
       <c r="K26" s="67"/>
       <c r="L26" s="67"/>
     </row>
-    <row r="27" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="75" t="s">
         <v>155</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>156</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F27" s="65" t="s">
         <v>22</v>
@@ -3181,7 +3181,7 @@
       <c r="K27" s="67"/>
       <c r="L27" s="67"/>
     </row>
-    <row r="28" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="75">
         <v>13</v>
       </c>
@@ -3209,7 +3209,7 @@
       <c r="K28" s="67"/>
       <c r="L28" s="67"/>
     </row>
-    <row r="29" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="75">
         <v>13.1</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="K29" s="67"/>
       <c r="L29" s="67"/>
     </row>
-    <row r="30" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="75" t="s">
         <v>157</v>
       </c>
@@ -3265,7 +3265,7 @@
       <c r="K30" s="67"/>
       <c r="L30" s="67"/>
     </row>
-    <row r="31" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="75" t="s">
         <v>158</v>
       </c>
@@ -3293,7 +3293,7 @@
       <c r="K31" s="67"/>
       <c r="L31" s="67"/>
     </row>
-    <row r="32" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="75">
         <v>14</v>
       </c>
@@ -3321,7 +3321,7 @@
       <c r="K32" s="67"/>
       <c r="L32" s="67"/>
     </row>
-    <row r="33" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="75">
         <v>14.1</v>
       </c>
@@ -3349,7 +3349,7 @@
       <c r="K33" s="67"/>
       <c r="L33" s="67"/>
     </row>
-    <row r="34" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="75" t="s">
         <v>160</v>
       </c>
@@ -3377,7 +3377,7 @@
       <c r="K34" s="67"/>
       <c r="L34" s="67"/>
     </row>
-    <row r="35" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="75" t="s">
         <v>161</v>
       </c>
@@ -3405,7 +3405,7 @@
       <c r="K35" s="67"/>
       <c r="L35" s="67"/>
     </row>
-    <row r="36" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="75">
         <v>15</v>
       </c>
@@ -3433,7 +3433,7 @@
       <c r="K36" s="67"/>
       <c r="L36" s="67"/>
     </row>
-    <row r="37" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="75">
         <v>15.1</v>
       </c>
@@ -3461,7 +3461,7 @@
       <c r="K37" s="67"/>
       <c r="L37" s="67"/>
     </row>
-    <row r="38" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="82" t="s">
         <v>163</v>
       </c>
@@ -3489,7 +3489,7 @@
       <c r="K38" s="86"/>
       <c r="L38" s="86"/>
     </row>
-    <row r="39" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="75" t="s">
         <v>164</v>
       </c>
@@ -3517,7 +3517,7 @@
       <c r="K39" s="90"/>
       <c r="L39" s="90"/>
     </row>
-    <row r="40" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="75">
         <v>16</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>166</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F40" s="92" t="s">
         <v>22</v>
@@ -3545,7 +3545,7 @@
       <c r="K40" s="67"/>
       <c r="L40" s="67"/>
     </row>
-    <row r="41" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="75">
         <v>16.100000000000001</v>
       </c>
@@ -3573,7 +3573,7 @@
       <c r="K41" s="67"/>
       <c r="L41" s="67"/>
     </row>
-    <row r="42" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="82" t="s">
         <v>169</v>
       </c>
@@ -3601,7 +3601,7 @@
       <c r="K42" s="86"/>
       <c r="L42" s="86"/>
     </row>
-    <row r="43" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="82" t="s">
         <v>174</v>
       </c>
@@ -3629,7 +3629,7 @@
       <c r="K43" s="90"/>
       <c r="L43" s="90"/>
     </row>
-    <row r="44" spans="1:12" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="95" t="s">
         <v>204</v>
       </c>
@@ -3657,7 +3657,7 @@
       <c r="K44" s="100"/>
       <c r="L44" s="100"/>
     </row>
-    <row r="45" spans="1:12" ht="14.55" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A45" s="75">
         <v>20</v>
       </c>
@@ -3685,7 +3685,7 @@
       <c r="K45" s="67"/>
       <c r="L45" s="67"/>
     </row>
-    <row r="46" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="75">
         <v>20.100000000000001</v>
       </c>
@@ -3713,7 +3713,7 @@
       <c r="K46" s="67"/>
       <c r="L46" s="67"/>
     </row>
-    <row r="47" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="75" t="s">
         <v>177</v>
       </c>
@@ -3741,7 +3741,7 @@
       <c r="K47" s="67"/>
       <c r="L47" s="67"/>
     </row>
-    <row r="48" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="75" t="s">
         <v>178</v>
       </c>
@@ -3769,7 +3769,7 @@
       <c r="K48" s="67"/>
       <c r="L48" s="67"/>
     </row>
-    <row r="49" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="75" t="s">
         <v>179</v>
       </c>
@@ -3797,7 +3797,7 @@
       <c r="K49" s="67"/>
       <c r="L49" s="67"/>
     </row>
-    <row r="50" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="75">
         <v>21</v>
       </c>
@@ -3825,7 +3825,7 @@
       <c r="K50" s="67"/>
       <c r="L50" s="67"/>
     </row>
-    <row r="51" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="75">
         <v>21.1</v>
       </c>
@@ -3853,7 +3853,7 @@
       <c r="K51" s="67"/>
       <c r="L51" s="67"/>
     </row>
-    <row r="52" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="75" t="s">
         <v>180</v>
       </c>
@@ -3881,7 +3881,7 @@
       <c r="K52" s="67"/>
       <c r="L52" s="67"/>
     </row>
-    <row r="53" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="75" t="s">
         <v>181</v>
       </c>
@@ -3909,7 +3909,7 @@
       <c r="K53" s="67"/>
       <c r="L53" s="67"/>
     </row>
-    <row r="54" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="75">
         <v>22</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>38</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F54" s="65" t="s">
         <v>22</v>
@@ -3937,7 +3937,7 @@
       <c r="K54" s="67"/>
       <c r="L54" s="67"/>
     </row>
-    <row r="55" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="75">
         <v>22.1</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>39</v>
       </c>
       <c r="E55" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F55" s="65" t="s">
         <v>22</v>
@@ -3965,7 +3965,7 @@
       <c r="K55" s="67"/>
       <c r="L55" s="67"/>
     </row>
-    <row r="56" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="75" t="s">
         <v>182</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>76</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F56" s="65" t="s">
         <v>22</v>
@@ -3993,7 +3993,7 @@
       <c r="K56" s="67"/>
       <c r="L56" s="67"/>
     </row>
-    <row r="57" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="75" t="s">
         <v>183</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>156</v>
       </c>
       <c r="E57" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F57" s="65" t="s">
         <v>22</v>
@@ -4021,7 +4021,7 @@
       <c r="K57" s="67"/>
       <c r="L57" s="67"/>
     </row>
-    <row r="58" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="75">
         <v>23</v>
       </c>
@@ -4049,7 +4049,7 @@
       <c r="K58" s="67"/>
       <c r="L58" s="67"/>
     </row>
-    <row r="59" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="75">
         <v>23.1</v>
       </c>
@@ -4077,7 +4077,7 @@
       <c r="K59" s="67"/>
       <c r="L59" s="67"/>
     </row>
-    <row r="60" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="75" t="s">
         <v>184</v>
       </c>
@@ -4105,7 +4105,7 @@
       <c r="K60" s="67"/>
       <c r="L60" s="67"/>
     </row>
-    <row r="61" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="75" t="s">
         <v>185</v>
       </c>
@@ -4133,7 +4133,7 @@
       <c r="K61" s="67"/>
       <c r="L61" s="67"/>
     </row>
-    <row r="62" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="75">
         <v>24</v>
       </c>
@@ -4161,7 +4161,7 @@
       <c r="K62" s="67"/>
       <c r="L62" s="67"/>
     </row>
-    <row r="63" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="75">
         <v>24.1</v>
       </c>
@@ -4189,7 +4189,7 @@
       <c r="K63" s="67"/>
       <c r="L63" s="67"/>
     </row>
-    <row r="64" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="75" t="s">
         <v>186</v>
       </c>
@@ -4217,7 +4217,7 @@
       <c r="K64" s="67"/>
       <c r="L64" s="67"/>
     </row>
-    <row r="65" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="75" t="s">
         <v>187</v>
       </c>
@@ -4245,7 +4245,7 @@
       <c r="K65" s="67"/>
       <c r="L65" s="67"/>
     </row>
-    <row r="66" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="75">
         <v>25</v>
       </c>
@@ -4273,7 +4273,7 @@
       <c r="K66" s="67"/>
       <c r="L66" s="67"/>
     </row>
-    <row r="67" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="75">
         <v>25.1</v>
       </c>
@@ -4301,7 +4301,7 @@
       <c r="K67" s="67"/>
       <c r="L67" s="67"/>
     </row>
-    <row r="68" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="82" t="s">
         <v>188</v>
       </c>
@@ -4329,7 +4329,7 @@
       <c r="K68" s="67"/>
       <c r="L68" s="67"/>
     </row>
-    <row r="69" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="75" t="s">
         <v>189</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>165</v>
       </c>
       <c r="E69" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F69" s="65" t="s">
         <v>22</v>
@@ -4357,7 +4357,7 @@
       <c r="K69" s="67"/>
       <c r="L69" s="67"/>
     </row>
-    <row r="70" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="75">
         <v>26</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>166</v>
       </c>
       <c r="E70" s="38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F70" s="65" t="s">
         <v>22</v>
@@ -4385,7 +4385,7 @@
       <c r="K70" s="67"/>
       <c r="L70" s="67"/>
     </row>
-    <row r="71" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="75">
         <v>26.1</v>
       </c>
@@ -4413,7 +4413,7 @@
       <c r="K71" s="67"/>
       <c r="L71" s="67"/>
     </row>
-    <row r="72" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="82" t="s">
         <v>191</v>
       </c>
@@ -4441,7 +4441,7 @@
       <c r="K72" s="67"/>
       <c r="L72" s="67"/>
     </row>
-    <row r="73" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="75" t="s">
         <v>192</v>
       </c>
@@ -4469,7 +4469,7 @@
       <c r="K73" s="67"/>
       <c r="L73" s="67"/>
     </row>
-    <row r="74" spans="1:12" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="76" t="s">
         <v>194</v>
       </c>
@@ -4497,7 +4497,7 @@
       <c r="K74" s="70"/>
       <c r="L74" s="70"/>
     </row>
-    <row r="75" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="104">
         <v>65</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>35</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F75" s="92" t="s">
         <v>22</v>
@@ -4525,7 +4525,7 @@
       <c r="K75" s="67"/>
       <c r="L75" s="67"/>
     </row>
-    <row r="76" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="104">
         <v>66</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>148</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F76" s="65" t="s">
         <v>22</v>
@@ -4553,7 +4553,7 @@
       <c r="K76" s="67"/>
       <c r="L76" s="67"/>
     </row>
-    <row r="77" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="104">
         <v>67</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>150</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F77" s="65" t="s">
         <v>22</v>
@@ -4581,7 +4581,7 @@
       <c r="K77" s="67"/>
       <c r="L77" s="67"/>
     </row>
-    <row r="78" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="104">
         <v>68</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>37</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F78" s="65" t="s">
         <v>22</v>
@@ -4609,7 +4609,7 @@
       <c r="K78" s="67"/>
       <c r="L78" s="67"/>
     </row>
-    <row r="79" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="104">
         <v>69</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>153</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F79" s="65" t="s">
         <v>22</v>
@@ -4637,7 +4637,7 @@
       <c r="K79" s="67"/>
       <c r="L79" s="67"/>
     </row>
-    <row r="80" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="104">
         <v>71</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>39</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F80" s="65" t="s">
         <v>22</v>
@@ -4665,7 +4665,7 @@
       <c r="K80" s="67"/>
       <c r="L80" s="67"/>
     </row>
-    <row r="81" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="104">
         <v>72</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>156</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F81" s="65" t="s">
         <v>22</v>
@@ -4693,7 +4693,7 @@
       <c r="K81" s="67"/>
       <c r="L81" s="67"/>
     </row>
-    <row r="82" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="104">
         <v>73</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>41</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F82" s="65" t="s">
         <v>22</v>
@@ -4721,7 +4721,7 @@
       <c r="K82" s="67"/>
       <c r="L82" s="67"/>
     </row>
-    <row r="83" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="104">
         <v>74</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>159</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F83" s="65" t="s">
         <v>22</v>
@@ -4749,7 +4749,7 @@
       <c r="K83" s="67"/>
       <c r="L83" s="67"/>
     </row>
-    <row r="84" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="104">
         <v>75</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>43</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F84" s="65" t="s">
         <v>22</v>
@@ -4777,7 +4777,7 @@
       <c r="K84" s="67"/>
       <c r="L84" s="67"/>
     </row>
-    <row r="85" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="104">
         <v>76</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>162</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F85" s="65" t="s">
         <v>22</v>
@@ -4805,7 +4805,7 @@
       <c r="K85" s="67"/>
       <c r="L85" s="67"/>
     </row>
-    <row r="86" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="104">
         <v>77</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>45</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F86" s="84" t="s">
         <v>22</v>
@@ -4833,7 +4833,7 @@
       <c r="K86" s="86"/>
       <c r="L86" s="86"/>
     </row>
-    <row r="87" spans="1:12" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="105">
         <v>78</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>165</v>
       </c>
       <c r="E87" s="61" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F87" s="106" t="s">
         <v>22</v>
@@ -4861,7 +4861,7 @@
       <c r="K87" s="108"/>
       <c r="L87" s="109"/>
     </row>
-    <row r="88" spans="1:12" ht="14.55" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:12" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A88" s="110">
         <v>79</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>35</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F88" s="92" t="s">
         <v>22</v>
@@ -4889,7 +4889,7 @@
       <c r="K88" s="111"/>
       <c r="L88" s="111"/>
     </row>
-    <row r="89" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="110">
         <v>80</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>148</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F89" s="65" t="s">
         <v>22</v>
@@ -4917,7 +4917,7 @@
       <c r="K89" s="112"/>
       <c r="L89" s="112"/>
     </row>
-    <row r="90" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="110">
         <v>81</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>150</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F90" s="65" t="s">
         <v>22</v>
@@ -4945,7 +4945,7 @@
       <c r="K90" s="112"/>
       <c r="L90" s="112"/>
     </row>
-    <row r="91" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="110">
         <v>82</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>37</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F91" s="65" t="s">
         <v>22</v>
@@ -4973,7 +4973,7 @@
       <c r="K91" s="112"/>
       <c r="L91" s="112"/>
     </row>
-    <row r="92" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="110">
         <v>83</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>153</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F92" s="65" t="s">
         <v>22</v>
@@ -5001,7 +5001,7 @@
       <c r="K92" s="112"/>
       <c r="L92" s="112"/>
     </row>
-    <row r="93" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="110">
         <v>85</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>39</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F93" s="65" t="s">
         <v>22</v>
@@ -5029,7 +5029,7 @@
       <c r="K93" s="112"/>
       <c r="L93" s="112"/>
     </row>
-    <row r="94" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="110">
         <v>86</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>156</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F94" s="65" t="s">
         <v>22</v>
@@ -5057,7 +5057,7 @@
       <c r="K94" s="112"/>
       <c r="L94" s="112"/>
     </row>
-    <row r="95" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="110">
         <v>87</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>41</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F95" s="65" t="s">
         <v>22</v>
@@ -5085,7 +5085,7 @@
       <c r="K95" s="112"/>
       <c r="L95" s="112"/>
     </row>
-    <row r="96" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="110">
         <v>88</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>159</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F96" s="65" t="s">
         <v>22</v>
@@ -5113,7 +5113,7 @@
       <c r="K96" s="112"/>
       <c r="L96" s="112"/>
     </row>
-    <row r="97" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="110">
         <v>89</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>43</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F97" s="65" t="s">
         <v>22</v>
@@ -5141,7 +5141,7 @@
       <c r="K97" s="112"/>
       <c r="L97" s="112"/>
     </row>
-    <row r="98" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="110">
         <v>90</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>162</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F98" s="65" t="s">
         <v>22</v>
@@ -5169,7 +5169,7 @@
       <c r="K98" s="112"/>
       <c r="L98" s="112"/>
     </row>
-    <row r="99" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="110">
         <v>91</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>45</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F99" s="65" t="s">
         <v>22</v>
@@ -5197,7 +5197,7 @@
       <c r="K99" s="112"/>
       <c r="L99" s="112"/>
     </row>
-    <row r="100" spans="1:12" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="113">
         <v>92</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>165</v>
       </c>
       <c r="E100" s="62" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F100" s="103" t="s">
         <v>22</v>
@@ -5225,7 +5225,7 @@
       <c r="K100" s="114"/>
       <c r="L100" s="114"/>
     </row>
-    <row r="101" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="115">
         <v>93</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>53</v>
       </c>
       <c r="E101" s="60" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F101" s="92" t="s">
         <v>22</v>
@@ -5253,7 +5253,7 @@
       <c r="K101" s="116"/>
       <c r="L101" s="116"/>
     </row>
-    <row r="102" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="115">
         <v>94</v>
       </c>
@@ -5281,7 +5281,7 @@
       <c r="K102" s="117"/>
       <c r="L102" s="117"/>
     </row>
-    <row r="103" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="115">
         <v>95</v>
       </c>
@@ -5309,7 +5309,7 @@
       <c r="K103" s="117"/>
       <c r="L103" s="117"/>
     </row>
-    <row r="104" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="115">
         <v>96</v>
       </c>
@@ -5337,7 +5337,7 @@
       <c r="K104" s="117"/>
       <c r="L104" s="117"/>
     </row>
-    <row r="105" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="115">
         <v>97</v>
       </c>
@@ -5365,7 +5365,7 @@
       <c r="K105" s="117"/>
       <c r="L105" s="117"/>
     </row>
-    <row r="106" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="115">
         <v>98</v>
       </c>
@@ -5393,7 +5393,7 @@
       <c r="K106" s="117"/>
       <c r="L106" s="117"/>
     </row>
-    <row r="107" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="115">
         <v>100</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>39</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F107" s="65" t="s">
         <v>22</v>
@@ -5421,7 +5421,7 @@
       <c r="K107" s="117"/>
       <c r="L107" s="117"/>
     </row>
-    <row r="108" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="115">
         <v>101</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>156</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F108" s="65" t="s">
         <v>22</v>
@@ -5449,7 +5449,7 @@
       <c r="K108" s="117"/>
       <c r="L108" s="117"/>
     </row>
-    <row r="109" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="115">
         <v>102</v>
       </c>
@@ -5477,7 +5477,7 @@
       <c r="K109" s="117"/>
       <c r="L109" s="117"/>
     </row>
-    <row r="110" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="115">
         <v>103</v>
       </c>
@@ -5505,7 +5505,7 @@
       <c r="K110" s="117"/>
       <c r="L110" s="117"/>
     </row>
-    <row r="111" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="115">
         <v>104</v>
       </c>
@@ -5533,7 +5533,7 @@
       <c r="K111" s="117"/>
       <c r="L111" s="117"/>
     </row>
-    <row r="112" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="115">
         <v>105</v>
       </c>
@@ -5561,7 +5561,7 @@
       <c r="K112" s="117"/>
       <c r="L112" s="117"/>
     </row>
-    <row r="113" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="115">
         <v>106</v>
       </c>
@@ -5589,7 +5589,7 @@
       <c r="K113" s="117"/>
       <c r="L113" s="117"/>
     </row>
-    <row r="114" spans="1:12" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="118">
         <v>107</v>
       </c>
@@ -5617,7 +5617,7 @@
       <c r="K114" s="119"/>
       <c r="L114" s="119"/>
     </row>
-    <row r="115" spans="1:12" ht="14.55" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A115" s="115">
         <v>108</v>
       </c>
@@ -5645,7 +5645,7 @@
       <c r="K115" s="116"/>
       <c r="L115" s="116"/>
     </row>
-    <row r="116" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="115">
         <v>109</v>
       </c>
@@ -5673,7 +5673,7 @@
       <c r="K116" s="117"/>
       <c r="L116" s="117"/>
     </row>
-    <row r="117" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="115">
         <v>110</v>
       </c>
@@ -5701,7 +5701,7 @@
       <c r="K117" s="117"/>
       <c r="L117" s="117"/>
     </row>
-    <row r="118" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="115">
         <v>111</v>
       </c>
@@ -5729,7 +5729,7 @@
       <c r="K118" s="117"/>
       <c r="L118" s="117"/>
     </row>
-    <row r="119" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="115">
         <v>112</v>
       </c>
@@ -5757,7 +5757,7 @@
       <c r="K119" s="117"/>
       <c r="L119" s="117"/>
     </row>
-    <row r="120" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="115">
         <v>114</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>39</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F120" s="65" t="s">
         <v>22</v>
@@ -5785,7 +5785,7 @@
       <c r="K120" s="117"/>
       <c r="L120" s="117"/>
     </row>
-    <row r="121" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="115">
         <v>115</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>156</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F121" s="65" t="s">
         <v>22</v>
@@ -5813,7 +5813,7 @@
       <c r="K121" s="117"/>
       <c r="L121" s="117"/>
     </row>
-    <row r="122" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="115">
         <v>116</v>
       </c>
@@ -5841,7 +5841,7 @@
       <c r="K122" s="117"/>
       <c r="L122" s="117"/>
     </row>
-    <row r="123" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="115">
         <v>117</v>
       </c>
@@ -5869,7 +5869,7 @@
       <c r="K123" s="117"/>
       <c r="L123" s="117"/>
     </row>
-    <row r="124" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="115">
         <v>118</v>
       </c>
@@ -5897,7 +5897,7 @@
       <c r="K124" s="117"/>
       <c r="L124" s="117"/>
     </row>
-    <row r="125" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="115">
         <v>119</v>
       </c>
@@ -5925,7 +5925,7 @@
       <c r="K125" s="117"/>
       <c r="L125" s="117"/>
     </row>
-    <row r="126" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="115">
         <v>120</v>
       </c>
@@ -5953,7 +5953,7 @@
       <c r="K126" s="117"/>
       <c r="L126" s="117"/>
     </row>
-    <row r="127" spans="1:12" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="120">
         <v>121</v>
       </c>
@@ -5981,7 +5981,7 @@
       <c r="K127" s="121"/>
       <c r="L127" s="121"/>
     </row>
-    <row r="128" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="122">
         <v>122</v>
       </c>
@@ -6011,7 +6011,7 @@
       <c r="K128" s="123"/>
       <c r="L128" s="123"/>
     </row>
-    <row r="129" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="122">
         <v>123</v>
       </c>
@@ -6039,7 +6039,7 @@
       <c r="K129" s="123"/>
       <c r="L129" s="123"/>
     </row>
-    <row r="130" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="122">
         <v>124</v>
       </c>
@@ -6067,7 +6067,7 @@
       <c r="K130" s="123"/>
       <c r="L130" s="123"/>
     </row>
-    <row r="131" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="122">
         <v>125</v>
       </c>
@@ -6095,7 +6095,7 @@
       <c r="K131" s="123"/>
       <c r="L131" s="123"/>
     </row>
-    <row r="132" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="122">
         <v>126</v>
       </c>
@@ -6123,7 +6123,7 @@
       <c r="K132" s="123"/>
       <c r="L132" s="123"/>
     </row>
-    <row r="133" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="122">
         <v>127</v>
       </c>
@@ -6151,7 +6151,7 @@
       <c r="K133" s="123"/>
       <c r="L133" s="123"/>
     </row>
-    <row r="134" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="122">
         <v>128</v>
       </c>
@@ -6179,7 +6179,7 @@
       <c r="K134" s="123"/>
       <c r="L134" s="123"/>
     </row>
-    <row r="135" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="122">
         <v>129</v>
       </c>
@@ -6207,7 +6207,7 @@
       <c r="K135" s="123"/>
       <c r="L135" s="123"/>
     </row>
-    <row r="136" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="122">
         <v>131</v>
       </c>
@@ -6235,7 +6235,7 @@
       <c r="K136" s="123"/>
       <c r="L136" s="123"/>
     </row>
-    <row r="137" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="122">
         <v>132</v>
       </c>
@@ -6263,7 +6263,7 @@
       <c r="K137" s="123"/>
       <c r="L137" s="123"/>
     </row>
-    <row r="138" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="122">
         <v>133</v>
       </c>
@@ -6291,7 +6291,7 @@
       <c r="K138" s="123"/>
       <c r="L138" s="123"/>
     </row>
-    <row r="139" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="122">
         <v>134</v>
       </c>
@@ -6319,7 +6319,7 @@
       <c r="K139" s="123"/>
       <c r="L139" s="123"/>
     </row>
-    <row r="140" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="122">
         <v>135</v>
       </c>
@@ -6347,7 +6347,7 @@
       <c r="K140" s="123"/>
       <c r="L140" s="123"/>
     </row>
-    <row r="141" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="122">
         <v>136</v>
       </c>
@@ -6375,7 +6375,7 @@
       <c r="K141" s="123"/>
       <c r="L141" s="123"/>
     </row>
-    <row r="142" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="122">
         <v>137</v>
       </c>
@@ -6403,7 +6403,7 @@
       <c r="K142" s="123"/>
       <c r="L142" s="123"/>
     </row>
-    <row r="143" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="122">
         <v>138</v>
       </c>
@@ -6431,7 +6431,7 @@
       <c r="K143" s="123"/>
       <c r="L143" s="123"/>
     </row>
-    <row r="144" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="122">
         <v>139</v>
       </c>
@@ -6459,7 +6459,7 @@
       <c r="K144" s="123"/>
       <c r="L144" s="123"/>
     </row>
-    <row r="145" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="122">
         <v>140</v>
       </c>
@@ -6487,7 +6487,7 @@
       <c r="K145" s="123"/>
       <c r="L145" s="123"/>
     </row>
-    <row r="146" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="122">
         <v>141</v>
       </c>
@@ -6515,7 +6515,7 @@
       <c r="K146" s="123"/>
       <c r="L146" s="123"/>
     </row>
-    <row r="147" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="122">
         <v>142</v>
       </c>
@@ -6543,7 +6543,7 @@
       <c r="K147" s="123"/>
       <c r="L147" s="123"/>
     </row>
-    <row r="148" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="122">
         <v>143</v>
       </c>
@@ -6571,7 +6571,7 @@
       <c r="K148" s="123"/>
       <c r="L148" s="123"/>
     </row>
-    <row r="149" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="122">
         <v>144</v>
       </c>
@@ -6599,7 +6599,7 @@
       <c r="K149" s="123"/>
       <c r="L149" s="123"/>
     </row>
-    <row r="150" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="122">
         <v>145</v>
       </c>
@@ -6627,7 +6627,7 @@
       <c r="K150" s="123"/>
       <c r="L150" s="123"/>
     </row>
-    <row r="151" spans="1:12" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="125">
         <v>146</v>
       </c>
@@ -6655,7 +6655,7 @@
       <c r="K151" s="126"/>
       <c r="L151" s="126"/>
     </row>
-    <row r="152" spans="1:12" ht="14.55" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:12" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A152" s="122">
         <v>147</v>
       </c>
@@ -6685,7 +6685,7 @@
       <c r="K152" s="123"/>
       <c r="L152" s="123"/>
     </row>
-    <row r="153" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="122">
         <v>148</v>
       </c>
@@ -6713,7 +6713,7 @@
       <c r="K153" s="123"/>
       <c r="L153" s="123"/>
     </row>
-    <row r="154" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="122">
         <v>149</v>
       </c>
@@ -6741,7 +6741,7 @@
       <c r="K154" s="123"/>
       <c r="L154" s="123"/>
     </row>
-    <row r="155" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="122">
         <v>150</v>
       </c>
@@ -6769,7 +6769,7 @@
       <c r="K155" s="123"/>
       <c r="L155" s="123"/>
     </row>
-    <row r="156" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="122">
         <v>151</v>
       </c>
@@ -6797,7 +6797,7 @@
       <c r="K156" s="123"/>
       <c r="L156" s="123"/>
     </row>
-    <row r="157" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="122">
         <v>152</v>
       </c>
@@ -6825,7 +6825,7 @@
       <c r="K157" s="123"/>
       <c r="L157" s="123"/>
     </row>
-    <row r="158" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="122">
         <v>153</v>
       </c>
@@ -6853,7 +6853,7 @@
       <c r="K158" s="123"/>
       <c r="L158" s="123"/>
     </row>
-    <row r="159" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="122">
         <v>154</v>
       </c>
@@ -6881,7 +6881,7 @@
       <c r="K159" s="123"/>
       <c r="L159" s="123"/>
     </row>
-    <row r="160" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="122">
         <v>156</v>
       </c>
@@ -6909,7 +6909,7 @@
       <c r="K160" s="123"/>
       <c r="L160" s="123"/>
     </row>
-    <row r="161" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="122">
         <v>157</v>
       </c>
@@ -6937,7 +6937,7 @@
       <c r="K161" s="123"/>
       <c r="L161" s="123"/>
     </row>
-    <row r="162" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="122">
         <v>158</v>
       </c>
@@ -6965,7 +6965,7 @@
       <c r="K162" s="123"/>
       <c r="L162" s="123"/>
     </row>
-    <row r="163" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="122">
         <v>159</v>
       </c>
@@ -6993,7 +6993,7 @@
       <c r="K163" s="123"/>
       <c r="L163" s="123"/>
     </row>
-    <row r="164" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="122">
         <v>160</v>
       </c>
@@ -7021,7 +7021,7 @@
       <c r="K164" s="123"/>
       <c r="L164" s="123"/>
     </row>
-    <row r="165" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="122">
         <v>161</v>
       </c>
@@ -7049,7 +7049,7 @@
       <c r="K165" s="123"/>
       <c r="L165" s="123"/>
     </row>
-    <row r="166" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="122">
         <v>162</v>
       </c>
@@ -7077,7 +7077,7 @@
       <c r="K166" s="123"/>
       <c r="L166" s="123"/>
     </row>
-    <row r="167" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="122">
         <v>163</v>
       </c>
@@ -7105,7 +7105,7 @@
       <c r="K167" s="123"/>
       <c r="L167" s="123"/>
     </row>
-    <row r="168" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="122">
         <v>164</v>
       </c>
@@ -7133,7 +7133,7 @@
       <c r="K168" s="123"/>
       <c r="L168" s="123"/>
     </row>
-    <row r="169" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="122">
         <v>165</v>
       </c>
@@ -7161,7 +7161,7 @@
       <c r="K169" s="123"/>
       <c r="L169" s="123"/>
     </row>
-    <row r="170" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="122">
         <v>166</v>
       </c>
@@ -7189,7 +7189,7 @@
       <c r="K170" s="123"/>
       <c r="L170" s="123"/>
     </row>
-    <row r="171" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="122">
         <v>167</v>
       </c>
@@ -7217,7 +7217,7 @@
       <c r="K171" s="123"/>
       <c r="L171" s="123"/>
     </row>
-    <row r="172" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="122">
         <v>168</v>
       </c>
@@ -7245,7 +7245,7 @@
       <c r="K172" s="123"/>
       <c r="L172" s="123"/>
     </row>
-    <row r="173" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="122">
         <v>169</v>
       </c>
@@ -7273,7 +7273,7 @@
       <c r="K173" s="123"/>
       <c r="L173" s="123"/>
     </row>
-    <row r="174" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="122">
         <v>170</v>
       </c>
@@ -7301,7 +7301,7 @@
       <c r="K174" s="123"/>
       <c r="L174" s="123"/>
     </row>
-    <row r="175" spans="1:12" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="128">
         <v>171</v>
       </c>

--- a/dataland-framework-toolbox/inputs/eu-taxonomy-financials/eu-taxonomy-financials.xlsx
+++ b/dataland-framework-toolbox/inputs/eu-taxonomy-financials/eu-taxonomy-financials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d93401\Documents\Dataland\Taxonomy and Frameworks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dataland\dataland\dataland-framework-toolbox\inputs\eu-taxonomy-financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E137DA3D-90BB-4AB0-8A6D-1EB51A5DDABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4507D023-6539-407B-87D8-3DBB44A1B5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57490" yWindow="-10800" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,6 @@
     <t>Fiscal Year End</t>
   </si>
   <si>
-    <t>The date at which the fiscal year ends.</t>
-  </si>
-  <si>
     <t>Are all Group legal entities covered in the reports?</t>
   </si>
   <si>
@@ -1428,6 +1425,9 @@
   </si>
   <si>
     <t>Taxonomy-aligned and enabling Proportion of CapEx-based KPI substantially contributing to Climate Change Adaptation - provided 'do-not-significant harm' (DNSH) and social safeguards positive assessment</t>
+  </si>
+  <si>
+    <t>The date the fiscal year ends.</t>
   </si>
 </sst>
 </file>
@@ -2919,22 +2919,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="71.54296875" customWidth="1"/>
-    <col min="4" max="4" width="95.1796875" customWidth="1"/>
-    <col min="5" max="5" width="78.81640625" customWidth="1"/>
-    <col min="6" max="6" width="40.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="71.5703125" customWidth="1"/>
+    <col min="4" max="4" width="95.140625" customWidth="1"/>
+    <col min="5" max="5" width="78.85546875" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="108">
         <v>1</v>
       </c>
@@ -2992,17 +2992,17 @@
         <v>17</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="33"/>
       <c r="I2" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" s="34"/>
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="108">
         <v>2</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>19</v>
+        <v>453</v>
       </c>
       <c r="F3" s="35" t="s">
         <v>13</v>
@@ -3026,13 +3026,13 @@
       </c>
       <c r="H3" s="34"/>
       <c r="I3" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" s="33"/>
       <c r="K3" s="33"/>
       <c r="L3" s="34"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="108">
         <v>3</v>
       </c>
@@ -3043,13 +3043,13 @@
         <v>12</v>
       </c>
       <c r="D4" s="119" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="37" t="s">
         <v>14</v>
@@ -3060,7 +3060,7 @@
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="108">
         <v>4</v>
       </c>
@@ -3071,26 +3071,26 @@
         <v>12</v>
       </c>
       <c r="D5" s="119" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="36" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>21</v>
       </c>
       <c r="G5" s="38" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="34"/>
       <c r="I5" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="34"/>
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="108">
         <v>5</v>
       </c>
@@ -3101,26 +3101,26 @@
         <v>12</v>
       </c>
       <c r="D6" s="119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H6" s="34"/>
       <c r="I6" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="108">
         <v>6</v>
       </c>
@@ -3131,24 +3131,24 @@
         <v>12</v>
       </c>
       <c r="D7" s="119" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="31"/>
       <c r="H7" s="34"/>
       <c r="I7" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="109">
         <v>7</v>
       </c>
@@ -3159,13 +3159,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="40" t="s">
         <v>14</v>
@@ -3176,6475 +3176,6475 @@
       <c r="K8" s="41"/>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="73">
         <v>8</v>
       </c>
       <c r="B9" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="141" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D9" s="121" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="47" t="s">
         <v>161</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>162</v>
       </c>
       <c r="H9" s="34"/>
       <c r="I9" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9" s="34"/>
       <c r="K9" s="34"/>
       <c r="L9" s="42"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="73">
         <v>9</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="141" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D10" s="122" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="73">
         <v>9.1</v>
       </c>
       <c r="B11" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="141" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D11" s="123" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="141" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" s="121" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G12" s="47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
       <c r="L12" s="42"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="141" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D13" s="122" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J13" s="34"/>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
     </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="142" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D14" s="124" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="25" t="s">
-        <v>105</v>
-      </c>
       <c r="G14" s="51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H14" s="41"/>
       <c r="I14" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J14" s="41"/>
       <c r="K14" s="41"/>
       <c r="L14" s="41"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="72">
         <v>10</v>
       </c>
       <c r="B15" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="141" t="s">
-        <v>33</v>
-      </c>
       <c r="D15" s="119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" s="31"/>
       <c r="H15" s="34"/>
       <c r="I15" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="72">
         <v>10.1</v>
       </c>
       <c r="B16" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="141" t="s">
-        <v>33</v>
-      </c>
       <c r="D16" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16" s="31"/>
       <c r="H16" s="34"/>
       <c r="I16" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="141" t="s">
-        <v>33</v>
-      </c>
       <c r="D17" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" s="31"/>
       <c r="H17" s="34"/>
       <c r="I17" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J17" s="34"/>
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="141" t="s">
-        <v>33</v>
-      </c>
       <c r="D18" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="34"/>
       <c r="I18" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J18" s="34"/>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="141" t="s">
-        <v>33</v>
-      </c>
       <c r="D19" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" s="31"/>
       <c r="H19" s="34"/>
       <c r="I19" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J19" s="34"/>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="72">
         <v>11</v>
       </c>
       <c r="B20" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="141" t="s">
-        <v>33</v>
-      </c>
       <c r="D20" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G20" s="31"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J20" s="34"/>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="72">
         <v>11.1</v>
       </c>
       <c r="B21" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="141" t="s">
-        <v>33</v>
-      </c>
       <c r="D21" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G21" s="31"/>
       <c r="H21" s="34"/>
       <c r="I21" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="141" t="s">
-        <v>33</v>
-      </c>
       <c r="D22" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G22" s="31"/>
       <c r="H22" s="34"/>
       <c r="I22" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="72" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B23" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="141" t="s">
-        <v>33</v>
-      </c>
       <c r="D23" s="125" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23" s="31"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="141" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="125" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="B24" s="100" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="141" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="125" t="s">
-        <v>178</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>177</v>
-      </c>
       <c r="F24" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G24" s="31"/>
       <c r="H24" s="34"/>
       <c r="I24" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J24" s="34"/>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="72">
         <v>12</v>
       </c>
       <c r="B25" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="141" t="s">
-        <v>33</v>
-      </c>
       <c r="D25" s="125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G25" s="31"/>
       <c r="H25" s="34"/>
       <c r="I25" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J25" s="34"/>
       <c r="K25" s="34"/>
       <c r="L25" s="34"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="72">
         <v>12.1</v>
       </c>
       <c r="B26" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="141" t="s">
-        <v>33</v>
-      </c>
       <c r="D26" s="125" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G26" s="31"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J26" s="34"/>
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B27" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="141" t="s">
-        <v>33</v>
-      </c>
       <c r="D27" s="125" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G27" s="31"/>
       <c r="H27" s="34"/>
       <c r="I27" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J27" s="34"/>
       <c r="K27" s="34"/>
       <c r="L27" s="34"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="72" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B28" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="141" t="s">
-        <v>33</v>
-      </c>
       <c r="D28" s="125" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G28" s="31"/>
       <c r="H28" s="34"/>
       <c r="I28" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J28" s="34"/>
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="72">
         <v>13</v>
       </c>
       <c r="B29" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="141" t="s">
-        <v>33</v>
-      </c>
       <c r="D29" s="125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F29" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G29" s="31"/>
       <c r="H29" s="34"/>
       <c r="I29" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J29" s="34"/>
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="72">
         <v>13.1</v>
       </c>
       <c r="B30" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="141" t="s">
-        <v>33</v>
-      </c>
       <c r="D30" s="125" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F30" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G30" s="31"/>
       <c r="H30" s="34"/>
       <c r="I30" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="72" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B31" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="141" t="s">
-        <v>33</v>
-      </c>
       <c r="D31" s="125" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G31" s="31"/>
       <c r="H31" s="34"/>
       <c r="I31" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J31" s="34"/>
       <c r="K31" s="34"/>
       <c r="L31" s="34"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="72" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B32" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="141" t="s">
-        <v>33</v>
-      </c>
       <c r="D32" s="125" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G32" s="31"/>
       <c r="H32" s="34"/>
       <c r="I32" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J32" s="34"/>
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="72">
         <v>14</v>
       </c>
       <c r="B33" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="141" t="s">
-        <v>33</v>
-      </c>
       <c r="D33" s="125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G33" s="31"/>
       <c r="H33" s="34"/>
       <c r="I33" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J33" s="34"/>
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="72">
         <v>14.1</v>
       </c>
       <c r="B34" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="141" t="s">
-        <v>33</v>
-      </c>
       <c r="D34" s="125" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G34" s="31"/>
       <c r="H34" s="34"/>
       <c r="I34" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J34" s="34"/>
       <c r="K34" s="34"/>
       <c r="L34" s="34"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B35" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="141" t="s">
-        <v>33</v>
-      </c>
       <c r="D35" s="125" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F35" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G35" s="31"/>
       <c r="H35" s="34"/>
       <c r="I35" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J35" s="34"/>
       <c r="K35" s="34"/>
       <c r="L35" s="34"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B36" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="141" t="s">
-        <v>33</v>
-      </c>
       <c r="D36" s="125" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G36" s="31"/>
       <c r="H36" s="34"/>
       <c r="I36" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J36" s="34"/>
       <c r="K36" s="34"/>
       <c r="L36" s="34"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="72">
         <v>15</v>
       </c>
       <c r="B37" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="141" t="s">
-        <v>33</v>
-      </c>
       <c r="D37" s="125" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F37" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G37" s="31"/>
       <c r="H37" s="34"/>
       <c r="I37" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J37" s="34"/>
       <c r="K37" s="34"/>
       <c r="L37" s="34"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="72">
         <v>15.1</v>
       </c>
       <c r="B38" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="141" t="s">
-        <v>33</v>
-      </c>
       <c r="D38" s="125" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F38" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G38" s="31"/>
       <c r="H38" s="34"/>
       <c r="I38" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J38" s="34"/>
       <c r="K38" s="34"/>
       <c r="L38" s="34"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B39" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="141" t="s">
-        <v>33</v>
-      </c>
       <c r="D39" s="126" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F39" s="44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G39" s="44"/>
       <c r="H39" s="45"/>
       <c r="I39" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J39" s="45"/>
       <c r="K39" s="45"/>
       <c r="L39" s="45"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="72" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B40" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="141" t="s">
-        <v>33</v>
-      </c>
       <c r="D40" s="127" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G40" s="31"/>
       <c r="H40" s="46"/>
       <c r="I40" s="46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J40" s="46"/>
       <c r="K40" s="46"/>
       <c r="L40" s="46"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="72">
         <v>16</v>
       </c>
       <c r="B41" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="141" t="s">
-        <v>33</v>
-      </c>
       <c r="D41" s="125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F41" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G41" s="47"/>
       <c r="H41" s="34"/>
       <c r="I41" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J41" s="34"/>
       <c r="K41" s="34"/>
       <c r="L41" s="34"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="72">
         <v>16.100000000000001</v>
       </c>
       <c r="B42" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="141" t="s">
-        <v>33</v>
-      </c>
       <c r="D42" s="125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F42" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G42" s="31"/>
       <c r="H42" s="34"/>
       <c r="I42" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J42" s="34"/>
       <c r="K42" s="34"/>
       <c r="L42" s="34"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B43" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="141" t="s">
-        <v>33</v>
-      </c>
       <c r="D43" s="74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F43" s="44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G43" s="44"/>
       <c r="H43" s="45"/>
       <c r="I43" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J43" s="45"/>
       <c r="K43" s="45"/>
       <c r="L43" s="45"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B44" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="141" t="s">
-        <v>33</v>
-      </c>
       <c r="D44" s="127" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F44" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G44" s="31"/>
       <c r="H44" s="46"/>
       <c r="I44" s="48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J44" s="46"/>
       <c r="K44" s="46"/>
       <c r="L44" s="46"/>
     </row>
-    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B45" s="118" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="143" t="s">
-        <v>33</v>
-      </c>
       <c r="D45" s="128" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F45" s="49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G45" s="49"/>
       <c r="H45" s="50"/>
       <c r="I45" s="50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J45" s="50"/>
       <c r="K45" s="50"/>
       <c r="L45" s="50"/>
     </row>
-    <row r="46" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A46" s="72">
         <v>20</v>
       </c>
       <c r="B46" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46" s="141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D46" s="119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F46" s="44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G46" s="44"/>
       <c r="H46" s="34"/>
       <c r="I46" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J46" s="34"/>
       <c r="K46" s="34"/>
       <c r="L46" s="34"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="72">
         <v>20.100000000000001</v>
       </c>
       <c r="B47" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" s="141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F47" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G47" s="44"/>
       <c r="H47" s="34"/>
       <c r="I47" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J47" s="34"/>
       <c r="K47" s="34"/>
       <c r="L47" s="34"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="72" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B48" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C48" s="141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F48" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G48" s="31"/>
       <c r="H48" s="34"/>
       <c r="I48" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J48" s="34"/>
       <c r="K48" s="34"/>
       <c r="L48" s="34"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="72" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B49" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C49" s="141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F49" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G49" s="31"/>
       <c r="H49" s="34"/>
       <c r="I49" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J49" s="34"/>
       <c r="K49" s="34"/>
       <c r="L49" s="34"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B50" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50" s="141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F50" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G50" s="31"/>
       <c r="H50" s="34"/>
       <c r="I50" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J50" s="34"/>
       <c r="K50" s="34"/>
       <c r="L50" s="34"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="72">
         <v>21</v>
       </c>
       <c r="B51" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" s="141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F51" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G51" s="31"/>
       <c r="H51" s="34"/>
       <c r="I51" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J51" s="34"/>
       <c r="K51" s="34"/>
       <c r="L51" s="34"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="72">
         <v>21.1</v>
       </c>
       <c r="B52" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C52" s="141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F52" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G52" s="31"/>
       <c r="H52" s="34"/>
       <c r="I52" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J52" s="34"/>
       <c r="K52" s="34"/>
       <c r="L52" s="34"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B53" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C53" s="141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F53" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G53" s="31"/>
       <c r="H53" s="34"/>
       <c r="I53" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J53" s="34"/>
       <c r="K53" s="34"/>
       <c r="L53" s="34"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B54" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C54" s="141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D54" s="125" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G54" s="31"/>
       <c r="H54" s="34"/>
       <c r="I54" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J54" s="34"/>
       <c r="K54" s="34"/>
       <c r="L54" s="34"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="72" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="141" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="125" t="s">
+        <v>177</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="B55" s="100" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" s="141" t="s">
-        <v>34</v>
-      </c>
-      <c r="D55" s="125" t="s">
-        <v>178</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>180</v>
-      </c>
       <c r="F55" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G55" s="31"/>
       <c r="H55" s="34"/>
       <c r="I55" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J55" s="34"/>
       <c r="K55" s="34"/>
       <c r="L55" s="34"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="72">
         <v>22</v>
       </c>
       <c r="B56" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C56" s="141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D56" s="125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F56" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G56" s="31"/>
       <c r="H56" s="34"/>
       <c r="I56" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J56" s="34"/>
       <c r="K56" s="34"/>
       <c r="L56" s="34"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="72">
         <v>22.1</v>
       </c>
       <c r="B57" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C57" s="141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D57" s="125" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F57" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G57" s="31"/>
       <c r="H57" s="34"/>
       <c r="I57" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J57" s="34"/>
       <c r="K57" s="34"/>
       <c r="L57" s="34"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="72" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B58" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C58" s="141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D58" s="125" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F58" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G58" s="31"/>
       <c r="H58" s="34"/>
       <c r="I58" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J58" s="34"/>
       <c r="K58" s="34"/>
       <c r="L58" s="34"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B59" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C59" s="141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D59" s="125" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F59" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G59" s="31"/>
       <c r="H59" s="34"/>
       <c r="I59" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J59" s="34"/>
       <c r="K59" s="34"/>
       <c r="L59" s="34"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="72">
         <v>23</v>
       </c>
       <c r="B60" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C60" s="141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D60" s="125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F60" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G60" s="31"/>
       <c r="H60" s="34"/>
       <c r="I60" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J60" s="34"/>
       <c r="K60" s="34"/>
       <c r="L60" s="34"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="72">
         <v>23.1</v>
       </c>
       <c r="B61" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C61" s="141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D61" s="125" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F61" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G61" s="31"/>
       <c r="H61" s="34"/>
       <c r="I61" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J61" s="34"/>
       <c r="K61" s="34"/>
       <c r="L61" s="34"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B62" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C62" s="141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D62" s="125" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F62" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G62" s="31"/>
       <c r="H62" s="34"/>
       <c r="I62" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J62" s="34"/>
       <c r="K62" s="34"/>
       <c r="L62" s="34"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="72" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B63" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C63" s="141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D63" s="125" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F63" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G63" s="31"/>
       <c r="H63" s="34"/>
       <c r="I63" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J63" s="34"/>
       <c r="K63" s="34"/>
       <c r="L63" s="34"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="72">
         <v>24</v>
       </c>
       <c r="B64" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C64" s="141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D64" s="125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F64" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G64" s="31"/>
       <c r="H64" s="34"/>
       <c r="I64" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J64" s="34"/>
       <c r="K64" s="34"/>
       <c r="L64" s="34"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="72">
         <v>24.1</v>
       </c>
       <c r="B65" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C65" s="141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D65" s="125" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F65" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G65" s="31"/>
       <c r="H65" s="34"/>
       <c r="I65" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J65" s="34"/>
       <c r="K65" s="34"/>
       <c r="L65" s="34"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B66" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C66" s="141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D66" s="125" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F66" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G66" s="31"/>
       <c r="H66" s="34"/>
       <c r="I66" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J66" s="34"/>
       <c r="K66" s="34"/>
       <c r="L66" s="34"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="72" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B67" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C67" s="141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D67" s="125" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F67" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G67" s="31"/>
       <c r="H67" s="34"/>
       <c r="I67" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J67" s="34"/>
       <c r="K67" s="34"/>
       <c r="L67" s="34"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="72">
         <v>25</v>
       </c>
       <c r="B68" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C68" s="141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D68" s="125" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F68" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G68" s="31"/>
       <c r="H68" s="34"/>
       <c r="I68" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J68" s="34"/>
       <c r="K68" s="34"/>
       <c r="L68" s="34"/>
     </row>
-    <row r="69" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="72">
         <v>25.1</v>
       </c>
       <c r="B69" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C69" s="141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D69" s="125" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F69" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G69" s="31"/>
       <c r="H69" s="34"/>
       <c r="I69" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J69" s="34"/>
       <c r="K69" s="34"/>
       <c r="L69" s="34"/>
     </row>
-    <row r="70" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B70" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C70" s="141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D70" s="126" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F70" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G70" s="31"/>
       <c r="H70" s="34"/>
       <c r="I70" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J70" s="34"/>
       <c r="K70" s="34"/>
       <c r="L70" s="34"/>
     </row>
-    <row r="71" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B71" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C71" s="141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D71" s="127" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F71" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G71" s="31"/>
       <c r="H71" s="34"/>
       <c r="I71" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J71" s="34"/>
       <c r="K71" s="34"/>
       <c r="L71" s="34"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="72">
         <v>26</v>
       </c>
       <c r="B72" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C72" s="141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D72" s="125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F72" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G72" s="31"/>
       <c r="H72" s="34"/>
       <c r="I72" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J72" s="34"/>
       <c r="K72" s="34"/>
       <c r="L72" s="34"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="72">
         <v>26.1</v>
       </c>
       <c r="B73" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C73" s="141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D73" s="125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F73" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G73" s="31"/>
       <c r="H73" s="34"/>
       <c r="I73" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J73" s="34"/>
       <c r="K73" s="34"/>
       <c r="L73" s="34"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B74" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C74" s="141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D74" s="74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F74" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G74" s="31"/>
       <c r="H74" s="34"/>
       <c r="I74" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J74" s="34"/>
       <c r="K74" s="34"/>
       <c r="L74" s="34"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B75" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C75" s="141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D75" s="127" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F75" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G75" s="31"/>
       <c r="H75" s="34"/>
       <c r="I75" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J75" s="34"/>
       <c r="K75" s="34"/>
       <c r="L75" s="34"/>
     </row>
-    <row r="76" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="110" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B76" s="117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C76" s="142" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D76" s="129" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E76" s="70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F76" s="51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G76" s="51"/>
       <c r="H76" s="41"/>
       <c r="I76" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J76" s="41"/>
       <c r="K76" s="41"/>
       <c r="L76" s="41"/>
     </row>
-    <row r="77" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="56">
         <v>65</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D77" s="130" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E77" s="71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F77" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G77" s="47"/>
       <c r="H77" s="34"/>
       <c r="I77" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J77" s="34"/>
       <c r="K77" s="34"/>
       <c r="L77" s="34"/>
     </row>
-    <row r="78" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="56">
         <v>66</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D78" s="130" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E78" s="71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F78" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G78" s="31"/>
       <c r="H78" s="34"/>
       <c r="I78" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J78" s="34"/>
       <c r="K78" s="34"/>
       <c r="L78" s="34"/>
     </row>
-    <row r="79" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="56">
         <v>67</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D79" s="130" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E79" s="71" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F79" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G79" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H79" s="34"/>
       <c r="I79" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J79" s="34"/>
       <c r="K79" s="34"/>
       <c r="L79" s="34"/>
     </row>
-    <row r="80" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:12" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="112">
         <v>68</v>
       </c>
       <c r="B80" s="101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C80" s="101" t="s">
+        <v>180</v>
+      </c>
+      <c r="D80" s="131" t="s">
+        <v>188</v>
+      </c>
+      <c r="E80" s="84" t="s">
         <v>181</v>
       </c>
-      <c r="D80" s="131" t="s">
-        <v>189</v>
-      </c>
-      <c r="E80" s="84" t="s">
-        <v>182</v>
-      </c>
       <c r="F80" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G80" s="49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H80" s="85"/>
       <c r="I80" s="85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J80" s="85"/>
       <c r="K80" s="85"/>
       <c r="L80" s="85"/>
     </row>
-    <row r="81" spans="1:12" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A81" s="56">
         <v>69</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C81" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D81" s="130" t="s">
+        <v>419</v>
+      </c>
+      <c r="E81" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="D81" s="130" t="s">
-        <v>420</v>
-      </c>
-      <c r="E81" s="71" t="s">
-        <v>192</v>
-      </c>
       <c r="F81" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G81" s="47"/>
       <c r="H81" s="34"/>
       <c r="I81" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J81" s="34"/>
       <c r="K81" s="34"/>
       <c r="L81" s="34"/>
     </row>
-    <row r="82" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="56">
         <v>70</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D82" s="130" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E82" s="71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F82" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G82" s="31"/>
       <c r="H82" s="34"/>
       <c r="I82" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J82" s="34"/>
       <c r="K82" s="34"/>
       <c r="L82" s="34"/>
     </row>
-    <row r="83" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="56">
         <v>71</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D83" s="130" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E83" s="71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F83" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G83" s="31"/>
       <c r="H83" s="34"/>
       <c r="I83" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J83" s="34"/>
       <c r="K83" s="34"/>
       <c r="L83" s="34"/>
     </row>
-    <row r="84" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="56">
         <v>72</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D84" s="130" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E84" s="71" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F84" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G84" s="31"/>
       <c r="H84" s="34"/>
       <c r="I84" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J84" s="34"/>
       <c r="K84" s="34"/>
       <c r="L84" s="34"/>
     </row>
-    <row r="85" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="56">
         <v>73</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D85" s="130" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E85" s="71" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F85" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G85" s="31"/>
       <c r="H85" s="34"/>
       <c r="I85" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J85" s="34"/>
       <c r="K85" s="34"/>
       <c r="L85" s="34"/>
     </row>
-    <row r="86" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="56">
         <v>74</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D86" s="130" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F86" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G86" s="31"/>
       <c r="H86" s="34"/>
       <c r="I86" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J86" s="34"/>
       <c r="K86" s="34"/>
       <c r="L86" s="34"/>
     </row>
-    <row r="87" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="56">
         <v>75</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D87" s="130" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F87" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G87" s="31"/>
       <c r="H87" s="34"/>
       <c r="I87" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J87" s="34"/>
       <c r="K87" s="34"/>
       <c r="L87" s="34"/>
     </row>
-    <row r="88" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="56">
         <v>76</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D88" s="130" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F88" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G88" s="31"/>
       <c r="H88" s="34"/>
       <c r="I88" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J88" s="34"/>
       <c r="K88" s="34"/>
       <c r="L88" s="34"/>
     </row>
-    <row r="89" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="56">
         <v>77</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D89" s="130" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F89" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G89" s="31"/>
       <c r="H89" s="34"/>
       <c r="I89" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J89" s="34"/>
       <c r="K89" s="34"/>
       <c r="L89" s="34"/>
     </row>
-    <row r="90" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="56">
         <v>78</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D90" s="130" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F90" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G90" s="31"/>
       <c r="H90" s="34"/>
       <c r="I90" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J90" s="34"/>
       <c r="K90" s="34"/>
       <c r="L90" s="34"/>
     </row>
-    <row r="91" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="56">
         <v>79</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D91" s="130" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F91" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G91" s="31"/>
       <c r="H91" s="34"/>
       <c r="I91" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J91" s="34"/>
       <c r="K91" s="34"/>
       <c r="L91" s="34"/>
     </row>
-    <row r="92" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="56">
         <v>80</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D92" s="132" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F92" s="44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G92" s="44"/>
       <c r="H92" s="45"/>
       <c r="I92" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J92" s="45"/>
       <c r="K92" s="45"/>
       <c r="L92" s="45"/>
     </row>
-    <row r="93" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:12" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="52">
         <v>81</v>
       </c>
       <c r="B93" s="101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C93" s="101" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D93" s="133" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F93" s="53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G93" s="53"/>
       <c r="H93" s="54"/>
       <c r="I93" s="54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J93" s="54"/>
       <c r="K93" s="54"/>
       <c r="L93" s="55"/>
     </row>
-    <row r="94" spans="1:12" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A94" s="56">
         <v>82</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D94" s="130" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E94" s="71" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F94" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G94" s="47"/>
       <c r="H94" s="57"/>
       <c r="I94" s="57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J94" s="57"/>
       <c r="K94" s="57"/>
       <c r="L94" s="57"/>
     </row>
-    <row r="95" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="56">
         <v>83</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D95" s="130" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E95" s="71" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F95" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G95" s="31"/>
       <c r="H95" s="58"/>
       <c r="I95" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J95" s="58"/>
       <c r="K95" s="58"/>
       <c r="L95" s="58"/>
     </row>
-    <row r="96" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="56">
         <v>84</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D96" s="130" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E96" s="71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F96" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G96" s="31"/>
       <c r="H96" s="58"/>
       <c r="I96" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J96" s="58"/>
       <c r="K96" s="58"/>
       <c r="L96" s="58"/>
     </row>
-    <row r="97" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="56">
         <v>85</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D97" s="130" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E97" s="71" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F97" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G97" s="31"/>
       <c r="H97" s="58"/>
       <c r="I97" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J97" s="58"/>
       <c r="K97" s="58"/>
       <c r="L97" s="58"/>
     </row>
-    <row r="98" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="56">
         <v>86</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D98" s="130" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E98" s="71" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F98" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G98" s="31"/>
       <c r="H98" s="58"/>
       <c r="I98" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J98" s="58"/>
       <c r="K98" s="58"/>
       <c r="L98" s="58"/>
     </row>
-    <row r="99" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="56">
         <v>87</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D99" s="130" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F99" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G99" s="31"/>
       <c r="H99" s="58"/>
       <c r="I99" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J99" s="58"/>
       <c r="K99" s="58"/>
       <c r="L99" s="58"/>
     </row>
-    <row r="100" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="56">
         <v>88</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D100" s="130" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F100" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G100" s="31"/>
       <c r="H100" s="58"/>
       <c r="I100" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J100" s="58"/>
       <c r="K100" s="58"/>
       <c r="L100" s="58"/>
     </row>
-    <row r="101" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="56">
         <v>89</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D101" s="130" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F101" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G101" s="31"/>
       <c r="H101" s="58"/>
       <c r="I101" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J101" s="58"/>
       <c r="K101" s="58"/>
       <c r="L101" s="58"/>
     </row>
-    <row r="102" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="56">
         <v>90</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D102" s="130" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F102" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G102" s="31"/>
       <c r="H102" s="58"/>
       <c r="I102" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J102" s="58"/>
       <c r="K102" s="58"/>
       <c r="L102" s="58"/>
     </row>
-    <row r="103" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="56">
         <v>91</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D103" s="130" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F103" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G103" s="31"/>
       <c r="H103" s="58"/>
       <c r="I103" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J103" s="58"/>
       <c r="K103" s="58"/>
       <c r="L103" s="58"/>
     </row>
-    <row r="104" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="56">
         <v>92</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D104" s="130" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F104" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G104" s="31"/>
       <c r="H104" s="58"/>
       <c r="I104" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J104" s="58"/>
       <c r="K104" s="58"/>
       <c r="L104" s="58"/>
     </row>
-    <row r="105" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="56">
         <v>93</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D105" s="132" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F105" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G105" s="31"/>
       <c r="H105" s="58"/>
       <c r="I105" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J105" s="58"/>
       <c r="K105" s="58"/>
       <c r="L105" s="58"/>
     </row>
-    <row r="106" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:12" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="59">
         <v>94</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D106" s="134" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E106" s="76" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F106" s="51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G106" s="51"/>
       <c r="H106" s="60"/>
       <c r="I106" s="60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J106" s="60"/>
       <c r="K106" s="60"/>
       <c r="L106" s="60"/>
     </row>
-    <row r="107" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="77">
         <v>95</v>
       </c>
       <c r="B107" s="102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C107" s="102" t="s">
+        <v>212</v>
+      </c>
+      <c r="D107" s="135" t="s">
         <v>213</v>
       </c>
-      <c r="D107" s="135" t="s">
+      <c r="E107" s="92" t="s">
         <v>214</v>
       </c>
-      <c r="E107" s="92" t="s">
-        <v>215</v>
-      </c>
       <c r="F107" s="78" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G107" s="78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H107" s="79"/>
       <c r="I107" s="80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J107" s="79"/>
       <c r="K107" s="79"/>
       <c r="L107" s="79"/>
     </row>
-    <row r="108" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="75">
         <v>96</v>
       </c>
       <c r="B108" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C108" s="103" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D108" s="136" t="s">
+        <v>215</v>
+      </c>
+      <c r="E108" s="94" t="s">
         <v>216</v>
       </c>
-      <c r="E108" s="94" t="s">
-        <v>217</v>
-      </c>
       <c r="F108" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G108" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H108" s="62"/>
       <c r="I108" s="57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J108" s="62"/>
       <c r="K108" s="62"/>
       <c r="L108" s="62"/>
     </row>
-    <row r="109" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="75">
         <v>97</v>
       </c>
       <c r="B109" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C109" s="103" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D109" s="136" t="s">
+        <v>217</v>
+      </c>
+      <c r="E109" s="93" t="s">
         <v>218</v>
       </c>
-      <c r="E109" s="93" t="s">
-        <v>219</v>
-      </c>
       <c r="F109" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G109" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H109" s="62"/>
       <c r="I109" s="57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J109" s="62"/>
       <c r="K109" s="62"/>
       <c r="L109" s="62"/>
     </row>
-    <row r="110" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="75">
         <v>98</v>
       </c>
       <c r="B110" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C110" s="103" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D110" s="136" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E110" s="93" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F110" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G110" s="31"/>
       <c r="H110" s="62"/>
       <c r="I110" s="57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J110" s="62"/>
       <c r="K110" s="62"/>
       <c r="L110" s="62"/>
     </row>
-    <row r="111" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="75">
         <v>99</v>
       </c>
       <c r="B111" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C111" s="103" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D111" s="136" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E111" s="94" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F111" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G111" s="31"/>
       <c r="H111" s="62"/>
       <c r="I111" s="57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J111" s="62"/>
       <c r="K111" s="62"/>
       <c r="L111" s="62"/>
     </row>
-    <row r="112" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:12" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="52">
         <v>100</v>
       </c>
       <c r="B112" s="104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C112" s="104" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D112" s="137" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E112" s="95" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F112" s="49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G112" s="49"/>
       <c r="H112" s="81"/>
       <c r="I112" s="82" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J112" s="81"/>
       <c r="K112" s="81"/>
       <c r="L112" s="81"/>
     </row>
-    <row r="113" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="75">
         <v>101</v>
       </c>
       <c r="B113" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D113" s="130" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E113" s="71" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F113" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G113" s="47"/>
       <c r="H113" s="34"/>
       <c r="I113" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J113" s="34"/>
       <c r="K113" s="34"/>
       <c r="L113" s="34"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="75">
         <v>102</v>
       </c>
       <c r="B114" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D114" s="130" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E114" s="71" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F114" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G114" s="31"/>
       <c r="H114" s="34"/>
       <c r="I114" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J114" s="34"/>
       <c r="K114" s="34"/>
       <c r="L114" s="34"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="75">
         <v>103</v>
       </c>
       <c r="B115" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D115" s="130" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E115" s="71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F115" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G115" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H115" s="34"/>
       <c r="I115" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J115" s="34"/>
       <c r="K115" s="34"/>
       <c r="L115" s="34"/>
     </row>
-    <row r="116" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="52">
         <v>104</v>
       </c>
       <c r="B116" s="104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C116" s="101" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D116" s="131" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E116" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F116" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G116" s="49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H116" s="85"/>
       <c r="I116" s="85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J116" s="85"/>
       <c r="K116" s="85"/>
       <c r="L116" s="85"/>
     </row>
-    <row r="117" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A117" s="61">
         <v>105</v>
       </c>
       <c r="B117" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C117" s="98" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F117" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G117" s="47"/>
       <c r="H117" s="62"/>
       <c r="I117" s="57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J117" s="62"/>
       <c r="K117" s="62"/>
       <c r="L117" s="62"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="61">
         <v>106</v>
       </c>
       <c r="B118" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C118" s="103" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F118" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G118" s="31"/>
       <c r="H118" s="63"/>
       <c r="I118" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J118" s="63"/>
       <c r="K118" s="63"/>
       <c r="L118" s="63"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="61">
         <v>107</v>
       </c>
       <c r="B119" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C119" s="103" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D119" s="21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F119" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G119" s="31"/>
       <c r="H119" s="63"/>
       <c r="I119" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J119" s="63"/>
       <c r="K119" s="63"/>
       <c r="L119" s="63"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="61">
         <v>108</v>
       </c>
       <c r="B120" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C120" s="103" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F120" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G120" s="31"/>
       <c r="H120" s="63"/>
       <c r="I120" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J120" s="63"/>
       <c r="K120" s="63"/>
       <c r="L120" s="63"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="61">
         <v>109</v>
       </c>
       <c r="B121" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C121" s="103" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F121" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G121" s="31"/>
       <c r="H121" s="63"/>
       <c r="I121" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J121" s="63"/>
       <c r="K121" s="63"/>
       <c r="L121" s="63"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="61">
         <v>110</v>
       </c>
       <c r="B122" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C122" s="103" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F122" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G122" s="31"/>
       <c r="H122" s="63"/>
       <c r="I122" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J122" s="63"/>
       <c r="K122" s="63"/>
       <c r="L122" s="63"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="61">
         <v>111</v>
       </c>
       <c r="B123" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C123" s="103" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D123" s="21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F123" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G123" s="31"/>
       <c r="H123" s="63"/>
       <c r="I123" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J123" s="63"/>
       <c r="K123" s="63"/>
       <c r="L123" s="63"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="61">
         <v>112</v>
       </c>
       <c r="B124" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C124" s="103" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D124" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F124" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G124" s="31"/>
       <c r="H124" s="63"/>
       <c r="I124" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J124" s="63"/>
       <c r="K124" s="63"/>
       <c r="L124" s="63"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="61">
         <v>113</v>
       </c>
       <c r="B125" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C125" s="103" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D125" s="21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F125" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G125" s="31"/>
       <c r="H125" s="63"/>
       <c r="I125" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J125" s="63"/>
       <c r="K125" s="63"/>
       <c r="L125" s="63"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="61">
         <v>114</v>
       </c>
       <c r="B126" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C126" s="103" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D126" s="21" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F126" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G126" s="31"/>
       <c r="H126" s="63"/>
       <c r="I126" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J126" s="63"/>
       <c r="K126" s="63"/>
       <c r="L126" s="63"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="61">
         <v>115</v>
       </c>
       <c r="B127" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C127" s="103" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D127" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F127" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G127" s="31"/>
       <c r="H127" s="63"/>
       <c r="I127" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J127" s="63"/>
       <c r="K127" s="63"/>
       <c r="L127" s="63"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="61">
         <v>116</v>
       </c>
       <c r="B128" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C128" s="103" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D128" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F128" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G128" s="31"/>
       <c r="H128" s="63"/>
       <c r="I128" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J128" s="63"/>
       <c r="K128" s="63"/>
       <c r="L128" s="63"/>
     </row>
-    <row r="129" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="52">
         <v>117</v>
       </c>
       <c r="B129" s="104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C129" s="104" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D129" s="138" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F129" s="49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G129" s="49"/>
       <c r="H129" s="64"/>
       <c r="I129" s="55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J129" s="64"/>
       <c r="K129" s="64"/>
       <c r="L129" s="64"/>
     </row>
-    <row r="130" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A130" s="61">
         <v>118</v>
       </c>
       <c r="B130" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C130" s="103" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D130" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F130" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G130" s="47"/>
       <c r="H130" s="62"/>
       <c r="I130" s="62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J130" s="62"/>
       <c r="K130" s="62"/>
       <c r="L130" s="62"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="61">
         <v>119</v>
       </c>
       <c r="B131" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C131" s="103" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D131" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F131" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G131" s="31"/>
       <c r="H131" s="63"/>
       <c r="I131" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J131" s="63"/>
       <c r="K131" s="63"/>
       <c r="L131" s="63"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="61">
         <v>120</v>
       </c>
       <c r="B132" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C132" s="103" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D132" s="21" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F132" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G132" s="31"/>
       <c r="H132" s="63"/>
       <c r="I132" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J132" s="63"/>
       <c r="K132" s="63"/>
       <c r="L132" s="63"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="61">
         <v>121</v>
       </c>
       <c r="B133" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C133" s="103" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F133" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G133" s="31"/>
       <c r="H133" s="63"/>
       <c r="I133" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J133" s="63"/>
       <c r="K133" s="63"/>
       <c r="L133" s="63"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="61">
         <v>122</v>
       </c>
       <c r="B134" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C134" s="103" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D134" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F134" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G134" s="31"/>
       <c r="H134" s="63"/>
       <c r="I134" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J134" s="63"/>
       <c r="K134" s="63"/>
       <c r="L134" s="63"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="61">
         <v>123</v>
       </c>
       <c r="B135" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C135" s="103" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F135" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G135" s="31"/>
       <c r="H135" s="63"/>
       <c r="I135" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J135" s="63"/>
       <c r="K135" s="63"/>
       <c r="L135" s="63"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="61">
         <v>124</v>
       </c>
       <c r="B136" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C136" s="103" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D136" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F136" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G136" s="31"/>
       <c r="H136" s="63"/>
       <c r="I136" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J136" s="63"/>
       <c r="K136" s="63"/>
       <c r="L136" s="63"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="61">
         <v>125</v>
       </c>
       <c r="B137" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C137" s="103" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D137" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F137" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G137" s="31"/>
       <c r="H137" s="63"/>
       <c r="I137" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J137" s="63"/>
       <c r="K137" s="63"/>
       <c r="L137" s="63"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="61">
         <v>126</v>
       </c>
       <c r="B138" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C138" s="103" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F138" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G138" s="31"/>
       <c r="H138" s="63"/>
       <c r="I138" s="63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J138" s="63"/>
       <c r="K138" s="63"/>
       <c r="L138" s="63"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="61">
         <v>127</v>
       </c>
       <c r="B139" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C139" s="103" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F139" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G139" s="31"/>
       <c r="H139" s="63"/>
       <c r="I139" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J139" s="63"/>
       <c r="K139" s="63"/>
       <c r="L139" s="63"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="61">
         <v>128</v>
       </c>
       <c r="B140" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C140" s="103" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F140" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G140" s="31"/>
       <c r="H140" s="63"/>
       <c r="I140" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J140" s="63"/>
       <c r="K140" s="63"/>
       <c r="L140" s="63"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="61">
         <v>129</v>
       </c>
       <c r="B141" s="103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C141" s="103" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D141" s="21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F141" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G141" s="31"/>
       <c r="H141" s="63"/>
       <c r="I141" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J141" s="63"/>
       <c r="K141" s="63"/>
       <c r="L141" s="63"/>
     </row>
-    <row r="142" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="59">
         <v>130</v>
       </c>
       <c r="B142" s="105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C142" s="105" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D142" s="23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F142" s="51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G142" s="51"/>
       <c r="H142" s="65"/>
       <c r="I142" s="60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J142" s="65"/>
       <c r="K142" s="65"/>
       <c r="L142" s="65"/>
     </row>
-    <row r="143" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="113">
         <v>131</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C143" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D143" s="130" t="s">
+        <v>336</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D143" s="130" t="s">
-        <v>337</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="F143" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G143" s="47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H143" s="66"/>
       <c r="I143" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J143" s="66"/>
       <c r="K143" s="66"/>
       <c r="L143" s="66"/>
     </row>
-    <row r="144" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="113">
         <v>132</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D144" s="130" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F144" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G144" s="31"/>
       <c r="H144" s="66"/>
       <c r="I144" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J144" s="66"/>
       <c r="K144" s="66"/>
       <c r="L144" s="66"/>
     </row>
-    <row r="145" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="113">
         <v>133</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D145" s="130" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F145" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G145" s="31"/>
       <c r="H145" s="66"/>
       <c r="I145" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J145" s="66"/>
       <c r="K145" s="66"/>
       <c r="L145" s="66"/>
     </row>
-    <row r="146" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="113">
         <v>134</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D146" s="130" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F146" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G146" s="31"/>
       <c r="H146" s="66"/>
       <c r="I146" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J146" s="66"/>
       <c r="K146" s="66"/>
       <c r="L146" s="66"/>
     </row>
-    <row r="147" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="113">
         <v>135</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D147" s="130" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F147" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G147" s="31"/>
       <c r="H147" s="66"/>
       <c r="I147" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J147" s="66"/>
       <c r="K147" s="66"/>
       <c r="L147" s="66"/>
     </row>
-    <row r="148" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="113">
         <v>136</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D148" s="130" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F148" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G148" s="31"/>
       <c r="H148" s="66"/>
       <c r="I148" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J148" s="66"/>
       <c r="K148" s="66"/>
       <c r="L148" s="66"/>
     </row>
-    <row r="149" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="113">
         <v>137</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D149" s="130" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F149" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G149" s="31"/>
       <c r="H149" s="66"/>
       <c r="I149" s="66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J149" s="66"/>
       <c r="K149" s="66"/>
       <c r="L149" s="66"/>
     </row>
-    <row r="150" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="113">
         <v>138</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D150" s="130" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F150" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G150" s="31"/>
       <c r="H150" s="66"/>
       <c r="I150" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J150" s="66"/>
       <c r="K150" s="66"/>
       <c r="L150" s="66"/>
     </row>
-    <row r="151" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="113">
         <v>139</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D151" s="130" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F151" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G151" s="31"/>
       <c r="H151" s="66"/>
       <c r="I151" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J151" s="66"/>
       <c r="K151" s="66"/>
       <c r="L151" s="66"/>
     </row>
-    <row r="152" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="113">
         <v>140</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D152" s="130" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F152" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G152" s="47"/>
       <c r="H152" s="66"/>
       <c r="I152" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J152" s="66"/>
       <c r="K152" s="66"/>
       <c r="L152" s="66"/>
     </row>
-    <row r="153" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="113">
         <v>141</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D153" s="130" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F153" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G153" s="31"/>
       <c r="H153" s="66"/>
       <c r="I153" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J153" s="66"/>
       <c r="K153" s="66"/>
       <c r="L153" s="66"/>
     </row>
-    <row r="154" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="113">
         <v>142</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D154" s="130" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F154" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G154" s="31"/>
       <c r="H154" s="66"/>
       <c r="I154" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J154" s="66"/>
       <c r="K154" s="66"/>
       <c r="L154" s="66"/>
     </row>
-    <row r="155" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="113">
         <v>143</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D155" s="130" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F155" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G155" s="31"/>
       <c r="H155" s="66"/>
       <c r="I155" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J155" s="66"/>
       <c r="K155" s="66"/>
       <c r="L155" s="66"/>
     </row>
-    <row r="156" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="113">
         <v>144</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D156" s="130" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F156" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G156" s="31"/>
       <c r="H156" s="66"/>
       <c r="I156" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J156" s="66"/>
       <c r="K156" s="66"/>
       <c r="L156" s="66"/>
     </row>
-    <row r="157" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="113">
         <v>145</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D157" s="130" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F157" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G157" s="31"/>
       <c r="H157" s="66"/>
       <c r="I157" s="66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J157" s="66"/>
       <c r="K157" s="66"/>
       <c r="L157" s="66"/>
     </row>
-    <row r="158" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="113">
         <v>146</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D158" s="130" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F158" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G158" s="31"/>
       <c r="H158" s="66"/>
       <c r="I158" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J158" s="66"/>
       <c r="K158" s="66"/>
       <c r="L158" s="66"/>
     </row>
-    <row r="159" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="113">
         <v>147</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D159" s="130" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F159" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G159" s="31"/>
       <c r="H159" s="66"/>
       <c r="I159" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J159" s="66"/>
       <c r="K159" s="66"/>
       <c r="L159" s="66"/>
     </row>
-    <row r="160" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="113">
         <v>148</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D160" s="130" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F160" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G160" s="47"/>
       <c r="H160" s="66"/>
       <c r="I160" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J160" s="66"/>
       <c r="K160" s="66"/>
       <c r="L160" s="66"/>
     </row>
-    <row r="161" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="113">
         <v>149</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D161" s="130" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F161" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G161" s="47"/>
       <c r="H161" s="66"/>
       <c r="I161" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J161" s="66"/>
       <c r="K161" s="66"/>
       <c r="L161" s="66"/>
     </row>
-    <row r="162" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="113">
         <v>150</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D162" s="130" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F162" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G162" s="47"/>
       <c r="H162" s="66"/>
       <c r="I162" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J162" s="66"/>
       <c r="K162" s="66"/>
       <c r="L162" s="66"/>
     </row>
-    <row r="163" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="113">
         <v>151</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D163" s="130" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F163" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G163" s="47"/>
       <c r="H163" s="66"/>
       <c r="I163" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J163" s="66"/>
       <c r="K163" s="66"/>
       <c r="L163" s="66"/>
     </row>
-    <row r="164" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="113">
         <v>152</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D164" s="130" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F164" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G164" s="47"/>
       <c r="H164" s="66"/>
       <c r="I164" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J164" s="66"/>
       <c r="K164" s="66"/>
       <c r="L164" s="66"/>
     </row>
-    <row r="165" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="113">
         <v>153</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D165" s="130" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F165" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G165" s="47"/>
       <c r="H165" s="67"/>
       <c r="I165" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J165" s="66"/>
       <c r="K165" s="66"/>
       <c r="L165" s="66"/>
     </row>
-    <row r="166" spans="1:12" s="83" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:12" s="83" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="114">
         <v>154</v>
       </c>
       <c r="B166" s="88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C166" s="88" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D166" s="139" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E166" s="86" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F166" s="87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G166" s="96"/>
       <c r="H166" s="64"/>
       <c r="I166" s="64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J166" s="68"/>
       <c r="K166" s="68"/>
       <c r="L166" s="68"/>
     </row>
-    <row r="167" spans="1:12" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A167" s="113">
         <v>155</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D167" s="130" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F167" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G167" s="47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H167" s="66"/>
       <c r="I167" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J167" s="66"/>
       <c r="K167" s="66"/>
       <c r="L167" s="66"/>
     </row>
-    <row r="168" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="113">
         <v>156</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C168" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D168" s="130" t="s">
         <v>294</v>
       </c>
-      <c r="D168" s="130" t="s">
+      <c r="E168" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E168" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="F168" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G168" s="31"/>
       <c r="H168" s="66"/>
       <c r="I168" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J168" s="66"/>
       <c r="K168" s="66"/>
       <c r="L168" s="66"/>
     </row>
-    <row r="169" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="113">
         <v>157</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D169" s="130" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F169" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G169" s="31"/>
       <c r="H169" s="66"/>
       <c r="I169" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J169" s="66"/>
       <c r="K169" s="66"/>
       <c r="L169" s="66"/>
     </row>
-    <row r="170" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="113">
         <v>158</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D170" s="130" t="s">
+        <v>297</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E170" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="F170" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G170" s="31"/>
       <c r="H170" s="66"/>
       <c r="I170" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J170" s="66"/>
       <c r="K170" s="66"/>
       <c r="L170" s="66"/>
     </row>
-    <row r="171" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="113">
         <v>159</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D171" s="130" t="s">
+        <v>299</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E171" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="F171" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G171" s="31"/>
       <c r="H171" s="66"/>
       <c r="I171" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J171" s="66"/>
       <c r="K171" s="66"/>
       <c r="L171" s="66"/>
     </row>
-    <row r="172" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="113">
         <v>160</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D172" s="130" t="s">
+        <v>301</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E172" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="F172" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G172" s="31"/>
       <c r="H172" s="66"/>
       <c r="I172" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J172" s="66"/>
       <c r="K172" s="66"/>
       <c r="L172" s="66"/>
     </row>
-    <row r="173" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="113">
         <v>161</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D173" s="130" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F173" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G173" s="31"/>
       <c r="H173" s="66"/>
       <c r="I173" s="66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J173" s="66"/>
       <c r="K173" s="66"/>
       <c r="L173" s="66"/>
     </row>
-    <row r="174" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="113">
         <v>162</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D174" s="130" t="s">
+        <v>304</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E174" s="2" t="s">
-        <v>306</v>
-      </c>
       <c r="F174" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G174" s="31"/>
       <c r="H174" s="66"/>
       <c r="I174" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J174" s="66"/>
       <c r="K174" s="66"/>
       <c r="L174" s="66"/>
     </row>
-    <row r="175" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="113">
         <v>163</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D175" s="130" t="s">
+        <v>306</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E175" s="2" t="s">
-        <v>308</v>
-      </c>
       <c r="F175" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G175" s="31"/>
       <c r="H175" s="66"/>
       <c r="I175" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J175" s="66"/>
       <c r="K175" s="66"/>
       <c r="L175" s="66"/>
     </row>
-    <row r="176" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="113">
         <v>164</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D176" s="130" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F176" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G176" s="47"/>
       <c r="H176" s="66"/>
       <c r="I176" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J176" s="66"/>
       <c r="K176" s="66"/>
       <c r="L176" s="66"/>
     </row>
-    <row r="177" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="113">
         <v>165</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D177" s="130" t="s">
+        <v>309</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E177" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="F177" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G177" s="31"/>
       <c r="H177" s="66"/>
       <c r="I177" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J177" s="66"/>
       <c r="K177" s="66"/>
       <c r="L177" s="66"/>
     </row>
-    <row r="178" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="113">
         <v>166</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D178" s="130" t="s">
+        <v>311</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E178" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="F178" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G178" s="31"/>
       <c r="H178" s="66"/>
       <c r="I178" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J178" s="66"/>
       <c r="K178" s="66"/>
       <c r="L178" s="66"/>
     </row>
-    <row r="179" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="113">
         <v>167</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D179" s="130" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F179" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G179" s="31"/>
       <c r="H179" s="66"/>
       <c r="I179" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J179" s="66"/>
       <c r="K179" s="66"/>
       <c r="L179" s="66"/>
     </row>
-    <row r="180" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="113">
         <v>168</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D180" s="130" t="s">
+        <v>314</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E180" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="F180" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G180" s="31"/>
       <c r="H180" s="66"/>
       <c r="I180" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J180" s="66"/>
       <c r="K180" s="66"/>
       <c r="L180" s="66"/>
     </row>
-    <row r="181" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="113">
         <v>169</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D181" s="130" t="s">
+        <v>316</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E181" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="F181" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G181" s="31"/>
       <c r="H181" s="66"/>
       <c r="I181" s="66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J181" s="66"/>
       <c r="K181" s="66"/>
       <c r="L181" s="66"/>
     </row>
-    <row r="182" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="113">
         <v>170</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D182" s="130" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F182" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G182" s="31"/>
       <c r="H182" s="66"/>
       <c r="I182" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J182" s="66"/>
       <c r="K182" s="66"/>
       <c r="L182" s="66"/>
     </row>
-    <row r="183" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="113">
         <v>171</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D183" s="130" t="s">
+        <v>319</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E183" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="F183" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G183" s="31"/>
       <c r="H183" s="66"/>
       <c r="I183" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J183" s="66"/>
       <c r="K183" s="66"/>
       <c r="L183" s="66"/>
     </row>
-    <row r="184" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="113">
         <v>172</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D184" s="130" t="s">
+        <v>321</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="E184" s="2" t="s">
-        <v>323</v>
-      </c>
       <c r="F184" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G184" s="47"/>
       <c r="H184" s="66"/>
       <c r="I184" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J184" s="66"/>
       <c r="K184" s="66"/>
       <c r="L184" s="66"/>
     </row>
-    <row r="185" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="113">
         <v>173</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D185" s="130" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F185" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G185" s="47"/>
       <c r="H185" s="66"/>
       <c r="I185" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J185" s="66"/>
       <c r="K185" s="66"/>
       <c r="L185" s="66"/>
     </row>
-    <row r="186" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="113">
         <v>174</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D186" s="130" t="s">
+        <v>324</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="E186" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="F186" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G186" s="47"/>
       <c r="H186" s="66"/>
       <c r="I186" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J186" s="66"/>
       <c r="K186" s="66"/>
       <c r="L186" s="66"/>
     </row>
-    <row r="187" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="113">
         <v>175</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D187" s="130" t="s">
+        <v>326</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E187" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="F187" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G187" s="47"/>
       <c r="H187" s="66"/>
       <c r="I187" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J187" s="66"/>
       <c r="K187" s="66"/>
       <c r="L187" s="66"/>
     </row>
-    <row r="188" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="113">
         <v>176</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D188" s="130" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F188" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G188" s="47"/>
       <c r="H188" s="66"/>
       <c r="I188" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J188" s="66"/>
       <c r="K188" s="66"/>
       <c r="L188" s="66"/>
     </row>
-    <row r="189" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="113">
         <v>177</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D189" s="130" t="s">
+        <v>329</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="E189" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="F189" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G189" s="47"/>
       <c r="H189" s="67"/>
       <c r="I189" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J189" s="66"/>
       <c r="K189" s="66"/>
       <c r="L189" s="66"/>
     </row>
-    <row r="190" spans="1:12" s="83" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:12" s="83" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="114">
         <v>178</v>
       </c>
       <c r="B190" s="88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C190" s="88" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D190" s="139" t="s">
+        <v>331</v>
+      </c>
+      <c r="E190" s="86" t="s">
         <v>332</v>
       </c>
-      <c r="E190" s="86" t="s">
-        <v>333</v>
-      </c>
       <c r="F190" s="87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G190" s="96"/>
       <c r="H190" s="64"/>
       <c r="I190" s="64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J190" s="68"/>
       <c r="K190" s="68"/>
       <c r="L190" s="68"/>
     </row>
-    <row r="191" spans="1:12" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A191" s="113">
         <v>179</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D191" s="130" t="s">
+        <v>338</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E191" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="F191" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G191" s="47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H191" s="66"/>
       <c r="I191" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J191" s="66"/>
       <c r="K191" s="66"/>
       <c r="L191" s="66"/>
     </row>
-    <row r="192" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="113">
         <v>180</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D192" s="130" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F192" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G192" s="31"/>
       <c r="H192" s="66"/>
       <c r="I192" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J192" s="66"/>
       <c r="K192" s="66"/>
       <c r="L192" s="66"/>
     </row>
-    <row r="193" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="113">
         <v>181</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D193" s="130" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F193" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G193" s="31"/>
       <c r="H193" s="66"/>
       <c r="I193" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J193" s="66"/>
       <c r="K193" s="66"/>
       <c r="L193" s="66"/>
     </row>
-    <row r="194" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="113">
         <v>182</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D194" s="130" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F194" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G194" s="31"/>
       <c r="H194" s="66"/>
       <c r="I194" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J194" s="66"/>
       <c r="K194" s="66"/>
       <c r="L194" s="66"/>
     </row>
-    <row r="195" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="113">
         <v>183</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D195" s="130" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F195" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G195" s="31"/>
       <c r="H195" s="66"/>
       <c r="I195" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J195" s="66"/>
       <c r="K195" s="66"/>
       <c r="L195" s="66"/>
     </row>
-    <row r="196" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="113">
         <v>184</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D196" s="130" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F196" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G196" s="31"/>
       <c r="H196" s="66"/>
       <c r="I196" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J196" s="66"/>
       <c r="K196" s="66"/>
       <c r="L196" s="66"/>
     </row>
-    <row r="197" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="113">
         <v>185</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D197" s="130" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F197" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G197" s="31"/>
       <c r="H197" s="66"/>
       <c r="I197" s="66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J197" s="66"/>
       <c r="K197" s="66"/>
       <c r="L197" s="66"/>
     </row>
-    <row r="198" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="113">
         <v>186</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D198" s="130" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F198" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G198" s="31"/>
       <c r="H198" s="66"/>
       <c r="I198" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J198" s="66"/>
       <c r="K198" s="66"/>
       <c r="L198" s="66"/>
     </row>
-    <row r="199" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="113">
         <v>187</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D199" s="130" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F199" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G199" s="31"/>
       <c r="H199" s="66"/>
       <c r="I199" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J199" s="66"/>
       <c r="K199" s="66"/>
       <c r="L199" s="66"/>
     </row>
-    <row r="200" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="113">
         <v>188</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D200" s="130" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F200" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G200" s="47"/>
       <c r="H200" s="66"/>
       <c r="I200" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J200" s="66"/>
       <c r="K200" s="66"/>
       <c r="L200" s="66"/>
     </row>
-    <row r="201" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="113">
         <v>189</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D201" s="130" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F201" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G201" s="31"/>
       <c r="H201" s="66"/>
       <c r="I201" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J201" s="66"/>
       <c r="K201" s="66"/>
       <c r="L201" s="66"/>
     </row>
-    <row r="202" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="113">
         <v>190</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D202" s="130" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F202" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G202" s="31"/>
       <c r="H202" s="66"/>
       <c r="I202" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J202" s="66"/>
       <c r="K202" s="66"/>
       <c r="L202" s="66"/>
     </row>
-    <row r="203" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="113">
         <v>191</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D203" s="130" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F203" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G203" s="31"/>
       <c r="H203" s="66"/>
       <c r="I203" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J203" s="66"/>
       <c r="K203" s="66"/>
       <c r="L203" s="66"/>
     </row>
-    <row r="204" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="113">
         <v>192</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D204" s="130" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F204" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G204" s="31"/>
       <c r="H204" s="66"/>
       <c r="I204" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J204" s="66"/>
       <c r="K204" s="66"/>
       <c r="L204" s="66"/>
     </row>
-    <row r="205" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="113">
         <v>193</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D205" s="130" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F205" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G205" s="31"/>
       <c r="H205" s="66"/>
       <c r="I205" s="66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J205" s="66"/>
       <c r="K205" s="66"/>
       <c r="L205" s="66"/>
     </row>
-    <row r="206" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="113">
         <v>194</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D206" s="130" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F206" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G206" s="31"/>
       <c r="H206" s="66"/>
       <c r="I206" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J206" s="66"/>
       <c r="K206" s="66"/>
       <c r="L206" s="66"/>
     </row>
-    <row r="207" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="113">
         <v>195</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D207" s="130" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F207" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G207" s="31"/>
       <c r="H207" s="66"/>
       <c r="I207" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J207" s="66"/>
       <c r="K207" s="66"/>
       <c r="L207" s="66"/>
     </row>
-    <row r="208" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="113">
         <v>196</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D208" s="130" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F208" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G208" s="47"/>
       <c r="H208" s="66"/>
       <c r="I208" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J208" s="66"/>
       <c r="K208" s="66"/>
       <c r="L208" s="66"/>
     </row>
-    <row r="209" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="113">
         <v>197</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D209" s="130" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F209" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G209" s="47"/>
       <c r="H209" s="66"/>
       <c r="I209" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J209" s="66"/>
       <c r="K209" s="66"/>
       <c r="L209" s="66"/>
     </row>
-    <row r="210" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="113">
         <v>198</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D210" s="130" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F210" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G210" s="47"/>
       <c r="H210" s="66"/>
       <c r="I210" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J210" s="66"/>
       <c r="K210" s="66"/>
       <c r="L210" s="66"/>
     </row>
-    <row r="211" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="113">
         <v>199</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D211" s="130" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F211" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G211" s="47"/>
       <c r="H211" s="66"/>
       <c r="I211" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J211" s="66"/>
       <c r="K211" s="66"/>
       <c r="L211" s="66"/>
     </row>
-    <row r="212" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="113">
         <v>200</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D212" s="130" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F212" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G212" s="47"/>
       <c r="H212" s="66"/>
       <c r="I212" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J212" s="66"/>
       <c r="K212" s="66"/>
       <c r="L212" s="66"/>
     </row>
-    <row r="213" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="113">
         <v>201</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D213" s="130" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F213" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G213" s="47"/>
       <c r="H213" s="67"/>
       <c r="I213" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J213" s="66"/>
       <c r="K213" s="66"/>
       <c r="L213" s="66"/>
     </row>
-    <row r="214" spans="1:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:12" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="114">
         <v>202</v>
       </c>
       <c r="B214" s="88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C214" s="88" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D214" s="139" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E214" s="86" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F214" s="87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G214" s="96"/>
       <c r="H214" s="64"/>
       <c r="I214" s="64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J214" s="68"/>
       <c r="K214" s="68"/>
       <c r="L214" s="68"/>
     </row>
-    <row r="215" spans="1:12" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A215" s="113">
         <v>203</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D215" s="130" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F215" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G215" s="47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H215" s="66"/>
       <c r="I215" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J215" s="66"/>
       <c r="K215" s="66"/>
       <c r="L215" s="66"/>
     </row>
-    <row r="216" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="113">
         <v>204</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D216" s="130" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F216" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G216" s="31"/>
       <c r="H216" s="66"/>
       <c r="I216" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J216" s="66"/>
       <c r="K216" s="66"/>
       <c r="L216" s="66"/>
     </row>
-    <row r="217" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="113">
         <v>205</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D217" s="130" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F217" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G217" s="31"/>
       <c r="H217" s="66"/>
       <c r="I217" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J217" s="66"/>
       <c r="K217" s="66"/>
       <c r="L217" s="66"/>
     </row>
-    <row r="218" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="113">
         <v>206</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D218" s="130" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F218" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G218" s="31"/>
       <c r="H218" s="66"/>
       <c r="I218" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J218" s="66"/>
       <c r="K218" s="66"/>
       <c r="L218" s="66"/>
     </row>
-    <row r="219" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="113">
         <v>207</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D219" s="130" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F219" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G219" s="31"/>
       <c r="H219" s="66"/>
       <c r="I219" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J219" s="66"/>
       <c r="K219" s="66"/>
       <c r="L219" s="66"/>
     </row>
-    <row r="220" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="113">
         <v>208</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D220" s="130" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F220" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G220" s="31"/>
       <c r="H220" s="66"/>
       <c r="I220" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J220" s="66"/>
       <c r="K220" s="66"/>
       <c r="L220" s="66"/>
     </row>
-    <row r="221" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="113">
         <v>209</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D221" s="130" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F221" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G221" s="31"/>
       <c r="H221" s="66"/>
       <c r="I221" s="66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J221" s="66"/>
       <c r="K221" s="66"/>
       <c r="L221" s="66"/>
     </row>
-    <row r="222" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="113">
         <v>210</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D222" s="130" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F222" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G222" s="31"/>
       <c r="H222" s="66"/>
       <c r="I222" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J222" s="66"/>
       <c r="K222" s="66"/>
       <c r="L222" s="66"/>
     </row>
-    <row r="223" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="113">
         <v>211</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D223" s="130" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F223" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G223" s="31"/>
       <c r="H223" s="66"/>
       <c r="I223" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J223" s="66"/>
       <c r="K223" s="66"/>
       <c r="L223" s="66"/>
     </row>
-    <row r="224" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="113">
         <v>212</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D224" s="130" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F224" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G224" s="47"/>
       <c r="H224" s="66"/>
       <c r="I224" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J224" s="66"/>
       <c r="K224" s="66"/>
       <c r="L224" s="66"/>
     </row>
-    <row r="225" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="113">
         <v>213</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D225" s="130" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F225" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G225" s="31"/>
       <c r="H225" s="66"/>
       <c r="I225" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J225" s="66"/>
       <c r="K225" s="66"/>
       <c r="L225" s="66"/>
     </row>
-    <row r="226" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="113">
         <v>214</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D226" s="130" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F226" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G226" s="31"/>
       <c r="H226" s="66"/>
       <c r="I226" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J226" s="66"/>
       <c r="K226" s="66"/>
       <c r="L226" s="66"/>
     </row>
-    <row r="227" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="113">
         <v>215</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D227" s="130" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F227" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G227" s="31"/>
       <c r="H227" s="66"/>
       <c r="I227" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J227" s="66"/>
       <c r="K227" s="66"/>
       <c r="L227" s="66"/>
     </row>
-    <row r="228" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="113">
         <v>216</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D228" s="130" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F228" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G228" s="31"/>
       <c r="H228" s="66"/>
       <c r="I228" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J228" s="66"/>
       <c r="K228" s="66"/>
       <c r="L228" s="66"/>
     </row>
-    <row r="229" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="113">
         <v>217</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D229" s="130" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F229" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G229" s="31"/>
       <c r="H229" s="66"/>
       <c r="I229" s="66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J229" s="66"/>
       <c r="K229" s="66"/>
       <c r="L229" s="66"/>
     </row>
-    <row r="230" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="113">
         <v>218</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D230" s="130" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F230" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G230" s="31"/>
       <c r="H230" s="66"/>
       <c r="I230" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J230" s="66"/>
       <c r="K230" s="66"/>
       <c r="L230" s="66"/>
     </row>
-    <row r="231" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="113">
         <v>219</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D231" s="130" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F231" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G231" s="31"/>
       <c r="H231" s="66"/>
       <c r="I231" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J231" s="66"/>
       <c r="K231" s="66"/>
       <c r="L231" s="66"/>
     </row>
-    <row r="232" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="113">
         <v>220</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D232" s="130" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F232" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G232" s="47"/>
       <c r="H232" s="66"/>
       <c r="I232" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J232" s="66"/>
       <c r="K232" s="66"/>
       <c r="L232" s="66"/>
     </row>
-    <row r="233" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="113">
         <v>221</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D233" s="130" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F233" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G233" s="47"/>
       <c r="H233" s="66"/>
       <c r="I233" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J233" s="66"/>
       <c r="K233" s="66"/>
       <c r="L233" s="66"/>
     </row>
-    <row r="234" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="113">
         <v>222</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D234" s="130" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F234" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G234" s="47"/>
       <c r="H234" s="66"/>
       <c r="I234" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J234" s="66"/>
       <c r="K234" s="66"/>
       <c r="L234" s="66"/>
     </row>
-    <row r="235" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="113">
         <v>223</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D235" s="130" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F235" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G235" s="47"/>
       <c r="H235" s="66"/>
       <c r="I235" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J235" s="66"/>
       <c r="K235" s="66"/>
       <c r="L235" s="66"/>
     </row>
-    <row r="236" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="113">
         <v>224</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D236" s="130" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F236" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G236" s="47"/>
       <c r="H236" s="66"/>
       <c r="I236" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J236" s="66"/>
       <c r="K236" s="66"/>
       <c r="L236" s="66"/>
     </row>
-    <row r="237" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="113">
         <v>225</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D237" s="130" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F237" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G237" s="47"/>
       <c r="H237" s="67"/>
       <c r="I237" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J237" s="66"/>
       <c r="K237" s="66"/>
       <c r="L237" s="66"/>
     </row>
-    <row r="238" spans="1:12" s="26" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:12" s="26" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="115">
         <v>226</v>
       </c>
       <c r="B238" s="106" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C238" s="106" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D238" s="140" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E238" s="89" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F238" s="90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G238" s="97"/>
       <c r="H238" s="65"/>
       <c r="I238" s="65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J238" s="69"/>
       <c r="K238" s="69"/>

--- a/dataland-framework-toolbox/inputs/eu-taxonomy-financials/eu-taxonomy-financials.xlsx
+++ b/dataland-framework-toolbox/inputs/eu-taxonomy-financials/eu-taxonomy-financials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dataland\dataland\dataland-framework-toolbox\inputs\eu-taxonomy-financials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92582\Documents\Dataland\Dataland\dataland-framework-toolbox\inputs\eu-taxonomy-financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4507D023-6539-407B-87D8-3DBB44A1B5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9076012F-4300-4E6F-A85C-9CC34911F37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57490" yWindow="-10800" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="457">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -1428,6 +1428,15 @@
   </si>
   <si>
     <t>The date the fiscal year ends.</t>
+  </si>
+  <si>
+    <t>Include Category in Type Name</t>
+  </si>
+  <si>
+    <t>Include Sub-Category in Type Name</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -2917,24 +2926,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L238"/>
+  <dimension ref="A1:N238"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="71.5703125" customWidth="1"/>
-    <col min="4" max="4" width="95.140625" customWidth="1"/>
-    <col min="5" max="5" width="78.85546875" customWidth="1"/>
-    <col min="6" max="6" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="123.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="92" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
@@ -2971,8 +2986,14 @@
       <c r="L1" s="91" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="91" t="s">
+        <v>454</v>
+      </c>
+      <c r="N1" s="91" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="108">
         <v>1</v>
       </c>
@@ -3001,8 +3022,10 @@
       <c r="J2" s="34"/>
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="108">
         <v>2</v>
       </c>
@@ -3031,8 +3054,10 @@
       <c r="J3" s="33"/>
       <c r="K3" s="33"/>
       <c r="L3" s="34"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="108">
         <v>3</v>
       </c>
@@ -3059,8 +3084,10 @@
       <c r="J4" s="34"/>
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="108">
         <v>4</v>
       </c>
@@ -3089,8 +3116,10 @@
       <c r="J5" s="34"/>
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="108">
         <v>5</v>
       </c>
@@ -3119,8 +3148,10 @@
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="108">
         <v>6</v>
       </c>
@@ -3147,8 +3178,10 @@
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="109">
         <v>7</v>
       </c>
@@ -3175,8 +3208,10 @@
       <c r="J8" s="41"/>
       <c r="K8" s="41"/>
       <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="73">
         <v>8</v>
       </c>
@@ -3205,8 +3240,14 @@
       <c r="J9" s="34"/>
       <c r="K9" s="34"/>
       <c r="L9" s="42"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="42" t="s">
+        <v>456</v>
+      </c>
+      <c r="N9" s="42" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="73">
         <v>9</v>
       </c>
@@ -3235,8 +3276,14 @@
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N10" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="73">
         <v>9.1</v>
       </c>
@@ -3265,8 +3312,14 @@
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N11" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
         <v>105</v>
       </c>
@@ -3295,8 +3348,14 @@
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
       <c r="L12" s="42"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="42" t="s">
+        <v>456</v>
+      </c>
+      <c r="N12" s="42" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="72" t="s">
         <v>106</v>
       </c>
@@ -3325,8 +3384,14 @@
       <c r="J13" s="34"/>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M13" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N13" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="110" t="s">
         <v>107</v>
       </c>
@@ -3355,8 +3420,14 @@
       <c r="J14" s="41"/>
       <c r="K14" s="41"/>
       <c r="L14" s="41"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="41" t="s">
+        <v>456</v>
+      </c>
+      <c r="N14" s="41" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="72">
         <v>10</v>
       </c>
@@ -3383,8 +3454,14 @@
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N15" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="72">
         <v>10.1</v>
       </c>
@@ -3411,8 +3488,14 @@
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N16" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="72" t="s">
         <v>108</v>
       </c>
@@ -3439,8 +3522,14 @@
       <c r="J17" s="34"/>
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N17" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="72" t="s">
         <v>109</v>
       </c>
@@ -3467,8 +3556,14 @@
       <c r="J18" s="34"/>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N18" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="72" t="s">
         <v>110</v>
       </c>
@@ -3495,8 +3590,14 @@
       <c r="J19" s="34"/>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N19" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="72">
         <v>11</v>
       </c>
@@ -3523,8 +3624,14 @@
       <c r="J20" s="34"/>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N20" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="72">
         <v>11.1</v>
       </c>
@@ -3551,8 +3658,14 @@
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N21" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="72" t="s">
         <v>111</v>
       </c>
@@ -3579,8 +3692,14 @@
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N22" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="72" t="s">
         <v>112</v>
       </c>
@@ -3607,8 +3726,14 @@
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N23" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="72" t="s">
         <v>175</v>
       </c>
@@ -3635,8 +3760,14 @@
       <c r="J24" s="34"/>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N24" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="72">
         <v>12</v>
       </c>
@@ -3663,8 +3794,14 @@
       <c r="J25" s="34"/>
       <c r="K25" s="34"/>
       <c r="L25" s="34"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N25" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="72">
         <v>12.1</v>
       </c>
@@ -3691,8 +3828,14 @@
       <c r="J26" s="34"/>
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N26" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="72" t="s">
         <v>113</v>
       </c>
@@ -3719,8 +3862,14 @@
       <c r="J27" s="34"/>
       <c r="K27" s="34"/>
       <c r="L27" s="34"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N27" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="72" t="s">
         <v>114</v>
       </c>
@@ -3747,8 +3896,14 @@
       <c r="J28" s="34"/>
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N28" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="72">
         <v>13</v>
       </c>
@@ -3775,8 +3930,14 @@
       <c r="J29" s="34"/>
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N29" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="72">
         <v>13.1</v>
       </c>
@@ -3803,8 +3964,14 @@
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N30" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="72" t="s">
         <v>115</v>
       </c>
@@ -3831,8 +3998,14 @@
       <c r="J31" s="34"/>
       <c r="K31" s="34"/>
       <c r="L31" s="34"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N31" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="72" t="s">
         <v>116</v>
       </c>
@@ -3859,8 +4032,14 @@
       <c r="J32" s="34"/>
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N32" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="72">
         <v>14</v>
       </c>
@@ -3887,8 +4066,14 @@
       <c r="J33" s="34"/>
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N33" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="72">
         <v>14.1</v>
       </c>
@@ -3915,8 +4100,14 @@
       <c r="J34" s="34"/>
       <c r="K34" s="34"/>
       <c r="L34" s="34"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N34" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="72" t="s">
         <v>117</v>
       </c>
@@ -3943,8 +4134,14 @@
       <c r="J35" s="34"/>
       <c r="K35" s="34"/>
       <c r="L35" s="34"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N35" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="72" t="s">
         <v>118</v>
       </c>
@@ -3971,8 +4168,14 @@
       <c r="J36" s="34"/>
       <c r="K36" s="34"/>
       <c r="L36" s="34"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N36" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="72">
         <v>15</v>
       </c>
@@ -3999,8 +4202,14 @@
       <c r="J37" s="34"/>
       <c r="K37" s="34"/>
       <c r="L37" s="34"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N37" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="72">
         <v>15.1</v>
       </c>
@@ -4027,8 +4236,14 @@
       <c r="J38" s="34"/>
       <c r="K38" s="34"/>
       <c r="L38" s="34"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N38" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
         <v>119</v>
       </c>
@@ -4055,8 +4270,14 @@
       <c r="J39" s="45"/>
       <c r="K39" s="45"/>
       <c r="L39" s="45"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" s="45" t="s">
+        <v>456</v>
+      </c>
+      <c r="N39" s="45" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="72" t="s">
         <v>120</v>
       </c>
@@ -4083,8 +4304,14 @@
       <c r="J40" s="46"/>
       <c r="K40" s="46"/>
       <c r="L40" s="46"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" s="46" t="s">
+        <v>456</v>
+      </c>
+      <c r="N40" s="46" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="72">
         <v>16</v>
       </c>
@@ -4111,8 +4338,14 @@
       <c r="J41" s="34"/>
       <c r="K41" s="34"/>
       <c r="L41" s="34"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N41" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="72">
         <v>16.100000000000001</v>
       </c>
@@ -4139,8 +4372,14 @@
       <c r="J42" s="34"/>
       <c r="K42" s="34"/>
       <c r="L42" s="34"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N42" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
         <v>121</v>
       </c>
@@ -4167,8 +4406,14 @@
       <c r="J43" s="45"/>
       <c r="K43" s="45"/>
       <c r="L43" s="45"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" s="45" t="s">
+        <v>456</v>
+      </c>
+      <c r="N43" s="45" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="43" t="s">
         <v>122</v>
       </c>
@@ -4195,8 +4440,14 @@
       <c r="J44" s="46"/>
       <c r="K44" s="46"/>
       <c r="L44" s="46"/>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M44" s="46" t="s">
+        <v>456</v>
+      </c>
+      <c r="N44" s="46" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="111" t="s">
         <v>159</v>
       </c>
@@ -4223,8 +4474,14 @@
       <c r="J45" s="50"/>
       <c r="K45" s="50"/>
       <c r="L45" s="50"/>
-    </row>
-    <row r="46" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M45" s="50" t="s">
+        <v>456</v>
+      </c>
+      <c r="N45" s="50" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A46" s="72">
         <v>20</v>
       </c>
@@ -4251,8 +4508,14 @@
       <c r="J46" s="34"/>
       <c r="K46" s="34"/>
       <c r="L46" s="34"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N46" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="72">
         <v>20.100000000000001</v>
       </c>
@@ -4279,8 +4542,14 @@
       <c r="J47" s="34"/>
       <c r="K47" s="34"/>
       <c r="L47" s="34"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N47" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="72" t="s">
         <v>129</v>
       </c>
@@ -4307,8 +4576,14 @@
       <c r="J48" s="34"/>
       <c r="K48" s="34"/>
       <c r="L48" s="34"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N48" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="72" t="s">
         <v>130</v>
       </c>
@@ -4335,8 +4610,14 @@
       <c r="J49" s="34"/>
       <c r="K49" s="34"/>
       <c r="L49" s="34"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N49" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="72" t="s">
         <v>131</v>
       </c>
@@ -4363,8 +4644,14 @@
       <c r="J50" s="34"/>
       <c r="K50" s="34"/>
       <c r="L50" s="34"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N50" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="72">
         <v>21</v>
       </c>
@@ -4391,8 +4678,14 @@
       <c r="J51" s="34"/>
       <c r="K51" s="34"/>
       <c r="L51" s="34"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N51" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="72">
         <v>21.1</v>
       </c>
@@ -4419,8 +4712,14 @@
       <c r="J52" s="34"/>
       <c r="K52" s="34"/>
       <c r="L52" s="34"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N52" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="72" t="s">
         <v>132</v>
       </c>
@@ -4447,8 +4746,14 @@
       <c r="J53" s="34"/>
       <c r="K53" s="34"/>
       <c r="L53" s="34"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N53" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="72" t="s">
         <v>133</v>
       </c>
@@ -4475,8 +4780,14 @@
       <c r="J54" s="34"/>
       <c r="K54" s="34"/>
       <c r="L54" s="34"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N54" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="72" t="s">
         <v>178</v>
       </c>
@@ -4503,8 +4814,14 @@
       <c r="J55" s="34"/>
       <c r="K55" s="34"/>
       <c r="L55" s="34"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N55" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="72">
         <v>22</v>
       </c>
@@ -4531,8 +4848,14 @@
       <c r="J56" s="34"/>
       <c r="K56" s="34"/>
       <c r="L56" s="34"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N56" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="72">
         <v>22.1</v>
       </c>
@@ -4559,8 +4882,14 @@
       <c r="J57" s="34"/>
       <c r="K57" s="34"/>
       <c r="L57" s="34"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N57" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="72" t="s">
         <v>134</v>
       </c>
@@ -4587,8 +4916,14 @@
       <c r="J58" s="34"/>
       <c r="K58" s="34"/>
       <c r="L58" s="34"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N58" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="72" t="s">
         <v>135</v>
       </c>
@@ -4615,8 +4950,14 @@
       <c r="J59" s="34"/>
       <c r="K59" s="34"/>
       <c r="L59" s="34"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N59" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="72">
         <v>23</v>
       </c>
@@ -4643,8 +4984,14 @@
       <c r="J60" s="34"/>
       <c r="K60" s="34"/>
       <c r="L60" s="34"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N60" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="72">
         <v>23.1</v>
       </c>
@@ -4671,8 +5018,14 @@
       <c r="J61" s="34"/>
       <c r="K61" s="34"/>
       <c r="L61" s="34"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N61" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="72" t="s">
         <v>136</v>
       </c>
@@ -4699,8 +5052,14 @@
       <c r="J62" s="34"/>
       <c r="K62" s="34"/>
       <c r="L62" s="34"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N62" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="72" t="s">
         <v>137</v>
       </c>
@@ -4727,8 +5086,14 @@
       <c r="J63" s="34"/>
       <c r="K63" s="34"/>
       <c r="L63" s="34"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N63" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="72">
         <v>24</v>
       </c>
@@ -4755,8 +5120,14 @@
       <c r="J64" s="34"/>
       <c r="K64" s="34"/>
       <c r="L64" s="34"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N64" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="72">
         <v>24.1</v>
       </c>
@@ -4783,8 +5154,14 @@
       <c r="J65" s="34"/>
       <c r="K65" s="34"/>
       <c r="L65" s="34"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N65" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="72" t="s">
         <v>138</v>
       </c>
@@ -4811,8 +5188,14 @@
       <c r="J66" s="34"/>
       <c r="K66" s="34"/>
       <c r="L66" s="34"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N66" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="72" t="s">
         <v>139</v>
       </c>
@@ -4839,8 +5222,14 @@
       <c r="J67" s="34"/>
       <c r="K67" s="34"/>
       <c r="L67" s="34"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N67" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="72">
         <v>25</v>
       </c>
@@ -4867,8 +5256,14 @@
       <c r="J68" s="34"/>
       <c r="K68" s="34"/>
       <c r="L68" s="34"/>
-    </row>
-    <row r="69" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M68" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N68" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="72">
         <v>25.1</v>
       </c>
@@ -4895,8 +5290,14 @@
       <c r="J69" s="34"/>
       <c r="K69" s="34"/>
       <c r="L69" s="34"/>
-    </row>
-    <row r="70" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M69" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N69" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="43" t="s">
         <v>140</v>
       </c>
@@ -4923,8 +5324,14 @@
       <c r="J70" s="34"/>
       <c r="K70" s="34"/>
       <c r="L70" s="34"/>
-    </row>
-    <row r="71" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M70" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N70" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="72" t="s">
         <v>141</v>
       </c>
@@ -4951,8 +5358,14 @@
       <c r="J71" s="34"/>
       <c r="K71" s="34"/>
       <c r="L71" s="34"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N71" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="72">
         <v>26</v>
       </c>
@@ -4979,8 +5392,14 @@
       <c r="J72" s="34"/>
       <c r="K72" s="34"/>
       <c r="L72" s="34"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N72" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="72">
         <v>26.1</v>
       </c>
@@ -5007,8 +5426,14 @@
       <c r="J73" s="34"/>
       <c r="K73" s="34"/>
       <c r="L73" s="34"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N73" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="43" t="s">
         <v>142</v>
       </c>
@@ -5035,8 +5460,14 @@
       <c r="J74" s="34"/>
       <c r="K74" s="34"/>
       <c r="L74" s="34"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N74" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="72" t="s">
         <v>143</v>
       </c>
@@ -5063,8 +5494,14 @@
       <c r="J75" s="34"/>
       <c r="K75" s="34"/>
       <c r="L75" s="34"/>
-    </row>
-    <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M75" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N75" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="110" t="s">
         <v>144</v>
       </c>
@@ -5091,8 +5528,14 @@
       <c r="J76" s="41"/>
       <c r="K76" s="41"/>
       <c r="L76" s="41"/>
-    </row>
-    <row r="77" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M76" s="41" t="s">
+        <v>456</v>
+      </c>
+      <c r="N76" s="41" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="56">
         <v>65</v>
       </c>
@@ -5119,8 +5562,12 @@
       <c r="J77" s="34"/>
       <c r="K77" s="34"/>
       <c r="L77" s="34"/>
-    </row>
-    <row r="78" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M77" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N77" s="34"/>
+    </row>
+    <row r="78" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="56">
         <v>66</v>
       </c>
@@ -5147,8 +5594,12 @@
       <c r="J78" s="34"/>
       <c r="K78" s="34"/>
       <c r="L78" s="34"/>
-    </row>
-    <row r="79" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M78" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N78" s="34"/>
+    </row>
+    <row r="79" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="56">
         <v>67</v>
       </c>
@@ -5177,8 +5628,12 @@
       <c r="J79" s="34"/>
       <c r="K79" s="34"/>
       <c r="L79" s="34"/>
-    </row>
-    <row r="80" spans="1:12" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M79" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N79" s="34"/>
+    </row>
+    <row r="80" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="112">
         <v>68</v>
       </c>
@@ -5207,8 +5662,12 @@
       <c r="J80" s="85"/>
       <c r="K80" s="85"/>
       <c r="L80" s="85"/>
-    </row>
-    <row r="81" spans="1:12" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M80" s="85" t="s">
+        <v>456</v>
+      </c>
+      <c r="N80" s="85"/>
+    </row>
+    <row r="81" spans="1:14" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A81" s="56">
         <v>69</v>
       </c>
@@ -5235,8 +5694,14 @@
       <c r="J81" s="34"/>
       <c r="K81" s="34"/>
       <c r="L81" s="34"/>
-    </row>
-    <row r="82" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M81" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N81" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="56">
         <v>70</v>
       </c>
@@ -5263,8 +5728,14 @@
       <c r="J82" s="34"/>
       <c r="K82" s="34"/>
       <c r="L82" s="34"/>
-    </row>
-    <row r="83" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M82" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N82" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="56">
         <v>71</v>
       </c>
@@ -5291,8 +5762,14 @@
       <c r="J83" s="34"/>
       <c r="K83" s="34"/>
       <c r="L83" s="34"/>
-    </row>
-    <row r="84" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M83" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N83" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="56">
         <v>72</v>
       </c>
@@ -5319,8 +5796,14 @@
       <c r="J84" s="34"/>
       <c r="K84" s="34"/>
       <c r="L84" s="34"/>
-    </row>
-    <row r="85" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M84" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N84" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="56">
         <v>73</v>
       </c>
@@ -5347,8 +5830,14 @@
       <c r="J85" s="34"/>
       <c r="K85" s="34"/>
       <c r="L85" s="34"/>
-    </row>
-    <row r="86" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M85" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N85" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="56">
         <v>74</v>
       </c>
@@ -5375,8 +5864,14 @@
       <c r="J86" s="34"/>
       <c r="K86" s="34"/>
       <c r="L86" s="34"/>
-    </row>
-    <row r="87" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M86" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N86" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="56">
         <v>75</v>
       </c>
@@ -5403,8 +5898,14 @@
       <c r="J87" s="34"/>
       <c r="K87" s="34"/>
       <c r="L87" s="34"/>
-    </row>
-    <row r="88" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M87" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N87" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="56">
         <v>76</v>
       </c>
@@ -5431,8 +5932,14 @@
       <c r="J88" s="34"/>
       <c r="K88" s="34"/>
       <c r="L88" s="34"/>
-    </row>
-    <row r="89" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M88" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N88" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="56">
         <v>77</v>
       </c>
@@ -5459,8 +5966,14 @@
       <c r="J89" s="34"/>
       <c r="K89" s="34"/>
       <c r="L89" s="34"/>
-    </row>
-    <row r="90" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M89" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N89" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="56">
         <v>78</v>
       </c>
@@ -5487,8 +6000,14 @@
       <c r="J90" s="34"/>
       <c r="K90" s="34"/>
       <c r="L90" s="34"/>
-    </row>
-    <row r="91" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M90" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N90" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="56">
         <v>79</v>
       </c>
@@ -5515,8 +6034,14 @@
       <c r="J91" s="34"/>
       <c r="K91" s="34"/>
       <c r="L91" s="34"/>
-    </row>
-    <row r="92" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M91" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N91" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="56">
         <v>80</v>
       </c>
@@ -5543,8 +6068,14 @@
       <c r="J92" s="45"/>
       <c r="K92" s="45"/>
       <c r="L92" s="45"/>
-    </row>
-    <row r="93" spans="1:12" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M92" s="45" t="s">
+        <v>456</v>
+      </c>
+      <c r="N92" s="45" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="52">
         <v>81</v>
       </c>
@@ -5571,8 +6102,14 @@
       <c r="J93" s="54"/>
       <c r="K93" s="54"/>
       <c r="L93" s="55"/>
-    </row>
-    <row r="94" spans="1:12" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M93" s="55" t="s">
+        <v>456</v>
+      </c>
+      <c r="N93" s="55" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A94" s="56">
         <v>82</v>
       </c>
@@ -5599,8 +6136,14 @@
       <c r="J94" s="57"/>
       <c r="K94" s="57"/>
       <c r="L94" s="57"/>
-    </row>
-    <row r="95" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M94" s="57" t="s">
+        <v>456</v>
+      </c>
+      <c r="N94" s="57" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="56">
         <v>83</v>
       </c>
@@ -5627,8 +6170,14 @@
       <c r="J95" s="58"/>
       <c r="K95" s="58"/>
       <c r="L95" s="58"/>
-    </row>
-    <row r="96" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M95" s="58" t="s">
+        <v>456</v>
+      </c>
+      <c r="N95" s="58" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="56">
         <v>84</v>
       </c>
@@ -5655,8 +6204,14 @@
       <c r="J96" s="58"/>
       <c r="K96" s="58"/>
       <c r="L96" s="58"/>
-    </row>
-    <row r="97" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M96" s="58" t="s">
+        <v>456</v>
+      </c>
+      <c r="N96" s="58" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="56">
         <v>85</v>
       </c>
@@ -5683,8 +6238,14 @@
       <c r="J97" s="58"/>
       <c r="K97" s="58"/>
       <c r="L97" s="58"/>
-    </row>
-    <row r="98" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M97" s="58" t="s">
+        <v>456</v>
+      </c>
+      <c r="N97" s="58" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="56">
         <v>86</v>
       </c>
@@ -5711,8 +6272,14 @@
       <c r="J98" s="58"/>
       <c r="K98" s="58"/>
       <c r="L98" s="58"/>
-    </row>
-    <row r="99" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M98" s="58" t="s">
+        <v>456</v>
+      </c>
+      <c r="N98" s="58" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="56">
         <v>87</v>
       </c>
@@ -5739,8 +6306,14 @@
       <c r="J99" s="58"/>
       <c r="K99" s="58"/>
       <c r="L99" s="58"/>
-    </row>
-    <row r="100" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M99" s="58" t="s">
+        <v>456</v>
+      </c>
+      <c r="N99" s="58" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="56">
         <v>88</v>
       </c>
@@ -5767,8 +6340,14 @@
       <c r="J100" s="58"/>
       <c r="K100" s="58"/>
       <c r="L100" s="58"/>
-    </row>
-    <row r="101" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M100" s="58" t="s">
+        <v>456</v>
+      </c>
+      <c r="N100" s="58" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="56">
         <v>89</v>
       </c>
@@ -5795,8 +6374,14 @@
       <c r="J101" s="58"/>
       <c r="K101" s="58"/>
       <c r="L101" s="58"/>
-    </row>
-    <row r="102" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M101" s="58" t="s">
+        <v>456</v>
+      </c>
+      <c r="N101" s="58" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="56">
         <v>90</v>
       </c>
@@ -5823,8 +6408,14 @@
       <c r="J102" s="58"/>
       <c r="K102" s="58"/>
       <c r="L102" s="58"/>
-    </row>
-    <row r="103" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M102" s="58" t="s">
+        <v>456</v>
+      </c>
+      <c r="N102" s="58" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="56">
         <v>91</v>
       </c>
@@ -5851,8 +6442,14 @@
       <c r="J103" s="58"/>
       <c r="K103" s="58"/>
       <c r="L103" s="58"/>
-    </row>
-    <row r="104" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M103" s="58" t="s">
+        <v>456</v>
+      </c>
+      <c r="N103" s="58" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="56">
         <v>92</v>
       </c>
@@ -5879,8 +6476,14 @@
       <c r="J104" s="58"/>
       <c r="K104" s="58"/>
       <c r="L104" s="58"/>
-    </row>
-    <row r="105" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M104" s="58" t="s">
+        <v>456</v>
+      </c>
+      <c r="N104" s="58" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="56">
         <v>93</v>
       </c>
@@ -5907,8 +6510,14 @@
       <c r="J105" s="58"/>
       <c r="K105" s="58"/>
       <c r="L105" s="58"/>
-    </row>
-    <row r="106" spans="1:12" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M105" s="58" t="s">
+        <v>456</v>
+      </c>
+      <c r="N105" s="58" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="59">
         <v>94</v>
       </c>
@@ -5935,8 +6544,14 @@
       <c r="J106" s="60"/>
       <c r="K106" s="60"/>
       <c r="L106" s="60"/>
-    </row>
-    <row r="107" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M106" s="60" t="s">
+        <v>456</v>
+      </c>
+      <c r="N106" s="60" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="77">
         <v>95</v>
       </c>
@@ -5965,8 +6580,12 @@
       <c r="J107" s="79"/>
       <c r="K107" s="79"/>
       <c r="L107" s="79"/>
-    </row>
-    <row r="108" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M107" s="79" t="s">
+        <v>456</v>
+      </c>
+      <c r="N107" s="79"/>
+    </row>
+    <row r="108" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="75">
         <v>96</v>
       </c>
@@ -5995,8 +6614,12 @@
       <c r="J108" s="62"/>
       <c r="K108" s="62"/>
       <c r="L108" s="62"/>
-    </row>
-    <row r="109" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M108" s="62" t="s">
+        <v>456</v>
+      </c>
+      <c r="N108" s="62"/>
+    </row>
+    <row r="109" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="75">
         <v>97</v>
       </c>
@@ -6025,8 +6648,12 @@
       <c r="J109" s="62"/>
       <c r="K109" s="62"/>
       <c r="L109" s="62"/>
-    </row>
-    <row r="110" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M109" s="62" t="s">
+        <v>456</v>
+      </c>
+      <c r="N109" s="62"/>
+    </row>
+    <row r="110" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="75">
         <v>98</v>
       </c>
@@ -6053,8 +6680,12 @@
       <c r="J110" s="62"/>
       <c r="K110" s="62"/>
       <c r="L110" s="62"/>
-    </row>
-    <row r="111" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M110" s="62" t="s">
+        <v>456</v>
+      </c>
+      <c r="N110" s="62"/>
+    </row>
+    <row r="111" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="75">
         <v>99</v>
       </c>
@@ -6081,8 +6712,12 @@
       <c r="J111" s="62"/>
       <c r="K111" s="62"/>
       <c r="L111" s="62"/>
-    </row>
-    <row r="112" spans="1:12" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M111" s="62" t="s">
+        <v>456</v>
+      </c>
+      <c r="N111" s="62"/>
+    </row>
+    <row r="112" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="52">
         <v>100</v>
       </c>
@@ -6109,8 +6744,12 @@
       <c r="J112" s="81"/>
       <c r="K112" s="81"/>
       <c r="L112" s="81"/>
-    </row>
-    <row r="113" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M112" s="81" t="s">
+        <v>456</v>
+      </c>
+      <c r="N112" s="81"/>
+    </row>
+    <row r="113" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="75">
         <v>101</v>
       </c>
@@ -6137,8 +6776,12 @@
       <c r="J113" s="34"/>
       <c r="K113" s="34"/>
       <c r="L113" s="34"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M113" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N113" s="34"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="75">
         <v>102</v>
       </c>
@@ -6165,8 +6808,12 @@
       <c r="J114" s="34"/>
       <c r="K114" s="34"/>
       <c r="L114" s="34"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M114" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N114" s="34"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="75">
         <v>103</v>
       </c>
@@ -6195,8 +6842,12 @@
       <c r="J115" s="34"/>
       <c r="K115" s="34"/>
       <c r="L115" s="34"/>
-    </row>
-    <row r="116" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M115" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N115" s="34"/>
+    </row>
+    <row r="116" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="52">
         <v>104</v>
       </c>
@@ -6225,8 +6876,12 @@
       <c r="J116" s="85"/>
       <c r="K116" s="85"/>
       <c r="L116" s="85"/>
-    </row>
-    <row r="117" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M116" s="85" t="s">
+        <v>456</v>
+      </c>
+      <c r="N116" s="85"/>
+    </row>
+    <row r="117" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A117" s="61">
         <v>105</v>
       </c>
@@ -6253,8 +6908,14 @@
       <c r="J117" s="62"/>
       <c r="K117" s="62"/>
       <c r="L117" s="62"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M117" s="62" t="s">
+        <v>456</v>
+      </c>
+      <c r="N117" s="62" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="61">
         <v>106</v>
       </c>
@@ -6281,8 +6942,14 @@
       <c r="J118" s="63"/>
       <c r="K118" s="63"/>
       <c r="L118" s="63"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M118" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="N118" s="63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="61">
         <v>107</v>
       </c>
@@ -6309,8 +6976,14 @@
       <c r="J119" s="63"/>
       <c r="K119" s="63"/>
       <c r="L119" s="63"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M119" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="N119" s="63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="61">
         <v>108</v>
       </c>
@@ -6337,8 +7010,14 @@
       <c r="J120" s="63"/>
       <c r="K120" s="63"/>
       <c r="L120" s="63"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M120" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="N120" s="63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="61">
         <v>109</v>
       </c>
@@ -6365,8 +7044,14 @@
       <c r="J121" s="63"/>
       <c r="K121" s="63"/>
       <c r="L121" s="63"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M121" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="N121" s="63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="61">
         <v>110</v>
       </c>
@@ -6393,8 +7078,14 @@
       <c r="J122" s="63"/>
       <c r="K122" s="63"/>
       <c r="L122" s="63"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M122" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="N122" s="63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="61">
         <v>111</v>
       </c>
@@ -6421,8 +7112,14 @@
       <c r="J123" s="63"/>
       <c r="K123" s="63"/>
       <c r="L123" s="63"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M123" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="N123" s="63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="61">
         <v>112</v>
       </c>
@@ -6449,8 +7146,14 @@
       <c r="J124" s="63"/>
       <c r="K124" s="63"/>
       <c r="L124" s="63"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M124" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="N124" s="63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="61">
         <v>113</v>
       </c>
@@ -6477,8 +7180,14 @@
       <c r="J125" s="63"/>
       <c r="K125" s="63"/>
       <c r="L125" s="63"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M125" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="N125" s="63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="61">
         <v>114</v>
       </c>
@@ -6505,8 +7214,14 @@
       <c r="J126" s="63"/>
       <c r="K126" s="63"/>
       <c r="L126" s="63"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M126" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="N126" s="63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="61">
         <v>115</v>
       </c>
@@ -6533,8 +7248,14 @@
       <c r="J127" s="63"/>
       <c r="K127" s="63"/>
       <c r="L127" s="63"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M127" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="N127" s="63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="61">
         <v>116</v>
       </c>
@@ -6561,8 +7282,14 @@
       <c r="J128" s="63"/>
       <c r="K128" s="63"/>
       <c r="L128" s="63"/>
-    </row>
-    <row r="129" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M128" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="N128" s="63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="52">
         <v>117</v>
       </c>
@@ -6589,8 +7316,14 @@
       <c r="J129" s="64"/>
       <c r="K129" s="64"/>
       <c r="L129" s="64"/>
-    </row>
-    <row r="130" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M129" s="64" t="s">
+        <v>456</v>
+      </c>
+      <c r="N129" s="64" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A130" s="61">
         <v>118</v>
       </c>
@@ -6617,8 +7350,14 @@
       <c r="J130" s="62"/>
       <c r="K130" s="62"/>
       <c r="L130" s="62"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M130" s="62" t="s">
+        <v>456</v>
+      </c>
+      <c r="N130" s="62" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="61">
         <v>119</v>
       </c>
@@ -6645,8 +7384,14 @@
       <c r="J131" s="63"/>
       <c r="K131" s="63"/>
       <c r="L131" s="63"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M131" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="N131" s="63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="61">
         <v>120</v>
       </c>
@@ -6673,8 +7418,14 @@
       <c r="J132" s="63"/>
       <c r="K132" s="63"/>
       <c r="L132" s="63"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M132" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="N132" s="63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="61">
         <v>121</v>
       </c>
@@ -6701,8 +7452,14 @@
       <c r="J133" s="63"/>
       <c r="K133" s="63"/>
       <c r="L133" s="63"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M133" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="N133" s="63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="61">
         <v>122</v>
       </c>
@@ -6729,8 +7486,14 @@
       <c r="J134" s="63"/>
       <c r="K134" s="63"/>
       <c r="L134" s="63"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M134" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="N134" s="63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="61">
         <v>123</v>
       </c>
@@ -6757,8 +7520,14 @@
       <c r="J135" s="63"/>
       <c r="K135" s="63"/>
       <c r="L135" s="63"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M135" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="N135" s="63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="61">
         <v>124</v>
       </c>
@@ -6785,8 +7554,14 @@
       <c r="J136" s="63"/>
       <c r="K136" s="63"/>
       <c r="L136" s="63"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M136" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="N136" s="63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="61">
         <v>125</v>
       </c>
@@ -6813,8 +7588,14 @@
       <c r="J137" s="63"/>
       <c r="K137" s="63"/>
       <c r="L137" s="63"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M137" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="N137" s="63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="61">
         <v>126</v>
       </c>
@@ -6841,8 +7622,14 @@
       <c r="J138" s="63"/>
       <c r="K138" s="63"/>
       <c r="L138" s="63"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M138" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="N138" s="63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="61">
         <v>127</v>
       </c>
@@ -6869,8 +7656,14 @@
       <c r="J139" s="63"/>
       <c r="K139" s="63"/>
       <c r="L139" s="63"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M139" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="N139" s="63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="61">
         <v>128</v>
       </c>
@@ -6897,8 +7690,14 @@
       <c r="J140" s="63"/>
       <c r="K140" s="63"/>
       <c r="L140" s="63"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M140" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="N140" s="63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="61">
         <v>129</v>
       </c>
@@ -6925,8 +7724,14 @@
       <c r="J141" s="63"/>
       <c r="K141" s="63"/>
       <c r="L141" s="63"/>
-    </row>
-    <row r="142" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M141" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="N141" s="63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="59">
         <v>130</v>
       </c>
@@ -6953,8 +7758,14 @@
       <c r="J142" s="65"/>
       <c r="K142" s="65"/>
       <c r="L142" s="65"/>
-    </row>
-    <row r="143" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M142" s="65" t="s">
+        <v>456</v>
+      </c>
+      <c r="N142" s="65" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="113">
         <v>131</v>
       </c>
@@ -6983,8 +7794,14 @@
       <c r="J143" s="66"/>
       <c r="K143" s="66"/>
       <c r="L143" s="66"/>
-    </row>
-    <row r="144" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M143" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N143" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="113">
         <v>132</v>
       </c>
@@ -7011,8 +7828,14 @@
       <c r="J144" s="66"/>
       <c r="K144" s="66"/>
       <c r="L144" s="66"/>
-    </row>
-    <row r="145" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M144" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N144" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="113">
         <v>133</v>
       </c>
@@ -7039,8 +7862,14 @@
       <c r="J145" s="66"/>
       <c r="K145" s="66"/>
       <c r="L145" s="66"/>
-    </row>
-    <row r="146" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M145" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N145" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="113">
         <v>134</v>
       </c>
@@ -7067,8 +7896,14 @@
       <c r="J146" s="66"/>
       <c r="K146" s="66"/>
       <c r="L146" s="66"/>
-    </row>
-    <row r="147" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M146" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N146" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="113">
         <v>135</v>
       </c>
@@ -7095,8 +7930,14 @@
       <c r="J147" s="66"/>
       <c r="K147" s="66"/>
       <c r="L147" s="66"/>
-    </row>
-    <row r="148" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M147" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N147" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="113">
         <v>136</v>
       </c>
@@ -7123,8 +7964,14 @@
       <c r="J148" s="66"/>
       <c r="K148" s="66"/>
       <c r="L148" s="66"/>
-    </row>
-    <row r="149" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M148" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N148" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="113">
         <v>137</v>
       </c>
@@ -7151,8 +7998,14 @@
       <c r="J149" s="66"/>
       <c r="K149" s="66"/>
       <c r="L149" s="66"/>
-    </row>
-    <row r="150" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M149" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N149" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="113">
         <v>138</v>
       </c>
@@ -7179,8 +8032,14 @@
       <c r="J150" s="66"/>
       <c r="K150" s="66"/>
       <c r="L150" s="66"/>
-    </row>
-    <row r="151" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M150" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N150" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="113">
         <v>139</v>
       </c>
@@ -7207,8 +8066,14 @@
       <c r="J151" s="66"/>
       <c r="K151" s="66"/>
       <c r="L151" s="66"/>
-    </row>
-    <row r="152" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M151" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N151" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="113">
         <v>140</v>
       </c>
@@ -7235,8 +8100,14 @@
       <c r="J152" s="66"/>
       <c r="K152" s="66"/>
       <c r="L152" s="66"/>
-    </row>
-    <row r="153" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M152" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N152" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="113">
         <v>141</v>
       </c>
@@ -7263,8 +8134,14 @@
       <c r="J153" s="66"/>
       <c r="K153" s="66"/>
       <c r="L153" s="66"/>
-    </row>
-    <row r="154" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M153" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N153" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="113">
         <v>142</v>
       </c>
@@ -7291,8 +8168,14 @@
       <c r="J154" s="66"/>
       <c r="K154" s="66"/>
       <c r="L154" s="66"/>
-    </row>
-    <row r="155" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M154" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N154" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="113">
         <v>143</v>
       </c>
@@ -7319,8 +8202,14 @@
       <c r="J155" s="66"/>
       <c r="K155" s="66"/>
       <c r="L155" s="66"/>
-    </row>
-    <row r="156" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M155" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N155" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="113">
         <v>144</v>
       </c>
@@ -7347,8 +8236,14 @@
       <c r="J156" s="66"/>
       <c r="K156" s="66"/>
       <c r="L156" s="66"/>
-    </row>
-    <row r="157" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M156" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N156" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="113">
         <v>145</v>
       </c>
@@ -7375,8 +8270,14 @@
       <c r="J157" s="66"/>
       <c r="K157" s="66"/>
       <c r="L157" s="66"/>
-    </row>
-    <row r="158" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M157" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N157" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="113">
         <v>146</v>
       </c>
@@ -7403,8 +8304,14 @@
       <c r="J158" s="66"/>
       <c r="K158" s="66"/>
       <c r="L158" s="66"/>
-    </row>
-    <row r="159" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M158" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N158" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="113">
         <v>147</v>
       </c>
@@ -7431,8 +8338,14 @@
       <c r="J159" s="66"/>
       <c r="K159" s="66"/>
       <c r="L159" s="66"/>
-    </row>
-    <row r="160" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M159" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N159" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="113">
         <v>148</v>
       </c>
@@ -7459,8 +8372,14 @@
       <c r="J160" s="66"/>
       <c r="K160" s="66"/>
       <c r="L160" s="66"/>
-    </row>
-    <row r="161" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M160" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N160" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="113">
         <v>149</v>
       </c>
@@ -7487,8 +8406,14 @@
       <c r="J161" s="66"/>
       <c r="K161" s="66"/>
       <c r="L161" s="66"/>
-    </row>
-    <row r="162" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M161" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N161" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="113">
         <v>150</v>
       </c>
@@ -7515,8 +8440,14 @@
       <c r="J162" s="66"/>
       <c r="K162" s="66"/>
       <c r="L162" s="66"/>
-    </row>
-    <row r="163" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M162" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N162" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="113">
         <v>151</v>
       </c>
@@ -7543,8 +8474,14 @@
       <c r="J163" s="66"/>
       <c r="K163" s="66"/>
       <c r="L163" s="66"/>
-    </row>
-    <row r="164" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M163" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N163" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="113">
         <v>152</v>
       </c>
@@ -7571,8 +8508,14 @@
       <c r="J164" s="66"/>
       <c r="K164" s="66"/>
       <c r="L164" s="66"/>
-    </row>
-    <row r="165" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M164" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N164" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="113">
         <v>153</v>
       </c>
@@ -7599,8 +8542,14 @@
       <c r="J165" s="66"/>
       <c r="K165" s="66"/>
       <c r="L165" s="66"/>
-    </row>
-    <row r="166" spans="1:12" s="83" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M165" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N165" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" s="83" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="114">
         <v>154</v>
       </c>
@@ -7627,8 +8576,14 @@
       <c r="J166" s="68"/>
       <c r="K166" s="68"/>
       <c r="L166" s="68"/>
-    </row>
-    <row r="167" spans="1:12" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M166" s="68" t="s">
+        <v>456</v>
+      </c>
+      <c r="N166" s="68" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A167" s="113">
         <v>155</v>
       </c>
@@ -7657,8 +8612,14 @@
       <c r="J167" s="66"/>
       <c r="K167" s="66"/>
       <c r="L167" s="66"/>
-    </row>
-    <row r="168" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M167" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N167" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="113">
         <v>156</v>
       </c>
@@ -7685,8 +8646,14 @@
       <c r="J168" s="66"/>
       <c r="K168" s="66"/>
       <c r="L168" s="66"/>
-    </row>
-    <row r="169" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M168" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N168" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="113">
         <v>157</v>
       </c>
@@ -7713,8 +8680,14 @@
       <c r="J169" s="66"/>
       <c r="K169" s="66"/>
       <c r="L169" s="66"/>
-    </row>
-    <row r="170" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M169" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N169" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="113">
         <v>158</v>
       </c>
@@ -7741,8 +8714,14 @@
       <c r="J170" s="66"/>
       <c r="K170" s="66"/>
       <c r="L170" s="66"/>
-    </row>
-    <row r="171" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M170" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N170" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="113">
         <v>159</v>
       </c>
@@ -7769,8 +8748,14 @@
       <c r="J171" s="66"/>
       <c r="K171" s="66"/>
       <c r="L171" s="66"/>
-    </row>
-    <row r="172" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M171" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N171" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="113">
         <v>160</v>
       </c>
@@ -7797,8 +8782,14 @@
       <c r="J172" s="66"/>
       <c r="K172" s="66"/>
       <c r="L172" s="66"/>
-    </row>
-    <row r="173" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M172" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N172" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="113">
         <v>161</v>
       </c>
@@ -7825,8 +8816,14 @@
       <c r="J173" s="66"/>
       <c r="K173" s="66"/>
       <c r="L173" s="66"/>
-    </row>
-    <row r="174" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M173" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N173" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="113">
         <v>162</v>
       </c>
@@ -7853,8 +8850,14 @@
       <c r="J174" s="66"/>
       <c r="K174" s="66"/>
       <c r="L174" s="66"/>
-    </row>
-    <row r="175" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M174" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N174" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="113">
         <v>163</v>
       </c>
@@ -7881,8 +8884,14 @@
       <c r="J175" s="66"/>
       <c r="K175" s="66"/>
       <c r="L175" s="66"/>
-    </row>
-    <row r="176" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M175" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N175" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="113">
         <v>164</v>
       </c>
@@ -7909,8 +8918,14 @@
       <c r="J176" s="66"/>
       <c r="K176" s="66"/>
       <c r="L176" s="66"/>
-    </row>
-    <row r="177" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M176" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N176" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="113">
         <v>165</v>
       </c>
@@ -7937,8 +8952,14 @@
       <c r="J177" s="66"/>
       <c r="K177" s="66"/>
       <c r="L177" s="66"/>
-    </row>
-    <row r="178" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M177" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N177" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="113">
         <v>166</v>
       </c>
@@ -7965,8 +8986,14 @@
       <c r="J178" s="66"/>
       <c r="K178" s="66"/>
       <c r="L178" s="66"/>
-    </row>
-    <row r="179" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M178" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N178" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="113">
         <v>167</v>
       </c>
@@ -7993,8 +9020,14 @@
       <c r="J179" s="66"/>
       <c r="K179" s="66"/>
       <c r="L179" s="66"/>
-    </row>
-    <row r="180" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M179" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N179" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="113">
         <v>168</v>
       </c>
@@ -8021,8 +9054,14 @@
       <c r="J180" s="66"/>
       <c r="K180" s="66"/>
       <c r="L180" s="66"/>
-    </row>
-    <row r="181" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M180" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N180" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="113">
         <v>169</v>
       </c>
@@ -8049,8 +9088,14 @@
       <c r="J181" s="66"/>
       <c r="K181" s="66"/>
       <c r="L181" s="66"/>
-    </row>
-    <row r="182" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M181" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N181" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="113">
         <v>170</v>
       </c>
@@ -8077,8 +9122,14 @@
       <c r="J182" s="66"/>
       <c r="K182" s="66"/>
       <c r="L182" s="66"/>
-    </row>
-    <row r="183" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M182" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N182" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="113">
         <v>171</v>
       </c>
@@ -8105,8 +9156,14 @@
       <c r="J183" s="66"/>
       <c r="K183" s="66"/>
       <c r="L183" s="66"/>
-    </row>
-    <row r="184" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M183" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N183" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="113">
         <v>172</v>
       </c>
@@ -8133,8 +9190,14 @@
       <c r="J184" s="66"/>
       <c r="K184" s="66"/>
       <c r="L184" s="66"/>
-    </row>
-    <row r="185" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M184" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N184" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="113">
         <v>173</v>
       </c>
@@ -8161,8 +9224,14 @@
       <c r="J185" s="66"/>
       <c r="K185" s="66"/>
       <c r="L185" s="66"/>
-    </row>
-    <row r="186" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M185" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N185" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="113">
         <v>174</v>
       </c>
@@ -8189,8 +9258,14 @@
       <c r="J186" s="66"/>
       <c r="K186" s="66"/>
       <c r="L186" s="66"/>
-    </row>
-    <row r="187" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M186" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N186" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="113">
         <v>175</v>
       </c>
@@ -8217,8 +9292,14 @@
       <c r="J187" s="66"/>
       <c r="K187" s="66"/>
       <c r="L187" s="66"/>
-    </row>
-    <row r="188" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M187" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N187" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="113">
         <v>176</v>
       </c>
@@ -8245,8 +9326,14 @@
       <c r="J188" s="66"/>
       <c r="K188" s="66"/>
       <c r="L188" s="66"/>
-    </row>
-    <row r="189" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M188" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N188" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="113">
         <v>177</v>
       </c>
@@ -8273,8 +9360,14 @@
       <c r="J189" s="66"/>
       <c r="K189" s="66"/>
       <c r="L189" s="66"/>
-    </row>
-    <row r="190" spans="1:12" s="83" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M189" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N189" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" s="83" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="114">
         <v>178</v>
       </c>
@@ -8301,8 +9394,14 @@
       <c r="J190" s="68"/>
       <c r="K190" s="68"/>
       <c r="L190" s="68"/>
-    </row>
-    <row r="191" spans="1:12" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M190" s="68" t="s">
+        <v>456</v>
+      </c>
+      <c r="N190" s="68" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A191" s="113">
         <v>179</v>
       </c>
@@ -8331,8 +9430,14 @@
       <c r="J191" s="66"/>
       <c r="K191" s="66"/>
       <c r="L191" s="66"/>
-    </row>
-    <row r="192" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M191" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N191" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="113">
         <v>180</v>
       </c>
@@ -8359,8 +9464,14 @@
       <c r="J192" s="66"/>
       <c r="K192" s="66"/>
       <c r="L192" s="66"/>
-    </row>
-    <row r="193" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M192" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N192" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="113">
         <v>181</v>
       </c>
@@ -8387,8 +9498,14 @@
       <c r="J193" s="66"/>
       <c r="K193" s="66"/>
       <c r="L193" s="66"/>
-    </row>
-    <row r="194" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M193" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N193" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="113">
         <v>182</v>
       </c>
@@ -8415,8 +9532,14 @@
       <c r="J194" s="66"/>
       <c r="K194" s="66"/>
       <c r="L194" s="66"/>
-    </row>
-    <row r="195" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M194" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N194" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="113">
         <v>183</v>
       </c>
@@ -8443,8 +9566,14 @@
       <c r="J195" s="66"/>
       <c r="K195" s="66"/>
       <c r="L195" s="66"/>
-    </row>
-    <row r="196" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M195" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N195" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="113">
         <v>184</v>
       </c>
@@ -8471,8 +9600,14 @@
       <c r="J196" s="66"/>
       <c r="K196" s="66"/>
       <c r="L196" s="66"/>
-    </row>
-    <row r="197" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M196" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N196" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="113">
         <v>185</v>
       </c>
@@ -8499,8 +9634,14 @@
       <c r="J197" s="66"/>
       <c r="K197" s="66"/>
       <c r="L197" s="66"/>
-    </row>
-    <row r="198" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M197" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N197" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="113">
         <v>186</v>
       </c>
@@ -8527,8 +9668,14 @@
       <c r="J198" s="66"/>
       <c r="K198" s="66"/>
       <c r="L198" s="66"/>
-    </row>
-    <row r="199" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M198" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N198" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="113">
         <v>187</v>
       </c>
@@ -8555,8 +9702,14 @@
       <c r="J199" s="66"/>
       <c r="K199" s="66"/>
       <c r="L199" s="66"/>
-    </row>
-    <row r="200" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M199" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N199" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="113">
         <v>188</v>
       </c>
@@ -8583,8 +9736,14 @@
       <c r="J200" s="66"/>
       <c r="K200" s="66"/>
       <c r="L200" s="66"/>
-    </row>
-    <row r="201" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M200" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N200" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="113">
         <v>189</v>
       </c>
@@ -8611,8 +9770,14 @@
       <c r="J201" s="66"/>
       <c r="K201" s="66"/>
       <c r="L201" s="66"/>
-    </row>
-    <row r="202" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M201" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N201" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="113">
         <v>190</v>
       </c>
@@ -8639,8 +9804,14 @@
       <c r="J202" s="66"/>
       <c r="K202" s="66"/>
       <c r="L202" s="66"/>
-    </row>
-    <row r="203" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M202" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N202" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="113">
         <v>191</v>
       </c>
@@ -8667,8 +9838,14 @@
       <c r="J203" s="66"/>
       <c r="K203" s="66"/>
       <c r="L203" s="66"/>
-    </row>
-    <row r="204" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M203" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N203" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="113">
         <v>192</v>
       </c>
@@ -8695,8 +9872,14 @@
       <c r="J204" s="66"/>
       <c r="K204" s="66"/>
       <c r="L204" s="66"/>
-    </row>
-    <row r="205" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M204" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N204" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="113">
         <v>193</v>
       </c>
@@ -8723,8 +9906,14 @@
       <c r="J205" s="66"/>
       <c r="K205" s="66"/>
       <c r="L205" s="66"/>
-    </row>
-    <row r="206" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M205" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N205" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="113">
         <v>194</v>
       </c>
@@ -8751,8 +9940,14 @@
       <c r="J206" s="66"/>
       <c r="K206" s="66"/>
       <c r="L206" s="66"/>
-    </row>
-    <row r="207" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M206" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N206" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="113">
         <v>195</v>
       </c>
@@ -8779,8 +9974,14 @@
       <c r="J207" s="66"/>
       <c r="K207" s="66"/>
       <c r="L207" s="66"/>
-    </row>
-    <row r="208" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M207" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N207" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="113">
         <v>196</v>
       </c>
@@ -8807,8 +10008,14 @@
       <c r="J208" s="66"/>
       <c r="K208" s="66"/>
       <c r="L208" s="66"/>
-    </row>
-    <row r="209" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M208" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N208" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="113">
         <v>197</v>
       </c>
@@ -8835,8 +10042,14 @@
       <c r="J209" s="66"/>
       <c r="K209" s="66"/>
       <c r="L209" s="66"/>
-    </row>
-    <row r="210" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M209" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N209" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="113">
         <v>198</v>
       </c>
@@ -8863,8 +10076,14 @@
       <c r="J210" s="66"/>
       <c r="K210" s="66"/>
       <c r="L210" s="66"/>
-    </row>
-    <row r="211" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M210" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N210" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="113">
         <v>199</v>
       </c>
@@ -8891,8 +10110,14 @@
       <c r="J211" s="66"/>
       <c r="K211" s="66"/>
       <c r="L211" s="66"/>
-    </row>
-    <row r="212" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M211" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N211" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="113">
         <v>200</v>
       </c>
@@ -8919,8 +10144,14 @@
       <c r="J212" s="66"/>
       <c r="K212" s="66"/>
       <c r="L212" s="66"/>
-    </row>
-    <row r="213" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M212" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N212" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="113">
         <v>201</v>
       </c>
@@ -8947,8 +10178,14 @@
       <c r="J213" s="66"/>
       <c r="K213" s="66"/>
       <c r="L213" s="66"/>
-    </row>
-    <row r="214" spans="1:12" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M213" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N213" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="114">
         <v>202</v>
       </c>
@@ -8975,8 +10212,14 @@
       <c r="J214" s="68"/>
       <c r="K214" s="68"/>
       <c r="L214" s="68"/>
-    </row>
-    <row r="215" spans="1:12" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M214" s="68" t="s">
+        <v>456</v>
+      </c>
+      <c r="N214" s="68" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A215" s="113">
         <v>203</v>
       </c>
@@ -9005,8 +10248,14 @@
       <c r="J215" s="66"/>
       <c r="K215" s="66"/>
       <c r="L215" s="66"/>
-    </row>
-    <row r="216" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M215" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N215" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="113">
         <v>204</v>
       </c>
@@ -9033,8 +10282,14 @@
       <c r="J216" s="66"/>
       <c r="K216" s="66"/>
       <c r="L216" s="66"/>
-    </row>
-    <row r="217" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M216" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N216" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="113">
         <v>205</v>
       </c>
@@ -9061,8 +10316,14 @@
       <c r="J217" s="66"/>
       <c r="K217" s="66"/>
       <c r="L217" s="66"/>
-    </row>
-    <row r="218" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M217" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N217" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="113">
         <v>206</v>
       </c>
@@ -9089,8 +10350,14 @@
       <c r="J218" s="66"/>
       <c r="K218" s="66"/>
       <c r="L218" s="66"/>
-    </row>
-    <row r="219" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M218" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N218" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="113">
         <v>207</v>
       </c>
@@ -9117,8 +10384,14 @@
       <c r="J219" s="66"/>
       <c r="K219" s="66"/>
       <c r="L219" s="66"/>
-    </row>
-    <row r="220" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M219" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N219" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="113">
         <v>208</v>
       </c>
@@ -9145,8 +10418,14 @@
       <c r="J220" s="66"/>
       <c r="K220" s="66"/>
       <c r="L220" s="66"/>
-    </row>
-    <row r="221" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M220" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N220" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="113">
         <v>209</v>
       </c>
@@ -9173,8 +10452,14 @@
       <c r="J221" s="66"/>
       <c r="K221" s="66"/>
       <c r="L221" s="66"/>
-    </row>
-    <row r="222" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M221" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N221" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="113">
         <v>210</v>
       </c>
@@ -9201,8 +10486,14 @@
       <c r="J222" s="66"/>
       <c r="K222" s="66"/>
       <c r="L222" s="66"/>
-    </row>
-    <row r="223" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M222" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N222" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="113">
         <v>211</v>
       </c>
@@ -9229,8 +10520,14 @@
       <c r="J223" s="66"/>
       <c r="K223" s="66"/>
       <c r="L223" s="66"/>
-    </row>
-    <row r="224" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M223" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N223" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="113">
         <v>212</v>
       </c>
@@ -9257,8 +10554,14 @@
       <c r="J224" s="66"/>
       <c r="K224" s="66"/>
       <c r="L224" s="66"/>
-    </row>
-    <row r="225" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M224" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N224" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="113">
         <v>213</v>
       </c>
@@ -9285,8 +10588,14 @@
       <c r="J225" s="66"/>
       <c r="K225" s="66"/>
       <c r="L225" s="66"/>
-    </row>
-    <row r="226" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M225" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N225" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="113">
         <v>214</v>
       </c>
@@ -9313,8 +10622,14 @@
       <c r="J226" s="66"/>
       <c r="K226" s="66"/>
       <c r="L226" s="66"/>
-    </row>
-    <row r="227" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M226" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N226" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="113">
         <v>215</v>
       </c>
@@ -9341,8 +10656,14 @@
       <c r="J227" s="66"/>
       <c r="K227" s="66"/>
       <c r="L227" s="66"/>
-    </row>
-    <row r="228" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M227" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N227" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="113">
         <v>216</v>
       </c>
@@ -9369,8 +10690,14 @@
       <c r="J228" s="66"/>
       <c r="K228" s="66"/>
       <c r="L228" s="66"/>
-    </row>
-    <row r="229" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M228" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N228" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="113">
         <v>217</v>
       </c>
@@ -9397,8 +10724,14 @@
       <c r="J229" s="66"/>
       <c r="K229" s="66"/>
       <c r="L229" s="66"/>
-    </row>
-    <row r="230" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M229" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N229" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="113">
         <v>218</v>
       </c>
@@ -9425,8 +10758,14 @@
       <c r="J230" s="66"/>
       <c r="K230" s="66"/>
       <c r="L230" s="66"/>
-    </row>
-    <row r="231" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M230" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N230" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="113">
         <v>219</v>
       </c>
@@ -9453,8 +10792,14 @@
       <c r="J231" s="66"/>
       <c r="K231" s="66"/>
       <c r="L231" s="66"/>
-    </row>
-    <row r="232" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M231" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N231" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="113">
         <v>220</v>
       </c>
@@ -9481,8 +10826,14 @@
       <c r="J232" s="66"/>
       <c r="K232" s="66"/>
       <c r="L232" s="66"/>
-    </row>
-    <row r="233" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M232" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N232" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="113">
         <v>221</v>
       </c>
@@ -9509,8 +10860,14 @@
       <c r="J233" s="66"/>
       <c r="K233" s="66"/>
       <c r="L233" s="66"/>
-    </row>
-    <row r="234" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M233" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N233" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="113">
         <v>222</v>
       </c>
@@ -9537,8 +10894,14 @@
       <c r="J234" s="66"/>
       <c r="K234" s="66"/>
       <c r="L234" s="66"/>
-    </row>
-    <row r="235" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M234" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N234" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="113">
         <v>223</v>
       </c>
@@ -9565,8 +10928,14 @@
       <c r="J235" s="66"/>
       <c r="K235" s="66"/>
       <c r="L235" s="66"/>
-    </row>
-    <row r="236" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M235" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N235" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="113">
         <v>224</v>
       </c>
@@ -9593,8 +10962,14 @@
       <c r="J236" s="66"/>
       <c r="K236" s="66"/>
       <c r="L236" s="66"/>
-    </row>
-    <row r="237" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M236" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N236" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="113">
         <v>225</v>
       </c>
@@ -9621,8 +10996,14 @@
       <c r="J237" s="66"/>
       <c r="K237" s="66"/>
       <c r="L237" s="66"/>
-    </row>
-    <row r="238" spans="1:12" s="26" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M237" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N237" s="66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" s="26" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="115">
         <v>226</v>
       </c>
@@ -9649,6 +11030,12 @@
       <c r="J238" s="69"/>
       <c r="K238" s="69"/>
       <c r="L238" s="69"/>
+      <c r="M238" s="69" t="s">
+        <v>456</v>
+      </c>
+      <c r="N238" s="69" t="s">
+        <v>456</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L119" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/dataland-framework-toolbox/inputs/eu-taxonomy-financials/eu-taxonomy-financials.xlsx
+++ b/dataland-framework-toolbox/inputs/eu-taxonomy-financials/eu-taxonomy-financials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92582\Documents\Dataland\Dataland\dataland-framework-toolbox\inputs\eu-taxonomy-financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9076012F-4300-4E6F-A85C-9CC34911F37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D7B9A1-4543-44A9-9DA9-FE4D4AB72B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="459">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -1437,6 +1437,12 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Data Point Type Name Overwrite</t>
+  </si>
+  <si>
+    <t>AreAllGroupEntitiesCoveredByEuTaxonomyReports</t>
   </si>
 </sst>
 </file>
@@ -2232,7 +2238,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2581,9 +2587,6 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2651,6 +2654,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2926,30 +2935,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N238"/>
+  <dimension ref="A1:O238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="71.5703125" customWidth="1"/>
-    <col min="4" max="4" width="123.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" customWidth="1"/>
+    <col min="3" max="3" width="71.59765625" customWidth="1"/>
+    <col min="4" max="4" width="123.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="92" customWidth="1"/>
-    <col min="6" max="6" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="30.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
@@ -2992,8 +3001,11 @@
       <c r="N1" s="91" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="91" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="108">
         <v>1</v>
       </c>
@@ -3024,8 +3036,9 @@
       <c r="L2" s="34"/>
       <c r="M2" s="34"/>
       <c r="N2" s="34"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="34"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="108">
         <v>2</v>
       </c>
@@ -3056,8 +3069,9 @@
       <c r="L3" s="34"/>
       <c r="M3" s="34"/>
       <c r="N3" s="34"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="34"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="108">
         <v>3</v>
       </c>
@@ -3086,8 +3100,9 @@
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
       <c r="N4" s="34"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="34"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="108">
         <v>4</v>
       </c>
@@ -3097,7 +3112,7 @@
       <c r="C5" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="143" t="s">
         <v>162</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -3118,8 +3133,11 @@
       <c r="L5" s="34"/>
       <c r="M5" s="34"/>
       <c r="N5" s="34"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="34" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="108">
         <v>5</v>
       </c>
@@ -3150,8 +3168,9 @@
       <c r="L6" s="34"/>
       <c r="M6" s="34"/>
       <c r="N6" s="34"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="34"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="108">
         <v>6</v>
       </c>
@@ -3180,8 +3199,9 @@
       <c r="L7" s="34"/>
       <c r="M7" s="34"/>
       <c r="N7" s="34"/>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O7" s="34"/>
+    </row>
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="109">
         <v>7</v>
       </c>
@@ -3191,7 +3211,7 @@
       <c r="C8" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="120" t="s">
+      <c r="D8" s="144" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -3210,18 +3230,19 @@
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="73">
         <v>8</v>
       </c>
       <c r="B9" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="140" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="121" t="s">
+      <c r="D9" s="120" t="s">
         <v>160</v>
       </c>
       <c r="E9" s="27" t="s">
@@ -3246,18 +3267,19 @@
       <c r="N9" s="42" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="42"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="73">
         <v>9</v>
       </c>
       <c r="B10" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="140" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="122" t="s">
+      <c r="D10" s="121" t="s">
         <v>94</v>
       </c>
       <c r="E10" s="28" t="s">
@@ -3282,18 +3304,19 @@
       <c r="N10" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="34"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="73">
         <v>9.1</v>
       </c>
       <c r="B11" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="141" t="s">
+      <c r="C11" s="140" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="123" t="s">
+      <c r="D11" s="122" t="s">
         <v>95</v>
       </c>
       <c r="E11" s="28" t="s">
@@ -3318,18 +3341,19 @@
       <c r="N11" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="34"/>
+    </row>
+    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="72" t="s">
         <v>105</v>
       </c>
       <c r="B12" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="140" t="s">
         <v>158</v>
       </c>
-      <c r="D12" s="121" t="s">
+      <c r="D12" s="120" t="s">
         <v>96</v>
       </c>
       <c r="E12" s="28" t="s">
@@ -3354,18 +3378,19 @@
       <c r="N12" s="42" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="42"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="72" t="s">
         <v>106</v>
       </c>
       <c r="B13" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="141" t="s">
+      <c r="C13" s="140" t="s">
         <v>158</v>
       </c>
-      <c r="D13" s="122" t="s">
+      <c r="D13" s="121" t="s">
         <v>97</v>
       </c>
       <c r="E13" s="28" t="s">
@@ -3390,18 +3415,19 @@
       <c r="N13" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O13" s="34"/>
+    </row>
+    <row r="14" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="110" t="s">
         <v>107</v>
       </c>
       <c r="B14" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="142" t="s">
+      <c r="C14" s="141" t="s">
         <v>158</v>
       </c>
-      <c r="D14" s="124" t="s">
+      <c r="D14" s="123" t="s">
         <v>98</v>
       </c>
       <c r="E14" s="29" t="s">
@@ -3426,15 +3452,16 @@
       <c r="N14" s="41" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="41"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="72">
         <v>10</v>
       </c>
       <c r="B15" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="141" t="s">
+      <c r="C15" s="140" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="119" t="s">
@@ -3460,15 +3487,16 @@
       <c r="N15" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="34"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="72">
         <v>10.1</v>
       </c>
       <c r="B16" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="141" t="s">
+      <c r="C16" s="140" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -3494,15 +3522,16 @@
       <c r="N16" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="34"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="72" t="s">
         <v>108</v>
       </c>
       <c r="B17" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="141" t="s">
+      <c r="C17" s="140" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="14" t="s">
@@ -3528,15 +3557,16 @@
       <c r="N17" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="34"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="72" t="s">
         <v>109</v>
       </c>
       <c r="B18" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="141" t="s">
+      <c r="C18" s="140" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="14" t="s">
@@ -3562,15 +3592,16 @@
       <c r="N18" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="34"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="72" t="s">
         <v>110</v>
       </c>
       <c r="B19" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="140" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="14" t="s">
@@ -3596,15 +3627,16 @@
       <c r="N19" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="34"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="72">
         <v>11</v>
       </c>
       <c r="B20" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="141" t="s">
+      <c r="C20" s="140" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="14" t="s">
@@ -3630,15 +3662,16 @@
       <c r="N20" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="34"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="72">
         <v>11.1</v>
       </c>
       <c r="B21" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="141" t="s">
+      <c r="C21" s="140" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="14" t="s">
@@ -3664,15 +3697,16 @@
       <c r="N21" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="34"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="72" t="s">
         <v>111</v>
       </c>
       <c r="B22" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="141" t="s">
+      <c r="C22" s="140" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="14" t="s">
@@ -3698,18 +3732,19 @@
       <c r="N22" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="34"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="72" t="s">
         <v>112</v>
       </c>
       <c r="B23" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="141" t="s">
+      <c r="C23" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="125" t="s">
+      <c r="D23" s="124" t="s">
         <v>150</v>
       </c>
       <c r="E23" s="16" t="s">
@@ -3732,18 +3767,19 @@
       <c r="N23" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="34"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="72" t="s">
         <v>175</v>
       </c>
       <c r="B24" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="141" t="s">
+      <c r="C24" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="125" t="s">
+      <c r="D24" s="124" t="s">
         <v>177</v>
       </c>
       <c r="E24" s="16" t="s">
@@ -3766,18 +3802,19 @@
       <c r="N24" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="34"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="72">
         <v>12</v>
       </c>
       <c r="B25" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="141" t="s">
+      <c r="C25" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="125" t="s">
+      <c r="D25" s="124" t="s">
         <v>38</v>
       </c>
       <c r="E25" s="16" t="s">
@@ -3800,18 +3837,19 @@
       <c r="N25" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="34"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="72">
         <v>12.1</v>
       </c>
       <c r="B26" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="141" t="s">
+      <c r="C26" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="125" t="s">
+      <c r="D26" s="124" t="s">
         <v>39</v>
       </c>
       <c r="E26" s="16" t="s">
@@ -3834,18 +3872,19 @@
       <c r="N26" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="34"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="72" t="s">
         <v>113</v>
       </c>
       <c r="B27" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="141" t="s">
+      <c r="C27" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="125" t="s">
+      <c r="D27" s="124" t="s">
         <v>68</v>
       </c>
       <c r="E27" s="16" t="s">
@@ -3868,18 +3907,19 @@
       <c r="N27" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="34"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="72" t="s">
         <v>114</v>
       </c>
       <c r="B28" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="141" t="s">
+      <c r="C28" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="125" t="s">
+      <c r="D28" s="124" t="s">
         <v>151</v>
       </c>
       <c r="E28" s="16" t="s">
@@ -3902,18 +3942,19 @@
       <c r="N28" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="34"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" s="72">
         <v>13</v>
       </c>
       <c r="B29" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="141" t="s">
+      <c r="C29" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="125" t="s">
+      <c r="D29" s="124" t="s">
         <v>40</v>
       </c>
       <c r="E29" s="16" t="s">
@@ -3936,18 +3977,19 @@
       <c r="N29" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="34"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" s="72">
         <v>13.1</v>
       </c>
       <c r="B30" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="141" t="s">
+      <c r="C30" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="125" t="s">
+      <c r="D30" s="124" t="s">
         <v>41</v>
       </c>
       <c r="E30" s="16" t="s">
@@ -3970,18 +4012,19 @@
       <c r="N30" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" s="34"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" s="72" t="s">
         <v>115</v>
       </c>
       <c r="B31" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="141" t="s">
+      <c r="C31" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="125" t="s">
+      <c r="D31" s="124" t="s">
         <v>69</v>
       </c>
       <c r="E31" s="16" t="s">
@@ -4004,18 +4047,19 @@
       <c r="N31" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="34"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" s="72" t="s">
         <v>116</v>
       </c>
       <c r="B32" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="141" t="s">
+      <c r="C32" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="125" t="s">
+      <c r="D32" s="124" t="s">
         <v>152</v>
       </c>
       <c r="E32" s="16" t="s">
@@ -4038,18 +4082,19 @@
       <c r="N32" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="34"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" s="72">
         <v>14</v>
       </c>
       <c r="B33" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="141" t="s">
+      <c r="C33" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="125" t="s">
+      <c r="D33" s="124" t="s">
         <v>42</v>
       </c>
       <c r="E33" s="16" t="s">
@@ -4072,18 +4117,19 @@
       <c r="N33" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="34"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" s="72">
         <v>14.1</v>
       </c>
       <c r="B34" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="141" t="s">
+      <c r="C34" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="125" t="s">
+      <c r="D34" s="124" t="s">
         <v>43</v>
       </c>
       <c r="E34" s="16" t="s">
@@ -4106,18 +4152,19 @@
       <c r="N34" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="34"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" s="72" t="s">
         <v>117</v>
       </c>
       <c r="B35" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="141" t="s">
+      <c r="C35" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="125" t="s">
+      <c r="D35" s="124" t="s">
         <v>70</v>
       </c>
       <c r="E35" s="16" t="s">
@@ -4140,18 +4187,19 @@
       <c r="N35" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="34"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" s="72" t="s">
         <v>118</v>
       </c>
       <c r="B36" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="141" t="s">
+      <c r="C36" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="125" t="s">
+      <c r="D36" s="124" t="s">
         <v>153</v>
       </c>
       <c r="E36" s="16" t="s">
@@ -4174,18 +4222,19 @@
       <c r="N36" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="34"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" s="72">
         <v>15</v>
       </c>
       <c r="B37" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="141" t="s">
+      <c r="C37" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="125" t="s">
+      <c r="D37" s="124" t="s">
         <v>44</v>
       </c>
       <c r="E37" s="16" t="s">
@@ -4208,18 +4257,19 @@
       <c r="N37" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="34"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" s="72">
         <v>15.1</v>
       </c>
       <c r="B38" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="141" t="s">
+      <c r="C38" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="125" t="s">
+      <c r="D38" s="124" t="s">
         <v>45</v>
       </c>
       <c r="E38" s="16" t="s">
@@ -4242,18 +4292,19 @@
       <c r="N38" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="34"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B39" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="141" t="s">
+      <c r="C39" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="126" t="s">
+      <c r="D39" s="125" t="s">
         <v>71</v>
       </c>
       <c r="E39" s="17" t="s">
@@ -4276,18 +4327,19 @@
       <c r="N39" s="45" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39" s="45"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" s="72" t="s">
         <v>120</v>
       </c>
       <c r="B40" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="141" t="s">
+      <c r="C40" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="127" t="s">
+      <c r="D40" s="126" t="s">
         <v>154</v>
       </c>
       <c r="E40" s="30" t="s">
@@ -4310,18 +4362,19 @@
       <c r="N40" s="46" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40" s="46"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" s="72">
         <v>16</v>
       </c>
       <c r="B41" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="141" t="s">
+      <c r="C41" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="125" t="s">
+      <c r="D41" s="124" t="s">
         <v>123</v>
       </c>
       <c r="E41" s="16" t="s">
@@ -4344,18 +4397,19 @@
       <c r="N41" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41" s="34"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" s="72">
         <v>16.100000000000001</v>
       </c>
       <c r="B42" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="141" t="s">
+      <c r="C42" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="125" t="s">
+      <c r="D42" s="124" t="s">
         <v>124</v>
       </c>
       <c r="E42" s="16" t="s">
@@ -4378,15 +4432,16 @@
       <c r="N42" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42" s="34"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" s="43" t="s">
         <v>121</v>
       </c>
       <c r="B43" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="141" t="s">
+      <c r="C43" s="140" t="s">
         <v>32</v>
       </c>
       <c r="D43" s="74" t="s">
@@ -4412,18 +4467,19 @@
       <c r="N43" s="45" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43" s="45"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" s="43" t="s">
         <v>122</v>
       </c>
       <c r="B44" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="141" t="s">
+      <c r="C44" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="127" t="s">
+      <c r="D44" s="126" t="s">
         <v>155</v>
       </c>
       <c r="E44" s="30" t="s">
@@ -4446,18 +4502,19 @@
       <c r="N44" s="46" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O44" s="46"/>
+    </row>
+    <row r="45" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="111" t="s">
         <v>159</v>
       </c>
       <c r="B45" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="143" t="s">
+      <c r="C45" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="128" t="s">
+      <c r="D45" s="127" t="s">
         <v>157</v>
       </c>
       <c r="E45" s="18" t="s">
@@ -4480,15 +4537,16 @@
       <c r="N45" s="50" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O45" s="50"/>
+    </row>
+    <row r="46" spans="1:15" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A46" s="72">
         <v>20</v>
       </c>
       <c r="B46" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="141" t="s">
+      <c r="C46" s="140" t="s">
         <v>33</v>
       </c>
       <c r="D46" s="119" t="s">
@@ -4514,15 +4572,16 @@
       <c r="N46" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46" s="34"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" s="72">
         <v>20.100000000000001</v>
       </c>
       <c r="B47" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="141" t="s">
+      <c r="C47" s="140" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="14" t="s">
@@ -4548,15 +4607,16 @@
       <c r="N47" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47" s="34"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" s="72" t="s">
         <v>129</v>
       </c>
       <c r="B48" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="141" t="s">
+      <c r="C48" s="140" t="s">
         <v>33</v>
       </c>
       <c r="D48" s="14" t="s">
@@ -4582,15 +4642,16 @@
       <c r="N48" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48" s="34"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" s="72" t="s">
         <v>130</v>
       </c>
       <c r="B49" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="141" t="s">
+      <c r="C49" s="140" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="14" t="s">
@@ -4616,15 +4677,16 @@
       <c r="N49" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49" s="34"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" s="72" t="s">
         <v>131</v>
       </c>
       <c r="B50" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="141" t="s">
+      <c r="C50" s="140" t="s">
         <v>33</v>
       </c>
       <c r="D50" s="14" t="s">
@@ -4650,15 +4712,16 @@
       <c r="N50" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50" s="34"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" s="72">
         <v>21</v>
       </c>
       <c r="B51" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="141" t="s">
+      <c r="C51" s="140" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="14" t="s">
@@ -4684,15 +4747,16 @@
       <c r="N51" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51" s="34"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" s="72">
         <v>21.1</v>
       </c>
       <c r="B52" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="141" t="s">
+      <c r="C52" s="140" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="14" t="s">
@@ -4718,15 +4782,16 @@
       <c r="N52" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52" s="34"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A53" s="72" t="s">
         <v>132</v>
       </c>
       <c r="B53" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C53" s="141" t="s">
+      <c r="C53" s="140" t="s">
         <v>33</v>
       </c>
       <c r="D53" s="14" t="s">
@@ -4752,18 +4817,19 @@
       <c r="N53" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53" s="34"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A54" s="72" t="s">
         <v>133</v>
       </c>
       <c r="B54" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="141" t="s">
+      <c r="C54" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="125" t="s">
+      <c r="D54" s="124" t="s">
         <v>150</v>
       </c>
       <c r="E54" s="16" t="s">
@@ -4786,18 +4852,19 @@
       <c r="N54" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54" s="34"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A55" s="72" t="s">
         <v>178</v>
       </c>
       <c r="B55" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="141" t="s">
+      <c r="C55" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="D55" s="125" t="s">
+      <c r="D55" s="124" t="s">
         <v>177</v>
       </c>
       <c r="E55" s="16" t="s">
@@ -4820,18 +4887,19 @@
       <c r="N55" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55" s="34"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" s="72">
         <v>22</v>
       </c>
       <c r="B56" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="141" t="s">
+      <c r="C56" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="125" t="s">
+      <c r="D56" s="124" t="s">
         <v>38</v>
       </c>
       <c r="E56" s="16" t="s">
@@ -4854,18 +4922,19 @@
       <c r="N56" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56" s="34"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" s="72">
         <v>22.1</v>
       </c>
       <c r="B57" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="141" t="s">
+      <c r="C57" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="D57" s="125" t="s">
+      <c r="D57" s="124" t="s">
         <v>39</v>
       </c>
       <c r="E57" s="16" t="s">
@@ -4888,18 +4957,19 @@
       <c r="N57" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57" s="34"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A58" s="72" t="s">
         <v>134</v>
       </c>
       <c r="B58" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="141" t="s">
+      <c r="C58" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="D58" s="125" t="s">
+      <c r="D58" s="124" t="s">
         <v>68</v>
       </c>
       <c r="E58" s="15" t="s">
@@ -4922,18 +4992,19 @@
       <c r="N58" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58" s="34"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A59" s="72" t="s">
         <v>135</v>
       </c>
       <c r="B59" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="141" t="s">
+      <c r="C59" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="125" t="s">
+      <c r="D59" s="124" t="s">
         <v>151</v>
       </c>
       <c r="E59" s="15" t="s">
@@ -4956,18 +5027,19 @@
       <c r="N59" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59" s="34"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A60" s="72">
         <v>23</v>
       </c>
       <c r="B60" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="141" t="s">
+      <c r="C60" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="D60" s="125" t="s">
+      <c r="D60" s="124" t="s">
         <v>40</v>
       </c>
       <c r="E60" s="15" t="s">
@@ -4990,18 +5062,19 @@
       <c r="N60" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60" s="34"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" s="72">
         <v>23.1</v>
       </c>
       <c r="B61" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="141" t="s">
+      <c r="C61" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="D61" s="125" t="s">
+      <c r="D61" s="124" t="s">
         <v>41</v>
       </c>
       <c r="E61" s="15" t="s">
@@ -5024,18 +5097,19 @@
       <c r="N61" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61" s="34"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" s="72" t="s">
         <v>136</v>
       </c>
       <c r="B62" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C62" s="141" t="s">
+      <c r="C62" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="D62" s="125" t="s">
+      <c r="D62" s="124" t="s">
         <v>69</v>
       </c>
       <c r="E62" s="15" t="s">
@@ -5058,18 +5132,19 @@
       <c r="N62" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O62" s="34"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A63" s="72" t="s">
         <v>137</v>
       </c>
       <c r="B63" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C63" s="141" t="s">
+      <c r="C63" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="D63" s="125" t="s">
+      <c r="D63" s="124" t="s">
         <v>152</v>
       </c>
       <c r="E63" s="15" t="s">
@@ -5092,18 +5167,19 @@
       <c r="N63" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O63" s="34"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64" s="72">
         <v>24</v>
       </c>
       <c r="B64" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="141" t="s">
+      <c r="C64" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="D64" s="125" t="s">
+      <c r="D64" s="124" t="s">
         <v>42</v>
       </c>
       <c r="E64" s="15" t="s">
@@ -5126,18 +5202,19 @@
       <c r="N64" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O64" s="34"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A65" s="72">
         <v>24.1</v>
       </c>
       <c r="B65" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="141" t="s">
+      <c r="C65" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="D65" s="125" t="s">
+      <c r="D65" s="124" t="s">
         <v>43</v>
       </c>
       <c r="E65" s="15" t="s">
@@ -5160,18 +5237,19 @@
       <c r="N65" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O65" s="34"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A66" s="72" t="s">
         <v>138</v>
       </c>
       <c r="B66" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C66" s="141" t="s">
+      <c r="C66" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="D66" s="125" t="s">
+      <c r="D66" s="124" t="s">
         <v>70</v>
       </c>
       <c r="E66" s="15" t="s">
@@ -5194,18 +5272,19 @@
       <c r="N66" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O66" s="34"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A67" s="72" t="s">
         <v>139</v>
       </c>
       <c r="B67" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="141" t="s">
+      <c r="C67" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="D67" s="125" t="s">
+      <c r="D67" s="124" t="s">
         <v>153</v>
       </c>
       <c r="E67" s="15" t="s">
@@ -5228,18 +5307,19 @@
       <c r="N67" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O67" s="34"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A68" s="72">
         <v>25</v>
       </c>
       <c r="B68" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C68" s="141" t="s">
+      <c r="C68" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="125" t="s">
+      <c r="D68" s="124" t="s">
         <v>44</v>
       </c>
       <c r="E68" s="15" t="s">
@@ -5262,18 +5342,19 @@
       <c r="N68" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O68" s="34"/>
+    </row>
+    <row r="69" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="72">
         <v>25.1</v>
       </c>
       <c r="B69" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="141" t="s">
+      <c r="C69" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="D69" s="125" t="s">
+      <c r="D69" s="124" t="s">
         <v>45</v>
       </c>
       <c r="E69" s="15" t="s">
@@ -5296,18 +5377,19 @@
       <c r="N69" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O69" s="34"/>
+    </row>
+    <row r="70" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="43" t="s">
         <v>140</v>
       </c>
       <c r="B70" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="141" t="s">
+      <c r="C70" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="D70" s="126" t="s">
+      <c r="D70" s="125" t="s">
         <v>71</v>
       </c>
       <c r="E70" s="15" t="s">
@@ -5330,18 +5412,19 @@
       <c r="N70" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O70" s="34"/>
+    </row>
+    <row r="71" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="72" t="s">
         <v>141</v>
       </c>
       <c r="B71" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C71" s="141" t="s">
+      <c r="C71" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="D71" s="127" t="s">
+      <c r="D71" s="126" t="s">
         <v>154</v>
       </c>
       <c r="E71" s="15" t="s">
@@ -5364,18 +5447,19 @@
       <c r="N71" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O71" s="34"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A72" s="72">
         <v>26</v>
       </c>
       <c r="B72" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="141" t="s">
+      <c r="C72" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="D72" s="125" t="s">
+      <c r="D72" s="124" t="s">
         <v>123</v>
       </c>
       <c r="E72" s="16" t="s">
@@ -5398,18 +5482,19 @@
       <c r="N72" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O72" s="34"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A73" s="72">
         <v>26.1</v>
       </c>
       <c r="B73" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C73" s="141" t="s">
+      <c r="C73" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="125" t="s">
+      <c r="D73" s="124" t="s">
         <v>124</v>
       </c>
       <c r="E73" s="16" t="s">
@@ -5432,15 +5517,16 @@
       <c r="N73" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O73" s="34"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A74" s="43" t="s">
         <v>142</v>
       </c>
       <c r="B74" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C74" s="141" t="s">
+      <c r="C74" s="140" t="s">
         <v>33</v>
       </c>
       <c r="D74" s="74" t="s">
@@ -5466,18 +5552,19 @@
       <c r="N74" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O74" s="34"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A75" s="72" t="s">
         <v>143</v>
       </c>
       <c r="B75" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="141" t="s">
+      <c r="C75" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="D75" s="127" t="s">
+      <c r="D75" s="126" t="s">
         <v>155</v>
       </c>
       <c r="E75" s="30" t="s">
@@ -5500,18 +5587,19 @@
       <c r="N75" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O75" s="34"/>
+    </row>
+    <row r="76" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A76" s="110" t="s">
         <v>144</v>
       </c>
       <c r="B76" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="C76" s="142" t="s">
+      <c r="C76" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="129" t="s">
+      <c r="D76" s="128" t="s">
         <v>157</v>
       </c>
       <c r="E76" s="70" t="s">
@@ -5534,8 +5622,9 @@
       <c r="N76" s="41" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O76" s="41"/>
+    </row>
+    <row r="77" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="56">
         <v>65</v>
       </c>
@@ -5545,7 +5634,7 @@
       <c r="C77" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="D77" s="130" t="s">
+      <c r="D77" s="129" t="s">
         <v>185</v>
       </c>
       <c r="E77" s="71" t="s">
@@ -5566,8 +5655,9 @@
         <v>456</v>
       </c>
       <c r="N77" s="34"/>
-    </row>
-    <row r="78" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O77" s="34"/>
+    </row>
+    <row r="78" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="56">
         <v>66</v>
       </c>
@@ -5577,7 +5667,7 @@
       <c r="C78" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="D78" s="130" t="s">
+      <c r="D78" s="129" t="s">
         <v>186</v>
       </c>
       <c r="E78" s="71" t="s">
@@ -5598,8 +5688,9 @@
         <v>456</v>
       </c>
       <c r="N78" s="34"/>
-    </row>
-    <row r="79" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O78" s="34"/>
+    </row>
+    <row r="79" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="56">
         <v>67</v>
       </c>
@@ -5609,7 +5700,7 @@
       <c r="C79" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="D79" s="130" t="s">
+      <c r="D79" s="129" t="s">
         <v>187</v>
       </c>
       <c r="E79" s="71" t="s">
@@ -5632,8 +5723,9 @@
         <v>456</v>
       </c>
       <c r="N79" s="34"/>
-    </row>
-    <row r="80" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O79" s="34"/>
+    </row>
+    <row r="80" spans="1:15" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A80" s="112">
         <v>68</v>
       </c>
@@ -5643,7 +5735,7 @@
       <c r="C80" s="101" t="s">
         <v>180</v>
       </c>
-      <c r="D80" s="131" t="s">
+      <c r="D80" s="130" t="s">
         <v>188</v>
       </c>
       <c r="E80" s="84" t="s">
@@ -5666,8 +5758,9 @@
         <v>456</v>
       </c>
       <c r="N80" s="85"/>
-    </row>
-    <row r="81" spans="1:14" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O80" s="85"/>
+    </row>
+    <row r="81" spans="1:15" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A81" s="56">
         <v>69</v>
       </c>
@@ -5677,7 +5770,7 @@
       <c r="C81" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D81" s="130" t="s">
+      <c r="D81" s="129" t="s">
         <v>419</v>
       </c>
       <c r="E81" s="71" t="s">
@@ -5700,8 +5793,9 @@
       <c r="N81" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O81" s="34"/>
+    </row>
+    <row r="82" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="56">
         <v>70</v>
       </c>
@@ -5711,7 +5805,7 @@
       <c r="C82" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D82" s="130" t="s">
+      <c r="D82" s="129" t="s">
         <v>420</v>
       </c>
       <c r="E82" s="71" t="s">
@@ -5734,8 +5828,9 @@
       <c r="N82" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O82" s="34"/>
+    </row>
+    <row r="83" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="56">
         <v>71</v>
       </c>
@@ -5745,7 +5840,7 @@
       <c r="C83" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D83" s="130" t="s">
+      <c r="D83" s="129" t="s">
         <v>421</v>
       </c>
       <c r="E83" s="71" t="s">
@@ -5768,8 +5863,9 @@
       <c r="N83" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O83" s="34"/>
+    </row>
+    <row r="84" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="56">
         <v>72</v>
       </c>
@@ -5779,7 +5875,7 @@
       <c r="C84" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D84" s="130" t="s">
+      <c r="D84" s="129" t="s">
         <v>422</v>
       </c>
       <c r="E84" s="71" t="s">
@@ -5802,8 +5898,9 @@
       <c r="N84" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O84" s="34"/>
+    </row>
+    <row r="85" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="56">
         <v>73</v>
       </c>
@@ -5813,7 +5910,7 @@
       <c r="C85" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D85" s="130" t="s">
+      <c r="D85" s="129" t="s">
         <v>423</v>
       </c>
       <c r="E85" s="71" t="s">
@@ -5836,8 +5933,9 @@
       <c r="N85" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O85" s="34"/>
+    </row>
+    <row r="86" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="56">
         <v>74</v>
       </c>
@@ -5847,7 +5945,7 @@
       <c r="C86" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D86" s="130" t="s">
+      <c r="D86" s="129" t="s">
         <v>424</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -5870,8 +5968,9 @@
       <c r="N86" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O86" s="34"/>
+    </row>
+    <row r="87" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="56">
         <v>75</v>
       </c>
@@ -5881,7 +5980,7 @@
       <c r="C87" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D87" s="130" t="s">
+      <c r="D87" s="129" t="s">
         <v>425</v>
       </c>
       <c r="E87" s="2" t="s">
@@ -5904,8 +6003,9 @@
       <c r="N87" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O87" s="34"/>
+    </row>
+    <row r="88" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="56">
         <v>76</v>
       </c>
@@ -5915,7 +6015,7 @@
       <c r="C88" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D88" s="130" t="s">
+      <c r="D88" s="129" t="s">
         <v>426</v>
       </c>
       <c r="E88" s="2" t="s">
@@ -5938,8 +6038,9 @@
       <c r="N88" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O88" s="34"/>
+    </row>
+    <row r="89" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="56">
         <v>77</v>
       </c>
@@ -5949,7 +6050,7 @@
       <c r="C89" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D89" s="130" t="s">
+      <c r="D89" s="129" t="s">
         <v>427</v>
       </c>
       <c r="E89" s="2" t="s">
@@ -5972,8 +6073,9 @@
       <c r="N89" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O89" s="34"/>
+    </row>
+    <row r="90" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="56">
         <v>78</v>
       </c>
@@ -5983,7 +6085,7 @@
       <c r="C90" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D90" s="130" t="s">
+      <c r="D90" s="129" t="s">
         <v>428</v>
       </c>
       <c r="E90" s="2" t="s">
@@ -6006,8 +6108,9 @@
       <c r="N90" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O90" s="34"/>
+    </row>
+    <row r="91" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="56">
         <v>79</v>
       </c>
@@ -6017,7 +6120,7 @@
       <c r="C91" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D91" s="130" t="s">
+      <c r="D91" s="129" t="s">
         <v>429</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -6040,8 +6143,9 @@
       <c r="N91" s="34" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O91" s="34"/>
+    </row>
+    <row r="92" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="56">
         <v>80</v>
       </c>
@@ -6051,7 +6155,7 @@
       <c r="C92" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D92" s="132" t="s">
+      <c r="D92" s="131" t="s">
         <v>430</v>
       </c>
       <c r="E92" s="4" t="s">
@@ -6074,8 +6178,9 @@
       <c r="N92" s="45" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O92" s="45"/>
+    </row>
+    <row r="93" spans="1:15" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A93" s="52">
         <v>81</v>
       </c>
@@ -6085,7 +6190,7 @@
       <c r="C93" s="101" t="s">
         <v>190</v>
       </c>
-      <c r="D93" s="133" t="s">
+      <c r="D93" s="132" t="s">
         <v>431</v>
       </c>
       <c r="E93" s="24" t="s">
@@ -6108,8 +6213,9 @@
       <c r="N93" s="55" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O93" s="55"/>
+    </row>
+    <row r="94" spans="1:15" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A94" s="56">
         <v>82</v>
       </c>
@@ -6119,7 +6225,7 @@
       <c r="C94" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D94" s="130" t="s">
+      <c r="D94" s="129" t="s">
         <v>432</v>
       </c>
       <c r="E94" s="71" t="s">
@@ -6142,8 +6248,9 @@
       <c r="N94" s="57" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O94" s="57"/>
+    </row>
+    <row r="95" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="56">
         <v>83</v>
       </c>
@@ -6153,7 +6260,7 @@
       <c r="C95" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D95" s="130" t="s">
+      <c r="D95" s="129" t="s">
         <v>433</v>
       </c>
       <c r="E95" s="71" t="s">
@@ -6176,8 +6283,9 @@
       <c r="N95" s="58" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O95" s="58"/>
+    </row>
+    <row r="96" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="56">
         <v>84</v>
       </c>
@@ -6187,7 +6295,7 @@
       <c r="C96" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D96" s="130" t="s">
+      <c r="D96" s="129" t="s">
         <v>434</v>
       </c>
       <c r="E96" s="71" t="s">
@@ -6210,8 +6318,9 @@
       <c r="N96" s="58" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O96" s="58"/>
+    </row>
+    <row r="97" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="56">
         <v>85</v>
       </c>
@@ -6221,7 +6330,7 @@
       <c r="C97" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D97" s="130" t="s">
+      <c r="D97" s="129" t="s">
         <v>435</v>
       </c>
       <c r="E97" s="71" t="s">
@@ -6244,8 +6353,9 @@
       <c r="N97" s="58" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O97" s="58"/>
+    </row>
+    <row r="98" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="56">
         <v>86</v>
       </c>
@@ -6255,7 +6365,7 @@
       <c r="C98" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D98" s="130" t="s">
+      <c r="D98" s="129" t="s">
         <v>436</v>
       </c>
       <c r="E98" s="71" t="s">
@@ -6278,8 +6388,9 @@
       <c r="N98" s="58" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O98" s="58"/>
+    </row>
+    <row r="99" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="56">
         <v>87</v>
       </c>
@@ -6289,7 +6400,7 @@
       <c r="C99" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D99" s="130" t="s">
+      <c r="D99" s="129" t="s">
         <v>437</v>
       </c>
       <c r="E99" s="2" t="s">
@@ -6312,8 +6423,9 @@
       <c r="N99" s="58" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O99" s="58"/>
+    </row>
+    <row r="100" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="56">
         <v>88</v>
       </c>
@@ -6323,7 +6435,7 @@
       <c r="C100" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D100" s="130" t="s">
+      <c r="D100" s="129" t="s">
         <v>438</v>
       </c>
       <c r="E100" s="2" t="s">
@@ -6346,8 +6458,9 @@
       <c r="N100" s="58" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O100" s="58"/>
+    </row>
+    <row r="101" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="56">
         <v>89</v>
       </c>
@@ -6357,7 +6470,7 @@
       <c r="C101" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D101" s="130" t="s">
+      <c r="D101" s="129" t="s">
         <v>439</v>
       </c>
       <c r="E101" s="2" t="s">
@@ -6380,8 +6493,9 @@
       <c r="N101" s="58" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O101" s="58"/>
+    </row>
+    <row r="102" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="56">
         <v>90</v>
       </c>
@@ -6391,7 +6505,7 @@
       <c r="C102" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D102" s="130" t="s">
+      <c r="D102" s="129" t="s">
         <v>440</v>
       </c>
       <c r="E102" s="2" t="s">
@@ -6414,8 +6528,9 @@
       <c r="N102" s="58" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O102" s="58"/>
+    </row>
+    <row r="103" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="56">
         <v>91</v>
       </c>
@@ -6425,7 +6540,7 @@
       <c r="C103" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D103" s="130" t="s">
+      <c r="D103" s="129" t="s">
         <v>441</v>
       </c>
       <c r="E103" s="2" t="s">
@@ -6448,8 +6563,9 @@
       <c r="N103" s="58" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O103" s="58"/>
+    </row>
+    <row r="104" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="56">
         <v>92</v>
       </c>
@@ -6459,7 +6575,7 @@
       <c r="C104" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D104" s="130" t="s">
+      <c r="D104" s="129" t="s">
         <v>442</v>
       </c>
       <c r="E104" s="2" t="s">
@@ -6482,8 +6598,9 @@
       <c r="N104" s="58" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O104" s="58"/>
+    </row>
+    <row r="105" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="56">
         <v>93</v>
       </c>
@@ -6493,7 +6610,7 @@
       <c r="C105" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D105" s="132" t="s">
+      <c r="D105" s="131" t="s">
         <v>443</v>
       </c>
       <c r="E105" s="4" t="s">
@@ -6516,8 +6633,9 @@
       <c r="N105" s="58" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O105" s="58"/>
+    </row>
+    <row r="106" spans="1:15" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A106" s="59">
         <v>94</v>
       </c>
@@ -6527,7 +6645,7 @@
       <c r="C106" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="D106" s="134" t="s">
+      <c r="D106" s="133" t="s">
         <v>444</v>
       </c>
       <c r="E106" s="76" t="s">
@@ -6550,8 +6668,9 @@
       <c r="N106" s="60" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O106" s="60"/>
+    </row>
+    <row r="107" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="77">
         <v>95</v>
       </c>
@@ -6561,7 +6680,7 @@
       <c r="C107" s="102" t="s">
         <v>212</v>
       </c>
-      <c r="D107" s="135" t="s">
+      <c r="D107" s="134" t="s">
         <v>213</v>
       </c>
       <c r="E107" s="92" t="s">
@@ -6584,8 +6703,9 @@
         <v>456</v>
       </c>
       <c r="N107" s="79"/>
-    </row>
-    <row r="108" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O107" s="79"/>
+    </row>
+    <row r="108" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="75">
         <v>96</v>
       </c>
@@ -6595,7 +6715,7 @@
       <c r="C108" s="103" t="s">
         <v>212</v>
       </c>
-      <c r="D108" s="136" t="s">
+      <c r="D108" s="135" t="s">
         <v>215</v>
       </c>
       <c r="E108" s="94" t="s">
@@ -6618,8 +6738,9 @@
         <v>456</v>
       </c>
       <c r="N108" s="62"/>
-    </row>
-    <row r="109" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O108" s="62"/>
+    </row>
+    <row r="109" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="75">
         <v>97</v>
       </c>
@@ -6629,7 +6750,7 @@
       <c r="C109" s="103" t="s">
         <v>212</v>
       </c>
-      <c r="D109" s="136" t="s">
+      <c r="D109" s="135" t="s">
         <v>217</v>
       </c>
       <c r="E109" s="93" t="s">
@@ -6652,8 +6773,9 @@
         <v>456</v>
       </c>
       <c r="N109" s="62"/>
-    </row>
-    <row r="110" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O109" s="62"/>
+    </row>
+    <row r="110" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="75">
         <v>98</v>
       </c>
@@ -6663,7 +6785,7 @@
       <c r="C110" s="103" t="s">
         <v>212</v>
       </c>
-      <c r="D110" s="136" t="s">
+      <c r="D110" s="135" t="s">
         <v>219</v>
       </c>
       <c r="E110" s="93" t="s">
@@ -6684,8 +6806,9 @@
         <v>456</v>
       </c>
       <c r="N110" s="62"/>
-    </row>
-    <row r="111" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O110" s="62"/>
+    </row>
+    <row r="111" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="75">
         <v>99</v>
       </c>
@@ -6695,7 +6818,7 @@
       <c r="C111" s="103" t="s">
         <v>212</v>
       </c>
-      <c r="D111" s="136" t="s">
+      <c r="D111" s="135" t="s">
         <v>220</v>
       </c>
       <c r="E111" s="94" t="s">
@@ -6716,8 +6839,9 @@
         <v>456</v>
       </c>
       <c r="N111" s="62"/>
-    </row>
-    <row r="112" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O111" s="62"/>
+    </row>
+    <row r="112" spans="1:15" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A112" s="52">
         <v>100</v>
       </c>
@@ -6727,7 +6851,7 @@
       <c r="C112" s="104" t="s">
         <v>212</v>
       </c>
-      <c r="D112" s="137" t="s">
+      <c r="D112" s="136" t="s">
         <v>221</v>
       </c>
       <c r="E112" s="95" t="s">
@@ -6748,8 +6872,9 @@
         <v>456</v>
       </c>
       <c r="N112" s="81"/>
-    </row>
-    <row r="113" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O112" s="81"/>
+    </row>
+    <row r="113" spans="1:15" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A113" s="75">
         <v>101</v>
       </c>
@@ -6759,7 +6884,7 @@
       <c r="C113" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="D113" s="130" t="s">
+      <c r="D113" s="129" t="s">
         <v>185</v>
       </c>
       <c r="E113" s="71" t="s">
@@ -6780,8 +6905,9 @@
         <v>456</v>
       </c>
       <c r="N113" s="34"/>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O113" s="34"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A114" s="75">
         <v>102</v>
       </c>
@@ -6791,7 +6917,7 @@
       <c r="C114" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="D114" s="130" t="s">
+      <c r="D114" s="129" t="s">
         <v>186</v>
       </c>
       <c r="E114" s="71" t="s">
@@ -6812,8 +6938,9 @@
         <v>456</v>
       </c>
       <c r="N114" s="34"/>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O114" s="34"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A115" s="75">
         <v>103</v>
       </c>
@@ -6823,7 +6950,7 @@
       <c r="C115" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="D115" s="130" t="s">
+      <c r="D115" s="129" t="s">
         <v>187</v>
       </c>
       <c r="E115" s="71" t="s">
@@ -6846,8 +6973,9 @@
         <v>456</v>
       </c>
       <c r="N115" s="34"/>
-    </row>
-    <row r="116" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O115" s="34"/>
+    </row>
+    <row r="116" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A116" s="52">
         <v>104</v>
       </c>
@@ -6857,7 +6985,7 @@
       <c r="C116" s="101" t="s">
         <v>180</v>
       </c>
-      <c r="D116" s="131" t="s">
+      <c r="D116" s="130" t="s">
         <v>188</v>
       </c>
       <c r="E116" s="84" t="s">
@@ -6880,8 +7008,9 @@
         <v>456</v>
       </c>
       <c r="N116" s="85"/>
-    </row>
-    <row r="117" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O116" s="85"/>
+    </row>
+    <row r="117" spans="1:15" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A117" s="61">
         <v>105</v>
       </c>
@@ -6914,8 +7043,9 @@
       <c r="N117" s="62" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O117" s="62"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A118" s="61">
         <v>106</v>
       </c>
@@ -6948,8 +7078,9 @@
       <c r="N118" s="63" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O118" s="63"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A119" s="61">
         <v>107</v>
       </c>
@@ -6982,8 +7113,9 @@
       <c r="N119" s="63" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O119" s="63"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A120" s="61">
         <v>108</v>
       </c>
@@ -7016,8 +7148,9 @@
       <c r="N120" s="63" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O120" s="63"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A121" s="61">
         <v>109</v>
       </c>
@@ -7050,8 +7183,9 @@
       <c r="N121" s="63" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O121" s="63"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A122" s="61">
         <v>110</v>
       </c>
@@ -7084,8 +7218,9 @@
       <c r="N122" s="63" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O122" s="63"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A123" s="61">
         <v>111</v>
       </c>
@@ -7118,8 +7253,9 @@
       <c r="N123" s="63" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O123" s="63"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A124" s="61">
         <v>112</v>
       </c>
@@ -7152,8 +7288,9 @@
       <c r="N124" s="63" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O124" s="63"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A125" s="61">
         <v>113</v>
       </c>
@@ -7186,8 +7323,9 @@
       <c r="N125" s="63" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O125" s="63"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A126" s="61">
         <v>114</v>
       </c>
@@ -7220,8 +7358,9 @@
       <c r="N126" s="63" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O126" s="63"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A127" s="61">
         <v>115</v>
       </c>
@@ -7254,8 +7393,9 @@
       <c r="N127" s="63" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O127" s="63"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A128" s="61">
         <v>116</v>
       </c>
@@ -7288,8 +7428,9 @@
       <c r="N128" s="63" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O128" s="63"/>
+    </row>
+    <row r="129" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A129" s="52">
         <v>117</v>
       </c>
@@ -7299,7 +7440,7 @@
       <c r="C129" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="D129" s="138" t="s">
+      <c r="D129" s="137" t="s">
         <v>431</v>
       </c>
       <c r="E129" s="7" t="s">
@@ -7322,8 +7463,9 @@
       <c r="N129" s="64" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O129" s="64"/>
+    </row>
+    <row r="130" spans="1:15" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A130" s="61">
         <v>118</v>
       </c>
@@ -7356,8 +7498,9 @@
       <c r="N130" s="62" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O130" s="62"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A131" s="61">
         <v>119</v>
       </c>
@@ -7390,8 +7533,9 @@
       <c r="N131" s="63" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O131" s="63"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A132" s="61">
         <v>120</v>
       </c>
@@ -7424,8 +7568,9 @@
       <c r="N132" s="63" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O132" s="63"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A133" s="61">
         <v>121</v>
       </c>
@@ -7458,8 +7603,9 @@
       <c r="N133" s="63" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O133" s="63"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A134" s="61">
         <v>122</v>
       </c>
@@ -7492,8 +7638,9 @@
       <c r="N134" s="63" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O134" s="63"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A135" s="61">
         <v>123</v>
       </c>
@@ -7526,8 +7673,9 @@
       <c r="N135" s="63" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O135" s="63"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A136" s="61">
         <v>124</v>
       </c>
@@ -7560,8 +7708,9 @@
       <c r="N136" s="63" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O136" s="63"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A137" s="61">
         <v>125</v>
       </c>
@@ -7594,8 +7743,9 @@
       <c r="N137" s="63" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O137" s="63"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A138" s="61">
         <v>126</v>
       </c>
@@ -7628,8 +7778,9 @@
       <c r="N138" s="63" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O138" s="63"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A139" s="61">
         <v>127</v>
       </c>
@@ -7662,8 +7813,9 @@
       <c r="N139" s="63" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O139" s="63"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A140" s="61">
         <v>128</v>
       </c>
@@ -7696,8 +7848,9 @@
       <c r="N140" s="63" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O140" s="63"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A141" s="61">
         <v>129</v>
       </c>
@@ -7730,8 +7883,9 @@
       <c r="N141" s="63" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O141" s="63"/>
+    </row>
+    <row r="142" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A142" s="59">
         <v>130</v>
       </c>
@@ -7764,8 +7918,9 @@
       <c r="N142" s="65" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O142" s="65"/>
+    </row>
+    <row r="143" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="113">
         <v>131</v>
       </c>
@@ -7775,7 +7930,7 @@
       <c r="C143" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D143" s="130" t="s">
+      <c r="D143" s="129" t="s">
         <v>336</v>
       </c>
       <c r="E143" s="2" t="s">
@@ -7800,8 +7955,9 @@
       <c r="N143" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O143" s="66"/>
+    </row>
+    <row r="144" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="113">
         <v>132</v>
       </c>
@@ -7811,7 +7967,7 @@
       <c r="C144" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D144" s="130" t="s">
+      <c r="D144" s="129" t="s">
         <v>254</v>
       </c>
       <c r="E144" s="2" t="s">
@@ -7834,8 +7990,9 @@
       <c r="N144" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O144" s="66"/>
+    </row>
+    <row r="145" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="113">
         <v>133</v>
       </c>
@@ -7845,7 +8002,7 @@
       <c r="C145" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D145" s="130" t="s">
+      <c r="D145" s="129" t="s">
         <v>255</v>
       </c>
       <c r="E145" s="2" t="s">
@@ -7868,8 +8025,9 @@
       <c r="N145" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O145" s="66"/>
+    </row>
+    <row r="146" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="113">
         <v>134</v>
       </c>
@@ -7879,7 +8037,7 @@
       <c r="C146" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D146" s="130" t="s">
+      <c r="D146" s="129" t="s">
         <v>256</v>
       </c>
       <c r="E146" s="2" t="s">
@@ -7902,8 +8060,9 @@
       <c r="N146" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O146" s="66"/>
+    </row>
+    <row r="147" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="113">
         <v>135</v>
       </c>
@@ -7913,7 +8072,7 @@
       <c r="C147" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D147" s="130" t="s">
+      <c r="D147" s="129" t="s">
         <v>257</v>
       </c>
       <c r="E147" s="2" t="s">
@@ -7936,8 +8095,9 @@
       <c r="N147" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O147" s="66"/>
+    </row>
+    <row r="148" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="113">
         <v>136</v>
       </c>
@@ -7947,7 +8107,7 @@
       <c r="C148" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D148" s="130" t="s">
+      <c r="D148" s="129" t="s">
         <v>258</v>
       </c>
       <c r="E148" s="2" t="s">
@@ -7970,8 +8130,9 @@
       <c r="N148" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O148" s="66"/>
+    </row>
+    <row r="149" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149" s="113">
         <v>137</v>
       </c>
@@ -7981,7 +8142,7 @@
       <c r="C149" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D149" s="130" t="s">
+      <c r="D149" s="129" t="s">
         <v>259</v>
       </c>
       <c r="E149" s="2" t="s">
@@ -8004,8 +8165,9 @@
       <c r="N149" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O149" s="66"/>
+    </row>
+    <row r="150" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="113">
         <v>138</v>
       </c>
@@ -8015,7 +8177,7 @@
       <c r="C150" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D150" s="130" t="s">
+      <c r="D150" s="129" t="s">
         <v>260</v>
       </c>
       <c r="E150" s="2" t="s">
@@ -8038,8 +8200,9 @@
       <c r="N150" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O150" s="66"/>
+    </row>
+    <row r="151" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="113">
         <v>139</v>
       </c>
@@ -8049,7 +8212,7 @@
       <c r="C151" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D151" s="130" t="s">
+      <c r="D151" s="129" t="s">
         <v>261</v>
       </c>
       <c r="E151" s="2" t="s">
@@ -8072,8 +8235,9 @@
       <c r="N151" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O151" s="66"/>
+    </row>
+    <row r="152" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152" s="113">
         <v>140</v>
       </c>
@@ -8083,7 +8247,7 @@
       <c r="C152" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D152" s="130" t="s">
+      <c r="D152" s="129" t="s">
         <v>262</v>
       </c>
       <c r="E152" s="2" t="s">
@@ -8106,8 +8270,9 @@
       <c r="N152" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O152" s="66"/>
+    </row>
+    <row r="153" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="113">
         <v>141</v>
       </c>
@@ -8117,7 +8282,7 @@
       <c r="C153" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D153" s="130" t="s">
+      <c r="D153" s="129" t="s">
         <v>263</v>
       </c>
       <c r="E153" s="2" t="s">
@@ -8140,8 +8305,9 @@
       <c r="N153" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O153" s="66"/>
+    </row>
+    <row r="154" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="113">
         <v>142</v>
       </c>
@@ -8151,7 +8317,7 @@
       <c r="C154" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D154" s="130" t="s">
+      <c r="D154" s="129" t="s">
         <v>264</v>
       </c>
       <c r="E154" s="2" t="s">
@@ -8174,8 +8340,9 @@
       <c r="N154" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O154" s="66"/>
+    </row>
+    <row r="155" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="113">
         <v>143</v>
       </c>
@@ -8185,7 +8352,7 @@
       <c r="C155" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D155" s="130" t="s">
+      <c r="D155" s="129" t="s">
         <v>265</v>
       </c>
       <c r="E155" s="2" t="s">
@@ -8208,8 +8375,9 @@
       <c r="N155" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O155" s="66"/>
+    </row>
+    <row r="156" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156" s="113">
         <v>144</v>
       </c>
@@ -8219,7 +8387,7 @@
       <c r="C156" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D156" s="130" t="s">
+      <c r="D156" s="129" t="s">
         <v>266</v>
       </c>
       <c r="E156" s="2" t="s">
@@ -8242,8 +8410,9 @@
       <c r="N156" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O156" s="66"/>
+    </row>
+    <row r="157" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="113">
         <v>145</v>
       </c>
@@ -8253,7 +8422,7 @@
       <c r="C157" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D157" s="130" t="s">
+      <c r="D157" s="129" t="s">
         <v>267</v>
       </c>
       <c r="E157" s="2" t="s">
@@ -8276,8 +8445,9 @@
       <c r="N157" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O157" s="66"/>
+    </row>
+    <row r="158" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158" s="113">
         <v>146</v>
       </c>
@@ -8287,7 +8457,7 @@
       <c r="C158" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D158" s="130" t="s">
+      <c r="D158" s="129" t="s">
         <v>268</v>
       </c>
       <c r="E158" s="2" t="s">
@@ -8310,8 +8480,9 @@
       <c r="N158" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O158" s="66"/>
+    </row>
+    <row r="159" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159" s="113">
         <v>147</v>
       </c>
@@ -8321,7 +8492,7 @@
       <c r="C159" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D159" s="130" t="s">
+      <c r="D159" s="129" t="s">
         <v>269</v>
       </c>
       <c r="E159" s="2" t="s">
@@ -8344,8 +8515,9 @@
       <c r="N159" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O159" s="66"/>
+    </row>
+    <row r="160" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160" s="113">
         <v>148</v>
       </c>
@@ -8355,7 +8527,7 @@
       <c r="C160" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D160" s="130" t="s">
+      <c r="D160" s="129" t="s">
         <v>270</v>
       </c>
       <c r="E160" s="2" t="s">
@@ -8378,8 +8550,9 @@
       <c r="N160" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O160" s="66"/>
+    </row>
+    <row r="161" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161" s="113">
         <v>149</v>
       </c>
@@ -8389,7 +8562,7 @@
       <c r="C161" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D161" s="130" t="s">
+      <c r="D161" s="129" t="s">
         <v>271</v>
       </c>
       <c r="E161" s="2" t="s">
@@ -8412,8 +8585,9 @@
       <c r="N161" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O161" s="66"/>
+    </row>
+    <row r="162" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A162" s="113">
         <v>150</v>
       </c>
@@ -8423,7 +8597,7 @@
       <c r="C162" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D162" s="130" t="s">
+      <c r="D162" s="129" t="s">
         <v>272</v>
       </c>
       <c r="E162" s="2" t="s">
@@ -8446,8 +8620,9 @@
       <c r="N162" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O162" s="66"/>
+    </row>
+    <row r="163" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163" s="113">
         <v>151</v>
       </c>
@@ -8457,7 +8632,7 @@
       <c r="C163" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D163" s="130" t="s">
+      <c r="D163" s="129" t="s">
         <v>273</v>
       </c>
       <c r="E163" s="2" t="s">
@@ -8480,8 +8655,9 @@
       <c r="N163" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O163" s="66"/>
+    </row>
+    <row r="164" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164" s="113">
         <v>152</v>
       </c>
@@ -8491,7 +8667,7 @@
       <c r="C164" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D164" s="130" t="s">
+      <c r="D164" s="129" t="s">
         <v>274</v>
       </c>
       <c r="E164" s="2" t="s">
@@ -8514,8 +8690,9 @@
       <c r="N164" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O164" s="66"/>
+    </row>
+    <row r="165" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165" s="113">
         <v>153</v>
       </c>
@@ -8525,7 +8702,7 @@
       <c r="C165" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D165" s="130" t="s">
+      <c r="D165" s="129" t="s">
         <v>275</v>
       </c>
       <c r="E165" s="2" t="s">
@@ -8548,8 +8725,9 @@
       <c r="N165" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" s="83" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O165" s="66"/>
+    </row>
+    <row r="166" spans="1:15" s="83" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A166" s="114">
         <v>154</v>
       </c>
@@ -8559,7 +8737,7 @@
       <c r="C166" s="88" t="s">
         <v>252</v>
       </c>
-      <c r="D166" s="139" t="s">
+      <c r="D166" s="138" t="s">
         <v>276</v>
       </c>
       <c r="E166" s="86" t="s">
@@ -8582,8 +8760,9 @@
       <c r="N166" s="68" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O166" s="68"/>
+    </row>
+    <row r="167" spans="1:15" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A167" s="113">
         <v>155</v>
       </c>
@@ -8593,7 +8772,7 @@
       <c r="C167" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D167" s="130" t="s">
+      <c r="D167" s="129" t="s">
         <v>337</v>
       </c>
       <c r="E167" s="2" t="s">
@@ -8618,8 +8797,9 @@
       <c r="N167" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O167" s="66"/>
+    </row>
+    <row r="168" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168" s="113">
         <v>156</v>
       </c>
@@ -8629,7 +8809,7 @@
       <c r="C168" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D168" s="130" t="s">
+      <c r="D168" s="129" t="s">
         <v>294</v>
       </c>
       <c r="E168" s="2" t="s">
@@ -8652,8 +8832,9 @@
       <c r="N168" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O168" s="66"/>
+    </row>
+    <row r="169" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169" s="113">
         <v>157</v>
       </c>
@@ -8663,7 +8844,7 @@
       <c r="C169" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D169" s="130" t="s">
+      <c r="D169" s="129" t="s">
         <v>296</v>
       </c>
       <c r="E169" s="2" t="s">
@@ -8686,8 +8867,9 @@
       <c r="N169" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O169" s="66"/>
+    </row>
+    <row r="170" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A170" s="113">
         <v>158</v>
       </c>
@@ -8697,7 +8879,7 @@
       <c r="C170" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D170" s="130" t="s">
+      <c r="D170" s="129" t="s">
         <v>297</v>
       </c>
       <c r="E170" s="2" t="s">
@@ -8720,8 +8902,9 @@
       <c r="N170" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O170" s="66"/>
+    </row>
+    <row r="171" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171" s="113">
         <v>159</v>
       </c>
@@ -8731,7 +8914,7 @@
       <c r="C171" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D171" s="130" t="s">
+      <c r="D171" s="129" t="s">
         <v>299</v>
       </c>
       <c r="E171" s="2" t="s">
@@ -8754,8 +8937,9 @@
       <c r="N171" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O171" s="66"/>
+    </row>
+    <row r="172" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A172" s="113">
         <v>160</v>
       </c>
@@ -8765,7 +8949,7 @@
       <c r="C172" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D172" s="130" t="s">
+      <c r="D172" s="129" t="s">
         <v>301</v>
       </c>
       <c r="E172" s="2" t="s">
@@ -8788,8 +8972,9 @@
       <c r="N172" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O172" s="66"/>
+    </row>
+    <row r="173" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A173" s="113">
         <v>161</v>
       </c>
@@ -8799,7 +8984,7 @@
       <c r="C173" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D173" s="130" t="s">
+      <c r="D173" s="129" t="s">
         <v>303</v>
       </c>
       <c r="E173" s="2" t="s">
@@ -8822,8 +9007,9 @@
       <c r="N173" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O173" s="66"/>
+    </row>
+    <row r="174" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A174" s="113">
         <v>162</v>
       </c>
@@ -8833,7 +9019,7 @@
       <c r="C174" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D174" s="130" t="s">
+      <c r="D174" s="129" t="s">
         <v>304</v>
       </c>
       <c r="E174" s="2" t="s">
@@ -8856,8 +9042,9 @@
       <c r="N174" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O174" s="66"/>
+    </row>
+    <row r="175" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175" s="113">
         <v>163</v>
       </c>
@@ -8867,7 +9054,7 @@
       <c r="C175" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D175" s="130" t="s">
+      <c r="D175" s="129" t="s">
         <v>306</v>
       </c>
       <c r="E175" s="2" t="s">
@@ -8890,8 +9077,9 @@
       <c r="N175" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O175" s="66"/>
+    </row>
+    <row r="176" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A176" s="113">
         <v>164</v>
       </c>
@@ -8901,7 +9089,7 @@
       <c r="C176" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D176" s="130" t="s">
+      <c r="D176" s="129" t="s">
         <v>308</v>
       </c>
       <c r="E176" s="2" t="s">
@@ -8924,8 +9112,9 @@
       <c r="N176" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O176" s="66"/>
+    </row>
+    <row r="177" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A177" s="113">
         <v>165</v>
       </c>
@@ -8935,7 +9124,7 @@
       <c r="C177" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D177" s="130" t="s">
+      <c r="D177" s="129" t="s">
         <v>309</v>
       </c>
       <c r="E177" s="2" t="s">
@@ -8958,8 +9147,9 @@
       <c r="N177" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O177" s="66"/>
+    </row>
+    <row r="178" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178" s="113">
         <v>166</v>
       </c>
@@ -8969,7 +9159,7 @@
       <c r="C178" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D178" s="130" t="s">
+      <c r="D178" s="129" t="s">
         <v>311</v>
       </c>
       <c r="E178" s="2" t="s">
@@ -8992,8 +9182,9 @@
       <c r="N178" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O178" s="66"/>
+    </row>
+    <row r="179" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A179" s="113">
         <v>167</v>
       </c>
@@ -9003,7 +9194,7 @@
       <c r="C179" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D179" s="130" t="s">
+      <c r="D179" s="129" t="s">
         <v>313</v>
       </c>
       <c r="E179" s="2" t="s">
@@ -9026,8 +9217,9 @@
       <c r="N179" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O179" s="66"/>
+    </row>
+    <row r="180" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A180" s="113">
         <v>168</v>
       </c>
@@ -9037,7 +9229,7 @@
       <c r="C180" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D180" s="130" t="s">
+      <c r="D180" s="129" t="s">
         <v>314</v>
       </c>
       <c r="E180" s="2" t="s">
@@ -9060,8 +9252,9 @@
       <c r="N180" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O180" s="66"/>
+    </row>
+    <row r="181" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A181" s="113">
         <v>169</v>
       </c>
@@ -9071,7 +9264,7 @@
       <c r="C181" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D181" s="130" t="s">
+      <c r="D181" s="129" t="s">
         <v>316</v>
       </c>
       <c r="E181" s="2" t="s">
@@ -9094,8 +9287,9 @@
       <c r="N181" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O181" s="66"/>
+    </row>
+    <row r="182" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A182" s="113">
         <v>170</v>
       </c>
@@ -9105,7 +9299,7 @@
       <c r="C182" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D182" s="130" t="s">
+      <c r="D182" s="129" t="s">
         <v>318</v>
       </c>
       <c r="E182" s="2" t="s">
@@ -9128,8 +9322,9 @@
       <c r="N182" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O182" s="66"/>
+    </row>
+    <row r="183" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A183" s="113">
         <v>171</v>
       </c>
@@ -9139,7 +9334,7 @@
       <c r="C183" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D183" s="130" t="s">
+      <c r="D183" s="129" t="s">
         <v>319</v>
       </c>
       <c r="E183" s="2" t="s">
@@ -9162,8 +9357,9 @@
       <c r="N183" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O183" s="66"/>
+    </row>
+    <row r="184" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A184" s="113">
         <v>172</v>
       </c>
@@ -9173,7 +9369,7 @@
       <c r="C184" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D184" s="130" t="s">
+      <c r="D184" s="129" t="s">
         <v>321</v>
       </c>
       <c r="E184" s="2" t="s">
@@ -9196,8 +9392,9 @@
       <c r="N184" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O184" s="66"/>
+    </row>
+    <row r="185" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A185" s="113">
         <v>173</v>
       </c>
@@ -9207,7 +9404,7 @@
       <c r="C185" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D185" s="130" t="s">
+      <c r="D185" s="129" t="s">
         <v>323</v>
       </c>
       <c r="E185" s="2" t="s">
@@ -9230,8 +9427,9 @@
       <c r="N185" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O185" s="66"/>
+    </row>
+    <row r="186" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A186" s="113">
         <v>174</v>
       </c>
@@ -9241,7 +9439,7 @@
       <c r="C186" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D186" s="130" t="s">
+      <c r="D186" s="129" t="s">
         <v>324</v>
       </c>
       <c r="E186" s="2" t="s">
@@ -9264,8 +9462,9 @@
       <c r="N186" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O186" s="66"/>
+    </row>
+    <row r="187" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A187" s="113">
         <v>175</v>
       </c>
@@ -9275,7 +9474,7 @@
       <c r="C187" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D187" s="130" t="s">
+      <c r="D187" s="129" t="s">
         <v>326</v>
       </c>
       <c r="E187" s="2" t="s">
@@ -9298,8 +9497,9 @@
       <c r="N187" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O187" s="66"/>
+    </row>
+    <row r="188" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A188" s="113">
         <v>176</v>
       </c>
@@ -9309,7 +9509,7 @@
       <c r="C188" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D188" s="130" t="s">
+      <c r="D188" s="129" t="s">
         <v>328</v>
       </c>
       <c r="E188" s="2" t="s">
@@ -9332,8 +9532,9 @@
       <c r="N188" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O188" s="66"/>
+    </row>
+    <row r="189" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A189" s="113">
         <v>177</v>
       </c>
@@ -9343,7 +9544,7 @@
       <c r="C189" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D189" s="130" t="s">
+      <c r="D189" s="129" t="s">
         <v>329</v>
       </c>
       <c r="E189" s="2" t="s">
@@ -9366,8 +9567,9 @@
       <c r="N189" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" s="83" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O189" s="66"/>
+    </row>
+    <row r="190" spans="1:15" s="83" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A190" s="114">
         <v>178</v>
       </c>
@@ -9377,7 +9579,7 @@
       <c r="C190" s="88" t="s">
         <v>293</v>
       </c>
-      <c r="D190" s="139" t="s">
+      <c r="D190" s="138" t="s">
         <v>331</v>
       </c>
       <c r="E190" s="86" t="s">
@@ -9400,8 +9602,9 @@
       <c r="N190" s="68" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O190" s="68"/>
+    </row>
+    <row r="191" spans="1:15" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A191" s="113">
         <v>179</v>
       </c>
@@ -9411,7 +9614,7 @@
       <c r="C191" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D191" s="130" t="s">
+      <c r="D191" s="129" t="s">
         <v>338</v>
       </c>
       <c r="E191" s="2" t="s">
@@ -9436,8 +9639,9 @@
       <c r="N191" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O191" s="66"/>
+    </row>
+    <row r="192" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A192" s="113">
         <v>180</v>
       </c>
@@ -9447,7 +9651,7 @@
       <c r="C192" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D192" s="130" t="s">
+      <c r="D192" s="129" t="s">
         <v>341</v>
       </c>
       <c r="E192" s="2" t="s">
@@ -9470,8 +9674,9 @@
       <c r="N192" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O192" s="66"/>
+    </row>
+    <row r="193" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A193" s="113">
         <v>181</v>
       </c>
@@ -9481,7 +9686,7 @@
       <c r="C193" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D193" s="130" t="s">
+      <c r="D193" s="129" t="s">
         <v>342</v>
       </c>
       <c r="E193" s="2" t="s">
@@ -9504,8 +9709,9 @@
       <c r="N193" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O193" s="66"/>
+    </row>
+    <row r="194" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A194" s="113">
         <v>182</v>
       </c>
@@ -9515,7 +9721,7 @@
       <c r="C194" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D194" s="130" t="s">
+      <c r="D194" s="129" t="s">
         <v>343</v>
       </c>
       <c r="E194" s="2" t="s">
@@ -9538,8 +9744,9 @@
       <c r="N194" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O194" s="66"/>
+    </row>
+    <row r="195" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A195" s="113">
         <v>183</v>
       </c>
@@ -9549,7 +9756,7 @@
       <c r="C195" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D195" s="130" t="s">
+      <c r="D195" s="129" t="s">
         <v>344</v>
       </c>
       <c r="E195" s="2" t="s">
@@ -9572,8 +9779,9 @@
       <c r="N195" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O195" s="66"/>
+    </row>
+    <row r="196" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A196" s="113">
         <v>184</v>
       </c>
@@ -9583,7 +9791,7 @@
       <c r="C196" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D196" s="130" t="s">
+      <c r="D196" s="129" t="s">
         <v>345</v>
       </c>
       <c r="E196" s="2" t="s">
@@ -9606,8 +9814,9 @@
       <c r="N196" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O196" s="66"/>
+    </row>
+    <row r="197" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A197" s="113">
         <v>185</v>
       </c>
@@ -9617,7 +9826,7 @@
       <c r="C197" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D197" s="130" t="s">
+      <c r="D197" s="129" t="s">
         <v>346</v>
       </c>
       <c r="E197" s="2" t="s">
@@ -9640,8 +9849,9 @@
       <c r="N197" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O197" s="66"/>
+    </row>
+    <row r="198" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A198" s="113">
         <v>186</v>
       </c>
@@ -9651,7 +9861,7 @@
       <c r="C198" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D198" s="130" t="s">
+      <c r="D198" s="129" t="s">
         <v>347</v>
       </c>
       <c r="E198" s="2" t="s">
@@ -9674,8 +9884,9 @@
       <c r="N198" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O198" s="66"/>
+    </row>
+    <row r="199" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A199" s="113">
         <v>187</v>
       </c>
@@ -9685,7 +9896,7 @@
       <c r="C199" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D199" s="130" t="s">
+      <c r="D199" s="129" t="s">
         <v>348</v>
       </c>
       <c r="E199" s="2" t="s">
@@ -9708,8 +9919,9 @@
       <c r="N199" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O199" s="66"/>
+    </row>
+    <row r="200" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A200" s="113">
         <v>188</v>
       </c>
@@ -9719,7 +9931,7 @@
       <c r="C200" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D200" s="130" t="s">
+      <c r="D200" s="129" t="s">
         <v>349</v>
       </c>
       <c r="E200" s="2" t="s">
@@ -9742,8 +9954,9 @@
       <c r="N200" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O200" s="66"/>
+    </row>
+    <row r="201" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A201" s="113">
         <v>189</v>
       </c>
@@ -9753,7 +9966,7 @@
       <c r="C201" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D201" s="130" t="s">
+      <c r="D201" s="129" t="s">
         <v>350</v>
       </c>
       <c r="E201" s="2" t="s">
@@ -9776,8 +9989,9 @@
       <c r="N201" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O201" s="66"/>
+    </row>
+    <row r="202" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A202" s="113">
         <v>190</v>
       </c>
@@ -9787,7 +10001,7 @@
       <c r="C202" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D202" s="130" t="s">
+      <c r="D202" s="129" t="s">
         <v>351</v>
       </c>
       <c r="E202" s="2" t="s">
@@ -9810,8 +10024,9 @@
       <c r="N202" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O202" s="66"/>
+    </row>
+    <row r="203" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A203" s="113">
         <v>191</v>
       </c>
@@ -9821,7 +10036,7 @@
       <c r="C203" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D203" s="130" t="s">
+      <c r="D203" s="129" t="s">
         <v>352</v>
       </c>
       <c r="E203" s="2" t="s">
@@ -9844,8 +10059,9 @@
       <c r="N203" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O203" s="66"/>
+    </row>
+    <row r="204" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A204" s="113">
         <v>192</v>
       </c>
@@ -9855,7 +10071,7 @@
       <c r="C204" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D204" s="130" t="s">
+      <c r="D204" s="129" t="s">
         <v>353</v>
       </c>
       <c r="E204" s="2" t="s">
@@ -9878,8 +10094,9 @@
       <c r="N204" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O204" s="66"/>
+    </row>
+    <row r="205" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A205" s="113">
         <v>193</v>
       </c>
@@ -9889,7 +10106,7 @@
       <c r="C205" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D205" s="130" t="s">
+      <c r="D205" s="129" t="s">
         <v>354</v>
       </c>
       <c r="E205" s="2" t="s">
@@ -9912,8 +10129,9 @@
       <c r="N205" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O205" s="66"/>
+    </row>
+    <row r="206" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A206" s="113">
         <v>194</v>
       </c>
@@ -9923,7 +10141,7 @@
       <c r="C206" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D206" s="130" t="s">
+      <c r="D206" s="129" t="s">
         <v>355</v>
       </c>
       <c r="E206" s="2" t="s">
@@ -9946,8 +10164,9 @@
       <c r="N206" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O206" s="66"/>
+    </row>
+    <row r="207" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A207" s="113">
         <v>195</v>
       </c>
@@ -9957,7 +10176,7 @@
       <c r="C207" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D207" s="130" t="s">
+      <c r="D207" s="129" t="s">
         <v>356</v>
       </c>
       <c r="E207" s="2" t="s">
@@ -9980,8 +10199,9 @@
       <c r="N207" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O207" s="66"/>
+    </row>
+    <row r="208" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A208" s="113">
         <v>196</v>
       </c>
@@ -9991,7 +10211,7 @@
       <c r="C208" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D208" s="130" t="s">
+      <c r="D208" s="129" t="s">
         <v>357</v>
       </c>
       <c r="E208" s="2" t="s">
@@ -10014,8 +10234,9 @@
       <c r="N208" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O208" s="66"/>
+    </row>
+    <row r="209" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A209" s="113">
         <v>197</v>
       </c>
@@ -10025,7 +10246,7 @@
       <c r="C209" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D209" s="130" t="s">
+      <c r="D209" s="129" t="s">
         <v>358</v>
       </c>
       <c r="E209" s="2" t="s">
@@ -10048,8 +10269,9 @@
       <c r="N209" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O209" s="66"/>
+    </row>
+    <row r="210" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A210" s="113">
         <v>198</v>
       </c>
@@ -10059,7 +10281,7 @@
       <c r="C210" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D210" s="130" t="s">
+      <c r="D210" s="129" t="s">
         <v>359</v>
       </c>
       <c r="E210" s="2" t="s">
@@ -10082,8 +10304,9 @@
       <c r="N210" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O210" s="66"/>
+    </row>
+    <row r="211" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A211" s="113">
         <v>199</v>
       </c>
@@ -10093,7 +10316,7 @@
       <c r="C211" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D211" s="130" t="s">
+      <c r="D211" s="129" t="s">
         <v>360</v>
       </c>
       <c r="E211" s="2" t="s">
@@ -10116,8 +10339,9 @@
       <c r="N211" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O211" s="66"/>
+    </row>
+    <row r="212" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A212" s="113">
         <v>200</v>
       </c>
@@ -10127,7 +10351,7 @@
       <c r="C212" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D212" s="130" t="s">
+      <c r="D212" s="129" t="s">
         <v>361</v>
       </c>
       <c r="E212" s="2" t="s">
@@ -10150,8 +10374,9 @@
       <c r="N212" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O212" s="66"/>
+    </row>
+    <row r="213" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A213" s="113">
         <v>201</v>
       </c>
@@ -10161,7 +10386,7 @@
       <c r="C213" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D213" s="130" t="s">
+      <c r="D213" s="129" t="s">
         <v>362</v>
       </c>
       <c r="E213" s="2" t="s">
@@ -10184,8 +10409,9 @@
       <c r="N213" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O213" s="66"/>
+    </row>
+    <row r="214" spans="1:15" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A214" s="114">
         <v>202</v>
       </c>
@@ -10195,7 +10421,7 @@
       <c r="C214" s="88" t="s">
         <v>334</v>
       </c>
-      <c r="D214" s="139" t="s">
+      <c r="D214" s="138" t="s">
         <v>363</v>
       </c>
       <c r="E214" s="86" t="s">
@@ -10218,8 +10444,9 @@
       <c r="N214" s="68" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O214" s="68"/>
+    </row>
+    <row r="215" spans="1:15" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A215" s="113">
         <v>203</v>
       </c>
@@ -10229,7 +10456,7 @@
       <c r="C215" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D215" s="130" t="s">
+      <c r="D215" s="129" t="s">
         <v>340</v>
       </c>
       <c r="E215" s="2" t="s">
@@ -10254,8 +10481,9 @@
       <c r="N215" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O215" s="66"/>
+    </row>
+    <row r="216" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A216" s="113">
         <v>204</v>
       </c>
@@ -10265,7 +10493,7 @@
       <c r="C216" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D216" s="130" t="s">
+      <c r="D216" s="129" t="s">
         <v>364</v>
       </c>
       <c r="E216" s="2" t="s">
@@ -10288,8 +10516,9 @@
       <c r="N216" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O216" s="66"/>
+    </row>
+    <row r="217" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A217" s="113">
         <v>205</v>
       </c>
@@ -10299,7 +10528,7 @@
       <c r="C217" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D217" s="130" t="s">
+      <c r="D217" s="129" t="s">
         <v>365</v>
       </c>
       <c r="E217" s="2" t="s">
@@ -10322,8 +10551,9 @@
       <c r="N217" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O217" s="66"/>
+    </row>
+    <row r="218" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A218" s="113">
         <v>206</v>
       </c>
@@ -10333,7 +10563,7 @@
       <c r="C218" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D218" s="130" t="s">
+      <c r="D218" s="129" t="s">
         <v>366</v>
       </c>
       <c r="E218" s="2" t="s">
@@ -10356,8 +10586,9 @@
       <c r="N218" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O218" s="66"/>
+    </row>
+    <row r="219" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A219" s="113">
         <v>207</v>
       </c>
@@ -10367,7 +10598,7 @@
       <c r="C219" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D219" s="130" t="s">
+      <c r="D219" s="129" t="s">
         <v>367</v>
       </c>
       <c r="E219" s="2" t="s">
@@ -10390,8 +10621,9 @@
       <c r="N219" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O219" s="66"/>
+    </row>
+    <row r="220" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A220" s="113">
         <v>208</v>
       </c>
@@ -10401,7 +10633,7 @@
       <c r="C220" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D220" s="130" t="s">
+      <c r="D220" s="129" t="s">
         <v>368</v>
       </c>
       <c r="E220" s="2" t="s">
@@ -10424,8 +10656,9 @@
       <c r="N220" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O220" s="66"/>
+    </row>
+    <row r="221" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A221" s="113">
         <v>209</v>
       </c>
@@ -10435,7 +10668,7 @@
       <c r="C221" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D221" s="130" t="s">
+      <c r="D221" s="129" t="s">
         <v>369</v>
       </c>
       <c r="E221" s="2" t="s">
@@ -10458,8 +10691,9 @@
       <c r="N221" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O221" s="66"/>
+    </row>
+    <row r="222" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A222" s="113">
         <v>210</v>
       </c>
@@ -10469,7 +10703,7 @@
       <c r="C222" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D222" s="130" t="s">
+      <c r="D222" s="129" t="s">
         <v>370</v>
       </c>
       <c r="E222" s="2" t="s">
@@ -10492,8 +10726,9 @@
       <c r="N222" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O222" s="66"/>
+    </row>
+    <row r="223" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A223" s="113">
         <v>211</v>
       </c>
@@ -10503,7 +10738,7 @@
       <c r="C223" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D223" s="130" t="s">
+      <c r="D223" s="129" t="s">
         <v>371</v>
       </c>
       <c r="E223" s="2" t="s">
@@ -10526,8 +10761,9 @@
       <c r="N223" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O223" s="66"/>
+    </row>
+    <row r="224" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A224" s="113">
         <v>212</v>
       </c>
@@ -10537,7 +10773,7 @@
       <c r="C224" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D224" s="130" t="s">
+      <c r="D224" s="129" t="s">
         <v>372</v>
       </c>
       <c r="E224" s="2" t="s">
@@ -10560,8 +10796,9 @@
       <c r="N224" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O224" s="66"/>
+    </row>
+    <row r="225" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A225" s="113">
         <v>213</v>
       </c>
@@ -10571,7 +10808,7 @@
       <c r="C225" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D225" s="130" t="s">
+      <c r="D225" s="129" t="s">
         <v>373</v>
       </c>
       <c r="E225" s="2" t="s">
@@ -10594,8 +10831,9 @@
       <c r="N225" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O225" s="66"/>
+    </row>
+    <row r="226" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A226" s="113">
         <v>214</v>
       </c>
@@ -10605,7 +10843,7 @@
       <c r="C226" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D226" s="130" t="s">
+      <c r="D226" s="129" t="s">
         <v>374</v>
       </c>
       <c r="E226" s="2" t="s">
@@ -10628,8 +10866,9 @@
       <c r="N226" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O226" s="66"/>
+    </row>
+    <row r="227" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A227" s="113">
         <v>215</v>
       </c>
@@ -10639,7 +10878,7 @@
       <c r="C227" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D227" s="130" t="s">
+      <c r="D227" s="129" t="s">
         <v>375</v>
       </c>
       <c r="E227" s="2" t="s">
@@ -10662,8 +10901,9 @@
       <c r="N227" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O227" s="66"/>
+    </row>
+    <row r="228" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A228" s="113">
         <v>216</v>
       </c>
@@ -10673,7 +10913,7 @@
       <c r="C228" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D228" s="130" t="s">
+      <c r="D228" s="129" t="s">
         <v>376</v>
       </c>
       <c r="E228" s="2" t="s">
@@ -10696,8 +10936,9 @@
       <c r="N228" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O228" s="66"/>
+    </row>
+    <row r="229" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A229" s="113">
         <v>217</v>
       </c>
@@ -10707,7 +10948,7 @@
       <c r="C229" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D229" s="130" t="s">
+      <c r="D229" s="129" t="s">
         <v>377</v>
       </c>
       <c r="E229" s="2" t="s">
@@ -10730,8 +10971,9 @@
       <c r="N229" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O229" s="66"/>
+    </row>
+    <row r="230" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A230" s="113">
         <v>218</v>
       </c>
@@ -10741,7 +10983,7 @@
       <c r="C230" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D230" s="130" t="s">
+      <c r="D230" s="129" t="s">
         <v>378</v>
       </c>
       <c r="E230" s="2" t="s">
@@ -10764,8 +11006,9 @@
       <c r="N230" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O230" s="66"/>
+    </row>
+    <row r="231" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A231" s="113">
         <v>219</v>
       </c>
@@ -10775,7 +11018,7 @@
       <c r="C231" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D231" s="130" t="s">
+      <c r="D231" s="129" t="s">
         <v>379</v>
       </c>
       <c r="E231" s="2" t="s">
@@ -10798,8 +11041,9 @@
       <c r="N231" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O231" s="66"/>
+    </row>
+    <row r="232" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A232" s="113">
         <v>220</v>
       </c>
@@ -10809,7 +11053,7 @@
       <c r="C232" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D232" s="130" t="s">
+      <c r="D232" s="129" t="s">
         <v>380</v>
       </c>
       <c r="E232" s="2" t="s">
@@ -10832,8 +11076,9 @@
       <c r="N232" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O232" s="66"/>
+    </row>
+    <row r="233" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A233" s="113">
         <v>221</v>
       </c>
@@ -10843,7 +11088,7 @@
       <c r="C233" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D233" s="130" t="s">
+      <c r="D233" s="129" t="s">
         <v>381</v>
       </c>
       <c r="E233" s="2" t="s">
@@ -10866,8 +11111,9 @@
       <c r="N233" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O233" s="66"/>
+    </row>
+    <row r="234" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A234" s="113">
         <v>222</v>
       </c>
@@ -10877,7 +11123,7 @@
       <c r="C234" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D234" s="130" t="s">
+      <c r="D234" s="129" t="s">
         <v>382</v>
       </c>
       <c r="E234" s="2" t="s">
@@ -10900,8 +11146,9 @@
       <c r="N234" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="235" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O234" s="66"/>
+    </row>
+    <row r="235" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A235" s="113">
         <v>223</v>
       </c>
@@ -10911,7 +11158,7 @@
       <c r="C235" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D235" s="130" t="s">
+      <c r="D235" s="129" t="s">
         <v>383</v>
       </c>
       <c r="E235" s="2" t="s">
@@ -10934,8 +11181,9 @@
       <c r="N235" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="236" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O235" s="66"/>
+    </row>
+    <row r="236" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A236" s="113">
         <v>224</v>
       </c>
@@ -10945,7 +11193,7 @@
       <c r="C236" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D236" s="130" t="s">
+      <c r="D236" s="129" t="s">
         <v>384</v>
       </c>
       <c r="E236" s="2" t="s">
@@ -10968,8 +11216,9 @@
       <c r="N236" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O236" s="66"/>
+    </row>
+    <row r="237" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A237" s="113">
         <v>225</v>
       </c>
@@ -10979,7 +11228,7 @@
       <c r="C237" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D237" s="130" t="s">
+      <c r="D237" s="129" t="s">
         <v>385</v>
       </c>
       <c r="E237" s="2" t="s">
@@ -11002,8 +11251,9 @@
       <c r="N237" s="66" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" s="26" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O237" s="66"/>
+    </row>
+    <row r="238" spans="1:15" s="26" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A238" s="115">
         <v>226</v>
       </c>
@@ -11013,7 +11263,7 @@
       <c r="C238" s="106" t="s">
         <v>335</v>
       </c>
-      <c r="D238" s="140" t="s">
+      <c r="D238" s="139" t="s">
         <v>386</v>
       </c>
       <c r="E238" s="89" t="s">
@@ -11036,6 +11286,7 @@
       <c r="N238" s="69" t="s">
         <v>456</v>
       </c>
+      <c r="O238" s="69"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L119" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/dataland-framework-toolbox/inputs/eu-taxonomy-financials/eu-taxonomy-financials.xlsx
+++ b/dataland-framework-toolbox/inputs/eu-taxonomy-financials/eu-taxonomy-financials.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d93542\Dataland\dataland-framework-toolbox\inputs\eu-taxonomy-financials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d91596\Dataland\dataland-framework-toolbox\inputs\eu-taxonomy-financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E09757E-17E1-4FD6-B163-750252256F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9195CB34-243B-4922-8496-BB0BDE48C754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5145" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Framework Data Model'!$A$1:$M$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Framework Data Model'!$A$1:$M$238</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
     <definedName name="IQ_CY">10000</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="642">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -1460,9 +1460,6 @@
     <t>Substantial Contribution to CCM in Percent - Of which Enabling</t>
   </si>
   <si>
-    <t>Substantial Contribution to CCM in Percent - Of which Transitional</t>
-  </si>
-  <si>
     <t>Share of Turnover-based KPI substantially contributing to CCM in Percent - Aligned</t>
   </si>
   <si>
@@ -1529,21 +1526,6 @@
     <t>CapEx-based Proportion of Revenue substantially contributing to CCM - Of which Enabling</t>
   </si>
   <si>
-    <t>Substantial Contribution to CCA in Percent - Eligible</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CCA in Percent - Aligned</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CCA in Percent - Of which Use of Proceeds</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CCA in Percent - Of which Enabling</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CCA in Percent - Of which Adapting</t>
-  </si>
-  <si>
     <t>Share of Turnover-based KPI substantially contributing to CCA in Percent - Aligned</t>
   </si>
   <si>
@@ -1592,18 +1574,6 @@
     <t>CapEx-based Proportion of Revenue substantially contributing to CCA - Of which Enabling</t>
   </si>
   <si>
-    <t>Substantial Contribution to Sustainable Use and Protection of WTR in Percent - Eligible</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to Sustainable Use and Protection of WTR in Percent - Aligned</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to Sustainable Use and Protection of WTR in Percent - Of which Use of Proceeds</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to Sustainable Use and Protection of WTR in Percent - Of which Enabling</t>
-  </si>
-  <si>
     <t>Share of Turnover-based KPI substantially contributing to Sustainable Use and Protection of WTR in Percent - Aligned</t>
   </si>
   <si>
@@ -1652,18 +1622,6 @@
     <t>CapEx-based Proportion of Revenue substantially contributing to Sustainable Use and Protection of WTR - Of which Enabling</t>
   </si>
   <si>
-    <t>Substantial Contribution to CE in Percent - Eligible</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CE in Percent - Aligned</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CE in Percent - Of which Use of Proceeds</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CE in Percent - Of which Enabling</t>
-  </si>
-  <si>
     <t>Share of Turnover-based KPI substantially contributing to CE in Percent - Aligned</t>
   </si>
   <si>
@@ -1676,18 +1634,6 @@
     <t>Share of CapEx-based KPI substantially contributing to CE in Percent - Of which Enabling</t>
   </si>
   <si>
-    <t>Substantial Contribution to PPC in Percent - Eligible</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to PPC in Percent - Aligned</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to PPC in Percent - Of which Use of Proceeds</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to PPC in Percent - Of which Enabling</t>
-  </si>
-  <si>
     <t>Share of Turnover-based KPI substantially contributing to PPC in Percent - Aligned</t>
   </si>
   <si>
@@ -1736,18 +1682,6 @@
     <t>CapEx-based Proportion of Revenue substantially contributing to PPC - Of which Enabling</t>
   </si>
   <si>
-    <t>Substantial Contribution to BIO in Percent - Eligible</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to BIO in Percent - Aligned</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to BIO in Percent - Of which Use of Proceeds</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to BIO in Percent - Of which Enabling</t>
-  </si>
-  <si>
     <t>Share of Turnover-based KPI substantially contributing to BIO in Percent - Aligned</t>
   </si>
   <si>
@@ -1794,6 +1728,270 @@
   </si>
   <si>
     <t>CapEx-based Proportion of Revenue substantially contributing to BIO - Of which Enabling</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to CCM in Percent - Eligible TO</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to CCM in Percent - Aligned TO</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to CCM in Percent - Of which Use of Proceeds TO</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to CCM in Percent - Of which Enabling TO</t>
+  </si>
+  <si>
+    <t>Share of CapEx-based KPI substantially contributing to BIO in Percent - Of which Enabling Insurance</t>
+  </si>
+  <si>
+    <t>Total of Absolute Premiums of Taxonomy-aligned Activities Insurance</t>
+  </si>
+  <si>
+    <t>Total of Absolute Premiums of Taxonomy-eligible but Taxonomy-non-aligned Activities Insurance</t>
+  </si>
+  <si>
+    <t>Total of Absolute Premiums of Taxonomy-non-eligible Activities Insurance</t>
+  </si>
+  <si>
+    <t>Proportion of Absolute Premiums of Taxonomy-aligned Activities Insurance</t>
+  </si>
+  <si>
+    <t>Proportion of Absolute Premiums of Taxonomy-eligible but Taxonomy-non-aligned Activities Insurance</t>
+  </si>
+  <si>
+    <t>Proportion of Absolute Premiums of Taxonomy-non-eligible Activities Insurance</t>
+  </si>
+  <si>
+    <t>Weighted Average Value of all Investments - Turnover-based in Percent Insurance</t>
+  </si>
+  <si>
+    <t>Weighted Average Value of all Investments - CapEx-based in Percent Insurance</t>
+  </si>
+  <si>
+    <t>Weighted Average Value of all Investments - Turnover-based monetary amount Insurance</t>
+  </si>
+  <si>
+    <t>Weighted Average Value of all Investments - CapEx-based monetary amount Insurance</t>
+  </si>
+  <si>
+    <t>Share of Turnover-based KPI substantially contributing to CCM in Percent - Aligned Insurance</t>
+  </si>
+  <si>
+    <t>Share of Turnover-based KPI substantially contributing to CCM in Percent - Of which Enabling Insurance</t>
+  </si>
+  <si>
+    <t>Share of Turnover-based KPI substantially contributing to CCM in Percent - Of which Transitional Insurance</t>
+  </si>
+  <si>
+    <t>Share of Turnover-based KPI substantially contributing to CCA in Percent - Aligned Insurance</t>
+  </si>
+  <si>
+    <t>Share of Turnover-based KPI substantially contributing to CCA in Percent - Of which Enabling Insurance</t>
+  </si>
+  <si>
+    <t>Share of Turnover-based KPI substantially contributing to Sustainable Use and Protection of WTR in Percent - Aligned Insurance</t>
+  </si>
+  <si>
+    <t>Share of Turnover-based KPI substantially contributing to Sustainable Use and Protection of WTR in Percent - Of which Enabling Insurance</t>
+  </si>
+  <si>
+    <t>Share of Turnover-based KPI substantially contributing to CE in Percent - Aligned Insurance</t>
+  </si>
+  <si>
+    <t>Share of Turnover-based KPI substantially contributing to CE in Percent - Of which Enabling Insurance</t>
+  </si>
+  <si>
+    <t>Share of Turnover-based KPI substantially contributing to PPC in Percent - Aligned Insurance</t>
+  </si>
+  <si>
+    <t>Share of Turnover-based KPI substantially contributing to PPC in Percent - Of which Enabling Insurance</t>
+  </si>
+  <si>
+    <t>Share of Turnover-based KPI substantially contributing to BIO in Percent - Aligned Insurance</t>
+  </si>
+  <si>
+    <t>Share of Turnover-based KPI substantially contributing to BIO in Percent - Of which Enabling Insurance</t>
+  </si>
+  <si>
+    <t>Share of CapEx-based KPI substantially contributing to CCM in Percent - Aligned Insurance</t>
+  </si>
+  <si>
+    <t>Share of CapEx-based KPI substantially contributing to CCM in Percent - Of which Enabling Insurance</t>
+  </si>
+  <si>
+    <t>Share of CapEx-based KPI substantially contributing to CCM in Percent - Of which Transitional Insurance</t>
+  </si>
+  <si>
+    <t>Share of CapEx-based KPI substantially contributing to CCA in Percent - Aligned Insurance</t>
+  </si>
+  <si>
+    <t>Share of CapEx-based KPI substantially contributing to CCA in Percent - Of which Enabling Insurance</t>
+  </si>
+  <si>
+    <t>Share of CapEx-based KPI substantially contributing to Sustainable Use and Protection of WTR in Percent - Aligned Insurance</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to CCM in Percent - Of which Transitional Capex</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to CCA in Percent - Eligible Capex</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to CCA in Percent - Aligned Capex</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to CCA in Percent - Of which Use of Proceeds Capex</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to CCA in Percent - Of which Enabling Capex</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to CCA in Percent - Of which Adapting Capex</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to Sustainable Use and Protection of WTR in Percent - Eligible Capex</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to Sustainable Use and Protection of WTR in Percent - Aligned Capex</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to Sustainable Use and Protection of WTR in Percent - Of which Use of Proceeds Capex</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to Sustainable Use and Protection of WTR in Percent - Of which Enabling Capex</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to CE in Percent - Eligible Capex</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to CE in Percent - Aligned Capex</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to CE in Percent - Of which Use of Proceeds Capex</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to CE in Percent - Of which Enabling Capex</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to PPC in Percent - Eligible Capex</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to PPC in Percent - Aligned Capex</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to PPC in Percent - Of which Use of Proceeds Capex</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to PPC in Percent - Of which Enabling Capex</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to BIO in Percent - Eligible Capex</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to BIO in Percent - Aligned Capex</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to BIO in Percent - Of which Use of Proceeds Capex</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to BIO in Percent - Of which Enabling Capex</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to any of the six Environmental Objectives in Percent - Eligible Capex</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to any of the six Environmental Objectives in Percent - Aligned Capex</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to any of the six Environmental Objectives in Percent - Of which Use of Proceeds Capex</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to any of the six Environmental Objectives in Percent - Of which Enabling Capex</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to any of the six Environmental Objectives in Percent - Of which Transitional Capex</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to CCM in Percent - Of which Transitional TO</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to CCA in Percent - Eligible TO</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to CCA in Percent - Aligned TO</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to CCA in Percent - Of which Use of Proceeds TO</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to CCA in Percent - Of which Enabling TO</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to CCA in Percent - Of which Adapting TO</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to Sustainable Use and Protection of WTR in Percent - Eligible TO</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to Sustainable Use and Protection of WTR in Percent - Aligned TO</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to Sustainable Use and Protection of WTR in Percent - Of which Use of Proceeds TO</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to Sustainable Use and Protection of WTR in Percent - Of which Enabling TO</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to CE in Percent - Eligible TO</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to CE in Percent - Aligned TO</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to CE in Percent - Of which Use of Proceeds TO</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to CE in Percent - Of which Enabling TO</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to PPC in Percent - Eligible TO</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to PPC in Percent - Aligned TO</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to PPC in Percent - Of which Use of Proceeds TO</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to PPC in Percent - Of which Enabling TO</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to BIO in Percent - Eligible TO</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to BIO in Percent - Aligned TO</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to BIO in Percent - Of which Use of Proceeds TO</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to BIO in Percent - Of which Enabling TO</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to any of the six Environmental Objectives in Percent - Eligible TO</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to any of the six Environmental Objectives in Percent - Aligned TO</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to any of the six Environmental Objectives in Percent - Of which Use of Proceeds TO</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to any of the six Environmental Objectives in Percent - Of which Enabling TO</t>
+  </si>
+  <si>
+    <t>Substantial Contribution to any of the six Environmental Objectives in Percent - Of which Transitional TO</t>
   </si>
 </sst>
 </file>
@@ -3025,7 +3223,18 @@
     <cellStyle name="Normal 5" xfId="5" xr:uid="{D1778BAD-A850-47A1-8820-D9F50BDF158C}"/>
     <cellStyle name="Normal 6" xfId="7" xr:uid="{9099DBD5-D38C-44AB-975C-276D53FC48EC}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -3289,27 +3498,27 @@
   <dimension ref="A1:P238"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.36328125" customWidth="1"/>
-    <col min="3" max="3" width="71.6328125" customWidth="1"/>
-    <col min="4" max="5" width="117.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.59765625" customWidth="1"/>
+    <col min="4" max="5" width="117.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="92" customWidth="1"/>
-    <col min="7" max="7" width="36.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.06640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="30.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
@@ -3359,7 +3568,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="108">
         <v>1</v>
       </c>
@@ -3395,7 +3604,7 @@
       <c r="O2" s="34"/>
       <c r="P2" s="34"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="108">
         <v>2</v>
       </c>
@@ -3431,7 +3640,7 @@
       <c r="O3" s="34"/>
       <c r="P3" s="34"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="108">
         <v>3</v>
       </c>
@@ -3465,7 +3674,7 @@
       <c r="O4" s="34"/>
       <c r="P4" s="34"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="108">
         <v>4</v>
       </c>
@@ -3503,7 +3712,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="108">
         <v>5</v>
       </c>
@@ -3539,7 +3748,7 @@
       <c r="O6" s="34"/>
       <c r="P6" s="34"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="108">
         <v>6</v>
       </c>
@@ -3573,7 +3782,7 @@
       <c r="O7" s="34"/>
       <c r="P7" s="34"/>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="109">
         <v>7</v>
       </c>
@@ -3607,7 +3816,7 @@
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="73">
         <v>8</v>
       </c>
@@ -3647,7 +3856,7 @@
       </c>
       <c r="P9" s="42"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="73">
         <v>9</v>
       </c>
@@ -3687,7 +3896,7 @@
       </c>
       <c r="P10" s="34"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="73">
         <v>9.1</v>
       </c>
@@ -3727,7 +3936,7 @@
       </c>
       <c r="P11" s="34"/>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="72" t="s">
         <v>105</v>
       </c>
@@ -3767,7 +3976,7 @@
       </c>
       <c r="P12" s="42"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="72" t="s">
         <v>106</v>
       </c>
@@ -3807,7 +4016,7 @@
       </c>
       <c r="P13" s="34"/>
     </row>
-    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="110" t="s">
         <v>107</v>
       </c>
@@ -3847,7 +4056,7 @@
       </c>
       <c r="P14" s="41"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="72">
         <v>10</v>
       </c>
@@ -3861,7 +4070,7 @@
         <v>46</v>
       </c>
       <c r="E15" s="119" t="s">
-        <v>460</v>
+        <v>554</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>52</v>
@@ -3885,7 +4094,7 @@
       </c>
       <c r="P15" s="34"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="72">
         <v>10.1</v>
       </c>
@@ -3899,7 +4108,7 @@
         <v>35</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>461</v>
+        <v>555</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>53</v>
@@ -3923,7 +4132,7 @@
       </c>
       <c r="P16" s="34"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" s="72" t="s">
         <v>108</v>
       </c>
@@ -3937,7 +4146,7 @@
         <v>66</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>462</v>
+        <v>556</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>72</v>
@@ -3961,7 +4170,7 @@
       </c>
       <c r="P17" s="34"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" s="72" t="s">
         <v>109</v>
       </c>
@@ -3975,7 +4184,7 @@
         <v>149</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>463</v>
+        <v>557</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>54</v>
@@ -3999,7 +4208,7 @@
       </c>
       <c r="P18" s="34"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="72" t="s">
         <v>110</v>
       </c>
@@ -4013,7 +4222,7 @@
         <v>156</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>464</v>
+        <v>615</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>55</v>
@@ -4037,7 +4246,7 @@
       </c>
       <c r="P19" s="34"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="72">
         <v>11</v>
       </c>
@@ -4051,7 +4260,7 @@
         <v>36</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>487</v>
+        <v>616</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>60</v>
@@ -4075,7 +4284,7 @@
       </c>
       <c r="P20" s="34"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" s="72">
         <v>11.1</v>
       </c>
@@ -4089,7 +4298,7 @@
         <v>37</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>488</v>
+        <v>617</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>61</v>
@@ -4113,7 +4322,7 @@
       </c>
       <c r="P21" s="34"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" s="72" t="s">
         <v>111</v>
       </c>
@@ -4127,7 +4336,7 @@
         <v>67</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>489</v>
+        <v>618</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>73</v>
@@ -4151,7 +4360,7 @@
       </c>
       <c r="P22" s="34"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" s="72" t="s">
         <v>112</v>
       </c>
@@ -4165,7 +4374,7 @@
         <v>150</v>
       </c>
       <c r="E23" s="124" t="s">
-        <v>490</v>
+        <v>619</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>62</v>
@@ -4189,7 +4398,7 @@
       </c>
       <c r="P23" s="34"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="72" t="s">
         <v>175</v>
       </c>
@@ -4203,7 +4412,7 @@
         <v>177</v>
       </c>
       <c r="E24" s="124" t="s">
-        <v>491</v>
+        <v>620</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>176</v>
@@ -4227,7 +4436,7 @@
       </c>
       <c r="P24" s="34"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" s="72">
         <v>12</v>
       </c>
@@ -4241,7 +4450,7 @@
         <v>38</v>
       </c>
       <c r="E25" s="124" t="s">
-        <v>508</v>
+        <v>621</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>165</v>
@@ -4265,7 +4474,7 @@
       </c>
       <c r="P25" s="34"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" s="72">
         <v>12.1</v>
       </c>
@@ -4279,7 +4488,7 @@
         <v>39</v>
       </c>
       <c r="E26" s="124" t="s">
-        <v>509</v>
+        <v>622</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>166</v>
@@ -4303,7 +4512,7 @@
       </c>
       <c r="P26" s="34"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" s="72" t="s">
         <v>113</v>
       </c>
@@ -4317,7 +4526,7 @@
         <v>68</v>
       </c>
       <c r="E27" s="124" t="s">
-        <v>510</v>
+        <v>623</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>167</v>
@@ -4341,7 +4550,7 @@
       </c>
       <c r="P27" s="34"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" s="72" t="s">
         <v>114</v>
       </c>
@@ -4355,7 +4564,7 @@
         <v>151</v>
       </c>
       <c r="E28" s="124" t="s">
-        <v>511</v>
+        <v>624</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>168</v>
@@ -4379,7 +4588,7 @@
       </c>
       <c r="P28" s="34"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" s="72">
         <v>13</v>
       </c>
@@ -4393,7 +4602,7 @@
         <v>40</v>
       </c>
       <c r="E29" s="124" t="s">
-        <v>528</v>
+        <v>625</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>74</v>
@@ -4417,7 +4626,7 @@
       </c>
       <c r="P29" s="34"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" s="72">
         <v>13.1</v>
       </c>
@@ -4431,7 +4640,7 @@
         <v>41</v>
       </c>
       <c r="E30" s="124" t="s">
-        <v>529</v>
+        <v>626</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>75</v>
@@ -4455,7 +4664,7 @@
       </c>
       <c r="P30" s="34"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" s="72" t="s">
         <v>115</v>
       </c>
@@ -4469,7 +4678,7 @@
         <v>69</v>
       </c>
       <c r="E31" s="124" t="s">
-        <v>530</v>
+        <v>627</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>76</v>
@@ -4493,7 +4702,7 @@
       </c>
       <c r="P31" s="34"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" s="72" t="s">
         <v>116</v>
       </c>
@@ -4507,7 +4716,7 @@
         <v>152</v>
       </c>
       <c r="E32" s="124" t="s">
-        <v>531</v>
+        <v>628</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>77</v>
@@ -4531,7 +4740,7 @@
       </c>
       <c r="P32" s="34"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33" s="72">
         <v>14</v>
       </c>
@@ -4545,7 +4754,7 @@
         <v>42</v>
       </c>
       <c r="E33" s="124" t="s">
-        <v>536</v>
+        <v>629</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>81</v>
@@ -4569,7 +4778,7 @@
       </c>
       <c r="P33" s="34"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34" s="72">
         <v>14.1</v>
       </c>
@@ -4583,7 +4792,7 @@
         <v>43</v>
       </c>
       <c r="E34" s="124" t="s">
-        <v>537</v>
+        <v>630</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>82</v>
@@ -4607,7 +4816,7 @@
       </c>
       <c r="P34" s="34"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" s="72" t="s">
         <v>117</v>
       </c>
@@ -4621,7 +4830,7 @@
         <v>70</v>
       </c>
       <c r="E35" s="124" t="s">
-        <v>538</v>
+        <v>631</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>83</v>
@@ -4645,7 +4854,7 @@
       </c>
       <c r="P35" s="34"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" s="72" t="s">
         <v>118</v>
       </c>
@@ -4659,7 +4868,7 @@
         <v>153</v>
       </c>
       <c r="E36" s="124" t="s">
-        <v>539</v>
+        <v>632</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>84</v>
@@ -4683,7 +4892,7 @@
       </c>
       <c r="P36" s="34"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" s="72">
         <v>15</v>
       </c>
@@ -4697,7 +4906,7 @@
         <v>44</v>
       </c>
       <c r="E37" s="124" t="s">
-        <v>556</v>
+        <v>633</v>
       </c>
       <c r="F37" s="16" t="s">
         <v>88</v>
@@ -4721,7 +4930,7 @@
       </c>
       <c r="P37" s="34"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38" s="72">
         <v>15.1</v>
       </c>
@@ -4735,7 +4944,7 @@
         <v>45</v>
       </c>
       <c r="E38" s="124" t="s">
-        <v>557</v>
+        <v>634</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>89</v>
@@ -4759,7 +4968,7 @@
       </c>
       <c r="P38" s="34"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39" s="43" t="s">
         <v>119</v>
       </c>
@@ -4773,7 +4982,7 @@
         <v>71</v>
       </c>
       <c r="E39" s="125" t="s">
-        <v>558</v>
+        <v>635</v>
       </c>
       <c r="F39" s="17" t="s">
         <v>90</v>
@@ -4797,7 +5006,7 @@
       </c>
       <c r="P39" s="45"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40" s="72" t="s">
         <v>120</v>
       </c>
@@ -4811,7 +5020,7 @@
         <v>154</v>
       </c>
       <c r="E40" s="126" t="s">
-        <v>559</v>
+        <v>636</v>
       </c>
       <c r="F40" s="30" t="s">
         <v>91</v>
@@ -4835,7 +5044,7 @@
       </c>
       <c r="P40" s="46"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41" s="72">
         <v>16</v>
       </c>
@@ -4849,7 +5058,7 @@
         <v>123</v>
       </c>
       <c r="E41" s="124" t="s">
-        <v>123</v>
+        <v>637</v>
       </c>
       <c r="F41" s="16" t="s">
         <v>169</v>
@@ -4873,7 +5082,7 @@
       </c>
       <c r="P41" s="34"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42" s="72">
         <v>16.100000000000001</v>
       </c>
@@ -4887,7 +5096,7 @@
         <v>124</v>
       </c>
       <c r="E42" s="124" t="s">
-        <v>124</v>
+        <v>638</v>
       </c>
       <c r="F42" s="16" t="s">
         <v>126</v>
@@ -4911,7 +5120,7 @@
       </c>
       <c r="P42" s="34"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43" s="43" t="s">
         <v>121</v>
       </c>
@@ -4925,7 +5134,7 @@
         <v>125</v>
       </c>
       <c r="E43" s="74" t="s">
-        <v>125</v>
+        <v>639</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>127</v>
@@ -4949,7 +5158,7 @@
       </c>
       <c r="P43" s="45"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44" s="43" t="s">
         <v>122</v>
       </c>
@@ -4963,7 +5172,7 @@
         <v>155</v>
       </c>
       <c r="E44" s="126" t="s">
-        <v>155</v>
+        <v>640</v>
       </c>
       <c r="F44" s="30" t="s">
         <v>147</v>
@@ -4987,7 +5196,7 @@
       </c>
       <c r="P44" s="46"/>
     </row>
-    <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="111" t="s">
         <v>159</v>
       </c>
@@ -5001,7 +5210,7 @@
         <v>157</v>
       </c>
       <c r="E45" s="127" t="s">
-        <v>157</v>
+        <v>641</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>128</v>
@@ -5025,7 +5234,7 @@
       </c>
       <c r="P45" s="50"/>
     </row>
-    <row r="46" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A46" s="72">
         <v>20</v>
       </c>
@@ -5063,7 +5272,7 @@
       </c>
       <c r="P46" s="34"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47" s="72">
         <v>20.100000000000001</v>
       </c>
@@ -5101,7 +5310,7 @@
       </c>
       <c r="P47" s="34"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48" s="72" t="s">
         <v>129</v>
       </c>
@@ -5139,7 +5348,7 @@
       </c>
       <c r="P48" s="34"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A49" s="72" t="s">
         <v>130</v>
       </c>
@@ -5177,7 +5386,7 @@
       </c>
       <c r="P49" s="34"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A50" s="72" t="s">
         <v>131</v>
       </c>
@@ -5191,7 +5400,7 @@
         <v>156</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>464</v>
+        <v>588</v>
       </c>
       <c r="F50" s="16" t="s">
         <v>59</v>
@@ -5215,7 +5424,7 @@
       </c>
       <c r="P50" s="34"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A51" s="72">
         <v>21</v>
       </c>
@@ -5229,7 +5438,7 @@
         <v>36</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>487</v>
+        <v>589</v>
       </c>
       <c r="F51" s="16" t="s">
         <v>63</v>
@@ -5253,7 +5462,7 @@
       </c>
       <c r="P51" s="34"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A52" s="72">
         <v>21.1</v>
       </c>
@@ -5267,7 +5476,7 @@
         <v>37</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>488</v>
+        <v>590</v>
       </c>
       <c r="F52" s="16" t="s">
         <v>64</v>
@@ -5291,7 +5500,7 @@
       </c>
       <c r="P52" s="34"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A53" s="72" t="s">
         <v>132</v>
       </c>
@@ -5305,7 +5514,7 @@
         <v>67</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>489</v>
+        <v>591</v>
       </c>
       <c r="F53" s="16" t="s">
         <v>73</v>
@@ -5329,7 +5538,7 @@
       </c>
       <c r="P53" s="34"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A54" s="72" t="s">
         <v>133</v>
       </c>
@@ -5343,7 +5552,7 @@
         <v>150</v>
       </c>
       <c r="E54" s="124" t="s">
-        <v>490</v>
+        <v>592</v>
       </c>
       <c r="F54" s="16" t="s">
         <v>65</v>
@@ -5367,7 +5576,7 @@
       </c>
       <c r="P54" s="34"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A55" s="72" t="s">
         <v>178</v>
       </c>
@@ -5381,7 +5590,7 @@
         <v>177</v>
       </c>
       <c r="E55" s="124" t="s">
-        <v>491</v>
+        <v>593</v>
       </c>
       <c r="F55" s="16" t="s">
         <v>179</v>
@@ -5405,7 +5614,7 @@
       </c>
       <c r="P55" s="34"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A56" s="72">
         <v>22</v>
       </c>
@@ -5419,7 +5628,7 @@
         <v>38</v>
       </c>
       <c r="E56" s="124" t="s">
-        <v>508</v>
+        <v>594</v>
       </c>
       <c r="F56" s="16" t="s">
         <v>170</v>
@@ -5443,7 +5652,7 @@
       </c>
       <c r="P56" s="34"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A57" s="72">
         <v>22.1</v>
       </c>
@@ -5457,7 +5666,7 @@
         <v>39</v>
       </c>
       <c r="E57" s="124" t="s">
-        <v>509</v>
+        <v>595</v>
       </c>
       <c r="F57" s="16" t="s">
         <v>171</v>
@@ -5481,7 +5690,7 @@
       </c>
       <c r="P57" s="34"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A58" s="72" t="s">
         <v>134</v>
       </c>
@@ -5495,7 +5704,7 @@
         <v>68</v>
       </c>
       <c r="E58" s="124" t="s">
-        <v>510</v>
+        <v>596</v>
       </c>
       <c r="F58" s="15" t="s">
         <v>167</v>
@@ -5519,7 +5728,7 @@
       </c>
       <c r="P58" s="34"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A59" s="72" t="s">
         <v>135</v>
       </c>
@@ -5533,7 +5742,7 @@
         <v>151</v>
       </c>
       <c r="E59" s="124" t="s">
-        <v>511</v>
+        <v>597</v>
       </c>
       <c r="F59" s="15" t="s">
         <v>172</v>
@@ -5557,7 +5766,7 @@
       </c>
       <c r="P59" s="34"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A60" s="72">
         <v>23</v>
       </c>
@@ -5571,7 +5780,7 @@
         <v>40</v>
       </c>
       <c r="E60" s="124" t="s">
-        <v>528</v>
+        <v>598</v>
       </c>
       <c r="F60" s="15" t="s">
         <v>78</v>
@@ -5595,7 +5804,7 @@
       </c>
       <c r="P60" s="34"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A61" s="72">
         <v>23.1</v>
       </c>
@@ -5609,7 +5818,7 @@
         <v>41</v>
       </c>
       <c r="E61" s="124" t="s">
-        <v>529</v>
+        <v>599</v>
       </c>
       <c r="F61" s="15" t="s">
         <v>79</v>
@@ -5633,7 +5842,7 @@
       </c>
       <c r="P61" s="34"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A62" s="72" t="s">
         <v>136</v>
       </c>
@@ -5647,7 +5856,7 @@
         <v>69</v>
       </c>
       <c r="E62" s="124" t="s">
-        <v>530</v>
+        <v>600</v>
       </c>
       <c r="F62" s="15" t="s">
         <v>76</v>
@@ -5671,7 +5880,7 @@
       </c>
       <c r="P62" s="34"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A63" s="72" t="s">
         <v>137</v>
       </c>
@@ -5685,7 +5894,7 @@
         <v>152</v>
       </c>
       <c r="E63" s="124" t="s">
-        <v>531</v>
+        <v>601</v>
       </c>
       <c r="F63" s="15" t="s">
         <v>80</v>
@@ -5709,7 +5918,7 @@
       </c>
       <c r="P63" s="34"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A64" s="72">
         <v>24</v>
       </c>
@@ -5723,7 +5932,7 @@
         <v>42</v>
       </c>
       <c r="E64" s="124" t="s">
-        <v>536</v>
+        <v>602</v>
       </c>
       <c r="F64" s="15" t="s">
         <v>85</v>
@@ -5747,7 +5956,7 @@
       </c>
       <c r="P64" s="34"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A65" s="72">
         <v>24.1</v>
       </c>
@@ -5761,7 +5970,7 @@
         <v>43</v>
       </c>
       <c r="E65" s="124" t="s">
-        <v>537</v>
+        <v>603</v>
       </c>
       <c r="F65" s="15" t="s">
         <v>86</v>
@@ -5785,7 +5994,7 @@
       </c>
       <c r="P65" s="34"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A66" s="72" t="s">
         <v>138</v>
       </c>
@@ -5799,7 +6008,7 @@
         <v>70</v>
       </c>
       <c r="E66" s="124" t="s">
-        <v>538</v>
+        <v>604</v>
       </c>
       <c r="F66" s="15" t="s">
         <v>83</v>
@@ -5823,7 +6032,7 @@
       </c>
       <c r="P66" s="34"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A67" s="72" t="s">
         <v>139</v>
       </c>
@@ -5837,7 +6046,7 @@
         <v>153</v>
       </c>
       <c r="E67" s="124" t="s">
-        <v>539</v>
+        <v>605</v>
       </c>
       <c r="F67" s="15" t="s">
         <v>87</v>
@@ -5861,7 +6070,7 @@
       </c>
       <c r="P67" s="34"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A68" s="72">
         <v>25</v>
       </c>
@@ -5875,7 +6084,7 @@
         <v>44</v>
       </c>
       <c r="E68" s="124" t="s">
-        <v>556</v>
+        <v>606</v>
       </c>
       <c r="F68" s="15" t="s">
         <v>92</v>
@@ -5899,7 +6108,7 @@
       </c>
       <c r="P68" s="34"/>
     </row>
-    <row r="69" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="72">
         <v>25.1</v>
       </c>
@@ -5913,7 +6122,7 @@
         <v>45</v>
       </c>
       <c r="E69" s="124" t="s">
-        <v>557</v>
+        <v>607</v>
       </c>
       <c r="F69" s="15" t="s">
         <v>93</v>
@@ -5937,7 +6146,7 @@
       </c>
       <c r="P69" s="34"/>
     </row>
-    <row r="70" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="43" t="s">
         <v>140</v>
       </c>
@@ -5951,7 +6160,7 @@
         <v>71</v>
       </c>
       <c r="E70" s="125" t="s">
-        <v>558</v>
+        <v>608</v>
       </c>
       <c r="F70" s="15" t="s">
         <v>90</v>
@@ -5975,7 +6184,7 @@
       </c>
       <c r="P70" s="34"/>
     </row>
-    <row r="71" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="72" t="s">
         <v>141</v>
       </c>
@@ -5989,7 +6198,7 @@
         <v>154</v>
       </c>
       <c r="E71" s="126" t="s">
-        <v>559</v>
+        <v>609</v>
       </c>
       <c r="F71" s="15" t="s">
         <v>173</v>
@@ -6013,7 +6222,7 @@
       </c>
       <c r="P71" s="34"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A72" s="72">
         <v>26</v>
       </c>
@@ -6027,7 +6236,7 @@
         <v>123</v>
       </c>
       <c r="E72" s="124" t="s">
-        <v>123</v>
+        <v>610</v>
       </c>
       <c r="F72" s="16" t="s">
         <v>174</v>
@@ -6051,7 +6260,7 @@
       </c>
       <c r="P72" s="34"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A73" s="72">
         <v>26.1</v>
       </c>
@@ -6065,7 +6274,7 @@
         <v>124</v>
       </c>
       <c r="E73" s="124" t="s">
-        <v>124</v>
+        <v>611</v>
       </c>
       <c r="F73" s="16" t="s">
         <v>145</v>
@@ -6089,7 +6298,7 @@
       </c>
       <c r="P73" s="34"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A74" s="43" t="s">
         <v>142</v>
       </c>
@@ -6103,7 +6312,7 @@
         <v>125</v>
       </c>
       <c r="E74" s="74" t="s">
-        <v>125</v>
+        <v>612</v>
       </c>
       <c r="F74" s="17" t="s">
         <v>127</v>
@@ -6127,7 +6336,7 @@
       </c>
       <c r="P74" s="34"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A75" s="72" t="s">
         <v>143</v>
       </c>
@@ -6141,7 +6350,7 @@
         <v>155</v>
       </c>
       <c r="E75" s="126" t="s">
-        <v>155</v>
+        <v>613</v>
       </c>
       <c r="F75" s="30" t="s">
         <v>148</v>
@@ -6165,7 +6374,7 @@
       </c>
       <c r="P75" s="34"/>
     </row>
-    <row r="76" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A76" s="110" t="s">
         <v>144</v>
       </c>
@@ -6179,7 +6388,7 @@
         <v>157</v>
       </c>
       <c r="E76" s="128" t="s">
-        <v>157</v>
+        <v>614</v>
       </c>
       <c r="F76" s="70" t="s">
         <v>146</v>
@@ -6203,7 +6412,7 @@
       </c>
       <c r="P76" s="41"/>
     </row>
-    <row r="77" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="56">
         <v>65</v>
       </c>
@@ -6239,7 +6448,7 @@
       <c r="O77" s="34"/>
       <c r="P77" s="34"/>
     </row>
-    <row r="78" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="56">
         <v>66</v>
       </c>
@@ -6275,7 +6484,7 @@
       <c r="O78" s="34"/>
       <c r="P78" s="34"/>
     </row>
-    <row r="79" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="56">
         <v>67</v>
       </c>
@@ -6313,7 +6522,7 @@
       <c r="O79" s="34"/>
       <c r="P79" s="34"/>
     </row>
-    <row r="80" spans="1:16" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A80" s="112">
         <v>68</v>
       </c>
@@ -6351,7 +6560,7 @@
       <c r="O80" s="85"/>
       <c r="P80" s="85"/>
     </row>
-    <row r="81" spans="1:16" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" ht="14.55" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A81" s="56">
         <v>69</v>
       </c>
@@ -6365,7 +6574,7 @@
         <v>419</v>
       </c>
       <c r="E81" s="129" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F81" s="71" t="s">
         <v>191</v>
@@ -6389,7 +6598,7 @@
       </c>
       <c r="P81" s="34"/>
     </row>
-    <row r="82" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="56">
         <v>70</v>
       </c>
@@ -6403,7 +6612,7 @@
         <v>420</v>
       </c>
       <c r="E82" s="129" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F82" s="71" t="s">
         <v>192</v>
@@ -6427,7 +6636,7 @@
       </c>
       <c r="P82" s="34"/>
     </row>
-    <row r="83" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="56">
         <v>71</v>
       </c>
@@ -6441,7 +6650,7 @@
         <v>421</v>
       </c>
       <c r="E83" s="129" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F83" s="71" t="s">
         <v>193</v>
@@ -6465,7 +6674,7 @@
       </c>
       <c r="P83" s="34"/>
     </row>
-    <row r="84" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="56">
         <v>72</v>
       </c>
@@ -6479,7 +6688,7 @@
         <v>422</v>
       </c>
       <c r="E84" s="129" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F84" s="71" t="s">
         <v>445</v>
@@ -6503,7 +6712,7 @@
       </c>
       <c r="P84" s="34"/>
     </row>
-    <row r="85" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="56">
         <v>73</v>
       </c>
@@ -6517,7 +6726,7 @@
         <v>423</v>
       </c>
       <c r="E85" s="129" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F85" s="71" t="s">
         <v>446</v>
@@ -6541,7 +6750,7 @@
       </c>
       <c r="P85" s="34"/>
     </row>
-    <row r="86" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="56">
         <v>74</v>
       </c>
@@ -6555,7 +6764,7 @@
         <v>424</v>
       </c>
       <c r="E86" s="129" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>194</v>
@@ -6579,7 +6788,7 @@
       </c>
       <c r="P86" s="34"/>
     </row>
-    <row r="87" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="56">
         <v>75</v>
       </c>
@@ -6593,7 +6802,7 @@
         <v>425</v>
       </c>
       <c r="E87" s="129" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>195</v>
@@ -6617,7 +6826,7 @@
       </c>
       <c r="P87" s="34"/>
     </row>
-    <row r="88" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="56">
         <v>76</v>
       </c>
@@ -6631,7 +6840,7 @@
         <v>426</v>
       </c>
       <c r="E88" s="129" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>196</v>
@@ -6655,7 +6864,7 @@
       </c>
       <c r="P88" s="34"/>
     </row>
-    <row r="89" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="56">
         <v>77</v>
       </c>
@@ -6669,7 +6878,7 @@
         <v>427</v>
       </c>
       <c r="E89" s="129" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>197</v>
@@ -6693,7 +6902,7 @@
       </c>
       <c r="P89" s="34"/>
     </row>
-    <row r="90" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="56">
         <v>78</v>
       </c>
@@ -6707,7 +6916,7 @@
         <v>428</v>
       </c>
       <c r="E90" s="129" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>198</v>
@@ -6731,7 +6940,7 @@
       </c>
       <c r="P90" s="34"/>
     </row>
-    <row r="91" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="56">
         <v>79</v>
       </c>
@@ -6745,7 +6954,7 @@
         <v>429</v>
       </c>
       <c r="E91" s="129" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>199</v>
@@ -6769,7 +6978,7 @@
       </c>
       <c r="P91" s="34"/>
     </row>
-    <row r="92" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="56">
         <v>80</v>
       </c>
@@ -6783,7 +6992,7 @@
         <v>430</v>
       </c>
       <c r="E92" s="131" t="s">
-        <v>560</v>
+        <v>538</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>200</v>
@@ -6807,7 +7016,7 @@
       </c>
       <c r="P92" s="45"/>
     </row>
-    <row r="93" spans="1:16" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A93" s="52">
         <v>81</v>
       </c>
@@ -6821,7 +7030,7 @@
         <v>431</v>
       </c>
       <c r="E93" s="132" t="s">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="F93" s="24" t="s">
         <v>201</v>
@@ -6845,7 +7054,7 @@
       </c>
       <c r="P93" s="55"/>
     </row>
-    <row r="94" spans="1:16" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" ht="14.55" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A94" s="56">
         <v>82</v>
       </c>
@@ -6859,7 +7068,7 @@
         <v>432</v>
       </c>
       <c r="E94" s="129" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F94" s="71" t="s">
         <v>241</v>
@@ -6883,7 +7092,7 @@
       </c>
       <c r="P94" s="57"/>
     </row>
-    <row r="95" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="56">
         <v>83</v>
       </c>
@@ -6897,7 +7106,7 @@
         <v>433</v>
       </c>
       <c r="E95" s="129" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F95" s="71" t="s">
         <v>202</v>
@@ -6921,7 +7130,7 @@
       </c>
       <c r="P95" s="58"/>
     </row>
-    <row r="96" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="56">
         <v>84</v>
       </c>
@@ -6935,7 +7144,7 @@
         <v>434</v>
       </c>
       <c r="E96" s="129" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F96" s="71" t="s">
         <v>203</v>
@@ -6959,7 +7168,7 @@
       </c>
       <c r="P96" s="58"/>
     </row>
-    <row r="97" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="56">
         <v>85</v>
       </c>
@@ -6973,7 +7182,7 @@
         <v>435</v>
       </c>
       <c r="E97" s="129" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F97" s="71" t="s">
         <v>447</v>
@@ -6997,7 +7206,7 @@
       </c>
       <c r="P97" s="58"/>
     </row>
-    <row r="98" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="56">
         <v>86</v>
       </c>
@@ -7011,7 +7220,7 @@
         <v>436</v>
       </c>
       <c r="E98" s="129" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F98" s="71" t="s">
         <v>448</v>
@@ -7035,7 +7244,7 @@
       </c>
       <c r="P98" s="58"/>
     </row>
-    <row r="99" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="56">
         <v>87</v>
       </c>
@@ -7049,7 +7258,7 @@
         <v>437</v>
       </c>
       <c r="E99" s="129" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>204</v>
@@ -7073,7 +7282,7 @@
       </c>
       <c r="P99" s="58"/>
     </row>
-    <row r="100" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="56">
         <v>88</v>
       </c>
@@ -7087,7 +7296,7 @@
         <v>438</v>
       </c>
       <c r="E100" s="129" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>205</v>
@@ -7111,7 +7320,7 @@
       </c>
       <c r="P100" s="58"/>
     </row>
-    <row r="101" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="56">
         <v>89</v>
       </c>
@@ -7125,7 +7334,7 @@
         <v>439</v>
       </c>
       <c r="E101" s="129" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>206</v>
@@ -7149,7 +7358,7 @@
       </c>
       <c r="P101" s="58"/>
     </row>
-    <row r="102" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="56">
         <v>90</v>
       </c>
@@ -7163,7 +7372,7 @@
         <v>440</v>
       </c>
       <c r="E102" s="129" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>207</v>
@@ -7187,7 +7396,7 @@
       </c>
       <c r="P102" s="58"/>
     </row>
-    <row r="103" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="56">
         <v>91</v>
       </c>
@@ -7201,7 +7410,7 @@
         <v>441</v>
       </c>
       <c r="E103" s="129" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>208</v>
@@ -7225,7 +7434,7 @@
       </c>
       <c r="P103" s="58"/>
     </row>
-    <row r="104" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="56">
         <v>92</v>
       </c>
@@ -7239,7 +7448,7 @@
         <v>442</v>
       </c>
       <c r="E104" s="129" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>209</v>
@@ -7263,7 +7472,7 @@
       </c>
       <c r="P104" s="58"/>
     </row>
-    <row r="105" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="56">
         <v>93</v>
       </c>
@@ -7277,7 +7486,7 @@
         <v>443</v>
       </c>
       <c r="E105" s="131" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>210</v>
@@ -7301,7 +7510,7 @@
       </c>
       <c r="P105" s="58"/>
     </row>
-    <row r="106" spans="1:16" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A106" s="59">
         <v>94</v>
       </c>
@@ -7315,7 +7524,7 @@
         <v>444</v>
       </c>
       <c r="E106" s="133" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="F106" s="76" t="s">
         <v>211</v>
@@ -7339,7 +7548,7 @@
       </c>
       <c r="P106" s="60"/>
     </row>
-    <row r="107" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="77">
         <v>95</v>
       </c>
@@ -7377,7 +7586,7 @@
       <c r="O107" s="79"/>
       <c r="P107" s="79"/>
     </row>
-    <row r="108" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="75">
         <v>96</v>
       </c>
@@ -7415,7 +7624,7 @@
       <c r="O108" s="62"/>
       <c r="P108" s="62"/>
     </row>
-    <row r="109" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="75">
         <v>97</v>
       </c>
@@ -7453,7 +7662,7 @@
       <c r="O109" s="62"/>
       <c r="P109" s="62"/>
     </row>
-    <row r="110" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="75">
         <v>98</v>
       </c>
@@ -7489,7 +7698,7 @@
       <c r="O110" s="62"/>
       <c r="P110" s="62"/>
     </row>
-    <row r="111" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="75">
         <v>99</v>
       </c>
@@ -7525,7 +7734,7 @@
       <c r="O111" s="62"/>
       <c r="P111" s="62"/>
     </row>
-    <row r="112" spans="1:16" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A112" s="52">
         <v>100</v>
       </c>
@@ -7561,7 +7770,7 @@
       <c r="O112" s="81"/>
       <c r="P112" s="81"/>
     </row>
-    <row r="113" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A113" s="75">
         <v>101</v>
       </c>
@@ -7575,7 +7784,7 @@
         <v>185</v>
       </c>
       <c r="E113" s="129" t="s">
-        <v>185</v>
+        <v>558</v>
       </c>
       <c r="F113" s="71" t="s">
         <v>225</v>
@@ -7597,7 +7806,7 @@
       <c r="O113" s="34"/>
       <c r="P113" s="34"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A114" s="75">
         <v>102</v>
       </c>
@@ -7611,7 +7820,7 @@
         <v>186</v>
       </c>
       <c r="E114" s="129" t="s">
-        <v>186</v>
+        <v>559</v>
       </c>
       <c r="F114" s="71" t="s">
         <v>226</v>
@@ -7633,7 +7842,7 @@
       <c r="O114" s="34"/>
       <c r="P114" s="34"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A115" s="75">
         <v>103</v>
       </c>
@@ -7647,7 +7856,7 @@
         <v>187</v>
       </c>
       <c r="E115" s="129" t="s">
-        <v>187</v>
+        <v>560</v>
       </c>
       <c r="F115" s="71" t="s">
         <v>227</v>
@@ -7671,7 +7880,7 @@
       <c r="O115" s="34"/>
       <c r="P115" s="34"/>
     </row>
-    <row r="116" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A116" s="52">
         <v>104</v>
       </c>
@@ -7685,7 +7894,7 @@
         <v>188</v>
       </c>
       <c r="E116" s="130" t="s">
-        <v>188</v>
+        <v>561</v>
       </c>
       <c r="F116" s="84" t="s">
         <v>228</v>
@@ -7709,7 +7918,7 @@
       <c r="O116" s="85"/>
       <c r="P116" s="85"/>
     </row>
-    <row r="117" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A117" s="61">
         <v>105</v>
       </c>
@@ -7723,7 +7932,7 @@
         <v>419</v>
       </c>
       <c r="E117" s="20" t="s">
-        <v>465</v>
+        <v>562</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>229</v>
@@ -7747,7 +7956,7 @@
       </c>
       <c r="P117" s="62"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A118" s="61">
         <v>106</v>
       </c>
@@ -7761,7 +7970,7 @@
         <v>420</v>
       </c>
       <c r="E118" s="21" t="s">
-        <v>466</v>
+        <v>563</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>230</v>
@@ -7785,7 +7994,7 @@
       </c>
       <c r="P118" s="63"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A119" s="61">
         <v>107</v>
       </c>
@@ -7799,7 +8008,7 @@
         <v>421</v>
       </c>
       <c r="E119" s="21" t="s">
-        <v>467</v>
+        <v>564</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>231</v>
@@ -7823,7 +8032,7 @@
       </c>
       <c r="P119" s="63"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A120" s="61">
         <v>108</v>
       </c>
@@ -7837,7 +8046,7 @@
         <v>422</v>
       </c>
       <c r="E120" s="21" t="s">
-        <v>492</v>
+        <v>565</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>449</v>
@@ -7861,7 +8070,7 @@
       </c>
       <c r="P120" s="63"/>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A121" s="61">
         <v>109</v>
       </c>
@@ -7875,7 +8084,7 @@
         <v>423</v>
       </c>
       <c r="E121" s="21" t="s">
-        <v>493</v>
+        <v>566</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>450</v>
@@ -7899,7 +8108,7 @@
       </c>
       <c r="P121" s="63"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A122" s="61">
         <v>110</v>
       </c>
@@ -7913,7 +8122,7 @@
         <v>424</v>
       </c>
       <c r="E122" s="21" t="s">
-        <v>512</v>
+        <v>567</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>232</v>
@@ -7937,7 +8146,7 @@
       </c>
       <c r="P122" s="63"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A123" s="61">
         <v>111</v>
       </c>
@@ -7951,7 +8160,7 @@
         <v>425</v>
       </c>
       <c r="E123" s="21" t="s">
-        <v>513</v>
+        <v>568</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>233</v>
@@ -7975,7 +8184,7 @@
       </c>
       <c r="P123" s="63"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A124" s="61">
         <v>112</v>
       </c>
@@ -7989,7 +8198,7 @@
         <v>426</v>
       </c>
       <c r="E124" s="21" t="s">
-        <v>532</v>
+        <v>569</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>234</v>
@@ -8013,7 +8222,7 @@
       </c>
       <c r="P124" s="63"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A125" s="61">
         <v>113</v>
       </c>
@@ -8027,7 +8236,7 @@
         <v>427</v>
       </c>
       <c r="E125" s="21" t="s">
-        <v>533</v>
+        <v>570</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>235</v>
@@ -8051,7 +8260,7 @@
       </c>
       <c r="P125" s="63"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A126" s="61">
         <v>114</v>
       </c>
@@ -8065,7 +8274,7 @@
         <v>428</v>
       </c>
       <c r="E126" s="21" t="s">
-        <v>540</v>
+        <v>571</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>236</v>
@@ -8089,7 +8298,7 @@
       </c>
       <c r="P126" s="63"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A127" s="61">
         <v>115</v>
       </c>
@@ -8103,7 +8312,7 @@
         <v>429</v>
       </c>
       <c r="E127" s="21" t="s">
-        <v>541</v>
+        <v>572</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>237</v>
@@ -8127,7 +8336,7 @@
       </c>
       <c r="P127" s="63"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A128" s="61">
         <v>116</v>
       </c>
@@ -8141,7 +8350,7 @@
         <v>430</v>
       </c>
       <c r="E128" s="21" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>238</v>
@@ -8165,7 +8374,7 @@
       </c>
       <c r="P128" s="63"/>
     </row>
-    <row r="129" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A129" s="52">
         <v>117</v>
       </c>
@@ -8179,7 +8388,7 @@
         <v>431</v>
       </c>
       <c r="E129" s="137" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="F129" s="7" t="s">
         <v>239</v>
@@ -8203,7 +8412,7 @@
       </c>
       <c r="P129" s="64"/>
     </row>
-    <row r="130" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A130" s="61">
         <v>118</v>
       </c>
@@ -8217,7 +8426,7 @@
         <v>432</v>
       </c>
       <c r="E130" s="20" t="s">
-        <v>468</v>
+        <v>575</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>240</v>
@@ -8241,7 +8450,7 @@
       </c>
       <c r="P130" s="62"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A131" s="61">
         <v>119</v>
       </c>
@@ -8255,7 +8464,7 @@
         <v>433</v>
       </c>
       <c r="E131" s="21" t="s">
-        <v>469</v>
+        <v>576</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>242</v>
@@ -8279,7 +8488,7 @@
       </c>
       <c r="P131" s="63"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A132" s="61">
         <v>120</v>
       </c>
@@ -8293,7 +8502,7 @@
         <v>434</v>
       </c>
       <c r="E132" s="21" t="s">
-        <v>470</v>
+        <v>577</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>243</v>
@@ -8317,7 +8526,7 @@
       </c>
       <c r="P132" s="63"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A133" s="61">
         <v>121</v>
       </c>
@@ -8331,7 +8540,7 @@
         <v>435</v>
       </c>
       <c r="E133" s="21" t="s">
-        <v>494</v>
+        <v>578</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>451</v>
@@ -8355,7 +8564,7 @@
       </c>
       <c r="P133" s="63"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A134" s="61">
         <v>122</v>
       </c>
@@ -8369,7 +8578,7 @@
         <v>436</v>
       </c>
       <c r="E134" s="21" t="s">
-        <v>495</v>
+        <v>579</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>452</v>
@@ -8393,7 +8602,7 @@
       </c>
       <c r="P134" s="63"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A135" s="61">
         <v>123</v>
       </c>
@@ -8407,7 +8616,7 @@
         <v>437</v>
       </c>
       <c r="E135" s="21" t="s">
-        <v>514</v>
+        <v>580</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>244</v>
@@ -8431,7 +8640,7 @@
       </c>
       <c r="P135" s="63"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A136" s="61">
         <v>124</v>
       </c>
@@ -8445,7 +8654,7 @@
         <v>438</v>
       </c>
       <c r="E136" s="21" t="s">
-        <v>515</v>
+        <v>581</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>245</v>
@@ -8469,7 +8678,7 @@
       </c>
       <c r="P136" s="63"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A137" s="61">
         <v>125</v>
       </c>
@@ -8483,7 +8692,7 @@
         <v>439</v>
       </c>
       <c r="E137" s="21" t="s">
-        <v>534</v>
+        <v>582</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>246</v>
@@ -8507,7 +8716,7 @@
       </c>
       <c r="P137" s="63"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A138" s="61">
         <v>126</v>
       </c>
@@ -8521,7 +8730,7 @@
         <v>440</v>
       </c>
       <c r="E138" s="21" t="s">
-        <v>535</v>
+        <v>583</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>247</v>
@@ -8545,7 +8754,7 @@
       </c>
       <c r="P138" s="63"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A139" s="61">
         <v>127</v>
       </c>
@@ -8559,7 +8768,7 @@
         <v>441</v>
       </c>
       <c r="E139" s="21" t="s">
-        <v>542</v>
+        <v>584</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>248</v>
@@ -8583,7 +8792,7 @@
       </c>
       <c r="P139" s="63"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A140" s="61">
         <v>128</v>
       </c>
@@ -8597,7 +8806,7 @@
         <v>442</v>
       </c>
       <c r="E140" s="21" t="s">
-        <v>543</v>
+        <v>585</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>249</v>
@@ -8621,7 +8830,7 @@
       </c>
       <c r="P140" s="63"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A141" s="61">
         <v>129</v>
       </c>
@@ -8635,7 +8844,7 @@
         <v>443</v>
       </c>
       <c r="E141" s="21" t="s">
-        <v>562</v>
+        <v>586</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>250</v>
@@ -8659,7 +8868,7 @@
       </c>
       <c r="P141" s="63"/>
     </row>
-    <row r="142" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A142" s="59">
         <v>130</v>
       </c>
@@ -8673,7 +8882,7 @@
         <v>444</v>
       </c>
       <c r="E142" s="23" t="s">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="F142" s="8" t="s">
         <v>251</v>
@@ -8697,7 +8906,7 @@
       </c>
       <c r="P142" s="65"/>
     </row>
-    <row r="143" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="113">
         <v>131</v>
       </c>
@@ -8737,7 +8946,7 @@
       </c>
       <c r="P143" s="66"/>
     </row>
-    <row r="144" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="113">
         <v>132</v>
       </c>
@@ -8751,7 +8960,7 @@
         <v>254</v>
       </c>
       <c r="E144" s="129" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>277</v>
@@ -8775,7 +8984,7 @@
       </c>
       <c r="P144" s="66"/>
     </row>
-    <row r="145" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="113">
         <v>133</v>
       </c>
@@ -8789,7 +8998,7 @@
         <v>255</v>
       </c>
       <c r="E145" s="129" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>277</v>
@@ -8813,7 +9022,7 @@
       </c>
       <c r="P145" s="66"/>
     </row>
-    <row r="146" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="113">
         <v>134</v>
       </c>
@@ -8827,7 +9036,7 @@
         <v>256</v>
       </c>
       <c r="E146" s="129" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>278</v>
@@ -8851,7 +9060,7 @@
       </c>
       <c r="P146" s="66"/>
     </row>
-    <row r="147" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="113">
         <v>135</v>
       </c>
@@ -8865,7 +9074,7 @@
         <v>257</v>
       </c>
       <c r="E147" s="129" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>279</v>
@@ -8889,7 +9098,7 @@
       </c>
       <c r="P147" s="66"/>
     </row>
-    <row r="148" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="113">
         <v>136</v>
       </c>
@@ -8903,7 +9112,7 @@
         <v>258</v>
       </c>
       <c r="E148" s="129" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>280</v>
@@ -8927,7 +9136,7 @@
       </c>
       <c r="P148" s="66"/>
     </row>
-    <row r="149" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149" s="113">
         <v>137</v>
       </c>
@@ -8941,7 +9150,7 @@
         <v>259</v>
       </c>
       <c r="E149" s="129" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>280</v>
@@ -8965,7 +9174,7 @@
       </c>
       <c r="P149" s="66"/>
     </row>
-    <row r="150" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="113">
         <v>138</v>
       </c>
@@ -8979,7 +9188,7 @@
         <v>260</v>
       </c>
       <c r="E150" s="129" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>281</v>
@@ -9003,7 +9212,7 @@
       </c>
       <c r="P150" s="66"/>
     </row>
-    <row r="151" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="113">
         <v>139</v>
       </c>
@@ -9017,7 +9226,7 @@
         <v>261</v>
       </c>
       <c r="E151" s="129" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>282</v>
@@ -9041,7 +9250,7 @@
       </c>
       <c r="P151" s="66"/>
     </row>
-    <row r="152" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152" s="113">
         <v>140</v>
       </c>
@@ -9055,7 +9264,7 @@
         <v>262</v>
       </c>
       <c r="E152" s="129" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>282</v>
@@ -9079,7 +9288,7 @@
       </c>
       <c r="P152" s="66"/>
     </row>
-    <row r="153" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="113">
         <v>141</v>
       </c>
@@ -9093,7 +9302,7 @@
         <v>263</v>
       </c>
       <c r="E153" s="129" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>283</v>
@@ -9117,7 +9326,7 @@
       </c>
       <c r="P153" s="66"/>
     </row>
-    <row r="154" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="113">
         <v>142</v>
       </c>
@@ -9155,7 +9364,7 @@
       </c>
       <c r="P154" s="66"/>
     </row>
-    <row r="155" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="113">
         <v>143</v>
       </c>
@@ -9193,7 +9402,7 @@
       </c>
       <c r="P155" s="66"/>
     </row>
-    <row r="156" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156" s="113">
         <v>144</v>
       </c>
@@ -9231,7 +9440,7 @@
       </c>
       <c r="P156" s="66"/>
     </row>
-    <row r="157" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="113">
         <v>145</v>
       </c>
@@ -9245,7 +9454,7 @@
         <v>267</v>
       </c>
       <c r="E157" s="129" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>286</v>
@@ -9269,7 +9478,7 @@
       </c>
       <c r="P157" s="66"/>
     </row>
-    <row r="158" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158" s="113">
         <v>146</v>
       </c>
@@ -9283,7 +9492,7 @@
         <v>268</v>
       </c>
       <c r="E158" s="129" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>286</v>
@@ -9307,7 +9516,7 @@
       </c>
       <c r="P158" s="66"/>
     </row>
-    <row r="159" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159" s="113">
         <v>147</v>
       </c>
@@ -9321,7 +9530,7 @@
         <v>269</v>
       </c>
       <c r="E159" s="129" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>287</v>
@@ -9345,7 +9554,7 @@
       </c>
       <c r="P159" s="66"/>
     </row>
-    <row r="160" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160" s="113">
         <v>148</v>
       </c>
@@ -9359,7 +9568,7 @@
         <v>270</v>
       </c>
       <c r="E160" s="129" t="s">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>288</v>
@@ -9383,7 +9592,7 @@
       </c>
       <c r="P160" s="66"/>
     </row>
-    <row r="161" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161" s="113">
         <v>149</v>
       </c>
@@ -9397,7 +9606,7 @@
         <v>271</v>
       </c>
       <c r="E161" s="129" t="s">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>288</v>
@@ -9421,7 +9630,7 @@
       </c>
       <c r="P161" s="66"/>
     </row>
-    <row r="162" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A162" s="113">
         <v>150</v>
       </c>
@@ -9435,7 +9644,7 @@
         <v>272</v>
       </c>
       <c r="E162" s="129" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>289</v>
@@ -9459,7 +9668,7 @@
       </c>
       <c r="P162" s="66"/>
     </row>
-    <row r="163" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163" s="113">
         <v>151</v>
       </c>
@@ -9497,7 +9706,7 @@
       </c>
       <c r="P163" s="66"/>
     </row>
-    <row r="164" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164" s="113">
         <v>152</v>
       </c>
@@ -9535,7 +9744,7 @@
       </c>
       <c r="P164" s="66"/>
     </row>
-    <row r="165" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165" s="113">
         <v>153</v>
       </c>
@@ -9573,7 +9782,7 @@
       </c>
       <c r="P165" s="66"/>
     </row>
-    <row r="166" spans="1:16" s="83" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:16" s="83" customFormat="1" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A166" s="114">
         <v>154</v>
       </c>
@@ -9611,7 +9820,7 @@
       </c>
       <c r="P166" s="68"/>
     </row>
-    <row r="167" spans="1:16" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:16" ht="14.55" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A167" s="113">
         <v>155</v>
       </c>
@@ -9651,7 +9860,7 @@
       </c>
       <c r="P167" s="66"/>
     </row>
-    <row r="168" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168" s="113">
         <v>156</v>
       </c>
@@ -9665,7 +9874,7 @@
         <v>294</v>
       </c>
       <c r="E168" s="129" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>295</v>
@@ -9689,7 +9898,7 @@
       </c>
       <c r="P168" s="66"/>
     </row>
-    <row r="169" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169" s="113">
         <v>157</v>
       </c>
@@ -9703,7 +9912,7 @@
         <v>296</v>
       </c>
       <c r="E169" s="129" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>295</v>
@@ -9727,7 +9936,7 @@
       </c>
       <c r="P169" s="66"/>
     </row>
-    <row r="170" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A170" s="113">
         <v>158</v>
       </c>
@@ -9741,7 +9950,7 @@
         <v>297</v>
       </c>
       <c r="E170" s="129" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>298</v>
@@ -9765,7 +9974,7 @@
       </c>
       <c r="P170" s="66"/>
     </row>
-    <row r="171" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171" s="113">
         <v>159</v>
       </c>
@@ -9779,7 +9988,7 @@
         <v>299</v>
       </c>
       <c r="E171" s="129" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>300</v>
@@ -9803,7 +10012,7 @@
       </c>
       <c r="P171" s="66"/>
     </row>
-    <row r="172" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A172" s="113">
         <v>160</v>
       </c>
@@ -9817,7 +10026,7 @@
         <v>301</v>
       </c>
       <c r="E172" s="129" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>302</v>
@@ -9841,7 +10050,7 @@
       </c>
       <c r="P172" s="66"/>
     </row>
-    <row r="173" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A173" s="113">
         <v>161</v>
       </c>
@@ -9855,7 +10064,7 @@
         <v>303</v>
       </c>
       <c r="E173" s="129" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>302</v>
@@ -9879,7 +10088,7 @@
       </c>
       <c r="P173" s="66"/>
     </row>
-    <row r="174" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A174" s="113">
         <v>162</v>
       </c>
@@ -9893,7 +10102,7 @@
         <v>304</v>
       </c>
       <c r="E174" s="129" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>305</v>
@@ -9917,7 +10126,7 @@
       </c>
       <c r="P174" s="66"/>
     </row>
-    <row r="175" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175" s="113">
         <v>163</v>
       </c>
@@ -9931,7 +10140,7 @@
         <v>306</v>
       </c>
       <c r="E175" s="129" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>307</v>
@@ -9955,7 +10164,7 @@
       </c>
       <c r="P175" s="66"/>
     </row>
-    <row r="176" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A176" s="113">
         <v>164</v>
       </c>
@@ -9969,7 +10178,7 @@
         <v>308</v>
       </c>
       <c r="E176" s="129" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>307</v>
@@ -9993,7 +10202,7 @@
       </c>
       <c r="P176" s="66"/>
     </row>
-    <row r="177" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A177" s="113">
         <v>165</v>
       </c>
@@ -10007,7 +10216,7 @@
         <v>309</v>
       </c>
       <c r="E177" s="129" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>310</v>
@@ -10031,7 +10240,7 @@
       </c>
       <c r="P177" s="66"/>
     </row>
-    <row r="178" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178" s="113">
         <v>166</v>
       </c>
@@ -10069,7 +10278,7 @@
       </c>
       <c r="P178" s="66"/>
     </row>
-    <row r="179" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A179" s="113">
         <v>167</v>
       </c>
@@ -10107,7 +10316,7 @@
       </c>
       <c r="P179" s="66"/>
     </row>
-    <row r="180" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A180" s="113">
         <v>168</v>
       </c>
@@ -10145,7 +10354,7 @@
       </c>
       <c r="P180" s="66"/>
     </row>
-    <row r="181" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A181" s="113">
         <v>169</v>
       </c>
@@ -10159,7 +10368,7 @@
         <v>316</v>
       </c>
       <c r="E181" s="129" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>317</v>
@@ -10183,7 +10392,7 @@
       </c>
       <c r="P181" s="66"/>
     </row>
-    <row r="182" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A182" s="113">
         <v>170</v>
       </c>
@@ -10197,7 +10406,7 @@
         <v>318</v>
       </c>
       <c r="E182" s="129" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>317</v>
@@ -10221,7 +10430,7 @@
       </c>
       <c r="P182" s="66"/>
     </row>
-    <row r="183" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A183" s="113">
         <v>171</v>
       </c>
@@ -10235,7 +10444,7 @@
         <v>319</v>
       </c>
       <c r="E183" s="129" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>320</v>
@@ -10259,7 +10468,7 @@
       </c>
       <c r="P183" s="66"/>
     </row>
-    <row r="184" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A184" s="113">
         <v>172</v>
       </c>
@@ -10273,7 +10482,7 @@
         <v>321</v>
       </c>
       <c r="E184" s="129" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>322</v>
@@ -10297,7 +10506,7 @@
       </c>
       <c r="P184" s="66"/>
     </row>
-    <row r="185" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A185" s="113">
         <v>173</v>
       </c>
@@ -10311,7 +10520,7 @@
         <v>323</v>
       </c>
       <c r="E185" s="129" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>322</v>
@@ -10335,7 +10544,7 @@
       </c>
       <c r="P185" s="66"/>
     </row>
-    <row r="186" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A186" s="113">
         <v>174</v>
       </c>
@@ -10349,7 +10558,7 @@
         <v>324</v>
       </c>
       <c r="E186" s="129" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>325</v>
@@ -10373,7 +10582,7 @@
       </c>
       <c r="P186" s="66"/>
     </row>
-    <row r="187" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A187" s="113">
         <v>175</v>
       </c>
@@ -10411,7 +10620,7 @@
       </c>
       <c r="P187" s="66"/>
     </row>
-    <row r="188" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A188" s="113">
         <v>176</v>
       </c>
@@ -10449,7 +10658,7 @@
       </c>
       <c r="P188" s="66"/>
     </row>
-    <row r="189" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A189" s="113">
         <v>177</v>
       </c>
@@ -10487,7 +10696,7 @@
       </c>
       <c r="P189" s="66"/>
     </row>
-    <row r="190" spans="1:16" s="83" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:16" s="83" customFormat="1" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A190" s="114">
         <v>178</v>
       </c>
@@ -10525,7 +10734,7 @@
       </c>
       <c r="P190" s="68"/>
     </row>
-    <row r="191" spans="1:16" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:16" ht="14.55" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A191" s="113">
         <v>179</v>
       </c>
@@ -10565,7 +10774,7 @@
       </c>
       <c r="P191" s="66"/>
     </row>
-    <row r="192" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A192" s="113">
         <v>180</v>
       </c>
@@ -10579,7 +10788,7 @@
         <v>341</v>
       </c>
       <c r="E192" s="129" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>387</v>
@@ -10603,7 +10812,7 @@
       </c>
       <c r="P192" s="66"/>
     </row>
-    <row r="193" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A193" s="113">
         <v>181</v>
       </c>
@@ -10617,7 +10826,7 @@
         <v>342</v>
       </c>
       <c r="E193" s="129" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>387</v>
@@ -10641,7 +10850,7 @@
       </c>
       <c r="P193" s="66"/>
     </row>
-    <row r="194" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A194" s="113">
         <v>182</v>
       </c>
@@ -10655,7 +10864,7 @@
         <v>343</v>
       </c>
       <c r="E194" s="129" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>388</v>
@@ -10679,7 +10888,7 @@
       </c>
       <c r="P194" s="66"/>
     </row>
-    <row r="195" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A195" s="113">
         <v>183</v>
       </c>
@@ -10693,7 +10902,7 @@
         <v>344</v>
       </c>
       <c r="E195" s="129" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>389</v>
@@ -10717,7 +10926,7 @@
       </c>
       <c r="P195" s="66"/>
     </row>
-    <row r="196" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A196" s="113">
         <v>184</v>
       </c>
@@ -10731,7 +10940,7 @@
         <v>345</v>
       </c>
       <c r="E196" s="129" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>390</v>
@@ -10755,7 +10964,7 @@
       </c>
       <c r="P196" s="66"/>
     </row>
-    <row r="197" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A197" s="113">
         <v>185</v>
       </c>
@@ -10769,7 +10978,7 @@
         <v>346</v>
       </c>
       <c r="E197" s="129" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>390</v>
@@ -10793,7 +11002,7 @@
       </c>
       <c r="P197" s="66"/>
     </row>
-    <row r="198" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A198" s="113">
         <v>186</v>
       </c>
@@ -10807,7 +11016,7 @@
         <v>347</v>
       </c>
       <c r="E198" s="129" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>391</v>
@@ -10831,7 +11040,7 @@
       </c>
       <c r="P198" s="66"/>
     </row>
-    <row r="199" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A199" s="113">
         <v>187</v>
       </c>
@@ -10845,7 +11054,7 @@
         <v>348</v>
       </c>
       <c r="E199" s="129" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>392</v>
@@ -10869,7 +11078,7 @@
       </c>
       <c r="P199" s="66"/>
     </row>
-    <row r="200" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A200" s="113">
         <v>188</v>
       </c>
@@ -10883,7 +11092,7 @@
         <v>349</v>
       </c>
       <c r="E200" s="129" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>392</v>
@@ -10907,7 +11116,7 @@
       </c>
       <c r="P200" s="66"/>
     </row>
-    <row r="201" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A201" s="113">
         <v>189</v>
       </c>
@@ -10921,7 +11130,7 @@
         <v>350</v>
       </c>
       <c r="E201" s="129" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>393</v>
@@ -10945,7 +11154,7 @@
       </c>
       <c r="P201" s="66"/>
     </row>
-    <row r="202" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A202" s="113">
         <v>190</v>
       </c>
@@ -10983,7 +11192,7 @@
       </c>
       <c r="P202" s="66"/>
     </row>
-    <row r="203" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A203" s="113">
         <v>191</v>
       </c>
@@ -11021,7 +11230,7 @@
       </c>
       <c r="P203" s="66"/>
     </row>
-    <row r="204" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A204" s="113">
         <v>192</v>
       </c>
@@ -11059,7 +11268,7 @@
       </c>
       <c r="P204" s="66"/>
     </row>
-    <row r="205" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A205" s="113">
         <v>193</v>
       </c>
@@ -11073,7 +11282,7 @@
         <v>354</v>
       </c>
       <c r="E205" s="129" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>396</v>
@@ -11097,7 +11306,7 @@
       </c>
       <c r="P205" s="66"/>
     </row>
-    <row r="206" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A206" s="113">
         <v>194</v>
       </c>
@@ -11111,7 +11320,7 @@
         <v>355</v>
       </c>
       <c r="E206" s="129" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>396</v>
@@ -11135,7 +11344,7 @@
       </c>
       <c r="P206" s="66"/>
     </row>
-    <row r="207" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A207" s="113">
         <v>195</v>
       </c>
@@ -11149,7 +11358,7 @@
         <v>356</v>
       </c>
       <c r="E207" s="129" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>397</v>
@@ -11173,7 +11382,7 @@
       </c>
       <c r="P207" s="66"/>
     </row>
-    <row r="208" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A208" s="113">
         <v>196</v>
       </c>
@@ -11187,7 +11396,7 @@
         <v>357</v>
       </c>
       <c r="E208" s="129" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>398</v>
@@ -11211,7 +11420,7 @@
       </c>
       <c r="P208" s="66"/>
     </row>
-    <row r="209" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A209" s="113">
         <v>197</v>
       </c>
@@ -11225,7 +11434,7 @@
         <v>358</v>
       </c>
       <c r="E209" s="129" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>398</v>
@@ -11249,7 +11458,7 @@
       </c>
       <c r="P209" s="66"/>
     </row>
-    <row r="210" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A210" s="113">
         <v>198</v>
       </c>
@@ -11263,7 +11472,7 @@
         <v>359</v>
       </c>
       <c r="E210" s="129" t="s">
-        <v>572</v>
+        <v>550</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>399</v>
@@ -11287,7 +11496,7 @@
       </c>
       <c r="P210" s="66"/>
     </row>
-    <row r="211" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A211" s="113">
         <v>199</v>
       </c>
@@ -11325,7 +11534,7 @@
       </c>
       <c r="P211" s="66"/>
     </row>
-    <row r="212" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A212" s="113">
         <v>200</v>
       </c>
@@ -11363,7 +11572,7 @@
       </c>
       <c r="P212" s="66"/>
     </row>
-    <row r="213" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A213" s="113">
         <v>201</v>
       </c>
@@ -11401,7 +11610,7 @@
       </c>
       <c r="P213" s="66"/>
     </row>
-    <row r="214" spans="1:16" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A214" s="114">
         <v>202</v>
       </c>
@@ -11439,7 +11648,7 @@
       </c>
       <c r="P214" s="68"/>
     </row>
-    <row r="215" spans="1:16" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:16" ht="14.55" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A215" s="113">
         <v>203</v>
       </c>
@@ -11479,7 +11688,7 @@
       </c>
       <c r="P215" s="66"/>
     </row>
-    <row r="216" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A216" s="113">
         <v>204</v>
       </c>
@@ -11493,7 +11702,7 @@
         <v>364</v>
       </c>
       <c r="E216" s="129" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>403</v>
@@ -11517,7 +11726,7 @@
       </c>
       <c r="P216" s="66"/>
     </row>
-    <row r="217" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A217" s="113">
         <v>205</v>
       </c>
@@ -11531,7 +11740,7 @@
         <v>365</v>
       </c>
       <c r="E217" s="129" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>403</v>
@@ -11555,7 +11764,7 @@
       </c>
       <c r="P217" s="66"/>
     </row>
-    <row r="218" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A218" s="113">
         <v>206</v>
       </c>
@@ -11569,7 +11778,7 @@
         <v>366</v>
       </c>
       <c r="E218" s="129" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>404</v>
@@ -11593,7 +11802,7 @@
       </c>
       <c r="P218" s="66"/>
     </row>
-    <row r="219" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A219" s="113">
         <v>207</v>
       </c>
@@ -11607,7 +11816,7 @@
         <v>367</v>
       </c>
       <c r="E219" s="129" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>405</v>
@@ -11631,7 +11840,7 @@
       </c>
       <c r="P219" s="66"/>
     </row>
-    <row r="220" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A220" s="113">
         <v>208</v>
       </c>
@@ -11645,7 +11854,7 @@
         <v>368</v>
       </c>
       <c r="E220" s="129" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>406</v>
@@ -11669,7 +11878,7 @@
       </c>
       <c r="P220" s="66"/>
     </row>
-    <row r="221" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A221" s="113">
         <v>209</v>
       </c>
@@ -11683,7 +11892,7 @@
         <v>369</v>
       </c>
       <c r="E221" s="129" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>406</v>
@@ -11707,7 +11916,7 @@
       </c>
       <c r="P221" s="66"/>
     </row>
-    <row r="222" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A222" s="113">
         <v>210</v>
       </c>
@@ -11721,7 +11930,7 @@
         <v>370</v>
       </c>
       <c r="E222" s="129" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>407</v>
@@ -11745,7 +11954,7 @@
       </c>
       <c r="P222" s="66"/>
     </row>
-    <row r="223" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A223" s="113">
         <v>211</v>
       </c>
@@ -11759,7 +11968,7 @@
         <v>371</v>
       </c>
       <c r="E223" s="129" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>408</v>
@@ -11783,7 +11992,7 @@
       </c>
       <c r="P223" s="66"/>
     </row>
-    <row r="224" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A224" s="113">
         <v>212</v>
       </c>
@@ -11797,7 +12006,7 @@
         <v>372</v>
       </c>
       <c r="E224" s="129" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>408</v>
@@ -11821,7 +12030,7 @@
       </c>
       <c r="P224" s="66"/>
     </row>
-    <row r="225" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A225" s="113">
         <v>213</v>
       </c>
@@ -11835,7 +12044,7 @@
         <v>373</v>
       </c>
       <c r="E225" s="129" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>409</v>
@@ -11859,7 +12068,7 @@
       </c>
       <c r="P225" s="66"/>
     </row>
-    <row r="226" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A226" s="113">
         <v>214</v>
       </c>
@@ -11897,7 +12106,7 @@
       </c>
       <c r="P226" s="66"/>
     </row>
-    <row r="227" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A227" s="113">
         <v>215</v>
       </c>
@@ -11935,7 +12144,7 @@
       </c>
       <c r="P227" s="66"/>
     </row>
-    <row r="228" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A228" s="113">
         <v>216</v>
       </c>
@@ -11973,7 +12182,7 @@
       </c>
       <c r="P228" s="66"/>
     </row>
-    <row r="229" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A229" s="113">
         <v>217</v>
       </c>
@@ -11987,7 +12196,7 @@
         <v>377</v>
       </c>
       <c r="E229" s="129" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>412</v>
@@ -12011,7 +12220,7 @@
       </c>
       <c r="P229" s="66"/>
     </row>
-    <row r="230" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A230" s="113">
         <v>218</v>
       </c>
@@ -12025,7 +12234,7 @@
         <v>378</v>
       </c>
       <c r="E230" s="129" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>412</v>
@@ -12049,7 +12258,7 @@
       </c>
       <c r="P230" s="66"/>
     </row>
-    <row r="231" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A231" s="113">
         <v>219</v>
       </c>
@@ -12063,7 +12272,7 @@
         <v>379</v>
       </c>
       <c r="E231" s="129" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>413</v>
@@ -12087,7 +12296,7 @@
       </c>
       <c r="P231" s="66"/>
     </row>
-    <row r="232" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A232" s="113">
         <v>220</v>
       </c>
@@ -12101,7 +12310,7 @@
         <v>380</v>
       </c>
       <c r="E232" s="129" t="s">
-        <v>573</v>
+        <v>551</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>414</v>
@@ -12125,7 +12334,7 @@
       </c>
       <c r="P232" s="66"/>
     </row>
-    <row r="233" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A233" s="113">
         <v>221</v>
       </c>
@@ -12139,7 +12348,7 @@
         <v>381</v>
       </c>
       <c r="E233" s="129" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>414</v>
@@ -12163,7 +12372,7 @@
       </c>
       <c r="P233" s="66"/>
     </row>
-    <row r="234" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A234" s="113">
         <v>222</v>
       </c>
@@ -12177,7 +12386,7 @@
         <v>382</v>
       </c>
       <c r="E234" s="129" t="s">
-        <v>575</v>
+        <v>553</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>415</v>
@@ -12201,7 +12410,7 @@
       </c>
       <c r="P234" s="66"/>
     </row>
-    <row r="235" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A235" s="113">
         <v>223</v>
       </c>
@@ -12239,7 +12448,7 @@
       </c>
       <c r="P235" s="66"/>
     </row>
-    <row r="236" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A236" s="113">
         <v>224</v>
       </c>
@@ -12277,7 +12486,7 @@
       </c>
       <c r="P236" s="66"/>
     </row>
-    <row r="237" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A237" s="113">
         <v>225</v>
       </c>
@@ -12315,7 +12524,7 @@
       </c>
       <c r="P237" s="66"/>
     </row>
-    <row r="238" spans="1:16" s="26" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:16" s="26" customFormat="1" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A238" s="115">
         <v>226</v>
       </c>
@@ -12354,8 +12563,11 @@
       <c r="P238" s="69"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M119" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M238" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/dataland-framework-toolbox/inputs/eu-taxonomy-financials/eu-taxonomy-financials.xlsx
+++ b/dataland-framework-toolbox/inputs/eu-taxonomy-financials/eu-taxonomy-financials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d93542\Dataland\dataland-framework-toolbox\inputs\eu-taxonomy-financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226D19BB-A1C5-4B09-90FD-B32F435F88FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A18202A-8494-4A46-8479-2D4523D6F14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-5145" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH">130000</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="697">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -1445,553 +1445,718 @@
     <t>AreAllGroupEntitiesCoveredByEuTaxonomyReports</t>
   </si>
   <si>
-    <t>Alias Export</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CCM in Percent - Eligible</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CCM in Percent - Aligned</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CCM in Percent - Of which Use of Proceeds</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CCM in Percent - Of which Enabling</t>
-  </si>
-  <si>
-    <t>Share of Turnover-based KPI substantially contributing to CCM in Percent - Aligned</t>
-  </si>
-  <si>
-    <t>Share of Turnover-based KPI substantially contributing to CCM in Percent - Of which Enabling</t>
-  </si>
-  <si>
-    <t>Share of Turnover-based KPI substantially contributing to CCM in Percent - Of which Transitional</t>
-  </si>
-  <si>
-    <t>Share of CapEx-based KPI substantially contributing to CCM in Percent - Aligned</t>
-  </si>
-  <si>
-    <t>Share of CapEx-based KPI substantially contributing to CCM in Percent - Of which Enabling</t>
-  </si>
-  <si>
-    <t>Share of CapEx-based KPI substantially contributing to CCM in Percent - Of which Transitional</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Assets substantially contributing to CCM - Eligible</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Assets substantially contributing to CCM - Aligned</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Assets substantially contributing to CCM - Of which Transitional</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Assets substantially contributing to CCM - Of which Enabling</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Assets substantially contributing to CCM - Eligible</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Assets substantially contributing to CCM - Aligned</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Assets substantially contributing to CCM - Of which Transitional</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Assets substantially contributing to CCM - Of which Enabling</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Revenue substantially contributing to CCM - Eligible</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Revenue substantially contributing to CCM - Aligned</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Revenue substantially contributing to CCM - Of which Transitional</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Revenue substantially contributing to CCM - Of which Enabling</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Revenue substantially contributing to CCM - Eligible</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Revenue substantially contributing to CCM - Aligned</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Revenue substantially contributing to CCM - Of which Transitional</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Revenue substantially contributing to CCM - Of which Enabling</t>
-  </si>
-  <si>
-    <t>Share of Turnover-based KPI substantially contributing to CCA in Percent - Aligned</t>
-  </si>
-  <si>
-    <t>Share of Turnover-based KPI substantially contributing to CCA in Percent - Of which Enabling</t>
-  </si>
-  <si>
-    <t>Share of CapEx-based KPI substantially contributing to CCA in Percent - Aligned</t>
-  </si>
-  <si>
-    <t>Share of CapEx-based KPI substantially contributing to CCA in Percent - Of which Enabling</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Assets substantially contributing to CCA - Eligible</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Assets substantially contributing to CCA - Aligned</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Assets substantially contributing to CCA - Of which Enabling</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Assets substantially contributing to CCA - Eligible</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Assets substantially contributing to CCA - Aligned</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Assets substantially contributing to CCA - Of which Enabling</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Revenue substantially contributing to CCA - Eligible</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Revenue substantially contributing to CCA - Aligned</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Revenue substantially contributing to CCA - Of which Enabling</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Revenue substantially contributing to CCA - Eligible</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Revenue substantially contributing to CCA - Aligned</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Revenue substantially contributing to CCA - Of which Enabling</t>
-  </si>
-  <si>
-    <t>Share of Turnover-based KPI substantially contributing to Sustainable Use and Protection of WTR in Percent - Aligned</t>
-  </si>
-  <si>
-    <t>Share of Turnover-based KPI substantially contributing to Sustainable Use and Protection of WTR in Percent - Of which Enabling</t>
-  </si>
-  <si>
-    <t>Share of CapEx-based KPI substantially contributing to Sustainable Use and Protection of WTR in Percent - Aligned</t>
-  </si>
-  <si>
-    <t>Share of CapEx-based KPI substantially contributing to Sustainable Use and Protection of WTR in Percent - Of which Enabling</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Assets substantially contributing to Sustainable Use and Protection of WTR - Eligible</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Assets substantially contributing to Sustainable Use and Protection of WTR - Aligned</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Assets substantially contributing to Sustainable Use and Protection of WTR - Of which Enabling</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Assets substantially contributing to Sustainable Use and Protection of WTR - Eligible</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Assets substantially contributing to Sustainable Use and Protection of WTR - Aligned</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Assets substantially contributing to Sustainable Use and Protection of WTR - Of which Enabling</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Revenue substantially contributing to Sustainable Use and Protection of WTR - Eligible</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Revenue substantially contributing to Sustainable Use and Protection of WTR - Aligned</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Revenue substantially contributing to Sustainable Use and Protection of WTR - Of which Enabling</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Revenue substantially contributing to Sustainable Use and Protection of WTR - Eligible</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Revenue substantially contributing to Sustainable Use and Protection of WTR - Aligned</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Revenue substantially contributing to Sustainable Use and Protection of WTR - Of which Enabling</t>
-  </si>
-  <si>
-    <t>Share of Turnover-based KPI substantially contributing to CE in Percent - Aligned</t>
-  </si>
-  <si>
-    <t>Share of Turnover-based KPI substantially contributing to CE in Percent - Of which Enabling</t>
-  </si>
-  <si>
-    <t>Share of CapEx-based KPI substantially contributing to CE in Percent - Aligned</t>
-  </si>
-  <si>
-    <t>Share of CapEx-based KPI substantially contributing to CE in Percent - Of which Enabling</t>
-  </si>
-  <si>
-    <t>Share of Turnover-based KPI substantially contributing to PPC in Percent - Aligned</t>
-  </si>
-  <si>
-    <t>Share of Turnover-based KPI substantially contributing to PPC in Percent - Of which Enabling</t>
-  </si>
-  <si>
-    <t>Share of CapEx-based KPI substantially contributing to PPC in Percent - Aligned</t>
-  </si>
-  <si>
-    <t>Share of CapEx-based KPI substantially contributing to PPC in Percent - Of which Enabling</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Assets substantially contributing to PPC - Eligible</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Assets substantially contributing to PPC - Aligned</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Assets substantially contributing to PPC - Of which Enabling</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Assets substantially contributing to PPC - Eligible</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Assets substantially contributing to PPC - Aligned</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Assets substantially contributing to PPC - Of which Enabling</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Revenue substantially contributing to PPC - Eligible</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Revenue substantially contributing to PPC - Aligned</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Revenue substantially contributing to PPC - Of which Enabling</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Revenue substantially contributing to PPC - Eligible</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Revenue substantially contributing to PPC - Aligned</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Revenue substantially contributing to PPC - Of which Enabling</t>
-  </si>
-  <si>
-    <t>Share of Turnover-based KPI substantially contributing to BIO in Percent - Aligned</t>
-  </si>
-  <si>
-    <t>Share of Turnover-based KPI substantially contributing to BIO in Percent - Of which Enabling</t>
-  </si>
-  <si>
-    <t>Share of CapEx-based KPI substantially contributing to BIO in Percent - Aligned</t>
-  </si>
-  <si>
-    <t>Share of CapEx-based KPI substantially contributing to BIO in Percent - Of which Enabling</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Assets substantially contributing to BIO - Eligible</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Assets substantially contributing to BIO - Aligned</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Assets substantially contributing to BIO - Of which Enabling</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Assets substantially contributing to BIO - Eligible</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Assets substantially contributing to BIO - Aligned</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Assets substantially contributing to BIO - Of which Enabling</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Revenue substantially contributing to BIO - Eligible</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Revenue substantially contributing to BIO - Aligned</t>
-  </si>
-  <si>
-    <t>Turnover-based Proportion of Revenue substantially contributing to BIO - Of which Enabling</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Revenue substantially contributing to BIO - Eligible</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Revenue substantially contributing to BIO - Aligned</t>
-  </si>
-  <si>
-    <t>CapEx-based Proportion of Revenue substantially contributing to BIO - Of which Enabling</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CCM in Percent - Eligible TO</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CCM in Percent - Aligned TO</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CCM in Percent - Of which Use of Proceeds TO</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CCM in Percent - Of which Enabling TO</t>
-  </si>
-  <si>
-    <t>Share of CapEx-based KPI substantially contributing to BIO in Percent - Of which Enabling Insurance</t>
-  </si>
-  <si>
-    <t>Total of Absolute Premiums of Taxonomy-aligned Activities Insurance</t>
-  </si>
-  <si>
-    <t>Total of Absolute Premiums of Taxonomy-eligible but Taxonomy-non-aligned Activities Insurance</t>
-  </si>
-  <si>
-    <t>Total of Absolute Premiums of Taxonomy-non-eligible Activities Insurance</t>
-  </si>
-  <si>
-    <t>Proportion of Absolute Premiums of Taxonomy-aligned Activities Insurance</t>
-  </si>
-  <si>
-    <t>Proportion of Absolute Premiums of Taxonomy-eligible but Taxonomy-non-aligned Activities Insurance</t>
-  </si>
-  <si>
-    <t>Proportion of Absolute Premiums of Taxonomy-non-eligible Activities Insurance</t>
-  </si>
-  <si>
-    <t>Weighted Average Value of all Investments - Turnover-based in Percent Insurance</t>
-  </si>
-  <si>
-    <t>Weighted Average Value of all Investments - CapEx-based in Percent Insurance</t>
-  </si>
-  <si>
-    <t>Weighted Average Value of all Investments - Turnover-based monetary amount Insurance</t>
-  </si>
-  <si>
-    <t>Weighted Average Value of all Investments - CapEx-based monetary amount Insurance</t>
-  </si>
-  <si>
-    <t>Share of Turnover-based KPI substantially contributing to CCM in Percent - Aligned Insurance</t>
-  </si>
-  <si>
-    <t>Share of Turnover-based KPI substantially contributing to CCM in Percent - Of which Enabling Insurance</t>
-  </si>
-  <si>
-    <t>Share of Turnover-based KPI substantially contributing to CCM in Percent - Of which Transitional Insurance</t>
-  </si>
-  <si>
-    <t>Share of Turnover-based KPI substantially contributing to CCA in Percent - Aligned Insurance</t>
-  </si>
-  <si>
-    <t>Share of Turnover-based KPI substantially contributing to CCA in Percent - Of which Enabling Insurance</t>
-  </si>
-  <si>
-    <t>Share of Turnover-based KPI substantially contributing to Sustainable Use and Protection of WTR in Percent - Aligned Insurance</t>
-  </si>
-  <si>
-    <t>Share of Turnover-based KPI substantially contributing to Sustainable Use and Protection of WTR in Percent - Of which Enabling Insurance</t>
-  </si>
-  <si>
-    <t>Share of Turnover-based KPI substantially contributing to CE in Percent - Aligned Insurance</t>
-  </si>
-  <si>
-    <t>Share of Turnover-based KPI substantially contributing to CE in Percent - Of which Enabling Insurance</t>
-  </si>
-  <si>
-    <t>Share of Turnover-based KPI substantially contributing to PPC in Percent - Aligned Insurance</t>
-  </si>
-  <si>
-    <t>Share of Turnover-based KPI substantially contributing to PPC in Percent - Of which Enabling Insurance</t>
-  </si>
-  <si>
-    <t>Share of Turnover-based KPI substantially contributing to BIO in Percent - Aligned Insurance</t>
-  </si>
-  <si>
-    <t>Share of Turnover-based KPI substantially contributing to BIO in Percent - Of which Enabling Insurance</t>
-  </si>
-  <si>
-    <t>Share of CapEx-based KPI substantially contributing to CCM in Percent - Aligned Insurance</t>
-  </si>
-  <si>
-    <t>Share of CapEx-based KPI substantially contributing to CCM in Percent - Of which Enabling Insurance</t>
-  </si>
-  <si>
-    <t>Share of CapEx-based KPI substantially contributing to CCM in Percent - Of which Transitional Insurance</t>
-  </si>
-  <si>
-    <t>Share of CapEx-based KPI substantially contributing to CCA in Percent - Aligned Insurance</t>
-  </si>
-  <si>
-    <t>Share of CapEx-based KPI substantially contributing to CCA in Percent - Of which Enabling Insurance</t>
-  </si>
-  <si>
-    <t>Share of CapEx-based KPI substantially contributing to Sustainable Use and Protection of WTR in Percent - Aligned Insurance</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CCM in Percent - Of which Transitional Capex</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CCA in Percent - Eligible Capex</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CCA in Percent - Aligned Capex</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CCA in Percent - Of which Use of Proceeds Capex</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CCA in Percent - Of which Enabling Capex</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CCA in Percent - Of which Adapting Capex</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to Sustainable Use and Protection of WTR in Percent - Eligible Capex</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to Sustainable Use and Protection of WTR in Percent - Aligned Capex</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to Sustainable Use and Protection of WTR in Percent - Of which Use of Proceeds Capex</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to Sustainable Use and Protection of WTR in Percent - Of which Enabling Capex</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CE in Percent - Eligible Capex</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CE in Percent - Aligned Capex</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CE in Percent - Of which Use of Proceeds Capex</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CE in Percent - Of which Enabling Capex</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to PPC in Percent - Eligible Capex</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to PPC in Percent - Aligned Capex</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to PPC in Percent - Of which Use of Proceeds Capex</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to PPC in Percent - Of which Enabling Capex</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to BIO in Percent - Eligible Capex</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to BIO in Percent - Aligned Capex</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to BIO in Percent - Of which Use of Proceeds Capex</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to BIO in Percent - Of which Enabling Capex</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to any of the six Environmental Objectives in Percent - Eligible Capex</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to any of the six Environmental Objectives in Percent - Aligned Capex</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to any of the six Environmental Objectives in Percent - Of which Use of Proceeds Capex</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to any of the six Environmental Objectives in Percent - Of which Enabling Capex</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to any of the six Environmental Objectives in Percent - Of which Transitional Capex</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CCM in Percent - Of which Transitional TO</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CCA in Percent - Eligible TO</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CCA in Percent - Aligned TO</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CCA in Percent - Of which Use of Proceeds TO</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CCA in Percent - Of which Enabling TO</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CCA in Percent - Of which Adapting TO</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to Sustainable Use and Protection of WTR in Percent - Eligible TO</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to Sustainable Use and Protection of WTR in Percent - Aligned TO</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to Sustainable Use and Protection of WTR in Percent - Of which Use of Proceeds TO</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to Sustainable Use and Protection of WTR in Percent - Of which Enabling TO</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CE in Percent - Eligible TO</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CE in Percent - Aligned TO</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CE in Percent - Of which Use of Proceeds TO</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to CE in Percent - Of which Enabling TO</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to PPC in Percent - Eligible TO</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to PPC in Percent - Aligned TO</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to PPC in Percent - Of which Use of Proceeds TO</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to PPC in Percent - Of which Enabling TO</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to BIO in Percent - Eligible TO</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to BIO in Percent - Aligned TO</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to BIO in Percent - Of which Use of Proceeds TO</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to BIO in Percent - Of which Enabling TO</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to any of the six Environmental Objectives in Percent - Eligible TO</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to any of the six Environmental Objectives in Percent - Aligned TO</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to any of the six Environmental Objectives in Percent - Of which Use of Proceeds TO</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to any of the six Environmental Objectives in Percent - Of which Enabling TO</t>
-  </si>
-  <si>
-    <t>Substantial Contribution to any of the six Environmental Objectives in Percent - Of which Transitional TO</t>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>FISCAL_YEAR_DEVIATION</t>
+  </si>
+  <si>
+    <t>FISCAL_YEAR_END</t>
+  </si>
+  <si>
+    <t>REFERENCED_REPORTS</t>
+  </si>
+  <si>
+    <t>ALL_GROUP_ENTITIES_COVERED</t>
+  </si>
+  <si>
+    <t>NO_OF_EMPLOYEES</t>
+  </si>
+  <si>
+    <t>NFRD_MANDATORY</t>
+  </si>
+  <si>
+    <t>ASSURANCE</t>
+  </si>
+  <si>
+    <t>CI_GAR_ASSETS_TOTAL_GROSS_CARRYING_AMOUNT</t>
+  </si>
+  <si>
+    <t>CI_GAR_ASSETS_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>CI_GAR_ASSETS_ALIGNED</t>
+  </si>
+  <si>
+    <t>CI_GAR_ASSETS_USE_OF_PROCEEDS</t>
+  </si>
+  <si>
+    <t>CI_GAR_ASSETS_TRANSITIONAL</t>
+  </si>
+  <si>
+    <t>CI_GAR_ASSETS_ENABLING</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_CCM_PCT_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_CCM_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_CCM_PCT_USE_OF_PROCEEDS</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_CCM_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_CCM_PCT_TRANSITIONAL</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_CCA_PCT_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_CCA_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_CCA_PCT_USE_OF_PROCEEDS</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_CCA_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_CCA_PCT_ADAPTING</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_WTR_PCT_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_WTR_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_WTR_PCT_USE_OF_PROCEEDS</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_WTR_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_CE_PCT_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_CE_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_CE_PCT_USE_OF_PROCEEDS</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_CE_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_PPC_PCT_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_PPC_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_PPC_PCT_USE_OF_PROCEEDS</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_PPC_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_BIO_PCT_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_BIO_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_BIO_PCT_USE_OF_PROCEEDS</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_BIO_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_ANY_PCT_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_ANY_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_ANY_PCT_USE_OF_PROCEEDS</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_ANY_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>CI_TURNOVER_BASED_GAR_STOCK_SC_TO_ANY_PCT_TRANSITIONAL</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_CCM_PCT_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_CCM_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_CCM_PCT_USE_OF_PROCEEDS</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_CCM_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_CCM_PCT_TRANSITIONAL</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_CCA_PCT_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_CCA_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_CCA_PCT_USE_OF_PROCEEDS</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_CCA_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_CCA_PCT_ADAPTING</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_WTR_PCT_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_WTR_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_WTR_PCT_USE_OF_PROCEEDS</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_WTR_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_CE_PCT_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_CE_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_CE_PCT_USE_OF_PROCEEDS</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_CE_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_PPC_PCT_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_PPC_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_PPC_PCT_USE_OF_PROCEEDS</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_PPC_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_BIO_PCT_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_BIO_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_BIO_PCT_USE_OF_PROCEEDS</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_BIO_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_ANY_PCT_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_ANY_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_ANY_PCT_USE_OF_PROCEEDS</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_ANY_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>CI_CAPEX_BASED_GAR_STOCK_SC_TO_ANY_PCT_TRANSITIONAL</t>
+  </si>
+  <si>
+    <t>AM_WAVG_VAL_OF_INVESTMENTS_TURNOVER_BASED_PCT</t>
+  </si>
+  <si>
+    <t>AM_WAVG_VAL_OF_INVESTMENTS_CAPEX_BASED_PCT</t>
+  </si>
+  <si>
+    <t>AM_WAVG_VAL_OF_INVESTMENTS_TURNOVER_BASED_AMOUNT</t>
+  </si>
+  <si>
+    <t>AM_WAVG_VAL_OF_INVESTMENTS_CAPEX_BASED_AMOUNT</t>
+  </si>
+  <si>
+    <t>AM_TURNOVER_BASED_SC_TO_CCM_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>AM_TURNOVER_BASED_SC_TO_CCM_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>AM_TURNOVER_BASED_SC_TO_CCM_PCT_TRANSITIONAL</t>
+  </si>
+  <si>
+    <t>AM_TURNOVER_BASED_SC_TO_CCA_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>AM_TURNOVER_BASED_SC_TO_CCA_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>AM_TURNOVER_BASED_SC_TO_WTR_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>AM_TURNOVER_BASED_SC_TO_WTR_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>AM_TURNOVER_BASED_SC_TO_CE_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>AM_TURNOVER_BASED_SC_TO_CE_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>AM_TURNOVER_BASED_SC_TO_PPC_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>AM_TURNOVER_BASED_SC_TO_PPC_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>AM_TURNOVER_BASED_SC_TO_BIO_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>AM_TURNOVER_BASED_SC_TO_BIO_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>AM_CAPEX_BASED_SC_TO_CCM_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>AM_CAPEX_BASED_SC_TO_CCM_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>AM_CAPEX_BASED_SC_TO_CCM_PCT_TRANSITIONAL</t>
+  </si>
+  <si>
+    <t>AM_CAPEX_BASED_SC_TO_CCA_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>AM_CAPEX_BASED_SC_TO_CCA_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>AM_CAPEX_BASED_SC_TO_WTR_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>AM_CAPEX_BASED_SC_TO_WTR_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>AM_CAPEX_BASED_SC_TO_CE_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>AM_CAPEX_BASED_SC_TO_CE_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>AM_CAPEX_BASED_SC_TO_PPC_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>AM_CAPEX_BASED_SC_TO_PPC_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>AM_CAPEX_BASED_SC_TO_BIO_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>AM_CAPEX_BASED_SC_TO_BIO_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>IR_UNDERWRITING_TOTAL_OF_ABS_PREMIUMS_ALIGNED</t>
+  </si>
+  <si>
+    <t>IR_UNDERWRITING_TOTAL_OF_ABS_PREMIUMS_NON_ALIGNED</t>
+  </si>
+  <si>
+    <t>IR_UNDERWRITING_TOTAL_OF_ABS_PREMIUMS_NON_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>IR_UNDERWRITING_PROP_OF_ABS_PREMIUMS_ALIGNED</t>
+  </si>
+  <si>
+    <t>IR_UNDERWRITING_PROP_OF_ABS_PREMIUMS_NON_ALIGNED</t>
+  </si>
+  <si>
+    <t>IR_UNDERWRITING_PROP_OF_ABS_PREMIUMS_NON_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>IR_WAVG_VAL_OF_INVESTMENTS_TURNOVER_BASED_PCT</t>
+  </si>
+  <si>
+    <t>IR_WAVG_VAL_OF_INVESTMENTS_CAPEX_BASED_PCT</t>
+  </si>
+  <si>
+    <t>IR_WAVG_VAL_OF_INVESTMENTS_TURNOVER_BASED_AMOUNT</t>
+  </si>
+  <si>
+    <t>IR_WAVG_VAL_OF_INVESTMENTS_CAPEX_BASED_AMOUNT</t>
+  </si>
+  <si>
+    <t>IR_TURNOVER_BASED_SC_TO_CCM_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>IR_TURNOVER_BASED_SC_TO_CCM_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>IR_TURNOVER_BASED_SC_TO_CCM_PCT_TRANSITIONAL</t>
+  </si>
+  <si>
+    <t>IR_TURNOVER_BASED_SC_TO_CCA_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>IR_TURNOVER_BASED_SC_TO_CCA_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>IR_TURNOVER_BASED_SC_TO_WTR_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>IR_TURNOVER_BASED_SC_TO_WTR_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>IR_TURNOVER_BASED_SC_TO_CE_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>IR_TURNOVER_BASED_SC_TO_CE_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>IR_TURNOVER_BASED_SC_TO_PPC_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>IR_TURNOVER_BASED_SC_TO_PPC_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>IR_TURNOVER_BASED_SC_TO_BIO_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>IR_TURNOVER_BASED_SC_TO_BIO_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>IR_CAPEX_BASED_SC_TO_CCM_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>IR_CAPEX_BASED_SC_TO_CCM_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>IR_CAPEX_BASED_SC_TO_CCM_PCT_TRANSITIONAL</t>
+  </si>
+  <si>
+    <t>IR_CAPEX_BASED_SC_TO_CCA_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>IR_CAPEX_BASED_SC_TO_CCA_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>IR_CAPEX_BASED_SC_TO_WTR_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>IR_CAPEX_BASED_SC_TO_WTR_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>IR_CAPEX_BASED_SC_TO_CE_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>IR_CAPEX_BASED_SC_TO_CE_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>IR_CAPEX_BASED_SC_TO_PPC_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>IR_CAPEX_BASED_SC_TO_PPC_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>IR_CAPEX_BASED_SC_TO_BIO_PCT_ALIGNED</t>
+  </si>
+  <si>
+    <t>IR_CAPEX_BASED_SC_TO_BIO_PCT_ENABLING</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_TURNOVER_BASED_TOTAL_ASSETS</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_TURNOVER_BASED_SC_TO_CCM_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_TURNOVER_BASED_SC_TO_CCM_ALIGNED</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_TURNOVER_BASED_SC_TO_CCM_TRANSITIONAL</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_TURNOVER_BASED_SC_TO_CCM_ENABLING</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_TURNOVER_BASED_SC_TO_CCA_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_TURNOVER_BASED_SC_TO_CCA_ALIGNED</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_TURNOVER_BASED_SC_TO_CCA_ENABLING</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_TURNOVER_BASED_SC_TO_WTR_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_TURNOVER_BASED_SC_TO_WTR_ALIGNED</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_TURNOVER_BASED_SC_TO_WTR_ENABLING</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_TURNOVER_BASED_SC_TO_CE_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_TURNOVER_BASED_SC_TO_CE_ALIGNED</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_TURNOVER_BASED_SC_TO_CE_ENABLING</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_TURNOVER_BASED_SC_TO_PPC_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_TURNOVER_BASED_SC_TO_PPC_ALIGNED</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_TURNOVER_BASED_SC_TO_PPC_ENABLING</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_TURNOVER_BASED_SC_TO_BIO_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_TURNOVER_BASED_SC_TO_BIO_ALIGNED</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_TURNOVER_BASED_SC_TO_BIO_ENABLING</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_TURNOVER_BASED_SC_TO_ANY_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_TURNOVER_BASED_SC_TO_ANY_ALIGNED</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_TURNOVER_BASED_SC_TO_ANY_TRANSITIONAL</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_TURNOVER_BASED_SC_TO_ANY_ENABLING</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_CAPEX_BASED_TOTAL_ASSETS</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_CAPEX_BASED_SC_TO_CCM_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_CAPEX_BASED_SC_TO_CCM_ALIGNED</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_CAPEX_BASED_SC_TO_CCM_TRANSITIONAL</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_CAPEX_BASED_SC_TO_CCM_ENABLING</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_CAPEX_BASED_SC_TO_CCA_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_CAPEX_BASED_SC_TO_CCA_ALIGNED</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_CAPEX_BASED_SC_TO_CCA_ENABLING</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_CAPEX_BASED_SC_TO_WTR_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_CAPEX_BASED_SC_TO_WTR_ALIGNED</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_CAPEX_BASED_SC_TO_WTR_ENABLING</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_CAPEX_BASED_SC_TO_CE_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_CAPEX_BASED_SC_TO_CE_ALIGNED</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_CAPEX_BASED_SC_TO_CE_ENABLING</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_CAPEX_BASED_SC_TO_PPC_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_CAPEX_BASED_SC_TO_PPC_ALIGNED</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_CAPEX_BASED_SC_TO_PPC_ENABLING</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_CAPEX_BASED_SC_TO_BIO_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_CAPEX_BASED_SC_TO_BIO_ALIGNED</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_CAPEX_BASED_SC_TO_BIO_ENABLING</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_CAPEX_BASED_SC_TO_ANY_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_CAPEX_BASED_SC_TO_ANY_ALIGNED</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_CAPEX_BASED_SC_TO_ANY_TRANSITIONAL</t>
+  </si>
+  <si>
+    <t>IF_OWN_ACCOUNT_CAPEX_BASED_SC_TO_ANY_ENABLING</t>
+  </si>
+  <si>
+    <t>IF_OTHER_TURNOVER_BASED_TOTAL_REVENUE</t>
+  </si>
+  <si>
+    <t>IF_OTHER_TURNOVER_BASED_SC_TO_CCM_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>IF_OTHER_TURNOVER_BASED_SC_TO_CCM_ALIGNED</t>
+  </si>
+  <si>
+    <t>IF_OTHER_TURNOVER_BASED_SC_TO_CCM_TRANSITIONAL</t>
+  </si>
+  <si>
+    <t>IF_OTHER_TURNOVER_BASED_SC_TO_CCM_ENABLING</t>
+  </si>
+  <si>
+    <t>IF_OTHER_TURNOVER_BASED_SC_TO_CCA_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>IF_OTHER_TURNOVER_BASED_SC_TO_CCA_ALIGNED</t>
+  </si>
+  <si>
+    <t>IF_OTHER_TURNOVER_BASED_SC_TO_CCA_ENABLING</t>
+  </si>
+  <si>
+    <t>IF_OTHER_TURNOVER_BASED_SC_TO_WTR_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>IF_OTHER_TURNOVER_BASED_SC_TO_WTR_ALIGNED</t>
+  </si>
+  <si>
+    <t>IF_OTHER_TURNOVER_BASED_SC_TO_WTR_ENABLING</t>
+  </si>
+  <si>
+    <t>IF_OTHER_TURNOVER_BASED_SC_TO_CE_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>IF_OTHER_TURNOVER_BASED_SC_TO_CE_ALIGNED</t>
+  </si>
+  <si>
+    <t>IF_OTHER_TURNOVER_BASED_SC_TO_CE_ENABLING</t>
+  </si>
+  <si>
+    <t>IF_OTHER_TURNOVER_BASED_SC_TO_PPC_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>IF_OTHER_TURNOVER_BASED_SC_TO_PPC_ALIGNED</t>
+  </si>
+  <si>
+    <t>IF_OTHER_TURNOVER_BASED_SC_TO_PPC_ENABLING</t>
+  </si>
+  <si>
+    <t>IF_OTHER_TURNOVER_BASED_SC_TO_BIO_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>IF_OTHER_TURNOVER_BASED_SC_TO_BIO_ALIGNED</t>
+  </si>
+  <si>
+    <t>IF_OTHER_TURNOVER_BASED_SC_TO_BIO_ENABLING</t>
+  </si>
+  <si>
+    <t>IF_OTHER_TURNOVER_BASED_SC_TO_ANY_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>IF_OTHER_TURNOVER_BASED_SC_TO_ANY_ALIGNED</t>
+  </si>
+  <si>
+    <t>IF_OTHER_TURNOVER_BASED_SC_TO_ANY_TRANSITIONAL</t>
+  </si>
+  <si>
+    <t>IF_OTHER_TURNOVER_BASED_SC_TO_ANY_ENABLING</t>
+  </si>
+  <si>
+    <t>IF_OTHER_CAPEX_BASED_TOTAL_REVENUE</t>
+  </si>
+  <si>
+    <t>IF_OTHER_CAPEX_BASED_SC_TO_CCM_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>IF_OTHER_CAPEX_BASED_SC_TO_CCM_ALIGNED</t>
+  </si>
+  <si>
+    <t>IF_OTHER_CAPEX_BASED_SC_TO_CCM_TRANSITIONAL</t>
+  </si>
+  <si>
+    <t>IF_OTHER_CAPEX_BASED_SC_TO_CCM_ENABLING</t>
+  </si>
+  <si>
+    <t>IF_OTHER_CAPEX_BASED_SC_TO_CCA_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>IF_OTHER_CAPEX_BASED_SC_TO_CCA_ALIGNED</t>
+  </si>
+  <si>
+    <t>IF_OTHER_CAPEX_BASED_SC_TO_CCA_ENABLING</t>
+  </si>
+  <si>
+    <t>IF_OTHER_CAPEX_BASED_SC_TO_WTR_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>IF_OTHER_CAPEX_BASED_SC_TO_WTR_ALIGNED</t>
+  </si>
+  <si>
+    <t>IF_OTHER_CAPEX_BASED_SC_TO_WTR_ENABLING</t>
+  </si>
+  <si>
+    <t>IF_OTHER_CAPEX_BASED_SC_TO_CE_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>IF_OTHER_CAPEX_BASED_SC_TO_CE_ALIGNED</t>
+  </si>
+  <si>
+    <t>IF_OTHER_CAPEX_BASED_SC_TO_CE_ENABLING</t>
+  </si>
+  <si>
+    <t>IF_OTHER_CAPEX_BASED_SC_TO_PPC_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>IF_OTHER_CAPEX_BASED_SC_TO_PPC_ALIGNED</t>
+  </si>
+  <si>
+    <t>IF_OTHER_CAPEX_BASED_SC_TO_PPC_ENABLING</t>
+  </si>
+  <si>
+    <t>IF_OTHER_CAPEX_BASED_SC_TO_BIO_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>IF_OTHER_CAPEX_BASED_SC_TO_BIO_ALIGNED</t>
+  </si>
+  <si>
+    <t>IF_OTHER_CAPEX_BASED_SC_TO_BIO_ENABLING</t>
+  </si>
+  <si>
+    <t>IF_OTHER_CAPEX_BASED_SC_TO_ANY_ELIGIBLE</t>
+  </si>
+  <si>
+    <t>IF_OTHER_CAPEX_BASED_SC_TO_ANY_ALIGNED</t>
+  </si>
+  <si>
+    <t>IF_OTHER_CAPEX_BASED_SC_TO_ANY_TRANSITIONAL</t>
+  </si>
+  <si>
+    <t>IF_OTHER_CAPEX_BASED_SC_TO_ANY_ENABLING</t>
   </si>
 </sst>
 </file>
@@ -3497,28 +3662,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="D63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.6328125" customWidth="1"/>
-    <col min="4" max="5" width="117.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.5703125" customWidth="1"/>
+    <col min="4" max="5" width="117.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="92" customWidth="1"/>
-    <col min="7" max="7" width="36.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
@@ -3568,7 +3733,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="83">
         <v>1</v>
       </c>
@@ -3582,7 +3747,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="94" t="s">
-        <v>15</v>
+        <v>460</v>
       </c>
       <c r="F2" s="120" t="s">
         <v>16</v>
@@ -3604,7 +3769,7 @@
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="83">
         <v>2</v>
       </c>
@@ -3618,7 +3783,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="94" t="s">
-        <v>18</v>
+        <v>461</v>
       </c>
       <c r="F3" s="120" t="s">
         <v>453</v>
@@ -3640,7 +3805,7 @@
       <c r="O3" s="17"/>
       <c r="P3" s="17"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="83">
         <v>3</v>
       </c>
@@ -3654,7 +3819,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>25</v>
+        <v>462</v>
       </c>
       <c r="F4" s="120" t="s">
         <v>30</v>
@@ -3674,7 +3839,7 @@
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="83">
         <v>4</v>
       </c>
@@ -3688,7 +3853,7 @@
         <v>162</v>
       </c>
       <c r="E5" s="118" t="s">
-        <v>162</v>
+        <v>463</v>
       </c>
       <c r="F5" s="120" t="s">
         <v>19</v>
@@ -3712,7 +3877,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="83">
         <v>5</v>
       </c>
@@ -3726,7 +3891,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="94" t="s">
-        <v>34</v>
+        <v>464</v>
       </c>
       <c r="F6" s="120" t="s">
         <v>50</v>
@@ -3748,7 +3913,7 @@
       <c r="O6" s="17"/>
       <c r="P6" s="17"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="83">
         <v>6</v>
       </c>
@@ -3762,7 +3927,7 @@
         <v>163</v>
       </c>
       <c r="E7" s="94" t="s">
-        <v>163</v>
+        <v>465</v>
       </c>
       <c r="F7" s="120" t="s">
         <v>22</v>
@@ -3782,7 +3947,7 @@
       <c r="O7" s="17"/>
       <c r="P7" s="17"/>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="84">
         <v>7</v>
       </c>
@@ -3796,7 +3961,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="119" t="s">
-        <v>23</v>
+        <v>466</v>
       </c>
       <c r="F8" s="121" t="s">
         <v>51</v>
@@ -3816,7 +3981,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>8</v>
       </c>
@@ -3830,7 +3995,7 @@
         <v>160</v>
       </c>
       <c r="E9" s="95" t="s">
-        <v>160</v>
+        <v>467</v>
       </c>
       <c r="F9" s="122" t="s">
         <v>164</v>
@@ -3856,7 +4021,7 @@
       </c>
       <c r="P9" s="25"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>9</v>
       </c>
@@ -3870,7 +4035,7 @@
         <v>94</v>
       </c>
       <c r="E10" s="96" t="s">
-        <v>94</v>
+        <v>468</v>
       </c>
       <c r="F10" s="123" t="s">
         <v>99</v>
@@ -3896,7 +4061,7 @@
       </c>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>9.1</v>
       </c>
@@ -3910,7 +4075,7 @@
         <v>95</v>
       </c>
       <c r="E11" s="97" t="s">
-        <v>95</v>
+        <v>469</v>
       </c>
       <c r="F11" s="123" t="s">
         <v>100</v>
@@ -3936,7 +4101,7 @@
       </c>
       <c r="P11" s="17"/>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
         <v>105</v>
       </c>
@@ -3950,7 +4115,7 @@
         <v>96</v>
       </c>
       <c r="E12" s="95" t="s">
-        <v>96</v>
+        <v>470</v>
       </c>
       <c r="F12" s="123" t="s">
         <v>101</v>
@@ -3976,7 +4141,7 @@
       </c>
       <c r="P12" s="25"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>106</v>
       </c>
@@ -3990,7 +4155,7 @@
         <v>97</v>
       </c>
       <c r="E13" s="96" t="s">
-        <v>97</v>
+        <v>471</v>
       </c>
       <c r="F13" s="123" t="s">
         <v>102</v>
@@ -4016,7 +4181,7 @@
       </c>
       <c r="P13" s="17"/>
     </row>
-    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="85" t="s">
         <v>107</v>
       </c>
@@ -4030,7 +4195,7 @@
         <v>98</v>
       </c>
       <c r="E14" s="98" t="s">
-        <v>98</v>
+        <v>472</v>
       </c>
       <c r="F14" s="124" t="s">
         <v>103</v>
@@ -4056,7 +4221,7 @@
       </c>
       <c r="P14" s="24"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="54">
         <v>10</v>
       </c>
@@ -4070,7 +4235,7 @@
         <v>46</v>
       </c>
       <c r="E15" s="94" t="s">
-        <v>554</v>
+        <v>473</v>
       </c>
       <c r="F15" s="125" t="s">
         <v>52</v>
@@ -4094,7 +4259,7 @@
       </c>
       <c r="P15" s="17"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="54">
         <v>10.1</v>
       </c>
@@ -4108,7 +4273,7 @@
         <v>35</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>555</v>
+        <v>474</v>
       </c>
       <c r="F16" s="120" t="s">
         <v>53</v>
@@ -4132,7 +4297,7 @@
       </c>
       <c r="P16" s="17"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
         <v>108</v>
       </c>
@@ -4146,7 +4311,7 @@
         <v>66</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>556</v>
+        <v>475</v>
       </c>
       <c r="F17" s="120" t="s">
         <v>72</v>
@@ -4170,7 +4335,7 @@
       </c>
       <c r="P17" s="17"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
         <v>109</v>
       </c>
@@ -4184,7 +4349,7 @@
         <v>149</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>557</v>
+        <v>476</v>
       </c>
       <c r="F18" s="120" t="s">
         <v>54</v>
@@ -4208,7 +4373,7 @@
       </c>
       <c r="P18" s="17"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
         <v>110</v>
       </c>
@@ -4222,7 +4387,7 @@
         <v>156</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>615</v>
+        <v>477</v>
       </c>
       <c r="F19" s="120" t="s">
         <v>55</v>
@@ -4246,7 +4411,7 @@
       </c>
       <c r="P19" s="17"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="54">
         <v>11</v>
       </c>
@@ -4260,7 +4425,7 @@
         <v>36</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>616</v>
+        <v>478</v>
       </c>
       <c r="F20" s="120" t="s">
         <v>60</v>
@@ -4284,7 +4449,7 @@
       </c>
       <c r="P20" s="17"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="54">
         <v>11.1</v>
       </c>
@@ -4298,7 +4463,7 @@
         <v>37</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>617</v>
+        <v>479</v>
       </c>
       <c r="F21" s="120" t="s">
         <v>61</v>
@@ -4322,7 +4487,7 @@
       </c>
       <c r="P21" s="17"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
         <v>111</v>
       </c>
@@ -4336,7 +4501,7 @@
         <v>67</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>618</v>
+        <v>480</v>
       </c>
       <c r="F22" s="120" t="s">
         <v>73</v>
@@ -4360,7 +4525,7 @@
       </c>
       <c r="P22" s="17"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
         <v>112</v>
       </c>
@@ -4374,7 +4539,7 @@
         <v>150</v>
       </c>
       <c r="E23" s="99" t="s">
-        <v>619</v>
+        <v>481</v>
       </c>
       <c r="F23" s="126" t="s">
         <v>62</v>
@@ -4398,7 +4563,7 @@
       </c>
       <c r="P23" s="17"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
         <v>175</v>
       </c>
@@ -4412,7 +4577,7 @@
         <v>177</v>
       </c>
       <c r="E24" s="99" t="s">
-        <v>620</v>
+        <v>482</v>
       </c>
       <c r="F24" s="126" t="s">
         <v>176</v>
@@ -4436,7 +4601,7 @@
       </c>
       <c r="P24" s="17"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="54">
         <v>12</v>
       </c>
@@ -4450,7 +4615,7 @@
         <v>38</v>
       </c>
       <c r="E25" s="99" t="s">
-        <v>621</v>
+        <v>483</v>
       </c>
       <c r="F25" s="126" t="s">
         <v>165</v>
@@ -4474,7 +4639,7 @@
       </c>
       <c r="P25" s="17"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="54">
         <v>12.1</v>
       </c>
@@ -4488,7 +4653,7 @@
         <v>39</v>
       </c>
       <c r="E26" s="99" t="s">
-        <v>622</v>
+        <v>484</v>
       </c>
       <c r="F26" s="126" t="s">
         <v>166</v>
@@ -4512,7 +4677,7 @@
       </c>
       <c r="P26" s="17"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
         <v>113</v>
       </c>
@@ -4526,7 +4691,7 @@
         <v>68</v>
       </c>
       <c r="E27" s="99" t="s">
-        <v>623</v>
+        <v>485</v>
       </c>
       <c r="F27" s="126" t="s">
         <v>167</v>
@@ -4550,7 +4715,7 @@
       </c>
       <c r="P27" s="17"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
         <v>114</v>
       </c>
@@ -4564,7 +4729,7 @@
         <v>151</v>
       </c>
       <c r="E28" s="99" t="s">
-        <v>624</v>
+        <v>486</v>
       </c>
       <c r="F28" s="126" t="s">
         <v>168</v>
@@ -4588,7 +4753,7 @@
       </c>
       <c r="P28" s="17"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="54">
         <v>13</v>
       </c>
@@ -4602,7 +4767,7 @@
         <v>40</v>
       </c>
       <c r="E29" s="99" t="s">
-        <v>625</v>
+        <v>487</v>
       </c>
       <c r="F29" s="126" t="s">
         <v>74</v>
@@ -4626,7 +4791,7 @@
       </c>
       <c r="P29" s="17"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="54">
         <v>13.1</v>
       </c>
@@ -4640,7 +4805,7 @@
         <v>41</v>
       </c>
       <c r="E30" s="99" t="s">
-        <v>626</v>
+        <v>488</v>
       </c>
       <c r="F30" s="126" t="s">
         <v>75</v>
@@ -4664,7 +4829,7 @@
       </c>
       <c r="P30" s="17"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="54" t="s">
         <v>115</v>
       </c>
@@ -4678,7 +4843,7 @@
         <v>69</v>
       </c>
       <c r="E31" s="99" t="s">
-        <v>627</v>
+        <v>489</v>
       </c>
       <c r="F31" s="126" t="s">
         <v>76</v>
@@ -4702,7 +4867,7 @@
       </c>
       <c r="P31" s="17"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="54" t="s">
         <v>116</v>
       </c>
@@ -4716,7 +4881,7 @@
         <v>152</v>
       </c>
       <c r="E32" s="99" t="s">
-        <v>628</v>
+        <v>490</v>
       </c>
       <c r="F32" s="126" t="s">
         <v>77</v>
@@ -4740,7 +4905,7 @@
       </c>
       <c r="P32" s="17"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="54">
         <v>14</v>
       </c>
@@ -4754,7 +4919,7 @@
         <v>42</v>
       </c>
       <c r="E33" s="99" t="s">
-        <v>629</v>
+        <v>491</v>
       </c>
       <c r="F33" s="126" t="s">
         <v>81</v>
@@ -4778,7 +4943,7 @@
       </c>
       <c r="P33" s="17"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="54">
         <v>14.1</v>
       </c>
@@ -4792,7 +4957,7 @@
         <v>43</v>
       </c>
       <c r="E34" s="99" t="s">
-        <v>630</v>
+        <v>492</v>
       </c>
       <c r="F34" s="126" t="s">
         <v>82</v>
@@ -4816,7 +4981,7 @@
       </c>
       <c r="P34" s="17"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="54" t="s">
         <v>117</v>
       </c>
@@ -4830,7 +4995,7 @@
         <v>70</v>
       </c>
       <c r="E35" s="99" t="s">
-        <v>631</v>
+        <v>493</v>
       </c>
       <c r="F35" s="126" t="s">
         <v>83</v>
@@ -4854,7 +5019,7 @@
       </c>
       <c r="P35" s="17"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="54" t="s">
         <v>118</v>
       </c>
@@ -4868,7 +5033,7 @@
         <v>153</v>
       </c>
       <c r="E36" s="99" t="s">
-        <v>632</v>
+        <v>494</v>
       </c>
       <c r="F36" s="126" t="s">
         <v>84</v>
@@ -4892,7 +5057,7 @@
       </c>
       <c r="P36" s="17"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="54">
         <v>15</v>
       </c>
@@ -4906,7 +5071,7 @@
         <v>44</v>
       </c>
       <c r="E37" s="99" t="s">
-        <v>633</v>
+        <v>495</v>
       </c>
       <c r="F37" s="126" t="s">
         <v>88</v>
@@ -4930,7 +5095,7 @@
       </c>
       <c r="P37" s="17"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="54">
         <v>15.1</v>
       </c>
@@ -4944,7 +5109,7 @@
         <v>45</v>
       </c>
       <c r="E38" s="99" t="s">
-        <v>634</v>
+        <v>496</v>
       </c>
       <c r="F38" s="126" t="s">
         <v>89</v>
@@ -4968,7 +5133,7 @@
       </c>
       <c r="P38" s="17"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>119</v>
       </c>
@@ -4982,7 +5147,7 @@
         <v>71</v>
       </c>
       <c r="E39" s="100" t="s">
-        <v>635</v>
+        <v>497</v>
       </c>
       <c r="F39" s="127" t="s">
         <v>90</v>
@@ -5006,7 +5171,7 @@
       </c>
       <c r="P39" s="28"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="54" t="s">
         <v>120</v>
       </c>
@@ -5020,7 +5185,7 @@
         <v>154</v>
       </c>
       <c r="E40" s="101" t="s">
-        <v>636</v>
+        <v>498</v>
       </c>
       <c r="F40" s="128" t="s">
         <v>91</v>
@@ -5044,7 +5209,7 @@
       </c>
       <c r="P40" s="29"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="54">
         <v>16</v>
       </c>
@@ -5058,7 +5223,7 @@
         <v>123</v>
       </c>
       <c r="E41" s="99" t="s">
-        <v>637</v>
+        <v>499</v>
       </c>
       <c r="F41" s="126" t="s">
         <v>169</v>
@@ -5082,7 +5247,7 @@
       </c>
       <c r="P41" s="17"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="54">
         <v>16.100000000000001</v>
       </c>
@@ -5096,7 +5261,7 @@
         <v>124</v>
       </c>
       <c r="E42" s="99" t="s">
-        <v>638</v>
+        <v>500</v>
       </c>
       <c r="F42" s="126" t="s">
         <v>126</v>
@@ -5120,7 +5285,7 @@
       </c>
       <c r="P42" s="17"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>121</v>
       </c>
@@ -5134,7 +5299,7 @@
         <v>125</v>
       </c>
       <c r="E43" s="56" t="s">
-        <v>639</v>
+        <v>501</v>
       </c>
       <c r="F43" s="127" t="s">
         <v>127</v>
@@ -5158,7 +5323,7 @@
       </c>
       <c r="P43" s="28"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
         <v>122</v>
       </c>
@@ -5172,7 +5337,7 @@
         <v>155</v>
       </c>
       <c r="E44" s="101" t="s">
-        <v>640</v>
+        <v>502</v>
       </c>
       <c r="F44" s="128" t="s">
         <v>147</v>
@@ -5196,7 +5361,7 @@
       </c>
       <c r="P44" s="29"/>
     </row>
-    <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="86" t="s">
         <v>159</v>
       </c>
@@ -5210,7 +5375,7 @@
         <v>157</v>
       </c>
       <c r="E45" s="102" t="s">
-        <v>641</v>
+        <v>503</v>
       </c>
       <c r="F45" s="129" t="s">
         <v>128</v>
@@ -5234,7 +5399,7 @@
       </c>
       <c r="P45" s="33"/>
     </row>
-    <row r="46" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A46" s="54">
         <v>20</v>
       </c>
@@ -5248,7 +5413,7 @@
         <v>46</v>
       </c>
       <c r="E46" s="94" t="s">
-        <v>460</v>
+        <v>504</v>
       </c>
       <c r="F46" s="126" t="s">
         <v>56</v>
@@ -5272,7 +5437,7 @@
       </c>
       <c r="P46" s="17"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="54">
         <v>20.100000000000001</v>
       </c>
@@ -5286,7 +5451,7 @@
         <v>35</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>461</v>
+        <v>505</v>
       </c>
       <c r="F47" s="126" t="s">
         <v>57</v>
@@ -5310,7 +5475,7 @@
       </c>
       <c r="P47" s="17"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="54" t="s">
         <v>129</v>
       </c>
@@ -5324,7 +5489,7 @@
         <v>66</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>462</v>
+        <v>506</v>
       </c>
       <c r="F48" s="126" t="s">
         <v>72</v>
@@ -5348,7 +5513,7 @@
       </c>
       <c r="P48" s="17"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="54" t="s">
         <v>130</v>
       </c>
@@ -5362,7 +5527,7 @@
         <v>149</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>463</v>
+        <v>507</v>
       </c>
       <c r="F49" s="126" t="s">
         <v>58</v>
@@ -5386,7 +5551,7 @@
       </c>
       <c r="P49" s="17"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="54" t="s">
         <v>131</v>
       </c>
@@ -5400,7 +5565,7 @@
         <v>156</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>588</v>
+        <v>508</v>
       </c>
       <c r="F50" s="126" t="s">
         <v>59</v>
@@ -5424,7 +5589,7 @@
       </c>
       <c r="P50" s="17"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="54">
         <v>21</v>
       </c>
@@ -5438,7 +5603,7 @@
         <v>36</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>589</v>
+        <v>509</v>
       </c>
       <c r="F51" s="126" t="s">
         <v>63</v>
@@ -5462,7 +5627,7 @@
       </c>
       <c r="P51" s="17"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="54">
         <v>21.1</v>
       </c>
@@ -5476,7 +5641,7 @@
         <v>37</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>590</v>
+        <v>510</v>
       </c>
       <c r="F52" s="126" t="s">
         <v>64</v>
@@ -5500,7 +5665,7 @@
       </c>
       <c r="P52" s="17"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="54" t="s">
         <v>132</v>
       </c>
@@ -5514,7 +5679,7 @@
         <v>67</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>591</v>
+        <v>511</v>
       </c>
       <c r="F53" s="126" t="s">
         <v>73</v>
@@ -5538,7 +5703,7 @@
       </c>
       <c r="P53" s="17"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="54" t="s">
         <v>133</v>
       </c>
@@ -5552,7 +5717,7 @@
         <v>150</v>
       </c>
       <c r="E54" s="99" t="s">
-        <v>592</v>
+        <v>512</v>
       </c>
       <c r="F54" s="126" t="s">
         <v>65</v>
@@ -5576,7 +5741,7 @@
       </c>
       <c r="P54" s="17"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="54" t="s">
         <v>178</v>
       </c>
@@ -5590,7 +5755,7 @@
         <v>177</v>
       </c>
       <c r="E55" s="99" t="s">
-        <v>593</v>
+        <v>513</v>
       </c>
       <c r="F55" s="126" t="s">
         <v>179</v>
@@ -5614,7 +5779,7 @@
       </c>
       <c r="P55" s="17"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="54">
         <v>22</v>
       </c>
@@ -5628,7 +5793,7 @@
         <v>38</v>
       </c>
       <c r="E56" s="99" t="s">
-        <v>594</v>
+        <v>514</v>
       </c>
       <c r="F56" s="126" t="s">
         <v>170</v>
@@ -5652,7 +5817,7 @@
       </c>
       <c r="P56" s="17"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="54">
         <v>22.1</v>
       </c>
@@ -5666,7 +5831,7 @@
         <v>39</v>
       </c>
       <c r="E57" s="99" t="s">
-        <v>595</v>
+        <v>515</v>
       </c>
       <c r="F57" s="126" t="s">
         <v>171</v>
@@ -5690,7 +5855,7 @@
       </c>
       <c r="P57" s="17"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="54" t="s">
         <v>134</v>
       </c>
@@ -5704,7 +5869,7 @@
         <v>68</v>
       </c>
       <c r="E58" s="99" t="s">
-        <v>596</v>
+        <v>516</v>
       </c>
       <c r="F58" s="120" t="s">
         <v>167</v>
@@ -5728,7 +5893,7 @@
       </c>
       <c r="P58" s="17"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="54" t="s">
         <v>135</v>
       </c>
@@ -5742,7 +5907,7 @@
         <v>151</v>
       </c>
       <c r="E59" s="99" t="s">
-        <v>597</v>
+        <v>517</v>
       </c>
       <c r="F59" s="120" t="s">
         <v>172</v>
@@ -5766,7 +5931,7 @@
       </c>
       <c r="P59" s="17"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="54">
         <v>23</v>
       </c>
@@ -5780,7 +5945,7 @@
         <v>40</v>
       </c>
       <c r="E60" s="99" t="s">
-        <v>598</v>
+        <v>518</v>
       </c>
       <c r="F60" s="120" t="s">
         <v>78</v>
@@ -5804,7 +5969,7 @@
       </c>
       <c r="P60" s="17"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="54">
         <v>23.1</v>
       </c>
@@ -5818,7 +5983,7 @@
         <v>41</v>
       </c>
       <c r="E61" s="99" t="s">
-        <v>599</v>
+        <v>519</v>
       </c>
       <c r="F61" s="120" t="s">
         <v>79</v>
@@ -5842,7 +6007,7 @@
       </c>
       <c r="P61" s="17"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="54" t="s">
         <v>136</v>
       </c>
@@ -5856,7 +6021,7 @@
         <v>69</v>
       </c>
       <c r="E62" s="99" t="s">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="F62" s="120" t="s">
         <v>76</v>
@@ -5880,7 +6045,7 @@
       </c>
       <c r="P62" s="17"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="54" t="s">
         <v>137</v>
       </c>
@@ -5894,7 +6059,7 @@
         <v>152</v>
       </c>
       <c r="E63" s="99" t="s">
-        <v>601</v>
+        <v>521</v>
       </c>
       <c r="F63" s="120" t="s">
         <v>80</v>
@@ -5918,7 +6083,7 @@
       </c>
       <c r="P63" s="17"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="54">
         <v>24</v>
       </c>
@@ -5932,7 +6097,7 @@
         <v>42</v>
       </c>
       <c r="E64" s="99" t="s">
-        <v>602</v>
+        <v>522</v>
       </c>
       <c r="F64" s="120" t="s">
         <v>85</v>
@@ -5956,7 +6121,7 @@
       </c>
       <c r="P64" s="17"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="54">
         <v>24.1</v>
       </c>
@@ -5970,7 +6135,7 @@
         <v>43</v>
       </c>
       <c r="E65" s="99" t="s">
-        <v>603</v>
+        <v>523</v>
       </c>
       <c r="F65" s="120" t="s">
         <v>86</v>
@@ -5994,7 +6159,7 @@
       </c>
       <c r="P65" s="17"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="54" t="s">
         <v>138</v>
       </c>
@@ -6008,7 +6173,7 @@
         <v>70</v>
       </c>
       <c r="E66" s="99" t="s">
-        <v>604</v>
+        <v>524</v>
       </c>
       <c r="F66" s="120" t="s">
         <v>83</v>
@@ -6032,7 +6197,7 @@
       </c>
       <c r="P66" s="17"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="54" t="s">
         <v>139</v>
       </c>
@@ -6046,7 +6211,7 @@
         <v>153</v>
       </c>
       <c r="E67" s="99" t="s">
-        <v>605</v>
+        <v>525</v>
       </c>
       <c r="F67" s="120" t="s">
         <v>87</v>
@@ -6070,7 +6235,7 @@
       </c>
       <c r="P67" s="17"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="54">
         <v>25</v>
       </c>
@@ -6084,7 +6249,7 @@
         <v>44</v>
       </c>
       <c r="E68" s="99" t="s">
-        <v>606</v>
+        <v>526</v>
       </c>
       <c r="F68" s="120" t="s">
         <v>92</v>
@@ -6108,7 +6273,7 @@
       </c>
       <c r="P68" s="17"/>
     </row>
-    <row r="69" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="54">
         <v>25.1</v>
       </c>
@@ -6122,7 +6287,7 @@
         <v>45</v>
       </c>
       <c r="E69" s="99" t="s">
-        <v>607</v>
+        <v>527</v>
       </c>
       <c r="F69" s="120" t="s">
         <v>93</v>
@@ -6146,7 +6311,7 @@
       </c>
       <c r="P69" s="17"/>
     </row>
-    <row r="70" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="26" t="s">
         <v>140</v>
       </c>
@@ -6160,7 +6325,7 @@
         <v>71</v>
       </c>
       <c r="E70" s="100" t="s">
-        <v>608</v>
+        <v>528</v>
       </c>
       <c r="F70" s="120" t="s">
         <v>90</v>
@@ -6184,7 +6349,7 @@
       </c>
       <c r="P70" s="17"/>
     </row>
-    <row r="71" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="54" t="s">
         <v>141</v>
       </c>
@@ -6198,7 +6363,7 @@
         <v>154</v>
       </c>
       <c r="E71" s="101" t="s">
-        <v>609</v>
+        <v>529</v>
       </c>
       <c r="F71" s="120" t="s">
         <v>173</v>
@@ -6222,7 +6387,7 @@
       </c>
       <c r="P71" s="17"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="54">
         <v>26</v>
       </c>
@@ -6236,7 +6401,7 @@
         <v>123</v>
       </c>
       <c r="E72" s="99" t="s">
-        <v>610</v>
+        <v>530</v>
       </c>
       <c r="F72" s="126" t="s">
         <v>174</v>
@@ -6260,7 +6425,7 @@
       </c>
       <c r="P72" s="17"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="54">
         <v>26.1</v>
       </c>
@@ -6274,7 +6439,7 @@
         <v>124</v>
       </c>
       <c r="E73" s="99" t="s">
-        <v>611</v>
+        <v>531</v>
       </c>
       <c r="F73" s="126" t="s">
         <v>145</v>
@@ -6298,7 +6463,7 @@
       </c>
       <c r="P73" s="17"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="26" t="s">
         <v>142</v>
       </c>
@@ -6312,7 +6477,7 @@
         <v>125</v>
       </c>
       <c r="E74" s="56" t="s">
-        <v>612</v>
+        <v>532</v>
       </c>
       <c r="F74" s="127" t="s">
         <v>127</v>
@@ -6336,7 +6501,7 @@
       </c>
       <c r="P74" s="17"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="54" t="s">
         <v>143</v>
       </c>
@@ -6350,7 +6515,7 @@
         <v>155</v>
       </c>
       <c r="E75" s="101" t="s">
-        <v>613</v>
+        <v>533</v>
       </c>
       <c r="F75" s="128" t="s">
         <v>148</v>
@@ -6374,7 +6539,7 @@
       </c>
       <c r="P75" s="17"/>
     </row>
-    <row r="76" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="85" t="s">
         <v>144</v>
       </c>
@@ -6388,7 +6553,7 @@
         <v>157</v>
       </c>
       <c r="E76" s="103" t="s">
-        <v>614</v>
+        <v>534</v>
       </c>
       <c r="F76" s="130" t="s">
         <v>146</v>
@@ -6412,7 +6577,7 @@
       </c>
       <c r="P76" s="24"/>
     </row>
-    <row r="77" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="39">
         <v>65</v>
       </c>
@@ -6426,7 +6591,7 @@
         <v>185</v>
       </c>
       <c r="E77" s="104" t="s">
-        <v>185</v>
+        <v>535</v>
       </c>
       <c r="F77" s="53" t="s">
         <v>184</v>
@@ -6448,7 +6613,7 @@
       <c r="O77" s="17"/>
       <c r="P77" s="17"/>
     </row>
-    <row r="78" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="39">
         <v>66</v>
       </c>
@@ -6462,7 +6627,7 @@
         <v>186</v>
       </c>
       <c r="E78" s="104" t="s">
-        <v>186</v>
+        <v>536</v>
       </c>
       <c r="F78" s="53" t="s">
         <v>183</v>
@@ -6484,7 +6649,7 @@
       <c r="O78" s="17"/>
       <c r="P78" s="17"/>
     </row>
-    <row r="79" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="39">
         <v>67</v>
       </c>
@@ -6498,7 +6663,7 @@
         <v>187</v>
       </c>
       <c r="E79" s="104" t="s">
-        <v>187</v>
+        <v>537</v>
       </c>
       <c r="F79" s="53" t="s">
         <v>182</v>
@@ -6522,7 +6687,7 @@
       <c r="O79" s="17"/>
       <c r="P79" s="17"/>
     </row>
-    <row r="80" spans="1:16" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:16" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="87">
         <v>68</v>
       </c>
@@ -6536,7 +6701,7 @@
         <v>188</v>
       </c>
       <c r="E80" s="105" t="s">
-        <v>188</v>
+        <v>538</v>
       </c>
       <c r="F80" s="65" t="s">
         <v>181</v>
@@ -6560,7 +6725,7 @@
       <c r="O80" s="66"/>
       <c r="P80" s="66"/>
     </row>
-    <row r="81" spans="1:16" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A81" s="39">
         <v>69</v>
       </c>
@@ -6574,7 +6739,7 @@
         <v>419</v>
       </c>
       <c r="E81" s="104" t="s">
-        <v>464</v>
+        <v>539</v>
       </c>
       <c r="F81" s="53" t="s">
         <v>191</v>
@@ -6598,7 +6763,7 @@
       </c>
       <c r="P81" s="17"/>
     </row>
-    <row r="82" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="39">
         <v>70</v>
       </c>
@@ -6612,7 +6777,7 @@
         <v>420</v>
       </c>
       <c r="E82" s="104" t="s">
-        <v>465</v>
+        <v>540</v>
       </c>
       <c r="F82" s="53" t="s">
         <v>192</v>
@@ -6636,7 +6801,7 @@
       </c>
       <c r="P82" s="17"/>
     </row>
-    <row r="83" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="39">
         <v>71</v>
       </c>
@@ -6650,7 +6815,7 @@
         <v>421</v>
       </c>
       <c r="E83" s="104" t="s">
-        <v>466</v>
+        <v>541</v>
       </c>
       <c r="F83" s="53" t="s">
         <v>193</v>
@@ -6674,7 +6839,7 @@
       </c>
       <c r="P83" s="17"/>
     </row>
-    <row r="84" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="39">
         <v>72</v>
       </c>
@@ -6688,7 +6853,7 @@
         <v>422</v>
       </c>
       <c r="E84" s="104" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="F84" s="53" t="s">
         <v>445</v>
@@ -6712,7 +6877,7 @@
       </c>
       <c r="P84" s="17"/>
     </row>
-    <row r="85" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="39">
         <v>73</v>
       </c>
@@ -6726,7 +6891,7 @@
         <v>423</v>
       </c>
       <c r="E85" s="104" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
       <c r="F85" s="53" t="s">
         <v>446</v>
@@ -6750,7 +6915,7 @@
       </c>
       <c r="P85" s="17"/>
     </row>
-    <row r="86" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="39">
         <v>74</v>
       </c>
@@ -6764,7 +6929,7 @@
         <v>424</v>
       </c>
       <c r="E86" s="104" t="s">
-        <v>502</v>
+        <v>544</v>
       </c>
       <c r="F86" s="131" t="s">
         <v>194</v>
@@ -6788,7 +6953,7 @@
       </c>
       <c r="P86" s="17"/>
     </row>
-    <row r="87" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="39">
         <v>75</v>
       </c>
@@ -6802,7 +6967,7 @@
         <v>425</v>
       </c>
       <c r="E87" s="104" t="s">
-        <v>503</v>
+        <v>545</v>
       </c>
       <c r="F87" s="131" t="s">
         <v>195</v>
@@ -6826,7 +6991,7 @@
       </c>
       <c r="P87" s="17"/>
     </row>
-    <row r="88" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="39">
         <v>76</v>
       </c>
@@ -6840,7 +7005,7 @@
         <v>426</v>
       </c>
       <c r="E88" s="104" t="s">
-        <v>518</v>
+        <v>546</v>
       </c>
       <c r="F88" s="131" t="s">
         <v>196</v>
@@ -6864,7 +7029,7 @@
       </c>
       <c r="P88" s="17"/>
     </row>
-    <row r="89" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="39">
         <v>77</v>
       </c>
@@ -6878,7 +7043,7 @@
         <v>427</v>
       </c>
       <c r="E89" s="104" t="s">
-        <v>519</v>
+        <v>547</v>
       </c>
       <c r="F89" s="131" t="s">
         <v>197</v>
@@ -6902,7 +7067,7 @@
       </c>
       <c r="P89" s="17"/>
     </row>
-    <row r="90" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="39">
         <v>78</v>
       </c>
@@ -6916,7 +7081,7 @@
         <v>428</v>
       </c>
       <c r="E90" s="104" t="s">
-        <v>522</v>
+        <v>548</v>
       </c>
       <c r="F90" s="131" t="s">
         <v>198</v>
@@ -6940,7 +7105,7 @@
       </c>
       <c r="P90" s="17"/>
     </row>
-    <row r="91" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="39">
         <v>79</v>
       </c>
@@ -6954,7 +7119,7 @@
         <v>429</v>
       </c>
       <c r="E91" s="104" t="s">
-        <v>523</v>
+        <v>549</v>
       </c>
       <c r="F91" s="131" t="s">
         <v>199</v>
@@ -6978,7 +7143,7 @@
       </c>
       <c r="P91" s="17"/>
     </row>
-    <row r="92" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="39">
         <v>80</v>
       </c>
@@ -6992,7 +7157,7 @@
         <v>430</v>
       </c>
       <c r="E92" s="106" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="F92" s="132" t="s">
         <v>200</v>
@@ -7016,7 +7181,7 @@
       </c>
       <c r="P92" s="28"/>
     </row>
-    <row r="93" spans="1:16" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:16" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="35">
         <v>81</v>
       </c>
@@ -7030,7 +7195,7 @@
         <v>431</v>
       </c>
       <c r="E93" s="107" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="F93" s="133" t="s">
         <v>201</v>
@@ -7054,7 +7219,7 @@
       </c>
       <c r="P93" s="38"/>
     </row>
-    <row r="94" spans="1:16" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A94" s="39">
         <v>82</v>
       </c>
@@ -7068,7 +7233,7 @@
         <v>432</v>
       </c>
       <c r="E94" s="104" t="s">
-        <v>467</v>
+        <v>552</v>
       </c>
       <c r="F94" s="53" t="s">
         <v>241</v>
@@ -7092,7 +7257,7 @@
       </c>
       <c r="P94" s="40"/>
     </row>
-    <row r="95" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="39">
         <v>83</v>
       </c>
@@ -7106,7 +7271,7 @@
         <v>433</v>
       </c>
       <c r="E95" s="104" t="s">
-        <v>468</v>
+        <v>553</v>
       </c>
       <c r="F95" s="53" t="s">
         <v>202</v>
@@ -7130,7 +7295,7 @@
       </c>
       <c r="P95" s="41"/>
     </row>
-    <row r="96" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="39">
         <v>84</v>
       </c>
@@ -7144,7 +7309,7 @@
         <v>434</v>
       </c>
       <c r="E96" s="104" t="s">
-        <v>469</v>
+        <v>554</v>
       </c>
       <c r="F96" s="53" t="s">
         <v>203</v>
@@ -7168,7 +7333,7 @@
       </c>
       <c r="P96" s="41"/>
     </row>
-    <row r="97" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="39">
         <v>85</v>
       </c>
@@ -7182,7 +7347,7 @@
         <v>435</v>
       </c>
       <c r="E97" s="104" t="s">
-        <v>488</v>
+        <v>555</v>
       </c>
       <c r="F97" s="53" t="s">
         <v>447</v>
@@ -7206,7 +7371,7 @@
       </c>
       <c r="P97" s="41"/>
     </row>
-    <row r="98" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="39">
         <v>86</v>
       </c>
@@ -7220,7 +7385,7 @@
         <v>436</v>
       </c>
       <c r="E98" s="104" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="F98" s="53" t="s">
         <v>448</v>
@@ -7244,7 +7409,7 @@
       </c>
       <c r="P98" s="41"/>
     </row>
-    <row r="99" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="39">
         <v>87</v>
       </c>
@@ -7258,7 +7423,7 @@
         <v>437</v>
       </c>
       <c r="E99" s="104" t="s">
-        <v>504</v>
+        <v>557</v>
       </c>
       <c r="F99" s="131" t="s">
         <v>204</v>
@@ -7282,7 +7447,7 @@
       </c>
       <c r="P99" s="41"/>
     </row>
-    <row r="100" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="39">
         <v>88</v>
       </c>
@@ -7296,7 +7461,7 @@
         <v>438</v>
       </c>
       <c r="E100" s="104" t="s">
-        <v>505</v>
+        <v>558</v>
       </c>
       <c r="F100" s="131" t="s">
         <v>205</v>
@@ -7320,7 +7485,7 @@
       </c>
       <c r="P100" s="41"/>
     </row>
-    <row r="101" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="39">
         <v>89</v>
       </c>
@@ -7334,7 +7499,7 @@
         <v>439</v>
       </c>
       <c r="E101" s="104" t="s">
-        <v>520</v>
+        <v>559</v>
       </c>
       <c r="F101" s="131" t="s">
         <v>206</v>
@@ -7358,7 +7523,7 @@
       </c>
       <c r="P101" s="41"/>
     </row>
-    <row r="102" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="39">
         <v>90</v>
       </c>
@@ -7372,7 +7537,7 @@
         <v>440</v>
       </c>
       <c r="E102" s="104" t="s">
-        <v>521</v>
+        <v>560</v>
       </c>
       <c r="F102" s="131" t="s">
         <v>207</v>
@@ -7396,7 +7561,7 @@
       </c>
       <c r="P102" s="41"/>
     </row>
-    <row r="103" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="39">
         <v>91</v>
       </c>
@@ -7410,7 +7575,7 @@
         <v>441</v>
       </c>
       <c r="E103" s="104" t="s">
-        <v>524</v>
+        <v>561</v>
       </c>
       <c r="F103" s="131" t="s">
         <v>208</v>
@@ -7434,7 +7599,7 @@
       </c>
       <c r="P103" s="41"/>
     </row>
-    <row r="104" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="39">
         <v>92</v>
       </c>
@@ -7448,7 +7613,7 @@
         <v>442</v>
       </c>
       <c r="E104" s="104" t="s">
-        <v>525</v>
+        <v>562</v>
       </c>
       <c r="F104" s="131" t="s">
         <v>209</v>
@@ -7472,7 +7637,7 @@
       </c>
       <c r="P104" s="41"/>
     </row>
-    <row r="105" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="39">
         <v>93</v>
       </c>
@@ -7486,7 +7651,7 @@
         <v>443</v>
       </c>
       <c r="E105" s="106" t="s">
-        <v>540</v>
+        <v>563</v>
       </c>
       <c r="F105" s="132" t="s">
         <v>210</v>
@@ -7510,7 +7675,7 @@
       </c>
       <c r="P105" s="41"/>
     </row>
-    <row r="106" spans="1:16" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:16" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="42">
         <v>94</v>
       </c>
@@ -7524,7 +7689,7 @@
         <v>444</v>
       </c>
       <c r="E106" s="108" t="s">
-        <v>541</v>
+        <v>564</v>
       </c>
       <c r="F106" s="134" t="s">
         <v>211</v>
@@ -7548,7 +7713,7 @@
       </c>
       <c r="P106" s="43"/>
     </row>
-    <row r="107" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="58">
         <v>95</v>
       </c>
@@ -7562,7 +7727,7 @@
         <v>213</v>
       </c>
       <c r="E107" s="109" t="s">
-        <v>213</v>
+        <v>565</v>
       </c>
       <c r="F107" s="135" t="s">
         <v>214</v>
@@ -7586,7 +7751,7 @@
       <c r="O107" s="60"/>
       <c r="P107" s="60"/>
     </row>
-    <row r="108" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="57">
         <v>96</v>
       </c>
@@ -7600,7 +7765,7 @@
         <v>215</v>
       </c>
       <c r="E108" s="110" t="s">
-        <v>215</v>
+        <v>566</v>
       </c>
       <c r="F108" s="136" t="s">
         <v>216</v>
@@ -7624,7 +7789,7 @@
       <c r="O108" s="45"/>
       <c r="P108" s="45"/>
     </row>
-    <row r="109" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="57">
         <v>97</v>
       </c>
@@ -7638,7 +7803,7 @@
         <v>217</v>
       </c>
       <c r="E109" s="110" t="s">
-        <v>217</v>
+        <v>567</v>
       </c>
       <c r="F109" s="137" t="s">
         <v>218</v>
@@ -7662,7 +7827,7 @@
       <c r="O109" s="45"/>
       <c r="P109" s="45"/>
     </row>
-    <row r="110" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="57">
         <v>98</v>
       </c>
@@ -7676,7 +7841,7 @@
         <v>219</v>
       </c>
       <c r="E110" s="110" t="s">
-        <v>219</v>
+        <v>568</v>
       </c>
       <c r="F110" s="137" t="s">
         <v>222</v>
@@ -7698,7 +7863,7 @@
       <c r="O110" s="45"/>
       <c r="P110" s="45"/>
     </row>
-    <row r="111" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="57">
         <v>99</v>
       </c>
@@ -7712,7 +7877,7 @@
         <v>220</v>
       </c>
       <c r="E111" s="110" t="s">
-        <v>220</v>
+        <v>569</v>
       </c>
       <c r="F111" s="136" t="s">
         <v>223</v>
@@ -7734,7 +7899,7 @@
       <c r="O111" s="45"/>
       <c r="P111" s="45"/>
     </row>
-    <row r="112" spans="1:16" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:16" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="35">
         <v>100</v>
       </c>
@@ -7748,7 +7913,7 @@
         <v>221</v>
       </c>
       <c r="E112" s="111" t="s">
-        <v>221</v>
+        <v>570</v>
       </c>
       <c r="F112" s="138" t="s">
         <v>224</v>
@@ -7770,7 +7935,7 @@
       <c r="O112" s="62"/>
       <c r="P112" s="62"/>
     </row>
-    <row r="113" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="57">
         <v>101</v>
       </c>
@@ -7784,7 +7949,7 @@
         <v>185</v>
       </c>
       <c r="E113" s="104" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="F113" s="53" t="s">
         <v>225</v>
@@ -7806,7 +7971,7 @@
       <c r="O113" s="17"/>
       <c r="P113" s="17"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="57">
         <v>102</v>
       </c>
@@ -7820,7 +7985,7 @@
         <v>186</v>
       </c>
       <c r="E114" s="104" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="F114" s="53" t="s">
         <v>226</v>
@@ -7842,7 +8007,7 @@
       <c r="O114" s="17"/>
       <c r="P114" s="17"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="57">
         <v>103</v>
       </c>
@@ -7856,7 +8021,7 @@
         <v>187</v>
       </c>
       <c r="E115" s="104" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="F115" s="53" t="s">
         <v>227</v>
@@ -7880,7 +8045,7 @@
       <c r="O115" s="17"/>
       <c r="P115" s="17"/>
     </row>
-    <row r="116" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="35">
         <v>104</v>
       </c>
@@ -7894,7 +8059,7 @@
         <v>188</v>
       </c>
       <c r="E116" s="105" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="F116" s="65" t="s">
         <v>228</v>
@@ -7918,7 +8083,7 @@
       <c r="O116" s="66"/>
       <c r="P116" s="66"/>
     </row>
-    <row r="117" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A117" s="44">
         <v>105</v>
       </c>
@@ -7932,7 +8097,7 @@
         <v>419</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="F117" s="139" t="s">
         <v>229</v>
@@ -7956,7 +8121,7 @@
       </c>
       <c r="P117" s="45"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="44">
         <v>106</v>
       </c>
@@ -7970,7 +8135,7 @@
         <v>420</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="F118" s="140" t="s">
         <v>230</v>
@@ -7994,7 +8159,7 @@
       </c>
       <c r="P118" s="46"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="44">
         <v>107</v>
       </c>
@@ -8008,7 +8173,7 @@
         <v>421</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="F119" s="140" t="s">
         <v>231</v>
@@ -8032,7 +8197,7 @@
       </c>
       <c r="P119" s="46"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="44">
         <v>108</v>
       </c>
@@ -8046,7 +8211,7 @@
         <v>422</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="F120" s="140" t="s">
         <v>449</v>
@@ -8070,7 +8235,7 @@
       </c>
       <c r="P120" s="46"/>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="44">
         <v>109</v>
       </c>
@@ -8084,7 +8249,7 @@
         <v>423</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="F121" s="140" t="s">
         <v>450</v>
@@ -8108,7 +8273,7 @@
       </c>
       <c r="P121" s="46"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="44">
         <v>110</v>
       </c>
@@ -8122,7 +8287,7 @@
         <v>424</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="F122" s="140" t="s">
         <v>232</v>
@@ -8146,7 +8311,7 @@
       </c>
       <c r="P122" s="46"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="44">
         <v>111</v>
       </c>
@@ -8160,7 +8325,7 @@
         <v>425</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="F123" s="140" t="s">
         <v>233</v>
@@ -8184,7 +8349,7 @@
       </c>
       <c r="P123" s="46"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="44">
         <v>112</v>
       </c>
@@ -8198,7 +8363,7 @@
         <v>426</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="F124" s="140" t="s">
         <v>234</v>
@@ -8222,7 +8387,7 @@
       </c>
       <c r="P124" s="46"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="44">
         <v>113</v>
       </c>
@@ -8236,7 +8401,7 @@
         <v>427</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="F125" s="140" t="s">
         <v>235</v>
@@ -8260,7 +8425,7 @@
       </c>
       <c r="P125" s="46"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="44">
         <v>114</v>
       </c>
@@ -8274,7 +8439,7 @@
         <v>428</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="F126" s="140" t="s">
         <v>236</v>
@@ -8298,7 +8463,7 @@
       </c>
       <c r="P126" s="46"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="44">
         <v>115</v>
       </c>
@@ -8312,7 +8477,7 @@
         <v>429</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="F127" s="140" t="s">
         <v>237</v>
@@ -8336,7 +8501,7 @@
       </c>
       <c r="P127" s="46"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="44">
         <v>116</v>
       </c>
@@ -8350,7 +8515,7 @@
         <v>430</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="F128" s="140" t="s">
         <v>238</v>
@@ -8374,7 +8539,7 @@
       </c>
       <c r="P128" s="46"/>
     </row>
-    <row r="129" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="35">
         <v>117</v>
       </c>
@@ -8388,7 +8553,7 @@
         <v>431</v>
       </c>
       <c r="E129" s="112" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="F129" s="141" t="s">
         <v>239</v>
@@ -8412,7 +8577,7 @@
       </c>
       <c r="P129" s="47"/>
     </row>
-    <row r="130" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A130" s="44">
         <v>118</v>
       </c>
@@ -8426,7 +8591,7 @@
         <v>432</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="F130" s="139" t="s">
         <v>240</v>
@@ -8450,7 +8615,7 @@
       </c>
       <c r="P130" s="45"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="44">
         <v>119</v>
       </c>
@@ -8464,7 +8629,7 @@
         <v>433</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="F131" s="140" t="s">
         <v>242</v>
@@ -8488,7 +8653,7 @@
       </c>
       <c r="P131" s="46"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="44">
         <v>120</v>
       </c>
@@ -8502,7 +8667,7 @@
         <v>434</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="F132" s="140" t="s">
         <v>243</v>
@@ -8526,7 +8691,7 @@
       </c>
       <c r="P132" s="46"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="44">
         <v>121</v>
       </c>
@@ -8540,7 +8705,7 @@
         <v>435</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="F133" s="140" t="s">
         <v>451</v>
@@ -8564,7 +8729,7 @@
       </c>
       <c r="P133" s="46"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="44">
         <v>122</v>
       </c>
@@ -8578,7 +8743,7 @@
         <v>436</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="F134" s="140" t="s">
         <v>452</v>
@@ -8602,7 +8767,7 @@
       </c>
       <c r="P134" s="46"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="44">
         <v>123</v>
       </c>
@@ -8616,7 +8781,7 @@
         <v>437</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="F135" s="140" t="s">
         <v>244</v>
@@ -8640,7 +8805,7 @@
       </c>
       <c r="P135" s="46"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="44">
         <v>124</v>
       </c>
@@ -8654,7 +8819,7 @@
         <v>438</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="F136" s="140" t="s">
         <v>245</v>
@@ -8678,7 +8843,7 @@
       </c>
       <c r="P136" s="46"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="44">
         <v>125</v>
       </c>
@@ -8692,7 +8857,7 @@
         <v>439</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="F137" s="140" t="s">
         <v>246</v>
@@ -8716,7 +8881,7 @@
       </c>
       <c r="P137" s="46"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="44">
         <v>126</v>
       </c>
@@ -8730,7 +8895,7 @@
         <v>440</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F138" s="140" t="s">
         <v>247</v>
@@ -8754,7 +8919,7 @@
       </c>
       <c r="P138" s="46"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="44">
         <v>127</v>
       </c>
@@ -8768,7 +8933,7 @@
         <v>441</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="F139" s="140" t="s">
         <v>248</v>
@@ -8792,7 +8957,7 @@
       </c>
       <c r="P139" s="46"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="44">
         <v>128</v>
       </c>
@@ -8806,7 +8971,7 @@
         <v>442</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="F140" s="140" t="s">
         <v>249</v>
@@ -8830,7 +8995,7 @@
       </c>
       <c r="P140" s="46"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="44">
         <v>129</v>
       </c>
@@ -8844,7 +9009,7 @@
         <v>443</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="F141" s="140" t="s">
         <v>250</v>
@@ -8868,7 +9033,7 @@
       </c>
       <c r="P141" s="46"/>
     </row>
-    <row r="142" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="42">
         <v>130</v>
       </c>
@@ -8882,7 +9047,7 @@
         <v>444</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="F142" s="142" t="s">
         <v>251</v>
@@ -8906,7 +9071,7 @@
       </c>
       <c r="P142" s="48"/>
     </row>
-    <row r="143" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="88">
         <v>131</v>
       </c>
@@ -8920,7 +9085,7 @@
         <v>336</v>
       </c>
       <c r="E143" s="104" t="s">
-        <v>336</v>
+        <v>601</v>
       </c>
       <c r="F143" s="131" t="s">
         <v>253</v>
@@ -8946,7 +9111,7 @@
       </c>
       <c r="P143" s="49"/>
     </row>
-    <row r="144" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="88">
         <v>132</v>
       </c>
@@ -8960,7 +9125,7 @@
         <v>254</v>
       </c>
       <c r="E144" s="104" t="s">
-        <v>470</v>
+        <v>602</v>
       </c>
       <c r="F144" s="131" t="s">
         <v>277</v>
@@ -8984,7 +9149,7 @@
       </c>
       <c r="P144" s="49"/>
     </row>
-    <row r="145" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="88">
         <v>133</v>
       </c>
@@ -8998,7 +9163,7 @@
         <v>255</v>
       </c>
       <c r="E145" s="104" t="s">
-        <v>471</v>
+        <v>603</v>
       </c>
       <c r="F145" s="131" t="s">
         <v>277</v>
@@ -9022,7 +9187,7 @@
       </c>
       <c r="P145" s="49"/>
     </row>
-    <row r="146" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="88">
         <v>134</v>
       </c>
@@ -9036,7 +9201,7 @@
         <v>256</v>
       </c>
       <c r="E146" s="104" t="s">
-        <v>472</v>
+        <v>604</v>
       </c>
       <c r="F146" s="131" t="s">
         <v>278</v>
@@ -9060,7 +9225,7 @@
       </c>
       <c r="P146" s="49"/>
     </row>
-    <row r="147" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="88">
         <v>135</v>
       </c>
@@ -9074,7 +9239,7 @@
         <v>257</v>
       </c>
       <c r="E147" s="104" t="s">
-        <v>473</v>
+        <v>605</v>
       </c>
       <c r="F147" s="131" t="s">
         <v>279</v>
@@ -9098,7 +9263,7 @@
       </c>
       <c r="P147" s="49"/>
     </row>
-    <row r="148" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="88">
         <v>136</v>
       </c>
@@ -9112,7 +9277,7 @@
         <v>258</v>
       </c>
       <c r="E148" s="104" t="s">
-        <v>490</v>
+        <v>606</v>
       </c>
       <c r="F148" s="131" t="s">
         <v>280</v>
@@ -9136,7 +9301,7 @@
       </c>
       <c r="P148" s="49"/>
     </row>
-    <row r="149" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="88">
         <v>137</v>
       </c>
@@ -9150,7 +9315,7 @@
         <v>259</v>
       </c>
       <c r="E149" s="104" t="s">
-        <v>491</v>
+        <v>607</v>
       </c>
       <c r="F149" s="131" t="s">
         <v>280</v>
@@ -9174,7 +9339,7 @@
       </c>
       <c r="P149" s="49"/>
     </row>
-    <row r="150" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="88">
         <v>138</v>
       </c>
@@ -9188,7 +9353,7 @@
         <v>260</v>
       </c>
       <c r="E150" s="104" t="s">
-        <v>492</v>
+        <v>608</v>
       </c>
       <c r="F150" s="131" t="s">
         <v>281</v>
@@ -9212,7 +9377,7 @@
       </c>
       <c r="P150" s="49"/>
     </row>
-    <row r="151" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="88">
         <v>139</v>
       </c>
@@ -9226,7 +9391,7 @@
         <v>261</v>
       </c>
       <c r="E151" s="104" t="s">
-        <v>506</v>
+        <v>609</v>
       </c>
       <c r="F151" s="131" t="s">
         <v>282</v>
@@ -9250,7 +9415,7 @@
       </c>
       <c r="P151" s="49"/>
     </row>
-    <row r="152" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="88">
         <v>140</v>
       </c>
@@ -9264,7 +9429,7 @@
         <v>262</v>
       </c>
       <c r="E152" s="104" t="s">
-        <v>507</v>
+        <v>610</v>
       </c>
       <c r="F152" s="131" t="s">
         <v>282</v>
@@ -9288,7 +9453,7 @@
       </c>
       <c r="P152" s="49"/>
     </row>
-    <row r="153" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="88">
         <v>141</v>
       </c>
@@ -9302,7 +9467,7 @@
         <v>263</v>
       </c>
       <c r="E153" s="104" t="s">
-        <v>508</v>
+        <v>611</v>
       </c>
       <c r="F153" s="131" t="s">
         <v>283</v>
@@ -9326,7 +9491,7 @@
       </c>
       <c r="P153" s="49"/>
     </row>
-    <row r="154" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="88">
         <v>142</v>
       </c>
@@ -9340,7 +9505,7 @@
         <v>264</v>
       </c>
       <c r="E154" s="104" t="s">
-        <v>264</v>
+        <v>612</v>
       </c>
       <c r="F154" s="131" t="s">
         <v>284</v>
@@ -9364,7 +9529,7 @@
       </c>
       <c r="P154" s="49"/>
     </row>
-    <row r="155" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="88">
         <v>143</v>
       </c>
@@ -9378,7 +9543,7 @@
         <v>265</v>
       </c>
       <c r="E155" s="104" t="s">
-        <v>265</v>
+        <v>613</v>
       </c>
       <c r="F155" s="131" t="s">
         <v>284</v>
@@ -9402,7 +9567,7 @@
       </c>
       <c r="P155" s="49"/>
     </row>
-    <row r="156" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="88">
         <v>144</v>
       </c>
@@ -9416,7 +9581,7 @@
         <v>266</v>
       </c>
       <c r="E156" s="104" t="s">
-        <v>266</v>
+        <v>614</v>
       </c>
       <c r="F156" s="131" t="s">
         <v>285</v>
@@ -9440,7 +9605,7 @@
       </c>
       <c r="P156" s="49"/>
     </row>
-    <row r="157" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="88">
         <v>145</v>
       </c>
@@ -9454,7 +9619,7 @@
         <v>267</v>
       </c>
       <c r="E157" s="104" t="s">
-        <v>526</v>
+        <v>615</v>
       </c>
       <c r="F157" s="131" t="s">
         <v>286</v>
@@ -9478,7 +9643,7 @@
       </c>
       <c r="P157" s="49"/>
     </row>
-    <row r="158" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="88">
         <v>146</v>
       </c>
@@ -9492,7 +9657,7 @@
         <v>268</v>
       </c>
       <c r="E158" s="104" t="s">
-        <v>527</v>
+        <v>616</v>
       </c>
       <c r="F158" s="131" t="s">
         <v>286</v>
@@ -9516,7 +9681,7 @@
       </c>
       <c r="P158" s="49"/>
     </row>
-    <row r="159" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="88">
         <v>147</v>
       </c>
@@ -9530,7 +9695,7 @@
         <v>269</v>
       </c>
       <c r="E159" s="104" t="s">
-        <v>528</v>
+        <v>617</v>
       </c>
       <c r="F159" s="131" t="s">
         <v>287</v>
@@ -9554,7 +9719,7 @@
       </c>
       <c r="P159" s="49"/>
     </row>
-    <row r="160" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="88">
         <v>148</v>
       </c>
@@ -9568,7 +9733,7 @@
         <v>270</v>
       </c>
       <c r="E160" s="104" t="s">
-        <v>542</v>
+        <v>618</v>
       </c>
       <c r="F160" s="131" t="s">
         <v>288</v>
@@ -9592,7 +9757,7 @@
       </c>
       <c r="P160" s="49"/>
     </row>
-    <row r="161" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="88">
         <v>149</v>
       </c>
@@ -9606,7 +9771,7 @@
         <v>271</v>
       </c>
       <c r="E161" s="104" t="s">
-        <v>543</v>
+        <v>619</v>
       </c>
       <c r="F161" s="131" t="s">
         <v>288</v>
@@ -9630,7 +9795,7 @@
       </c>
       <c r="P161" s="49"/>
     </row>
-    <row r="162" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="88">
         <v>150</v>
       </c>
@@ -9644,7 +9809,7 @@
         <v>272</v>
       </c>
       <c r="E162" s="104" t="s">
-        <v>544</v>
+        <v>620</v>
       </c>
       <c r="F162" s="131" t="s">
         <v>289</v>
@@ -9668,7 +9833,7 @@
       </c>
       <c r="P162" s="49"/>
     </row>
-    <row r="163" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="88">
         <v>151</v>
       </c>
@@ -9682,7 +9847,7 @@
         <v>273</v>
       </c>
       <c r="E163" s="104" t="s">
-        <v>273</v>
+        <v>621</v>
       </c>
       <c r="F163" s="131" t="s">
         <v>290</v>
@@ -9706,7 +9871,7 @@
       </c>
       <c r="P163" s="49"/>
     </row>
-    <row r="164" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="88">
         <v>152</v>
       </c>
@@ -9720,7 +9885,7 @@
         <v>274</v>
       </c>
       <c r="E164" s="104" t="s">
-        <v>274</v>
+        <v>622</v>
       </c>
       <c r="F164" s="131" t="s">
         <v>290</v>
@@ -9744,7 +9909,7 @@
       </c>
       <c r="P164" s="49"/>
     </row>
-    <row r="165" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="88">
         <v>153</v>
       </c>
@@ -9758,7 +9923,7 @@
         <v>275</v>
       </c>
       <c r="E165" s="104" t="s">
-        <v>275</v>
+        <v>623</v>
       </c>
       <c r="F165" s="131" t="s">
         <v>291</v>
@@ -9782,7 +9947,7 @@
       </c>
       <c r="P165" s="49"/>
     </row>
-    <row r="166" spans="1:16" s="64" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:16" s="64" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="89">
         <v>154</v>
       </c>
@@ -9796,7 +9961,7 @@
         <v>276</v>
       </c>
       <c r="E166" s="113" t="s">
-        <v>276</v>
+        <v>624</v>
       </c>
       <c r="F166" s="143" t="s">
         <v>292</v>
@@ -9820,7 +9985,7 @@
       </c>
       <c r="P166" s="51"/>
     </row>
-    <row r="167" spans="1:16" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:16" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A167" s="88">
         <v>155</v>
       </c>
@@ -9834,7 +9999,7 @@
         <v>337</v>
       </c>
       <c r="E167" s="104" t="s">
-        <v>337</v>
+        <v>625</v>
       </c>
       <c r="F167" s="131" t="s">
         <v>253</v>
@@ -9860,7 +10025,7 @@
       </c>
       <c r="P167" s="49"/>
     </row>
-    <row r="168" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="88">
         <v>156</v>
       </c>
@@ -9874,7 +10039,7 @@
         <v>294</v>
       </c>
       <c r="E168" s="104" t="s">
-        <v>474</v>
+        <v>626</v>
       </c>
       <c r="F168" s="131" t="s">
         <v>295</v>
@@ -9898,7 +10063,7 @@
       </c>
       <c r="P168" s="49"/>
     </row>
-    <row r="169" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="88">
         <v>157</v>
       </c>
@@ -9912,7 +10077,7 @@
         <v>296</v>
       </c>
       <c r="E169" s="104" t="s">
-        <v>475</v>
+        <v>627</v>
       </c>
       <c r="F169" s="131" t="s">
         <v>295</v>
@@ -9936,7 +10101,7 @@
       </c>
       <c r="P169" s="49"/>
     </row>
-    <row r="170" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="88">
         <v>158</v>
       </c>
@@ -9950,7 +10115,7 @@
         <v>297</v>
       </c>
       <c r="E170" s="104" t="s">
-        <v>476</v>
+        <v>628</v>
       </c>
       <c r="F170" s="131" t="s">
         <v>298</v>
@@ -9974,7 +10139,7 @@
       </c>
       <c r="P170" s="49"/>
     </row>
-    <row r="171" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="88">
         <v>159</v>
       </c>
@@ -9988,7 +10153,7 @@
         <v>299</v>
       </c>
       <c r="E171" s="104" t="s">
-        <v>477</v>
+        <v>629</v>
       </c>
       <c r="F171" s="131" t="s">
         <v>300</v>
@@ -10012,7 +10177,7 @@
       </c>
       <c r="P171" s="49"/>
     </row>
-    <row r="172" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="88">
         <v>160</v>
       </c>
@@ -10026,7 +10191,7 @@
         <v>301</v>
       </c>
       <c r="E172" s="104" t="s">
-        <v>493</v>
+        <v>630</v>
       </c>
       <c r="F172" s="131" t="s">
         <v>302</v>
@@ -10050,7 +10215,7 @@
       </c>
       <c r="P172" s="49"/>
     </row>
-    <row r="173" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="88">
         <v>161</v>
       </c>
@@ -10064,7 +10229,7 @@
         <v>303</v>
       </c>
       <c r="E173" s="104" t="s">
-        <v>494</v>
+        <v>631</v>
       </c>
       <c r="F173" s="131" t="s">
         <v>302</v>
@@ -10088,7 +10253,7 @@
       </c>
       <c r="P173" s="49"/>
     </row>
-    <row r="174" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="88">
         <v>162</v>
       </c>
@@ -10102,7 +10267,7 @@
         <v>304</v>
       </c>
       <c r="E174" s="104" t="s">
-        <v>495</v>
+        <v>632</v>
       </c>
       <c r="F174" s="131" t="s">
         <v>305</v>
@@ -10126,7 +10291,7 @@
       </c>
       <c r="P174" s="49"/>
     </row>
-    <row r="175" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="88">
         <v>163</v>
       </c>
@@ -10140,7 +10305,7 @@
         <v>306</v>
       </c>
       <c r="E175" s="104" t="s">
-        <v>509</v>
+        <v>633</v>
       </c>
       <c r="F175" s="131" t="s">
         <v>307</v>
@@ -10164,7 +10329,7 @@
       </c>
       <c r="P175" s="49"/>
     </row>
-    <row r="176" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="88">
         <v>164</v>
       </c>
@@ -10178,7 +10343,7 @@
         <v>308</v>
       </c>
       <c r="E176" s="104" t="s">
-        <v>510</v>
+        <v>634</v>
       </c>
       <c r="F176" s="131" t="s">
         <v>307</v>
@@ -10202,7 +10367,7 @@
       </c>
       <c r="P176" s="49"/>
     </row>
-    <row r="177" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="88">
         <v>165</v>
       </c>
@@ -10216,7 +10381,7 @@
         <v>309</v>
       </c>
       <c r="E177" s="104" t="s">
-        <v>511</v>
+        <v>635</v>
       </c>
       <c r="F177" s="131" t="s">
         <v>310</v>
@@ -10240,7 +10405,7 @@
       </c>
       <c r="P177" s="49"/>
     </row>
-    <row r="178" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="88">
         <v>166</v>
       </c>
@@ -10254,7 +10419,7 @@
         <v>311</v>
       </c>
       <c r="E178" s="104" t="s">
-        <v>311</v>
+        <v>636</v>
       </c>
       <c r="F178" s="131" t="s">
         <v>312</v>
@@ -10278,7 +10443,7 @@
       </c>
       <c r="P178" s="49"/>
     </row>
-    <row r="179" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="88">
         <v>167</v>
       </c>
@@ -10292,7 +10457,7 @@
         <v>313</v>
       </c>
       <c r="E179" s="104" t="s">
-        <v>313</v>
+        <v>637</v>
       </c>
       <c r="F179" s="131" t="s">
         <v>312</v>
@@ -10316,7 +10481,7 @@
       </c>
       <c r="P179" s="49"/>
     </row>
-    <row r="180" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="88">
         <v>168</v>
       </c>
@@ -10330,7 +10495,7 @@
         <v>314</v>
       </c>
       <c r="E180" s="104" t="s">
-        <v>314</v>
+        <v>638</v>
       </c>
       <c r="F180" s="131" t="s">
         <v>315</v>
@@ -10354,7 +10519,7 @@
       </c>
       <c r="P180" s="49"/>
     </row>
-    <row r="181" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="88">
         <v>169</v>
       </c>
@@ -10368,7 +10533,7 @@
         <v>316</v>
       </c>
       <c r="E181" s="104" t="s">
-        <v>529</v>
+        <v>639</v>
       </c>
       <c r="F181" s="131" t="s">
         <v>317</v>
@@ -10392,7 +10557,7 @@
       </c>
       <c r="P181" s="49"/>
     </row>
-    <row r="182" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="88">
         <v>170</v>
       </c>
@@ -10406,7 +10571,7 @@
         <v>318</v>
       </c>
       <c r="E182" s="104" t="s">
-        <v>530</v>
+        <v>640</v>
       </c>
       <c r="F182" s="131" t="s">
         <v>317</v>
@@ -10430,7 +10595,7 @@
       </c>
       <c r="P182" s="49"/>
     </row>
-    <row r="183" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="88">
         <v>171</v>
       </c>
@@ -10444,7 +10609,7 @@
         <v>319</v>
       </c>
       <c r="E183" s="104" t="s">
-        <v>531</v>
+        <v>641</v>
       </c>
       <c r="F183" s="131" t="s">
         <v>320</v>
@@ -10468,7 +10633,7 @@
       </c>
       <c r="P183" s="49"/>
     </row>
-    <row r="184" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="88">
         <v>172</v>
       </c>
@@ -10482,7 +10647,7 @@
         <v>321</v>
       </c>
       <c r="E184" s="104" t="s">
-        <v>545</v>
+        <v>642</v>
       </c>
       <c r="F184" s="131" t="s">
         <v>322</v>
@@ -10506,7 +10671,7 @@
       </c>
       <c r="P184" s="49"/>
     </row>
-    <row r="185" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="88">
         <v>173</v>
       </c>
@@ -10520,7 +10685,7 @@
         <v>323</v>
       </c>
       <c r="E185" s="104" t="s">
-        <v>546</v>
+        <v>643</v>
       </c>
       <c r="F185" s="131" t="s">
         <v>322</v>
@@ -10544,7 +10709,7 @@
       </c>
       <c r="P185" s="49"/>
     </row>
-    <row r="186" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="88">
         <v>174</v>
       </c>
@@ -10558,7 +10723,7 @@
         <v>324</v>
       </c>
       <c r="E186" s="104" t="s">
-        <v>547</v>
+        <v>644</v>
       </c>
       <c r="F186" s="131" t="s">
         <v>325</v>
@@ -10582,7 +10747,7 @@
       </c>
       <c r="P186" s="49"/>
     </row>
-    <row r="187" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="88">
         <v>175</v>
       </c>
@@ -10596,7 +10761,7 @@
         <v>326</v>
       </c>
       <c r="E187" s="104" t="s">
-        <v>326</v>
+        <v>645</v>
       </c>
       <c r="F187" s="131" t="s">
         <v>327</v>
@@ -10620,7 +10785,7 @@
       </c>
       <c r="P187" s="49"/>
     </row>
-    <row r="188" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="88">
         <v>176</v>
       </c>
@@ -10634,7 +10799,7 @@
         <v>328</v>
       </c>
       <c r="E188" s="104" t="s">
-        <v>328</v>
+        <v>646</v>
       </c>
       <c r="F188" s="131" t="s">
         <v>327</v>
@@ -10658,7 +10823,7 @@
       </c>
       <c r="P188" s="49"/>
     </row>
-    <row r="189" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="88">
         <v>177</v>
       </c>
@@ -10672,7 +10837,7 @@
         <v>329</v>
       </c>
       <c r="E189" s="104" t="s">
-        <v>329</v>
+        <v>647</v>
       </c>
       <c r="F189" s="131" t="s">
         <v>330</v>
@@ -10696,7 +10861,7 @@
       </c>
       <c r="P189" s="49"/>
     </row>
-    <row r="190" spans="1:16" s="64" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:16" s="64" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="89">
         <v>178</v>
       </c>
@@ -10710,7 +10875,7 @@
         <v>331</v>
       </c>
       <c r="E190" s="113" t="s">
-        <v>331</v>
+        <v>648</v>
       </c>
       <c r="F190" s="143" t="s">
         <v>332</v>
@@ -10734,7 +10899,7 @@
       </c>
       <c r="P190" s="51"/>
     </row>
-    <row r="191" spans="1:16" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:16" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A191" s="88">
         <v>179</v>
       </c>
@@ -10748,7 +10913,7 @@
         <v>338</v>
       </c>
       <c r="E191" s="104" t="s">
-        <v>338</v>
+        <v>649</v>
       </c>
       <c r="F191" s="131" t="s">
         <v>339</v>
@@ -10774,7 +10939,7 @@
       </c>
       <c r="P191" s="49"/>
     </row>
-    <row r="192" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="88">
         <v>180</v>
       </c>
@@ -10788,7 +10953,7 @@
         <v>341</v>
       </c>
       <c r="E192" s="104" t="s">
-        <v>478</v>
+        <v>650</v>
       </c>
       <c r="F192" s="131" t="s">
         <v>387</v>
@@ -10812,7 +10977,7 @@
       </c>
       <c r="P192" s="49"/>
     </row>
-    <row r="193" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="88">
         <v>181</v>
       </c>
@@ -10826,7 +10991,7 @@
         <v>342</v>
       </c>
       <c r="E193" s="104" t="s">
-        <v>479</v>
+        <v>651</v>
       </c>
       <c r="F193" s="131" t="s">
         <v>387</v>
@@ -10850,7 +11015,7 @@
       </c>
       <c r="P193" s="49"/>
     </row>
-    <row r="194" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="88">
         <v>182</v>
       </c>
@@ -10864,7 +11029,7 @@
         <v>343</v>
       </c>
       <c r="E194" s="104" t="s">
-        <v>480</v>
+        <v>652</v>
       </c>
       <c r="F194" s="131" t="s">
         <v>388</v>
@@ -10888,7 +11053,7 @@
       </c>
       <c r="P194" s="49"/>
     </row>
-    <row r="195" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="88">
         <v>183</v>
       </c>
@@ -10902,7 +11067,7 @@
         <v>344</v>
       </c>
       <c r="E195" s="104" t="s">
-        <v>481</v>
+        <v>653</v>
       </c>
       <c r="F195" s="131" t="s">
         <v>389</v>
@@ -10926,7 +11091,7 @@
       </c>
       <c r="P195" s="49"/>
     </row>
-    <row r="196" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="88">
         <v>184</v>
       </c>
@@ -10940,7 +11105,7 @@
         <v>345</v>
       </c>
       <c r="E196" s="104" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="F196" s="131" t="s">
         <v>390</v>
@@ -10964,7 +11129,7 @@
       </c>
       <c r="P196" s="49"/>
     </row>
-    <row r="197" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="88">
         <v>185</v>
       </c>
@@ -10978,7 +11143,7 @@
         <v>346</v>
       </c>
       <c r="E197" s="104" t="s">
-        <v>497</v>
+        <v>655</v>
       </c>
       <c r="F197" s="131" t="s">
         <v>390</v>
@@ -11002,7 +11167,7 @@
       </c>
       <c r="P197" s="49"/>
     </row>
-    <row r="198" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="88">
         <v>186</v>
       </c>
@@ -11016,7 +11181,7 @@
         <v>347</v>
       </c>
       <c r="E198" s="104" t="s">
-        <v>498</v>
+        <v>656</v>
       </c>
       <c r="F198" s="131" t="s">
         <v>391</v>
@@ -11040,7 +11205,7 @@
       </c>
       <c r="P198" s="49"/>
     </row>
-    <row r="199" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="88">
         <v>187</v>
       </c>
@@ -11054,7 +11219,7 @@
         <v>348</v>
       </c>
       <c r="E199" s="104" t="s">
-        <v>512</v>
+        <v>657</v>
       </c>
       <c r="F199" s="131" t="s">
         <v>392</v>
@@ -11078,7 +11243,7 @@
       </c>
       <c r="P199" s="49"/>
     </row>
-    <row r="200" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="88">
         <v>188</v>
       </c>
@@ -11092,7 +11257,7 @@
         <v>349</v>
       </c>
       <c r="E200" s="104" t="s">
-        <v>513</v>
+        <v>658</v>
       </c>
       <c r="F200" s="131" t="s">
         <v>392</v>
@@ -11116,7 +11281,7 @@
       </c>
       <c r="P200" s="49"/>
     </row>
-    <row r="201" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="88">
         <v>189</v>
       </c>
@@ -11130,7 +11295,7 @@
         <v>350</v>
       </c>
       <c r="E201" s="104" t="s">
-        <v>514</v>
+        <v>659</v>
       </c>
       <c r="F201" s="131" t="s">
         <v>393</v>
@@ -11154,7 +11319,7 @@
       </c>
       <c r="P201" s="49"/>
     </row>
-    <row r="202" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="88">
         <v>190</v>
       </c>
@@ -11168,7 +11333,7 @@
         <v>351</v>
       </c>
       <c r="E202" s="104" t="s">
-        <v>351</v>
+        <v>660</v>
       </c>
       <c r="F202" s="131" t="s">
         <v>394</v>
@@ -11192,7 +11357,7 @@
       </c>
       <c r="P202" s="49"/>
     </row>
-    <row r="203" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="88">
         <v>191</v>
       </c>
@@ -11206,7 +11371,7 @@
         <v>352</v>
       </c>
       <c r="E203" s="104" t="s">
-        <v>352</v>
+        <v>661</v>
       </c>
       <c r="F203" s="131" t="s">
         <v>394</v>
@@ -11230,7 +11395,7 @@
       </c>
       <c r="P203" s="49"/>
     </row>
-    <row r="204" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="88">
         <v>192</v>
       </c>
@@ -11244,7 +11409,7 @@
         <v>353</v>
       </c>
       <c r="E204" s="104" t="s">
-        <v>353</v>
+        <v>662</v>
       </c>
       <c r="F204" s="131" t="s">
         <v>395</v>
@@ -11268,7 +11433,7 @@
       </c>
       <c r="P204" s="49"/>
     </row>
-    <row r="205" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="88">
         <v>193</v>
       </c>
@@ -11282,7 +11447,7 @@
         <v>354</v>
       </c>
       <c r="E205" s="104" t="s">
-        <v>532</v>
+        <v>663</v>
       </c>
       <c r="F205" s="131" t="s">
         <v>396</v>
@@ -11306,7 +11471,7 @@
       </c>
       <c r="P205" s="49"/>
     </row>
-    <row r="206" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="88">
         <v>194</v>
       </c>
@@ -11320,7 +11485,7 @@
         <v>355</v>
       </c>
       <c r="E206" s="104" t="s">
-        <v>533</v>
+        <v>664</v>
       </c>
       <c r="F206" s="131" t="s">
         <v>396</v>
@@ -11344,7 +11509,7 @@
       </c>
       <c r="P206" s="49"/>
     </row>
-    <row r="207" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="88">
         <v>195</v>
       </c>
@@ -11358,7 +11523,7 @@
         <v>356</v>
       </c>
       <c r="E207" s="104" t="s">
-        <v>534</v>
+        <v>665</v>
       </c>
       <c r="F207" s="131" t="s">
         <v>397</v>
@@ -11382,7 +11547,7 @@
       </c>
       <c r="P207" s="49"/>
     </row>
-    <row r="208" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="88">
         <v>196</v>
       </c>
@@ -11396,7 +11561,7 @@
         <v>357</v>
       </c>
       <c r="E208" s="104" t="s">
-        <v>548</v>
+        <v>666</v>
       </c>
       <c r="F208" s="131" t="s">
         <v>398</v>
@@ -11420,7 +11585,7 @@
       </c>
       <c r="P208" s="49"/>
     </row>
-    <row r="209" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="88">
         <v>197</v>
       </c>
@@ -11434,7 +11599,7 @@
         <v>358</v>
       </c>
       <c r="E209" s="104" t="s">
-        <v>549</v>
+        <v>667</v>
       </c>
       <c r="F209" s="131" t="s">
         <v>398</v>
@@ -11458,7 +11623,7 @@
       </c>
       <c r="P209" s="49"/>
     </row>
-    <row r="210" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="88">
         <v>198</v>
       </c>
@@ -11472,7 +11637,7 @@
         <v>359</v>
       </c>
       <c r="E210" s="104" t="s">
-        <v>550</v>
+        <v>668</v>
       </c>
       <c r="F210" s="131" t="s">
         <v>399</v>
@@ -11496,7 +11661,7 @@
       </c>
       <c r="P210" s="49"/>
     </row>
-    <row r="211" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="88">
         <v>199</v>
       </c>
@@ -11510,7 +11675,7 @@
         <v>360</v>
       </c>
       <c r="E211" s="104" t="s">
-        <v>360</v>
+        <v>669</v>
       </c>
       <c r="F211" s="131" t="s">
         <v>400</v>
@@ -11534,7 +11699,7 @@
       </c>
       <c r="P211" s="49"/>
     </row>
-    <row r="212" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="88">
         <v>200</v>
       </c>
@@ -11548,7 +11713,7 @@
         <v>361</v>
       </c>
       <c r="E212" s="104" t="s">
-        <v>361</v>
+        <v>670</v>
       </c>
       <c r="F212" s="131" t="s">
         <v>400</v>
@@ -11572,7 +11737,7 @@
       </c>
       <c r="P212" s="49"/>
     </row>
-    <row r="213" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="88">
         <v>201</v>
       </c>
@@ -11586,7 +11751,7 @@
         <v>362</v>
       </c>
       <c r="E213" s="104" t="s">
-        <v>362</v>
+        <v>671</v>
       </c>
       <c r="F213" s="131" t="s">
         <v>401</v>
@@ -11610,7 +11775,7 @@
       </c>
       <c r="P213" s="49"/>
     </row>
-    <row r="214" spans="1:16" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:16" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="89">
         <v>202</v>
       </c>
@@ -11624,7 +11789,7 @@
         <v>363</v>
       </c>
       <c r="E214" s="113" t="s">
-        <v>363</v>
+        <v>672</v>
       </c>
       <c r="F214" s="143" t="s">
         <v>402</v>
@@ -11648,7 +11813,7 @@
       </c>
       <c r="P214" s="51"/>
     </row>
-    <row r="215" spans="1:16" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:16" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A215" s="88">
         <v>203</v>
       </c>
@@ -11662,7 +11827,7 @@
         <v>340</v>
       </c>
       <c r="E215" s="104" t="s">
-        <v>340</v>
+        <v>673</v>
       </c>
       <c r="F215" s="131" t="s">
         <v>333</v>
@@ -11688,7 +11853,7 @@
       </c>
       <c r="P215" s="49"/>
     </row>
-    <row r="216" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="88">
         <v>204</v>
       </c>
@@ -11702,7 +11867,7 @@
         <v>364</v>
       </c>
       <c r="E216" s="104" t="s">
-        <v>482</v>
+        <v>674</v>
       </c>
       <c r="F216" s="131" t="s">
         <v>403</v>
@@ -11726,7 +11891,7 @@
       </c>
       <c r="P216" s="49"/>
     </row>
-    <row r="217" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="88">
         <v>205</v>
       </c>
@@ -11740,7 +11905,7 @@
         <v>365</v>
       </c>
       <c r="E217" s="104" t="s">
-        <v>483</v>
+        <v>675</v>
       </c>
       <c r="F217" s="131" t="s">
         <v>403</v>
@@ -11764,7 +11929,7 @@
       </c>
       <c r="P217" s="49"/>
     </row>
-    <row r="218" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="88">
         <v>206</v>
       </c>
@@ -11778,7 +11943,7 @@
         <v>366</v>
       </c>
       <c r="E218" s="104" t="s">
-        <v>484</v>
+        <v>676</v>
       </c>
       <c r="F218" s="131" t="s">
         <v>404</v>
@@ -11802,7 +11967,7 @@
       </c>
       <c r="P218" s="49"/>
     </row>
-    <row r="219" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="88">
         <v>207</v>
       </c>
@@ -11816,7 +11981,7 @@
         <v>367</v>
       </c>
       <c r="E219" s="104" t="s">
-        <v>485</v>
+        <v>677</v>
       </c>
       <c r="F219" s="131" t="s">
         <v>405</v>
@@ -11840,7 +12005,7 @@
       </c>
       <c r="P219" s="49"/>
     </row>
-    <row r="220" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="88">
         <v>208</v>
       </c>
@@ -11854,7 +12019,7 @@
         <v>368</v>
       </c>
       <c r="E220" s="104" t="s">
-        <v>499</v>
+        <v>678</v>
       </c>
       <c r="F220" s="131" t="s">
         <v>406</v>
@@ -11878,7 +12043,7 @@
       </c>
       <c r="P220" s="49"/>
     </row>
-    <row r="221" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="88">
         <v>209</v>
       </c>
@@ -11892,7 +12057,7 @@
         <v>369</v>
       </c>
       <c r="E221" s="104" t="s">
-        <v>500</v>
+        <v>679</v>
       </c>
       <c r="F221" s="131" t="s">
         <v>406</v>
@@ -11916,7 +12081,7 @@
       </c>
       <c r="P221" s="49"/>
     </row>
-    <row r="222" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="88">
         <v>210</v>
       </c>
@@ -11930,7 +12095,7 @@
         <v>370</v>
       </c>
       <c r="E222" s="104" t="s">
-        <v>501</v>
+        <v>680</v>
       </c>
       <c r="F222" s="131" t="s">
         <v>407</v>
@@ -11954,7 +12119,7 @@
       </c>
       <c r="P222" s="49"/>
     </row>
-    <row r="223" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="88">
         <v>211</v>
       </c>
@@ -11968,7 +12133,7 @@
         <v>371</v>
       </c>
       <c r="E223" s="104" t="s">
-        <v>515</v>
+        <v>681</v>
       </c>
       <c r="F223" s="131" t="s">
         <v>408</v>
@@ -11992,7 +12157,7 @@
       </c>
       <c r="P223" s="49"/>
     </row>
-    <row r="224" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="88">
         <v>212</v>
       </c>
@@ -12006,7 +12171,7 @@
         <v>372</v>
       </c>
       <c r="E224" s="104" t="s">
-        <v>516</v>
+        <v>682</v>
       </c>
       <c r="F224" s="131" t="s">
         <v>408</v>
@@ -12030,7 +12195,7 @@
       </c>
       <c r="P224" s="49"/>
     </row>
-    <row r="225" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="88">
         <v>213</v>
       </c>
@@ -12044,7 +12209,7 @@
         <v>373</v>
       </c>
       <c r="E225" s="104" t="s">
-        <v>517</v>
+        <v>683</v>
       </c>
       <c r="F225" s="131" t="s">
         <v>409</v>
@@ -12068,7 +12233,7 @@
       </c>
       <c r="P225" s="49"/>
     </row>
-    <row r="226" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="88">
         <v>214</v>
       </c>
@@ -12082,7 +12247,7 @@
         <v>374</v>
       </c>
       <c r="E226" s="104" t="s">
-        <v>374</v>
+        <v>684</v>
       </c>
       <c r="F226" s="131" t="s">
         <v>410</v>
@@ -12106,7 +12271,7 @@
       </c>
       <c r="P226" s="49"/>
     </row>
-    <row r="227" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="88">
         <v>215</v>
       </c>
@@ -12120,7 +12285,7 @@
         <v>375</v>
       </c>
       <c r="E227" s="104" t="s">
-        <v>375</v>
+        <v>685</v>
       </c>
       <c r="F227" s="131" t="s">
         <v>410</v>
@@ -12144,7 +12309,7 @@
       </c>
       <c r="P227" s="49"/>
     </row>
-    <row r="228" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="88">
         <v>216</v>
       </c>
@@ -12158,7 +12323,7 @@
         <v>376</v>
       </c>
       <c r="E228" s="104" t="s">
-        <v>376</v>
+        <v>686</v>
       </c>
       <c r="F228" s="131" t="s">
         <v>411</v>
@@ -12182,7 +12347,7 @@
       </c>
       <c r="P228" s="49"/>
     </row>
-    <row r="229" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="88">
         <v>217</v>
       </c>
@@ -12196,7 +12361,7 @@
         <v>377</v>
       </c>
       <c r="E229" s="104" t="s">
-        <v>535</v>
+        <v>687</v>
       </c>
       <c r="F229" s="131" t="s">
         <v>412</v>
@@ -12220,7 +12385,7 @@
       </c>
       <c r="P229" s="49"/>
     </row>
-    <row r="230" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="88">
         <v>218</v>
       </c>
@@ -12234,7 +12399,7 @@
         <v>378</v>
       </c>
       <c r="E230" s="104" t="s">
-        <v>536</v>
+        <v>688</v>
       </c>
       <c r="F230" s="131" t="s">
         <v>412</v>
@@ -12258,7 +12423,7 @@
       </c>
       <c r="P230" s="49"/>
     </row>
-    <row r="231" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="88">
         <v>219</v>
       </c>
@@ -12272,7 +12437,7 @@
         <v>379</v>
       </c>
       <c r="E231" s="104" t="s">
-        <v>537</v>
+        <v>689</v>
       </c>
       <c r="F231" s="131" t="s">
         <v>413</v>
@@ -12296,7 +12461,7 @@
       </c>
       <c r="P231" s="49"/>
     </row>
-    <row r="232" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="88">
         <v>220</v>
       </c>
@@ -12310,7 +12475,7 @@
         <v>380</v>
       </c>
       <c r="E232" s="104" t="s">
-        <v>551</v>
+        <v>690</v>
       </c>
       <c r="F232" s="131" t="s">
         <v>414</v>
@@ -12334,7 +12499,7 @@
       </c>
       <c r="P232" s="49"/>
     </row>
-    <row r="233" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="88">
         <v>221</v>
       </c>
@@ -12348,7 +12513,7 @@
         <v>381</v>
       </c>
       <c r="E233" s="104" t="s">
-        <v>552</v>
+        <v>691</v>
       </c>
       <c r="F233" s="131" t="s">
         <v>414</v>
@@ -12372,7 +12537,7 @@
       </c>
       <c r="P233" s="49"/>
     </row>
-    <row r="234" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="88">
         <v>222</v>
       </c>
@@ -12386,7 +12551,7 @@
         <v>382</v>
       </c>
       <c r="E234" s="104" t="s">
-        <v>553</v>
+        <v>692</v>
       </c>
       <c r="F234" s="131" t="s">
         <v>415</v>
@@ -12410,7 +12575,7 @@
       </c>
       <c r="P234" s="49"/>
     </row>
-    <row r="235" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="88">
         <v>223</v>
       </c>
@@ -12424,7 +12589,7 @@
         <v>383</v>
       </c>
       <c r="E235" s="104" t="s">
-        <v>383</v>
+        <v>693</v>
       </c>
       <c r="F235" s="131" t="s">
         <v>416</v>
@@ -12448,7 +12613,7 @@
       </c>
       <c r="P235" s="49"/>
     </row>
-    <row r="236" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="88">
         <v>224</v>
       </c>
@@ -12462,7 +12627,7 @@
         <v>384</v>
       </c>
       <c r="E236" s="104" t="s">
-        <v>384</v>
+        <v>694</v>
       </c>
       <c r="F236" s="131" t="s">
         <v>416</v>
@@ -12486,7 +12651,7 @@
       </c>
       <c r="P236" s="49"/>
     </row>
-    <row r="237" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="88">
         <v>225</v>
       </c>
@@ -12500,7 +12665,7 @@
         <v>385</v>
       </c>
       <c r="E237" s="104" t="s">
-        <v>385</v>
+        <v>695</v>
       </c>
       <c r="F237" s="131" t="s">
         <v>417</v>
@@ -12524,7 +12689,7 @@
       </c>
       <c r="P237" s="49"/>
     </row>
-    <row r="238" spans="1:16" s="13" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:16" s="13" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="90">
         <v>226</v>
       </c>
@@ -12538,7 +12703,7 @@
         <v>386</v>
       </c>
       <c r="E238" s="114" t="s">
-        <v>386</v>
+        <v>696</v>
       </c>
       <c r="F238" s="144" t="s">
         <v>418</v>

--- a/dataland-framework-toolbox/inputs/eu-taxonomy-financials/eu-taxonomy-financials.xlsx
+++ b/dataland-framework-toolbox/inputs/eu-taxonomy-financials/eu-taxonomy-financials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d93542\Dataland\dataland-framework-toolbox\inputs\eu-taxonomy-financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A18202A-8494-4A46-8479-2D4523D6F14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5128F844-C87B-4590-A7AD-F78B0FAE5EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5145" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
@@ -1445,9 +1445,6 @@
     <t>AreAllGroupEntitiesCoveredByEuTaxonomyReports</t>
   </si>
   <si>
-    <t>Alias</t>
-  </si>
-  <si>
     <t>FISCAL_YEAR_DEVIATION</t>
   </si>
   <si>
@@ -2157,6 +2154,9 @@
   </si>
   <si>
     <t>IF_OTHER_CAPEX_BASED_SC_TO_ANY_ENABLING</t>
+  </si>
+  <si>
+    <t>Alias Export</t>
   </si>
 </sst>
 </file>
@@ -3662,28 +3662,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.5703125" customWidth="1"/>
-    <col min="4" max="5" width="117.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.54296875" customWidth="1"/>
+    <col min="4" max="5" width="117.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="92" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="30.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="74" t="s">
-        <v>459</v>
+        <v>696</v>
       </c>
       <c r="F1" s="70" t="s">
         <v>4</v>
@@ -3733,7 +3733,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="83">
         <v>1</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="94" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F2" s="120" t="s">
         <v>16</v>
@@ -3769,7 +3769,7 @@
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="83">
         <v>2</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="94" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F3" s="120" t="s">
         <v>453</v>
@@ -3805,7 +3805,7 @@
       <c r="O3" s="17"/>
       <c r="P3" s="17"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="83">
         <v>3</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F4" s="120" t="s">
         <v>30</v>
@@ -3839,7 +3839,7 @@
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="83">
         <v>4</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>162</v>
       </c>
       <c r="E5" s="118" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F5" s="120" t="s">
         <v>19</v>
@@ -3877,7 +3877,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="83">
         <v>5</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="94" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F6" s="120" t="s">
         <v>50</v>
@@ -3913,7 +3913,7 @@
       <c r="O6" s="17"/>
       <c r="P6" s="17"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="83">
         <v>6</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>163</v>
       </c>
       <c r="E7" s="94" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F7" s="120" t="s">
         <v>22</v>
@@ -3947,7 +3947,7 @@
       <c r="O7" s="17"/>
       <c r="P7" s="17"/>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="84">
         <v>7</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="119" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F8" s="121" t="s">
         <v>51</v>
@@ -3981,7 +3981,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="55">
         <v>8</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>160</v>
       </c>
       <c r="E9" s="95" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F9" s="122" t="s">
         <v>164</v>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="P9" s="25"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="55">
         <v>9</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>94</v>
       </c>
       <c r="E10" s="96" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F10" s="123" t="s">
         <v>99</v>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="55">
         <v>9.1</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>95</v>
       </c>
       <c r="E11" s="97" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F11" s="123" t="s">
         <v>100</v>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="P11" s="17"/>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="54" t="s">
         <v>105</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>96</v>
       </c>
       <c r="E12" s="95" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F12" s="123" t="s">
         <v>101</v>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="P12" s="25"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="54" t="s">
         <v>106</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>97</v>
       </c>
       <c r="E13" s="96" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F13" s="123" t="s">
         <v>102</v>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="P13" s="17"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="85" t="s">
         <v>107</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>98</v>
       </c>
       <c r="E14" s="98" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F14" s="124" t="s">
         <v>103</v>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="P14" s="24"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="54">
         <v>10</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>46</v>
       </c>
       <c r="E15" s="94" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F15" s="125" t="s">
         <v>52</v>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="P15" s="17"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="54">
         <v>10.1</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>35</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F16" s="120" t="s">
         <v>53</v>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="P16" s="17"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="54" t="s">
         <v>108</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>66</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F17" s="120" t="s">
         <v>72</v>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="P17" s="17"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="54" t="s">
         <v>109</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>149</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F18" s="120" t="s">
         <v>54</v>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="P18" s="17"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="54" t="s">
         <v>110</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>156</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F19" s="120" t="s">
         <v>55</v>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="P19" s="17"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="54">
         <v>11</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>36</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F20" s="120" t="s">
         <v>60</v>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="P20" s="17"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="54">
         <v>11.1</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>37</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F21" s="120" t="s">
         <v>61</v>
@@ -4487,7 +4487,7 @@
       </c>
       <c r="P21" s="17"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="54" t="s">
         <v>111</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>67</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F22" s="120" t="s">
         <v>73</v>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="P22" s="17"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="54" t="s">
         <v>112</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>150</v>
       </c>
       <c r="E23" s="99" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F23" s="126" t="s">
         <v>62</v>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="P23" s="17"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="54" t="s">
         <v>175</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>177</v>
       </c>
       <c r="E24" s="99" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F24" s="126" t="s">
         <v>176</v>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="P24" s="17"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="54">
         <v>12</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>38</v>
       </c>
       <c r="E25" s="99" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F25" s="126" t="s">
         <v>165</v>
@@ -4639,7 +4639,7 @@
       </c>
       <c r="P25" s="17"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="54">
         <v>12.1</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>39</v>
       </c>
       <c r="E26" s="99" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F26" s="126" t="s">
         <v>166</v>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="P26" s="17"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="54" t="s">
         <v>113</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>68</v>
       </c>
       <c r="E27" s="99" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F27" s="126" t="s">
         <v>167</v>
@@ -4715,7 +4715,7 @@
       </c>
       <c r="P27" s="17"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="54" t="s">
         <v>114</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>151</v>
       </c>
       <c r="E28" s="99" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F28" s="126" t="s">
         <v>168</v>
@@ -4753,7 +4753,7 @@
       </c>
       <c r="P28" s="17"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="54">
         <v>13</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>40</v>
       </c>
       <c r="E29" s="99" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F29" s="126" t="s">
         <v>74</v>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="P29" s="17"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="54">
         <v>13.1</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>41</v>
       </c>
       <c r="E30" s="99" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F30" s="126" t="s">
         <v>75</v>
@@ -4829,7 +4829,7 @@
       </c>
       <c r="P30" s="17"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="54" t="s">
         <v>115</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>69</v>
       </c>
       <c r="E31" s="99" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F31" s="126" t="s">
         <v>76</v>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="P31" s="17"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="54" t="s">
         <v>116</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>152</v>
       </c>
       <c r="E32" s="99" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F32" s="126" t="s">
         <v>77</v>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="P32" s="17"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="54">
         <v>14</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>42</v>
       </c>
       <c r="E33" s="99" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F33" s="126" t="s">
         <v>81</v>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="P33" s="17"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="54">
         <v>14.1</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>43</v>
       </c>
       <c r="E34" s="99" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F34" s="126" t="s">
         <v>82</v>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="P34" s="17"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="54" t="s">
         <v>117</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>70</v>
       </c>
       <c r="E35" s="99" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F35" s="126" t="s">
         <v>83</v>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="P35" s="17"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="54" t="s">
         <v>118</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>153</v>
       </c>
       <c r="E36" s="99" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F36" s="126" t="s">
         <v>84</v>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="P36" s="17"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="54">
         <v>15</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>44</v>
       </c>
       <c r="E37" s="99" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F37" s="126" t="s">
         <v>88</v>
@@ -5095,7 +5095,7 @@
       </c>
       <c r="P37" s="17"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="54">
         <v>15.1</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>45</v>
       </c>
       <c r="E38" s="99" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F38" s="126" t="s">
         <v>89</v>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="P38" s="17"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="26" t="s">
         <v>119</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>71</v>
       </c>
       <c r="E39" s="100" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F39" s="127" t="s">
         <v>90</v>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="P39" s="28"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="54" t="s">
         <v>120</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>154</v>
       </c>
       <c r="E40" s="101" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F40" s="128" t="s">
         <v>91</v>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="P40" s="29"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="54">
         <v>16</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>123</v>
       </c>
       <c r="E41" s="99" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F41" s="126" t="s">
         <v>169</v>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="P41" s="17"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="54">
         <v>16.100000000000001</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>124</v>
       </c>
       <c r="E42" s="99" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F42" s="126" t="s">
         <v>126</v>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="P42" s="17"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="26" t="s">
         <v>121</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>125</v>
       </c>
       <c r="E43" s="56" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F43" s="127" t="s">
         <v>127</v>
@@ -5323,7 +5323,7 @@
       </c>
       <c r="P43" s="28"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="26" t="s">
         <v>122</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>155</v>
       </c>
       <c r="E44" s="101" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F44" s="128" t="s">
         <v>147</v>
@@ -5361,7 +5361,7 @@
       </c>
       <c r="P44" s="29"/>
     </row>
-    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="86" t="s">
         <v>159</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>157</v>
       </c>
       <c r="E45" s="102" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F45" s="129" t="s">
         <v>128</v>
@@ -5399,7 +5399,7 @@
       </c>
       <c r="P45" s="33"/>
     </row>
-    <row r="46" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A46" s="54">
         <v>20</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>46</v>
       </c>
       <c r="E46" s="94" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F46" s="126" t="s">
         <v>56</v>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="P46" s="17"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="54">
         <v>20.100000000000001</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>35</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F47" s="126" t="s">
         <v>57</v>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="P47" s="17"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="54" t="s">
         <v>129</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>66</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F48" s="126" t="s">
         <v>72</v>
@@ -5513,7 +5513,7 @@
       </c>
       <c r="P48" s="17"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="54" t="s">
         <v>130</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>149</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F49" s="126" t="s">
         <v>58</v>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="P49" s="17"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="54" t="s">
         <v>131</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>156</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F50" s="126" t="s">
         <v>59</v>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="P50" s="17"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="54">
         <v>21</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>36</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F51" s="126" t="s">
         <v>63</v>
@@ -5627,7 +5627,7 @@
       </c>
       <c r="P51" s="17"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="54">
         <v>21.1</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>37</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F52" s="126" t="s">
         <v>64</v>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="P52" s="17"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="54" t="s">
         <v>132</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>67</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F53" s="126" t="s">
         <v>73</v>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="P53" s="17"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="54" t="s">
         <v>133</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>150</v>
       </c>
       <c r="E54" s="99" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F54" s="126" t="s">
         <v>65</v>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="P54" s="17"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="54" t="s">
         <v>178</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>177</v>
       </c>
       <c r="E55" s="99" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F55" s="126" t="s">
         <v>179</v>
@@ -5779,7 +5779,7 @@
       </c>
       <c r="P55" s="17"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="54">
         <v>22</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>38</v>
       </c>
       <c r="E56" s="99" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F56" s="126" t="s">
         <v>170</v>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="P56" s="17"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="54">
         <v>22.1</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>39</v>
       </c>
       <c r="E57" s="99" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F57" s="126" t="s">
         <v>171</v>
@@ -5855,7 +5855,7 @@
       </c>
       <c r="P57" s="17"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="54" t="s">
         <v>134</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>68</v>
       </c>
       <c r="E58" s="99" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F58" s="120" t="s">
         <v>167</v>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="P58" s="17"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="54" t="s">
         <v>135</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>151</v>
       </c>
       <c r="E59" s="99" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F59" s="120" t="s">
         <v>172</v>
@@ -5931,7 +5931,7 @@
       </c>
       <c r="P59" s="17"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" s="54">
         <v>23</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>40</v>
       </c>
       <c r="E60" s="99" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F60" s="120" t="s">
         <v>78</v>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="P60" s="17"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" s="54">
         <v>23.1</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>41</v>
       </c>
       <c r="E61" s="99" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F61" s="120" t="s">
         <v>79</v>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="P61" s="17"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" s="54" t="s">
         <v>136</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>69</v>
       </c>
       <c r="E62" s="99" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F62" s="120" t="s">
         <v>76</v>
@@ -6045,7 +6045,7 @@
       </c>
       <c r="P62" s="17"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" s="54" t="s">
         <v>137</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>152</v>
       </c>
       <c r="E63" s="99" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F63" s="120" t="s">
         <v>80</v>
@@ -6083,7 +6083,7 @@
       </c>
       <c r="P63" s="17"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="54">
         <v>24</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>42</v>
       </c>
       <c r="E64" s="99" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F64" s="120" t="s">
         <v>85</v>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="P64" s="17"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="54">
         <v>24.1</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>43</v>
       </c>
       <c r="E65" s="99" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F65" s="120" t="s">
         <v>86</v>
@@ -6159,7 +6159,7 @@
       </c>
       <c r="P65" s="17"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="54" t="s">
         <v>138</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>70</v>
       </c>
       <c r="E66" s="99" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F66" s="120" t="s">
         <v>83</v>
@@ -6197,7 +6197,7 @@
       </c>
       <c r="P66" s="17"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="54" t="s">
         <v>139</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>153</v>
       </c>
       <c r="E67" s="99" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F67" s="120" t="s">
         <v>87</v>
@@ -6235,7 +6235,7 @@
       </c>
       <c r="P67" s="17"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="54">
         <v>25</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>44</v>
       </c>
       <c r="E68" s="99" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F68" s="120" t="s">
         <v>92</v>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="P68" s="17"/>
     </row>
-    <row r="69" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="54">
         <v>25.1</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>45</v>
       </c>
       <c r="E69" s="99" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F69" s="120" t="s">
         <v>93</v>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="P69" s="17"/>
     </row>
-    <row r="70" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="26" t="s">
         <v>140</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>71</v>
       </c>
       <c r="E70" s="100" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F70" s="120" t="s">
         <v>90</v>
@@ -6349,7 +6349,7 @@
       </c>
       <c r="P70" s="17"/>
     </row>
-    <row r="71" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="54" t="s">
         <v>141</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>154</v>
       </c>
       <c r="E71" s="101" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F71" s="120" t="s">
         <v>173</v>
@@ -6387,7 +6387,7 @@
       </c>
       <c r="P71" s="17"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="54">
         <v>26</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>123</v>
       </c>
       <c r="E72" s="99" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F72" s="126" t="s">
         <v>174</v>
@@ -6425,7 +6425,7 @@
       </c>
       <c r="P72" s="17"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="54">
         <v>26.1</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>124</v>
       </c>
       <c r="E73" s="99" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F73" s="126" t="s">
         <v>145</v>
@@ -6463,7 +6463,7 @@
       </c>
       <c r="P73" s="17"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="26" t="s">
         <v>142</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>125</v>
       </c>
       <c r="E74" s="56" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F74" s="127" t="s">
         <v>127</v>
@@ -6501,7 +6501,7 @@
       </c>
       <c r="P74" s="17"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" s="54" t="s">
         <v>143</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>155</v>
       </c>
       <c r="E75" s="101" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F75" s="128" t="s">
         <v>148</v>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="P75" s="17"/>
     </row>
-    <row r="76" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="85" t="s">
         <v>144</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>157</v>
       </c>
       <c r="E76" s="103" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F76" s="130" t="s">
         <v>146</v>
@@ -6577,7 +6577,7 @@
       </c>
       <c r="P76" s="24"/>
     </row>
-    <row r="77" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="39">
         <v>65</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>185</v>
       </c>
       <c r="E77" s="104" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F77" s="53" t="s">
         <v>184</v>
@@ -6613,7 +6613,7 @@
       <c r="O77" s="17"/>
       <c r="P77" s="17"/>
     </row>
-    <row r="78" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="39">
         <v>66</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>186</v>
       </c>
       <c r="E78" s="104" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F78" s="53" t="s">
         <v>183</v>
@@ -6649,7 +6649,7 @@
       <c r="O78" s="17"/>
       <c r="P78" s="17"/>
     </row>
-    <row r="79" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="39">
         <v>67</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>187</v>
       </c>
       <c r="E79" s="104" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F79" s="53" t="s">
         <v>182</v>
@@ -6687,7 +6687,7 @@
       <c r="O79" s="17"/>
       <c r="P79" s="17"/>
     </row>
-    <row r="80" spans="1:16" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="87">
         <v>68</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>188</v>
       </c>
       <c r="E80" s="105" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F80" s="65" t="s">
         <v>181</v>
@@ -6725,7 +6725,7 @@
       <c r="O80" s="66"/>
       <c r="P80" s="66"/>
     </row>
-    <row r="81" spans="1:16" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A81" s="39">
         <v>69</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>419</v>
       </c>
       <c r="E81" s="104" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F81" s="53" t="s">
         <v>191</v>
@@ -6763,7 +6763,7 @@
       </c>
       <c r="P81" s="17"/>
     </row>
-    <row r="82" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="39">
         <v>70</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>420</v>
       </c>
       <c r="E82" s="104" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F82" s="53" t="s">
         <v>192</v>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="P82" s="17"/>
     </row>
-    <row r="83" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="39">
         <v>71</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>421</v>
       </c>
       <c r="E83" s="104" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F83" s="53" t="s">
         <v>193</v>
@@ -6839,7 +6839,7 @@
       </c>
       <c r="P83" s="17"/>
     </row>
-    <row r="84" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="39">
         <v>72</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>422</v>
       </c>
       <c r="E84" s="104" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F84" s="53" t="s">
         <v>445</v>
@@ -6877,7 +6877,7 @@
       </c>
       <c r="P84" s="17"/>
     </row>
-    <row r="85" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="39">
         <v>73</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>423</v>
       </c>
       <c r="E85" s="104" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F85" s="53" t="s">
         <v>446</v>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="P85" s="17"/>
     </row>
-    <row r="86" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="39">
         <v>74</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>424</v>
       </c>
       <c r="E86" s="104" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F86" s="131" t="s">
         <v>194</v>
@@ -6953,7 +6953,7 @@
       </c>
       <c r="P86" s="17"/>
     </row>
-    <row r="87" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="39">
         <v>75</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>425</v>
       </c>
       <c r="E87" s="104" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F87" s="131" t="s">
         <v>195</v>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="P87" s="17"/>
     </row>
-    <row r="88" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="39">
         <v>76</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>426</v>
       </c>
       <c r="E88" s="104" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F88" s="131" t="s">
         <v>196</v>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="P88" s="17"/>
     </row>
-    <row r="89" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="39">
         <v>77</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>427</v>
       </c>
       <c r="E89" s="104" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F89" s="131" t="s">
         <v>197</v>
@@ -7067,7 +7067,7 @@
       </c>
       <c r="P89" s="17"/>
     </row>
-    <row r="90" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="39">
         <v>78</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>428</v>
       </c>
       <c r="E90" s="104" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F90" s="131" t="s">
         <v>198</v>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="P90" s="17"/>
     </row>
-    <row r="91" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="39">
         <v>79</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>429</v>
       </c>
       <c r="E91" s="104" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F91" s="131" t="s">
         <v>199</v>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="P91" s="17"/>
     </row>
-    <row r="92" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="39">
         <v>80</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>430</v>
       </c>
       <c r="E92" s="106" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F92" s="132" t="s">
         <v>200</v>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="P92" s="28"/>
     </row>
-    <row r="93" spans="1:16" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="35">
         <v>81</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>431</v>
       </c>
       <c r="E93" s="107" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F93" s="133" t="s">
         <v>201</v>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="P93" s="38"/>
     </row>
-    <row r="94" spans="1:16" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A94" s="39">
         <v>82</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>432</v>
       </c>
       <c r="E94" s="104" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F94" s="53" t="s">
         <v>241</v>
@@ -7257,7 +7257,7 @@
       </c>
       <c r="P94" s="40"/>
     </row>
-    <row r="95" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="39">
         <v>83</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>433</v>
       </c>
       <c r="E95" s="104" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F95" s="53" t="s">
         <v>202</v>
@@ -7295,7 +7295,7 @@
       </c>
       <c r="P95" s="41"/>
     </row>
-    <row r="96" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="39">
         <v>84</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>434</v>
       </c>
       <c r="E96" s="104" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F96" s="53" t="s">
         <v>203</v>
@@ -7333,7 +7333,7 @@
       </c>
       <c r="P96" s="41"/>
     </row>
-    <row r="97" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="39">
         <v>85</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>435</v>
       </c>
       <c r="E97" s="104" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F97" s="53" t="s">
         <v>447</v>
@@ -7371,7 +7371,7 @@
       </c>
       <c r="P97" s="41"/>
     </row>
-    <row r="98" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="39">
         <v>86</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>436</v>
       </c>
       <c r="E98" s="104" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F98" s="53" t="s">
         <v>448</v>
@@ -7409,7 +7409,7 @@
       </c>
       <c r="P98" s="41"/>
     </row>
-    <row r="99" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="39">
         <v>87</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>437</v>
       </c>
       <c r="E99" s="104" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F99" s="131" t="s">
         <v>204</v>
@@ -7447,7 +7447,7 @@
       </c>
       <c r="P99" s="41"/>
     </row>
-    <row r="100" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="39">
         <v>88</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>438</v>
       </c>
       <c r="E100" s="104" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F100" s="131" t="s">
         <v>205</v>
@@ -7485,7 +7485,7 @@
       </c>
       <c r="P100" s="41"/>
     </row>
-    <row r="101" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="39">
         <v>89</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>439</v>
       </c>
       <c r="E101" s="104" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F101" s="131" t="s">
         <v>206</v>
@@ -7523,7 +7523,7 @@
       </c>
       <c r="P101" s="41"/>
     </row>
-    <row r="102" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="39">
         <v>90</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>440</v>
       </c>
       <c r="E102" s="104" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F102" s="131" t="s">
         <v>207</v>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="P102" s="41"/>
     </row>
-    <row r="103" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="39">
         <v>91</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>441</v>
       </c>
       <c r="E103" s="104" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F103" s="131" t="s">
         <v>208</v>
@@ -7599,7 +7599,7 @@
       </c>
       <c r="P103" s="41"/>
     </row>
-    <row r="104" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="39">
         <v>92</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>442</v>
       </c>
       <c r="E104" s="104" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F104" s="131" t="s">
         <v>209</v>
@@ -7637,7 +7637,7 @@
       </c>
       <c r="P104" s="41"/>
     </row>
-    <row r="105" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="39">
         <v>93</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>443</v>
       </c>
       <c r="E105" s="106" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F105" s="132" t="s">
         <v>210</v>
@@ -7675,7 +7675,7 @@
       </c>
       <c r="P105" s="41"/>
     </row>
-    <row r="106" spans="1:16" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="42">
         <v>94</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>444</v>
       </c>
       <c r="E106" s="108" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F106" s="134" t="s">
         <v>211</v>
@@ -7713,7 +7713,7 @@
       </c>
       <c r="P106" s="43"/>
     </row>
-    <row r="107" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="58">
         <v>95</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>213</v>
       </c>
       <c r="E107" s="109" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F107" s="135" t="s">
         <v>214</v>
@@ -7751,7 +7751,7 @@
       <c r="O107" s="60"/>
       <c r="P107" s="60"/>
     </row>
-    <row r="108" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="57">
         <v>96</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>215</v>
       </c>
       <c r="E108" s="110" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F108" s="136" t="s">
         <v>216</v>
@@ -7789,7 +7789,7 @@
       <c r="O108" s="45"/>
       <c r="P108" s="45"/>
     </row>
-    <row r="109" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="57">
         <v>97</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>217</v>
       </c>
       <c r="E109" s="110" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F109" s="137" t="s">
         <v>218</v>
@@ -7827,7 +7827,7 @@
       <c r="O109" s="45"/>
       <c r="P109" s="45"/>
     </row>
-    <row r="110" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="57">
         <v>98</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>219</v>
       </c>
       <c r="E110" s="110" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F110" s="137" t="s">
         <v>222</v>
@@ -7863,7 +7863,7 @@
       <c r="O110" s="45"/>
       <c r="P110" s="45"/>
     </row>
-    <row r="111" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="57">
         <v>99</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>220</v>
       </c>
       <c r="E111" s="110" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F111" s="136" t="s">
         <v>223</v>
@@ -7899,7 +7899,7 @@
       <c r="O111" s="45"/>
       <c r="P111" s="45"/>
     </row>
-    <row r="112" spans="1:16" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="35">
         <v>100</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>221</v>
       </c>
       <c r="E112" s="111" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F112" s="138" t="s">
         <v>224</v>
@@ -7935,7 +7935,7 @@
       <c r="O112" s="62"/>
       <c r="P112" s="62"/>
     </row>
-    <row r="113" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A113" s="57">
         <v>101</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>185</v>
       </c>
       <c r="E113" s="104" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F113" s="53" t="s">
         <v>225</v>
@@ -7971,7 +7971,7 @@
       <c r="O113" s="17"/>
       <c r="P113" s="17"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114" s="57">
         <v>102</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>186</v>
       </c>
       <c r="E114" s="104" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F114" s="53" t="s">
         <v>226</v>
@@ -8007,7 +8007,7 @@
       <c r="O114" s="17"/>
       <c r="P114" s="17"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115" s="57">
         <v>103</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>187</v>
       </c>
       <c r="E115" s="104" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F115" s="53" t="s">
         <v>227</v>
@@ -8045,7 +8045,7 @@
       <c r="O115" s="17"/>
       <c r="P115" s="17"/>
     </row>
-    <row r="116" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="35">
         <v>104</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>188</v>
       </c>
       <c r="E116" s="105" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F116" s="65" t="s">
         <v>228</v>
@@ -8083,7 +8083,7 @@
       <c r="O116" s="66"/>
       <c r="P116" s="66"/>
     </row>
-    <row r="117" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A117" s="44">
         <v>105</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>419</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F117" s="139" t="s">
         <v>229</v>
@@ -8121,7 +8121,7 @@
       </c>
       <c r="P117" s="45"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118" s="44">
         <v>106</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>420</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F118" s="140" t="s">
         <v>230</v>
@@ -8159,7 +8159,7 @@
       </c>
       <c r="P118" s="46"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119" s="44">
         <v>107</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>421</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F119" s="140" t="s">
         <v>231</v>
@@ -8197,7 +8197,7 @@
       </c>
       <c r="P119" s="46"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120" s="44">
         <v>108</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>422</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F120" s="140" t="s">
         <v>449</v>
@@ -8235,7 +8235,7 @@
       </c>
       <c r="P120" s="46"/>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A121" s="44">
         <v>109</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>423</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F121" s="140" t="s">
         <v>450</v>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="P121" s="46"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A122" s="44">
         <v>110</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>424</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F122" s="140" t="s">
         <v>232</v>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="P122" s="46"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123" s="44">
         <v>111</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>425</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F123" s="140" t="s">
         <v>233</v>
@@ -8349,7 +8349,7 @@
       </c>
       <c r="P123" s="46"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124" s="44">
         <v>112</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>426</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F124" s="140" t="s">
         <v>234</v>
@@ -8387,7 +8387,7 @@
       </c>
       <c r="P124" s="46"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125" s="44">
         <v>113</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>427</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F125" s="140" t="s">
         <v>235</v>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="P125" s="46"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A126" s="44">
         <v>114</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>428</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F126" s="140" t="s">
         <v>236</v>
@@ -8463,7 +8463,7 @@
       </c>
       <c r="P126" s="46"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127" s="44">
         <v>115</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>429</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F127" s="140" t="s">
         <v>237</v>
@@ -8501,7 +8501,7 @@
       </c>
       <c r="P127" s="46"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128" s="44">
         <v>116</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>430</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F128" s="140" t="s">
         <v>238</v>
@@ -8539,7 +8539,7 @@
       </c>
       <c r="P128" s="46"/>
     </row>
-    <row r="129" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="35">
         <v>117</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>431</v>
       </c>
       <c r="E129" s="112" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F129" s="141" t="s">
         <v>239</v>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="P129" s="47"/>
     </row>
-    <row r="130" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A130" s="44">
         <v>118</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>432</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F130" s="139" t="s">
         <v>240</v>
@@ -8615,7 +8615,7 @@
       </c>
       <c r="P130" s="45"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131" s="44">
         <v>119</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>433</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F131" s="140" t="s">
         <v>242</v>
@@ -8653,7 +8653,7 @@
       </c>
       <c r="P131" s="46"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132" s="44">
         <v>120</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>434</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F132" s="140" t="s">
         <v>243</v>
@@ -8691,7 +8691,7 @@
       </c>
       <c r="P132" s="46"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A133" s="44">
         <v>121</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>435</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F133" s="140" t="s">
         <v>451</v>
@@ -8729,7 +8729,7 @@
       </c>
       <c r="P133" s="46"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A134" s="44">
         <v>122</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>436</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F134" s="140" t="s">
         <v>452</v>
@@ -8767,7 +8767,7 @@
       </c>
       <c r="P134" s="46"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A135" s="44">
         <v>123</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>437</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F135" s="140" t="s">
         <v>244</v>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="P135" s="46"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A136" s="44">
         <v>124</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>438</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F136" s="140" t="s">
         <v>245</v>
@@ -8843,7 +8843,7 @@
       </c>
       <c r="P136" s="46"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A137" s="44">
         <v>125</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>439</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F137" s="140" t="s">
         <v>246</v>
@@ -8881,7 +8881,7 @@
       </c>
       <c r="P137" s="46"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A138" s="44">
         <v>126</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>440</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F138" s="140" t="s">
         <v>247</v>
@@ -8919,7 +8919,7 @@
       </c>
       <c r="P138" s="46"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A139" s="44">
         <v>127</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>441</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F139" s="140" t="s">
         <v>248</v>
@@ -8957,7 +8957,7 @@
       </c>
       <c r="P139" s="46"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A140" s="44">
         <v>128</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>442</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F140" s="140" t="s">
         <v>249</v>
@@ -8995,7 +8995,7 @@
       </c>
       <c r="P140" s="46"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A141" s="44">
         <v>129</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>443</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F141" s="140" t="s">
         <v>250</v>
@@ -9033,7 +9033,7 @@
       </c>
       <c r="P141" s="46"/>
     </row>
-    <row r="142" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="42">
         <v>130</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>444</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F142" s="142" t="s">
         <v>251</v>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="P142" s="48"/>
     </row>
-    <row r="143" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="88">
         <v>131</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>336</v>
       </c>
       <c r="E143" s="104" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F143" s="131" t="s">
         <v>253</v>
@@ -9111,7 +9111,7 @@
       </c>
       <c r="P143" s="49"/>
     </row>
-    <row r="144" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="88">
         <v>132</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>254</v>
       </c>
       <c r="E144" s="104" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F144" s="131" t="s">
         <v>277</v>
@@ -9149,7 +9149,7 @@
       </c>
       <c r="P144" s="49"/>
     </row>
-    <row r="145" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="88">
         <v>133</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>255</v>
       </c>
       <c r="E145" s="104" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F145" s="131" t="s">
         <v>277</v>
@@ -9187,7 +9187,7 @@
       </c>
       <c r="P145" s="49"/>
     </row>
-    <row r="146" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="88">
         <v>134</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>256</v>
       </c>
       <c r="E146" s="104" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F146" s="131" t="s">
         <v>278</v>
@@ -9225,7 +9225,7 @@
       </c>
       <c r="P146" s="49"/>
     </row>
-    <row r="147" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="88">
         <v>135</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>257</v>
       </c>
       <c r="E147" s="104" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F147" s="131" t="s">
         <v>279</v>
@@ -9263,7 +9263,7 @@
       </c>
       <c r="P147" s="49"/>
     </row>
-    <row r="148" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="88">
         <v>136</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>258</v>
       </c>
       <c r="E148" s="104" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F148" s="131" t="s">
         <v>280</v>
@@ -9301,7 +9301,7 @@
       </c>
       <c r="P148" s="49"/>
     </row>
-    <row r="149" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="88">
         <v>137</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>259</v>
       </c>
       <c r="E149" s="104" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F149" s="131" t="s">
         <v>280</v>
@@ -9339,7 +9339,7 @@
       </c>
       <c r="P149" s="49"/>
     </row>
-    <row r="150" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="88">
         <v>138</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>260</v>
       </c>
       <c r="E150" s="104" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F150" s="131" t="s">
         <v>281</v>
@@ -9377,7 +9377,7 @@
       </c>
       <c r="P150" s="49"/>
     </row>
-    <row r="151" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="88">
         <v>139</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>261</v>
       </c>
       <c r="E151" s="104" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F151" s="131" t="s">
         <v>282</v>
@@ -9415,7 +9415,7 @@
       </c>
       <c r="P151" s="49"/>
     </row>
-    <row r="152" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="88">
         <v>140</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>262</v>
       </c>
       <c r="E152" s="104" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F152" s="131" t="s">
         <v>282</v>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="P152" s="49"/>
     </row>
-    <row r="153" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="88">
         <v>141</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>263</v>
       </c>
       <c r="E153" s="104" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F153" s="131" t="s">
         <v>283</v>
@@ -9491,7 +9491,7 @@
       </c>
       <c r="P153" s="49"/>
     </row>
-    <row r="154" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="88">
         <v>142</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>264</v>
       </c>
       <c r="E154" s="104" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F154" s="131" t="s">
         <v>284</v>
@@ -9529,7 +9529,7 @@
       </c>
       <c r="P154" s="49"/>
     </row>
-    <row r="155" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="88">
         <v>143</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>265</v>
       </c>
       <c r="E155" s="104" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F155" s="131" t="s">
         <v>284</v>
@@ -9567,7 +9567,7 @@
       </c>
       <c r="P155" s="49"/>
     </row>
-    <row r="156" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="88">
         <v>144</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>266</v>
       </c>
       <c r="E156" s="104" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F156" s="131" t="s">
         <v>285</v>
@@ -9605,7 +9605,7 @@
       </c>
       <c r="P156" s="49"/>
     </row>
-    <row r="157" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="88">
         <v>145</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>267</v>
       </c>
       <c r="E157" s="104" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F157" s="131" t="s">
         <v>286</v>
@@ -9643,7 +9643,7 @@
       </c>
       <c r="P157" s="49"/>
     </row>
-    <row r="158" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="88">
         <v>146</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>268</v>
       </c>
       <c r="E158" s="104" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F158" s="131" t="s">
         <v>286</v>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="P158" s="49"/>
     </row>
-    <row r="159" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="88">
         <v>147</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>269</v>
       </c>
       <c r="E159" s="104" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F159" s="131" t="s">
         <v>287</v>
@@ -9719,7 +9719,7 @@
       </c>
       <c r="P159" s="49"/>
     </row>
-    <row r="160" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="88">
         <v>148</v>
       </c>
@@ -9733,7 +9733,7 @@
         <v>270</v>
       </c>
       <c r="E160" s="104" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F160" s="131" t="s">
         <v>288</v>
@@ -9757,7 +9757,7 @@
       </c>
       <c r="P160" s="49"/>
     </row>
-    <row r="161" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="88">
         <v>149</v>
       </c>
@@ -9771,7 +9771,7 @@
         <v>271</v>
       </c>
       <c r="E161" s="104" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F161" s="131" t="s">
         <v>288</v>
@@ -9795,7 +9795,7 @@
       </c>
       <c r="P161" s="49"/>
     </row>
-    <row r="162" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="88">
         <v>150</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>272</v>
       </c>
       <c r="E162" s="104" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F162" s="131" t="s">
         <v>289</v>
@@ -9833,7 +9833,7 @@
       </c>
       <c r="P162" s="49"/>
     </row>
-    <row r="163" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="88">
         <v>151</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>273</v>
       </c>
       <c r="E163" s="104" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F163" s="131" t="s">
         <v>290</v>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="P163" s="49"/>
     </row>
-    <row r="164" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="88">
         <v>152</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>274</v>
       </c>
       <c r="E164" s="104" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F164" s="131" t="s">
         <v>290</v>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="P164" s="49"/>
     </row>
-    <row r="165" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="88">
         <v>153</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>275</v>
       </c>
       <c r="E165" s="104" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F165" s="131" t="s">
         <v>291</v>
@@ -9947,7 +9947,7 @@
       </c>
       <c r="P165" s="49"/>
     </row>
-    <row r="166" spans="1:16" s="64" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" s="64" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="89">
         <v>154</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>276</v>
       </c>
       <c r="E166" s="113" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F166" s="143" t="s">
         <v>292</v>
@@ -9985,7 +9985,7 @@
       </c>
       <c r="P166" s="51"/>
     </row>
-    <row r="167" spans="1:16" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A167" s="88">
         <v>155</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>337</v>
       </c>
       <c r="E167" s="104" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F167" s="131" t="s">
         <v>253</v>
@@ -10025,7 +10025,7 @@
       </c>
       <c r="P167" s="49"/>
     </row>
-    <row r="168" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="88">
         <v>156</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>294</v>
       </c>
       <c r="E168" s="104" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F168" s="131" t="s">
         <v>295</v>
@@ -10063,7 +10063,7 @@
       </c>
       <c r="P168" s="49"/>
     </row>
-    <row r="169" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="88">
         <v>157</v>
       </c>
@@ -10077,7 +10077,7 @@
         <v>296</v>
       </c>
       <c r="E169" s="104" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F169" s="131" t="s">
         <v>295</v>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="P169" s="49"/>
     </row>
-    <row r="170" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="88">
         <v>158</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>297</v>
       </c>
       <c r="E170" s="104" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F170" s="131" t="s">
         <v>298</v>
@@ -10139,7 +10139,7 @@
       </c>
       <c r="P170" s="49"/>
     </row>
-    <row r="171" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="88">
         <v>159</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>299</v>
       </c>
       <c r="E171" s="104" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F171" s="131" t="s">
         <v>300</v>
@@ -10177,7 +10177,7 @@
       </c>
       <c r="P171" s="49"/>
     </row>
-    <row r="172" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="88">
         <v>160</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>301</v>
       </c>
       <c r="E172" s="104" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F172" s="131" t="s">
         <v>302</v>
@@ -10215,7 +10215,7 @@
       </c>
       <c r="P172" s="49"/>
     </row>
-    <row r="173" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="88">
         <v>161</v>
       </c>
@@ -10229,7 +10229,7 @@
         <v>303</v>
       </c>
       <c r="E173" s="104" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F173" s="131" t="s">
         <v>302</v>
@@ -10253,7 +10253,7 @@
       </c>
       <c r="P173" s="49"/>
     </row>
-    <row r="174" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="88">
         <v>162</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>304</v>
       </c>
       <c r="E174" s="104" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F174" s="131" t="s">
         <v>305</v>
@@ -10291,7 +10291,7 @@
       </c>
       <c r="P174" s="49"/>
     </row>
-    <row r="175" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="88">
         <v>163</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>306</v>
       </c>
       <c r="E175" s="104" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F175" s="131" t="s">
         <v>307</v>
@@ -10329,7 +10329,7 @@
       </c>
       <c r="P175" s="49"/>
     </row>
-    <row r="176" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="88">
         <v>164</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>308</v>
       </c>
       <c r="E176" s="104" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F176" s="131" t="s">
         <v>307</v>
@@ -10367,7 +10367,7 @@
       </c>
       <c r="P176" s="49"/>
     </row>
-    <row r="177" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="88">
         <v>165</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>309</v>
       </c>
       <c r="E177" s="104" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F177" s="131" t="s">
         <v>310</v>
@@ -10405,7 +10405,7 @@
       </c>
       <c r="P177" s="49"/>
     </row>
-    <row r="178" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="88">
         <v>166</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>311</v>
       </c>
       <c r="E178" s="104" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F178" s="131" t="s">
         <v>312</v>
@@ -10443,7 +10443,7 @@
       </c>
       <c r="P178" s="49"/>
     </row>
-    <row r="179" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="88">
         <v>167</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>313</v>
       </c>
       <c r="E179" s="104" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F179" s="131" t="s">
         <v>312</v>
@@ -10481,7 +10481,7 @@
       </c>
       <c r="P179" s="49"/>
     </row>
-    <row r="180" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="88">
         <v>168</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>314</v>
       </c>
       <c r="E180" s="104" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F180" s="131" t="s">
         <v>315</v>
@@ -10519,7 +10519,7 @@
       </c>
       <c r="P180" s="49"/>
     </row>
-    <row r="181" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="88">
         <v>169</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>316</v>
       </c>
       <c r="E181" s="104" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F181" s="131" t="s">
         <v>317</v>
@@ -10557,7 +10557,7 @@
       </c>
       <c r="P181" s="49"/>
     </row>
-    <row r="182" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="88">
         <v>170</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>318</v>
       </c>
       <c r="E182" s="104" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F182" s="131" t="s">
         <v>317</v>
@@ -10595,7 +10595,7 @@
       </c>
       <c r="P182" s="49"/>
     </row>
-    <row r="183" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="88">
         <v>171</v>
       </c>
@@ -10609,7 +10609,7 @@
         <v>319</v>
       </c>
       <c r="E183" s="104" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F183" s="131" t="s">
         <v>320</v>
@@ -10633,7 +10633,7 @@
       </c>
       <c r="P183" s="49"/>
     </row>
-    <row r="184" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="88">
         <v>172</v>
       </c>
@@ -10647,7 +10647,7 @@
         <v>321</v>
       </c>
       <c r="E184" s="104" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F184" s="131" t="s">
         <v>322</v>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="P184" s="49"/>
     </row>
-    <row r="185" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="88">
         <v>173</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>323</v>
       </c>
       <c r="E185" s="104" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F185" s="131" t="s">
         <v>322</v>
@@ -10709,7 +10709,7 @@
       </c>
       <c r="P185" s="49"/>
     </row>
-    <row r="186" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="88">
         <v>174</v>
       </c>
@@ -10723,7 +10723,7 @@
         <v>324</v>
       </c>
       <c r="E186" s="104" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F186" s="131" t="s">
         <v>325</v>
@@ -10747,7 +10747,7 @@
       </c>
       <c r="P186" s="49"/>
     </row>
-    <row r="187" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="88">
         <v>175</v>
       </c>
@@ -10761,7 +10761,7 @@
         <v>326</v>
       </c>
       <c r="E187" s="104" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F187" s="131" t="s">
         <v>327</v>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="P187" s="49"/>
     </row>
-    <row r="188" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="88">
         <v>176</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>328</v>
       </c>
       <c r="E188" s="104" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F188" s="131" t="s">
         <v>327</v>
@@ -10823,7 +10823,7 @@
       </c>
       <c r="P188" s="49"/>
     </row>
-    <row r="189" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="88">
         <v>177</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>329</v>
       </c>
       <c r="E189" s="104" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F189" s="131" t="s">
         <v>330</v>
@@ -10861,7 +10861,7 @@
       </c>
       <c r="P189" s="49"/>
     </row>
-    <row r="190" spans="1:16" s="64" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" s="64" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="89">
         <v>178</v>
       </c>
@@ -10875,7 +10875,7 @@
         <v>331</v>
       </c>
       <c r="E190" s="113" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F190" s="143" t="s">
         <v>332</v>
@@ -10899,7 +10899,7 @@
       </c>
       <c r="P190" s="51"/>
     </row>
-    <row r="191" spans="1:16" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A191" s="88">
         <v>179</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>338</v>
       </c>
       <c r="E191" s="104" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F191" s="131" t="s">
         <v>339</v>
@@ -10939,7 +10939,7 @@
       </c>
       <c r="P191" s="49"/>
     </row>
-    <row r="192" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="88">
         <v>180</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>341</v>
       </c>
       <c r="E192" s="104" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F192" s="131" t="s">
         <v>387</v>
@@ -10977,7 +10977,7 @@
       </c>
       <c r="P192" s="49"/>
     </row>
-    <row r="193" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="88">
         <v>181</v>
       </c>
@@ -10991,7 +10991,7 @@
         <v>342</v>
       </c>
       <c r="E193" s="104" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F193" s="131" t="s">
         <v>387</v>
@@ -11015,7 +11015,7 @@
       </c>
       <c r="P193" s="49"/>
     </row>
-    <row r="194" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="88">
         <v>182</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>343</v>
       </c>
       <c r="E194" s="104" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F194" s="131" t="s">
         <v>388</v>
@@ -11053,7 +11053,7 @@
       </c>
       <c r="P194" s="49"/>
     </row>
-    <row r="195" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="88">
         <v>183</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>344</v>
       </c>
       <c r="E195" s="104" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F195" s="131" t="s">
         <v>389</v>
@@ -11091,7 +11091,7 @@
       </c>
       <c r="P195" s="49"/>
     </row>
-    <row r="196" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="88">
         <v>184</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>345</v>
       </c>
       <c r="E196" s="104" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F196" s="131" t="s">
         <v>390</v>
@@ -11129,7 +11129,7 @@
       </c>
       <c r="P196" s="49"/>
     </row>
-    <row r="197" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="88">
         <v>185</v>
       </c>
@@ -11143,7 +11143,7 @@
         <v>346</v>
       </c>
       <c r="E197" s="104" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F197" s="131" t="s">
         <v>390</v>
@@ -11167,7 +11167,7 @@
       </c>
       <c r="P197" s="49"/>
     </row>
-    <row r="198" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="88">
         <v>186</v>
       </c>
@@ -11181,7 +11181,7 @@
         <v>347</v>
       </c>
       <c r="E198" s="104" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F198" s="131" t="s">
         <v>391</v>
@@ -11205,7 +11205,7 @@
       </c>
       <c r="P198" s="49"/>
     </row>
-    <row r="199" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="88">
         <v>187</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>348</v>
       </c>
       <c r="E199" s="104" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F199" s="131" t="s">
         <v>392</v>
@@ -11243,7 +11243,7 @@
       </c>
       <c r="P199" s="49"/>
     </row>
-    <row r="200" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="88">
         <v>188</v>
       </c>
@@ -11257,7 +11257,7 @@
         <v>349</v>
       </c>
       <c r="E200" s="104" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F200" s="131" t="s">
         <v>392</v>
@@ -11281,7 +11281,7 @@
       </c>
       <c r="P200" s="49"/>
     </row>
-    <row r="201" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="88">
         <v>189</v>
       </c>
@@ -11295,7 +11295,7 @@
         <v>350</v>
       </c>
       <c r="E201" s="104" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F201" s="131" t="s">
         <v>393</v>
@@ -11319,7 +11319,7 @@
       </c>
       <c r="P201" s="49"/>
     </row>
-    <row r="202" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="88">
         <v>190</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>351</v>
       </c>
       <c r="E202" s="104" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F202" s="131" t="s">
         <v>394</v>
@@ -11357,7 +11357,7 @@
       </c>
       <c r="P202" s="49"/>
     </row>
-    <row r="203" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="88">
         <v>191</v>
       </c>
@@ -11371,7 +11371,7 @@
         <v>352</v>
       </c>
       <c r="E203" s="104" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F203" s="131" t="s">
         <v>394</v>
@@ -11395,7 +11395,7 @@
       </c>
       <c r="P203" s="49"/>
     </row>
-    <row r="204" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="88">
         <v>192</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>353</v>
       </c>
       <c r="E204" s="104" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F204" s="131" t="s">
         <v>395</v>
@@ -11433,7 +11433,7 @@
       </c>
       <c r="P204" s="49"/>
     </row>
-    <row r="205" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="88">
         <v>193</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>354</v>
       </c>
       <c r="E205" s="104" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F205" s="131" t="s">
         <v>396</v>
@@ -11471,7 +11471,7 @@
       </c>
       <c r="P205" s="49"/>
     </row>
-    <row r="206" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="88">
         <v>194</v>
       </c>
@@ -11485,7 +11485,7 @@
         <v>355</v>
       </c>
       <c r="E206" s="104" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F206" s="131" t="s">
         <v>396</v>
@@ -11509,7 +11509,7 @@
       </c>
       <c r="P206" s="49"/>
     </row>
-    <row r="207" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="88">
         <v>195</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>356</v>
       </c>
       <c r="E207" s="104" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F207" s="131" t="s">
         <v>397</v>
@@ -11547,7 +11547,7 @@
       </c>
       <c r="P207" s="49"/>
     </row>
-    <row r="208" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="88">
         <v>196</v>
       </c>
@@ -11561,7 +11561,7 @@
         <v>357</v>
       </c>
       <c r="E208" s="104" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F208" s="131" t="s">
         <v>398</v>
@@ -11585,7 +11585,7 @@
       </c>
       <c r="P208" s="49"/>
     </row>
-    <row r="209" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="88">
         <v>197</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>358</v>
       </c>
       <c r="E209" s="104" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F209" s="131" t="s">
         <v>398</v>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="P209" s="49"/>
     </row>
-    <row r="210" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="88">
         <v>198</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>359</v>
       </c>
       <c r="E210" s="104" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F210" s="131" t="s">
         <v>399</v>
@@ -11661,7 +11661,7 @@
       </c>
       <c r="P210" s="49"/>
     </row>
-    <row r="211" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="88">
         <v>199</v>
       </c>
@@ -11675,7 +11675,7 @@
         <v>360</v>
       </c>
       <c r="E211" s="104" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F211" s="131" t="s">
         <v>400</v>
@@ -11699,7 +11699,7 @@
       </c>
       <c r="P211" s="49"/>
     </row>
-    <row r="212" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="88">
         <v>200</v>
       </c>
@@ -11713,7 +11713,7 @@
         <v>361</v>
       </c>
       <c r="E212" s="104" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F212" s="131" t="s">
         <v>400</v>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="P212" s="49"/>
     </row>
-    <row r="213" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="88">
         <v>201</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>362</v>
       </c>
       <c r="E213" s="104" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F213" s="131" t="s">
         <v>401</v>
@@ -11775,7 +11775,7 @@
       </c>
       <c r="P213" s="49"/>
     </row>
-    <row r="214" spans="1:16" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A214" s="89">
         <v>202</v>
       </c>
@@ -11789,7 +11789,7 @@
         <v>363</v>
       </c>
       <c r="E214" s="113" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F214" s="143" t="s">
         <v>402</v>
@@ -11813,7 +11813,7 @@
       </c>
       <c r="P214" s="51"/>
     </row>
-    <row r="215" spans="1:16" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A215" s="88">
         <v>203</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>340</v>
       </c>
       <c r="E215" s="104" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F215" s="131" t="s">
         <v>333</v>
@@ -11853,7 +11853,7 @@
       </c>
       <c r="P215" s="49"/>
     </row>
-    <row r="216" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="88">
         <v>204</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>364</v>
       </c>
       <c r="E216" s="104" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F216" s="131" t="s">
         <v>403</v>
@@ -11891,7 +11891,7 @@
       </c>
       <c r="P216" s="49"/>
     </row>
-    <row r="217" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="88">
         <v>205</v>
       </c>
@@ -11905,7 +11905,7 @@
         <v>365</v>
       </c>
       <c r="E217" s="104" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F217" s="131" t="s">
         <v>403</v>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="P217" s="49"/>
     </row>
-    <row r="218" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="88">
         <v>206</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>366</v>
       </c>
       <c r="E218" s="104" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F218" s="131" t="s">
         <v>404</v>
@@ -11967,7 +11967,7 @@
       </c>
       <c r="P218" s="49"/>
     </row>
-    <row r="219" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="88">
         <v>207</v>
       </c>
@@ -11981,7 +11981,7 @@
         <v>367</v>
       </c>
       <c r="E219" s="104" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F219" s="131" t="s">
         <v>405</v>
@@ -12005,7 +12005,7 @@
       </c>
       <c r="P219" s="49"/>
     </row>
-    <row r="220" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="88">
         <v>208</v>
       </c>
@@ -12019,7 +12019,7 @@
         <v>368</v>
       </c>
       <c r="E220" s="104" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F220" s="131" t="s">
         <v>406</v>
@@ -12043,7 +12043,7 @@
       </c>
       <c r="P220" s="49"/>
     </row>
-    <row r="221" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="88">
         <v>209</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>369</v>
       </c>
       <c r="E221" s="104" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F221" s="131" t="s">
         <v>406</v>
@@ -12081,7 +12081,7 @@
       </c>
       <c r="P221" s="49"/>
     </row>
-    <row r="222" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="88">
         <v>210</v>
       </c>
@@ -12095,7 +12095,7 @@
         <v>370</v>
       </c>
       <c r="E222" s="104" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F222" s="131" t="s">
         <v>407</v>
@@ -12119,7 +12119,7 @@
       </c>
       <c r="P222" s="49"/>
     </row>
-    <row r="223" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="88">
         <v>211</v>
       </c>
@@ -12133,7 +12133,7 @@
         <v>371</v>
       </c>
       <c r="E223" s="104" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F223" s="131" t="s">
         <v>408</v>
@@ -12157,7 +12157,7 @@
       </c>
       <c r="P223" s="49"/>
     </row>
-    <row r="224" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="88">
         <v>212</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>372</v>
       </c>
       <c r="E224" s="104" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F224" s="131" t="s">
         <v>408</v>
@@ -12195,7 +12195,7 @@
       </c>
       <c r="P224" s="49"/>
     </row>
-    <row r="225" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="88">
         <v>213</v>
       </c>
@@ -12209,7 +12209,7 @@
         <v>373</v>
       </c>
       <c r="E225" s="104" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F225" s="131" t="s">
         <v>409</v>
@@ -12233,7 +12233,7 @@
       </c>
       <c r="P225" s="49"/>
     </row>
-    <row r="226" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="88">
         <v>214</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>374</v>
       </c>
       <c r="E226" s="104" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F226" s="131" t="s">
         <v>410</v>
@@ -12271,7 +12271,7 @@
       </c>
       <c r="P226" s="49"/>
     </row>
-    <row r="227" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="88">
         <v>215</v>
       </c>
@@ -12285,7 +12285,7 @@
         <v>375</v>
       </c>
       <c r="E227" s="104" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F227" s="131" t="s">
         <v>410</v>
@@ -12309,7 +12309,7 @@
       </c>
       <c r="P227" s="49"/>
     </row>
-    <row r="228" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="88">
         <v>216</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>376</v>
       </c>
       <c r="E228" s="104" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F228" s="131" t="s">
         <v>411</v>
@@ -12347,7 +12347,7 @@
       </c>
       <c r="P228" s="49"/>
     </row>
-    <row r="229" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="88">
         <v>217</v>
       </c>
@@ -12361,7 +12361,7 @@
         <v>377</v>
       </c>
       <c r="E229" s="104" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F229" s="131" t="s">
         <v>412</v>
@@ -12385,7 +12385,7 @@
       </c>
       <c r="P229" s="49"/>
     </row>
-    <row r="230" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="88">
         <v>218</v>
       </c>
@@ -12399,7 +12399,7 @@
         <v>378</v>
       </c>
       <c r="E230" s="104" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F230" s="131" t="s">
         <v>412</v>
@@ -12423,7 +12423,7 @@
       </c>
       <c r="P230" s="49"/>
     </row>
-    <row r="231" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="88">
         <v>219</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>379</v>
       </c>
       <c r="E231" s="104" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F231" s="131" t="s">
         <v>413</v>
@@ -12461,7 +12461,7 @@
       </c>
       <c r="P231" s="49"/>
     </row>
-    <row r="232" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="88">
         <v>220</v>
       </c>
@@ -12475,7 +12475,7 @@
         <v>380</v>
       </c>
       <c r="E232" s="104" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F232" s="131" t="s">
         <v>414</v>
@@ -12499,7 +12499,7 @@
       </c>
       <c r="P232" s="49"/>
     </row>
-    <row r="233" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="88">
         <v>221</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>381</v>
       </c>
       <c r="E233" s="104" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F233" s="131" t="s">
         <v>414</v>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="P233" s="49"/>
     </row>
-    <row r="234" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="88">
         <v>222</v>
       </c>
@@ -12551,7 +12551,7 @@
         <v>382</v>
       </c>
       <c r="E234" s="104" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F234" s="131" t="s">
         <v>415</v>
@@ -12575,7 +12575,7 @@
       </c>
       <c r="P234" s="49"/>
     </row>
-    <row r="235" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="88">
         <v>223</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>383</v>
       </c>
       <c r="E235" s="104" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F235" s="131" t="s">
         <v>416</v>
@@ -12613,7 +12613,7 @@
       </c>
       <c r="P235" s="49"/>
     </row>
-    <row r="236" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="88">
         <v>224</v>
       </c>
@@ -12627,7 +12627,7 @@
         <v>384</v>
       </c>
       <c r="E236" s="104" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F236" s="131" t="s">
         <v>416</v>
@@ -12651,7 +12651,7 @@
       </c>
       <c r="P236" s="49"/>
     </row>
-    <row r="237" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="88">
         <v>225</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>385</v>
       </c>
       <c r="E237" s="104" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F237" s="131" t="s">
         <v>417</v>
@@ -12689,7 +12689,7 @@
       </c>
       <c r="P237" s="49"/>
     </row>
-    <row r="238" spans="1:16" s="13" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:16" s="13" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A238" s="90">
         <v>226</v>
       </c>
@@ -12703,7 +12703,7 @@
         <v>386</v>
       </c>
       <c r="E238" s="114" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F238" s="144" t="s">
         <v>418</v>

--- a/dataland-framework-toolbox/inputs/eu-taxonomy-financials/eu-taxonomy-financials.xlsx
+++ b/dataland-framework-toolbox/inputs/eu-taxonomy-financials/eu-taxonomy-financials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d93542\Dataland\dataland-framework-toolbox\inputs\eu-taxonomy-financials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d93545\Desktop\Dataland\Dataland\dataland-framework-toolbox\inputs\eu-taxonomy-financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5128F844-C87B-4590-A7AD-F78B0FAE5EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51E76A9-3BAE-48AC-9D23-BFEACEA4D2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5145" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50865" yWindow="4920" windowWidth="28800" windowHeight="15225" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework Data Model" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="697">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -3662,8 +3662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3973,7 +3973,9 @@
         <v>14</v>
       </c>
       <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
+      <c r="J8" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
       <c r="M8" s="3"/>
